--- a/doc/开发计划V0.1.xlsx
+++ b/doc/开发计划V0.1.xlsx
@@ -840,13 +840,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -858,25 +877,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1254,8 +1254,8 @@
   <dimension ref="A1:K149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D155" sqref="D155"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F126" sqref="F126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1386,10 +1386,10 @@
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="30" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -1405,8 +1405,8 @@
       <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="33"/>
-      <c r="B9" s="26"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="9" t="s">
         <v>14</v>
       </c>
@@ -1420,8 +1420,8 @@
       <c r="K9" s="9"/>
     </row>
     <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="33"/>
-      <c r="B10" s="26"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="9" t="s">
         <v>15</v>
       </c>
@@ -1435,8 +1435,8 @@
       <c r="K10" s="9"/>
     </row>
     <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="33"/>
-      <c r="B11" s="26"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="9" t="s">
         <v>16</v>
       </c>
@@ -1450,8 +1450,8 @@
       <c r="K11" s="9"/>
     </row>
     <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="33"/>
-      <c r="B12" s="27"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="9" t="s">
         <v>17</v>
       </c>
@@ -1465,8 +1465,8 @@
       <c r="K12" s="9"/>
     </row>
     <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="33"/>
-      <c r="B13" s="25" t="s">
+      <c r="A13" s="28"/>
+      <c r="B13" s="30" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -1482,8 +1482,8 @@
       <c r="K13" s="9"/>
     </row>
     <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="33"/>
-      <c r="B14" s="26"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="9" t="s">
         <v>14</v>
       </c>
@@ -1497,8 +1497,8 @@
       <c r="K14" s="9"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="33"/>
-      <c r="B15" s="26"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="34"/>
       <c r="C15" s="9" t="s">
         <v>15</v>
       </c>
@@ -1512,8 +1512,8 @@
       <c r="K15" s="9"/>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="33"/>
-      <c r="B16" s="27"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="9" t="s">
         <v>16</v>
       </c>
@@ -1527,8 +1527,8 @@
       <c r="K16" s="9"/>
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="33"/>
-      <c r="B17" s="25" t="s">
+      <c r="A17" s="28"/>
+      <c r="B17" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="9" t="s">
@@ -1544,8 +1544,8 @@
       <c r="K17" s="9"/>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="33"/>
-      <c r="B18" s="26"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="9" t="s">
         <v>14</v>
       </c>
@@ -1559,8 +1559,8 @@
       <c r="K18" s="9"/>
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="33"/>
-      <c r="B19" s="26"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="9" t="s">
         <v>15</v>
       </c>
@@ -1574,8 +1574,8 @@
       <c r="K19" s="9"/>
     </row>
     <row r="20" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="33"/>
-      <c r="B20" s="26"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="9" t="s">
         <v>16</v>
       </c>
@@ -1589,9 +1589,9 @@
       <c r="K20" s="9"/>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="33"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="25" t="s">
+      <c r="A21" s="28"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="9" t="s">
@@ -1606,9 +1606,9 @@
       <c r="K21" s="9"/>
     </row>
     <row r="22" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="33"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="9" t="s">
         <v>20</v>
       </c>
@@ -1621,8 +1621,8 @@
       <c r="K22" s="9"/>
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="33"/>
-      <c r="B23" s="25" t="s">
+      <c r="A23" s="28"/>
+      <c r="B23" s="30" t="s">
         <v>151</v>
       </c>
       <c r="C23" s="9" t="s">
@@ -1638,8 +1638,8 @@
       <c r="K23" s="9"/>
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="33"/>
-      <c r="B24" s="26"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="9" t="s">
         <v>14</v>
       </c>
@@ -1653,8 +1653,8 @@
       <c r="K24" s="9"/>
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="33"/>
-      <c r="B25" s="26"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="34"/>
       <c r="C25" s="9" t="s">
         <v>15</v>
       </c>
@@ -1668,8 +1668,8 @@
       <c r="K25" s="9"/>
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="33"/>
-      <c r="B26" s="26"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="34"/>
       <c r="C26" s="9" t="s">
         <v>16</v>
       </c>
@@ -1683,8 +1683,8 @@
       <c r="K26" s="9"/>
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="33"/>
-      <c r="B27" s="27"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="9" t="s">
         <v>152</v>
       </c>
@@ -1698,8 +1698,8 @@
       <c r="K27" s="9"/>
     </row>
     <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="33"/>
-      <c r="B28" s="25" t="s">
+      <c r="A28" s="28"/>
+      <c r="B28" s="30" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="9" t="s">
@@ -1715,8 +1715,8 @@
       <c r="K28" s="9"/>
     </row>
     <row r="29" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="33"/>
-      <c r="B29" s="26"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="34"/>
       <c r="C29" s="9" t="s">
         <v>14</v>
       </c>
@@ -1730,8 +1730,8 @@
       <c r="K29" s="9"/>
     </row>
     <row r="30" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="33"/>
-      <c r="B30" s="26"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="34"/>
       <c r="C30" s="9" t="s">
         <v>15</v>
       </c>
@@ -1745,8 +1745,8 @@
       <c r="K30" s="9"/>
     </row>
     <row r="31" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="33"/>
-      <c r="B31" s="27"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="9" t="s">
         <v>16</v>
       </c>
@@ -1760,8 +1760,8 @@
       <c r="K31" s="9"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A32" s="33"/>
-      <c r="B32" s="25" t="s">
+      <c r="A32" s="28"/>
+      <c r="B32" s="30" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="9" t="s">
@@ -1777,8 +1777,8 @@
       <c r="K32" s="9"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A33" s="33"/>
-      <c r="B33" s="26"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="34"/>
       <c r="C33" s="9" t="s">
         <v>14</v>
       </c>
@@ -1792,8 +1792,8 @@
       <c r="K33" s="9"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="33"/>
-      <c r="B34" s="26"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="34"/>
       <c r="C34" s="9" t="s">
         <v>15</v>
       </c>
@@ -1807,8 +1807,8 @@
       <c r="K34" s="9"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" s="33"/>
-      <c r="B35" s="27"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="31"/>
       <c r="C35" s="9" t="s">
         <v>16</v>
       </c>
@@ -1822,8 +1822,8 @@
       <c r="K35" s="9"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A36" s="33"/>
-      <c r="B36" s="25" t="s">
+      <c r="A36" s="28"/>
+      <c r="B36" s="30" t="s">
         <v>153</v>
       </c>
       <c r="C36" s="9" t="s">
@@ -1839,8 +1839,8 @@
       <c r="K36" s="9"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A37" s="33"/>
-      <c r="B37" s="26"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="34"/>
       <c r="C37" s="9" t="s">
         <v>14</v>
       </c>
@@ -1854,8 +1854,8 @@
       <c r="K37" s="9"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A38" s="33"/>
-      <c r="B38" s="26"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="34"/>
       <c r="C38" s="9" t="s">
         <v>15</v>
       </c>
@@ -1869,8 +1869,8 @@
       <c r="K38" s="9"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A39" s="33"/>
-      <c r="B39" s="27"/>
+      <c r="A39" s="28"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="9" t="s">
         <v>16</v>
       </c>
@@ -1884,7 +1884,7 @@
       <c r="K39" s="9"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A40" s="33"/>
+      <c r="A40" s="28"/>
       <c r="B40" s="8" t="s">
         <v>77</v>
       </c>
@@ -1901,7 +1901,7 @@
       <c r="K40" s="9"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A41" s="33"/>
+      <c r="A41" s="28"/>
       <c r="B41" s="12" t="s">
         <v>131</v>
       </c>
@@ -1920,7 +1920,7 @@
       <c r="K41" s="9"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A42" s="33"/>
+      <c r="A42" s="28"/>
       <c r="B42" s="8" t="s">
         <v>132</v>
       </c>
@@ -1937,7 +1937,7 @@
       <c r="K42" s="9"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A43" s="33"/>
+      <c r="A43" s="28"/>
       <c r="B43" s="8" t="s">
         <v>134</v>
       </c>
@@ -1954,7 +1954,7 @@
       <c r="K43" s="9"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A44" s="33"/>
+      <c r="A44" s="28"/>
       <c r="B44" s="8" t="s">
         <v>154</v>
       </c>
@@ -1971,7 +1971,7 @@
       <c r="K44" s="9"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A45" s="33"/>
+      <c r="A45" s="28"/>
       <c r="B45" s="8" t="s">
         <v>37</v>
       </c>
@@ -1986,7 +1986,7 @@
       <c r="K45" s="9"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A46" s="33"/>
+      <c r="A46" s="28"/>
       <c r="B46" s="12"/>
       <c r="C46" s="14"/>
       <c r="D46" s="9"/>
@@ -1999,8 +1999,8 @@
       <c r="K46" s="9"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A47" s="33"/>
-      <c r="B47" s="25" t="s">
+      <c r="A47" s="28"/>
+      <c r="B47" s="30" t="s">
         <v>74</v>
       </c>
       <c r="C47" s="8" t="s">
@@ -2018,9 +2018,9 @@
       <c r="K47" s="9"/>
     </row>
     <row r="48" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="33"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="28" t="s">
+      <c r="A48" s="28"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="35" t="s">
         <v>139</v>
       </c>
       <c r="D48" s="15" t="s">
@@ -2035,9 +2035,9 @@
       <c r="K48" s="9"/>
     </row>
     <row r="49" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="33"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="29"/>
+      <c r="A49" s="28"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="36"/>
       <c r="D49" s="15" t="s">
         <v>140</v>
       </c>
@@ -2050,9 +2050,9 @@
       <c r="K49" s="9"/>
     </row>
     <row r="50" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="33"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="29"/>
+      <c r="A50" s="28"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="36"/>
       <c r="D50" s="16" t="s">
         <v>75</v>
       </c>
@@ -2065,9 +2065,9 @@
       <c r="K50" s="9"/>
     </row>
     <row r="51" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="33"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="29"/>
+      <c r="A51" s="28"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="36"/>
       <c r="D51" s="16" t="s">
         <v>76</v>
       </c>
@@ -2080,9 +2080,9 @@
       <c r="K51" s="9"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="33"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="30"/>
+      <c r="A52" s="28"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="37"/>
       <c r="D52" s="16" t="s">
         <v>81</v>
       </c>
@@ -2097,8 +2097,8 @@
       <c r="K52" s="9"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A53" s="33"/>
-      <c r="B53" s="25" t="s">
+      <c r="A53" s="28"/>
+      <c r="B53" s="30" t="s">
         <v>78</v>
       </c>
       <c r="C53" s="16" t="s">
@@ -2114,8 +2114,8 @@
       <c r="K53" s="9"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A54" s="33"/>
-      <c r="B54" s="26"/>
+      <c r="A54" s="28"/>
+      <c r="B54" s="34"/>
       <c r="C54" s="16" t="s">
         <v>80</v>
       </c>
@@ -2131,8 +2131,8 @@
       <c r="K54" s="9"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A55" s="33"/>
-      <c r="B55" s="27"/>
+      <c r="A55" s="28"/>
+      <c r="B55" s="31"/>
       <c r="C55" s="16" t="s">
         <v>59</v>
       </c>
@@ -2146,8 +2146,8 @@
       <c r="K55" s="9"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A56" s="33"/>
-      <c r="B56" s="25" t="s">
+      <c r="A56" s="28"/>
+      <c r="B56" s="30" t="s">
         <v>141</v>
       </c>
       <c r="C56" s="16" t="s">
@@ -2163,8 +2163,8 @@
       <c r="K56" s="9"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A57" s="33"/>
-      <c r="B57" s="27"/>
+      <c r="A57" s="28"/>
+      <c r="B57" s="31"/>
       <c r="C57" s="16" t="s">
         <v>85</v>
       </c>
@@ -2178,8 +2178,8 @@
       <c r="K57" s="9"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A58" s="33"/>
-      <c r="B58" s="25" t="s">
+      <c r="A58" s="28"/>
+      <c r="B58" s="30" t="s">
         <v>142</v>
       </c>
       <c r="C58" s="16" t="s">
@@ -2195,8 +2195,8 @@
       <c r="K58" s="9"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A59" s="33"/>
-      <c r="B59" s="27"/>
+      <c r="A59" s="28"/>
+      <c r="B59" s="31"/>
       <c r="C59" s="16" t="s">
         <v>83</v>
       </c>
@@ -2210,8 +2210,8 @@
       <c r="K59" s="9"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A60" s="33"/>
-      <c r="B60" s="25" t="s">
+      <c r="A60" s="28"/>
+      <c r="B60" s="30" t="s">
         <v>86</v>
       </c>
       <c r="C60" s="9" t="s">
@@ -2227,8 +2227,8 @@
       <c r="K60" s="9"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A61" s="33"/>
-      <c r="B61" s="26"/>
+      <c r="A61" s="28"/>
+      <c r="B61" s="34"/>
       <c r="C61" s="9" t="s">
         <v>14</v>
       </c>
@@ -2242,8 +2242,8 @@
       <c r="K61" s="9"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A62" s="33"/>
-      <c r="B62" s="26"/>
+      <c r="A62" s="28"/>
+      <c r="B62" s="34"/>
       <c r="C62" s="9" t="s">
         <v>15</v>
       </c>
@@ -2257,8 +2257,8 @@
       <c r="K62" s="9"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A63" s="33"/>
-      <c r="B63" s="27"/>
+      <c r="A63" s="28"/>
+      <c r="B63" s="31"/>
       <c r="C63" s="9" t="s">
         <v>16</v>
       </c>
@@ -2272,7 +2272,7 @@
       <c r="K63" s="9"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A64" s="33"/>
+      <c r="A64" s="28"/>
       <c r="B64" s="8" t="s">
         <v>89</v>
       </c>
@@ -2289,8 +2289,8 @@
       <c r="K64" s="9"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A65" s="33"/>
-      <c r="B65" s="25" t="s">
+      <c r="A65" s="28"/>
+      <c r="B65" s="30" t="s">
         <v>155</v>
       </c>
       <c r="C65" s="9" t="s">
@@ -2306,8 +2306,8 @@
       <c r="K65" s="9"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A66" s="33"/>
-      <c r="B66" s="26"/>
+      <c r="A66" s="28"/>
+      <c r="B66" s="34"/>
       <c r="C66" s="9" t="s">
         <v>14</v>
       </c>
@@ -2321,8 +2321,8 @@
       <c r="K66" s="9"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A67" s="33"/>
-      <c r="B67" s="26"/>
+      <c r="A67" s="28"/>
+      <c r="B67" s="34"/>
       <c r="C67" s="9" t="s">
         <v>15</v>
       </c>
@@ -2336,8 +2336,8 @@
       <c r="K67" s="9"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A68" s="33"/>
-      <c r="B68" s="27"/>
+      <c r="A68" s="28"/>
+      <c r="B68" s="31"/>
       <c r="C68" s="9" t="s">
         <v>16</v>
       </c>
@@ -2351,8 +2351,8 @@
       <c r="K68" s="9"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A69" s="33"/>
-      <c r="B69" s="25" t="s">
+      <c r="A69" s="28"/>
+      <c r="B69" s="30" t="s">
         <v>156</v>
       </c>
       <c r="C69" s="9" t="s">
@@ -2368,8 +2368,8 @@
       <c r="K69" s="9"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A70" s="33"/>
-      <c r="B70" s="27"/>
+      <c r="A70" s="28"/>
+      <c r="B70" s="31"/>
       <c r="C70" s="15" t="s">
         <v>90</v>
       </c>
@@ -2383,7 +2383,7 @@
       <c r="K70" s="9"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A71" s="34"/>
+      <c r="A71" s="29"/>
       <c r="B71" s="13" t="s">
         <v>158</v>
       </c>
@@ -2413,10 +2413,10 @@
       <c r="K72" s="9"/>
     </row>
     <row r="73" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="35" t="s">
+      <c r="A73" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B73" s="31" t="s">
+      <c r="B73" s="32" t="s">
         <v>23</v>
       </c>
       <c r="C73" s="9" t="s">
@@ -2432,8 +2432,8 @@
       <c r="K73" s="9"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A74" s="35"/>
-      <c r="B74" s="31"/>
+      <c r="A74" s="33"/>
+      <c r="B74" s="32"/>
       <c r="C74" s="9" t="s">
         <v>25</v>
       </c>
@@ -2447,8 +2447,8 @@
       <c r="K74" s="9"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A75" s="35"/>
-      <c r="B75" s="31"/>
+      <c r="A75" s="33"/>
+      <c r="B75" s="32"/>
       <c r="C75" s="9" t="s">
         <v>26</v>
       </c>
@@ -2462,8 +2462,8 @@
       <c r="K75" s="9"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A76" s="35"/>
-      <c r="B76" s="31"/>
+      <c r="A76" s="33"/>
+      <c r="B76" s="32"/>
       <c r="C76" s="19" t="s">
         <v>87</v>
       </c>
@@ -2479,11 +2479,11 @@
       <c r="K76" s="9"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A77" s="35"/>
-      <c r="B77" s="31" t="s">
+      <c r="A77" s="33"/>
+      <c r="B77" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C77" s="25" t="s">
+      <c r="C77" s="30" t="s">
         <v>28</v>
       </c>
       <c r="D77" s="9" t="s">
@@ -2498,10 +2498,10 @@
       <c r="K77" s="9"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A78" s="35"/>
-      <c r="B78" s="31"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="25" t="s">
+      <c r="A78" s="33"/>
+      <c r="B78" s="32"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="30" t="s">
         <v>30</v>
       </c>
       <c r="E78" s="16" t="s">
@@ -2515,10 +2515,10 @@
       <c r="K78" s="9"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A79" s="35"/>
-      <c r="B79" s="31"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="27"/>
+      <c r="A79" s="33"/>
+      <c r="B79" s="32"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="31"/>
       <c r="E79" s="16" t="s">
         <v>83</v>
       </c>
@@ -2530,8 +2530,8 @@
       <c r="K79" s="9"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A80" s="35"/>
-      <c r="B80" s="31"/>
+      <c r="A80" s="33"/>
+      <c r="B80" s="32"/>
       <c r="C80" s="9" t="s">
         <v>31</v>
       </c>
@@ -2545,12 +2545,12 @@
       <c r="K80" s="9"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A81" s="35"/>
-      <c r="B81" s="31"/>
-      <c r="C81" s="25" t="s">
+      <c r="A81" s="33"/>
+      <c r="B81" s="32"/>
+      <c r="C81" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="D81" s="25" t="s">
+      <c r="D81" s="30" t="s">
         <v>94</v>
       </c>
       <c r="E81" s="9" t="s">
@@ -2564,10 +2564,10 @@
       <c r="K81" s="9"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A82" s="35"/>
-      <c r="B82" s="31"/>
-      <c r="C82" s="26"/>
-      <c r="D82" s="27"/>
+      <c r="A82" s="33"/>
+      <c r="B82" s="32"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="31"/>
       <c r="E82" s="9" t="s">
         <v>35</v>
       </c>
@@ -2579,9 +2579,9 @@
       <c r="K82" s="9"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A83" s="35"/>
-      <c r="B83" s="31"/>
-      <c r="C83" s="26"/>
+      <c r="A83" s="33"/>
+      <c r="B83" s="32"/>
+      <c r="C83" s="34"/>
       <c r="D83" s="9" t="s">
         <v>32</v>
       </c>
@@ -2596,9 +2596,9 @@
       <c r="K83" s="9"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A84" s="35"/>
-      <c r="B84" s="31"/>
-      <c r="C84" s="27"/>
+      <c r="A84" s="33"/>
+      <c r="B84" s="32"/>
+      <c r="C84" s="31"/>
       <c r="D84" s="9" t="s">
         <v>33</v>
       </c>
@@ -2613,11 +2613,11 @@
       <c r="K84" s="9"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A85" s="35"/>
-      <c r="B85" s="31" t="s">
+      <c r="A85" s="33"/>
+      <c r="B85" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="C85" s="25" t="s">
+      <c r="C85" s="30" t="s">
         <v>38</v>
       </c>
       <c r="D85" s="9" t="s">
@@ -2632,9 +2632,9 @@
       <c r="K85" s="9"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A86" s="35"/>
-      <c r="B86" s="31"/>
-      <c r="C86" s="26"/>
+      <c r="A86" s="33"/>
+      <c r="B86" s="32"/>
+      <c r="C86" s="34"/>
       <c r="D86" s="9" t="s">
         <v>14</v>
       </c>
@@ -2647,9 +2647,9 @@
       <c r="K86" s="9"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A87" s="35"/>
-      <c r="B87" s="31"/>
-      <c r="C87" s="26"/>
+      <c r="A87" s="33"/>
+      <c r="B87" s="32"/>
+      <c r="C87" s="34"/>
       <c r="D87" s="9" t="s">
         <v>15</v>
       </c>
@@ -2662,9 +2662,9 @@
       <c r="K87" s="9"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A88" s="35"/>
-      <c r="B88" s="31"/>
-      <c r="C88" s="27"/>
+      <c r="A88" s="33"/>
+      <c r="B88" s="32"/>
+      <c r="C88" s="31"/>
       <c r="D88" s="9" t="s">
         <v>16</v>
       </c>
@@ -2677,9 +2677,9 @@
       <c r="K88" s="9"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A89" s="35"/>
-      <c r="B89" s="31"/>
-      <c r="C89" s="25" t="s">
+      <c r="A89" s="33"/>
+      <c r="B89" s="32"/>
+      <c r="C89" s="30" t="s">
         <v>93</v>
       </c>
       <c r="D89" s="9" t="s">
@@ -2694,9 +2694,9 @@
       <c r="K89" s="9"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A90" s="35"/>
-      <c r="B90" s="31"/>
-      <c r="C90" s="26"/>
+      <c r="A90" s="33"/>
+      <c r="B90" s="32"/>
+      <c r="C90" s="34"/>
       <c r="D90" s="9" t="s">
         <v>14</v>
       </c>
@@ -2709,9 +2709,9 @@
       <c r="K90" s="9"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A91" s="35"/>
-      <c r="B91" s="31"/>
-      <c r="C91" s="26"/>
+      <c r="A91" s="33"/>
+      <c r="B91" s="32"/>
+      <c r="C91" s="34"/>
       <c r="D91" s="9" t="s">
         <v>15</v>
       </c>
@@ -2724,9 +2724,9 @@
       <c r="K91" s="9"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A92" s="35"/>
-      <c r="B92" s="31"/>
-      <c r="C92" s="26"/>
+      <c r="A92" s="33"/>
+      <c r="B92" s="32"/>
+      <c r="C92" s="34"/>
       <c r="D92" s="9" t="s">
         <v>16</v>
       </c>
@@ -2739,10 +2739,10 @@
       <c r="K92" s="9"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A93" s="35"/>
-      <c r="B93" s="31"/>
-      <c r="C93" s="26"/>
-      <c r="D93" s="25" t="s">
+      <c r="A93" s="33"/>
+      <c r="B93" s="32"/>
+      <c r="C93" s="34"/>
+      <c r="D93" s="30" t="s">
         <v>148</v>
       </c>
       <c r="E93" s="9" t="s">
@@ -2756,10 +2756,10 @@
       <c r="K93" s="9"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A94" s="35"/>
-      <c r="B94" s="31"/>
-      <c r="C94" s="26"/>
-      <c r="D94" s="26"/>
+      <c r="A94" s="33"/>
+      <c r="B94" s="32"/>
+      <c r="C94" s="34"/>
+      <c r="D94" s="34"/>
       <c r="E94" s="9" t="s">
         <v>42</v>
       </c>
@@ -2771,10 +2771,10 @@
       <c r="K94" s="9"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A95" s="35"/>
-      <c r="B95" s="31"/>
-      <c r="C95" s="26"/>
-      <c r="D95" s="26"/>
+      <c r="A95" s="33"/>
+      <c r="B95" s="32"/>
+      <c r="C95" s="34"/>
+      <c r="D95" s="34"/>
       <c r="E95" s="9" t="s">
         <v>43</v>
       </c>
@@ -2786,11 +2786,11 @@
       <c r="K95" s="9"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="35"/>
-      <c r="B96" s="31"/>
-      <c r="C96" s="26"/>
-      <c r="D96" s="26"/>
-      <c r="E96" s="37" t="s">
+      <c r="A96" s="33"/>
+      <c r="B96" s="32"/>
+      <c r="C96" s="34"/>
+      <c r="D96" s="34"/>
+      <c r="E96" s="26" t="s">
         <v>108</v>
       </c>
       <c r="F96" s="2" t="s">
@@ -2803,14 +2803,14 @@
       <c r="K96" s="9"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="35"/>
-      <c r="B97" s="31"/>
-      <c r="C97" s="26"/>
-      <c r="D97" s="27"/>
-      <c r="E97" s="37" t="s">
+      <c r="A97" s="33"/>
+      <c r="B97" s="32"/>
+      <c r="C97" s="34"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="F97" s="36" t="s">
+      <c r="F97" s="25" t="s">
         <v>118</v>
       </c>
       <c r="G97" s="9"/>
@@ -2820,9 +2820,9 @@
       <c r="K97" s="9"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A98" s="35"/>
-      <c r="B98" s="31"/>
-      <c r="C98" s="26"/>
+      <c r="A98" s="33"/>
+      <c r="B98" s="32"/>
+      <c r="C98" s="34"/>
       <c r="D98" s="9" t="s">
         <v>95</v>
       </c>
@@ -2835,9 +2835,9 @@
       <c r="K98" s="9"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A99" s="35"/>
-      <c r="B99" s="31"/>
-      <c r="C99" s="26"/>
+      <c r="A99" s="33"/>
+      <c r="B99" s="32"/>
+      <c r="C99" s="34"/>
       <c r="D99" s="19" t="s">
         <v>97</v>
       </c>
@@ -2850,9 +2850,9 @@
       <c r="K99" s="9"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A100" s="35"/>
-      <c r="B100" s="31"/>
-      <c r="C100" s="26"/>
+      <c r="A100" s="33"/>
+      <c r="B100" s="32"/>
+      <c r="C100" s="34"/>
       <c r="D100" s="19" t="s">
         <v>98</v>
       </c>
@@ -2866,9 +2866,9 @@
       <c r="K100" s="9"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A101" s="35"/>
-      <c r="B101" s="31"/>
-      <c r="C101" s="26"/>
+      <c r="A101" s="33"/>
+      <c r="B101" s="32"/>
+      <c r="C101" s="34"/>
       <c r="D101" s="19" t="s">
         <v>100</v>
       </c>
@@ -2882,9 +2882,9 @@
       <c r="K101" s="9"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A102" s="35"/>
-      <c r="B102" s="31"/>
-      <c r="C102" s="26"/>
+      <c r="A102" s="33"/>
+      <c r="B102" s="32"/>
+      <c r="C102" s="34"/>
       <c r="D102" s="19" t="s">
         <v>102</v>
       </c>
@@ -2898,9 +2898,9 @@
       <c r="K102" s="9"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A103" s="35"/>
-      <c r="B103" s="31"/>
-      <c r="C103" s="26"/>
+      <c r="A103" s="33"/>
+      <c r="B103" s="32"/>
+      <c r="C103" s="34"/>
       <c r="D103" s="19" t="s">
         <v>104</v>
       </c>
@@ -2915,9 +2915,9 @@
       <c r="K103" s="9"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A104" s="35"/>
-      <c r="B104" s="31"/>
-      <c r="C104" s="26"/>
+      <c r="A104" s="33"/>
+      <c r="B104" s="32"/>
+      <c r="C104" s="34"/>
       <c r="D104" s="19" t="s">
         <v>46</v>
       </c>
@@ -2932,9 +2932,9 @@
       <c r="K104" s="9"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A105" s="35"/>
-      <c r="B105" s="31"/>
-      <c r="C105" s="26"/>
+      <c r="A105" s="33"/>
+      <c r="B105" s="32"/>
+      <c r="C105" s="34"/>
       <c r="D105" s="19" t="s">
         <v>48</v>
       </c>
@@ -2949,9 +2949,9 @@
       <c r="K105" s="9"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A106" s="35"/>
-      <c r="B106" s="31"/>
-      <c r="C106" s="26"/>
+      <c r="A106" s="33"/>
+      <c r="B106" s="32"/>
+      <c r="C106" s="34"/>
       <c r="D106" s="19" t="s">
         <v>111</v>
       </c>
@@ -2966,9 +2966,9 @@
       <c r="K106" s="9"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A107" s="35"/>
-      <c r="B107" s="31"/>
-      <c r="C107" s="26"/>
+      <c r="A107" s="33"/>
+      <c r="B107" s="32"/>
+      <c r="C107" s="34"/>
       <c r="D107" s="19" t="s">
         <v>112</v>
       </c>
@@ -2983,9 +2983,9 @@
       <c r="K107" s="9"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A108" s="35"/>
-      <c r="B108" s="31"/>
-      <c r="C108" s="26"/>
+      <c r="A108" s="33"/>
+      <c r="B108" s="32"/>
+      <c r="C108" s="34"/>
       <c r="D108" s="19" t="s">
         <v>114</v>
       </c>
@@ -3000,9 +3000,9 @@
       <c r="K108" s="9"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A109" s="35"/>
-      <c r="B109" s="31"/>
-      <c r="C109" s="26"/>
+      <c r="A109" s="33"/>
+      <c r="B109" s="32"/>
+      <c r="C109" s="34"/>
       <c r="D109" s="19" t="s">
         <v>116</v>
       </c>
@@ -3017,9 +3017,9 @@
       <c r="K109" s="9"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A110" s="35"/>
-      <c r="B110" s="31"/>
-      <c r="C110" s="26"/>
+      <c r="A110" s="33"/>
+      <c r="B110" s="32"/>
+      <c r="C110" s="34"/>
       <c r="D110" s="19" t="s">
         <v>119</v>
       </c>
@@ -3034,9 +3034,9 @@
       <c r="K110" s="9"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A111" s="35"/>
-      <c r="B111" s="31"/>
-      <c r="C111" s="26"/>
+      <c r="A111" s="33"/>
+      <c r="B111" s="32"/>
+      <c r="C111" s="34"/>
       <c r="D111" s="19" t="s">
         <v>121</v>
       </c>
@@ -3051,9 +3051,9 @@
       <c r="K111" s="9"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A112" s="35"/>
-      <c r="B112" s="31"/>
-      <c r="C112" s="26"/>
+      <c r="A112" s="33"/>
+      <c r="B112" s="32"/>
+      <c r="C112" s="34"/>
       <c r="D112" s="19" t="s">
         <v>123</v>
       </c>
@@ -3068,9 +3068,9 @@
       <c r="K112" s="9"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A113" s="35"/>
-      <c r="B113" s="31"/>
-      <c r="C113" s="26"/>
+      <c r="A113" s="33"/>
+      <c r="B113" s="32"/>
+      <c r="C113" s="34"/>
       <c r="D113" s="19" t="s">
         <v>125</v>
       </c>
@@ -3085,10 +3085,10 @@
       <c r="K113" s="9"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A114" s="35"/>
-      <c r="B114" s="31"/>
-      <c r="C114" s="26"/>
-      <c r="D114" s="25" t="s">
+      <c r="A114" s="33"/>
+      <c r="B114" s="32"/>
+      <c r="C114" s="34"/>
+      <c r="D114" s="30" t="s">
         <v>40</v>
       </c>
       <c r="E114" s="9" t="s">
@@ -3102,10 +3102,10 @@
       <c r="K114" s="9"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A115" s="35"/>
-      <c r="B115" s="31"/>
-      <c r="C115" s="26"/>
-      <c r="D115" s="26"/>
+      <c r="A115" s="33"/>
+      <c r="B115" s="32"/>
+      <c r="C115" s="34"/>
+      <c r="D115" s="34"/>
       <c r="E115" s="9" t="s">
         <v>47</v>
       </c>
@@ -3117,10 +3117,10 @@
       <c r="K115" s="9"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A116" s="35"/>
-      <c r="B116" s="31"/>
-      <c r="C116" s="26"/>
-      <c r="D116" s="26"/>
+      <c r="A116" s="33"/>
+      <c r="B116" s="32"/>
+      <c r="C116" s="34"/>
+      <c r="D116" s="34"/>
       <c r="E116" s="9" t="s">
         <v>45</v>
       </c>
@@ -3132,10 +3132,10 @@
       <c r="K116" s="9"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A117" s="35"/>
-      <c r="B117" s="31"/>
-      <c r="C117" s="26"/>
-      <c r="D117" s="26"/>
+      <c r="A117" s="33"/>
+      <c r="B117" s="32"/>
+      <c r="C117" s="34"/>
+      <c r="D117" s="34"/>
       <c r="E117" s="9" t="s">
         <v>46</v>
       </c>
@@ -3149,10 +3149,10 @@
       <c r="K117" s="9"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A118" s="35"/>
-      <c r="B118" s="31"/>
-      <c r="C118" s="26"/>
-      <c r="D118" s="26"/>
+      <c r="A118" s="33"/>
+      <c r="B118" s="32"/>
+      <c r="C118" s="34"/>
+      <c r="D118" s="34"/>
       <c r="E118" s="9" t="s">
         <v>48</v>
       </c>
@@ -3166,10 +3166,10 @@
       <c r="K118" s="9"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A119" s="35"/>
-      <c r="B119" s="31"/>
-      <c r="C119" s="26"/>
-      <c r="D119" s="27"/>
+      <c r="A119" s="33"/>
+      <c r="B119" s="32"/>
+      <c r="C119" s="34"/>
+      <c r="D119" s="31"/>
       <c r="E119" s="9" t="s">
         <v>49</v>
       </c>
@@ -3181,10 +3181,10 @@
       <c r="K119" s="9"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A120" s="35"/>
-      <c r="B120" s="31"/>
-      <c r="C120" s="26"/>
-      <c r="D120" s="25" t="s">
+      <c r="A120" s="33"/>
+      <c r="B120" s="32"/>
+      <c r="C120" s="34"/>
+      <c r="D120" s="30" t="s">
         <v>50</v>
       </c>
       <c r="E120" s="9" t="s">
@@ -3198,11 +3198,11 @@
       <c r="K120" s="9"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A121" s="35"/>
-      <c r="B121" s="31"/>
-      <c r="C121" s="26"/>
-      <c r="D121" s="26"/>
-      <c r="E121" s="25" t="s">
+      <c r="A121" s="33"/>
+      <c r="B121" s="32"/>
+      <c r="C121" s="34"/>
+      <c r="D121" s="34"/>
+      <c r="E121" s="30" t="s">
         <v>51</v>
       </c>
       <c r="F121" s="9" t="s">
@@ -3215,11 +3215,11 @@
       <c r="K121" s="9"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A122" s="35"/>
-      <c r="B122" s="31"/>
-      <c r="C122" s="26"/>
-      <c r="D122" s="26"/>
-      <c r="E122" s="26"/>
+      <c r="A122" s="33"/>
+      <c r="B122" s="32"/>
+      <c r="C122" s="34"/>
+      <c r="D122" s="34"/>
+      <c r="E122" s="34"/>
       <c r="F122" s="9" t="s">
         <v>52</v>
       </c>
@@ -3230,11 +3230,11 @@
       <c r="K122" s="9"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A123" s="35"/>
-      <c r="B123" s="31"/>
-      <c r="C123" s="26"/>
-      <c r="D123" s="26"/>
-      <c r="E123" s="26"/>
+      <c r="A123" s="33"/>
+      <c r="B123" s="32"/>
+      <c r="C123" s="34"/>
+      <c r="D123" s="34"/>
+      <c r="E123" s="34"/>
       <c r="F123" s="9" t="s">
         <v>53</v>
       </c>
@@ -3245,11 +3245,11 @@
       <c r="K123" s="9"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A124" s="35"/>
-      <c r="B124" s="31"/>
-      <c r="C124" s="26"/>
-      <c r="D124" s="26"/>
-      <c r="E124" s="26"/>
+      <c r="A124" s="33"/>
+      <c r="B124" s="32"/>
+      <c r="C124" s="34"/>
+      <c r="D124" s="34"/>
+      <c r="E124" s="34"/>
       <c r="F124" s="9" t="s">
         <v>54</v>
       </c>
@@ -3260,11 +3260,11 @@
       <c r="K124" s="9"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A125" s="35"/>
-      <c r="B125" s="31"/>
-      <c r="C125" s="26"/>
-      <c r="D125" s="26"/>
-      <c r="E125" s="26"/>
+      <c r="A125" s="33"/>
+      <c r="B125" s="32"/>
+      <c r="C125" s="34"/>
+      <c r="D125" s="34"/>
+      <c r="E125" s="34"/>
       <c r="F125" s="9" t="s">
         <v>55</v>
       </c>
@@ -3275,11 +3275,11 @@
       <c r="K125" s="9"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A126" s="35"/>
-      <c r="B126" s="31"/>
-      <c r="C126" s="26"/>
-      <c r="D126" s="26"/>
-      <c r="E126" s="26"/>
+      <c r="A126" s="33"/>
+      <c r="B126" s="32"/>
+      <c r="C126" s="34"/>
+      <c r="D126" s="34"/>
+      <c r="E126" s="34"/>
       <c r="F126" s="9" t="s">
         <v>56</v>
       </c>
@@ -3290,11 +3290,11 @@
       <c r="K126" s="9"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A127" s="35"/>
-      <c r="B127" s="31"/>
-      <c r="C127" s="26"/>
-      <c r="D127" s="26"/>
-      <c r="E127" s="27"/>
+      <c r="A127" s="33"/>
+      <c r="B127" s="32"/>
+      <c r="C127" s="34"/>
+      <c r="D127" s="34"/>
+      <c r="E127" s="31"/>
       <c r="F127" s="9" t="s">
         <v>57</v>
       </c>
@@ -3305,10 +3305,10 @@
       <c r="K127" s="9"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A128" s="35"/>
-      <c r="B128" s="31"/>
-      <c r="C128" s="26"/>
-      <c r="D128" s="27"/>
+      <c r="A128" s="33"/>
+      <c r="B128" s="32"/>
+      <c r="C128" s="34"/>
+      <c r="D128" s="31"/>
       <c r="E128" s="9" t="s">
         <v>128</v>
       </c>
@@ -3322,9 +3322,9 @@
       <c r="K128" s="9"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A129" s="35"/>
-      <c r="B129" s="31"/>
-      <c r="C129" s="25" t="s">
+      <c r="A129" s="33"/>
+      <c r="B129" s="32"/>
+      <c r="C129" s="30" t="s">
         <v>70</v>
       </c>
       <c r="D129" s="9" t="s">
@@ -3339,9 +3339,9 @@
       <c r="K129" s="9"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A130" s="35"/>
-      <c r="B130" s="31"/>
-      <c r="C130" s="26"/>
+      <c r="A130" s="33"/>
+      <c r="B130" s="32"/>
+      <c r="C130" s="34"/>
       <c r="D130" s="9" t="s">
         <v>14</v>
       </c>
@@ -3354,9 +3354,9 @@
       <c r="K130" s="9"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A131" s="35"/>
-      <c r="B131" s="31"/>
-      <c r="C131" s="26"/>
+      <c r="A131" s="33"/>
+      <c r="B131" s="32"/>
+      <c r="C131" s="34"/>
       <c r="D131" s="9" t="s">
         <v>15</v>
       </c>
@@ -3369,9 +3369,9 @@
       <c r="K131" s="9"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A132" s="35"/>
-      <c r="B132" s="31"/>
-      <c r="C132" s="26"/>
+      <c r="A132" s="33"/>
+      <c r="B132" s="32"/>
+      <c r="C132" s="34"/>
       <c r="D132" s="9" t="s">
         <v>16</v>
       </c>
@@ -3384,9 +3384,9 @@
       <c r="K132" s="9"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A133" s="35"/>
-      <c r="B133" s="31"/>
-      <c r="C133" s="25" t="s">
+      <c r="A133" s="33"/>
+      <c r="B133" s="32"/>
+      <c r="C133" s="30" t="s">
         <v>144</v>
       </c>
       <c r="D133" s="9" t="s">
@@ -3401,9 +3401,9 @@
       <c r="K133" s="9"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A134" s="35"/>
-      <c r="B134" s="31"/>
-      <c r="C134" s="27"/>
+      <c r="A134" s="33"/>
+      <c r="B134" s="32"/>
+      <c r="C134" s="31"/>
       <c r="D134" s="2" t="s">
         <v>145</v>
       </c>
@@ -3416,9 +3416,9 @@
       <c r="K134" s="9"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A135" s="35"/>
-      <c r="B135" s="31"/>
-      <c r="C135" s="25" t="s">
+      <c r="A135" s="33"/>
+      <c r="B135" s="32"/>
+      <c r="C135" s="30" t="s">
         <v>71</v>
       </c>
       <c r="D135" s="9" t="s">
@@ -3433,9 +3433,9 @@
       <c r="K135" s="9"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A136" s="35"/>
-      <c r="B136" s="31"/>
-      <c r="C136" s="27"/>
+      <c r="A136" s="33"/>
+      <c r="B136" s="32"/>
+      <c r="C136" s="31"/>
       <c r="D136" s="9" t="s">
         <v>15</v>
       </c>
@@ -3448,11 +3448,11 @@
       <c r="K136" s="9"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A137" s="35"/>
-      <c r="B137" s="31" t="s">
+      <c r="A137" s="33"/>
+      <c r="B137" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C137" s="25" t="s">
+      <c r="C137" s="30" t="s">
         <v>61</v>
       </c>
       <c r="D137" s="9" t="s">
@@ -3467,9 +3467,9 @@
       <c r="K137" s="9"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A138" s="35"/>
-      <c r="B138" s="31"/>
-      <c r="C138" s="27"/>
+      <c r="A138" s="33"/>
+      <c r="B138" s="32"/>
+      <c r="C138" s="31"/>
       <c r="D138" s="9" t="s">
         <v>91</v>
       </c>
@@ -3482,8 +3482,8 @@
       <c r="K138" s="9"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A139" s="35"/>
-      <c r="B139" s="31"/>
+      <c r="A139" s="33"/>
+      <c r="B139" s="32"/>
       <c r="C139" s="9" t="s">
         <v>63</v>
       </c>
@@ -3499,8 +3499,8 @@
       <c r="K139" s="9"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A140" s="35"/>
-      <c r="B140" s="31"/>
+      <c r="A140" s="33"/>
+      <c r="B140" s="32"/>
       <c r="C140" s="9" t="s">
         <v>60</v>
       </c>
@@ -3516,8 +3516,8 @@
       <c r="K140" s="9"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A141" s="35"/>
-      <c r="B141" s="31"/>
+      <c r="A141" s="33"/>
+      <c r="B141" s="32"/>
       <c r="C141" s="9" t="s">
         <v>66</v>
       </c>
@@ -3546,7 +3546,7 @@
       <c r="K142" s="9"/>
     </row>
     <row r="143" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="32" t="s">
+      <c r="A143" s="27" t="s">
         <v>68</v>
       </c>
       <c r="B143" s="21" t="s">
@@ -3563,7 +3563,7 @@
       <c r="K143" s="9"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A144" s="33"/>
+      <c r="A144" s="28"/>
       <c r="B144" s="21" t="s">
         <v>72</v>
       </c>
@@ -3578,7 +3578,7 @@
       <c r="K144" s="9"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A145" s="33"/>
+      <c r="A145" s="28"/>
       <c r="B145" s="21" t="s">
         <v>70</v>
       </c>
@@ -3593,7 +3593,7 @@
       <c r="K145" s="9"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A146" s="33"/>
+      <c r="A146" s="28"/>
       <c r="B146" s="21" t="s">
         <v>73</v>
       </c>
@@ -3644,6 +3644,27 @@
     <protectedRange sqref="J143:J148 J2:J71 J73:J141" name="区域3"/>
   </protectedRanges>
   <mergeCells count="37">
+    <mergeCell ref="C129:C132"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="E121:E127"/>
+    <mergeCell ref="D120:D128"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="B77:B84"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="C85:C88"/>
+    <mergeCell ref="D114:D119"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="D93:D97"/>
+    <mergeCell ref="C89:C128"/>
     <mergeCell ref="A8:A71"/>
     <mergeCell ref="C135:C136"/>
     <mergeCell ref="B85:B136"/>
@@ -3660,27 +3681,6 @@
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="B17:B22"/>
     <mergeCell ref="C77:C79"/>
-    <mergeCell ref="E121:E127"/>
-    <mergeCell ref="D120:D128"/>
-    <mergeCell ref="C81:C84"/>
-    <mergeCell ref="B77:B84"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="C85:C88"/>
-    <mergeCell ref="D114:D119"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="D93:D97"/>
-    <mergeCell ref="C89:C128"/>
-    <mergeCell ref="C129:C132"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="B23:B27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J2:J27 J143:J148 J73:J78 J32:J71 J80:J141">

--- a/doc/开发计划V0.1.xlsx
+++ b/doc/开发计划V0.1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="21840" windowHeight="13710"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="161">
   <si>
     <t>开始时间</t>
   </si>
@@ -599,6 +599,10 @@
   </si>
   <si>
     <t>动作脚本管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴小刚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -845,27 +849,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -877,11 +866,602 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="81">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1254,8 +1834,8 @@
   <dimension ref="A1:K149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F126" sqref="F126"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K152" sqref="K152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1307,7 +1887,9 @@
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
-      <c r="J2" s="10"/>
+      <c r="J2" s="10">
+        <v>0.9</v>
+      </c>
       <c r="K2" s="9"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
@@ -1322,7 +1904,9 @@
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
-      <c r="J3" s="10"/>
+      <c r="J3" s="10">
+        <v>1</v>
+      </c>
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
@@ -1337,7 +1921,9 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
-      <c r="J4" s="10"/>
+      <c r="J4" s="10">
+        <v>0.9</v>
+      </c>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
@@ -1352,7 +1938,9 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
-      <c r="J5" s="10"/>
+      <c r="J5" s="10">
+        <v>0.9</v>
+      </c>
       <c r="K5" s="9"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
@@ -1367,7 +1955,9 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
-      <c r="J6" s="10"/>
+      <c r="J6" s="10">
+        <v>0.5</v>
+      </c>
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
@@ -1386,10 +1976,10 @@
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="27" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -1401,12 +1991,16 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="9"/>
+      <c r="J8" s="10">
+        <v>1</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="28"/>
-      <c r="B9" s="34"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="9" t="s">
         <v>14</v>
       </c>
@@ -1416,12 +2010,16 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="9"/>
+      <c r="J9" s="10">
+        <v>1</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="28"/>
-      <c r="B10" s="34"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="9" t="s">
         <v>15</v>
       </c>
@@ -1431,12 +2029,16 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="9"/>
+      <c r="J10" s="10">
+        <v>1</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="28"/>
-      <c r="B11" s="34"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="9" t="s">
         <v>16</v>
       </c>
@@ -1446,12 +2048,16 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="9"/>
+      <c r="J11" s="10">
+        <v>1</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="28"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="9" t="s">
         <v>17</v>
       </c>
@@ -1461,12 +2067,16 @@
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="9"/>
+      <c r="J12" s="10">
+        <v>1</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="28"/>
-      <c r="B13" s="30" t="s">
+      <c r="A13" s="35"/>
+      <c r="B13" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -1478,12 +2088,16 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="9"/>
+      <c r="J13" s="10">
+        <v>1</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="28"/>
-      <c r="B14" s="34"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="9" t="s">
         <v>14</v>
       </c>
@@ -1493,12 +2107,16 @@
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="9"/>
+      <c r="J14" s="10">
+        <v>1</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="28"/>
-      <c r="B15" s="34"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="9" t="s">
         <v>15</v>
       </c>
@@ -1508,12 +2126,16 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="9"/>
+      <c r="J15" s="10">
+        <v>1</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="28"/>
-      <c r="B16" s="31"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="9" t="s">
         <v>16</v>
       </c>
@@ -1523,12 +2145,16 @@
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="9"/>
+      <c r="J16" s="10">
+        <v>1</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="28"/>
-      <c r="B17" s="30" t="s">
+      <c r="A17" s="35"/>
+      <c r="B17" s="27" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="9" t="s">
@@ -1540,12 +2166,16 @@
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="9"/>
+      <c r="J17" s="10">
+        <v>1</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="28"/>
-      <c r="B18" s="34"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="9" t="s">
         <v>14</v>
       </c>
@@ -1555,12 +2185,16 @@
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="9"/>
+      <c r="J18" s="10">
+        <v>1</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="28"/>
-      <c r="B19" s="34"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="9" t="s">
         <v>15</v>
       </c>
@@ -1570,12 +2204,16 @@
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="9"/>
+      <c r="J19" s="10">
+        <v>1</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="28"/>
-      <c r="B20" s="34"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="9" t="s">
         <v>16</v>
       </c>
@@ -1585,13 +2223,17 @@
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="9"/>
+      <c r="J20" s="10">
+        <v>1</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="28"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="30" t="s">
+      <c r="A21" s="35"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="27" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="9" t="s">
@@ -1602,13 +2244,17 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="9"/>
+      <c r="J21" s="10">
+        <v>0</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="22" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="28"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="9" t="s">
         <v>20</v>
       </c>
@@ -1617,12 +2263,16 @@
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="9"/>
+      <c r="J22" s="10">
+        <v>1</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="28"/>
-      <c r="B23" s="30" t="s">
+      <c r="A23" s="35"/>
+      <c r="B23" s="27" t="s">
         <v>151</v>
       </c>
       <c r="C23" s="9" t="s">
@@ -1634,12 +2284,16 @@
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="9"/>
+      <c r="J23" s="10">
+        <v>1</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="28"/>
-      <c r="B24" s="34"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="9" t="s">
         <v>14</v>
       </c>
@@ -1649,12 +2303,16 @@
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="9"/>
+      <c r="J24" s="10">
+        <v>1</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="28"/>
-      <c r="B25" s="34"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="9" t="s">
         <v>15</v>
       </c>
@@ -1664,12 +2322,16 @@
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="9"/>
+      <c r="J25" s="10">
+        <v>1</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="28"/>
-      <c r="B26" s="34"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="9" t="s">
         <v>16</v>
       </c>
@@ -1679,12 +2341,16 @@
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="9"/>
+      <c r="J26" s="10">
+        <v>1</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="28"/>
-      <c r="B27" s="31"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="9" t="s">
         <v>152</v>
       </c>
@@ -1694,12 +2360,16 @@
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="9"/>
+      <c r="J27" s="10">
+        <v>1</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="28"/>
-      <c r="B28" s="30" t="s">
+      <c r="A28" s="35"/>
+      <c r="B28" s="27" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="9" t="s">
@@ -1712,11 +2382,13 @@
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="10"/>
-      <c r="K28" s="9"/>
+      <c r="K28" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="29" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="28"/>
-      <c r="B29" s="34"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="28"/>
       <c r="C29" s="9" t="s">
         <v>14</v>
       </c>
@@ -1727,11 +2399,13 @@
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="10"/>
-      <c r="K29" s="9"/>
+      <c r="K29" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="30" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="28"/>
-      <c r="B30" s="34"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="28"/>
       <c r="C30" s="9" t="s">
         <v>15</v>
       </c>
@@ -1742,11 +2416,13 @@
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
       <c r="J30" s="10"/>
-      <c r="K30" s="9"/>
+      <c r="K30" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="31" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="28"/>
-      <c r="B31" s="31"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="29"/>
       <c r="C31" s="9" t="s">
         <v>16</v>
       </c>
@@ -1757,11 +2433,13 @@
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
       <c r="J31" s="10"/>
-      <c r="K31" s="9"/>
+      <c r="K31" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A32" s="28"/>
-      <c r="B32" s="30" t="s">
+      <c r="A32" s="35"/>
+      <c r="B32" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="9" t="s">
@@ -1774,11 +2452,13 @@
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="10"/>
-      <c r="K32" s="9"/>
+      <c r="K32" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A33" s="28"/>
-      <c r="B33" s="34"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="28"/>
       <c r="C33" s="9" t="s">
         <v>14</v>
       </c>
@@ -1789,11 +2469,13 @@
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="10"/>
-      <c r="K33" s="9"/>
+      <c r="K33" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="28"/>
-      <c r="B34" s="34"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="9" t="s">
         <v>15</v>
       </c>
@@ -1804,11 +2486,13 @@
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
       <c r="J34" s="10"/>
-      <c r="K34" s="9"/>
+      <c r="K34" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" s="28"/>
-      <c r="B35" s="31"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="29"/>
       <c r="C35" s="9" t="s">
         <v>16</v>
       </c>
@@ -1819,11 +2503,13 @@
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
       <c r="J35" s="10"/>
-      <c r="K35" s="9"/>
+      <c r="K35" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A36" s="28"/>
-      <c r="B36" s="30" t="s">
+      <c r="A36" s="35"/>
+      <c r="B36" s="27" t="s">
         <v>153</v>
       </c>
       <c r="C36" s="9" t="s">
@@ -1835,12 +2521,16 @@
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="9"/>
+      <c r="J36" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A37" s="28"/>
-      <c r="B37" s="34"/>
+      <c r="A37" s="35"/>
+      <c r="B37" s="28"/>
       <c r="C37" s="9" t="s">
         <v>14</v>
       </c>
@@ -1850,12 +2540,16 @@
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="9"/>
+      <c r="J37" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A38" s="28"/>
-      <c r="B38" s="34"/>
+      <c r="A38" s="35"/>
+      <c r="B38" s="28"/>
       <c r="C38" s="9" t="s">
         <v>15</v>
       </c>
@@ -1865,12 +2559,16 @@
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="9"/>
+      <c r="J38" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A39" s="28"/>
-      <c r="B39" s="31"/>
+      <c r="A39" s="35"/>
+      <c r="B39" s="29"/>
       <c r="C39" s="9" t="s">
         <v>16</v>
       </c>
@@ -1880,11 +2578,15 @@
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="9"/>
+      <c r="J39" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A40" s="28"/>
+      <c r="A40" s="35"/>
       <c r="B40" s="8" t="s">
         <v>77</v>
       </c>
@@ -1897,11 +2599,15 @@
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="9"/>
+      <c r="J40" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A41" s="28"/>
+      <c r="A41" s="35"/>
       <c r="B41" s="12" t="s">
         <v>131</v>
       </c>
@@ -1916,11 +2622,15 @@
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="9"/>
+      <c r="J41" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A42" s="28"/>
+      <c r="A42" s="35"/>
       <c r="B42" s="8" t="s">
         <v>132</v>
       </c>
@@ -1937,7 +2647,7 @@
       <c r="K42" s="9"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A43" s="28"/>
+      <c r="A43" s="35"/>
       <c r="B43" s="8" t="s">
         <v>134</v>
       </c>
@@ -1954,7 +2664,7 @@
       <c r="K43" s="9"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A44" s="28"/>
+      <c r="A44" s="35"/>
       <c r="B44" s="8" t="s">
         <v>154</v>
       </c>
@@ -1971,7 +2681,7 @@
       <c r="K44" s="9"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A45" s="28"/>
+      <c r="A45" s="35"/>
       <c r="B45" s="8" t="s">
         <v>37</v>
       </c>
@@ -1982,11 +2692,15 @@
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="9"/>
+      <c r="J45" s="10">
+        <v>1</v>
+      </c>
+      <c r="K45" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A46" s="28"/>
+      <c r="A46" s="35"/>
       <c r="B46" s="12"/>
       <c r="C46" s="14"/>
       <c r="D46" s="9"/>
@@ -1999,8 +2713,8 @@
       <c r="K46" s="9"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A47" s="28"/>
-      <c r="B47" s="30" t="s">
+      <c r="A47" s="35"/>
+      <c r="B47" s="27" t="s">
         <v>74</v>
       </c>
       <c r="C47" s="8" t="s">
@@ -2018,9 +2732,9 @@
       <c r="K47" s="9"/>
     </row>
     <row r="48" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="28"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="35" t="s">
+      <c r="A48" s="35"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="30" t="s">
         <v>139</v>
       </c>
       <c r="D48" s="15" t="s">
@@ -2035,9 +2749,9 @@
       <c r="K48" s="9"/>
     </row>
     <row r="49" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="28"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="36"/>
+      <c r="A49" s="35"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="31"/>
       <c r="D49" s="15" t="s">
         <v>140</v>
       </c>
@@ -2050,9 +2764,9 @@
       <c r="K49" s="9"/>
     </row>
     <row r="50" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="28"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="36"/>
+      <c r="A50" s="35"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="31"/>
       <c r="D50" s="16" t="s">
         <v>75</v>
       </c>
@@ -2065,9 +2779,9 @@
       <c r="K50" s="9"/>
     </row>
     <row r="51" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="28"/>
-      <c r="B51" s="34"/>
-      <c r="C51" s="36"/>
+      <c r="A51" s="35"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="31"/>
       <c r="D51" s="16" t="s">
         <v>76</v>
       </c>
@@ -2080,9 +2794,9 @@
       <c r="K51" s="9"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="28"/>
-      <c r="B52" s="31"/>
-      <c r="C52" s="37"/>
+      <c r="A52" s="35"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="32"/>
       <c r="D52" s="16" t="s">
         <v>81</v>
       </c>
@@ -2097,8 +2811,8 @@
       <c r="K52" s="9"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A53" s="28"/>
-      <c r="B53" s="30" t="s">
+      <c r="A53" s="35"/>
+      <c r="B53" s="27" t="s">
         <v>78</v>
       </c>
       <c r="C53" s="16" t="s">
@@ -2114,8 +2828,8 @@
       <c r="K53" s="9"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A54" s="28"/>
-      <c r="B54" s="34"/>
+      <c r="A54" s="35"/>
+      <c r="B54" s="28"/>
       <c r="C54" s="16" t="s">
         <v>80</v>
       </c>
@@ -2131,8 +2845,8 @@
       <c r="K54" s="9"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A55" s="28"/>
-      <c r="B55" s="31"/>
+      <c r="A55" s="35"/>
+      <c r="B55" s="29"/>
       <c r="C55" s="16" t="s">
         <v>59</v>
       </c>
@@ -2146,8 +2860,8 @@
       <c r="K55" s="9"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A56" s="28"/>
-      <c r="B56" s="30" t="s">
+      <c r="A56" s="35"/>
+      <c r="B56" s="27" t="s">
         <v>141</v>
       </c>
       <c r="C56" s="16" t="s">
@@ -2163,8 +2877,8 @@
       <c r="K56" s="9"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A57" s="28"/>
-      <c r="B57" s="31"/>
+      <c r="A57" s="35"/>
+      <c r="B57" s="29"/>
       <c r="C57" s="16" t="s">
         <v>85</v>
       </c>
@@ -2178,8 +2892,8 @@
       <c r="K57" s="9"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A58" s="28"/>
-      <c r="B58" s="30" t="s">
+      <c r="A58" s="35"/>
+      <c r="B58" s="27" t="s">
         <v>142</v>
       </c>
       <c r="C58" s="16" t="s">
@@ -2195,8 +2909,8 @@
       <c r="K58" s="9"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A59" s="28"/>
-      <c r="B59" s="31"/>
+      <c r="A59" s="35"/>
+      <c r="B59" s="29"/>
       <c r="C59" s="16" t="s">
         <v>83</v>
       </c>
@@ -2210,8 +2924,8 @@
       <c r="K59" s="9"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A60" s="28"/>
-      <c r="B60" s="30" t="s">
+      <c r="A60" s="35"/>
+      <c r="B60" s="27" t="s">
         <v>86</v>
       </c>
       <c r="C60" s="9" t="s">
@@ -2227,8 +2941,8 @@
       <c r="K60" s="9"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A61" s="28"/>
-      <c r="B61" s="34"/>
+      <c r="A61" s="35"/>
+      <c r="B61" s="28"/>
       <c r="C61" s="9" t="s">
         <v>14</v>
       </c>
@@ -2242,8 +2956,8 @@
       <c r="K61" s="9"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A62" s="28"/>
-      <c r="B62" s="34"/>
+      <c r="A62" s="35"/>
+      <c r="B62" s="28"/>
       <c r="C62" s="9" t="s">
         <v>15</v>
       </c>
@@ -2257,8 +2971,8 @@
       <c r="K62" s="9"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A63" s="28"/>
-      <c r="B63" s="31"/>
+      <c r="A63" s="35"/>
+      <c r="B63" s="29"/>
       <c r="C63" s="9" t="s">
         <v>16</v>
       </c>
@@ -2272,7 +2986,7 @@
       <c r="K63" s="9"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A64" s="28"/>
+      <c r="A64" s="35"/>
       <c r="B64" s="8" t="s">
         <v>89</v>
       </c>
@@ -2289,8 +3003,8 @@
       <c r="K64" s="9"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A65" s="28"/>
-      <c r="B65" s="30" t="s">
+      <c r="A65" s="35"/>
+      <c r="B65" s="27" t="s">
         <v>155</v>
       </c>
       <c r="C65" s="9" t="s">
@@ -2306,8 +3020,8 @@
       <c r="K65" s="9"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A66" s="28"/>
-      <c r="B66" s="34"/>
+      <c r="A66" s="35"/>
+      <c r="B66" s="28"/>
       <c r="C66" s="9" t="s">
         <v>14</v>
       </c>
@@ -2321,8 +3035,8 @@
       <c r="K66" s="9"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A67" s="28"/>
-      <c r="B67" s="34"/>
+      <c r="A67" s="35"/>
+      <c r="B67" s="28"/>
       <c r="C67" s="9" t="s">
         <v>15</v>
       </c>
@@ -2336,8 +3050,8 @@
       <c r="K67" s="9"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A68" s="28"/>
-      <c r="B68" s="31"/>
+      <c r="A68" s="35"/>
+      <c r="B68" s="29"/>
       <c r="C68" s="9" t="s">
         <v>16</v>
       </c>
@@ -2351,8 +3065,8 @@
       <c r="K68" s="9"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A69" s="28"/>
-      <c r="B69" s="30" t="s">
+      <c r="A69" s="35"/>
+      <c r="B69" s="27" t="s">
         <v>156</v>
       </c>
       <c r="C69" s="9" t="s">
@@ -2368,8 +3082,8 @@
       <c r="K69" s="9"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A70" s="28"/>
-      <c r="B70" s="31"/>
+      <c r="A70" s="35"/>
+      <c r="B70" s="29"/>
       <c r="C70" s="15" t="s">
         <v>90</v>
       </c>
@@ -2383,7 +3097,7 @@
       <c r="K70" s="9"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A71" s="29"/>
+      <c r="A71" s="36"/>
       <c r="B71" s="13" t="s">
         <v>158</v>
       </c>
@@ -2413,10 +3127,10 @@
       <c r="K72" s="9"/>
     </row>
     <row r="73" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="33" t="s">
+      <c r="A73" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B73" s="32" t="s">
+      <c r="B73" s="33" t="s">
         <v>23</v>
       </c>
       <c r="C73" s="9" t="s">
@@ -2432,8 +3146,8 @@
       <c r="K73" s="9"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A74" s="33"/>
-      <c r="B74" s="32"/>
+      <c r="A74" s="37"/>
+      <c r="B74" s="33"/>
       <c r="C74" s="9" t="s">
         <v>25</v>
       </c>
@@ -2447,8 +3161,8 @@
       <c r="K74" s="9"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A75" s="33"/>
-      <c r="B75" s="32"/>
+      <c r="A75" s="37"/>
+      <c r="B75" s="33"/>
       <c r="C75" s="9" t="s">
         <v>26</v>
       </c>
@@ -2462,8 +3176,8 @@
       <c r="K75" s="9"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A76" s="33"/>
-      <c r="B76" s="32"/>
+      <c r="A76" s="37"/>
+      <c r="B76" s="33"/>
       <c r="C76" s="19" t="s">
         <v>87</v>
       </c>
@@ -2479,11 +3193,11 @@
       <c r="K76" s="9"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A77" s="33"/>
-      <c r="B77" s="32" t="s">
+      <c r="A77" s="37"/>
+      <c r="B77" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C77" s="30" t="s">
+      <c r="C77" s="27" t="s">
         <v>28</v>
       </c>
       <c r="D77" s="9" t="s">
@@ -2498,10 +3212,10 @@
       <c r="K77" s="9"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A78" s="33"/>
-      <c r="B78" s="32"/>
-      <c r="C78" s="34"/>
-      <c r="D78" s="30" t="s">
+      <c r="A78" s="37"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="27" t="s">
         <v>30</v>
       </c>
       <c r="E78" s="16" t="s">
@@ -2515,10 +3229,10 @@
       <c r="K78" s="9"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A79" s="33"/>
-      <c r="B79" s="32"/>
-      <c r="C79" s="34"/>
-      <c r="D79" s="31"/>
+      <c r="A79" s="37"/>
+      <c r="B79" s="33"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="29"/>
       <c r="E79" s="16" t="s">
         <v>83</v>
       </c>
@@ -2530,8 +3244,8 @@
       <c r="K79" s="9"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A80" s="33"/>
-      <c r="B80" s="32"/>
+      <c r="A80" s="37"/>
+      <c r="B80" s="33"/>
       <c r="C80" s="9" t="s">
         <v>31</v>
       </c>
@@ -2545,12 +3259,12 @@
       <c r="K80" s="9"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A81" s="33"/>
-      <c r="B81" s="32"/>
-      <c r="C81" s="30" t="s">
+      <c r="A81" s="37"/>
+      <c r="B81" s="33"/>
+      <c r="C81" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="D81" s="30" t="s">
+      <c r="D81" s="27" t="s">
         <v>94</v>
       </c>
       <c r="E81" s="9" t="s">
@@ -2564,10 +3278,10 @@
       <c r="K81" s="9"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A82" s="33"/>
-      <c r="B82" s="32"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="31"/>
+      <c r="A82" s="37"/>
+      <c r="B82" s="33"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="29"/>
       <c r="E82" s="9" t="s">
         <v>35</v>
       </c>
@@ -2579,9 +3293,9 @@
       <c r="K82" s="9"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A83" s="33"/>
-      <c r="B83" s="32"/>
-      <c r="C83" s="34"/>
+      <c r="A83" s="37"/>
+      <c r="B83" s="33"/>
+      <c r="C83" s="28"/>
       <c r="D83" s="9" t="s">
         <v>32</v>
       </c>
@@ -2596,9 +3310,9 @@
       <c r="K83" s="9"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A84" s="33"/>
-      <c r="B84" s="32"/>
-      <c r="C84" s="31"/>
+      <c r="A84" s="37"/>
+      <c r="B84" s="33"/>
+      <c r="C84" s="29"/>
       <c r="D84" s="9" t="s">
         <v>33</v>
       </c>
@@ -2613,11 +3327,11 @@
       <c r="K84" s="9"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A85" s="33"/>
-      <c r="B85" s="32" t="s">
+      <c r="A85" s="37"/>
+      <c r="B85" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="C85" s="30" t="s">
+      <c r="C85" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D85" s="9" t="s">
@@ -2628,13 +3342,17 @@
       <c r="G85" s="9"/>
       <c r="H85" s="9"/>
       <c r="I85" s="9"/>
-      <c r="J85" s="10"/>
-      <c r="K85" s="9"/>
+      <c r="J85" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="K85" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A86" s="33"/>
-      <c r="B86" s="32"/>
-      <c r="C86" s="34"/>
+      <c r="A86" s="37"/>
+      <c r="B86" s="33"/>
+      <c r="C86" s="28"/>
       <c r="D86" s="9" t="s">
         <v>14</v>
       </c>
@@ -2643,13 +3361,17 @@
       <c r="G86" s="9"/>
       <c r="H86" s="9"/>
       <c r="I86" s="9"/>
-      <c r="J86" s="10"/>
-      <c r="K86" s="9"/>
+      <c r="J86" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="K86" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A87" s="33"/>
-      <c r="B87" s="32"/>
-      <c r="C87" s="34"/>
+      <c r="A87" s="37"/>
+      <c r="B87" s="33"/>
+      <c r="C87" s="28"/>
       <c r="D87" s="9" t="s">
         <v>15</v>
       </c>
@@ -2658,13 +3380,17 @@
       <c r="G87" s="9"/>
       <c r="H87" s="9"/>
       <c r="I87" s="9"/>
-      <c r="J87" s="10"/>
-      <c r="K87" s="9"/>
+      <c r="J87" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="K87" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A88" s="33"/>
-      <c r="B88" s="32"/>
-      <c r="C88" s="31"/>
+      <c r="A88" s="37"/>
+      <c r="B88" s="33"/>
+      <c r="C88" s="29"/>
       <c r="D88" s="9" t="s">
         <v>16</v>
       </c>
@@ -2673,13 +3399,17 @@
       <c r="G88" s="9"/>
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
-      <c r="J88" s="10"/>
-      <c r="K88" s="9"/>
+      <c r="J88" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="K88" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A89" s="33"/>
-      <c r="B89" s="32"/>
-      <c r="C89" s="30" t="s">
+      <c r="A89" s="37"/>
+      <c r="B89" s="33"/>
+      <c r="C89" s="27" t="s">
         <v>93</v>
       </c>
       <c r="D89" s="9" t="s">
@@ -2690,13 +3420,17 @@
       <c r="G89" s="9"/>
       <c r="H89" s="9"/>
       <c r="I89" s="9"/>
-      <c r="J89" s="10"/>
-      <c r="K89" s="9"/>
+      <c r="J89" s="10">
+        <v>1</v>
+      </c>
+      <c r="K89" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A90" s="33"/>
-      <c r="B90" s="32"/>
-      <c r="C90" s="34"/>
+      <c r="A90" s="37"/>
+      <c r="B90" s="33"/>
+      <c r="C90" s="28"/>
       <c r="D90" s="9" t="s">
         <v>14</v>
       </c>
@@ -2705,13 +3439,17 @@
       <c r="G90" s="9"/>
       <c r="H90" s="9"/>
       <c r="I90" s="9"/>
-      <c r="J90" s="10"/>
-      <c r="K90" s="9"/>
+      <c r="J90" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="K90" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A91" s="33"/>
-      <c r="B91" s="32"/>
-      <c r="C91" s="34"/>
+      <c r="A91" s="37"/>
+      <c r="B91" s="33"/>
+      <c r="C91" s="28"/>
       <c r="D91" s="9" t="s">
         <v>15</v>
       </c>
@@ -2720,13 +3458,17 @@
       <c r="G91" s="9"/>
       <c r="H91" s="9"/>
       <c r="I91" s="9"/>
-      <c r="J91" s="10"/>
-      <c r="K91" s="9"/>
+      <c r="J91" s="10">
+        <v>1</v>
+      </c>
+      <c r="K91" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A92" s="33"/>
-      <c r="B92" s="32"/>
-      <c r="C92" s="34"/>
+      <c r="A92" s="37"/>
+      <c r="B92" s="33"/>
+      <c r="C92" s="28"/>
       <c r="D92" s="9" t="s">
         <v>16</v>
       </c>
@@ -2735,14 +3477,18 @@
       <c r="G92" s="9"/>
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>
-      <c r="J92" s="10"/>
-      <c r="K92" s="9"/>
+      <c r="J92" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="K92" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A93" s="33"/>
-      <c r="B93" s="32"/>
-      <c r="C93" s="34"/>
-      <c r="D93" s="30" t="s">
+      <c r="A93" s="37"/>
+      <c r="B93" s="33"/>
+      <c r="C93" s="28"/>
+      <c r="D93" s="27" t="s">
         <v>148</v>
       </c>
       <c r="E93" s="9" t="s">
@@ -2753,13 +3499,15 @@
       <c r="H93" s="9"/>
       <c r="I93" s="9"/>
       <c r="J93" s="10"/>
-      <c r="K93" s="9"/>
+      <c r="K93" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A94" s="33"/>
-      <c r="B94" s="32"/>
-      <c r="C94" s="34"/>
-      <c r="D94" s="34"/>
+      <c r="A94" s="37"/>
+      <c r="B94" s="33"/>
+      <c r="C94" s="28"/>
+      <c r="D94" s="28"/>
       <c r="E94" s="9" t="s">
         <v>42</v>
       </c>
@@ -2768,13 +3516,15 @@
       <c r="H94" s="9"/>
       <c r="I94" s="9"/>
       <c r="J94" s="10"/>
-      <c r="K94" s="9"/>
+      <c r="K94" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A95" s="33"/>
-      <c r="B95" s="32"/>
-      <c r="C95" s="34"/>
-      <c r="D95" s="34"/>
+      <c r="A95" s="37"/>
+      <c r="B95" s="33"/>
+      <c r="C95" s="28"/>
+      <c r="D95" s="28"/>
       <c r="E95" s="9" t="s">
         <v>43</v>
       </c>
@@ -2783,13 +3533,15 @@
       <c r="H95" s="9"/>
       <c r="I95" s="9"/>
       <c r="J95" s="10"/>
-      <c r="K95" s="9"/>
+      <c r="K95" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="33"/>
-      <c r="B96" s="32"/>
-      <c r="C96" s="34"/>
-      <c r="D96" s="34"/>
+      <c r="A96" s="37"/>
+      <c r="B96" s="33"/>
+      <c r="C96" s="28"/>
+      <c r="D96" s="28"/>
       <c r="E96" s="26" t="s">
         <v>108</v>
       </c>
@@ -2800,13 +3552,15 @@
       <c r="H96" s="9"/>
       <c r="I96" s="9"/>
       <c r="J96" s="10"/>
-      <c r="K96" s="9"/>
+      <c r="K96" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="33"/>
-      <c r="B97" s="32"/>
-      <c r="C97" s="34"/>
-      <c r="D97" s="31"/>
+      <c r="A97" s="37"/>
+      <c r="B97" s="33"/>
+      <c r="C97" s="28"/>
+      <c r="D97" s="29"/>
       <c r="E97" s="26" t="s">
         <v>147</v>
       </c>
@@ -2817,12 +3571,14 @@
       <c r="H97" s="9"/>
       <c r="I97" s="9"/>
       <c r="J97" s="10"/>
-      <c r="K97" s="9"/>
+      <c r="K97" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A98" s="33"/>
-      <c r="B98" s="32"/>
-      <c r="C98" s="34"/>
+      <c r="A98" s="37"/>
+      <c r="B98" s="33"/>
+      <c r="C98" s="28"/>
       <c r="D98" s="9" t="s">
         <v>95</v>
       </c>
@@ -2832,12 +3588,14 @@
       <c r="H98" s="9"/>
       <c r="I98" s="9"/>
       <c r="J98" s="10"/>
-      <c r="K98" s="9"/>
+      <c r="K98" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A99" s="33"/>
-      <c r="B99" s="32"/>
-      <c r="C99" s="34"/>
+      <c r="A99" s="37"/>
+      <c r="B99" s="33"/>
+      <c r="C99" s="28"/>
       <c r="D99" s="19" t="s">
         <v>97</v>
       </c>
@@ -2846,13 +3604,17 @@
       <c r="G99" s="9"/>
       <c r="H99" s="9"/>
       <c r="I99" s="9"/>
-      <c r="J99" s="10"/>
-      <c r="K99" s="9"/>
+      <c r="J99" s="10">
+        <v>1</v>
+      </c>
+      <c r="K99" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A100" s="33"/>
-      <c r="B100" s="32"/>
-      <c r="C100" s="34"/>
+      <c r="A100" s="37"/>
+      <c r="B100" s="33"/>
+      <c r="C100" s="28"/>
       <c r="D100" s="19" t="s">
         <v>98</v>
       </c>
@@ -2863,12 +3625,14 @@
       <c r="H100" s="9"/>
       <c r="I100" s="9"/>
       <c r="J100" s="10"/>
-      <c r="K100" s="9"/>
+      <c r="K100" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A101" s="33"/>
-      <c r="B101" s="32"/>
-      <c r="C101" s="34"/>
+      <c r="A101" s="37"/>
+      <c r="B101" s="33"/>
+      <c r="C101" s="28"/>
       <c r="D101" s="19" t="s">
         <v>100</v>
       </c>
@@ -2879,12 +3643,14 @@
       <c r="H101" s="9"/>
       <c r="I101" s="9"/>
       <c r="J101" s="10"/>
-      <c r="K101" s="9"/>
+      <c r="K101" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A102" s="33"/>
-      <c r="B102" s="32"/>
-      <c r="C102" s="34"/>
+      <c r="A102" s="37"/>
+      <c r="B102" s="33"/>
+      <c r="C102" s="28"/>
       <c r="D102" s="19" t="s">
         <v>102</v>
       </c>
@@ -2895,12 +3661,14 @@
       <c r="H102" s="9"/>
       <c r="I102" s="9"/>
       <c r="J102" s="10"/>
-      <c r="K102" s="9"/>
+      <c r="K102" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A103" s="33"/>
-      <c r="B103" s="32"/>
-      <c r="C103" s="34"/>
+      <c r="A103" s="37"/>
+      <c r="B103" s="33"/>
+      <c r="C103" s="28"/>
       <c r="D103" s="19" t="s">
         <v>104</v>
       </c>
@@ -2912,12 +3680,14 @@
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
       <c r="J103" s="10"/>
-      <c r="K103" s="9"/>
+      <c r="K103" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A104" s="33"/>
-      <c r="B104" s="32"/>
-      <c r="C104" s="34"/>
+      <c r="A104" s="37"/>
+      <c r="B104" s="33"/>
+      <c r="C104" s="28"/>
       <c r="D104" s="19" t="s">
         <v>46</v>
       </c>
@@ -2928,13 +3698,17 @@
       <c r="G104" s="9"/>
       <c r="H104" s="9"/>
       <c r="I104" s="9"/>
-      <c r="J104" s="10"/>
-      <c r="K104" s="9"/>
+      <c r="J104" s="10">
+        <v>1</v>
+      </c>
+      <c r="K104" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A105" s="33"/>
-      <c r="B105" s="32"/>
-      <c r="C105" s="34"/>
+      <c r="A105" s="37"/>
+      <c r="B105" s="33"/>
+      <c r="C105" s="28"/>
       <c r="D105" s="19" t="s">
         <v>48</v>
       </c>
@@ -2946,12 +3720,14 @@
       <c r="H105" s="9"/>
       <c r="I105" s="9"/>
       <c r="J105" s="10"/>
-      <c r="K105" s="9"/>
+      <c r="K105" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A106" s="33"/>
-      <c r="B106" s="32"/>
-      <c r="C106" s="34"/>
+      <c r="A106" s="37"/>
+      <c r="B106" s="33"/>
+      <c r="C106" s="28"/>
       <c r="D106" s="19" t="s">
         <v>111</v>
       </c>
@@ -2963,12 +3739,14 @@
       <c r="H106" s="9"/>
       <c r="I106" s="9"/>
       <c r="J106" s="10"/>
-      <c r="K106" s="9"/>
+      <c r="K106" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A107" s="33"/>
-      <c r="B107" s="32"/>
-      <c r="C107" s="34"/>
+      <c r="A107" s="37"/>
+      <c r="B107" s="33"/>
+      <c r="C107" s="28"/>
       <c r="D107" s="19" t="s">
         <v>112</v>
       </c>
@@ -2979,13 +3757,17 @@
       <c r="G107" s="9"/>
       <c r="H107" s="9"/>
       <c r="I107" s="9"/>
-      <c r="J107" s="10"/>
-      <c r="K107" s="9"/>
+      <c r="J107" s="10">
+        <v>1</v>
+      </c>
+      <c r="K107" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A108" s="33"/>
-      <c r="B108" s="32"/>
-      <c r="C108" s="34"/>
+      <c r="A108" s="37"/>
+      <c r="B108" s="33"/>
+      <c r="C108" s="28"/>
       <c r="D108" s="19" t="s">
         <v>114</v>
       </c>
@@ -2997,12 +3779,14 @@
       <c r="H108" s="9"/>
       <c r="I108" s="9"/>
       <c r="J108" s="10"/>
-      <c r="K108" s="9"/>
+      <c r="K108" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A109" s="33"/>
-      <c r="B109" s="32"/>
-      <c r="C109" s="34"/>
+      <c r="A109" s="37"/>
+      <c r="B109" s="33"/>
+      <c r="C109" s="28"/>
       <c r="D109" s="19" t="s">
         <v>116</v>
       </c>
@@ -3014,12 +3798,14 @@
       <c r="H109" s="9"/>
       <c r="I109" s="9"/>
       <c r="J109" s="10"/>
-      <c r="K109" s="9"/>
+      <c r="K109" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A110" s="33"/>
-      <c r="B110" s="32"/>
-      <c r="C110" s="34"/>
+      <c r="A110" s="37"/>
+      <c r="B110" s="33"/>
+      <c r="C110" s="28"/>
       <c r="D110" s="19" t="s">
         <v>119</v>
       </c>
@@ -3031,12 +3817,14 @@
       <c r="H110" s="9"/>
       <c r="I110" s="9"/>
       <c r="J110" s="10"/>
-      <c r="K110" s="9"/>
+      <c r="K110" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A111" s="33"/>
-      <c r="B111" s="32"/>
-      <c r="C111" s="34"/>
+      <c r="A111" s="37"/>
+      <c r="B111" s="33"/>
+      <c r="C111" s="28"/>
       <c r="D111" s="19" t="s">
         <v>121</v>
       </c>
@@ -3048,12 +3836,14 @@
       <c r="H111" s="9"/>
       <c r="I111" s="9"/>
       <c r="J111" s="10"/>
-      <c r="K111" s="9"/>
+      <c r="K111" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A112" s="33"/>
-      <c r="B112" s="32"/>
-      <c r="C112" s="34"/>
+      <c r="A112" s="37"/>
+      <c r="B112" s="33"/>
+      <c r="C112" s="28"/>
       <c r="D112" s="19" t="s">
         <v>123</v>
       </c>
@@ -3065,12 +3855,14 @@
       <c r="H112" s="9"/>
       <c r="I112" s="9"/>
       <c r="J112" s="10"/>
-      <c r="K112" s="9"/>
+      <c r="K112" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A113" s="33"/>
-      <c r="B113" s="32"/>
-      <c r="C113" s="34"/>
+      <c r="A113" s="37"/>
+      <c r="B113" s="33"/>
+      <c r="C113" s="28"/>
       <c r="D113" s="19" t="s">
         <v>125</v>
       </c>
@@ -3081,14 +3873,18 @@
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
       <c r="I113" s="9"/>
-      <c r="J113" s="10"/>
-      <c r="K113" s="9"/>
+      <c r="J113" s="10">
+        <v>1</v>
+      </c>
+      <c r="K113" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A114" s="33"/>
-      <c r="B114" s="32"/>
-      <c r="C114" s="34"/>
-      <c r="D114" s="30" t="s">
+      <c r="A114" s="37"/>
+      <c r="B114" s="33"/>
+      <c r="C114" s="28"/>
+      <c r="D114" s="27" t="s">
         <v>40</v>
       </c>
       <c r="E114" s="9" t="s">
@@ -3098,14 +3894,18 @@
       <c r="G114" s="9"/>
       <c r="H114" s="9"/>
       <c r="I114" s="9"/>
-      <c r="J114" s="10"/>
-      <c r="K114" s="9"/>
+      <c r="J114" s="10">
+        <v>1</v>
+      </c>
+      <c r="K114" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A115" s="33"/>
-      <c r="B115" s="32"/>
-      <c r="C115" s="34"/>
-      <c r="D115" s="34"/>
+      <c r="A115" s="37"/>
+      <c r="B115" s="33"/>
+      <c r="C115" s="28"/>
+      <c r="D115" s="28"/>
       <c r="E115" s="9" t="s">
         <v>47</v>
       </c>
@@ -3114,13 +3914,15 @@
       <c r="H115" s="9"/>
       <c r="I115" s="9"/>
       <c r="J115" s="10"/>
-      <c r="K115" s="9"/>
+      <c r="K115" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A116" s="33"/>
-      <c r="B116" s="32"/>
-      <c r="C116" s="34"/>
-      <c r="D116" s="34"/>
+      <c r="A116" s="37"/>
+      <c r="B116" s="33"/>
+      <c r="C116" s="28"/>
+      <c r="D116" s="28"/>
       <c r="E116" s="9" t="s">
         <v>45</v>
       </c>
@@ -3129,13 +3931,15 @@
       <c r="H116" s="9"/>
       <c r="I116" s="9"/>
       <c r="J116" s="10"/>
-      <c r="K116" s="9"/>
+      <c r="K116" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A117" s="33"/>
-      <c r="B117" s="32"/>
-      <c r="C117" s="34"/>
-      <c r="D117" s="34"/>
+      <c r="A117" s="37"/>
+      <c r="B117" s="33"/>
+      <c r="C117" s="28"/>
+      <c r="D117" s="28"/>
       <c r="E117" s="9" t="s">
         <v>46</v>
       </c>
@@ -3146,13 +3950,15 @@
       <c r="H117" s="9"/>
       <c r="I117" s="9"/>
       <c r="J117" s="10"/>
-      <c r="K117" s="9"/>
+      <c r="K117" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A118" s="33"/>
-      <c r="B118" s="32"/>
-      <c r="C118" s="34"/>
-      <c r="D118" s="34"/>
+      <c r="A118" s="37"/>
+      <c r="B118" s="33"/>
+      <c r="C118" s="28"/>
+      <c r="D118" s="28"/>
       <c r="E118" s="9" t="s">
         <v>48</v>
       </c>
@@ -3163,13 +3969,15 @@
       <c r="H118" s="9"/>
       <c r="I118" s="9"/>
       <c r="J118" s="10"/>
-      <c r="K118" s="9"/>
+      <c r="K118" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A119" s="33"/>
-      <c r="B119" s="32"/>
-      <c r="C119" s="34"/>
-      <c r="D119" s="31"/>
+      <c r="A119" s="37"/>
+      <c r="B119" s="33"/>
+      <c r="C119" s="28"/>
+      <c r="D119" s="29"/>
       <c r="E119" s="9" t="s">
         <v>49</v>
       </c>
@@ -3178,13 +3986,15 @@
       <c r="H119" s="9"/>
       <c r="I119" s="9"/>
       <c r="J119" s="10"/>
-      <c r="K119" s="9"/>
+      <c r="K119" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A120" s="33"/>
-      <c r="B120" s="32"/>
-      <c r="C120" s="34"/>
-      <c r="D120" s="30" t="s">
+      <c r="A120" s="37"/>
+      <c r="B120" s="33"/>
+      <c r="C120" s="28"/>
+      <c r="D120" s="27" t="s">
         <v>50</v>
       </c>
       <c r="E120" s="9" t="s">
@@ -3194,15 +4004,19 @@
       <c r="G120" s="9"/>
       <c r="H120" s="9"/>
       <c r="I120" s="9"/>
-      <c r="J120" s="10"/>
-      <c r="K120" s="9"/>
+      <c r="J120" s="10">
+        <v>1</v>
+      </c>
+      <c r="K120" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A121" s="33"/>
-      <c r="B121" s="32"/>
-      <c r="C121" s="34"/>
-      <c r="D121" s="34"/>
-      <c r="E121" s="30" t="s">
+      <c r="A121" s="37"/>
+      <c r="B121" s="33"/>
+      <c r="C121" s="28"/>
+      <c r="D121" s="28"/>
+      <c r="E121" s="27" t="s">
         <v>51</v>
       </c>
       <c r="F121" s="9" t="s">
@@ -3212,44 +4026,54 @@
       <c r="H121" s="9"/>
       <c r="I121" s="9"/>
       <c r="J121" s="10"/>
-      <c r="K121" s="9"/>
+      <c r="K121" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A122" s="33"/>
-      <c r="B122" s="32"/>
-      <c r="C122" s="34"/>
-      <c r="D122" s="34"/>
-      <c r="E122" s="34"/>
+      <c r="A122" s="37"/>
+      <c r="B122" s="33"/>
+      <c r="C122" s="28"/>
+      <c r="D122" s="28"/>
+      <c r="E122" s="28"/>
       <c r="F122" s="9" t="s">
         <v>52</v>
       </c>
       <c r="G122" s="9"/>
       <c r="H122" s="9"/>
       <c r="I122" s="9"/>
-      <c r="J122" s="10"/>
-      <c r="K122" s="9"/>
+      <c r="J122" s="10">
+        <v>1</v>
+      </c>
+      <c r="K122" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A123" s="33"/>
-      <c r="B123" s="32"/>
-      <c r="C123" s="34"/>
-      <c r="D123" s="34"/>
-      <c r="E123" s="34"/>
+      <c r="A123" s="37"/>
+      <c r="B123" s="33"/>
+      <c r="C123" s="28"/>
+      <c r="D123" s="28"/>
+      <c r="E123" s="28"/>
       <c r="F123" s="9" t="s">
         <v>53</v>
       </c>
       <c r="G123" s="9"/>
       <c r="H123" s="9"/>
       <c r="I123" s="9"/>
-      <c r="J123" s="10"/>
-      <c r="K123" s="9"/>
+      <c r="J123" s="10">
+        <v>1</v>
+      </c>
+      <c r="K123" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A124" s="33"/>
-      <c r="B124" s="32"/>
-      <c r="C124" s="34"/>
-      <c r="D124" s="34"/>
-      <c r="E124" s="34"/>
+      <c r="A124" s="37"/>
+      <c r="B124" s="33"/>
+      <c r="C124" s="28"/>
+      <c r="D124" s="28"/>
+      <c r="E124" s="28"/>
       <c r="F124" s="9" t="s">
         <v>54</v>
       </c>
@@ -3257,29 +4081,35 @@
       <c r="H124" s="9"/>
       <c r="I124" s="9"/>
       <c r="J124" s="10"/>
-      <c r="K124" s="9"/>
+      <c r="K124" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A125" s="33"/>
-      <c r="B125" s="32"/>
-      <c r="C125" s="34"/>
-      <c r="D125" s="34"/>
-      <c r="E125" s="34"/>
+      <c r="A125" s="37"/>
+      <c r="B125" s="33"/>
+      <c r="C125" s="28"/>
+      <c r="D125" s="28"/>
+      <c r="E125" s="28"/>
       <c r="F125" s="9" t="s">
         <v>55</v>
       </c>
       <c r="G125" s="9"/>
       <c r="H125" s="9"/>
       <c r="I125" s="9"/>
-      <c r="J125" s="10"/>
-      <c r="K125" s="9"/>
+      <c r="J125" s="10">
+        <v>1</v>
+      </c>
+      <c r="K125" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A126" s="33"/>
-      <c r="B126" s="32"/>
-      <c r="C126" s="34"/>
-      <c r="D126" s="34"/>
-      <c r="E126" s="34"/>
+      <c r="A126" s="37"/>
+      <c r="B126" s="33"/>
+      <c r="C126" s="28"/>
+      <c r="D126" s="28"/>
+      <c r="E126" s="28"/>
       <c r="F126" s="9" t="s">
         <v>56</v>
       </c>
@@ -3287,14 +4117,16 @@
       <c r="H126" s="9"/>
       <c r="I126" s="9"/>
       <c r="J126" s="10"/>
-      <c r="K126" s="9"/>
+      <c r="K126" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A127" s="33"/>
-      <c r="B127" s="32"/>
-      <c r="C127" s="34"/>
-      <c r="D127" s="34"/>
-      <c r="E127" s="31"/>
+      <c r="A127" s="37"/>
+      <c r="B127" s="33"/>
+      <c r="C127" s="28"/>
+      <c r="D127" s="28"/>
+      <c r="E127" s="29"/>
       <c r="F127" s="9" t="s">
         <v>57</v>
       </c>
@@ -3302,13 +4134,15 @@
       <c r="H127" s="9"/>
       <c r="I127" s="9"/>
       <c r="J127" s="10"/>
-      <c r="K127" s="9"/>
+      <c r="K127" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A128" s="33"/>
-      <c r="B128" s="32"/>
-      <c r="C128" s="34"/>
-      <c r="D128" s="31"/>
+      <c r="A128" s="37"/>
+      <c r="B128" s="33"/>
+      <c r="C128" s="28"/>
+      <c r="D128" s="29"/>
       <c r="E128" s="9" t="s">
         <v>128</v>
       </c>
@@ -3318,13 +4152,17 @@
       <c r="G128" s="9"/>
       <c r="H128" s="9"/>
       <c r="I128" s="9"/>
-      <c r="J128" s="10"/>
-      <c r="K128" s="9"/>
+      <c r="J128" s="10">
+        <v>1</v>
+      </c>
+      <c r="K128" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A129" s="33"/>
-      <c r="B129" s="32"/>
-      <c r="C129" s="30" t="s">
+      <c r="A129" s="37"/>
+      <c r="B129" s="33"/>
+      <c r="C129" s="27" t="s">
         <v>70</v>
       </c>
       <c r="D129" s="9" t="s">
@@ -3335,13 +4173,17 @@
       <c r="G129" s="9"/>
       <c r="H129" s="9"/>
       <c r="I129" s="9"/>
-      <c r="J129" s="10"/>
-      <c r="K129" s="9"/>
+      <c r="J129" s="10">
+        <v>1</v>
+      </c>
+      <c r="K129" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A130" s="33"/>
-      <c r="B130" s="32"/>
-      <c r="C130" s="34"/>
+      <c r="A130" s="37"/>
+      <c r="B130" s="33"/>
+      <c r="C130" s="28"/>
       <c r="D130" s="9" t="s">
         <v>14</v>
       </c>
@@ -3350,13 +4192,17 @@
       <c r="G130" s="9"/>
       <c r="H130" s="9"/>
       <c r="I130" s="9"/>
-      <c r="J130" s="10"/>
-      <c r="K130" s="9"/>
+      <c r="J130" s="10">
+        <v>1</v>
+      </c>
+      <c r="K130" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A131" s="33"/>
-      <c r="B131" s="32"/>
-      <c r="C131" s="34"/>
+      <c r="A131" s="37"/>
+      <c r="B131" s="33"/>
+      <c r="C131" s="28"/>
       <c r="D131" s="9" t="s">
         <v>15</v>
       </c>
@@ -3365,13 +4211,17 @@
       <c r="G131" s="9"/>
       <c r="H131" s="9"/>
       <c r="I131" s="9"/>
-      <c r="J131" s="10"/>
-      <c r="K131" s="9"/>
+      <c r="J131" s="10">
+        <v>1</v>
+      </c>
+      <c r="K131" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A132" s="33"/>
-      <c r="B132" s="32"/>
-      <c r="C132" s="34"/>
+      <c r="A132" s="37"/>
+      <c r="B132" s="33"/>
+      <c r="C132" s="28"/>
       <c r="D132" s="9" t="s">
         <v>16</v>
       </c>
@@ -3380,13 +4230,17 @@
       <c r="G132" s="9"/>
       <c r="H132" s="9"/>
       <c r="I132" s="9"/>
-      <c r="J132" s="10"/>
-      <c r="K132" s="9"/>
+      <c r="J132" s="10">
+        <v>1</v>
+      </c>
+      <c r="K132" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A133" s="33"/>
-      <c r="B133" s="32"/>
-      <c r="C133" s="30" t="s">
+      <c r="A133" s="37"/>
+      <c r="B133" s="33"/>
+      <c r="C133" s="27" t="s">
         <v>144</v>
       </c>
       <c r="D133" s="9" t="s">
@@ -3397,13 +4251,17 @@
       <c r="G133" s="9"/>
       <c r="H133" s="9"/>
       <c r="I133" s="9"/>
-      <c r="J133" s="10"/>
-      <c r="K133" s="9"/>
+      <c r="J133" s="10">
+        <v>1</v>
+      </c>
+      <c r="K133" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A134" s="33"/>
-      <c r="B134" s="32"/>
-      <c r="C134" s="31"/>
+      <c r="A134" s="37"/>
+      <c r="B134" s="33"/>
+      <c r="C134" s="29"/>
       <c r="D134" s="2" t="s">
         <v>145</v>
       </c>
@@ -3412,13 +4270,17 @@
       <c r="G134" s="9"/>
       <c r="H134" s="9"/>
       <c r="I134" s="9"/>
-      <c r="J134" s="10"/>
-      <c r="K134" s="9"/>
+      <c r="J134" s="10">
+        <v>1</v>
+      </c>
+      <c r="K134" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A135" s="33"/>
-      <c r="B135" s="32"/>
-      <c r="C135" s="30" t="s">
+      <c r="A135" s="37"/>
+      <c r="B135" s="33"/>
+      <c r="C135" s="27" t="s">
         <v>71</v>
       </c>
       <c r="D135" s="9" t="s">
@@ -3429,13 +4291,17 @@
       <c r="G135" s="9"/>
       <c r="H135" s="9"/>
       <c r="I135" s="9"/>
-      <c r="J135" s="10"/>
-      <c r="K135" s="9"/>
+      <c r="J135" s="10">
+        <v>1</v>
+      </c>
+      <c r="K135" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A136" s="33"/>
-      <c r="B136" s="32"/>
-      <c r="C136" s="31"/>
+      <c r="A136" s="37"/>
+      <c r="B136" s="33"/>
+      <c r="C136" s="29"/>
       <c r="D136" s="9" t="s">
         <v>15</v>
       </c>
@@ -3444,15 +4310,19 @@
       <c r="G136" s="9"/>
       <c r="H136" s="9"/>
       <c r="I136" s="9"/>
-      <c r="J136" s="10"/>
-      <c r="K136" s="9"/>
+      <c r="J136" s="10">
+        <v>1</v>
+      </c>
+      <c r="K136" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A137" s="33"/>
-      <c r="B137" s="32" t="s">
+      <c r="A137" s="37"/>
+      <c r="B137" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C137" s="30" t="s">
+      <c r="C137" s="27" t="s">
         <v>61</v>
       </c>
       <c r="D137" s="9" t="s">
@@ -3467,9 +4337,9 @@
       <c r="K137" s="9"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A138" s="33"/>
-      <c r="B138" s="32"/>
-      <c r="C138" s="31"/>
+      <c r="A138" s="37"/>
+      <c r="B138" s="33"/>
+      <c r="C138" s="29"/>
       <c r="D138" s="9" t="s">
         <v>91</v>
       </c>
@@ -3482,8 +4352,8 @@
       <c r="K138" s="9"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A139" s="33"/>
-      <c r="B139" s="32"/>
+      <c r="A139" s="37"/>
+      <c r="B139" s="33"/>
       <c r="C139" s="9" t="s">
         <v>63</v>
       </c>
@@ -3499,8 +4369,8 @@
       <c r="K139" s="9"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A140" s="33"/>
-      <c r="B140" s="32"/>
+      <c r="A140" s="37"/>
+      <c r="B140" s="33"/>
       <c r="C140" s="9" t="s">
         <v>60</v>
       </c>
@@ -3516,8 +4386,8 @@
       <c r="K140" s="9"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A141" s="33"/>
-      <c r="B141" s="32"/>
+      <c r="A141" s="37"/>
+      <c r="B141" s="33"/>
       <c r="C141" s="9" t="s">
         <v>66</v>
       </c>
@@ -3546,7 +4416,7 @@
       <c r="K142" s="9"/>
     </row>
     <row r="143" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="27" t="s">
+      <c r="A143" s="34" t="s">
         <v>68</v>
       </c>
       <c r="B143" s="21" t="s">
@@ -3563,7 +4433,7 @@
       <c r="K143" s="9"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A144" s="28"/>
+      <c r="A144" s="35"/>
       <c r="B144" s="21" t="s">
         <v>72</v>
       </c>
@@ -3578,7 +4448,7 @@
       <c r="K144" s="9"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A145" s="28"/>
+      <c r="A145" s="35"/>
       <c r="B145" s="21" t="s">
         <v>70</v>
       </c>
@@ -3593,7 +4463,7 @@
       <c r="K145" s="9"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A146" s="28"/>
+      <c r="A146" s="35"/>
       <c r="B146" s="21" t="s">
         <v>73</v>
       </c>
@@ -3644,27 +4514,6 @@
     <protectedRange sqref="J143:J148 J2:J71 J73:J141" name="区域3"/>
   </protectedRanges>
   <mergeCells count="37">
-    <mergeCell ref="C129:C132"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="E121:E127"/>
-    <mergeCell ref="D120:D128"/>
-    <mergeCell ref="C81:C84"/>
-    <mergeCell ref="B77:B84"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="C85:C88"/>
-    <mergeCell ref="D114:D119"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="D93:D97"/>
-    <mergeCell ref="C89:C128"/>
     <mergeCell ref="A8:A71"/>
     <mergeCell ref="C135:C136"/>
     <mergeCell ref="B85:B136"/>
@@ -3681,40 +4530,61 @@
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="B17:B22"/>
     <mergeCell ref="C77:C79"/>
+    <mergeCell ref="E121:E127"/>
+    <mergeCell ref="D120:D128"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="B77:B84"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="C85:C88"/>
+    <mergeCell ref="D114:D119"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="D93:D97"/>
+    <mergeCell ref="C89:C128"/>
+    <mergeCell ref="C129:C132"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="B23:B27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="J2:J27 J143:J148 J73:J78 J32:J71 J80:J141">
-    <cfRule type="cellIs" dxfId="8" priority="22" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="J143:J148 J73:J78 J32:J71 J2:J27 J80:J141">
+    <cfRule type="cellIs" dxfId="23" priority="22" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="23" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="24" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="24" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:J31">
-    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="4" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="5" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="78" priority="6" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J79">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="2" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="75" priority="3" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>

--- a/doc/开发计划V0.1.xlsx
+++ b/doc/开发计划V0.1.xlsx
@@ -849,12 +849,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -866,602 +881,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="81">
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
@@ -1834,8 +1258,8 @@
   <dimension ref="A1:K149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K152" sqref="K152"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D154" sqref="D154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1976,10 +1400,10 @@
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="30" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -1999,8 +1423,8 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="35"/>
-      <c r="B9" s="28"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="9" t="s">
         <v>14</v>
       </c>
@@ -2018,8 +1442,8 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="35"/>
-      <c r="B10" s="28"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="9" t="s">
         <v>15</v>
       </c>
@@ -2037,8 +1461,8 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="35"/>
-      <c r="B11" s="28"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="9" t="s">
         <v>16</v>
       </c>
@@ -2056,8 +1480,8 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="35"/>
-      <c r="B12" s="29"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="9" t="s">
         <v>17</v>
       </c>
@@ -2075,8 +1499,8 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="35"/>
-      <c r="B13" s="27" t="s">
+      <c r="A13" s="28"/>
+      <c r="B13" s="30" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -2096,8 +1520,8 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="35"/>
-      <c r="B14" s="28"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="9" t="s">
         <v>14</v>
       </c>
@@ -2115,8 +1539,8 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="35"/>
-      <c r="B15" s="28"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="34"/>
       <c r="C15" s="9" t="s">
         <v>15</v>
       </c>
@@ -2134,8 +1558,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="35"/>
-      <c r="B16" s="29"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="9" t="s">
         <v>16</v>
       </c>
@@ -2153,8 +1577,8 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="35"/>
-      <c r="B17" s="27" t="s">
+      <c r="A17" s="28"/>
+      <c r="B17" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="9" t="s">
@@ -2174,8 +1598,8 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="35"/>
-      <c r="B18" s="28"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="9" t="s">
         <v>14</v>
       </c>
@@ -2193,8 +1617,8 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="35"/>
-      <c r="B19" s="28"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="9" t="s">
         <v>15</v>
       </c>
@@ -2212,8 +1636,8 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="35"/>
-      <c r="B20" s="28"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="9" t="s">
         <v>16</v>
       </c>
@@ -2231,9 +1655,9 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="35"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="27" t="s">
+      <c r="A21" s="28"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="9" t="s">
@@ -2252,9 +1676,9 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="35"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="9" t="s">
         <v>20</v>
       </c>
@@ -2271,8 +1695,8 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="35"/>
-      <c r="B23" s="27" t="s">
+      <c r="A23" s="28"/>
+      <c r="B23" s="30" t="s">
         <v>151</v>
       </c>
       <c r="C23" s="9" t="s">
@@ -2292,8 +1716,8 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="35"/>
-      <c r="B24" s="28"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="9" t="s">
         <v>14</v>
       </c>
@@ -2311,8 +1735,8 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="35"/>
-      <c r="B25" s="28"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="34"/>
       <c r="C25" s="9" t="s">
         <v>15</v>
       </c>
@@ -2330,8 +1754,8 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="35"/>
-      <c r="B26" s="28"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="34"/>
       <c r="C26" s="9" t="s">
         <v>16</v>
       </c>
@@ -2349,8 +1773,8 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="35"/>
-      <c r="B27" s="29"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="9" t="s">
         <v>152</v>
       </c>
@@ -2368,8 +1792,8 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="35"/>
-      <c r="B28" s="27" t="s">
+      <c r="A28" s="28"/>
+      <c r="B28" s="30" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="9" t="s">
@@ -2387,8 +1811,8 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="35"/>
-      <c r="B29" s="28"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="34"/>
       <c r="C29" s="9" t="s">
         <v>14</v>
       </c>
@@ -2404,8 +1828,8 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="35"/>
-      <c r="B30" s="28"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="34"/>
       <c r="C30" s="9" t="s">
         <v>15</v>
       </c>
@@ -2421,8 +1845,8 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="35"/>
-      <c r="B31" s="29"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="9" t="s">
         <v>16</v>
       </c>
@@ -2438,8 +1862,8 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A32" s="35"/>
-      <c r="B32" s="27" t="s">
+      <c r="A32" s="28"/>
+      <c r="B32" s="30" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="9" t="s">
@@ -2457,8 +1881,8 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A33" s="35"/>
-      <c r="B33" s="28"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="34"/>
       <c r="C33" s="9" t="s">
         <v>14</v>
       </c>
@@ -2474,8 +1898,8 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="35"/>
-      <c r="B34" s="28"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="34"/>
       <c r="C34" s="9" t="s">
         <v>15</v>
       </c>
@@ -2491,8 +1915,8 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" s="35"/>
-      <c r="B35" s="29"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="31"/>
       <c r="C35" s="9" t="s">
         <v>16</v>
       </c>
@@ -2508,8 +1932,8 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A36" s="35"/>
-      <c r="B36" s="27" t="s">
+      <c r="A36" s="28"/>
+      <c r="B36" s="30" t="s">
         <v>153</v>
       </c>
       <c r="C36" s="9" t="s">
@@ -2529,8 +1953,8 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A37" s="35"/>
-      <c r="B37" s="28"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="34"/>
       <c r="C37" s="9" t="s">
         <v>14</v>
       </c>
@@ -2548,8 +1972,8 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A38" s="35"/>
-      <c r="B38" s="28"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="34"/>
       <c r="C38" s="9" t="s">
         <v>15</v>
       </c>
@@ -2567,8 +1991,8 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A39" s="35"/>
-      <c r="B39" s="29"/>
+      <c r="A39" s="28"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="9" t="s">
         <v>16</v>
       </c>
@@ -2586,7 +2010,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A40" s="35"/>
+      <c r="A40" s="28"/>
       <c r="B40" s="8" t="s">
         <v>77</v>
       </c>
@@ -2607,7 +2031,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A41" s="35"/>
+      <c r="A41" s="28"/>
       <c r="B41" s="12" t="s">
         <v>131</v>
       </c>
@@ -2630,7 +2054,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A42" s="35"/>
+      <c r="A42" s="28"/>
       <c r="B42" s="8" t="s">
         <v>132</v>
       </c>
@@ -2647,7 +2071,7 @@
       <c r="K42" s="9"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A43" s="35"/>
+      <c r="A43" s="28"/>
       <c r="B43" s="8" t="s">
         <v>134</v>
       </c>
@@ -2664,7 +2088,7 @@
       <c r="K43" s="9"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A44" s="35"/>
+      <c r="A44" s="28"/>
       <c r="B44" s="8" t="s">
         <v>154</v>
       </c>
@@ -2681,7 +2105,7 @@
       <c r="K44" s="9"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A45" s="35"/>
+      <c r="A45" s="28"/>
       <c r="B45" s="8" t="s">
         <v>37</v>
       </c>
@@ -2700,7 +2124,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A46" s="35"/>
+      <c r="A46" s="28"/>
       <c r="B46" s="12"/>
       <c r="C46" s="14"/>
       <c r="D46" s="9"/>
@@ -2713,8 +2137,8 @@
       <c r="K46" s="9"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A47" s="35"/>
-      <c r="B47" s="27" t="s">
+      <c r="A47" s="28"/>
+      <c r="B47" s="30" t="s">
         <v>74</v>
       </c>
       <c r="C47" s="8" t="s">
@@ -2732,9 +2156,9 @@
       <c r="K47" s="9"/>
     </row>
     <row r="48" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="35"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="30" t="s">
+      <c r="A48" s="28"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="35" t="s">
         <v>139</v>
       </c>
       <c r="D48" s="15" t="s">
@@ -2749,9 +2173,9 @@
       <c r="K48" s="9"/>
     </row>
     <row r="49" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="35"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="31"/>
+      <c r="A49" s="28"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="36"/>
       <c r="D49" s="15" t="s">
         <v>140</v>
       </c>
@@ -2764,9 +2188,9 @@
       <c r="K49" s="9"/>
     </row>
     <row r="50" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="35"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="31"/>
+      <c r="A50" s="28"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="36"/>
       <c r="D50" s="16" t="s">
         <v>75</v>
       </c>
@@ -2779,9 +2203,9 @@
       <c r="K50" s="9"/>
     </row>
     <row r="51" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="35"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="31"/>
+      <c r="A51" s="28"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="36"/>
       <c r="D51" s="16" t="s">
         <v>76</v>
       </c>
@@ -2794,9 +2218,9 @@
       <c r="K51" s="9"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="35"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="32"/>
+      <c r="A52" s="28"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="37"/>
       <c r="D52" s="16" t="s">
         <v>81</v>
       </c>
@@ -2811,8 +2235,8 @@
       <c r="K52" s="9"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A53" s="35"/>
-      <c r="B53" s="27" t="s">
+      <c r="A53" s="28"/>
+      <c r="B53" s="30" t="s">
         <v>78</v>
       </c>
       <c r="C53" s="16" t="s">
@@ -2828,8 +2252,8 @@
       <c r="K53" s="9"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A54" s="35"/>
-      <c r="B54" s="28"/>
+      <c r="A54" s="28"/>
+      <c r="B54" s="34"/>
       <c r="C54" s="16" t="s">
         <v>80</v>
       </c>
@@ -2845,8 +2269,8 @@
       <c r="K54" s="9"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A55" s="35"/>
-      <c r="B55" s="29"/>
+      <c r="A55" s="28"/>
+      <c r="B55" s="31"/>
       <c r="C55" s="16" t="s">
         <v>59</v>
       </c>
@@ -2860,8 +2284,8 @@
       <c r="K55" s="9"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A56" s="35"/>
-      <c r="B56" s="27" t="s">
+      <c r="A56" s="28"/>
+      <c r="B56" s="30" t="s">
         <v>141</v>
       </c>
       <c r="C56" s="16" t="s">
@@ -2877,8 +2301,8 @@
       <c r="K56" s="9"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A57" s="35"/>
-      <c r="B57" s="29"/>
+      <c r="A57" s="28"/>
+      <c r="B57" s="31"/>
       <c r="C57" s="16" t="s">
         <v>85</v>
       </c>
@@ -2892,8 +2316,8 @@
       <c r="K57" s="9"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A58" s="35"/>
-      <c r="B58" s="27" t="s">
+      <c r="A58" s="28"/>
+      <c r="B58" s="30" t="s">
         <v>142</v>
       </c>
       <c r="C58" s="16" t="s">
@@ -2909,8 +2333,8 @@
       <c r="K58" s="9"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A59" s="35"/>
-      <c r="B59" s="29"/>
+      <c r="A59" s="28"/>
+      <c r="B59" s="31"/>
       <c r="C59" s="16" t="s">
         <v>83</v>
       </c>
@@ -2924,8 +2348,8 @@
       <c r="K59" s="9"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A60" s="35"/>
-      <c r="B60" s="27" t="s">
+      <c r="A60" s="28"/>
+      <c r="B60" s="30" t="s">
         <v>86</v>
       </c>
       <c r="C60" s="9" t="s">
@@ -2941,8 +2365,8 @@
       <c r="K60" s="9"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A61" s="35"/>
-      <c r="B61" s="28"/>
+      <c r="A61" s="28"/>
+      <c r="B61" s="34"/>
       <c r="C61" s="9" t="s">
         <v>14</v>
       </c>
@@ -2956,8 +2380,8 @@
       <c r="K61" s="9"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A62" s="35"/>
-      <c r="B62" s="28"/>
+      <c r="A62" s="28"/>
+      <c r="B62" s="34"/>
       <c r="C62" s="9" t="s">
         <v>15</v>
       </c>
@@ -2971,8 +2395,8 @@
       <c r="K62" s="9"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A63" s="35"/>
-      <c r="B63" s="29"/>
+      <c r="A63" s="28"/>
+      <c r="B63" s="31"/>
       <c r="C63" s="9" t="s">
         <v>16</v>
       </c>
@@ -2986,7 +2410,7 @@
       <c r="K63" s="9"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A64" s="35"/>
+      <c r="A64" s="28"/>
       <c r="B64" s="8" t="s">
         <v>89</v>
       </c>
@@ -3003,8 +2427,8 @@
       <c r="K64" s="9"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A65" s="35"/>
-      <c r="B65" s="27" t="s">
+      <c r="A65" s="28"/>
+      <c r="B65" s="30" t="s">
         <v>155</v>
       </c>
       <c r="C65" s="9" t="s">
@@ -3020,8 +2444,8 @@
       <c r="K65" s="9"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A66" s="35"/>
-      <c r="B66" s="28"/>
+      <c r="A66" s="28"/>
+      <c r="B66" s="34"/>
       <c r="C66" s="9" t="s">
         <v>14</v>
       </c>
@@ -3035,8 +2459,8 @@
       <c r="K66" s="9"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A67" s="35"/>
-      <c r="B67" s="28"/>
+      <c r="A67" s="28"/>
+      <c r="B67" s="34"/>
       <c r="C67" s="9" t="s">
         <v>15</v>
       </c>
@@ -3050,8 +2474,8 @@
       <c r="K67" s="9"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A68" s="35"/>
-      <c r="B68" s="29"/>
+      <c r="A68" s="28"/>
+      <c r="B68" s="31"/>
       <c r="C68" s="9" t="s">
         <v>16</v>
       </c>
@@ -3065,8 +2489,8 @@
       <c r="K68" s="9"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A69" s="35"/>
-      <c r="B69" s="27" t="s">
+      <c r="A69" s="28"/>
+      <c r="B69" s="30" t="s">
         <v>156</v>
       </c>
       <c r="C69" s="9" t="s">
@@ -3082,8 +2506,8 @@
       <c r="K69" s="9"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A70" s="35"/>
-      <c r="B70" s="29"/>
+      <c r="A70" s="28"/>
+      <c r="B70" s="31"/>
       <c r="C70" s="15" t="s">
         <v>90</v>
       </c>
@@ -3097,7 +2521,7 @@
       <c r="K70" s="9"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A71" s="36"/>
+      <c r="A71" s="29"/>
       <c r="B71" s="13" t="s">
         <v>158</v>
       </c>
@@ -3127,10 +2551,10 @@
       <c r="K72" s="9"/>
     </row>
     <row r="73" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="37" t="s">
+      <c r="A73" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B73" s="33" t="s">
+      <c r="B73" s="32" t="s">
         <v>23</v>
       </c>
       <c r="C73" s="9" t="s">
@@ -3146,8 +2570,8 @@
       <c r="K73" s="9"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A74" s="37"/>
-      <c r="B74" s="33"/>
+      <c r="A74" s="33"/>
+      <c r="B74" s="32"/>
       <c r="C74" s="9" t="s">
         <v>25</v>
       </c>
@@ -3161,8 +2585,8 @@
       <c r="K74" s="9"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A75" s="37"/>
-      <c r="B75" s="33"/>
+      <c r="A75" s="33"/>
+      <c r="B75" s="32"/>
       <c r="C75" s="9" t="s">
         <v>26</v>
       </c>
@@ -3176,8 +2600,8 @@
       <c r="K75" s="9"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A76" s="37"/>
-      <c r="B76" s="33"/>
+      <c r="A76" s="33"/>
+      <c r="B76" s="32"/>
       <c r="C76" s="19" t="s">
         <v>87</v>
       </c>
@@ -3193,11 +2617,11 @@
       <c r="K76" s="9"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A77" s="37"/>
-      <c r="B77" s="33" t="s">
+      <c r="A77" s="33"/>
+      <c r="B77" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C77" s="27" t="s">
+      <c r="C77" s="30" t="s">
         <v>28</v>
       </c>
       <c r="D77" s="9" t="s">
@@ -3212,10 +2636,10 @@
       <c r="K77" s="9"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A78" s="37"/>
-      <c r="B78" s="33"/>
-      <c r="C78" s="28"/>
-      <c r="D78" s="27" t="s">
+      <c r="A78" s="33"/>
+      <c r="B78" s="32"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="30" t="s">
         <v>30</v>
       </c>
       <c r="E78" s="16" t="s">
@@ -3229,10 +2653,10 @@
       <c r="K78" s="9"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A79" s="37"/>
-      <c r="B79" s="33"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="29"/>
+      <c r="A79" s="33"/>
+      <c r="B79" s="32"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="31"/>
       <c r="E79" s="16" t="s">
         <v>83</v>
       </c>
@@ -3244,8 +2668,8 @@
       <c r="K79" s="9"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A80" s="37"/>
-      <c r="B80" s="33"/>
+      <c r="A80" s="33"/>
+      <c r="B80" s="32"/>
       <c r="C80" s="9" t="s">
         <v>31</v>
       </c>
@@ -3259,12 +2683,12 @@
       <c r="K80" s="9"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A81" s="37"/>
-      <c r="B81" s="33"/>
-      <c r="C81" s="27" t="s">
+      <c r="A81" s="33"/>
+      <c r="B81" s="32"/>
+      <c r="C81" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="D81" s="27" t="s">
+      <c r="D81" s="30" t="s">
         <v>94</v>
       </c>
       <c r="E81" s="9" t="s">
@@ -3278,10 +2702,10 @@
       <c r="K81" s="9"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A82" s="37"/>
-      <c r="B82" s="33"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="29"/>
+      <c r="A82" s="33"/>
+      <c r="B82" s="32"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="31"/>
       <c r="E82" s="9" t="s">
         <v>35</v>
       </c>
@@ -3293,9 +2717,9 @@
       <c r="K82" s="9"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A83" s="37"/>
-      <c r="B83" s="33"/>
-      <c r="C83" s="28"/>
+      <c r="A83" s="33"/>
+      <c r="B83" s="32"/>
+      <c r="C83" s="34"/>
       <c r="D83" s="9" t="s">
         <v>32</v>
       </c>
@@ -3310,9 +2734,9 @@
       <c r="K83" s="9"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A84" s="37"/>
-      <c r="B84" s="33"/>
-      <c r="C84" s="29"/>
+      <c r="A84" s="33"/>
+      <c r="B84" s="32"/>
+      <c r="C84" s="31"/>
       <c r="D84" s="9" t="s">
         <v>33</v>
       </c>
@@ -3327,11 +2751,11 @@
       <c r="K84" s="9"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A85" s="37"/>
-      <c r="B85" s="33" t="s">
+      <c r="A85" s="33"/>
+      <c r="B85" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="C85" s="27" t="s">
+      <c r="C85" s="30" t="s">
         <v>38</v>
       </c>
       <c r="D85" s="9" t="s">
@@ -3350,9 +2774,9 @@
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A86" s="37"/>
-      <c r="B86" s="33"/>
-      <c r="C86" s="28"/>
+      <c r="A86" s="33"/>
+      <c r="B86" s="32"/>
+      <c r="C86" s="34"/>
       <c r="D86" s="9" t="s">
         <v>14</v>
       </c>
@@ -3369,9 +2793,9 @@
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A87" s="37"/>
-      <c r="B87" s="33"/>
-      <c r="C87" s="28"/>
+      <c r="A87" s="33"/>
+      <c r="B87" s="32"/>
+      <c r="C87" s="34"/>
       <c r="D87" s="9" t="s">
         <v>15</v>
       </c>
@@ -3388,9 +2812,9 @@
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A88" s="37"/>
-      <c r="B88" s="33"/>
-      <c r="C88" s="29"/>
+      <c r="A88" s="33"/>
+      <c r="B88" s="32"/>
+      <c r="C88" s="31"/>
       <c r="D88" s="9" t="s">
         <v>16</v>
       </c>
@@ -3407,9 +2831,9 @@
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A89" s="37"/>
-      <c r="B89" s="33"/>
-      <c r="C89" s="27" t="s">
+      <c r="A89" s="33"/>
+      <c r="B89" s="32"/>
+      <c r="C89" s="30" t="s">
         <v>93</v>
       </c>
       <c r="D89" s="9" t="s">
@@ -3428,9 +2852,9 @@
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A90" s="37"/>
-      <c r="B90" s="33"/>
-      <c r="C90" s="28"/>
+      <c r="A90" s="33"/>
+      <c r="B90" s="32"/>
+      <c r="C90" s="34"/>
       <c r="D90" s="9" t="s">
         <v>14</v>
       </c>
@@ -3447,9 +2871,9 @@
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A91" s="37"/>
-      <c r="B91" s="33"/>
-      <c r="C91" s="28"/>
+      <c r="A91" s="33"/>
+      <c r="B91" s="32"/>
+      <c r="C91" s="34"/>
       <c r="D91" s="9" t="s">
         <v>15</v>
       </c>
@@ -3466,9 +2890,9 @@
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A92" s="37"/>
-      <c r="B92" s="33"/>
-      <c r="C92" s="28"/>
+      <c r="A92" s="33"/>
+      <c r="B92" s="32"/>
+      <c r="C92" s="34"/>
       <c r="D92" s="9" t="s">
         <v>16</v>
       </c>
@@ -3485,10 +2909,10 @@
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A93" s="37"/>
-      <c r="B93" s="33"/>
-      <c r="C93" s="28"/>
-      <c r="D93" s="27" t="s">
+      <c r="A93" s="33"/>
+      <c r="B93" s="32"/>
+      <c r="C93" s="34"/>
+      <c r="D93" s="30" t="s">
         <v>148</v>
       </c>
       <c r="E93" s="9" t="s">
@@ -3504,10 +2928,10 @@
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A94" s="37"/>
-      <c r="B94" s="33"/>
-      <c r="C94" s="28"/>
-      <c r="D94" s="28"/>
+      <c r="A94" s="33"/>
+      <c r="B94" s="32"/>
+      <c r="C94" s="34"/>
+      <c r="D94" s="34"/>
       <c r="E94" s="9" t="s">
         <v>42</v>
       </c>
@@ -3521,10 +2945,10 @@
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A95" s="37"/>
-      <c r="B95" s="33"/>
-      <c r="C95" s="28"/>
-      <c r="D95" s="28"/>
+      <c r="A95" s="33"/>
+      <c r="B95" s="32"/>
+      <c r="C95" s="34"/>
+      <c r="D95" s="34"/>
       <c r="E95" s="9" t="s">
         <v>43</v>
       </c>
@@ -3538,10 +2962,10 @@
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="37"/>
-      <c r="B96" s="33"/>
-      <c r="C96" s="28"/>
-      <c r="D96" s="28"/>
+      <c r="A96" s="33"/>
+      <c r="B96" s="32"/>
+      <c r="C96" s="34"/>
+      <c r="D96" s="34"/>
       <c r="E96" s="26" t="s">
         <v>108</v>
       </c>
@@ -3557,10 +2981,10 @@
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="37"/>
-      <c r="B97" s="33"/>
-      <c r="C97" s="28"/>
-      <c r="D97" s="29"/>
+      <c r="A97" s="33"/>
+      <c r="B97" s="32"/>
+      <c r="C97" s="34"/>
+      <c r="D97" s="31"/>
       <c r="E97" s="26" t="s">
         <v>147</v>
       </c>
@@ -3576,9 +3000,9 @@
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A98" s="37"/>
-      <c r="B98" s="33"/>
-      <c r="C98" s="28"/>
+      <c r="A98" s="33"/>
+      <c r="B98" s="32"/>
+      <c r="C98" s="34"/>
       <c r="D98" s="9" t="s">
         <v>95</v>
       </c>
@@ -3593,9 +3017,9 @@
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A99" s="37"/>
-      <c r="B99" s="33"/>
-      <c r="C99" s="28"/>
+      <c r="A99" s="33"/>
+      <c r="B99" s="32"/>
+      <c r="C99" s="34"/>
       <c r="D99" s="19" t="s">
         <v>97</v>
       </c>
@@ -3612,9 +3036,9 @@
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A100" s="37"/>
-      <c r="B100" s="33"/>
-      <c r="C100" s="28"/>
+      <c r="A100" s="33"/>
+      <c r="B100" s="32"/>
+      <c r="C100" s="34"/>
       <c r="D100" s="19" t="s">
         <v>98</v>
       </c>
@@ -3630,9 +3054,9 @@
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A101" s="37"/>
-      <c r="B101" s="33"/>
-      <c r="C101" s="28"/>
+      <c r="A101" s="33"/>
+      <c r="B101" s="32"/>
+      <c r="C101" s="34"/>
       <c r="D101" s="19" t="s">
         <v>100</v>
       </c>
@@ -3648,9 +3072,9 @@
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A102" s="37"/>
-      <c r="B102" s="33"/>
-      <c r="C102" s="28"/>
+      <c r="A102" s="33"/>
+      <c r="B102" s="32"/>
+      <c r="C102" s="34"/>
       <c r="D102" s="19" t="s">
         <v>102</v>
       </c>
@@ -3666,9 +3090,9 @@
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A103" s="37"/>
-      <c r="B103" s="33"/>
-      <c r="C103" s="28"/>
+      <c r="A103" s="33"/>
+      <c r="B103" s="32"/>
+      <c r="C103" s="34"/>
       <c r="D103" s="19" t="s">
         <v>104</v>
       </c>
@@ -3685,9 +3109,9 @@
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A104" s="37"/>
-      <c r="B104" s="33"/>
-      <c r="C104" s="28"/>
+      <c r="A104" s="33"/>
+      <c r="B104" s="32"/>
+      <c r="C104" s="34"/>
       <c r="D104" s="19" t="s">
         <v>46</v>
       </c>
@@ -3706,9 +3130,9 @@
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A105" s="37"/>
-      <c r="B105" s="33"/>
-      <c r="C105" s="28"/>
+      <c r="A105" s="33"/>
+      <c r="B105" s="32"/>
+      <c r="C105" s="34"/>
       <c r="D105" s="19" t="s">
         <v>48</v>
       </c>
@@ -3725,9 +3149,9 @@
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A106" s="37"/>
-      <c r="B106" s="33"/>
-      <c r="C106" s="28"/>
+      <c r="A106" s="33"/>
+      <c r="B106" s="32"/>
+      <c r="C106" s="34"/>
       <c r="D106" s="19" t="s">
         <v>111</v>
       </c>
@@ -3744,9 +3168,9 @@
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A107" s="37"/>
-      <c r="B107" s="33"/>
-      <c r="C107" s="28"/>
+      <c r="A107" s="33"/>
+      <c r="B107" s="32"/>
+      <c r="C107" s="34"/>
       <c r="D107" s="19" t="s">
         <v>112</v>
       </c>
@@ -3765,9 +3189,9 @@
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A108" s="37"/>
-      <c r="B108" s="33"/>
-      <c r="C108" s="28"/>
+      <c r="A108" s="33"/>
+      <c r="B108" s="32"/>
+      <c r="C108" s="34"/>
       <c r="D108" s="19" t="s">
         <v>114</v>
       </c>
@@ -3784,9 +3208,9 @@
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A109" s="37"/>
-      <c r="B109" s="33"/>
-      <c r="C109" s="28"/>
+      <c r="A109" s="33"/>
+      <c r="B109" s="32"/>
+      <c r="C109" s="34"/>
       <c r="D109" s="19" t="s">
         <v>116</v>
       </c>
@@ -3803,9 +3227,9 @@
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A110" s="37"/>
-      <c r="B110" s="33"/>
-      <c r="C110" s="28"/>
+      <c r="A110" s="33"/>
+      <c r="B110" s="32"/>
+      <c r="C110" s="34"/>
       <c r="D110" s="19" t="s">
         <v>119</v>
       </c>
@@ -3822,9 +3246,9 @@
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A111" s="37"/>
-      <c r="B111" s="33"/>
-      <c r="C111" s="28"/>
+      <c r="A111" s="33"/>
+      <c r="B111" s="32"/>
+      <c r="C111" s="34"/>
       <c r="D111" s="19" t="s">
         <v>121</v>
       </c>
@@ -3841,9 +3265,9 @@
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A112" s="37"/>
-      <c r="B112" s="33"/>
-      <c r="C112" s="28"/>
+      <c r="A112" s="33"/>
+      <c r="B112" s="32"/>
+      <c r="C112" s="34"/>
       <c r="D112" s="19" t="s">
         <v>123</v>
       </c>
@@ -3860,9 +3284,9 @@
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A113" s="37"/>
-      <c r="B113" s="33"/>
-      <c r="C113" s="28"/>
+      <c r="A113" s="33"/>
+      <c r="B113" s="32"/>
+      <c r="C113" s="34"/>
       <c r="D113" s="19" t="s">
         <v>125</v>
       </c>
@@ -3881,10 +3305,10 @@
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A114" s="37"/>
-      <c r="B114" s="33"/>
-      <c r="C114" s="28"/>
-      <c r="D114" s="27" t="s">
+      <c r="A114" s="33"/>
+      <c r="B114" s="32"/>
+      <c r="C114" s="34"/>
+      <c r="D114" s="30" t="s">
         <v>40</v>
       </c>
       <c r="E114" s="9" t="s">
@@ -3902,10 +3326,10 @@
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A115" s="37"/>
-      <c r="B115" s="33"/>
-      <c r="C115" s="28"/>
-      <c r="D115" s="28"/>
+      <c r="A115" s="33"/>
+      <c r="B115" s="32"/>
+      <c r="C115" s="34"/>
+      <c r="D115" s="34"/>
       <c r="E115" s="9" t="s">
         <v>47</v>
       </c>
@@ -3919,10 +3343,10 @@
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A116" s="37"/>
-      <c r="B116" s="33"/>
-      <c r="C116" s="28"/>
-      <c r="D116" s="28"/>
+      <c r="A116" s="33"/>
+      <c r="B116" s="32"/>
+      <c r="C116" s="34"/>
+      <c r="D116" s="34"/>
       <c r="E116" s="9" t="s">
         <v>45</v>
       </c>
@@ -3936,10 +3360,10 @@
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A117" s="37"/>
-      <c r="B117" s="33"/>
-      <c r="C117" s="28"/>
-      <c r="D117" s="28"/>
+      <c r="A117" s="33"/>
+      <c r="B117" s="32"/>
+      <c r="C117" s="34"/>
+      <c r="D117" s="34"/>
       <c r="E117" s="9" t="s">
         <v>46</v>
       </c>
@@ -3955,10 +3379,10 @@
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A118" s="37"/>
-      <c r="B118" s="33"/>
-      <c r="C118" s="28"/>
-      <c r="D118" s="28"/>
+      <c r="A118" s="33"/>
+      <c r="B118" s="32"/>
+      <c r="C118" s="34"/>
+      <c r="D118" s="34"/>
       <c r="E118" s="9" t="s">
         <v>48</v>
       </c>
@@ -3974,10 +3398,10 @@
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A119" s="37"/>
-      <c r="B119" s="33"/>
-      <c r="C119" s="28"/>
-      <c r="D119" s="29"/>
+      <c r="A119" s="33"/>
+      <c r="B119" s="32"/>
+      <c r="C119" s="34"/>
+      <c r="D119" s="31"/>
       <c r="E119" s="9" t="s">
         <v>49</v>
       </c>
@@ -3991,10 +3415,10 @@
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A120" s="37"/>
-      <c r="B120" s="33"/>
-      <c r="C120" s="28"/>
-      <c r="D120" s="27" t="s">
+      <c r="A120" s="33"/>
+      <c r="B120" s="32"/>
+      <c r="C120" s="34"/>
+      <c r="D120" s="30" t="s">
         <v>50</v>
       </c>
       <c r="E120" s="9" t="s">
@@ -4012,11 +3436,11 @@
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A121" s="37"/>
-      <c r="B121" s="33"/>
-      <c r="C121" s="28"/>
-      <c r="D121" s="28"/>
-      <c r="E121" s="27" t="s">
+      <c r="A121" s="33"/>
+      <c r="B121" s="32"/>
+      <c r="C121" s="34"/>
+      <c r="D121" s="34"/>
+      <c r="E121" s="30" t="s">
         <v>51</v>
       </c>
       <c r="F121" s="9" t="s">
@@ -4031,11 +3455,11 @@
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A122" s="37"/>
-      <c r="B122" s="33"/>
-      <c r="C122" s="28"/>
-      <c r="D122" s="28"/>
-      <c r="E122" s="28"/>
+      <c r="A122" s="33"/>
+      <c r="B122" s="32"/>
+      <c r="C122" s="34"/>
+      <c r="D122" s="34"/>
+      <c r="E122" s="34"/>
       <c r="F122" s="9" t="s">
         <v>52</v>
       </c>
@@ -4050,11 +3474,11 @@
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A123" s="37"/>
-      <c r="B123" s="33"/>
-      <c r="C123" s="28"/>
-      <c r="D123" s="28"/>
-      <c r="E123" s="28"/>
+      <c r="A123" s="33"/>
+      <c r="B123" s="32"/>
+      <c r="C123" s="34"/>
+      <c r="D123" s="34"/>
+      <c r="E123" s="34"/>
       <c r="F123" s="9" t="s">
         <v>53</v>
       </c>
@@ -4069,11 +3493,11 @@
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A124" s="37"/>
-      <c r="B124" s="33"/>
-      <c r="C124" s="28"/>
-      <c r="D124" s="28"/>
-      <c r="E124" s="28"/>
+      <c r="A124" s="33"/>
+      <c r="B124" s="32"/>
+      <c r="C124" s="34"/>
+      <c r="D124" s="34"/>
+      <c r="E124" s="34"/>
       <c r="F124" s="9" t="s">
         <v>54</v>
       </c>
@@ -4086,11 +3510,11 @@
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A125" s="37"/>
-      <c r="B125" s="33"/>
-      <c r="C125" s="28"/>
-      <c r="D125" s="28"/>
-      <c r="E125" s="28"/>
+      <c r="A125" s="33"/>
+      <c r="B125" s="32"/>
+      <c r="C125" s="34"/>
+      <c r="D125" s="34"/>
+      <c r="E125" s="34"/>
       <c r="F125" s="9" t="s">
         <v>55</v>
       </c>
@@ -4105,11 +3529,11 @@
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A126" s="37"/>
-      <c r="B126" s="33"/>
-      <c r="C126" s="28"/>
-      <c r="D126" s="28"/>
-      <c r="E126" s="28"/>
+      <c r="A126" s="33"/>
+      <c r="B126" s="32"/>
+      <c r="C126" s="34"/>
+      <c r="D126" s="34"/>
+      <c r="E126" s="34"/>
       <c r="F126" s="9" t="s">
         <v>56</v>
       </c>
@@ -4122,11 +3546,11 @@
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A127" s="37"/>
-      <c r="B127" s="33"/>
-      <c r="C127" s="28"/>
-      <c r="D127" s="28"/>
-      <c r="E127" s="29"/>
+      <c r="A127" s="33"/>
+      <c r="B127" s="32"/>
+      <c r="C127" s="34"/>
+      <c r="D127" s="34"/>
+      <c r="E127" s="31"/>
       <c r="F127" s="9" t="s">
         <v>57</v>
       </c>
@@ -4139,10 +3563,10 @@
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A128" s="37"/>
-      <c r="B128" s="33"/>
-      <c r="C128" s="28"/>
-      <c r="D128" s="29"/>
+      <c r="A128" s="33"/>
+      <c r="B128" s="32"/>
+      <c r="C128" s="34"/>
+      <c r="D128" s="31"/>
       <c r="E128" s="9" t="s">
         <v>128</v>
       </c>
@@ -4160,9 +3584,9 @@
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A129" s="37"/>
-      <c r="B129" s="33"/>
-      <c r="C129" s="27" t="s">
+      <c r="A129" s="33"/>
+      <c r="B129" s="32"/>
+      <c r="C129" s="30" t="s">
         <v>70</v>
       </c>
       <c r="D129" s="9" t="s">
@@ -4181,9 +3605,9 @@
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A130" s="37"/>
-      <c r="B130" s="33"/>
-      <c r="C130" s="28"/>
+      <c r="A130" s="33"/>
+      <c r="B130" s="32"/>
+      <c r="C130" s="34"/>
       <c r="D130" s="9" t="s">
         <v>14</v>
       </c>
@@ -4200,9 +3624,9 @@
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A131" s="37"/>
-      <c r="B131" s="33"/>
-      <c r="C131" s="28"/>
+      <c r="A131" s="33"/>
+      <c r="B131" s="32"/>
+      <c r="C131" s="34"/>
       <c r="D131" s="9" t="s">
         <v>15</v>
       </c>
@@ -4219,9 +3643,9 @@
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A132" s="37"/>
-      <c r="B132" s="33"/>
-      <c r="C132" s="28"/>
+      <c r="A132" s="33"/>
+      <c r="B132" s="32"/>
+      <c r="C132" s="34"/>
       <c r="D132" s="9" t="s">
         <v>16</v>
       </c>
@@ -4238,9 +3662,9 @@
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A133" s="37"/>
-      <c r="B133" s="33"/>
-      <c r="C133" s="27" t="s">
+      <c r="A133" s="33"/>
+      <c r="B133" s="32"/>
+      <c r="C133" s="30" t="s">
         <v>144</v>
       </c>
       <c r="D133" s="9" t="s">
@@ -4259,9 +3683,9 @@
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A134" s="37"/>
-      <c r="B134" s="33"/>
-      <c r="C134" s="29"/>
+      <c r="A134" s="33"/>
+      <c r="B134" s="32"/>
+      <c r="C134" s="31"/>
       <c r="D134" s="2" t="s">
         <v>145</v>
       </c>
@@ -4278,9 +3702,9 @@
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A135" s="37"/>
-      <c r="B135" s="33"/>
-      <c r="C135" s="27" t="s">
+      <c r="A135" s="33"/>
+      <c r="B135" s="32"/>
+      <c r="C135" s="30" t="s">
         <v>71</v>
       </c>
       <c r="D135" s="9" t="s">
@@ -4299,9 +3723,9 @@
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A136" s="37"/>
-      <c r="B136" s="33"/>
-      <c r="C136" s="29"/>
+      <c r="A136" s="33"/>
+      <c r="B136" s="32"/>
+      <c r="C136" s="31"/>
       <c r="D136" s="9" t="s">
         <v>15</v>
       </c>
@@ -4318,11 +3742,11 @@
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A137" s="37"/>
-      <c r="B137" s="33" t="s">
+      <c r="A137" s="33"/>
+      <c r="B137" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C137" s="27" t="s">
+      <c r="C137" s="30" t="s">
         <v>61</v>
       </c>
       <c r="D137" s="9" t="s">
@@ -4337,9 +3761,9 @@
       <c r="K137" s="9"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A138" s="37"/>
-      <c r="B138" s="33"/>
-      <c r="C138" s="29"/>
+      <c r="A138" s="33"/>
+      <c r="B138" s="32"/>
+      <c r="C138" s="31"/>
       <c r="D138" s="9" t="s">
         <v>91</v>
       </c>
@@ -4352,8 +3776,8 @@
       <c r="K138" s="9"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A139" s="37"/>
-      <c r="B139" s="33"/>
+      <c r="A139" s="33"/>
+      <c r="B139" s="32"/>
       <c r="C139" s="9" t="s">
         <v>63</v>
       </c>
@@ -4369,8 +3793,8 @@
       <c r="K139" s="9"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A140" s="37"/>
-      <c r="B140" s="33"/>
+      <c r="A140" s="33"/>
+      <c r="B140" s="32"/>
       <c r="C140" s="9" t="s">
         <v>60</v>
       </c>
@@ -4386,8 +3810,8 @@
       <c r="K140" s="9"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A141" s="37"/>
-      <c r="B141" s="33"/>
+      <c r="A141" s="33"/>
+      <c r="B141" s="32"/>
       <c r="C141" s="9" t="s">
         <v>66</v>
       </c>
@@ -4416,7 +3840,7 @@
       <c r="K142" s="9"/>
     </row>
     <row r="143" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="34" t="s">
+      <c r="A143" s="27" t="s">
         <v>68</v>
       </c>
       <c r="B143" s="21" t="s">
@@ -4433,7 +3857,7 @@
       <c r="K143" s="9"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A144" s="35"/>
+      <c r="A144" s="28"/>
       <c r="B144" s="21" t="s">
         <v>72</v>
       </c>
@@ -4448,7 +3872,7 @@
       <c r="K144" s="9"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A145" s="35"/>
+      <c r="A145" s="28"/>
       <c r="B145" s="21" t="s">
         <v>70</v>
       </c>
@@ -4463,7 +3887,7 @@
       <c r="K145" s="9"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A146" s="35"/>
+      <c r="A146" s="28"/>
       <c r="B146" s="21" t="s">
         <v>73</v>
       </c>
@@ -4514,6 +3938,27 @@
     <protectedRange sqref="J143:J148 J2:J71 J73:J141" name="区域3"/>
   </protectedRanges>
   <mergeCells count="37">
+    <mergeCell ref="C129:C132"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="E121:E127"/>
+    <mergeCell ref="D120:D128"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="B77:B84"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="C85:C88"/>
+    <mergeCell ref="D114:D119"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="D93:D97"/>
+    <mergeCell ref="C89:C128"/>
     <mergeCell ref="A8:A71"/>
     <mergeCell ref="C135:C136"/>
     <mergeCell ref="B85:B136"/>
@@ -4530,61 +3975,40 @@
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="B17:B22"/>
     <mergeCell ref="C77:C79"/>
-    <mergeCell ref="E121:E127"/>
-    <mergeCell ref="D120:D128"/>
-    <mergeCell ref="C81:C84"/>
-    <mergeCell ref="B77:B84"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="C85:C88"/>
-    <mergeCell ref="D114:D119"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="D93:D97"/>
-    <mergeCell ref="C89:C128"/>
-    <mergeCell ref="C129:C132"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="B23:B27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J143:J148 J73:J78 J32:J71 J2:J27 J80:J141">
-    <cfRule type="cellIs" dxfId="23" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="22" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="23" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="24" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="24" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:J31">
-    <cfRule type="cellIs" dxfId="80" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="6" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="6" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J79">
-    <cfRule type="cellIs" dxfId="77" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>

--- a/doc/开发计划V0.1.xlsx
+++ b/doc/开发计划V0.1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="21840" windowHeight="13710"/>
@@ -849,27 +849,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -881,11 +866,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1258,8 +1282,8 @@
   <dimension ref="A1:K149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D154" sqref="D154"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B60" sqref="B60:J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1400,10 +1424,10 @@
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="27" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -1423,8 +1447,8 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="28"/>
-      <c r="B9" s="34"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="9" t="s">
         <v>14</v>
       </c>
@@ -1442,8 +1466,8 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="28"/>
-      <c r="B10" s="34"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="9" t="s">
         <v>15</v>
       </c>
@@ -1461,8 +1485,8 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="28"/>
-      <c r="B11" s="34"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="9" t="s">
         <v>16</v>
       </c>
@@ -1480,8 +1504,8 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="28"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="9" t="s">
         <v>17</v>
       </c>
@@ -1499,8 +1523,8 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="28"/>
-      <c r="B13" s="30" t="s">
+      <c r="A13" s="35"/>
+      <c r="B13" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -1520,8 +1544,8 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="28"/>
-      <c r="B14" s="34"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="9" t="s">
         <v>14</v>
       </c>
@@ -1539,8 +1563,8 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="28"/>
-      <c r="B15" s="34"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="9" t="s">
         <v>15</v>
       </c>
@@ -1558,8 +1582,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="28"/>
-      <c r="B16" s="31"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="9" t="s">
         <v>16</v>
       </c>
@@ -1577,8 +1601,8 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="28"/>
-      <c r="B17" s="30" t="s">
+      <c r="A17" s="35"/>
+      <c r="B17" s="27" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="9" t="s">
@@ -1598,8 +1622,8 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="28"/>
-      <c r="B18" s="34"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="9" t="s">
         <v>14</v>
       </c>
@@ -1617,8 +1641,8 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="28"/>
-      <c r="B19" s="34"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="9" t="s">
         <v>15</v>
       </c>
@@ -1636,8 +1660,8 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="28"/>
-      <c r="B20" s="34"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="9" t="s">
         <v>16</v>
       </c>
@@ -1655,9 +1679,9 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="28"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="30" t="s">
+      <c r="A21" s="35"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="27" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="9" t="s">
@@ -1676,9 +1700,9 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="28"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="9" t="s">
         <v>20</v>
       </c>
@@ -1695,8 +1719,8 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="28"/>
-      <c r="B23" s="30" t="s">
+      <c r="A23" s="35"/>
+      <c r="B23" s="27" t="s">
         <v>151</v>
       </c>
       <c r="C23" s="9" t="s">
@@ -1716,8 +1740,8 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="28"/>
-      <c r="B24" s="34"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="9" t="s">
         <v>14</v>
       </c>
@@ -1735,8 +1759,8 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="28"/>
-      <c r="B25" s="34"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="9" t="s">
         <v>15</v>
       </c>
@@ -1754,8 +1778,8 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="28"/>
-      <c r="B26" s="34"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="9" t="s">
         <v>16</v>
       </c>
@@ -1773,8 +1797,8 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="28"/>
-      <c r="B27" s="31"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="9" t="s">
         <v>152</v>
       </c>
@@ -1792,8 +1816,8 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="28"/>
-      <c r="B28" s="30" t="s">
+      <c r="A28" s="35"/>
+      <c r="B28" s="27" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="9" t="s">
@@ -1805,14 +1829,16 @@
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
-      <c r="J28" s="10"/>
+      <c r="J28" s="10">
+        <v>1</v>
+      </c>
       <c r="K28" s="9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="28"/>
-      <c r="B29" s="34"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="28"/>
       <c r="C29" s="9" t="s">
         <v>14</v>
       </c>
@@ -1822,14 +1848,16 @@
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
-      <c r="J29" s="10"/>
+      <c r="J29" s="10">
+        <v>1</v>
+      </c>
       <c r="K29" s="9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="28"/>
-      <c r="B30" s="34"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="28"/>
       <c r="C30" s="9" t="s">
         <v>15</v>
       </c>
@@ -1839,14 +1867,16 @@
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
-      <c r="J30" s="10"/>
+      <c r="J30" s="10">
+        <v>1</v>
+      </c>
       <c r="K30" s="9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="28"/>
-      <c r="B31" s="31"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="29"/>
       <c r="C31" s="9" t="s">
         <v>16</v>
       </c>
@@ -1856,14 +1886,16 @@
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
-      <c r="J31" s="10"/>
+      <c r="J31" s="10">
+        <v>1</v>
+      </c>
       <c r="K31" s="9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A32" s="28"/>
-      <c r="B32" s="30" t="s">
+      <c r="A32" s="35"/>
+      <c r="B32" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="9" t="s">
@@ -1875,14 +1907,16 @@
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
-      <c r="J32" s="10"/>
+      <c r="J32" s="10">
+        <v>0.9</v>
+      </c>
       <c r="K32" s="9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A33" s="28"/>
-      <c r="B33" s="34"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="28"/>
       <c r="C33" s="9" t="s">
         <v>14</v>
       </c>
@@ -1892,14 +1926,16 @@
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
-      <c r="J33" s="10"/>
+      <c r="J33" s="10">
+        <v>0.9</v>
+      </c>
       <c r="K33" s="9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="28"/>
-      <c r="B34" s="34"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="9" t="s">
         <v>15</v>
       </c>
@@ -1909,14 +1945,16 @@
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
-      <c r="J34" s="10"/>
+      <c r="J34" s="10">
+        <v>1</v>
+      </c>
       <c r="K34" s="9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" s="28"/>
-      <c r="B35" s="31"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="29"/>
       <c r="C35" s="9" t="s">
         <v>16</v>
       </c>
@@ -1926,14 +1964,16 @@
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
-      <c r="J35" s="10"/>
+      <c r="J35" s="10">
+        <v>1</v>
+      </c>
       <c r="K35" s="9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A36" s="28"/>
-      <c r="B36" s="30" t="s">
+      <c r="A36" s="35"/>
+      <c r="B36" s="27" t="s">
         <v>153</v>
       </c>
       <c r="C36" s="9" t="s">
@@ -1946,15 +1986,15 @@
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
       <c r="J36" s="10">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="K36" s="9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A37" s="28"/>
-      <c r="B37" s="34"/>
+      <c r="A37" s="35"/>
+      <c r="B37" s="28"/>
       <c r="C37" s="9" t="s">
         <v>14</v>
       </c>
@@ -1965,15 +2005,15 @@
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
       <c r="J37" s="10">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="K37" s="9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A38" s="28"/>
-      <c r="B38" s="34"/>
+      <c r="A38" s="35"/>
+      <c r="B38" s="28"/>
       <c r="C38" s="9" t="s">
         <v>15</v>
       </c>
@@ -1984,15 +2024,15 @@
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
       <c r="J38" s="10">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="K38" s="9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A39" s="28"/>
-      <c r="B39" s="31"/>
+      <c r="A39" s="35"/>
+      <c r="B39" s="29"/>
       <c r="C39" s="9" t="s">
         <v>16</v>
       </c>
@@ -2003,14 +2043,14 @@
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
       <c r="J39" s="10">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="K39" s="9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A40" s="28"/>
+      <c r="A40" s="35"/>
       <c r="B40" s="8" t="s">
         <v>77</v>
       </c>
@@ -2024,14 +2064,14 @@
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
       <c r="J40" s="10">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="K40" s="9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A41" s="28"/>
+      <c r="A41" s="35"/>
       <c r="B41" s="12" t="s">
         <v>131</v>
       </c>
@@ -2054,7 +2094,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A42" s="28"/>
+      <c r="A42" s="35"/>
       <c r="B42" s="8" t="s">
         <v>132</v>
       </c>
@@ -2071,7 +2111,7 @@
       <c r="K42" s="9"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A43" s="28"/>
+      <c r="A43" s="35"/>
       <c r="B43" s="8" t="s">
         <v>134</v>
       </c>
@@ -2088,7 +2128,7 @@
       <c r="K43" s="9"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A44" s="28"/>
+      <c r="A44" s="35"/>
       <c r="B44" s="8" t="s">
         <v>154</v>
       </c>
@@ -2105,7 +2145,7 @@
       <c r="K44" s="9"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A45" s="28"/>
+      <c r="A45" s="35"/>
       <c r="B45" s="8" t="s">
         <v>37</v>
       </c>
@@ -2124,7 +2164,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A46" s="28"/>
+      <c r="A46" s="35"/>
       <c r="B46" s="12"/>
       <c r="C46" s="14"/>
       <c r="D46" s="9"/>
@@ -2137,8 +2177,8 @@
       <c r="K46" s="9"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A47" s="28"/>
-      <c r="B47" s="30" t="s">
+      <c r="A47" s="35"/>
+      <c r="B47" s="27" t="s">
         <v>74</v>
       </c>
       <c r="C47" s="8" t="s">
@@ -2156,9 +2196,9 @@
       <c r="K47" s="9"/>
     </row>
     <row r="48" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="28"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="35" t="s">
+      <c r="A48" s="35"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="30" t="s">
         <v>139</v>
       </c>
       <c r="D48" s="15" t="s">
@@ -2173,9 +2213,9 @@
       <c r="K48" s="9"/>
     </row>
     <row r="49" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="28"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="36"/>
+      <c r="A49" s="35"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="31"/>
       <c r="D49" s="15" t="s">
         <v>140</v>
       </c>
@@ -2188,9 +2228,9 @@
       <c r="K49" s="9"/>
     </row>
     <row r="50" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="28"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="36"/>
+      <c r="A50" s="35"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="31"/>
       <c r="D50" s="16" t="s">
         <v>75</v>
       </c>
@@ -2203,9 +2243,9 @@
       <c r="K50" s="9"/>
     </row>
     <row r="51" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="28"/>
-      <c r="B51" s="34"/>
-      <c r="C51" s="36"/>
+      <c r="A51" s="35"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="31"/>
       <c r="D51" s="16" t="s">
         <v>76</v>
       </c>
@@ -2218,9 +2258,9 @@
       <c r="K51" s="9"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="28"/>
-      <c r="B52" s="31"/>
-      <c r="C52" s="37"/>
+      <c r="A52" s="35"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="32"/>
       <c r="D52" s="16" t="s">
         <v>81</v>
       </c>
@@ -2235,8 +2275,8 @@
       <c r="K52" s="9"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A53" s="28"/>
-      <c r="B53" s="30" t="s">
+      <c r="A53" s="35"/>
+      <c r="B53" s="27" t="s">
         <v>78</v>
       </c>
       <c r="C53" s="16" t="s">
@@ -2252,8 +2292,8 @@
       <c r="K53" s="9"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A54" s="28"/>
-      <c r="B54" s="34"/>
+      <c r="A54" s="35"/>
+      <c r="B54" s="28"/>
       <c r="C54" s="16" t="s">
         <v>80</v>
       </c>
@@ -2269,8 +2309,8 @@
       <c r="K54" s="9"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A55" s="28"/>
-      <c r="B55" s="31"/>
+      <c r="A55" s="35"/>
+      <c r="B55" s="29"/>
       <c r="C55" s="16" t="s">
         <v>59</v>
       </c>
@@ -2284,8 +2324,8 @@
       <c r="K55" s="9"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A56" s="28"/>
-      <c r="B56" s="30" t="s">
+      <c r="A56" s="35"/>
+      <c r="B56" s="27" t="s">
         <v>141</v>
       </c>
       <c r="C56" s="16" t="s">
@@ -2301,8 +2341,8 @@
       <c r="K56" s="9"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A57" s="28"/>
-      <c r="B57" s="31"/>
+      <c r="A57" s="35"/>
+      <c r="B57" s="29"/>
       <c r="C57" s="16" t="s">
         <v>85</v>
       </c>
@@ -2316,8 +2356,8 @@
       <c r="K57" s="9"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A58" s="28"/>
-      <c r="B58" s="30" t="s">
+      <c r="A58" s="35"/>
+      <c r="B58" s="27" t="s">
         <v>142</v>
       </c>
       <c r="C58" s="16" t="s">
@@ -2333,8 +2373,8 @@
       <c r="K58" s="9"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A59" s="28"/>
-      <c r="B59" s="31"/>
+      <c r="A59" s="35"/>
+      <c r="B59" s="29"/>
       <c r="C59" s="16" t="s">
         <v>83</v>
       </c>
@@ -2348,8 +2388,8 @@
       <c r="K59" s="9"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A60" s="28"/>
-      <c r="B60" s="30" t="s">
+      <c r="A60" s="35"/>
+      <c r="B60" s="27" t="s">
         <v>86</v>
       </c>
       <c r="C60" s="9" t="s">
@@ -2365,8 +2405,8 @@
       <c r="K60" s="9"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A61" s="28"/>
-      <c r="B61" s="34"/>
+      <c r="A61" s="35"/>
+      <c r="B61" s="28"/>
       <c r="C61" s="9" t="s">
         <v>14</v>
       </c>
@@ -2380,8 +2420,8 @@
       <c r="K61" s="9"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A62" s="28"/>
-      <c r="B62" s="34"/>
+      <c r="A62" s="35"/>
+      <c r="B62" s="28"/>
       <c r="C62" s="9" t="s">
         <v>15</v>
       </c>
@@ -2395,8 +2435,8 @@
       <c r="K62" s="9"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A63" s="28"/>
-      <c r="B63" s="31"/>
+      <c r="A63" s="35"/>
+      <c r="B63" s="29"/>
       <c r="C63" s="9" t="s">
         <v>16</v>
       </c>
@@ -2410,7 +2450,7 @@
       <c r="K63" s="9"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A64" s="28"/>
+      <c r="A64" s="35"/>
       <c r="B64" s="8" t="s">
         <v>89</v>
       </c>
@@ -2427,8 +2467,8 @@
       <c r="K64" s="9"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A65" s="28"/>
-      <c r="B65" s="30" t="s">
+      <c r="A65" s="35"/>
+      <c r="B65" s="27" t="s">
         <v>155</v>
       </c>
       <c r="C65" s="9" t="s">
@@ -2444,8 +2484,8 @@
       <c r="K65" s="9"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A66" s="28"/>
-      <c r="B66" s="34"/>
+      <c r="A66" s="35"/>
+      <c r="B66" s="28"/>
       <c r="C66" s="9" t="s">
         <v>14</v>
       </c>
@@ -2459,8 +2499,8 @@
       <c r="K66" s="9"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A67" s="28"/>
-      <c r="B67" s="34"/>
+      <c r="A67" s="35"/>
+      <c r="B67" s="28"/>
       <c r="C67" s="9" t="s">
         <v>15</v>
       </c>
@@ -2474,8 +2514,8 @@
       <c r="K67" s="9"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A68" s="28"/>
-      <c r="B68" s="31"/>
+      <c r="A68" s="35"/>
+      <c r="B68" s="29"/>
       <c r="C68" s="9" t="s">
         <v>16</v>
       </c>
@@ -2489,8 +2529,8 @@
       <c r="K68" s="9"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A69" s="28"/>
-      <c r="B69" s="30" t="s">
+      <c r="A69" s="35"/>
+      <c r="B69" s="27" t="s">
         <v>156</v>
       </c>
       <c r="C69" s="9" t="s">
@@ -2506,8 +2546,8 @@
       <c r="K69" s="9"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A70" s="28"/>
-      <c r="B70" s="31"/>
+      <c r="A70" s="35"/>
+      <c r="B70" s="29"/>
       <c r="C70" s="15" t="s">
         <v>90</v>
       </c>
@@ -2521,7 +2561,7 @@
       <c r="K70" s="9"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A71" s="29"/>
+      <c r="A71" s="36"/>
       <c r="B71" s="13" t="s">
         <v>158</v>
       </c>
@@ -2551,10 +2591,10 @@
       <c r="K72" s="9"/>
     </row>
     <row r="73" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="33" t="s">
+      <c r="A73" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B73" s="32" t="s">
+      <c r="B73" s="33" t="s">
         <v>23</v>
       </c>
       <c r="C73" s="9" t="s">
@@ -2570,8 +2610,8 @@
       <c r="K73" s="9"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A74" s="33"/>
-      <c r="B74" s="32"/>
+      <c r="A74" s="37"/>
+      <c r="B74" s="33"/>
       <c r="C74" s="9" t="s">
         <v>25</v>
       </c>
@@ -2585,8 +2625,8 @@
       <c r="K74" s="9"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A75" s="33"/>
-      <c r="B75" s="32"/>
+      <c r="A75" s="37"/>
+      <c r="B75" s="33"/>
       <c r="C75" s="9" t="s">
         <v>26</v>
       </c>
@@ -2600,8 +2640,8 @@
       <c r="K75" s="9"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A76" s="33"/>
-      <c r="B76" s="32"/>
+      <c r="A76" s="37"/>
+      <c r="B76" s="33"/>
       <c r="C76" s="19" t="s">
         <v>87</v>
       </c>
@@ -2617,11 +2657,11 @@
       <c r="K76" s="9"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A77" s="33"/>
-      <c r="B77" s="32" t="s">
+      <c r="A77" s="37"/>
+      <c r="B77" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C77" s="30" t="s">
+      <c r="C77" s="27" t="s">
         <v>28</v>
       </c>
       <c r="D77" s="9" t="s">
@@ -2636,10 +2676,10 @@
       <c r="K77" s="9"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A78" s="33"/>
-      <c r="B78" s="32"/>
-      <c r="C78" s="34"/>
-      <c r="D78" s="30" t="s">
+      <c r="A78" s="37"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="27" t="s">
         <v>30</v>
       </c>
       <c r="E78" s="16" t="s">
@@ -2653,10 +2693,10 @@
       <c r="K78" s="9"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A79" s="33"/>
-      <c r="B79" s="32"/>
-      <c r="C79" s="34"/>
-      <c r="D79" s="31"/>
+      <c r="A79" s="37"/>
+      <c r="B79" s="33"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="29"/>
       <c r="E79" s="16" t="s">
         <v>83</v>
       </c>
@@ -2668,8 +2708,8 @@
       <c r="K79" s="9"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A80" s="33"/>
-      <c r="B80" s="32"/>
+      <c r="A80" s="37"/>
+      <c r="B80" s="33"/>
       <c r="C80" s="9" t="s">
         <v>31</v>
       </c>
@@ -2683,12 +2723,12 @@
       <c r="K80" s="9"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A81" s="33"/>
-      <c r="B81" s="32"/>
-      <c r="C81" s="30" t="s">
+      <c r="A81" s="37"/>
+      <c r="B81" s="33"/>
+      <c r="C81" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="D81" s="30" t="s">
+      <c r="D81" s="27" t="s">
         <v>94</v>
       </c>
       <c r="E81" s="9" t="s">
@@ -2702,10 +2742,10 @@
       <c r="K81" s="9"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A82" s="33"/>
-      <c r="B82" s="32"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="31"/>
+      <c r="A82" s="37"/>
+      <c r="B82" s="33"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="29"/>
       <c r="E82" s="9" t="s">
         <v>35</v>
       </c>
@@ -2717,9 +2757,9 @@
       <c r="K82" s="9"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A83" s="33"/>
-      <c r="B83" s="32"/>
-      <c r="C83" s="34"/>
+      <c r="A83" s="37"/>
+      <c r="B83" s="33"/>
+      <c r="C83" s="28"/>
       <c r="D83" s="9" t="s">
         <v>32</v>
       </c>
@@ -2734,9 +2774,9 @@
       <c r="K83" s="9"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A84" s="33"/>
-      <c r="B84" s="32"/>
-      <c r="C84" s="31"/>
+      <c r="A84" s="37"/>
+      <c r="B84" s="33"/>
+      <c r="C84" s="29"/>
       <c r="D84" s="9" t="s">
         <v>33</v>
       </c>
@@ -2751,11 +2791,11 @@
       <c r="K84" s="9"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A85" s="33"/>
-      <c r="B85" s="32" t="s">
+      <c r="A85" s="37"/>
+      <c r="B85" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="C85" s="30" t="s">
+      <c r="C85" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D85" s="9" t="s">
@@ -2774,9 +2814,9 @@
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A86" s="33"/>
-      <c r="B86" s="32"/>
-      <c r="C86" s="34"/>
+      <c r="A86" s="37"/>
+      <c r="B86" s="33"/>
+      <c r="C86" s="28"/>
       <c r="D86" s="9" t="s">
         <v>14</v>
       </c>
@@ -2793,9 +2833,9 @@
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A87" s="33"/>
-      <c r="B87" s="32"/>
-      <c r="C87" s="34"/>
+      <c r="A87" s="37"/>
+      <c r="B87" s="33"/>
+      <c r="C87" s="28"/>
       <c r="D87" s="9" t="s">
         <v>15</v>
       </c>
@@ -2812,9 +2852,9 @@
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A88" s="33"/>
-      <c r="B88" s="32"/>
-      <c r="C88" s="31"/>
+      <c r="A88" s="37"/>
+      <c r="B88" s="33"/>
+      <c r="C88" s="29"/>
       <c r="D88" s="9" t="s">
         <v>16</v>
       </c>
@@ -2831,9 +2871,9 @@
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A89" s="33"/>
-      <c r="B89" s="32"/>
-      <c r="C89" s="30" t="s">
+      <c r="A89" s="37"/>
+      <c r="B89" s="33"/>
+      <c r="C89" s="27" t="s">
         <v>93</v>
       </c>
       <c r="D89" s="9" t="s">
@@ -2852,9 +2892,9 @@
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A90" s="33"/>
-      <c r="B90" s="32"/>
-      <c r="C90" s="34"/>
+      <c r="A90" s="37"/>
+      <c r="B90" s="33"/>
+      <c r="C90" s="28"/>
       <c r="D90" s="9" t="s">
         <v>14</v>
       </c>
@@ -2871,9 +2911,9 @@
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A91" s="33"/>
-      <c r="B91" s="32"/>
-      <c r="C91" s="34"/>
+      <c r="A91" s="37"/>
+      <c r="B91" s="33"/>
+      <c r="C91" s="28"/>
       <c r="D91" s="9" t="s">
         <v>15</v>
       </c>
@@ -2890,9 +2930,9 @@
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A92" s="33"/>
-      <c r="B92" s="32"/>
-      <c r="C92" s="34"/>
+      <c r="A92" s="37"/>
+      <c r="B92" s="33"/>
+      <c r="C92" s="28"/>
       <c r="D92" s="9" t="s">
         <v>16</v>
       </c>
@@ -2909,10 +2949,10 @@
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A93" s="33"/>
-      <c r="B93" s="32"/>
-      <c r="C93" s="34"/>
-      <c r="D93" s="30" t="s">
+      <c r="A93" s="37"/>
+      <c r="B93" s="33"/>
+      <c r="C93" s="28"/>
+      <c r="D93" s="27" t="s">
         <v>148</v>
       </c>
       <c r="E93" s="9" t="s">
@@ -2928,10 +2968,10 @@
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A94" s="33"/>
-      <c r="B94" s="32"/>
-      <c r="C94" s="34"/>
-      <c r="D94" s="34"/>
+      <c r="A94" s="37"/>
+      <c r="B94" s="33"/>
+      <c r="C94" s="28"/>
+      <c r="D94" s="28"/>
       <c r="E94" s="9" t="s">
         <v>42</v>
       </c>
@@ -2945,10 +2985,10 @@
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A95" s="33"/>
-      <c r="B95" s="32"/>
-      <c r="C95" s="34"/>
-      <c r="D95" s="34"/>
+      <c r="A95" s="37"/>
+      <c r="B95" s="33"/>
+      <c r="C95" s="28"/>
+      <c r="D95" s="28"/>
       <c r="E95" s="9" t="s">
         <v>43</v>
       </c>
@@ -2962,10 +3002,10 @@
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="33"/>
-      <c r="B96" s="32"/>
-      <c r="C96" s="34"/>
-      <c r="D96" s="34"/>
+      <c r="A96" s="37"/>
+      <c r="B96" s="33"/>
+      <c r="C96" s="28"/>
+      <c r="D96" s="28"/>
       <c r="E96" s="26" t="s">
         <v>108</v>
       </c>
@@ -2981,10 +3021,10 @@
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="33"/>
-      <c r="B97" s="32"/>
-      <c r="C97" s="34"/>
-      <c r="D97" s="31"/>
+      <c r="A97" s="37"/>
+      <c r="B97" s="33"/>
+      <c r="C97" s="28"/>
+      <c r="D97" s="29"/>
       <c r="E97" s="26" t="s">
         <v>147</v>
       </c>
@@ -3000,9 +3040,9 @@
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A98" s="33"/>
-      <c r="B98" s="32"/>
-      <c r="C98" s="34"/>
+      <c r="A98" s="37"/>
+      <c r="B98" s="33"/>
+      <c r="C98" s="28"/>
       <c r="D98" s="9" t="s">
         <v>95</v>
       </c>
@@ -3017,9 +3057,9 @@
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A99" s="33"/>
-      <c r="B99" s="32"/>
-      <c r="C99" s="34"/>
+      <c r="A99" s="37"/>
+      <c r="B99" s="33"/>
+      <c r="C99" s="28"/>
       <c r="D99" s="19" t="s">
         <v>97</v>
       </c>
@@ -3036,9 +3076,9 @@
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A100" s="33"/>
-      <c r="B100" s="32"/>
-      <c r="C100" s="34"/>
+      <c r="A100" s="37"/>
+      <c r="B100" s="33"/>
+      <c r="C100" s="28"/>
       <c r="D100" s="19" t="s">
         <v>98</v>
       </c>
@@ -3054,9 +3094,9 @@
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A101" s="33"/>
-      <c r="B101" s="32"/>
-      <c r="C101" s="34"/>
+      <c r="A101" s="37"/>
+      <c r="B101" s="33"/>
+      <c r="C101" s="28"/>
       <c r="D101" s="19" t="s">
         <v>100</v>
       </c>
@@ -3072,9 +3112,9 @@
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A102" s="33"/>
-      <c r="B102" s="32"/>
-      <c r="C102" s="34"/>
+      <c r="A102" s="37"/>
+      <c r="B102" s="33"/>
+      <c r="C102" s="28"/>
       <c r="D102" s="19" t="s">
         <v>102</v>
       </c>
@@ -3090,9 +3130,9 @@
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A103" s="33"/>
-      <c r="B103" s="32"/>
-      <c r="C103" s="34"/>
+      <c r="A103" s="37"/>
+      <c r="B103" s="33"/>
+      <c r="C103" s="28"/>
       <c r="D103" s="19" t="s">
         <v>104</v>
       </c>
@@ -3109,9 +3149,9 @@
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A104" s="33"/>
-      <c r="B104" s="32"/>
-      <c r="C104" s="34"/>
+      <c r="A104" s="37"/>
+      <c r="B104" s="33"/>
+      <c r="C104" s="28"/>
       <c r="D104" s="19" t="s">
         <v>46</v>
       </c>
@@ -3130,9 +3170,9 @@
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A105" s="33"/>
-      <c r="B105" s="32"/>
-      <c r="C105" s="34"/>
+      <c r="A105" s="37"/>
+      <c r="B105" s="33"/>
+      <c r="C105" s="28"/>
       <c r="D105" s="19" t="s">
         <v>48</v>
       </c>
@@ -3149,9 +3189,9 @@
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A106" s="33"/>
-      <c r="B106" s="32"/>
-      <c r="C106" s="34"/>
+      <c r="A106" s="37"/>
+      <c r="B106" s="33"/>
+      <c r="C106" s="28"/>
       <c r="D106" s="19" t="s">
         <v>111</v>
       </c>
@@ -3168,9 +3208,9 @@
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A107" s="33"/>
-      <c r="B107" s="32"/>
-      <c r="C107" s="34"/>
+      <c r="A107" s="37"/>
+      <c r="B107" s="33"/>
+      <c r="C107" s="28"/>
       <c r="D107" s="19" t="s">
         <v>112</v>
       </c>
@@ -3189,9 +3229,9 @@
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A108" s="33"/>
-      <c r="B108" s="32"/>
-      <c r="C108" s="34"/>
+      <c r="A108" s="37"/>
+      <c r="B108" s="33"/>
+      <c r="C108" s="28"/>
       <c r="D108" s="19" t="s">
         <v>114</v>
       </c>
@@ -3208,9 +3248,9 @@
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A109" s="33"/>
-      <c r="B109" s="32"/>
-      <c r="C109" s="34"/>
+      <c r="A109" s="37"/>
+      <c r="B109" s="33"/>
+      <c r="C109" s="28"/>
       <c r="D109" s="19" t="s">
         <v>116</v>
       </c>
@@ -3227,9 +3267,9 @@
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A110" s="33"/>
-      <c r="B110" s="32"/>
-      <c r="C110" s="34"/>
+      <c r="A110" s="37"/>
+      <c r="B110" s="33"/>
+      <c r="C110" s="28"/>
       <c r="D110" s="19" t="s">
         <v>119</v>
       </c>
@@ -3246,9 +3286,9 @@
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A111" s="33"/>
-      <c r="B111" s="32"/>
-      <c r="C111" s="34"/>
+      <c r="A111" s="37"/>
+      <c r="B111" s="33"/>
+      <c r="C111" s="28"/>
       <c r="D111" s="19" t="s">
         <v>121</v>
       </c>
@@ -3265,9 +3305,9 @@
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A112" s="33"/>
-      <c r="B112" s="32"/>
-      <c r="C112" s="34"/>
+      <c r="A112" s="37"/>
+      <c r="B112" s="33"/>
+      <c r="C112" s="28"/>
       <c r="D112" s="19" t="s">
         <v>123</v>
       </c>
@@ -3284,9 +3324,9 @@
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A113" s="33"/>
-      <c r="B113" s="32"/>
-      <c r="C113" s="34"/>
+      <c r="A113" s="37"/>
+      <c r="B113" s="33"/>
+      <c r="C113" s="28"/>
       <c r="D113" s="19" t="s">
         <v>125</v>
       </c>
@@ -3305,10 +3345,10 @@
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A114" s="33"/>
-      <c r="B114" s="32"/>
-      <c r="C114" s="34"/>
-      <c r="D114" s="30" t="s">
+      <c r="A114" s="37"/>
+      <c r="B114" s="33"/>
+      <c r="C114" s="28"/>
+      <c r="D114" s="27" t="s">
         <v>40</v>
       </c>
       <c r="E114" s="9" t="s">
@@ -3326,10 +3366,10 @@
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A115" s="33"/>
-      <c r="B115" s="32"/>
-      <c r="C115" s="34"/>
-      <c r="D115" s="34"/>
+      <c r="A115" s="37"/>
+      <c r="B115" s="33"/>
+      <c r="C115" s="28"/>
+      <c r="D115" s="28"/>
       <c r="E115" s="9" t="s">
         <v>47</v>
       </c>
@@ -3343,10 +3383,10 @@
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A116" s="33"/>
-      <c r="B116" s="32"/>
-      <c r="C116" s="34"/>
-      <c r="D116" s="34"/>
+      <c r="A116" s="37"/>
+      <c r="B116" s="33"/>
+      <c r="C116" s="28"/>
+      <c r="D116" s="28"/>
       <c r="E116" s="9" t="s">
         <v>45</v>
       </c>
@@ -3360,10 +3400,10 @@
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A117" s="33"/>
-      <c r="B117" s="32"/>
-      <c r="C117" s="34"/>
-      <c r="D117" s="34"/>
+      <c r="A117" s="37"/>
+      <c r="B117" s="33"/>
+      <c r="C117" s="28"/>
+      <c r="D117" s="28"/>
       <c r="E117" s="9" t="s">
         <v>46</v>
       </c>
@@ -3379,10 +3419,10 @@
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A118" s="33"/>
-      <c r="B118" s="32"/>
-      <c r="C118" s="34"/>
-      <c r="D118" s="34"/>
+      <c r="A118" s="37"/>
+      <c r="B118" s="33"/>
+      <c r="C118" s="28"/>
+      <c r="D118" s="28"/>
       <c r="E118" s="9" t="s">
         <v>48</v>
       </c>
@@ -3398,10 +3438,10 @@
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A119" s="33"/>
-      <c r="B119" s="32"/>
-      <c r="C119" s="34"/>
-      <c r="D119" s="31"/>
+      <c r="A119" s="37"/>
+      <c r="B119" s="33"/>
+      <c r="C119" s="28"/>
+      <c r="D119" s="29"/>
       <c r="E119" s="9" t="s">
         <v>49</v>
       </c>
@@ -3415,10 +3455,10 @@
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A120" s="33"/>
-      <c r="B120" s="32"/>
-      <c r="C120" s="34"/>
-      <c r="D120" s="30" t="s">
+      <c r="A120" s="37"/>
+      <c r="B120" s="33"/>
+      <c r="C120" s="28"/>
+      <c r="D120" s="27" t="s">
         <v>50</v>
       </c>
       <c r="E120" s="9" t="s">
@@ -3436,11 +3476,11 @@
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A121" s="33"/>
-      <c r="B121" s="32"/>
-      <c r="C121" s="34"/>
-      <c r="D121" s="34"/>
-      <c r="E121" s="30" t="s">
+      <c r="A121" s="37"/>
+      <c r="B121" s="33"/>
+      <c r="C121" s="28"/>
+      <c r="D121" s="28"/>
+      <c r="E121" s="27" t="s">
         <v>51</v>
       </c>
       <c r="F121" s="9" t="s">
@@ -3455,11 +3495,11 @@
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A122" s="33"/>
-      <c r="B122" s="32"/>
-      <c r="C122" s="34"/>
-      <c r="D122" s="34"/>
-      <c r="E122" s="34"/>
+      <c r="A122" s="37"/>
+      <c r="B122" s="33"/>
+      <c r="C122" s="28"/>
+      <c r="D122" s="28"/>
+      <c r="E122" s="28"/>
       <c r="F122" s="9" t="s">
         <v>52</v>
       </c>
@@ -3474,11 +3514,11 @@
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A123" s="33"/>
-      <c r="B123" s="32"/>
-      <c r="C123" s="34"/>
-      <c r="D123" s="34"/>
-      <c r="E123" s="34"/>
+      <c r="A123" s="37"/>
+      <c r="B123" s="33"/>
+      <c r="C123" s="28"/>
+      <c r="D123" s="28"/>
+      <c r="E123" s="28"/>
       <c r="F123" s="9" t="s">
         <v>53</v>
       </c>
@@ -3493,11 +3533,11 @@
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A124" s="33"/>
-      <c r="B124" s="32"/>
-      <c r="C124" s="34"/>
-      <c r="D124" s="34"/>
-      <c r="E124" s="34"/>
+      <c r="A124" s="37"/>
+      <c r="B124" s="33"/>
+      <c r="C124" s="28"/>
+      <c r="D124" s="28"/>
+      <c r="E124" s="28"/>
       <c r="F124" s="9" t="s">
         <v>54</v>
       </c>
@@ -3510,11 +3550,11 @@
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A125" s="33"/>
-      <c r="B125" s="32"/>
-      <c r="C125" s="34"/>
-      <c r="D125" s="34"/>
-      <c r="E125" s="34"/>
+      <c r="A125" s="37"/>
+      <c r="B125" s="33"/>
+      <c r="C125" s="28"/>
+      <c r="D125" s="28"/>
+      <c r="E125" s="28"/>
       <c r="F125" s="9" t="s">
         <v>55</v>
       </c>
@@ -3529,11 +3569,11 @@
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A126" s="33"/>
-      <c r="B126" s="32"/>
-      <c r="C126" s="34"/>
-      <c r="D126" s="34"/>
-      <c r="E126" s="34"/>
+      <c r="A126" s="37"/>
+      <c r="B126" s="33"/>
+      <c r="C126" s="28"/>
+      <c r="D126" s="28"/>
+      <c r="E126" s="28"/>
       <c r="F126" s="9" t="s">
         <v>56</v>
       </c>
@@ -3546,11 +3586,11 @@
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A127" s="33"/>
-      <c r="B127" s="32"/>
-      <c r="C127" s="34"/>
-      <c r="D127" s="34"/>
-      <c r="E127" s="31"/>
+      <c r="A127" s="37"/>
+      <c r="B127" s="33"/>
+      <c r="C127" s="28"/>
+      <c r="D127" s="28"/>
+      <c r="E127" s="29"/>
       <c r="F127" s="9" t="s">
         <v>57</v>
       </c>
@@ -3563,10 +3603,10 @@
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A128" s="33"/>
-      <c r="B128" s="32"/>
-      <c r="C128" s="34"/>
-      <c r="D128" s="31"/>
+      <c r="A128" s="37"/>
+      <c r="B128" s="33"/>
+      <c r="C128" s="28"/>
+      <c r="D128" s="29"/>
       <c r="E128" s="9" t="s">
         <v>128</v>
       </c>
@@ -3584,9 +3624,9 @@
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A129" s="33"/>
-      <c r="B129" s="32"/>
-      <c r="C129" s="30" t="s">
+      <c r="A129" s="37"/>
+      <c r="B129" s="33"/>
+      <c r="C129" s="27" t="s">
         <v>70</v>
       </c>
       <c r="D129" s="9" t="s">
@@ -3605,9 +3645,9 @@
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A130" s="33"/>
-      <c r="B130" s="32"/>
-      <c r="C130" s="34"/>
+      <c r="A130" s="37"/>
+      <c r="B130" s="33"/>
+      <c r="C130" s="28"/>
       <c r="D130" s="9" t="s">
         <v>14</v>
       </c>
@@ -3624,9 +3664,9 @@
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A131" s="33"/>
-      <c r="B131" s="32"/>
-      <c r="C131" s="34"/>
+      <c r="A131" s="37"/>
+      <c r="B131" s="33"/>
+      <c r="C131" s="28"/>
       <c r="D131" s="9" t="s">
         <v>15</v>
       </c>
@@ -3643,9 +3683,9 @@
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A132" s="33"/>
-      <c r="B132" s="32"/>
-      <c r="C132" s="34"/>
+      <c r="A132" s="37"/>
+      <c r="B132" s="33"/>
+      <c r="C132" s="28"/>
       <c r="D132" s="9" t="s">
         <v>16</v>
       </c>
@@ -3662,9 +3702,9 @@
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A133" s="33"/>
-      <c r="B133" s="32"/>
-      <c r="C133" s="30" t="s">
+      <c r="A133" s="37"/>
+      <c r="B133" s="33"/>
+      <c r="C133" s="27" t="s">
         <v>144</v>
       </c>
       <c r="D133" s="9" t="s">
@@ -3683,9 +3723,9 @@
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A134" s="33"/>
-      <c r="B134" s="32"/>
-      <c r="C134" s="31"/>
+      <c r="A134" s="37"/>
+      <c r="B134" s="33"/>
+      <c r="C134" s="29"/>
       <c r="D134" s="2" t="s">
         <v>145</v>
       </c>
@@ -3702,9 +3742,9 @@
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A135" s="33"/>
-      <c r="B135" s="32"/>
-      <c r="C135" s="30" t="s">
+      <c r="A135" s="37"/>
+      <c r="B135" s="33"/>
+      <c r="C135" s="27" t="s">
         <v>71</v>
       </c>
       <c r="D135" s="9" t="s">
@@ -3723,9 +3763,9 @@
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A136" s="33"/>
-      <c r="B136" s="32"/>
-      <c r="C136" s="31"/>
+      <c r="A136" s="37"/>
+      <c r="B136" s="33"/>
+      <c r="C136" s="29"/>
       <c r="D136" s="9" t="s">
         <v>15</v>
       </c>
@@ -3742,11 +3782,11 @@
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A137" s="33"/>
-      <c r="B137" s="32" t="s">
+      <c r="A137" s="37"/>
+      <c r="B137" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C137" s="30" t="s">
+      <c r="C137" s="27" t="s">
         <v>61</v>
       </c>
       <c r="D137" s="9" t="s">
@@ -3761,9 +3801,9 @@
       <c r="K137" s="9"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A138" s="33"/>
-      <c r="B138" s="32"/>
-      <c r="C138" s="31"/>
+      <c r="A138" s="37"/>
+      <c r="B138" s="33"/>
+      <c r="C138" s="29"/>
       <c r="D138" s="9" t="s">
         <v>91</v>
       </c>
@@ -3776,8 +3816,8 @@
       <c r="K138" s="9"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A139" s="33"/>
-      <c r="B139" s="32"/>
+      <c r="A139" s="37"/>
+      <c r="B139" s="33"/>
       <c r="C139" s="9" t="s">
         <v>63</v>
       </c>
@@ -3793,8 +3833,8 @@
       <c r="K139" s="9"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A140" s="33"/>
-      <c r="B140" s="32"/>
+      <c r="A140" s="37"/>
+      <c r="B140" s="33"/>
       <c r="C140" s="9" t="s">
         <v>60</v>
       </c>
@@ -3810,8 +3850,8 @@
       <c r="K140" s="9"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A141" s="33"/>
-      <c r="B141" s="32"/>
+      <c r="A141" s="37"/>
+      <c r="B141" s="33"/>
       <c r="C141" s="9" t="s">
         <v>66</v>
       </c>
@@ -3840,7 +3880,7 @@
       <c r="K142" s="9"/>
     </row>
     <row r="143" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="27" t="s">
+      <c r="A143" s="34" t="s">
         <v>68</v>
       </c>
       <c r="B143" s="21" t="s">
@@ -3857,7 +3897,7 @@
       <c r="K143" s="9"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A144" s="28"/>
+      <c r="A144" s="35"/>
       <c r="B144" s="21" t="s">
         <v>72</v>
       </c>
@@ -3872,7 +3912,7 @@
       <c r="K144" s="9"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A145" s="28"/>
+      <c r="A145" s="35"/>
       <c r="B145" s="21" t="s">
         <v>70</v>
       </c>
@@ -3887,7 +3927,7 @@
       <c r="K145" s="9"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A146" s="28"/>
+      <c r="A146" s="35"/>
       <c r="B146" s="21" t="s">
         <v>73</v>
       </c>
@@ -3935,30 +3975,9 @@
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="J143:J148 J2:J71 J73:J141" name="区域3"/>
+    <protectedRange sqref="J143:J148 J73:J141 J2:J71" name="区域3"/>
   </protectedRanges>
   <mergeCells count="37">
-    <mergeCell ref="C129:C132"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="E121:E127"/>
-    <mergeCell ref="D120:D128"/>
-    <mergeCell ref="C81:C84"/>
-    <mergeCell ref="B77:B84"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="C85:C88"/>
-    <mergeCell ref="D114:D119"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="D93:D97"/>
-    <mergeCell ref="C89:C128"/>
     <mergeCell ref="A8:A71"/>
     <mergeCell ref="C135:C136"/>
     <mergeCell ref="B85:B136"/>
@@ -3975,46 +3994,67 @@
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="B17:B22"/>
     <mergeCell ref="C77:C79"/>
+    <mergeCell ref="E121:E127"/>
+    <mergeCell ref="D120:D128"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="B77:B84"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="C85:C88"/>
+    <mergeCell ref="D114:D119"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="D93:D97"/>
+    <mergeCell ref="C89:C128"/>
+    <mergeCell ref="C129:C132"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="B23:B27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="J143:J148 J73:J78 J32:J71 J2:J27 J80:J141">
-    <cfRule type="cellIs" dxfId="8" priority="22" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="J143:J148 J73:J78 J2:J27 J80:J141 J32:J71">
+    <cfRule type="cellIs" dxfId="11" priority="22" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="23" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="24" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="24" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:J31">
-    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="6" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J79">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="状态错误" error="请从选项中进行选择。" sqref="J143:J148 J2:J71 J73:J141">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="状态错误" error="请从选项中进行选择。" sqref="J143:J148 J73:J141 J2:J71">
       <formula1>"0%,100%,90%,80%,70%,60%,50%,40%,30%,20%,10%"</formula1>
     </dataValidation>
   </dataValidations>

--- a/doc/开发计划V0.1.xlsx
+++ b/doc/开发计划V0.1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="162">
   <si>
     <t>开始时间</t>
   </si>
@@ -603,6 +603,10 @@
   </si>
   <si>
     <t>吴小刚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>友情链接管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -849,12 +853,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -866,26 +885,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1279,11 +1307,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K149"/>
+  <dimension ref="A1:K153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B60" sqref="B60:J63"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B64" sqref="B64:B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1424,10 +1452,10 @@
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="30" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -1447,8 +1475,8 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="35"/>
-      <c r="B9" s="28"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="9" t="s">
         <v>14</v>
       </c>
@@ -1466,8 +1494,8 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="35"/>
-      <c r="B10" s="28"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="9" t="s">
         <v>15</v>
       </c>
@@ -1485,8 +1513,8 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="35"/>
-      <c r="B11" s="28"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="9" t="s">
         <v>16</v>
       </c>
@@ -1504,8 +1532,8 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="35"/>
-      <c r="B12" s="29"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="9" t="s">
         <v>17</v>
       </c>
@@ -1523,8 +1551,8 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="35"/>
-      <c r="B13" s="27" t="s">
+      <c r="A13" s="28"/>
+      <c r="B13" s="30" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -1544,8 +1572,8 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="35"/>
-      <c r="B14" s="28"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="9" t="s">
         <v>14</v>
       </c>
@@ -1563,8 +1591,8 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="35"/>
-      <c r="B15" s="28"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="34"/>
       <c r="C15" s="9" t="s">
         <v>15</v>
       </c>
@@ -1582,8 +1610,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="35"/>
-      <c r="B16" s="29"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="9" t="s">
         <v>16</v>
       </c>
@@ -1601,8 +1629,8 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="35"/>
-      <c r="B17" s="27" t="s">
+      <c r="A17" s="28"/>
+      <c r="B17" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="9" t="s">
@@ -1622,8 +1650,8 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="35"/>
-      <c r="B18" s="28"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="9" t="s">
         <v>14</v>
       </c>
@@ -1641,8 +1669,8 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="35"/>
-      <c r="B19" s="28"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="9" t="s">
         <v>15</v>
       </c>
@@ -1660,8 +1688,8 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="35"/>
-      <c r="B20" s="28"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="9" t="s">
         <v>16</v>
       </c>
@@ -1679,9 +1707,9 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="35"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="27" t="s">
+      <c r="A21" s="28"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="9" t="s">
@@ -1700,9 +1728,9 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="35"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="9" t="s">
         <v>20</v>
       </c>
@@ -1719,8 +1747,8 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="35"/>
-      <c r="B23" s="27" t="s">
+      <c r="A23" s="28"/>
+      <c r="B23" s="30" t="s">
         <v>151</v>
       </c>
       <c r="C23" s="9" t="s">
@@ -1740,8 +1768,8 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="35"/>
-      <c r="B24" s="28"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="9" t="s">
         <v>14</v>
       </c>
@@ -1759,8 +1787,8 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="35"/>
-      <c r="B25" s="28"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="34"/>
       <c r="C25" s="9" t="s">
         <v>15</v>
       </c>
@@ -1778,8 +1806,8 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="35"/>
-      <c r="B26" s="28"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="34"/>
       <c r="C26" s="9" t="s">
         <v>16</v>
       </c>
@@ -1797,8 +1825,8 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="35"/>
-      <c r="B27" s="29"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="9" t="s">
         <v>152</v>
       </c>
@@ -1816,8 +1844,8 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="35"/>
-      <c r="B28" s="27" t="s">
+      <c r="A28" s="28"/>
+      <c r="B28" s="30" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="9" t="s">
@@ -1837,8 +1865,8 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="35"/>
-      <c r="B29" s="28"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="34"/>
       <c r="C29" s="9" t="s">
         <v>14</v>
       </c>
@@ -1856,8 +1884,8 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="35"/>
-      <c r="B30" s="28"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="34"/>
       <c r="C30" s="9" t="s">
         <v>15</v>
       </c>
@@ -1875,8 +1903,8 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="35"/>
-      <c r="B31" s="29"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="9" t="s">
         <v>16</v>
       </c>
@@ -1894,8 +1922,8 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A32" s="35"/>
-      <c r="B32" s="27" t="s">
+      <c r="A32" s="28"/>
+      <c r="B32" s="30" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="9" t="s">
@@ -1915,8 +1943,8 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A33" s="35"/>
-      <c r="B33" s="28"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="34"/>
       <c r="C33" s="9" t="s">
         <v>14</v>
       </c>
@@ -1934,8 +1962,8 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="35"/>
-      <c r="B34" s="28"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="34"/>
       <c r="C34" s="9" t="s">
         <v>15</v>
       </c>
@@ -1953,8 +1981,8 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" s="35"/>
-      <c r="B35" s="29"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="31"/>
       <c r="C35" s="9" t="s">
         <v>16</v>
       </c>
@@ -1972,8 +2000,8 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A36" s="35"/>
-      <c r="B36" s="27" t="s">
+      <c r="A36" s="28"/>
+      <c r="B36" s="30" t="s">
         <v>153</v>
       </c>
       <c r="C36" s="9" t="s">
@@ -1993,8 +2021,8 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A37" s="35"/>
-      <c r="B37" s="28"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="34"/>
       <c r="C37" s="9" t="s">
         <v>14</v>
       </c>
@@ -2012,8 +2040,8 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A38" s="35"/>
-      <c r="B38" s="28"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="34"/>
       <c r="C38" s="9" t="s">
         <v>15</v>
       </c>
@@ -2031,8 +2059,8 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A39" s="35"/>
-      <c r="B39" s="29"/>
+      <c r="A39" s="28"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="9" t="s">
         <v>16</v>
       </c>
@@ -2050,7 +2078,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A40" s="35"/>
+      <c r="A40" s="28"/>
       <c r="B40" s="8" t="s">
         <v>77</v>
       </c>
@@ -2071,7 +2099,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A41" s="35"/>
+      <c r="A41" s="28"/>
       <c r="B41" s="12" t="s">
         <v>131</v>
       </c>
@@ -2094,7 +2122,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A42" s="35"/>
+      <c r="A42" s="28"/>
       <c r="B42" s="8" t="s">
         <v>132</v>
       </c>
@@ -2111,7 +2139,7 @@
       <c r="K42" s="9"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A43" s="35"/>
+      <c r="A43" s="28"/>
       <c r="B43" s="8" t="s">
         <v>134</v>
       </c>
@@ -2128,7 +2156,7 @@
       <c r="K43" s="9"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A44" s="35"/>
+      <c r="A44" s="28"/>
       <c r="B44" s="8" t="s">
         <v>154</v>
       </c>
@@ -2145,7 +2173,7 @@
       <c r="K44" s="9"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A45" s="35"/>
+      <c r="A45" s="28"/>
       <c r="B45" s="8" t="s">
         <v>37</v>
       </c>
@@ -2164,7 +2192,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A46" s="35"/>
+      <c r="A46" s="28"/>
       <c r="B46" s="12"/>
       <c r="C46" s="14"/>
       <c r="D46" s="9"/>
@@ -2177,8 +2205,8 @@
       <c r="K46" s="9"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A47" s="35"/>
-      <c r="B47" s="27" t="s">
+      <c r="A47" s="28"/>
+      <c r="B47" s="30" t="s">
         <v>74</v>
       </c>
       <c r="C47" s="8" t="s">
@@ -2196,9 +2224,9 @@
       <c r="K47" s="9"/>
     </row>
     <row r="48" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="35"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="30" t="s">
+      <c r="A48" s="28"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="35" t="s">
         <v>139</v>
       </c>
       <c r="D48" s="15" t="s">
@@ -2213,9 +2241,9 @@
       <c r="K48" s="9"/>
     </row>
     <row r="49" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="35"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="31"/>
+      <c r="A49" s="28"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="36"/>
       <c r="D49" s="15" t="s">
         <v>140</v>
       </c>
@@ -2228,9 +2256,9 @@
       <c r="K49" s="9"/>
     </row>
     <row r="50" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="35"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="31"/>
+      <c r="A50" s="28"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="36"/>
       <c r="D50" s="16" t="s">
         <v>75</v>
       </c>
@@ -2243,9 +2271,9 @@
       <c r="K50" s="9"/>
     </row>
     <row r="51" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="35"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="31"/>
+      <c r="A51" s="28"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="36"/>
       <c r="D51" s="16" t="s">
         <v>76</v>
       </c>
@@ -2258,9 +2286,9 @@
       <c r="K51" s="9"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="35"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="32"/>
+      <c r="A52" s="28"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="37"/>
       <c r="D52" s="16" t="s">
         <v>81</v>
       </c>
@@ -2275,8 +2303,8 @@
       <c r="K52" s="9"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A53" s="35"/>
-      <c r="B53" s="27" t="s">
+      <c r="A53" s="28"/>
+      <c r="B53" s="30" t="s">
         <v>78</v>
       </c>
       <c r="C53" s="16" t="s">
@@ -2292,8 +2320,8 @@
       <c r="K53" s="9"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A54" s="35"/>
-      <c r="B54" s="28"/>
+      <c r="A54" s="28"/>
+      <c r="B54" s="34"/>
       <c r="C54" s="16" t="s">
         <v>80</v>
       </c>
@@ -2309,8 +2337,8 @@
       <c r="K54" s="9"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A55" s="35"/>
-      <c r="B55" s="29"/>
+      <c r="A55" s="28"/>
+      <c r="B55" s="31"/>
       <c r="C55" s="16" t="s">
         <v>59</v>
       </c>
@@ -2324,8 +2352,8 @@
       <c r="K55" s="9"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A56" s="35"/>
-      <c r="B56" s="27" t="s">
+      <c r="A56" s="28"/>
+      <c r="B56" s="30" t="s">
         <v>141</v>
       </c>
       <c r="C56" s="16" t="s">
@@ -2341,8 +2369,8 @@
       <c r="K56" s="9"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A57" s="35"/>
-      <c r="B57" s="29"/>
+      <c r="A57" s="28"/>
+      <c r="B57" s="31"/>
       <c r="C57" s="16" t="s">
         <v>85</v>
       </c>
@@ -2356,8 +2384,8 @@
       <c r="K57" s="9"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A58" s="35"/>
-      <c r="B58" s="27" t="s">
+      <c r="A58" s="28"/>
+      <c r="B58" s="30" t="s">
         <v>142</v>
       </c>
       <c r="C58" s="16" t="s">
@@ -2373,8 +2401,8 @@
       <c r="K58" s="9"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A59" s="35"/>
-      <c r="B59" s="29"/>
+      <c r="A59" s="28"/>
+      <c r="B59" s="31"/>
       <c r="C59" s="16" t="s">
         <v>83</v>
       </c>
@@ -2388,8 +2416,8 @@
       <c r="K59" s="9"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A60" s="35"/>
-      <c r="B60" s="27" t="s">
+      <c r="A60" s="28"/>
+      <c r="B60" s="30" t="s">
         <v>86</v>
       </c>
       <c r="C60" s="9" t="s">
@@ -2405,8 +2433,8 @@
       <c r="K60" s="9"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A61" s="35"/>
-      <c r="B61" s="28"/>
+      <c r="A61" s="28"/>
+      <c r="B61" s="34"/>
       <c r="C61" s="9" t="s">
         <v>14</v>
       </c>
@@ -2420,8 +2448,8 @@
       <c r="K61" s="9"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A62" s="35"/>
-      <c r="B62" s="28"/>
+      <c r="A62" s="28"/>
+      <c r="B62" s="34"/>
       <c r="C62" s="9" t="s">
         <v>15</v>
       </c>
@@ -2435,8 +2463,8 @@
       <c r="K62" s="9"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A63" s="35"/>
-      <c r="B63" s="29"/>
+      <c r="A63" s="28"/>
+      <c r="B63" s="31"/>
       <c r="C63" s="9" t="s">
         <v>16</v>
       </c>
@@ -2450,12 +2478,12 @@
       <c r="K63" s="9"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A64" s="35"/>
-      <c r="B64" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C64" s="17" t="s">
-        <v>157</v>
+      <c r="A64" s="28"/>
+      <c r="B64" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
@@ -2467,12 +2495,10 @@
       <c r="K64" s="9"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A65" s="35"/>
-      <c r="B65" s="27" t="s">
-        <v>155</v>
-      </c>
+      <c r="A65" s="28"/>
+      <c r="B65" s="34"/>
       <c r="C65" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
@@ -2484,10 +2510,10 @@
       <c r="K65" s="9"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A66" s="35"/>
-      <c r="B66" s="28"/>
+      <c r="A66" s="28"/>
+      <c r="B66" s="34"/>
       <c r="C66" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
@@ -2499,10 +2525,10 @@
       <c r="K66" s="9"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A67" s="35"/>
-      <c r="B67" s="28"/>
+      <c r="A67" s="28"/>
+      <c r="B67" s="31"/>
       <c r="C67" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
@@ -2514,10 +2540,12 @@
       <c r="K67" s="9"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A68" s="35"/>
-      <c r="B68" s="29"/>
-      <c r="C68" s="9" t="s">
-        <v>16</v>
+      <c r="A68" s="28"/>
+      <c r="B68" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>157</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
@@ -2529,9 +2557,9 @@
       <c r="K68" s="9"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A69" s="35"/>
-      <c r="B69" s="27" t="s">
-        <v>156</v>
+      <c r="A69" s="28"/>
+      <c r="B69" s="30" t="s">
+        <v>155</v>
       </c>
       <c r="C69" s="9" t="s">
         <v>13</v>
@@ -2546,10 +2574,10 @@
       <c r="K69" s="9"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A70" s="35"/>
-      <c r="B70" s="29"/>
-      <c r="C70" s="15" t="s">
-        <v>90</v>
+      <c r="A70" s="28"/>
+      <c r="B70" s="34"/>
+      <c r="C70" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
@@ -2561,12 +2589,10 @@
       <c r="K70" s="9"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A71" s="36"/>
-      <c r="B71" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="C71" s="15" t="s">
-        <v>159</v>
+      <c r="A71" s="28"/>
+      <c r="B71" s="34"/>
+      <c r="C71" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
@@ -2578,27 +2604,27 @@
       <c r="K71" s="9"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A72" s="18"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="17"/>
+      <c r="A72" s="28"/>
+      <c r="B72" s="31"/>
+      <c r="C72" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
-      <c r="J72" s="9"/>
+      <c r="J72" s="10"/>
       <c r="K72" s="9"/>
     </row>
-    <row r="73" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="B73" s="33" t="s">
-        <v>23</v>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A73" s="28"/>
+      <c r="B73" s="30" t="s">
+        <v>156</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
@@ -2610,10 +2636,10 @@
       <c r="K73" s="9"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A74" s="37"/>
-      <c r="B74" s="33"/>
-      <c r="C74" s="9" t="s">
-        <v>25</v>
+      <c r="A74" s="28"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="15" t="s">
+        <v>90</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
@@ -2625,10 +2651,12 @@
       <c r="K74" s="9"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A75" s="37"/>
-      <c r="B75" s="33"/>
-      <c r="C75" s="9" t="s">
-        <v>26</v>
+      <c r="A75" s="29"/>
+      <c r="B75" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>159</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
@@ -2640,33 +2668,29 @@
       <c r="K75" s="9"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A76" s="37"/>
-      <c r="B76" s="33"/>
-      <c r="C76" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>88</v>
-      </c>
+      <c r="A76" s="18"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="9"/>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
       <c r="H76" s="9"/>
       <c r="I76" s="9"/>
-      <c r="J76" s="10"/>
+      <c r="J76" s="9"/>
       <c r="K76" s="9"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A77" s="37"/>
-      <c r="B77" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C77" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>29</v>
-      </c>
+    <row r="77" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B77" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D77" s="9"/>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
@@ -2676,15 +2700,13 @@
       <c r="K77" s="9"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A78" s="37"/>
-      <c r="B78" s="33"/>
-      <c r="C78" s="28"/>
-      <c r="D78" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E78" s="16" t="s">
-        <v>82</v>
-      </c>
+      <c r="A78" s="33"/>
+      <c r="B78" s="32"/>
+      <c r="C78" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
       <c r="H78" s="9"/>
@@ -2693,13 +2715,13 @@
       <c r="K78" s="9"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A79" s="37"/>
-      <c r="B79" s="33"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="29"/>
-      <c r="E79" s="16" t="s">
-        <v>83</v>
-      </c>
+      <c r="A79" s="33"/>
+      <c r="B79" s="32"/>
+      <c r="C79" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
       <c r="H79" s="9"/>
@@ -2708,12 +2730,14 @@
       <c r="K79" s="9"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A80" s="37"/>
-      <c r="B80" s="33"/>
-      <c r="C80" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D80" s="9"/>
+      <c r="A80" s="33"/>
+      <c r="B80" s="32"/>
+      <c r="C80" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
@@ -2723,17 +2747,17 @@
       <c r="K80" s="9"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A81" s="37"/>
-      <c r="B81" s="33"/>
-      <c r="C81" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="D81" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="A81" s="33"/>
+      <c r="B81" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C81" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E81" s="9"/>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
@@ -2742,12 +2766,14 @@
       <c r="K81" s="9"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A82" s="37"/>
-      <c r="B82" s="33"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="9" t="s">
-        <v>35</v>
+      <c r="A82" s="33"/>
+      <c r="B82" s="32"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E82" s="16" t="s">
+        <v>82</v>
       </c>
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
@@ -2757,14 +2783,12 @@
       <c r="K82" s="9"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A83" s="37"/>
-      <c r="B83" s="33"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E83" s="9" t="s">
-        <v>36</v>
+      <c r="A83" s="33"/>
+      <c r="B83" s="32"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="16" t="s">
+        <v>83</v>
       </c>
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
@@ -2774,15 +2798,13 @@
       <c r="K83" s="9"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A84" s="37"/>
-      <c r="B84" s="33"/>
-      <c r="C84" s="29"/>
-      <c r="D84" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>36</v>
-      </c>
+      <c r="A84" s="33"/>
+      <c r="B84" s="32"/>
+      <c r="C84" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
       <c r="H84" s="9"/>
@@ -2791,90 +2813,80 @@
       <c r="K84" s="9"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A85" s="37"/>
-      <c r="B85" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="C85" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E85" s="9"/>
+      <c r="A85" s="33"/>
+      <c r="B85" s="32"/>
+      <c r="C85" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D85" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
       <c r="H85" s="9"/>
       <c r="I85" s="9"/>
-      <c r="J85" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="K85" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="J85" s="10"/>
+      <c r="K85" s="9"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A86" s="37"/>
-      <c r="B86" s="33"/>
-      <c r="C86" s="28"/>
-      <c r="D86" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E86" s="9"/>
+      <c r="A86" s="33"/>
+      <c r="B86" s="32"/>
+      <c r="C86" s="34"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
       <c r="H86" s="9"/>
       <c r="I86" s="9"/>
-      <c r="J86" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="K86" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="J86" s="10"/>
+      <c r="K86" s="9"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A87" s="37"/>
-      <c r="B87" s="33"/>
-      <c r="C87" s="28"/>
+      <c r="A87" s="33"/>
+      <c r="B87" s="32"/>
+      <c r="C87" s="34"/>
       <c r="D87" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E87" s="9"/>
+        <v>32</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
       <c r="H87" s="9"/>
       <c r="I87" s="9"/>
-      <c r="J87" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="K87" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="J87" s="10"/>
+      <c r="K87" s="9"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A88" s="37"/>
-      <c r="B88" s="33"/>
-      <c r="C88" s="29"/>
+      <c r="A88" s="33"/>
+      <c r="B88" s="32"/>
+      <c r="C88" s="31"/>
       <c r="D88" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E88" s="9"/>
+        <v>33</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
-      <c r="J88" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="K88" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="J88" s="10"/>
+      <c r="K88" s="9"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A89" s="37"/>
-      <c r="B89" s="33"/>
-      <c r="C89" s="27" t="s">
-        <v>93</v>
+      <c r="A89" s="33"/>
+      <c r="B89" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="C89" s="30" t="s">
+        <v>38</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>13</v>
@@ -2885,16 +2897,16 @@
       <c r="H89" s="9"/>
       <c r="I89" s="9"/>
       <c r="J89" s="10">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K89" s="9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A90" s="37"/>
-      <c r="B90" s="33"/>
-      <c r="C90" s="28"/>
+      <c r="A90" s="33"/>
+      <c r="B90" s="32"/>
+      <c r="C90" s="34"/>
       <c r="D90" s="9" t="s">
         <v>14</v>
       </c>
@@ -2904,16 +2916,16 @@
       <c r="H90" s="9"/>
       <c r="I90" s="9"/>
       <c r="J90" s="10">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="K90" s="9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A91" s="37"/>
-      <c r="B91" s="33"/>
-      <c r="C91" s="28"/>
+      <c r="A91" s="33"/>
+      <c r="B91" s="32"/>
+      <c r="C91" s="34"/>
       <c r="D91" s="9" t="s">
         <v>15</v>
       </c>
@@ -2923,16 +2935,16 @@
       <c r="H91" s="9"/>
       <c r="I91" s="9"/>
       <c r="J91" s="10">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K91" s="9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A92" s="37"/>
-      <c r="B92" s="33"/>
-      <c r="C92" s="28"/>
+      <c r="A92" s="33"/>
+      <c r="B92" s="32"/>
+      <c r="C92" s="31"/>
       <c r="D92" s="9" t="s">
         <v>16</v>
       </c>
@@ -2942,95 +2954,101 @@
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>
       <c r="J92" s="10">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="K92" s="9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A93" s="37"/>
-      <c r="B93" s="33"/>
-      <c r="C93" s="28"/>
-      <c r="D93" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="E93" s="9" t="s">
-        <v>41</v>
-      </c>
+      <c r="A93" s="33"/>
+      <c r="B93" s="32"/>
+      <c r="C93" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" s="9"/>
       <c r="F93" s="9"/>
       <c r="G93" s="9"/>
       <c r="H93" s="9"/>
       <c r="I93" s="9"/>
-      <c r="J93" s="10"/>
+      <c r="J93" s="10">
+        <v>1</v>
+      </c>
       <c r="K93" s="9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A94" s="37"/>
-      <c r="B94" s="33"/>
-      <c r="C94" s="28"/>
-      <c r="D94" s="28"/>
-      <c r="E94" s="9" t="s">
-        <v>42</v>
-      </c>
+      <c r="A94" s="33"/>
+      <c r="B94" s="32"/>
+      <c r="C94" s="34"/>
+      <c r="D94" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" s="9"/>
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
       <c r="I94" s="9"/>
-      <c r="J94" s="10"/>
+      <c r="J94" s="10">
+        <v>0.5</v>
+      </c>
       <c r="K94" s="9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A95" s="37"/>
-      <c r="B95" s="33"/>
-      <c r="C95" s="28"/>
-      <c r="D95" s="28"/>
-      <c r="E95" s="9" t="s">
-        <v>43</v>
-      </c>
+      <c r="A95" s="33"/>
+      <c r="B95" s="32"/>
+      <c r="C95" s="34"/>
+      <c r="D95" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95" s="9"/>
       <c r="F95" s="9"/>
       <c r="G95" s="9"/>
       <c r="H95" s="9"/>
       <c r="I95" s="9"/>
-      <c r="J95" s="10"/>
+      <c r="J95" s="10">
+        <v>1</v>
+      </c>
       <c r="K95" s="9" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="37"/>
-      <c r="B96" s="33"/>
-      <c r="C96" s="28"/>
-      <c r="D96" s="28"/>
-      <c r="E96" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>109</v>
-      </c>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A96" s="33"/>
+      <c r="B96" s="32"/>
+      <c r="C96" s="34"/>
+      <c r="D96" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
       <c r="G96" s="9"/>
       <c r="H96" s="9"/>
       <c r="I96" s="9"/>
-      <c r="J96" s="10"/>
+      <c r="J96" s="10">
+        <v>0.5</v>
+      </c>
       <c r="K96" s="9" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="37"/>
-      <c r="B97" s="33"/>
-      <c r="C97" s="28"/>
-      <c r="D97" s="29"/>
-      <c r="E97" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="F97" s="25" t="s">
-        <v>118</v>
-      </c>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A97" s="33"/>
+      <c r="B97" s="32"/>
+      <c r="C97" s="34"/>
+      <c r="D97" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F97" s="9"/>
       <c r="G97" s="9"/>
       <c r="H97" s="9"/>
       <c r="I97" s="9"/>
@@ -3040,13 +3058,13 @@
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A98" s="37"/>
-      <c r="B98" s="33"/>
-      <c r="C98" s="28"/>
-      <c r="D98" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E98" s="9"/>
+      <c r="A98" s="33"/>
+      <c r="B98" s="32"/>
+      <c r="C98" s="34"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="F98" s="9"/>
       <c r="G98" s="9"/>
       <c r="H98" s="9"/>
@@ -3057,35 +3075,34 @@
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A99" s="37"/>
-      <c r="B99" s="33"/>
-      <c r="C99" s="28"/>
-      <c r="D99" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="E99" s="9"/>
+      <c r="A99" s="33"/>
+      <c r="B99" s="32"/>
+      <c r="C99" s="34"/>
+      <c r="D99" s="34"/>
+      <c r="E99" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
       <c r="H99" s="9"/>
       <c r="I99" s="9"/>
-      <c r="J99" s="10">
-        <v>1</v>
-      </c>
+      <c r="J99" s="10"/>
       <c r="K99" s="9" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A100" s="37"/>
-      <c r="B100" s="33"/>
-      <c r="C100" s="28"/>
-      <c r="D100" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="E100" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F100" s="9"/>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="33"/>
+      <c r="B100" s="32"/>
+      <c r="C100" s="34"/>
+      <c r="D100" s="34"/>
+      <c r="E100" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G100" s="9"/>
       <c r="H100" s="9"/>
       <c r="I100" s="9"/>
       <c r="J100" s="10"/>
@@ -3093,17 +3110,18 @@
         <v>160</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A101" s="37"/>
-      <c r="B101" s="33"/>
-      <c r="C101" s="28"/>
-      <c r="D101" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="E101" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F101" s="9"/>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="33"/>
+      <c r="B101" s="32"/>
+      <c r="C101" s="34"/>
+      <c r="D101" s="31"/>
+      <c r="E101" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="F101" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="G101" s="9"/>
       <c r="H101" s="9"/>
       <c r="I101" s="9"/>
       <c r="J101" s="10"/>
@@ -3112,16 +3130,15 @@
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A102" s="37"/>
-      <c r="B102" s="33"/>
-      <c r="C102" s="28"/>
-      <c r="D102" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="E102" s="9" t="s">
-        <v>103</v>
-      </c>
+      <c r="A102" s="33"/>
+      <c r="B102" s="32"/>
+      <c r="C102" s="34"/>
+      <c r="D102" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E102" s="9"/>
       <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
       <c r="H102" s="9"/>
       <c r="I102" s="9"/>
       <c r="J102" s="10"/>
@@ -3130,57 +3147,53 @@
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A103" s="37"/>
-      <c r="B103" s="33"/>
-      <c r="C103" s="28"/>
+      <c r="A103" s="33"/>
+      <c r="B103" s="32"/>
+      <c r="C103" s="34"/>
       <c r="D103" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="E103" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="F103" s="19"/>
+        <v>97</v>
+      </c>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
       <c r="G103" s="9"/>
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
-      <c r="J103" s="10"/>
+      <c r="J103" s="10">
+        <v>1</v>
+      </c>
       <c r="K103" s="9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A104" s="37"/>
-      <c r="B104" s="33"/>
-      <c r="C104" s="28"/>
+      <c r="A104" s="33"/>
+      <c r="B104" s="32"/>
+      <c r="C104" s="34"/>
       <c r="D104" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E104" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="F104" s="19"/>
-      <c r="G104" s="9"/>
+        <v>98</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F104" s="9"/>
       <c r="H104" s="9"/>
       <c r="I104" s="9"/>
-      <c r="J104" s="10">
-        <v>1</v>
-      </c>
+      <c r="J104" s="10"/>
       <c r="K104" s="9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A105" s="37"/>
-      <c r="B105" s="33"/>
-      <c r="C105" s="28"/>
+      <c r="A105" s="33"/>
+      <c r="B105" s="32"/>
+      <c r="C105" s="34"/>
       <c r="D105" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E105" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="F105" s="19"/>
-      <c r="G105" s="9"/>
+        <v>100</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F105" s="9"/>
       <c r="H105" s="9"/>
       <c r="I105" s="9"/>
       <c r="J105" s="10"/>
@@ -3189,17 +3202,16 @@
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A106" s="37"/>
-      <c r="B106" s="33"/>
-      <c r="C106" s="28"/>
+      <c r="A106" s="33"/>
+      <c r="B106" s="32"/>
+      <c r="C106" s="34"/>
       <c r="D106" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="E106" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="F106" s="19"/>
-      <c r="G106" s="9"/>
+        <v>102</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F106" s="9"/>
       <c r="H106" s="9"/>
       <c r="I106" s="9"/>
       <c r="J106" s="10"/>
@@ -3208,54 +3220,54 @@
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A107" s="37"/>
-      <c r="B107" s="33"/>
-      <c r="C107" s="28"/>
+      <c r="A107" s="33"/>
+      <c r="B107" s="32"/>
+      <c r="C107" s="34"/>
       <c r="D107" s="19" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E107" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F107" s="19"/>
       <c r="G107" s="9"/>
       <c r="H107" s="9"/>
       <c r="I107" s="9"/>
-      <c r="J107" s="10">
-        <v>1</v>
-      </c>
+      <c r="J107" s="10"/>
       <c r="K107" s="9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A108" s="37"/>
-      <c r="B108" s="33"/>
-      <c r="C108" s="28"/>
+      <c r="A108" s="33"/>
+      <c r="B108" s="32"/>
+      <c r="C108" s="34"/>
       <c r="D108" s="19" t="s">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="E108" s="19" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F108" s="19"/>
       <c r="G108" s="9"/>
       <c r="H108" s="9"/>
       <c r="I108" s="9"/>
-      <c r="J108" s="10"/>
+      <c r="J108" s="10">
+        <v>1</v>
+      </c>
       <c r="K108" s="9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A109" s="37"/>
-      <c r="B109" s="33"/>
-      <c r="C109" s="28"/>
+      <c r="A109" s="33"/>
+      <c r="B109" s="32"/>
+      <c r="C109" s="34"/>
       <c r="D109" s="19" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="E109" s="19" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="F109" s="19"/>
       <c r="G109" s="9"/>
@@ -3267,14 +3279,14 @@
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A110" s="37"/>
-      <c r="B110" s="33"/>
-      <c r="C110" s="28"/>
+      <c r="A110" s="33"/>
+      <c r="B110" s="32"/>
+      <c r="C110" s="34"/>
       <c r="D110" s="19" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E110" s="19" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="F110" s="19"/>
       <c r="G110" s="9"/>
@@ -3286,33 +3298,35 @@
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A111" s="37"/>
-      <c r="B111" s="33"/>
-      <c r="C111" s="28"/>
+      <c r="A111" s="33"/>
+      <c r="B111" s="32"/>
+      <c r="C111" s="34"/>
       <c r="D111" s="19" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E111" s="19" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F111" s="19"/>
       <c r="G111" s="9"/>
       <c r="H111" s="9"/>
       <c r="I111" s="9"/>
-      <c r="J111" s="10"/>
+      <c r="J111" s="10">
+        <v>1</v>
+      </c>
       <c r="K111" s="9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A112" s="37"/>
-      <c r="B112" s="33"/>
-      <c r="C112" s="28"/>
+      <c r="A112" s="33"/>
+      <c r="B112" s="32"/>
+      <c r="C112" s="34"/>
       <c r="D112" s="19" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="E112" s="19" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="F112" s="19"/>
       <c r="G112" s="9"/>
@@ -3324,56 +3338,54 @@
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A113" s="37"/>
-      <c r="B113" s="33"/>
-      <c r="C113" s="28"/>
+      <c r="A113" s="33"/>
+      <c r="B113" s="32"/>
+      <c r="C113" s="34"/>
       <c r="D113" s="19" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E113" s="19" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F113" s="19"/>
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
       <c r="I113" s="9"/>
-      <c r="J113" s="10">
-        <v>1</v>
-      </c>
+      <c r="J113" s="10"/>
       <c r="K113" s="9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A114" s="37"/>
-      <c r="B114" s="33"/>
-      <c r="C114" s="28"/>
-      <c r="D114" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E114" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F114" s="9"/>
+      <c r="A114" s="33"/>
+      <c r="B114" s="32"/>
+      <c r="C114" s="34"/>
+      <c r="D114" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E114" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="F114" s="19"/>
       <c r="G114" s="9"/>
       <c r="H114" s="9"/>
       <c r="I114" s="9"/>
-      <c r="J114" s="10">
-        <v>1</v>
-      </c>
+      <c r="J114" s="10"/>
       <c r="K114" s="9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A115" s="37"/>
-      <c r="B115" s="33"/>
-      <c r="C115" s="28"/>
-      <c r="D115" s="28"/>
-      <c r="E115" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F115" s="9"/>
+      <c r="A115" s="33"/>
+      <c r="B115" s="32"/>
+      <c r="C115" s="34"/>
+      <c r="D115" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="E115" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="F115" s="19"/>
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
       <c r="I115" s="9"/>
@@ -3383,14 +3395,16 @@
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A116" s="37"/>
-      <c r="B116" s="33"/>
-      <c r="C116" s="28"/>
-      <c r="D116" s="28"/>
-      <c r="E116" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F116" s="9"/>
+      <c r="A116" s="33"/>
+      <c r="B116" s="32"/>
+      <c r="C116" s="34"/>
+      <c r="D116" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="E116" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="F116" s="19"/>
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
       <c r="I116" s="9"/>
@@ -3400,50 +3414,54 @@
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A117" s="37"/>
-      <c r="B117" s="33"/>
-      <c r="C117" s="28"/>
-      <c r="D117" s="28"/>
-      <c r="E117" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F117" s="9" t="s">
-        <v>107</v>
-      </c>
+      <c r="A117" s="33"/>
+      <c r="B117" s="32"/>
+      <c r="C117" s="34"/>
+      <c r="D117" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="E117" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="F117" s="19"/>
       <c r="G117" s="9"/>
       <c r="H117" s="9"/>
       <c r="I117" s="9"/>
-      <c r="J117" s="10"/>
+      <c r="J117" s="10">
+        <v>1</v>
+      </c>
       <c r="K117" s="9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A118" s="37"/>
-      <c r="B118" s="33"/>
-      <c r="C118" s="28"/>
-      <c r="D118" s="28"/>
+      <c r="A118" s="33"/>
+      <c r="B118" s="32"/>
+      <c r="C118" s="34"/>
+      <c r="D118" s="30" t="s">
+        <v>40</v>
+      </c>
       <c r="E118" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F118" s="9" t="s">
-        <v>107</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="F118" s="9"/>
       <c r="G118" s="9"/>
       <c r="H118" s="9"/>
       <c r="I118" s="9"/>
-      <c r="J118" s="10"/>
+      <c r="J118" s="10">
+        <v>1</v>
+      </c>
       <c r="K118" s="9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A119" s="37"/>
-      <c r="B119" s="33"/>
-      <c r="C119" s="28"/>
-      <c r="D119" s="29"/>
+      <c r="A119" s="33"/>
+      <c r="B119" s="32"/>
+      <c r="C119" s="34"/>
+      <c r="D119" s="34"/>
       <c r="E119" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F119" s="9"/>
       <c r="G119" s="9"/>
@@ -3455,36 +3473,32 @@
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A120" s="37"/>
-      <c r="B120" s="33"/>
-      <c r="C120" s="28"/>
-      <c r="D120" s="27" t="s">
-        <v>50</v>
-      </c>
+      <c r="A120" s="33"/>
+      <c r="B120" s="32"/>
+      <c r="C120" s="34"/>
+      <c r="D120" s="34"/>
       <c r="E120" s="9" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="F120" s="9"/>
       <c r="G120" s="9"/>
       <c r="H120" s="9"/>
       <c r="I120" s="9"/>
-      <c r="J120" s="10">
-        <v>1</v>
-      </c>
+      <c r="J120" s="10"/>
       <c r="K120" s="9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A121" s="37"/>
-      <c r="B121" s="33"/>
-      <c r="C121" s="28"/>
-      <c r="D121" s="28"/>
-      <c r="E121" s="27" t="s">
-        <v>51</v>
+      <c r="A121" s="33"/>
+      <c r="B121" s="32"/>
+      <c r="C121" s="34"/>
+      <c r="D121" s="34"/>
+      <c r="E121" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="G121" s="9"/>
       <c r="H121" s="9"/>
@@ -3495,145 +3509,145 @@
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A122" s="37"/>
-      <c r="B122" s="33"/>
-      <c r="C122" s="28"/>
-      <c r="D122" s="28"/>
-      <c r="E122" s="28"/>
+      <c r="A122" s="33"/>
+      <c r="B122" s="32"/>
+      <c r="C122" s="34"/>
+      <c r="D122" s="34"/>
+      <c r="E122" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="F122" s="9" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="G122" s="9"/>
       <c r="H122" s="9"/>
       <c r="I122" s="9"/>
-      <c r="J122" s="10">
-        <v>1</v>
-      </c>
+      <c r="J122" s="10"/>
       <c r="K122" s="9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A123" s="37"/>
-      <c r="B123" s="33"/>
-      <c r="C123" s="28"/>
-      <c r="D123" s="28"/>
-      <c r="E123" s="28"/>
-      <c r="F123" s="9" t="s">
-        <v>53</v>
-      </c>
+      <c r="A123" s="33"/>
+      <c r="B123" s="32"/>
+      <c r="C123" s="34"/>
+      <c r="D123" s="31"/>
+      <c r="E123" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F123" s="9"/>
       <c r="G123" s="9"/>
       <c r="H123" s="9"/>
       <c r="I123" s="9"/>
-      <c r="J123" s="10">
-        <v>1</v>
-      </c>
+      <c r="J123" s="10"/>
       <c r="K123" s="9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A124" s="37"/>
-      <c r="B124" s="33"/>
-      <c r="C124" s="28"/>
-      <c r="D124" s="28"/>
-      <c r="E124" s="28"/>
-      <c r="F124" s="9" t="s">
-        <v>54</v>
-      </c>
+      <c r="A124" s="33"/>
+      <c r="B124" s="32"/>
+      <c r="C124" s="34"/>
+      <c r="D124" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E124" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F124" s="9"/>
       <c r="G124" s="9"/>
       <c r="H124" s="9"/>
       <c r="I124" s="9"/>
-      <c r="J124" s="10"/>
+      <c r="J124" s="10">
+        <v>1</v>
+      </c>
       <c r="K124" s="9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A125" s="37"/>
-      <c r="B125" s="33"/>
-      <c r="C125" s="28"/>
-      <c r="D125" s="28"/>
-      <c r="E125" s="28"/>
+      <c r="A125" s="33"/>
+      <c r="B125" s="32"/>
+      <c r="C125" s="34"/>
+      <c r="D125" s="34"/>
+      <c r="E125" s="30" t="s">
+        <v>51</v>
+      </c>
       <c r="F125" s="9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G125" s="9"/>
       <c r="H125" s="9"/>
       <c r="I125" s="9"/>
-      <c r="J125" s="10">
-        <v>1</v>
-      </c>
+      <c r="J125" s="10"/>
       <c r="K125" s="9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A126" s="37"/>
-      <c r="B126" s="33"/>
-      <c r="C126" s="28"/>
-      <c r="D126" s="28"/>
-      <c r="E126" s="28"/>
+      <c r="A126" s="33"/>
+      <c r="B126" s="32"/>
+      <c r="C126" s="34"/>
+      <c r="D126" s="34"/>
+      <c r="E126" s="34"/>
       <c r="F126" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G126" s="9"/>
       <c r="H126" s="9"/>
       <c r="I126" s="9"/>
-      <c r="J126" s="10"/>
+      <c r="J126" s="10">
+        <v>1</v>
+      </c>
       <c r="K126" s="9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A127" s="37"/>
-      <c r="B127" s="33"/>
-      <c r="C127" s="28"/>
-      <c r="D127" s="28"/>
-      <c r="E127" s="29"/>
+      <c r="A127" s="33"/>
+      <c r="B127" s="32"/>
+      <c r="C127" s="34"/>
+      <c r="D127" s="34"/>
+      <c r="E127" s="34"/>
       <c r="F127" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G127" s="9"/>
       <c r="H127" s="9"/>
       <c r="I127" s="9"/>
-      <c r="J127" s="10"/>
+      <c r="J127" s="10">
+        <v>1</v>
+      </c>
       <c r="K127" s="9" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A128" s="37"/>
-      <c r="B128" s="33"/>
-      <c r="C128" s="28"/>
-      <c r="D128" s="29"/>
-      <c r="E128" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>127</v>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A128" s="33"/>
+      <c r="B128" s="32"/>
+      <c r="C128" s="34"/>
+      <c r="D128" s="34"/>
+      <c r="E128" s="34"/>
+      <c r="F128" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="G128" s="9"/>
       <c r="H128" s="9"/>
       <c r="I128" s="9"/>
-      <c r="J128" s="10">
-        <v>1</v>
-      </c>
+      <c r="J128" s="10"/>
       <c r="K128" s="9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A129" s="37"/>
-      <c r="B129" s="33"/>
-      <c r="C129" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D129" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E129" s="9"/>
-      <c r="F129" s="9"/>
+      <c r="A129" s="33"/>
+      <c r="B129" s="32"/>
+      <c r="C129" s="34"/>
+      <c r="D129" s="34"/>
+      <c r="E129" s="34"/>
+      <c r="F129" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="G129" s="9"/>
       <c r="H129" s="9"/>
       <c r="I129" s="9"/>
@@ -3645,52 +3659,50 @@
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A130" s="37"/>
-      <c r="B130" s="33"/>
-      <c r="C130" s="28"/>
-      <c r="D130" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E130" s="9"/>
-      <c r="F130" s="9"/>
+      <c r="A130" s="33"/>
+      <c r="B130" s="32"/>
+      <c r="C130" s="34"/>
+      <c r="D130" s="34"/>
+      <c r="E130" s="34"/>
+      <c r="F130" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="G130" s="9"/>
       <c r="H130" s="9"/>
       <c r="I130" s="9"/>
-      <c r="J130" s="10">
-        <v>1</v>
-      </c>
+      <c r="J130" s="10"/>
       <c r="K130" s="9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A131" s="37"/>
-      <c r="B131" s="33"/>
-      <c r="C131" s="28"/>
-      <c r="D131" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E131" s="9"/>
-      <c r="F131" s="9"/>
+      <c r="A131" s="33"/>
+      <c r="B131" s="32"/>
+      <c r="C131" s="34"/>
+      <c r="D131" s="34"/>
+      <c r="E131" s="31"/>
+      <c r="F131" s="9" t="s">
+        <v>57</v>
+      </c>
       <c r="G131" s="9"/>
       <c r="H131" s="9"/>
       <c r="I131" s="9"/>
-      <c r="J131" s="10">
-        <v>1</v>
-      </c>
+      <c r="J131" s="10"/>
       <c r="K131" s="9" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A132" s="37"/>
-      <c r="B132" s="33"/>
-      <c r="C132" s="28"/>
-      <c r="D132" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E132" s="9"/>
-      <c r="F132" s="9"/>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" s="33"/>
+      <c r="B132" s="32"/>
+      <c r="C132" s="34"/>
+      <c r="D132" s="31"/>
+      <c r="E132" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="G132" s="9"/>
       <c r="H132" s="9"/>
       <c r="I132" s="9"/>
@@ -3702,13 +3714,13 @@
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A133" s="37"/>
-      <c r="B133" s="33"/>
-      <c r="C133" s="27" t="s">
-        <v>144</v>
+      <c r="A133" s="33"/>
+      <c r="B133" s="32"/>
+      <c r="C133" s="30" t="s">
+        <v>70</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E133" s="9"/>
       <c r="F133" s="9"/>
@@ -3722,14 +3734,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A134" s="37"/>
-      <c r="B134" s="33"/>
-      <c r="C134" s="29"/>
-      <c r="D134" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E134" s="2"/>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A134" s="33"/>
+      <c r="B134" s="32"/>
+      <c r="C134" s="34"/>
+      <c r="D134" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E134" s="9"/>
       <c r="F134" s="9"/>
       <c r="G134" s="9"/>
       <c r="H134" s="9"/>
@@ -3742,13 +3754,11 @@
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A135" s="37"/>
-      <c r="B135" s="33"/>
-      <c r="C135" s="27" t="s">
-        <v>71</v>
-      </c>
+      <c r="A135" s="33"/>
+      <c r="B135" s="32"/>
+      <c r="C135" s="34"/>
       <c r="D135" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E135" s="9"/>
       <c r="F135" s="9"/>
@@ -3763,11 +3773,11 @@
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A136" s="37"/>
-      <c r="B136" s="33"/>
-      <c r="C136" s="29"/>
+      <c r="A136" s="33"/>
+      <c r="B136" s="32"/>
+      <c r="C136" s="34"/>
       <c r="D136" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E136" s="9"/>
       <c r="F136" s="9"/>
@@ -3782,81 +3792,95 @@
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A137" s="37"/>
-      <c r="B137" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C137" s="27" t="s">
-        <v>61</v>
+      <c r="A137" s="33"/>
+      <c r="B137" s="32"/>
+      <c r="C137" s="30" t="s">
+        <v>144</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
       <c r="G137" s="9"/>
       <c r="H137" s="9"/>
       <c r="I137" s="9"/>
-      <c r="J137" s="10"/>
-      <c r="K137" s="9"/>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A138" s="37"/>
-      <c r="B138" s="33"/>
-      <c r="C138" s="29"/>
-      <c r="D138" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E138" s="9"/>
+      <c r="J137" s="10">
+        <v>1</v>
+      </c>
+      <c r="K137" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" s="33"/>
+      <c r="B138" s="32"/>
+      <c r="C138" s="31"/>
+      <c r="D138" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E138" s="2"/>
       <c r="F138" s="9"/>
       <c r="G138" s="9"/>
       <c r="H138" s="9"/>
       <c r="I138" s="9"/>
-      <c r="J138" s="10"/>
-      <c r="K138" s="9"/>
+      <c r="J138" s="10">
+        <v>1</v>
+      </c>
+      <c r="K138" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A139" s="37"/>
-      <c r="B139" s="33"/>
-      <c r="C139" s="9" t="s">
-        <v>63</v>
+      <c r="A139" s="33"/>
+      <c r="B139" s="32"/>
+      <c r="C139" s="30" t="s">
+        <v>71</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
       <c r="G139" s="9"/>
       <c r="H139" s="9"/>
       <c r="I139" s="9"/>
-      <c r="J139" s="10"/>
-      <c r="K139" s="9"/>
+      <c r="J139" s="10">
+        <v>1</v>
+      </c>
+      <c r="K139" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A140" s="37"/>
-      <c r="B140" s="33"/>
-      <c r="C140" s="9" t="s">
-        <v>60</v>
-      </c>
+      <c r="A140" s="33"/>
+      <c r="B140" s="32"/>
+      <c r="C140" s="31"/>
       <c r="D140" s="9" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="E140" s="9"/>
       <c r="F140" s="9"/>
       <c r="G140" s="9"/>
       <c r="H140" s="9"/>
       <c r="I140" s="9"/>
-      <c r="J140" s="10"/>
-      <c r="K140" s="9"/>
+      <c r="J140" s="10">
+        <v>1</v>
+      </c>
+      <c r="K140" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A141" s="37"/>
-      <c r="B141" s="33"/>
-      <c r="C141" s="9" t="s">
-        <v>66</v>
+      <c r="A141" s="33"/>
+      <c r="B141" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C141" s="30" t="s">
+        <v>61</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E141" s="9"/>
       <c r="F141" s="9"/>
@@ -3867,27 +3891,29 @@
       <c r="K141" s="9"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A142" s="20"/>
-      <c r="B142" s="21"/>
-      <c r="C142" s="9"/>
-      <c r="D142" s="9"/>
+      <c r="A142" s="33"/>
+      <c r="B142" s="32"/>
+      <c r="C142" s="31"/>
+      <c r="D142" s="9" t="s">
+        <v>91</v>
+      </c>
       <c r="E142" s="9"/>
       <c r="F142" s="9"/>
       <c r="G142" s="9"/>
       <c r="H142" s="9"/>
       <c r="I142" s="9"/>
-      <c r="J142" s="9"/>
+      <c r="J142" s="10"/>
       <c r="K142" s="9"/>
     </row>
-    <row r="143" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="B143" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C143" s="9"/>
-      <c r="D143" s="9"/>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A143" s="33"/>
+      <c r="B143" s="32"/>
+      <c r="C143" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D143" s="9" t="s">
+        <v>64</v>
+      </c>
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
       <c r="G143" s="9"/>
@@ -3897,12 +3923,14 @@
       <c r="K143" s="9"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A144" s="35"/>
-      <c r="B144" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C144" s="9"/>
-      <c r="D144" s="9"/>
+      <c r="A144" s="33"/>
+      <c r="B144" s="32"/>
+      <c r="C144" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D144" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="E144" s="9"/>
       <c r="F144" s="9"/>
       <c r="G144" s="9"/>
@@ -3912,12 +3940,14 @@
       <c r="K144" s="9"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A145" s="35"/>
-      <c r="B145" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C145" s="9"/>
-      <c r="D145" s="9"/>
+      <c r="A145" s="33"/>
+      <c r="B145" s="32"/>
+      <c r="C145" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D145" s="9" t="s">
+        <v>67</v>
+      </c>
       <c r="E145" s="9"/>
       <c r="F145" s="9"/>
       <c r="G145" s="9"/>
@@ -3927,10 +3957,8 @@
       <c r="K145" s="9"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A146" s="35"/>
-      <c r="B146" s="21" t="s">
-        <v>73</v>
-      </c>
+      <c r="A146" s="20"/>
+      <c r="B146" s="21"/>
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
       <c r="E146" s="9"/>
@@ -3938,12 +3966,16 @@
       <c r="G146" s="9"/>
       <c r="H146" s="9"/>
       <c r="I146" s="9"/>
-      <c r="J146" s="10"/>
+      <c r="J146" s="9"/>
       <c r="K146" s="9"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A147" s="22"/>
-      <c r="B147" s="21"/>
+    <row r="147" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A147" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B147" s="21" t="s">
+        <v>69</v>
+      </c>
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
       <c r="E147" s="9"/>
@@ -3955,8 +3987,10 @@
       <c r="K147" s="9"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A148" s="22"/>
-      <c r="B148" s="21"/>
+      <c r="A148" s="28"/>
+      <c r="B148" s="21" t="s">
+        <v>72</v>
+      </c>
       <c r="C148" s="9"/>
       <c r="D148" s="9"/>
       <c r="E148" s="9"/>
@@ -3968,24 +4002,102 @@
       <c r="K148" s="9"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="G149" s="24">
-        <f>SUM(G2:G148)</f>
+      <c r="A149" s="28"/>
+      <c r="B149" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C149" s="9"/>
+      <c r="D149" s="9"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="9"/>
+      <c r="G149" s="9"/>
+      <c r="H149" s="9"/>
+      <c r="I149" s="9"/>
+      <c r="J149" s="10"/>
+      <c r="K149" s="9"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A150" s="28"/>
+      <c r="B150" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C150" s="9"/>
+      <c r="D150" s="9"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="9"/>
+      <c r="G150" s="9"/>
+      <c r="H150" s="9"/>
+      <c r="I150" s="9"/>
+      <c r="J150" s="10"/>
+      <c r="K150" s="9"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A151" s="22"/>
+      <c r="B151" s="21"/>
+      <c r="C151" s="9"/>
+      <c r="D151" s="9"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="9"/>
+      <c r="G151" s="9"/>
+      <c r="H151" s="9"/>
+      <c r="I151" s="9"/>
+      <c r="J151" s="10"/>
+      <c r="K151" s="9"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A152" s="22"/>
+      <c r="B152" s="21"/>
+      <c r="C152" s="9"/>
+      <c r="D152" s="9"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="9"/>
+      <c r="G152" s="9"/>
+      <c r="H152" s="9"/>
+      <c r="I152" s="9"/>
+      <c r="J152" s="10"/>
+      <c r="K152" s="9"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="G153" s="24">
+        <f>SUM(G2:G152)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="J143:J148 J73:J141 J2:J71" name="区域3"/>
+    <protectedRange sqref="J147:J152 J77:J145 J2:J75" name="区域3"/>
   </protectedRanges>
-  <mergeCells count="37">
-    <mergeCell ref="A8:A71"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="B85:B136"/>
-    <mergeCell ref="A143:A146"/>
+  <mergeCells count="38">
+    <mergeCell ref="C133:C136"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="E125:E131"/>
+    <mergeCell ref="D124:D132"/>
+    <mergeCell ref="C85:C88"/>
+    <mergeCell ref="B81:B88"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="C89:C92"/>
+    <mergeCell ref="D118:D123"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="D97:D101"/>
+    <mergeCell ref="C93:C132"/>
+    <mergeCell ref="A8:A75"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="B89:B140"/>
+    <mergeCell ref="A147:A150"/>
     <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B137:B141"/>
-    <mergeCell ref="A73:A141"/>
-    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="B141:B145"/>
+    <mergeCell ref="A77:A145"/>
+    <mergeCell ref="C141:C142"/>
     <mergeCell ref="B36:B39"/>
     <mergeCell ref="B53:B55"/>
     <mergeCell ref="B47:B52"/>
@@ -3993,43 +4105,34 @@
     <mergeCell ref="B28:B31"/>
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="B17:B22"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="E121:E127"/>
-    <mergeCell ref="D120:D128"/>
-    <mergeCell ref="C81:C84"/>
-    <mergeCell ref="B77:B84"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="C85:C88"/>
-    <mergeCell ref="D114:D119"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="D93:D97"/>
-    <mergeCell ref="C89:C128"/>
-    <mergeCell ref="C129:C132"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="C81:C83"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="J143:J148 J73:J78 J2:J27 J80:J141 J32:J71">
-    <cfRule type="cellIs" dxfId="11" priority="22" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="J147:J152 J77:J82 J2:J27 J84:J145 J32:J63 J68:J75">
+    <cfRule type="cellIs" dxfId="14" priority="25" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="26" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="24" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="27" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:J31">
+    <cfRule type="cellIs" dxfId="11" priority="7" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="8" stopIfTrue="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="between">
+      <formula>0</formula>
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J83">
     <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -4041,7 +4144,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J79">
+  <conditionalFormatting sqref="J64:J67">
     <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -4054,7 +4157,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="状态错误" error="请从选项中进行选择。" sqref="J143:J148 J73:J141 J2:J71">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="状态错误" error="请从选项中进行选择。" sqref="J147:J152 J77:J145 J2:J75">
       <formula1>"0%,100%,90%,80%,70%,60%,50%,40%,30%,20%,10%"</formula1>
     </dataValidation>
   </dataValidations>

--- a/doc/开发计划V0.1.xlsx
+++ b/doc/开发计划V0.1.xlsx
@@ -853,27 +853,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -885,11 +870,74 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="21">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1310,8 +1358,8 @@
   <dimension ref="A1:K153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B64" sqref="B64:B67"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B89" sqref="B89:K140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1452,10 +1500,10 @@
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="27" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -1475,8 +1523,8 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="28"/>
-      <c r="B9" s="34"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="9" t="s">
         <v>14</v>
       </c>
@@ -1494,8 +1542,8 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="28"/>
-      <c r="B10" s="34"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="9" t="s">
         <v>15</v>
       </c>
@@ -1513,8 +1561,8 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="28"/>
-      <c r="B11" s="34"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="9" t="s">
         <v>16</v>
       </c>
@@ -1532,8 +1580,8 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="28"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="9" t="s">
         <v>17</v>
       </c>
@@ -1551,8 +1599,8 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="28"/>
-      <c r="B13" s="30" t="s">
+      <c r="A13" s="35"/>
+      <c r="B13" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -1572,8 +1620,8 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="28"/>
-      <c r="B14" s="34"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="9" t="s">
         <v>14</v>
       </c>
@@ -1591,8 +1639,8 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="28"/>
-      <c r="B15" s="34"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="9" t="s">
         <v>15</v>
       </c>
@@ -1610,8 +1658,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="28"/>
-      <c r="B16" s="31"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="9" t="s">
         <v>16</v>
       </c>
@@ -1629,8 +1677,8 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="28"/>
-      <c r="B17" s="30" t="s">
+      <c r="A17" s="35"/>
+      <c r="B17" s="27" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="9" t="s">
@@ -1650,8 +1698,8 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="28"/>
-      <c r="B18" s="34"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="9" t="s">
         <v>14</v>
       </c>
@@ -1669,8 +1717,8 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="28"/>
-      <c r="B19" s="34"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="9" t="s">
         <v>15</v>
       </c>
@@ -1688,8 +1736,8 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="28"/>
-      <c r="B20" s="34"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="9" t="s">
         <v>16</v>
       </c>
@@ -1707,9 +1755,9 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="28"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="30" t="s">
+      <c r="A21" s="35"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="27" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="9" t="s">
@@ -1728,9 +1776,9 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="28"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="9" t="s">
         <v>20</v>
       </c>
@@ -1747,8 +1795,8 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="28"/>
-      <c r="B23" s="30" t="s">
+      <c r="A23" s="35"/>
+      <c r="B23" s="27" t="s">
         <v>151</v>
       </c>
       <c r="C23" s="9" t="s">
@@ -1768,8 +1816,8 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="28"/>
-      <c r="B24" s="34"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="9" t="s">
         <v>14</v>
       </c>
@@ -1787,8 +1835,8 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="28"/>
-      <c r="B25" s="34"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="9" t="s">
         <v>15</v>
       </c>
@@ -1806,8 +1854,8 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="28"/>
-      <c r="B26" s="34"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="9" t="s">
         <v>16</v>
       </c>
@@ -1825,8 +1873,8 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="28"/>
-      <c r="B27" s="31"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="9" t="s">
         <v>152</v>
       </c>
@@ -1844,8 +1892,8 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="28"/>
-      <c r="B28" s="30" t="s">
+      <c r="A28" s="35"/>
+      <c r="B28" s="27" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="9" t="s">
@@ -1865,8 +1913,8 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="28"/>
-      <c r="B29" s="34"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="28"/>
       <c r="C29" s="9" t="s">
         <v>14</v>
       </c>
@@ -1884,8 +1932,8 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="28"/>
-      <c r="B30" s="34"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="28"/>
       <c r="C30" s="9" t="s">
         <v>15</v>
       </c>
@@ -1903,8 +1951,8 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="28"/>
-      <c r="B31" s="31"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="29"/>
       <c r="C31" s="9" t="s">
         <v>16</v>
       </c>
@@ -1922,8 +1970,8 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A32" s="28"/>
-      <c r="B32" s="30" t="s">
+      <c r="A32" s="35"/>
+      <c r="B32" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="9" t="s">
@@ -1943,8 +1991,8 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A33" s="28"/>
-      <c r="B33" s="34"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="28"/>
       <c r="C33" s="9" t="s">
         <v>14</v>
       </c>
@@ -1962,8 +2010,8 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="28"/>
-      <c r="B34" s="34"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="9" t="s">
         <v>15</v>
       </c>
@@ -1981,8 +2029,8 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" s="28"/>
-      <c r="B35" s="31"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="29"/>
       <c r="C35" s="9" t="s">
         <v>16</v>
       </c>
@@ -2000,8 +2048,8 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A36" s="28"/>
-      <c r="B36" s="30" t="s">
+      <c r="A36" s="35"/>
+      <c r="B36" s="27" t="s">
         <v>153</v>
       </c>
       <c r="C36" s="9" t="s">
@@ -2021,8 +2069,8 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A37" s="28"/>
-      <c r="B37" s="34"/>
+      <c r="A37" s="35"/>
+      <c r="B37" s="28"/>
       <c r="C37" s="9" t="s">
         <v>14</v>
       </c>
@@ -2040,8 +2088,8 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A38" s="28"/>
-      <c r="B38" s="34"/>
+      <c r="A38" s="35"/>
+      <c r="B38" s="28"/>
       <c r="C38" s="9" t="s">
         <v>15</v>
       </c>
@@ -2059,8 +2107,8 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A39" s="28"/>
-      <c r="B39" s="31"/>
+      <c r="A39" s="35"/>
+      <c r="B39" s="29"/>
       <c r="C39" s="9" t="s">
         <v>16</v>
       </c>
@@ -2078,7 +2126,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A40" s="28"/>
+      <c r="A40" s="35"/>
       <c r="B40" s="8" t="s">
         <v>77</v>
       </c>
@@ -2099,7 +2147,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A41" s="28"/>
+      <c r="A41" s="35"/>
       <c r="B41" s="12" t="s">
         <v>131</v>
       </c>
@@ -2122,7 +2170,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A42" s="28"/>
+      <c r="A42" s="35"/>
       <c r="B42" s="8" t="s">
         <v>132</v>
       </c>
@@ -2139,7 +2187,7 @@
       <c r="K42" s="9"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A43" s="28"/>
+      <c r="A43" s="35"/>
       <c r="B43" s="8" t="s">
         <v>134</v>
       </c>
@@ -2156,7 +2204,7 @@
       <c r="K43" s="9"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A44" s="28"/>
+      <c r="A44" s="35"/>
       <c r="B44" s="8" t="s">
         <v>154</v>
       </c>
@@ -2173,7 +2221,7 @@
       <c r="K44" s="9"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A45" s="28"/>
+      <c r="A45" s="35"/>
       <c r="B45" s="8" t="s">
         <v>37</v>
       </c>
@@ -2192,7 +2240,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A46" s="28"/>
+      <c r="A46" s="35"/>
       <c r="B46" s="12"/>
       <c r="C46" s="14"/>
       <c r="D46" s="9"/>
@@ -2205,8 +2253,8 @@
       <c r="K46" s="9"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A47" s="28"/>
-      <c r="B47" s="30" t="s">
+      <c r="A47" s="35"/>
+      <c r="B47" s="27" t="s">
         <v>74</v>
       </c>
       <c r="C47" s="8" t="s">
@@ -2224,9 +2272,9 @@
       <c r="K47" s="9"/>
     </row>
     <row r="48" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="28"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="35" t="s">
+      <c r="A48" s="35"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="30" t="s">
         <v>139</v>
       </c>
       <c r="D48" s="15" t="s">
@@ -2241,9 +2289,9 @@
       <c r="K48" s="9"/>
     </row>
     <row r="49" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="28"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="36"/>
+      <c r="A49" s="35"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="31"/>
       <c r="D49" s="15" t="s">
         <v>140</v>
       </c>
@@ -2256,9 +2304,9 @@
       <c r="K49" s="9"/>
     </row>
     <row r="50" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="28"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="36"/>
+      <c r="A50" s="35"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="31"/>
       <c r="D50" s="16" t="s">
         <v>75</v>
       </c>
@@ -2271,9 +2319,9 @@
       <c r="K50" s="9"/>
     </row>
     <row r="51" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="28"/>
-      <c r="B51" s="34"/>
-      <c r="C51" s="36"/>
+      <c r="A51" s="35"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="31"/>
       <c r="D51" s="16" t="s">
         <v>76</v>
       </c>
@@ -2286,9 +2334,9 @@
       <c r="K51" s="9"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="28"/>
-      <c r="B52" s="31"/>
-      <c r="C52" s="37"/>
+      <c r="A52" s="35"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="32"/>
       <c r="D52" s="16" t="s">
         <v>81</v>
       </c>
@@ -2303,8 +2351,8 @@
       <c r="K52" s="9"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A53" s="28"/>
-      <c r="B53" s="30" t="s">
+      <c r="A53" s="35"/>
+      <c r="B53" s="27" t="s">
         <v>78</v>
       </c>
       <c r="C53" s="16" t="s">
@@ -2320,8 +2368,8 @@
       <c r="K53" s="9"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A54" s="28"/>
-      <c r="B54" s="34"/>
+      <c r="A54" s="35"/>
+      <c r="B54" s="28"/>
       <c r="C54" s="16" t="s">
         <v>80</v>
       </c>
@@ -2337,8 +2385,8 @@
       <c r="K54" s="9"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A55" s="28"/>
-      <c r="B55" s="31"/>
+      <c r="A55" s="35"/>
+      <c r="B55" s="29"/>
       <c r="C55" s="16" t="s">
         <v>59</v>
       </c>
@@ -2352,8 +2400,8 @@
       <c r="K55" s="9"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A56" s="28"/>
-      <c r="B56" s="30" t="s">
+      <c r="A56" s="35"/>
+      <c r="B56" s="27" t="s">
         <v>141</v>
       </c>
       <c r="C56" s="16" t="s">
@@ -2369,8 +2417,8 @@
       <c r="K56" s="9"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A57" s="28"/>
-      <c r="B57" s="31"/>
+      <c r="A57" s="35"/>
+      <c r="B57" s="29"/>
       <c r="C57" s="16" t="s">
         <v>85</v>
       </c>
@@ -2384,8 +2432,8 @@
       <c r="K57" s="9"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A58" s="28"/>
-      <c r="B58" s="30" t="s">
+      <c r="A58" s="35"/>
+      <c r="B58" s="27" t="s">
         <v>142</v>
       </c>
       <c r="C58" s="16" t="s">
@@ -2401,8 +2449,8 @@
       <c r="K58" s="9"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A59" s="28"/>
-      <c r="B59" s="31"/>
+      <c r="A59" s="35"/>
+      <c r="B59" s="29"/>
       <c r="C59" s="16" t="s">
         <v>83</v>
       </c>
@@ -2416,8 +2464,8 @@
       <c r="K59" s="9"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A60" s="28"/>
-      <c r="B60" s="30" t="s">
+      <c r="A60" s="35"/>
+      <c r="B60" s="27" t="s">
         <v>86</v>
       </c>
       <c r="C60" s="9" t="s">
@@ -2429,12 +2477,14 @@
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
-      <c r="J60" s="10"/>
+      <c r="J60" s="10">
+        <v>1</v>
+      </c>
       <c r="K60" s="9"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A61" s="28"/>
-      <c r="B61" s="34"/>
+      <c r="A61" s="35"/>
+      <c r="B61" s="28"/>
       <c r="C61" s="9" t="s">
         <v>14</v>
       </c>
@@ -2444,12 +2494,14 @@
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
-      <c r="J61" s="10"/>
+      <c r="J61" s="10">
+        <v>1</v>
+      </c>
       <c r="K61" s="9"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A62" s="28"/>
-      <c r="B62" s="34"/>
+      <c r="A62" s="35"/>
+      <c r="B62" s="28"/>
       <c r="C62" s="9" t="s">
         <v>15</v>
       </c>
@@ -2459,12 +2511,14 @@
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
-      <c r="J62" s="10"/>
+      <c r="J62" s="10">
+        <v>1</v>
+      </c>
       <c r="K62" s="9"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A63" s="28"/>
-      <c r="B63" s="31"/>
+      <c r="A63" s="35"/>
+      <c r="B63" s="29"/>
       <c r="C63" s="9" t="s">
         <v>16</v>
       </c>
@@ -2474,12 +2528,14 @@
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
-      <c r="J63" s="10"/>
+      <c r="J63" s="10">
+        <v>1</v>
+      </c>
       <c r="K63" s="9"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A64" s="28"/>
-      <c r="B64" s="30" t="s">
+      <c r="A64" s="35"/>
+      <c r="B64" s="27" t="s">
         <v>161</v>
       </c>
       <c r="C64" s="9" t="s">
@@ -2495,8 +2551,8 @@
       <c r="K64" s="9"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A65" s="28"/>
-      <c r="B65" s="34"/>
+      <c r="A65" s="35"/>
+      <c r="B65" s="28"/>
       <c r="C65" s="9" t="s">
         <v>14</v>
       </c>
@@ -2510,8 +2566,8 @@
       <c r="K65" s="9"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A66" s="28"/>
-      <c r="B66" s="34"/>
+      <c r="A66" s="35"/>
+      <c r="B66" s="28"/>
       <c r="C66" s="9" t="s">
         <v>15</v>
       </c>
@@ -2525,8 +2581,8 @@
       <c r="K66" s="9"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A67" s="28"/>
-      <c r="B67" s="31"/>
+      <c r="A67" s="35"/>
+      <c r="B67" s="29"/>
       <c r="C67" s="9" t="s">
         <v>16</v>
       </c>
@@ -2540,7 +2596,7 @@
       <c r="K67" s="9"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A68" s="28"/>
+      <c r="A68" s="35"/>
       <c r="B68" s="8" t="s">
         <v>89</v>
       </c>
@@ -2557,8 +2613,8 @@
       <c r="K68" s="9"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A69" s="28"/>
-      <c r="B69" s="30" t="s">
+      <c r="A69" s="35"/>
+      <c r="B69" s="27" t="s">
         <v>155</v>
       </c>
       <c r="C69" s="9" t="s">
@@ -2574,8 +2630,8 @@
       <c r="K69" s="9"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A70" s="28"/>
-      <c r="B70" s="34"/>
+      <c r="A70" s="35"/>
+      <c r="B70" s="28"/>
       <c r="C70" s="9" t="s">
         <v>14</v>
       </c>
@@ -2589,8 +2645,8 @@
       <c r="K70" s="9"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A71" s="28"/>
-      <c r="B71" s="34"/>
+      <c r="A71" s="35"/>
+      <c r="B71" s="28"/>
       <c r="C71" s="9" t="s">
         <v>15</v>
       </c>
@@ -2604,8 +2660,8 @@
       <c r="K71" s="9"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A72" s="28"/>
-      <c r="B72" s="31"/>
+      <c r="A72" s="35"/>
+      <c r="B72" s="29"/>
       <c r="C72" s="9" t="s">
         <v>16</v>
       </c>
@@ -2619,8 +2675,8 @@
       <c r="K72" s="9"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A73" s="28"/>
-      <c r="B73" s="30" t="s">
+      <c r="A73" s="35"/>
+      <c r="B73" s="27" t="s">
         <v>156</v>
       </c>
       <c r="C73" s="9" t="s">
@@ -2636,8 +2692,8 @@
       <c r="K73" s="9"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A74" s="28"/>
-      <c r="B74" s="31"/>
+      <c r="A74" s="35"/>
+      <c r="B74" s="29"/>
       <c r="C74" s="15" t="s">
         <v>90</v>
       </c>
@@ -2651,7 +2707,7 @@
       <c r="K74" s="9"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A75" s="29"/>
+      <c r="A75" s="36"/>
       <c r="B75" s="13" t="s">
         <v>158</v>
       </c>
@@ -2681,10 +2737,10 @@
       <c r="K76" s="9"/>
     </row>
     <row r="77" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="33" t="s">
+      <c r="A77" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B77" s="32" t="s">
+      <c r="B77" s="33" t="s">
         <v>23</v>
       </c>
       <c r="C77" s="9" t="s">
@@ -2700,8 +2756,8 @@
       <c r="K77" s="9"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A78" s="33"/>
-      <c r="B78" s="32"/>
+      <c r="A78" s="37"/>
+      <c r="B78" s="33"/>
       <c r="C78" s="9" t="s">
         <v>25</v>
       </c>
@@ -2711,12 +2767,14 @@
       <c r="G78" s="9"/>
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
-      <c r="J78" s="10"/>
+      <c r="J78" s="10">
+        <v>1</v>
+      </c>
       <c r="K78" s="9"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A79" s="33"/>
-      <c r="B79" s="32"/>
+      <c r="A79" s="37"/>
+      <c r="B79" s="33"/>
       <c r="C79" s="9" t="s">
         <v>26</v>
       </c>
@@ -2730,8 +2788,8 @@
       <c r="K79" s="9"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A80" s="33"/>
-      <c r="B80" s="32"/>
+      <c r="A80" s="37"/>
+      <c r="B80" s="33"/>
       <c r="C80" s="19" t="s">
         <v>87</v>
       </c>
@@ -2747,11 +2805,11 @@
       <c r="K80" s="9"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A81" s="33"/>
-      <c r="B81" s="32" t="s">
+      <c r="A81" s="37"/>
+      <c r="B81" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C81" s="30" t="s">
+      <c r="C81" s="27" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="9" t="s">
@@ -2766,10 +2824,10 @@
       <c r="K81" s="9"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A82" s="33"/>
-      <c r="B82" s="32"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="30" t="s">
+      <c r="A82" s="37"/>
+      <c r="B82" s="33"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="27" t="s">
         <v>30</v>
       </c>
       <c r="E82" s="16" t="s">
@@ -2783,10 +2841,10 @@
       <c r="K82" s="9"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A83" s="33"/>
-      <c r="B83" s="32"/>
-      <c r="C83" s="34"/>
-      <c r="D83" s="31"/>
+      <c r="A83" s="37"/>
+      <c r="B83" s="33"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="29"/>
       <c r="E83" s="16" t="s">
         <v>83</v>
       </c>
@@ -2798,8 +2856,8 @@
       <c r="K83" s="9"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A84" s="33"/>
-      <c r="B84" s="32"/>
+      <c r="A84" s="37"/>
+      <c r="B84" s="33"/>
       <c r="C84" s="9" t="s">
         <v>31</v>
       </c>
@@ -2813,12 +2871,12 @@
       <c r="K84" s="9"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A85" s="33"/>
-      <c r="B85" s="32"/>
-      <c r="C85" s="30" t="s">
+      <c r="A85" s="37"/>
+      <c r="B85" s="33"/>
+      <c r="C85" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="D85" s="30" t="s">
+      <c r="D85" s="27" t="s">
         <v>94</v>
       </c>
       <c r="E85" s="9" t="s">
@@ -2828,14 +2886,16 @@
       <c r="G85" s="9"/>
       <c r="H85" s="9"/>
       <c r="I85" s="9"/>
-      <c r="J85" s="10"/>
+      <c r="J85" s="10">
+        <v>1</v>
+      </c>
       <c r="K85" s="9"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A86" s="33"/>
-      <c r="B86" s="32"/>
-      <c r="C86" s="34"/>
-      <c r="D86" s="31"/>
+      <c r="A86" s="37"/>
+      <c r="B86" s="33"/>
+      <c r="C86" s="28"/>
+      <c r="D86" s="29"/>
       <c r="E86" s="9" t="s">
         <v>35</v>
       </c>
@@ -2843,13 +2903,15 @@
       <c r="G86" s="9"/>
       <c r="H86" s="9"/>
       <c r="I86" s="9"/>
-      <c r="J86" s="10"/>
+      <c r="J86" s="10">
+        <v>1</v>
+      </c>
       <c r="K86" s="9"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A87" s="33"/>
-      <c r="B87" s="32"/>
-      <c r="C87" s="34"/>
+      <c r="A87" s="37"/>
+      <c r="B87" s="33"/>
+      <c r="C87" s="28"/>
       <c r="D87" s="9" t="s">
         <v>32</v>
       </c>
@@ -2860,13 +2922,15 @@
       <c r="G87" s="9"/>
       <c r="H87" s="9"/>
       <c r="I87" s="9"/>
-      <c r="J87" s="10"/>
+      <c r="J87" s="10">
+        <v>1</v>
+      </c>
       <c r="K87" s="9"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A88" s="33"/>
-      <c r="B88" s="32"/>
-      <c r="C88" s="31"/>
+      <c r="A88" s="37"/>
+      <c r="B88" s="33"/>
+      <c r="C88" s="29"/>
       <c r="D88" s="9" t="s">
         <v>33</v>
       </c>
@@ -2877,15 +2941,17 @@
       <c r="G88" s="9"/>
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
-      <c r="J88" s="10"/>
+      <c r="J88" s="10">
+        <v>1</v>
+      </c>
       <c r="K88" s="9"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A89" s="33"/>
-      <c r="B89" s="32" t="s">
+      <c r="A89" s="37"/>
+      <c r="B89" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="C89" s="30" t="s">
+      <c r="C89" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D89" s="9" t="s">
@@ -2897,16 +2963,16 @@
       <c r="H89" s="9"/>
       <c r="I89" s="9"/>
       <c r="J89" s="10">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="K89" s="9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A90" s="33"/>
-      <c r="B90" s="32"/>
-      <c r="C90" s="34"/>
+      <c r="A90" s="37"/>
+      <c r="B90" s="33"/>
+      <c r="C90" s="28"/>
       <c r="D90" s="9" t="s">
         <v>14</v>
       </c>
@@ -2916,16 +2982,16 @@
       <c r="H90" s="9"/>
       <c r="I90" s="9"/>
       <c r="J90" s="10">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="K90" s="9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A91" s="33"/>
-      <c r="B91" s="32"/>
-      <c r="C91" s="34"/>
+      <c r="A91" s="37"/>
+      <c r="B91" s="33"/>
+      <c r="C91" s="28"/>
       <c r="D91" s="9" t="s">
         <v>15</v>
       </c>
@@ -2935,16 +3001,16 @@
       <c r="H91" s="9"/>
       <c r="I91" s="9"/>
       <c r="J91" s="10">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="K91" s="9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A92" s="33"/>
-      <c r="B92" s="32"/>
-      <c r="C92" s="31"/>
+      <c r="A92" s="37"/>
+      <c r="B92" s="33"/>
+      <c r="C92" s="29"/>
       <c r="D92" s="9" t="s">
         <v>16</v>
       </c>
@@ -2954,16 +3020,16 @@
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>
       <c r="J92" s="10">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="K92" s="9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A93" s="33"/>
-      <c r="B93" s="32"/>
-      <c r="C93" s="30" t="s">
+      <c r="A93" s="37"/>
+      <c r="B93" s="33"/>
+      <c r="C93" s="27" t="s">
         <v>93</v>
       </c>
       <c r="D93" s="9" t="s">
@@ -2982,9 +3048,9 @@
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A94" s="33"/>
-      <c r="B94" s="32"/>
-      <c r="C94" s="34"/>
+      <c r="A94" s="37"/>
+      <c r="B94" s="33"/>
+      <c r="C94" s="28"/>
       <c r="D94" s="9" t="s">
         <v>14</v>
       </c>
@@ -3001,9 +3067,9 @@
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A95" s="33"/>
-      <c r="B95" s="32"/>
-      <c r="C95" s="34"/>
+      <c r="A95" s="37"/>
+      <c r="B95" s="33"/>
+      <c r="C95" s="28"/>
       <c r="D95" s="9" t="s">
         <v>15</v>
       </c>
@@ -3020,9 +3086,9 @@
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A96" s="33"/>
-      <c r="B96" s="32"/>
-      <c r="C96" s="34"/>
+      <c r="A96" s="37"/>
+      <c r="B96" s="33"/>
+      <c r="C96" s="28"/>
       <c r="D96" s="9" t="s">
         <v>16</v>
       </c>
@@ -3039,10 +3105,10 @@
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A97" s="33"/>
-      <c r="B97" s="32"/>
-      <c r="C97" s="34"/>
-      <c r="D97" s="30" t="s">
+      <c r="A97" s="37"/>
+      <c r="B97" s="33"/>
+      <c r="C97" s="28"/>
+      <c r="D97" s="27" t="s">
         <v>148</v>
       </c>
       <c r="E97" s="9" t="s">
@@ -3058,10 +3124,10 @@
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A98" s="33"/>
-      <c r="B98" s="32"/>
-      <c r="C98" s="34"/>
-      <c r="D98" s="34"/>
+      <c r="A98" s="37"/>
+      <c r="B98" s="33"/>
+      <c r="C98" s="28"/>
+      <c r="D98" s="28"/>
       <c r="E98" s="9" t="s">
         <v>42</v>
       </c>
@@ -3075,10 +3141,10 @@
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A99" s="33"/>
-      <c r="B99" s="32"/>
-      <c r="C99" s="34"/>
-      <c r="D99" s="34"/>
+      <c r="A99" s="37"/>
+      <c r="B99" s="33"/>
+      <c r="C99" s="28"/>
+      <c r="D99" s="28"/>
       <c r="E99" s="9" t="s">
         <v>43</v>
       </c>
@@ -3092,10 +3158,10 @@
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="33"/>
-      <c r="B100" s="32"/>
-      <c r="C100" s="34"/>
-      <c r="D100" s="34"/>
+      <c r="A100" s="37"/>
+      <c r="B100" s="33"/>
+      <c r="C100" s="28"/>
+      <c r="D100" s="28"/>
       <c r="E100" s="26" t="s">
         <v>108</v>
       </c>
@@ -3111,10 +3177,10 @@
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="33"/>
-      <c r="B101" s="32"/>
-      <c r="C101" s="34"/>
-      <c r="D101" s="31"/>
+      <c r="A101" s="37"/>
+      <c r="B101" s="33"/>
+      <c r="C101" s="28"/>
+      <c r="D101" s="29"/>
       <c r="E101" s="26" t="s">
         <v>147</v>
       </c>
@@ -3130,9 +3196,9 @@
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A102" s="33"/>
-      <c r="B102" s="32"/>
-      <c r="C102" s="34"/>
+      <c r="A102" s="37"/>
+      <c r="B102" s="33"/>
+      <c r="C102" s="28"/>
       <c r="D102" s="9" t="s">
         <v>95</v>
       </c>
@@ -3147,9 +3213,9 @@
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A103" s="33"/>
-      <c r="B103" s="32"/>
-      <c r="C103" s="34"/>
+      <c r="A103" s="37"/>
+      <c r="B103" s="33"/>
+      <c r="C103" s="28"/>
       <c r="D103" s="19" t="s">
         <v>97</v>
       </c>
@@ -3166,9 +3232,9 @@
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A104" s="33"/>
-      <c r="B104" s="32"/>
-      <c r="C104" s="34"/>
+      <c r="A104" s="37"/>
+      <c r="B104" s="33"/>
+      <c r="C104" s="28"/>
       <c r="D104" s="19" t="s">
         <v>98</v>
       </c>
@@ -3184,9 +3250,9 @@
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A105" s="33"/>
-      <c r="B105" s="32"/>
-      <c r="C105" s="34"/>
+      <c r="A105" s="37"/>
+      <c r="B105" s="33"/>
+      <c r="C105" s="28"/>
       <c r="D105" s="19" t="s">
         <v>100</v>
       </c>
@@ -3196,15 +3262,17 @@
       <c r="F105" s="9"/>
       <c r="H105" s="9"/>
       <c r="I105" s="9"/>
-      <c r="J105" s="10"/>
+      <c r="J105" s="10">
+        <v>1</v>
+      </c>
       <c r="K105" s="9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A106" s="33"/>
-      <c r="B106" s="32"/>
-      <c r="C106" s="34"/>
+      <c r="A106" s="37"/>
+      <c r="B106" s="33"/>
+      <c r="C106" s="28"/>
       <c r="D106" s="19" t="s">
         <v>102</v>
       </c>
@@ -3214,15 +3282,17 @@
       <c r="F106" s="9"/>
       <c r="H106" s="9"/>
       <c r="I106" s="9"/>
-      <c r="J106" s="10"/>
+      <c r="J106" s="10">
+        <v>1</v>
+      </c>
       <c r="K106" s="9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A107" s="33"/>
-      <c r="B107" s="32"/>
-      <c r="C107" s="34"/>
+      <c r="A107" s="37"/>
+      <c r="B107" s="33"/>
+      <c r="C107" s="28"/>
       <c r="D107" s="19" t="s">
         <v>104</v>
       </c>
@@ -3239,9 +3309,9 @@
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A108" s="33"/>
-      <c r="B108" s="32"/>
-      <c r="C108" s="34"/>
+      <c r="A108" s="37"/>
+      <c r="B108" s="33"/>
+      <c r="C108" s="28"/>
       <c r="D108" s="19" t="s">
         <v>46</v>
       </c>
@@ -3260,9 +3330,9 @@
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A109" s="33"/>
-      <c r="B109" s="32"/>
-      <c r="C109" s="34"/>
+      <c r="A109" s="37"/>
+      <c r="B109" s="33"/>
+      <c r="C109" s="28"/>
       <c r="D109" s="19" t="s">
         <v>48</v>
       </c>
@@ -3279,9 +3349,9 @@
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A110" s="33"/>
-      <c r="B110" s="32"/>
-      <c r="C110" s="34"/>
+      <c r="A110" s="37"/>
+      <c r="B110" s="33"/>
+      <c r="C110" s="28"/>
       <c r="D110" s="19" t="s">
         <v>111</v>
       </c>
@@ -3298,9 +3368,9 @@
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A111" s="33"/>
-      <c r="B111" s="32"/>
-      <c r="C111" s="34"/>
+      <c r="A111" s="37"/>
+      <c r="B111" s="33"/>
+      <c r="C111" s="28"/>
       <c r="D111" s="19" t="s">
         <v>112</v>
       </c>
@@ -3319,9 +3389,9 @@
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A112" s="33"/>
-      <c r="B112" s="32"/>
-      <c r="C112" s="34"/>
+      <c r="A112" s="37"/>
+      <c r="B112" s="33"/>
+      <c r="C112" s="28"/>
       <c r="D112" s="19" t="s">
         <v>114</v>
       </c>
@@ -3338,9 +3408,9 @@
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A113" s="33"/>
-      <c r="B113" s="32"/>
-      <c r="C113" s="34"/>
+      <c r="A113" s="37"/>
+      <c r="B113" s="33"/>
+      <c r="C113" s="28"/>
       <c r="D113" s="19" t="s">
         <v>116</v>
       </c>
@@ -3357,9 +3427,9 @@
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A114" s="33"/>
-      <c r="B114" s="32"/>
-      <c r="C114" s="34"/>
+      <c r="A114" s="37"/>
+      <c r="B114" s="33"/>
+      <c r="C114" s="28"/>
       <c r="D114" s="19" t="s">
         <v>119</v>
       </c>
@@ -3376,9 +3446,9 @@
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A115" s="33"/>
-      <c r="B115" s="32"/>
-      <c r="C115" s="34"/>
+      <c r="A115" s="37"/>
+      <c r="B115" s="33"/>
+      <c r="C115" s="28"/>
       <c r="D115" s="19" t="s">
         <v>121</v>
       </c>
@@ -3395,9 +3465,9 @@
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A116" s="33"/>
-      <c r="B116" s="32"/>
-      <c r="C116" s="34"/>
+      <c r="A116" s="37"/>
+      <c r="B116" s="33"/>
+      <c r="C116" s="28"/>
       <c r="D116" s="19" t="s">
         <v>123</v>
       </c>
@@ -3414,9 +3484,9 @@
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A117" s="33"/>
-      <c r="B117" s="32"/>
-      <c r="C117" s="34"/>
+      <c r="A117" s="37"/>
+      <c r="B117" s="33"/>
+      <c r="C117" s="28"/>
       <c r="D117" s="19" t="s">
         <v>125</v>
       </c>
@@ -3435,10 +3505,10 @@
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A118" s="33"/>
-      <c r="B118" s="32"/>
-      <c r="C118" s="34"/>
-      <c r="D118" s="30" t="s">
+      <c r="A118" s="37"/>
+      <c r="B118" s="33"/>
+      <c r="C118" s="28"/>
+      <c r="D118" s="27" t="s">
         <v>40</v>
       </c>
       <c r="E118" s="9" t="s">
@@ -3456,10 +3526,10 @@
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A119" s="33"/>
-      <c r="B119" s="32"/>
-      <c r="C119" s="34"/>
-      <c r="D119" s="34"/>
+      <c r="A119" s="37"/>
+      <c r="B119" s="33"/>
+      <c r="C119" s="28"/>
+      <c r="D119" s="28"/>
       <c r="E119" s="9" t="s">
         <v>47</v>
       </c>
@@ -3473,10 +3543,10 @@
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A120" s="33"/>
-      <c r="B120" s="32"/>
-      <c r="C120" s="34"/>
-      <c r="D120" s="34"/>
+      <c r="A120" s="37"/>
+      <c r="B120" s="33"/>
+      <c r="C120" s="28"/>
+      <c r="D120" s="28"/>
       <c r="E120" s="9" t="s">
         <v>45</v>
       </c>
@@ -3490,10 +3560,10 @@
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A121" s="33"/>
-      <c r="B121" s="32"/>
-      <c r="C121" s="34"/>
-      <c r="D121" s="34"/>
+      <c r="A121" s="37"/>
+      <c r="B121" s="33"/>
+      <c r="C121" s="28"/>
+      <c r="D121" s="28"/>
       <c r="E121" s="9" t="s">
         <v>46</v>
       </c>
@@ -3509,10 +3579,10 @@
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A122" s="33"/>
-      <c r="B122" s="32"/>
-      <c r="C122" s="34"/>
-      <c r="D122" s="34"/>
+      <c r="A122" s="37"/>
+      <c r="B122" s="33"/>
+      <c r="C122" s="28"/>
+      <c r="D122" s="28"/>
       <c r="E122" s="9" t="s">
         <v>48</v>
       </c>
@@ -3528,10 +3598,10 @@
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A123" s="33"/>
-      <c r="B123" s="32"/>
-      <c r="C123" s="34"/>
-      <c r="D123" s="31"/>
+      <c r="A123" s="37"/>
+      <c r="B123" s="33"/>
+      <c r="C123" s="28"/>
+      <c r="D123" s="29"/>
       <c r="E123" s="9" t="s">
         <v>49</v>
       </c>
@@ -3545,10 +3615,10 @@
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A124" s="33"/>
-      <c r="B124" s="32"/>
-      <c r="C124" s="34"/>
-      <c r="D124" s="30" t="s">
+      <c r="A124" s="37"/>
+      <c r="B124" s="33"/>
+      <c r="C124" s="28"/>
+      <c r="D124" s="27" t="s">
         <v>50</v>
       </c>
       <c r="E124" s="9" t="s">
@@ -3566,11 +3636,11 @@
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A125" s="33"/>
-      <c r="B125" s="32"/>
-      <c r="C125" s="34"/>
-      <c r="D125" s="34"/>
-      <c r="E125" s="30" t="s">
+      <c r="A125" s="37"/>
+      <c r="B125" s="33"/>
+      <c r="C125" s="28"/>
+      <c r="D125" s="28"/>
+      <c r="E125" s="27" t="s">
         <v>51</v>
       </c>
       <c r="F125" s="9" t="s">
@@ -3585,11 +3655,11 @@
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A126" s="33"/>
-      <c r="B126" s="32"/>
-      <c r="C126" s="34"/>
-      <c r="D126" s="34"/>
-      <c r="E126" s="34"/>
+      <c r="A126" s="37"/>
+      <c r="B126" s="33"/>
+      <c r="C126" s="28"/>
+      <c r="D126" s="28"/>
+      <c r="E126" s="28"/>
       <c r="F126" s="9" t="s">
         <v>52</v>
       </c>
@@ -3604,11 +3674,11 @@
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A127" s="33"/>
-      <c r="B127" s="32"/>
-      <c r="C127" s="34"/>
-      <c r="D127" s="34"/>
-      <c r="E127" s="34"/>
+      <c r="A127" s="37"/>
+      <c r="B127" s="33"/>
+      <c r="C127" s="28"/>
+      <c r="D127" s="28"/>
+      <c r="E127" s="28"/>
       <c r="F127" s="9" t="s">
         <v>53</v>
       </c>
@@ -3623,11 +3693,11 @@
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A128" s="33"/>
-      <c r="B128" s="32"/>
-      <c r="C128" s="34"/>
-      <c r="D128" s="34"/>
-      <c r="E128" s="34"/>
+      <c r="A128" s="37"/>
+      <c r="B128" s="33"/>
+      <c r="C128" s="28"/>
+      <c r="D128" s="28"/>
+      <c r="E128" s="28"/>
       <c r="F128" s="9" t="s">
         <v>54</v>
       </c>
@@ -3640,11 +3710,11 @@
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A129" s="33"/>
-      <c r="B129" s="32"/>
-      <c r="C129" s="34"/>
-      <c r="D129" s="34"/>
-      <c r="E129" s="34"/>
+      <c r="A129" s="37"/>
+      <c r="B129" s="33"/>
+      <c r="C129" s="28"/>
+      <c r="D129" s="28"/>
+      <c r="E129" s="28"/>
       <c r="F129" s="9" t="s">
         <v>55</v>
       </c>
@@ -3659,11 +3729,11 @@
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A130" s="33"/>
-      <c r="B130" s="32"/>
-      <c r="C130" s="34"/>
-      <c r="D130" s="34"/>
-      <c r="E130" s="34"/>
+      <c r="A130" s="37"/>
+      <c r="B130" s="33"/>
+      <c r="C130" s="28"/>
+      <c r="D130" s="28"/>
+      <c r="E130" s="28"/>
       <c r="F130" s="9" t="s">
         <v>56</v>
       </c>
@@ -3676,11 +3746,11 @@
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A131" s="33"/>
-      <c r="B131" s="32"/>
-      <c r="C131" s="34"/>
-      <c r="D131" s="34"/>
-      <c r="E131" s="31"/>
+      <c r="A131" s="37"/>
+      <c r="B131" s="33"/>
+      <c r="C131" s="28"/>
+      <c r="D131" s="28"/>
+      <c r="E131" s="29"/>
       <c r="F131" s="9" t="s">
         <v>57</v>
       </c>
@@ -3693,10 +3763,10 @@
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132" s="33"/>
-      <c r="B132" s="32"/>
-      <c r="C132" s="34"/>
-      <c r="D132" s="31"/>
+      <c r="A132" s="37"/>
+      <c r="B132" s="33"/>
+      <c r="C132" s="28"/>
+      <c r="D132" s="29"/>
       <c r="E132" s="9" t="s">
         <v>128</v>
       </c>
@@ -3714,9 +3784,9 @@
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A133" s="33"/>
-      <c r="B133" s="32"/>
-      <c r="C133" s="30" t="s">
+      <c r="A133" s="37"/>
+      <c r="B133" s="33"/>
+      <c r="C133" s="27" t="s">
         <v>70</v>
       </c>
       <c r="D133" s="9" t="s">
@@ -3735,9 +3805,9 @@
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A134" s="33"/>
-      <c r="B134" s="32"/>
-      <c r="C134" s="34"/>
+      <c r="A134" s="37"/>
+      <c r="B134" s="33"/>
+      <c r="C134" s="28"/>
       <c r="D134" s="9" t="s">
         <v>14</v>
       </c>
@@ -3754,9 +3824,9 @@
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A135" s="33"/>
-      <c r="B135" s="32"/>
-      <c r="C135" s="34"/>
+      <c r="A135" s="37"/>
+      <c r="B135" s="33"/>
+      <c r="C135" s="28"/>
       <c r="D135" s="9" t="s">
         <v>15</v>
       </c>
@@ -3773,9 +3843,9 @@
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A136" s="33"/>
-      <c r="B136" s="32"/>
-      <c r="C136" s="34"/>
+      <c r="A136" s="37"/>
+      <c r="B136" s="33"/>
+      <c r="C136" s="28"/>
       <c r="D136" s="9" t="s">
         <v>16</v>
       </c>
@@ -3792,9 +3862,9 @@
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A137" s="33"/>
-      <c r="B137" s="32"/>
-      <c r="C137" s="30" t="s">
+      <c r="A137" s="37"/>
+      <c r="B137" s="33"/>
+      <c r="C137" s="27" t="s">
         <v>144</v>
       </c>
       <c r="D137" s="9" t="s">
@@ -3813,9 +3883,9 @@
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A138" s="33"/>
-      <c r="B138" s="32"/>
-      <c r="C138" s="31"/>
+      <c r="A138" s="37"/>
+      <c r="B138" s="33"/>
+      <c r="C138" s="29"/>
       <c r="D138" s="2" t="s">
         <v>145</v>
       </c>
@@ -3832,9 +3902,9 @@
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A139" s="33"/>
-      <c r="B139" s="32"/>
-      <c r="C139" s="30" t="s">
+      <c r="A139" s="37"/>
+      <c r="B139" s="33"/>
+      <c r="C139" s="27" t="s">
         <v>71</v>
       </c>
       <c r="D139" s="9" t="s">
@@ -3853,9 +3923,9 @@
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A140" s="33"/>
-      <c r="B140" s="32"/>
-      <c r="C140" s="31"/>
+      <c r="A140" s="37"/>
+      <c r="B140" s="33"/>
+      <c r="C140" s="29"/>
       <c r="D140" s="9" t="s">
         <v>15</v>
       </c>
@@ -3872,11 +3942,11 @@
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A141" s="33"/>
-      <c r="B141" s="32" t="s">
+      <c r="A141" s="37"/>
+      <c r="B141" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C141" s="30" t="s">
+      <c r="C141" s="27" t="s">
         <v>61</v>
       </c>
       <c r="D141" s="9" t="s">
@@ -3891,9 +3961,9 @@
       <c r="K141" s="9"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A142" s="33"/>
-      <c r="B142" s="32"/>
-      <c r="C142" s="31"/>
+      <c r="A142" s="37"/>
+      <c r="B142" s="33"/>
+      <c r="C142" s="29"/>
       <c r="D142" s="9" t="s">
         <v>91</v>
       </c>
@@ -3906,8 +3976,8 @@
       <c r="K142" s="9"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A143" s="33"/>
-      <c r="B143" s="32"/>
+      <c r="A143" s="37"/>
+      <c r="B143" s="33"/>
       <c r="C143" s="9" t="s">
         <v>63</v>
       </c>
@@ -3923,8 +3993,8 @@
       <c r="K143" s="9"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A144" s="33"/>
-      <c r="B144" s="32"/>
+      <c r="A144" s="37"/>
+      <c r="B144" s="33"/>
       <c r="C144" s="9" t="s">
         <v>60</v>
       </c>
@@ -3940,8 +4010,8 @@
       <c r="K144" s="9"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A145" s="33"/>
-      <c r="B145" s="32"/>
+      <c r="A145" s="37"/>
+      <c r="B145" s="33"/>
       <c r="C145" s="9" t="s">
         <v>66</v>
       </c>
@@ -3970,7 +4040,7 @@
       <c r="K146" s="9"/>
     </row>
     <row r="147" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="27" t="s">
+      <c r="A147" s="34" t="s">
         <v>68</v>
       </c>
       <c r="B147" s="21" t="s">
@@ -3987,7 +4057,7 @@
       <c r="K147" s="9"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A148" s="28"/>
+      <c r="A148" s="35"/>
       <c r="B148" s="21" t="s">
         <v>72</v>
       </c>
@@ -4002,7 +4072,7 @@
       <c r="K148" s="9"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A149" s="28"/>
+      <c r="A149" s="35"/>
       <c r="B149" s="21" t="s">
         <v>70</v>
       </c>
@@ -4017,7 +4087,7 @@
       <c r="K149" s="9"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A150" s="28"/>
+      <c r="A150" s="35"/>
       <c r="B150" s="21" t="s">
         <v>73</v>
       </c>
@@ -4068,28 +4138,6 @@
     <protectedRange sqref="J147:J152 J77:J145 J2:J75" name="区域3"/>
   </protectedRanges>
   <mergeCells count="38">
-    <mergeCell ref="C133:C136"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="E125:E131"/>
-    <mergeCell ref="D124:D132"/>
-    <mergeCell ref="C85:C88"/>
-    <mergeCell ref="B81:B88"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="C89:C92"/>
-    <mergeCell ref="D118:D123"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="D97:D101"/>
-    <mergeCell ref="C93:C132"/>
     <mergeCell ref="A8:A75"/>
     <mergeCell ref="C139:C140"/>
     <mergeCell ref="B89:B140"/>
@@ -4106,52 +4154,74 @@
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="B17:B22"/>
     <mergeCell ref="C81:C83"/>
+    <mergeCell ref="E125:E131"/>
+    <mergeCell ref="D124:D132"/>
+    <mergeCell ref="C85:C88"/>
+    <mergeCell ref="B81:B88"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="C89:C92"/>
+    <mergeCell ref="D118:D123"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="D97:D101"/>
+    <mergeCell ref="C93:C132"/>
+    <mergeCell ref="C133:C136"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B64:B67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="J147:J152 J77:J82 J2:J27 J84:J145 J32:J63 J68:J75">
-    <cfRule type="cellIs" dxfId="14" priority="25" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="J147:J152 J77:J82 J2:J27 J68:J75 J84:J145 J32:J63">
+    <cfRule type="cellIs" dxfId="20" priority="25" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="26" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="27" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="27" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:J31">
-    <cfRule type="cellIs" dxfId="11" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="7" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="8" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="9" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J83">
-    <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="4" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="5" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="6" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J64:J67">
-    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>

--- a/doc/开发计划V0.1.xlsx
+++ b/doc/开发计划V0.1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="161">
   <si>
     <t>开始时间</t>
   </si>
@@ -599,10 +599,6 @@
   </si>
   <si>
     <t>动作脚本管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴小刚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -853,12 +849,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -870,74 +881,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <fill>
         <patternFill>
@@ -1358,8 +1306,8 @@
   <dimension ref="A1:K153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B89" sqref="B89:K140"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J128" sqref="J128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1500,10 +1448,10 @@
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="30" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -1518,13 +1466,11 @@
       <c r="J8" s="10">
         <v>1</v>
       </c>
-      <c r="K8" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="35"/>
-      <c r="B9" s="28"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="9" t="s">
         <v>14</v>
       </c>
@@ -1537,13 +1483,11 @@
       <c r="J9" s="10">
         <v>1</v>
       </c>
-      <c r="K9" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K9" s="9"/>
     </row>
     <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="35"/>
-      <c r="B10" s="28"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="9" t="s">
         <v>15</v>
       </c>
@@ -1556,13 +1500,11 @@
       <c r="J10" s="10">
         <v>1</v>
       </c>
-      <c r="K10" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K10" s="9"/>
     </row>
     <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="35"/>
-      <c r="B11" s="28"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="9" t="s">
         <v>16</v>
       </c>
@@ -1575,13 +1517,11 @@
       <c r="J11" s="10">
         <v>1</v>
       </c>
-      <c r="K11" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K11" s="9"/>
     </row>
     <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="35"/>
-      <c r="B12" s="29"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="9" t="s">
         <v>17</v>
       </c>
@@ -1594,13 +1534,11 @@
       <c r="J12" s="10">
         <v>1</v>
       </c>
-      <c r="K12" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K12" s="9"/>
     </row>
     <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="35"/>
-      <c r="B13" s="27" t="s">
+      <c r="A13" s="28"/>
+      <c r="B13" s="30" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -1615,13 +1553,11 @@
       <c r="J13" s="10">
         <v>1</v>
       </c>
-      <c r="K13" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K13" s="9"/>
     </row>
     <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="35"/>
-      <c r="B14" s="28"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="9" t="s">
         <v>14</v>
       </c>
@@ -1634,13 +1570,11 @@
       <c r="J14" s="10">
         <v>1</v>
       </c>
-      <c r="K14" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K14" s="9"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="35"/>
-      <c r="B15" s="28"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="34"/>
       <c r="C15" s="9" t="s">
         <v>15</v>
       </c>
@@ -1653,13 +1587,11 @@
       <c r="J15" s="10">
         <v>1</v>
       </c>
-      <c r="K15" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K15" s="9"/>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="35"/>
-      <c r="B16" s="29"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="9" t="s">
         <v>16</v>
       </c>
@@ -1672,13 +1604,11 @@
       <c r="J16" s="10">
         <v>1</v>
       </c>
-      <c r="K16" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K16" s="9"/>
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="35"/>
-      <c r="B17" s="27" t="s">
+      <c r="A17" s="28"/>
+      <c r="B17" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="9" t="s">
@@ -1693,13 +1623,11 @@
       <c r="J17" s="10">
         <v>1</v>
       </c>
-      <c r="K17" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K17" s="9"/>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="35"/>
-      <c r="B18" s="28"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="9" t="s">
         <v>14</v>
       </c>
@@ -1712,13 +1640,11 @@
       <c r="J18" s="10">
         <v>1</v>
       </c>
-      <c r="K18" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K18" s="9"/>
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="35"/>
-      <c r="B19" s="28"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="9" t="s">
         <v>15</v>
       </c>
@@ -1731,13 +1657,11 @@
       <c r="J19" s="10">
         <v>1</v>
       </c>
-      <c r="K19" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K19" s="9"/>
     </row>
     <row r="20" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="35"/>
-      <c r="B20" s="28"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="9" t="s">
         <v>16</v>
       </c>
@@ -1750,14 +1674,12 @@
       <c r="J20" s="10">
         <v>1</v>
       </c>
-      <c r="K20" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K20" s="9"/>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="35"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="27" t="s">
+      <c r="A21" s="28"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="9" t="s">
@@ -1771,14 +1693,12 @@
       <c r="J21" s="10">
         <v>0</v>
       </c>
-      <c r="K21" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K21" s="9"/>
     </row>
     <row r="22" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="35"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="9" t="s">
         <v>20</v>
       </c>
@@ -1790,13 +1710,11 @@
       <c r="J22" s="10">
         <v>1</v>
       </c>
-      <c r="K22" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K22" s="9"/>
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="35"/>
-      <c r="B23" s="27" t="s">
+      <c r="A23" s="28"/>
+      <c r="B23" s="30" t="s">
         <v>151</v>
       </c>
       <c r="C23" s="9" t="s">
@@ -1811,13 +1729,11 @@
       <c r="J23" s="10">
         <v>1</v>
       </c>
-      <c r="K23" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K23" s="9"/>
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="35"/>
-      <c r="B24" s="28"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="9" t="s">
         <v>14</v>
       </c>
@@ -1830,13 +1746,11 @@
       <c r="J24" s="10">
         <v>1</v>
       </c>
-      <c r="K24" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K24" s="9"/>
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="35"/>
-      <c r="B25" s="28"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="34"/>
       <c r="C25" s="9" t="s">
         <v>15</v>
       </c>
@@ -1849,13 +1763,11 @@
       <c r="J25" s="10">
         <v>1</v>
       </c>
-      <c r="K25" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K25" s="9"/>
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="35"/>
-      <c r="B26" s="28"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="34"/>
       <c r="C26" s="9" t="s">
         <v>16</v>
       </c>
@@ -1868,13 +1780,11 @@
       <c r="J26" s="10">
         <v>1</v>
       </c>
-      <c r="K26" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K26" s="9"/>
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="35"/>
-      <c r="B27" s="29"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="9" t="s">
         <v>152</v>
       </c>
@@ -1887,13 +1797,11 @@
       <c r="J27" s="10">
         <v>1</v>
       </c>
-      <c r="K27" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K27" s="9"/>
     </row>
     <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="35"/>
-      <c r="B28" s="27" t="s">
+      <c r="A28" s="28"/>
+      <c r="B28" s="30" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="9" t="s">
@@ -1908,13 +1816,11 @@
       <c r="J28" s="10">
         <v>1</v>
       </c>
-      <c r="K28" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K28" s="9"/>
     </row>
     <row r="29" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="35"/>
-      <c r="B29" s="28"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="34"/>
       <c r="C29" s="9" t="s">
         <v>14</v>
       </c>
@@ -1927,13 +1833,11 @@
       <c r="J29" s="10">
         <v>1</v>
       </c>
-      <c r="K29" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K29" s="9"/>
     </row>
     <row r="30" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="35"/>
-      <c r="B30" s="28"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="34"/>
       <c r="C30" s="9" t="s">
         <v>15</v>
       </c>
@@ -1946,13 +1850,11 @@
       <c r="J30" s="10">
         <v>1</v>
       </c>
-      <c r="K30" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K30" s="9"/>
     </row>
     <row r="31" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="35"/>
-      <c r="B31" s="29"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="9" t="s">
         <v>16</v>
       </c>
@@ -1965,13 +1867,11 @@
       <c r="J31" s="10">
         <v>1</v>
       </c>
-      <c r="K31" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K31" s="9"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A32" s="35"/>
-      <c r="B32" s="27" t="s">
+      <c r="A32" s="28"/>
+      <c r="B32" s="30" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="9" t="s">
@@ -1986,13 +1886,11 @@
       <c r="J32" s="10">
         <v>0.9</v>
       </c>
-      <c r="K32" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K32" s="9"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A33" s="35"/>
-      <c r="B33" s="28"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="34"/>
       <c r="C33" s="9" t="s">
         <v>14</v>
       </c>
@@ -2005,13 +1903,11 @@
       <c r="J33" s="10">
         <v>0.9</v>
       </c>
-      <c r="K33" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K33" s="9"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="35"/>
-      <c r="B34" s="28"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="34"/>
       <c r="C34" s="9" t="s">
         <v>15</v>
       </c>
@@ -2024,13 +1920,11 @@
       <c r="J34" s="10">
         <v>1</v>
       </c>
-      <c r="K34" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K34" s="9"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" s="35"/>
-      <c r="B35" s="29"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="31"/>
       <c r="C35" s="9" t="s">
         <v>16</v>
       </c>
@@ -2043,13 +1937,11 @@
       <c r="J35" s="10">
         <v>1</v>
       </c>
-      <c r="K35" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K35" s="9"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A36" s="35"/>
-      <c r="B36" s="27" t="s">
+      <c r="A36" s="28"/>
+      <c r="B36" s="30" t="s">
         <v>153</v>
       </c>
       <c r="C36" s="9" t="s">
@@ -2064,13 +1956,11 @@
       <c r="J36" s="10">
         <v>1</v>
       </c>
-      <c r="K36" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K36" s="9"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A37" s="35"/>
-      <c r="B37" s="28"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="34"/>
       <c r="C37" s="9" t="s">
         <v>14</v>
       </c>
@@ -2083,13 +1973,11 @@
       <c r="J37" s="10">
         <v>1</v>
       </c>
-      <c r="K37" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K37" s="9"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A38" s="35"/>
-      <c r="B38" s="28"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="34"/>
       <c r="C38" s="9" t="s">
         <v>15</v>
       </c>
@@ -2102,13 +1990,11 @@
       <c r="J38" s="10">
         <v>1</v>
       </c>
-      <c r="K38" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K38" s="9"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A39" s="35"/>
-      <c r="B39" s="29"/>
+      <c r="A39" s="28"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="9" t="s">
         <v>16</v>
       </c>
@@ -2121,12 +2007,10 @@
       <c r="J39" s="10">
         <v>1</v>
       </c>
-      <c r="K39" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K39" s="9"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A40" s="35"/>
+      <c r="A40" s="28"/>
       <c r="B40" s="8" t="s">
         <v>77</v>
       </c>
@@ -2142,12 +2026,10 @@
       <c r="J40" s="10">
         <v>1</v>
       </c>
-      <c r="K40" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K40" s="9"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A41" s="35"/>
+      <c r="A41" s="28"/>
       <c r="B41" s="12" t="s">
         <v>131</v>
       </c>
@@ -2165,12 +2047,10 @@
       <c r="J41" s="10">
         <v>0.7</v>
       </c>
-      <c r="K41" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K41" s="9"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A42" s="35"/>
+      <c r="A42" s="28"/>
       <c r="B42" s="8" t="s">
         <v>132</v>
       </c>
@@ -2187,7 +2067,7 @@
       <c r="K42" s="9"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A43" s="35"/>
+      <c r="A43" s="28"/>
       <c r="B43" s="8" t="s">
         <v>134</v>
       </c>
@@ -2204,7 +2084,7 @@
       <c r="K43" s="9"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A44" s="35"/>
+      <c r="A44" s="28"/>
       <c r="B44" s="8" t="s">
         <v>154</v>
       </c>
@@ -2221,7 +2101,7 @@
       <c r="K44" s="9"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A45" s="35"/>
+      <c r="A45" s="28"/>
       <c r="B45" s="8" t="s">
         <v>37</v>
       </c>
@@ -2235,12 +2115,10 @@
       <c r="J45" s="10">
         <v>1</v>
       </c>
-      <c r="K45" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K45" s="9"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A46" s="35"/>
+      <c r="A46" s="28"/>
       <c r="B46" s="12"/>
       <c r="C46" s="14"/>
       <c r="D46" s="9"/>
@@ -2253,8 +2131,8 @@
       <c r="K46" s="9"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A47" s="35"/>
-      <c r="B47" s="27" t="s">
+      <c r="A47" s="28"/>
+      <c r="B47" s="30" t="s">
         <v>74</v>
       </c>
       <c r="C47" s="8" t="s">
@@ -2272,9 +2150,9 @@
       <c r="K47" s="9"/>
     </row>
     <row r="48" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="35"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="30" t="s">
+      <c r="A48" s="28"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="35" t="s">
         <v>139</v>
       </c>
       <c r="D48" s="15" t="s">
@@ -2289,9 +2167,9 @@
       <c r="K48" s="9"/>
     </row>
     <row r="49" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="35"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="31"/>
+      <c r="A49" s="28"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="36"/>
       <c r="D49" s="15" t="s">
         <v>140</v>
       </c>
@@ -2304,9 +2182,9 @@
       <c r="K49" s="9"/>
     </row>
     <row r="50" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="35"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="31"/>
+      <c r="A50" s="28"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="36"/>
       <c r="D50" s="16" t="s">
         <v>75</v>
       </c>
@@ -2319,9 +2197,9 @@
       <c r="K50" s="9"/>
     </row>
     <row r="51" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="35"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="31"/>
+      <c r="A51" s="28"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="36"/>
       <c r="D51" s="16" t="s">
         <v>76</v>
       </c>
@@ -2334,9 +2212,9 @@
       <c r="K51" s="9"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="35"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="32"/>
+      <c r="A52" s="28"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="37"/>
       <c r="D52" s="16" t="s">
         <v>81</v>
       </c>
@@ -2351,8 +2229,8 @@
       <c r="K52" s="9"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A53" s="35"/>
-      <c r="B53" s="27" t="s">
+      <c r="A53" s="28"/>
+      <c r="B53" s="30" t="s">
         <v>78</v>
       </c>
       <c r="C53" s="16" t="s">
@@ -2368,8 +2246,8 @@
       <c r="K53" s="9"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A54" s="35"/>
-      <c r="B54" s="28"/>
+      <c r="A54" s="28"/>
+      <c r="B54" s="34"/>
       <c r="C54" s="16" t="s">
         <v>80</v>
       </c>
@@ -2385,8 +2263,8 @@
       <c r="K54" s="9"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A55" s="35"/>
-      <c r="B55" s="29"/>
+      <c r="A55" s="28"/>
+      <c r="B55" s="31"/>
       <c r="C55" s="16" t="s">
         <v>59</v>
       </c>
@@ -2400,8 +2278,8 @@
       <c r="K55" s="9"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A56" s="35"/>
-      <c r="B56" s="27" t="s">
+      <c r="A56" s="28"/>
+      <c r="B56" s="30" t="s">
         <v>141</v>
       </c>
       <c r="C56" s="16" t="s">
@@ -2417,8 +2295,8 @@
       <c r="K56" s="9"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A57" s="35"/>
-      <c r="B57" s="29"/>
+      <c r="A57" s="28"/>
+      <c r="B57" s="31"/>
       <c r="C57" s="16" t="s">
         <v>85</v>
       </c>
@@ -2432,8 +2310,8 @@
       <c r="K57" s="9"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A58" s="35"/>
-      <c r="B58" s="27" t="s">
+      <c r="A58" s="28"/>
+      <c r="B58" s="30" t="s">
         <v>142</v>
       </c>
       <c r="C58" s="16" t="s">
@@ -2449,8 +2327,8 @@
       <c r="K58" s="9"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A59" s="35"/>
-      <c r="B59" s="29"/>
+      <c r="A59" s="28"/>
+      <c r="B59" s="31"/>
       <c r="C59" s="16" t="s">
         <v>83</v>
       </c>
@@ -2464,8 +2342,8 @@
       <c r="K59" s="9"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A60" s="35"/>
-      <c r="B60" s="27" t="s">
+      <c r="A60" s="28"/>
+      <c r="B60" s="30" t="s">
         <v>86</v>
       </c>
       <c r="C60" s="9" t="s">
@@ -2483,8 +2361,8 @@
       <c r="K60" s="9"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A61" s="35"/>
-      <c r="B61" s="28"/>
+      <c r="A61" s="28"/>
+      <c r="B61" s="34"/>
       <c r="C61" s="9" t="s">
         <v>14</v>
       </c>
@@ -2500,8 +2378,8 @@
       <c r="K61" s="9"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A62" s="35"/>
-      <c r="B62" s="28"/>
+      <c r="A62" s="28"/>
+      <c r="B62" s="34"/>
       <c r="C62" s="9" t="s">
         <v>15</v>
       </c>
@@ -2517,8 +2395,8 @@
       <c r="K62" s="9"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A63" s="35"/>
-      <c r="B63" s="29"/>
+      <c r="A63" s="28"/>
+      <c r="B63" s="31"/>
       <c r="C63" s="9" t="s">
         <v>16</v>
       </c>
@@ -2534,9 +2412,9 @@
       <c r="K63" s="9"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A64" s="35"/>
-      <c r="B64" s="27" t="s">
-        <v>161</v>
+      <c r="A64" s="28"/>
+      <c r="B64" s="30" t="s">
+        <v>160</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>13</v>
@@ -2551,8 +2429,8 @@
       <c r="K64" s="9"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A65" s="35"/>
-      <c r="B65" s="28"/>
+      <c r="A65" s="28"/>
+      <c r="B65" s="34"/>
       <c r="C65" s="9" t="s">
         <v>14</v>
       </c>
@@ -2566,8 +2444,8 @@
       <c r="K65" s="9"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A66" s="35"/>
-      <c r="B66" s="28"/>
+      <c r="A66" s="28"/>
+      <c r="B66" s="34"/>
       <c r="C66" s="9" t="s">
         <v>15</v>
       </c>
@@ -2581,8 +2459,8 @@
       <c r="K66" s="9"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A67" s="35"/>
-      <c r="B67" s="29"/>
+      <c r="A67" s="28"/>
+      <c r="B67" s="31"/>
       <c r="C67" s="9" t="s">
         <v>16</v>
       </c>
@@ -2596,7 +2474,7 @@
       <c r="K67" s="9"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A68" s="35"/>
+      <c r="A68" s="28"/>
       <c r="B68" s="8" t="s">
         <v>89</v>
       </c>
@@ -2613,8 +2491,8 @@
       <c r="K68" s="9"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A69" s="35"/>
-      <c r="B69" s="27" t="s">
+      <c r="A69" s="28"/>
+      <c r="B69" s="30" t="s">
         <v>155</v>
       </c>
       <c r="C69" s="9" t="s">
@@ -2630,8 +2508,8 @@
       <c r="K69" s="9"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A70" s="35"/>
-      <c r="B70" s="28"/>
+      <c r="A70" s="28"/>
+      <c r="B70" s="34"/>
       <c r="C70" s="9" t="s">
         <v>14</v>
       </c>
@@ -2645,8 +2523,8 @@
       <c r="K70" s="9"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A71" s="35"/>
-      <c r="B71" s="28"/>
+      <c r="A71" s="28"/>
+      <c r="B71" s="34"/>
       <c r="C71" s="9" t="s">
         <v>15</v>
       </c>
@@ -2660,8 +2538,8 @@
       <c r="K71" s="9"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A72" s="35"/>
-      <c r="B72" s="29"/>
+      <c r="A72" s="28"/>
+      <c r="B72" s="31"/>
       <c r="C72" s="9" t="s">
         <v>16</v>
       </c>
@@ -2675,8 +2553,8 @@
       <c r="K72" s="9"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A73" s="35"/>
-      <c r="B73" s="27" t="s">
+      <c r="A73" s="28"/>
+      <c r="B73" s="30" t="s">
         <v>156</v>
       </c>
       <c r="C73" s="9" t="s">
@@ -2692,8 +2570,8 @@
       <c r="K73" s="9"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A74" s="35"/>
-      <c r="B74" s="29"/>
+      <c r="A74" s="28"/>
+      <c r="B74" s="31"/>
       <c r="C74" s="15" t="s">
         <v>90</v>
       </c>
@@ -2707,7 +2585,7 @@
       <c r="K74" s="9"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A75" s="36"/>
+      <c r="A75" s="29"/>
       <c r="B75" s="13" t="s">
         <v>158</v>
       </c>
@@ -2737,10 +2615,10 @@
       <c r="K76" s="9"/>
     </row>
     <row r="77" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="37" t="s">
+      <c r="A77" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B77" s="33" t="s">
+      <c r="B77" s="32" t="s">
         <v>23</v>
       </c>
       <c r="C77" s="9" t="s">
@@ -2756,8 +2634,8 @@
       <c r="K77" s="9"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A78" s="37"/>
-      <c r="B78" s="33"/>
+      <c r="A78" s="33"/>
+      <c r="B78" s="32"/>
       <c r="C78" s="9" t="s">
         <v>25</v>
       </c>
@@ -2773,8 +2651,8 @@
       <c r="K78" s="9"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A79" s="37"/>
-      <c r="B79" s="33"/>
+      <c r="A79" s="33"/>
+      <c r="B79" s="32"/>
       <c r="C79" s="9" t="s">
         <v>26</v>
       </c>
@@ -2788,8 +2666,8 @@
       <c r="K79" s="9"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A80" s="37"/>
-      <c r="B80" s="33"/>
+      <c r="A80" s="33"/>
+      <c r="B80" s="32"/>
       <c r="C80" s="19" t="s">
         <v>87</v>
       </c>
@@ -2805,11 +2683,11 @@
       <c r="K80" s="9"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A81" s="37"/>
-      <c r="B81" s="33" t="s">
+      <c r="A81" s="33"/>
+      <c r="B81" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C81" s="27" t="s">
+      <c r="C81" s="30" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="9" t="s">
@@ -2824,10 +2702,10 @@
       <c r="K81" s="9"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A82" s="37"/>
-      <c r="B82" s="33"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="27" t="s">
+      <c r="A82" s="33"/>
+      <c r="B82" s="32"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="30" t="s">
         <v>30</v>
       </c>
       <c r="E82" s="16" t="s">
@@ -2841,10 +2719,10 @@
       <c r="K82" s="9"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A83" s="37"/>
-      <c r="B83" s="33"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="29"/>
+      <c r="A83" s="33"/>
+      <c r="B83" s="32"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="31"/>
       <c r="E83" s="16" t="s">
         <v>83</v>
       </c>
@@ -2856,8 +2734,8 @@
       <c r="K83" s="9"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A84" s="37"/>
-      <c r="B84" s="33"/>
+      <c r="A84" s="33"/>
+      <c r="B84" s="32"/>
       <c r="C84" s="9" t="s">
         <v>31</v>
       </c>
@@ -2871,12 +2749,12 @@
       <c r="K84" s="9"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A85" s="37"/>
-      <c r="B85" s="33"/>
-      <c r="C85" s="27" t="s">
+      <c r="A85" s="33"/>
+      <c r="B85" s="32"/>
+      <c r="C85" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="D85" s="27" t="s">
+      <c r="D85" s="30" t="s">
         <v>94</v>
       </c>
       <c r="E85" s="9" t="s">
@@ -2892,10 +2770,10 @@
       <c r="K85" s="9"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A86" s="37"/>
-      <c r="B86" s="33"/>
-      <c r="C86" s="28"/>
-      <c r="D86" s="29"/>
+      <c r="A86" s="33"/>
+      <c r="B86" s="32"/>
+      <c r="C86" s="34"/>
+      <c r="D86" s="31"/>
       <c r="E86" s="9" t="s">
         <v>35</v>
       </c>
@@ -2909,9 +2787,9 @@
       <c r="K86" s="9"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A87" s="37"/>
-      <c r="B87" s="33"/>
-      <c r="C87" s="28"/>
+      <c r="A87" s="33"/>
+      <c r="B87" s="32"/>
+      <c r="C87" s="34"/>
       <c r="D87" s="9" t="s">
         <v>32</v>
       </c>
@@ -2928,9 +2806,9 @@
       <c r="K87" s="9"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A88" s="37"/>
-      <c r="B88" s="33"/>
-      <c r="C88" s="29"/>
+      <c r="A88" s="33"/>
+      <c r="B88" s="32"/>
+      <c r="C88" s="31"/>
       <c r="D88" s="9" t="s">
         <v>33</v>
       </c>
@@ -2947,11 +2825,11 @@
       <c r="K88" s="9"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A89" s="37"/>
-      <c r="B89" s="33" t="s">
+      <c r="A89" s="33"/>
+      <c r="B89" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="C89" s="27" t="s">
+      <c r="C89" s="30" t="s">
         <v>38</v>
       </c>
       <c r="D89" s="9" t="s">
@@ -2965,14 +2843,12 @@
       <c r="J89" s="10">
         <v>1</v>
       </c>
-      <c r="K89" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K89" s="9"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A90" s="37"/>
-      <c r="B90" s="33"/>
-      <c r="C90" s="28"/>
+      <c r="A90" s="33"/>
+      <c r="B90" s="32"/>
+      <c r="C90" s="34"/>
       <c r="D90" s="9" t="s">
         <v>14</v>
       </c>
@@ -2984,14 +2860,12 @@
       <c r="J90" s="10">
         <v>1</v>
       </c>
-      <c r="K90" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K90" s="9"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A91" s="37"/>
-      <c r="B91" s="33"/>
-      <c r="C91" s="28"/>
+      <c r="A91" s="33"/>
+      <c r="B91" s="32"/>
+      <c r="C91" s="34"/>
       <c r="D91" s="9" t="s">
         <v>15</v>
       </c>
@@ -3003,14 +2877,12 @@
       <c r="J91" s="10">
         <v>1</v>
       </c>
-      <c r="K91" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K91" s="9"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A92" s="37"/>
-      <c r="B92" s="33"/>
-      <c r="C92" s="29"/>
+      <c r="A92" s="33"/>
+      <c r="B92" s="32"/>
+      <c r="C92" s="31"/>
       <c r="D92" s="9" t="s">
         <v>16</v>
       </c>
@@ -3022,14 +2894,12 @@
       <c r="J92" s="10">
         <v>1</v>
       </c>
-      <c r="K92" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K92" s="9"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A93" s="37"/>
-      <c r="B93" s="33"/>
-      <c r="C93" s="27" t="s">
+      <c r="A93" s="33"/>
+      <c r="B93" s="32"/>
+      <c r="C93" s="30" t="s">
         <v>93</v>
       </c>
       <c r="D93" s="9" t="s">
@@ -3043,14 +2913,12 @@
       <c r="J93" s="10">
         <v>1</v>
       </c>
-      <c r="K93" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K93" s="9"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A94" s="37"/>
-      <c r="B94" s="33"/>
-      <c r="C94" s="28"/>
+      <c r="A94" s="33"/>
+      <c r="B94" s="32"/>
+      <c r="C94" s="34"/>
       <c r="D94" s="9" t="s">
         <v>14</v>
       </c>
@@ -3062,14 +2930,12 @@
       <c r="J94" s="10">
         <v>0.5</v>
       </c>
-      <c r="K94" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K94" s="9"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A95" s="37"/>
-      <c r="B95" s="33"/>
-      <c r="C95" s="28"/>
+      <c r="A95" s="33"/>
+      <c r="B95" s="32"/>
+      <c r="C95" s="34"/>
       <c r="D95" s="9" t="s">
         <v>15</v>
       </c>
@@ -3081,14 +2947,12 @@
       <c r="J95" s="10">
         <v>1</v>
       </c>
-      <c r="K95" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K95" s="9"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A96" s="37"/>
-      <c r="B96" s="33"/>
-      <c r="C96" s="28"/>
+      <c r="A96" s="33"/>
+      <c r="B96" s="32"/>
+      <c r="C96" s="34"/>
       <c r="D96" s="9" t="s">
         <v>16</v>
       </c>
@@ -3100,15 +2964,13 @@
       <c r="J96" s="10">
         <v>0.5</v>
       </c>
-      <c r="K96" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K96" s="9"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A97" s="37"/>
-      <c r="B97" s="33"/>
-      <c r="C97" s="28"/>
-      <c r="D97" s="27" t="s">
+      <c r="A97" s="33"/>
+      <c r="B97" s="32"/>
+      <c r="C97" s="34"/>
+      <c r="D97" s="30" t="s">
         <v>148</v>
       </c>
       <c r="E97" s="9" t="s">
@@ -3119,15 +2981,13 @@
       <c r="H97" s="9"/>
       <c r="I97" s="9"/>
       <c r="J97" s="10"/>
-      <c r="K97" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K97" s="9"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A98" s="37"/>
-      <c r="B98" s="33"/>
-      <c r="C98" s="28"/>
-      <c r="D98" s="28"/>
+      <c r="A98" s="33"/>
+      <c r="B98" s="32"/>
+      <c r="C98" s="34"/>
+      <c r="D98" s="34"/>
       <c r="E98" s="9" t="s">
         <v>42</v>
       </c>
@@ -3136,15 +2996,13 @@
       <c r="H98" s="9"/>
       <c r="I98" s="9"/>
       <c r="J98" s="10"/>
-      <c r="K98" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K98" s="9"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A99" s="37"/>
-      <c r="B99" s="33"/>
-      <c r="C99" s="28"/>
-      <c r="D99" s="28"/>
+      <c r="A99" s="33"/>
+      <c r="B99" s="32"/>
+      <c r="C99" s="34"/>
+      <c r="D99" s="34"/>
       <c r="E99" s="9" t="s">
         <v>43</v>
       </c>
@@ -3153,15 +3011,13 @@
       <c r="H99" s="9"/>
       <c r="I99" s="9"/>
       <c r="J99" s="10"/>
-      <c r="K99" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K99" s="9"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="37"/>
-      <c r="B100" s="33"/>
-      <c r="C100" s="28"/>
-      <c r="D100" s="28"/>
+      <c r="A100" s="33"/>
+      <c r="B100" s="32"/>
+      <c r="C100" s="34"/>
+      <c r="D100" s="34"/>
       <c r="E100" s="26" t="s">
         <v>108</v>
       </c>
@@ -3172,15 +3028,13 @@
       <c r="H100" s="9"/>
       <c r="I100" s="9"/>
       <c r="J100" s="10"/>
-      <c r="K100" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K100" s="9"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="37"/>
-      <c r="B101" s="33"/>
-      <c r="C101" s="28"/>
-      <c r="D101" s="29"/>
+      <c r="A101" s="33"/>
+      <c r="B101" s="32"/>
+      <c r="C101" s="34"/>
+      <c r="D101" s="31"/>
       <c r="E101" s="26" t="s">
         <v>147</v>
       </c>
@@ -3191,14 +3045,12 @@
       <c r="H101" s="9"/>
       <c r="I101" s="9"/>
       <c r="J101" s="10"/>
-      <c r="K101" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K101" s="9"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A102" s="37"/>
-      <c r="B102" s="33"/>
-      <c r="C102" s="28"/>
+      <c r="A102" s="33"/>
+      <c r="B102" s="32"/>
+      <c r="C102" s="34"/>
       <c r="D102" s="9" t="s">
         <v>95</v>
       </c>
@@ -3208,14 +3060,12 @@
       <c r="H102" s="9"/>
       <c r="I102" s="9"/>
       <c r="J102" s="10"/>
-      <c r="K102" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K102" s="9"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A103" s="37"/>
-      <c r="B103" s="33"/>
-      <c r="C103" s="28"/>
+      <c r="A103" s="33"/>
+      <c r="B103" s="32"/>
+      <c r="C103" s="34"/>
       <c r="D103" s="19" t="s">
         <v>97</v>
       </c>
@@ -3227,14 +3077,12 @@
       <c r="J103" s="10">
         <v>1</v>
       </c>
-      <c r="K103" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K103" s="9"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A104" s="37"/>
-      <c r="B104" s="33"/>
-      <c r="C104" s="28"/>
+      <c r="A104" s="33"/>
+      <c r="B104" s="32"/>
+      <c r="C104" s="34"/>
       <c r="D104" s="19" t="s">
         <v>98</v>
       </c>
@@ -3245,14 +3093,12 @@
       <c r="H104" s="9"/>
       <c r="I104" s="9"/>
       <c r="J104" s="10"/>
-      <c r="K104" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K104" s="9"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A105" s="37"/>
-      <c r="B105" s="33"/>
-      <c r="C105" s="28"/>
+      <c r="A105" s="33"/>
+      <c r="B105" s="32"/>
+      <c r="C105" s="34"/>
       <c r="D105" s="19" t="s">
         <v>100</v>
       </c>
@@ -3265,14 +3111,12 @@
       <c r="J105" s="10">
         <v>1</v>
       </c>
-      <c r="K105" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K105" s="9"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A106" s="37"/>
-      <c r="B106" s="33"/>
-      <c r="C106" s="28"/>
+      <c r="A106" s="33"/>
+      <c r="B106" s="32"/>
+      <c r="C106" s="34"/>
       <c r="D106" s="19" t="s">
         <v>102</v>
       </c>
@@ -3285,14 +3129,12 @@
       <c r="J106" s="10">
         <v>1</v>
       </c>
-      <c r="K106" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K106" s="9"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A107" s="37"/>
-      <c r="B107" s="33"/>
-      <c r="C107" s="28"/>
+      <c r="A107" s="33"/>
+      <c r="B107" s="32"/>
+      <c r="C107" s="34"/>
       <c r="D107" s="19" t="s">
         <v>104</v>
       </c>
@@ -3304,14 +3146,12 @@
       <c r="H107" s="9"/>
       <c r="I107" s="9"/>
       <c r="J107" s="10"/>
-      <c r="K107" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K107" s="9"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A108" s="37"/>
-      <c r="B108" s="33"/>
-      <c r="C108" s="28"/>
+      <c r="A108" s="33"/>
+      <c r="B108" s="32"/>
+      <c r="C108" s="34"/>
       <c r="D108" s="19" t="s">
         <v>46</v>
       </c>
@@ -3325,14 +3165,12 @@
       <c r="J108" s="10">
         <v>1</v>
       </c>
-      <c r="K108" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K108" s="9"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A109" s="37"/>
-      <c r="B109" s="33"/>
-      <c r="C109" s="28"/>
+      <c r="A109" s="33"/>
+      <c r="B109" s="32"/>
+      <c r="C109" s="34"/>
       <c r="D109" s="19" t="s">
         <v>48</v>
       </c>
@@ -3344,14 +3182,12 @@
       <c r="H109" s="9"/>
       <c r="I109" s="9"/>
       <c r="J109" s="10"/>
-      <c r="K109" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K109" s="9"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A110" s="37"/>
-      <c r="B110" s="33"/>
-      <c r="C110" s="28"/>
+      <c r="A110" s="33"/>
+      <c r="B110" s="32"/>
+      <c r="C110" s="34"/>
       <c r="D110" s="19" t="s">
         <v>111</v>
       </c>
@@ -3363,14 +3199,12 @@
       <c r="H110" s="9"/>
       <c r="I110" s="9"/>
       <c r="J110" s="10"/>
-      <c r="K110" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K110" s="9"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A111" s="37"/>
-      <c r="B111" s="33"/>
-      <c r="C111" s="28"/>
+      <c r="A111" s="33"/>
+      <c r="B111" s="32"/>
+      <c r="C111" s="34"/>
       <c r="D111" s="19" t="s">
         <v>112</v>
       </c>
@@ -3384,14 +3218,12 @@
       <c r="J111" s="10">
         <v>1</v>
       </c>
-      <c r="K111" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K111" s="9"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A112" s="37"/>
-      <c r="B112" s="33"/>
-      <c r="C112" s="28"/>
+      <c r="A112" s="33"/>
+      <c r="B112" s="32"/>
+      <c r="C112" s="34"/>
       <c r="D112" s="19" t="s">
         <v>114</v>
       </c>
@@ -3403,14 +3235,12 @@
       <c r="H112" s="9"/>
       <c r="I112" s="9"/>
       <c r="J112" s="10"/>
-      <c r="K112" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K112" s="9"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A113" s="37"/>
-      <c r="B113" s="33"/>
-      <c r="C113" s="28"/>
+      <c r="A113" s="33"/>
+      <c r="B113" s="32"/>
+      <c r="C113" s="34"/>
       <c r="D113" s="19" t="s">
         <v>116</v>
       </c>
@@ -3422,14 +3252,12 @@
       <c r="H113" s="9"/>
       <c r="I113" s="9"/>
       <c r="J113" s="10"/>
-      <c r="K113" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K113" s="9"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A114" s="37"/>
-      <c r="B114" s="33"/>
-      <c r="C114" s="28"/>
+      <c r="A114" s="33"/>
+      <c r="B114" s="32"/>
+      <c r="C114" s="34"/>
       <c r="D114" s="19" t="s">
         <v>119</v>
       </c>
@@ -3441,14 +3269,12 @@
       <c r="H114" s="9"/>
       <c r="I114" s="9"/>
       <c r="J114" s="10"/>
-      <c r="K114" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K114" s="9"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A115" s="37"/>
-      <c r="B115" s="33"/>
-      <c r="C115" s="28"/>
+      <c r="A115" s="33"/>
+      <c r="B115" s="32"/>
+      <c r="C115" s="34"/>
       <c r="D115" s="19" t="s">
         <v>121</v>
       </c>
@@ -3460,14 +3286,12 @@
       <c r="H115" s="9"/>
       <c r="I115" s="9"/>
       <c r="J115" s="10"/>
-      <c r="K115" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K115" s="9"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A116" s="37"/>
-      <c r="B116" s="33"/>
-      <c r="C116" s="28"/>
+      <c r="A116" s="33"/>
+      <c r="B116" s="32"/>
+      <c r="C116" s="34"/>
       <c r="D116" s="19" t="s">
         <v>123</v>
       </c>
@@ -3479,14 +3303,12 @@
       <c r="H116" s="9"/>
       <c r="I116" s="9"/>
       <c r="J116" s="10"/>
-      <c r="K116" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K116" s="9"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A117" s="37"/>
-      <c r="B117" s="33"/>
-      <c r="C117" s="28"/>
+      <c r="A117" s="33"/>
+      <c r="B117" s="32"/>
+      <c r="C117" s="34"/>
       <c r="D117" s="19" t="s">
         <v>125</v>
       </c>
@@ -3500,15 +3322,13 @@
       <c r="J117" s="10">
         <v>1</v>
       </c>
-      <c r="K117" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K117" s="9"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A118" s="37"/>
-      <c r="B118" s="33"/>
-      <c r="C118" s="28"/>
-      <c r="D118" s="27" t="s">
+      <c r="A118" s="33"/>
+      <c r="B118" s="32"/>
+      <c r="C118" s="34"/>
+      <c r="D118" s="30" t="s">
         <v>40</v>
       </c>
       <c r="E118" s="9" t="s">
@@ -3521,15 +3341,13 @@
       <c r="J118" s="10">
         <v>1</v>
       </c>
-      <c r="K118" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K118" s="9"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A119" s="37"/>
-      <c r="B119" s="33"/>
-      <c r="C119" s="28"/>
-      <c r="D119" s="28"/>
+      <c r="A119" s="33"/>
+      <c r="B119" s="32"/>
+      <c r="C119" s="34"/>
+      <c r="D119" s="34"/>
       <c r="E119" s="9" t="s">
         <v>47</v>
       </c>
@@ -3538,15 +3356,13 @@
       <c r="H119" s="9"/>
       <c r="I119" s="9"/>
       <c r="J119" s="10"/>
-      <c r="K119" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K119" s="9"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A120" s="37"/>
-      <c r="B120" s="33"/>
-      <c r="C120" s="28"/>
-      <c r="D120" s="28"/>
+      <c r="A120" s="33"/>
+      <c r="B120" s="32"/>
+      <c r="C120" s="34"/>
+      <c r="D120" s="34"/>
       <c r="E120" s="9" t="s">
         <v>45</v>
       </c>
@@ -3555,15 +3371,13 @@
       <c r="H120" s="9"/>
       <c r="I120" s="9"/>
       <c r="J120" s="10"/>
-      <c r="K120" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K120" s="9"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A121" s="37"/>
-      <c r="B121" s="33"/>
-      <c r="C121" s="28"/>
-      <c r="D121" s="28"/>
+      <c r="A121" s="33"/>
+      <c r="B121" s="32"/>
+      <c r="C121" s="34"/>
+      <c r="D121" s="34"/>
       <c r="E121" s="9" t="s">
         <v>46</v>
       </c>
@@ -3574,15 +3388,13 @@
       <c r="H121" s="9"/>
       <c r="I121" s="9"/>
       <c r="J121" s="10"/>
-      <c r="K121" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K121" s="9"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A122" s="37"/>
-      <c r="B122" s="33"/>
-      <c r="C122" s="28"/>
-      <c r="D122" s="28"/>
+      <c r="A122" s="33"/>
+      <c r="B122" s="32"/>
+      <c r="C122" s="34"/>
+      <c r="D122" s="34"/>
       <c r="E122" s="9" t="s">
         <v>48</v>
       </c>
@@ -3593,15 +3405,13 @@
       <c r="H122" s="9"/>
       <c r="I122" s="9"/>
       <c r="J122" s="10"/>
-      <c r="K122" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K122" s="9"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A123" s="37"/>
-      <c r="B123" s="33"/>
-      <c r="C123" s="28"/>
-      <c r="D123" s="29"/>
+      <c r="A123" s="33"/>
+      <c r="B123" s="32"/>
+      <c r="C123" s="34"/>
+      <c r="D123" s="31"/>
       <c r="E123" s="9" t="s">
         <v>49</v>
       </c>
@@ -3610,15 +3420,13 @@
       <c r="H123" s="9"/>
       <c r="I123" s="9"/>
       <c r="J123" s="10"/>
-      <c r="K123" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K123" s="9"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A124" s="37"/>
-      <c r="B124" s="33"/>
-      <c r="C124" s="28"/>
-      <c r="D124" s="27" t="s">
+      <c r="A124" s="33"/>
+      <c r="B124" s="32"/>
+      <c r="C124" s="34"/>
+      <c r="D124" s="30" t="s">
         <v>50</v>
       </c>
       <c r="E124" s="9" t="s">
@@ -3631,16 +3439,14 @@
       <c r="J124" s="10">
         <v>1</v>
       </c>
-      <c r="K124" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K124" s="9"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A125" s="37"/>
-      <c r="B125" s="33"/>
-      <c r="C125" s="28"/>
-      <c r="D125" s="28"/>
-      <c r="E125" s="27" t="s">
+      <c r="A125" s="33"/>
+      <c r="B125" s="32"/>
+      <c r="C125" s="34"/>
+      <c r="D125" s="34"/>
+      <c r="E125" s="30" t="s">
         <v>51</v>
       </c>
       <c r="F125" s="9" t="s">
@@ -3650,16 +3456,14 @@
       <c r="H125" s="9"/>
       <c r="I125" s="9"/>
       <c r="J125" s="10"/>
-      <c r="K125" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K125" s="9"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A126" s="37"/>
-      <c r="B126" s="33"/>
-      <c r="C126" s="28"/>
-      <c r="D126" s="28"/>
-      <c r="E126" s="28"/>
+      <c r="A126" s="33"/>
+      <c r="B126" s="32"/>
+      <c r="C126" s="34"/>
+      <c r="D126" s="34"/>
+      <c r="E126" s="34"/>
       <c r="F126" s="9" t="s">
         <v>52</v>
       </c>
@@ -3669,16 +3473,14 @@
       <c r="J126" s="10">
         <v>1</v>
       </c>
-      <c r="K126" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K126" s="9"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A127" s="37"/>
-      <c r="B127" s="33"/>
-      <c r="C127" s="28"/>
-      <c r="D127" s="28"/>
-      <c r="E127" s="28"/>
+      <c r="A127" s="33"/>
+      <c r="B127" s="32"/>
+      <c r="C127" s="34"/>
+      <c r="D127" s="34"/>
+      <c r="E127" s="34"/>
       <c r="F127" s="9" t="s">
         <v>53</v>
       </c>
@@ -3688,33 +3490,31 @@
       <c r="J127" s="10">
         <v>1</v>
       </c>
-      <c r="K127" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K127" s="9"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A128" s="37"/>
-      <c r="B128" s="33"/>
-      <c r="C128" s="28"/>
-      <c r="D128" s="28"/>
-      <c r="E128" s="28"/>
+      <c r="A128" s="33"/>
+      <c r="B128" s="32"/>
+      <c r="C128" s="34"/>
+      <c r="D128" s="34"/>
+      <c r="E128" s="34"/>
       <c r="F128" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G128" s="9"/>
       <c r="H128" s="9"/>
       <c r="I128" s="9"/>
-      <c r="J128" s="10"/>
-      <c r="K128" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="J128" s="10">
+        <v>1</v>
+      </c>
+      <c r="K128" s="9"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A129" s="37"/>
-      <c r="B129" s="33"/>
-      <c r="C129" s="28"/>
-      <c r="D129" s="28"/>
-      <c r="E129" s="28"/>
+      <c r="A129" s="33"/>
+      <c r="B129" s="32"/>
+      <c r="C129" s="34"/>
+      <c r="D129" s="34"/>
+      <c r="E129" s="34"/>
       <c r="F129" s="9" t="s">
         <v>55</v>
       </c>
@@ -3724,16 +3524,14 @@
       <c r="J129" s="10">
         <v>1</v>
       </c>
-      <c r="K129" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K129" s="9"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A130" s="37"/>
-      <c r="B130" s="33"/>
-      <c r="C130" s="28"/>
-      <c r="D130" s="28"/>
-      <c r="E130" s="28"/>
+      <c r="A130" s="33"/>
+      <c r="B130" s="32"/>
+      <c r="C130" s="34"/>
+      <c r="D130" s="34"/>
+      <c r="E130" s="34"/>
       <c r="F130" s="9" t="s">
         <v>56</v>
       </c>
@@ -3741,16 +3539,14 @@
       <c r="H130" s="9"/>
       <c r="I130" s="9"/>
       <c r="J130" s="10"/>
-      <c r="K130" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K130" s="9"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A131" s="37"/>
-      <c r="B131" s="33"/>
-      <c r="C131" s="28"/>
-      <c r="D131" s="28"/>
-      <c r="E131" s="29"/>
+      <c r="A131" s="33"/>
+      <c r="B131" s="32"/>
+      <c r="C131" s="34"/>
+      <c r="D131" s="34"/>
+      <c r="E131" s="31"/>
       <c r="F131" s="9" t="s">
         <v>57</v>
       </c>
@@ -3758,15 +3554,13 @@
       <c r="H131" s="9"/>
       <c r="I131" s="9"/>
       <c r="J131" s="10"/>
-      <c r="K131" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K131" s="9"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132" s="37"/>
-      <c r="B132" s="33"/>
-      <c r="C132" s="28"/>
-      <c r="D132" s="29"/>
+      <c r="A132" s="33"/>
+      <c r="B132" s="32"/>
+      <c r="C132" s="34"/>
+      <c r="D132" s="31"/>
       <c r="E132" s="9" t="s">
         <v>128</v>
       </c>
@@ -3779,14 +3573,12 @@
       <c r="J132" s="10">
         <v>1</v>
       </c>
-      <c r="K132" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K132" s="9"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A133" s="37"/>
-      <c r="B133" s="33"/>
-      <c r="C133" s="27" t="s">
+      <c r="A133" s="33"/>
+      <c r="B133" s="32"/>
+      <c r="C133" s="30" t="s">
         <v>70</v>
       </c>
       <c r="D133" s="9" t="s">
@@ -3800,14 +3592,12 @@
       <c r="J133" s="10">
         <v>1</v>
       </c>
-      <c r="K133" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K133" s="9"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A134" s="37"/>
-      <c r="B134" s="33"/>
-      <c r="C134" s="28"/>
+      <c r="A134" s="33"/>
+      <c r="B134" s="32"/>
+      <c r="C134" s="34"/>
       <c r="D134" s="9" t="s">
         <v>14</v>
       </c>
@@ -3819,14 +3609,12 @@
       <c r="J134" s="10">
         <v>1</v>
       </c>
-      <c r="K134" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K134" s="9"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A135" s="37"/>
-      <c r="B135" s="33"/>
-      <c r="C135" s="28"/>
+      <c r="A135" s="33"/>
+      <c r="B135" s="32"/>
+      <c r="C135" s="34"/>
       <c r="D135" s="9" t="s">
         <v>15</v>
       </c>
@@ -3838,14 +3626,12 @@
       <c r="J135" s="10">
         <v>1</v>
       </c>
-      <c r="K135" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K135" s="9"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A136" s="37"/>
-      <c r="B136" s="33"/>
-      <c r="C136" s="28"/>
+      <c r="A136" s="33"/>
+      <c r="B136" s="32"/>
+      <c r="C136" s="34"/>
       <c r="D136" s="9" t="s">
         <v>16</v>
       </c>
@@ -3857,14 +3643,12 @@
       <c r="J136" s="10">
         <v>1</v>
       </c>
-      <c r="K136" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K136" s="9"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A137" s="37"/>
-      <c r="B137" s="33"/>
-      <c r="C137" s="27" t="s">
+      <c r="A137" s="33"/>
+      <c r="B137" s="32"/>
+      <c r="C137" s="30" t="s">
         <v>144</v>
       </c>
       <c r="D137" s="9" t="s">
@@ -3878,14 +3662,12 @@
       <c r="J137" s="10">
         <v>1</v>
       </c>
-      <c r="K137" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K137" s="9"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A138" s="37"/>
-      <c r="B138" s="33"/>
-      <c r="C138" s="29"/>
+      <c r="A138" s="33"/>
+      <c r="B138" s="32"/>
+      <c r="C138" s="31"/>
       <c r="D138" s="2" t="s">
         <v>145</v>
       </c>
@@ -3897,14 +3679,12 @@
       <c r="J138" s="10">
         <v>1</v>
       </c>
-      <c r="K138" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K138" s="9"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A139" s="37"/>
-      <c r="B139" s="33"/>
-      <c r="C139" s="27" t="s">
+      <c r="A139" s="33"/>
+      <c r="B139" s="32"/>
+      <c r="C139" s="30" t="s">
         <v>71</v>
       </c>
       <c r="D139" s="9" t="s">
@@ -3918,14 +3698,12 @@
       <c r="J139" s="10">
         <v>1</v>
       </c>
-      <c r="K139" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K139" s="9"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A140" s="37"/>
-      <c r="B140" s="33"/>
-      <c r="C140" s="29"/>
+      <c r="A140" s="33"/>
+      <c r="B140" s="32"/>
+      <c r="C140" s="31"/>
       <c r="D140" s="9" t="s">
         <v>15</v>
       </c>
@@ -3937,16 +3715,14 @@
       <c r="J140" s="10">
         <v>1</v>
       </c>
-      <c r="K140" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="K140" s="9"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A141" s="37"/>
-      <c r="B141" s="33" t="s">
+      <c r="A141" s="33"/>
+      <c r="B141" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C141" s="27" t="s">
+      <c r="C141" s="30" t="s">
         <v>61</v>
       </c>
       <c r="D141" s="9" t="s">
@@ -3961,9 +3737,9 @@
       <c r="K141" s="9"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A142" s="37"/>
-      <c r="B142" s="33"/>
-      <c r="C142" s="29"/>
+      <c r="A142" s="33"/>
+      <c r="B142" s="32"/>
+      <c r="C142" s="31"/>
       <c r="D142" s="9" t="s">
         <v>91</v>
       </c>
@@ -3976,8 +3752,8 @@
       <c r="K142" s="9"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A143" s="37"/>
-      <c r="B143" s="33"/>
+      <c r="A143" s="33"/>
+      <c r="B143" s="32"/>
       <c r="C143" s="9" t="s">
         <v>63</v>
       </c>
@@ -3993,8 +3769,8 @@
       <c r="K143" s="9"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A144" s="37"/>
-      <c r="B144" s="33"/>
+      <c r="A144" s="33"/>
+      <c r="B144" s="32"/>
       <c r="C144" s="9" t="s">
         <v>60</v>
       </c>
@@ -4010,8 +3786,8 @@
       <c r="K144" s="9"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A145" s="37"/>
-      <c r="B145" s="33"/>
+      <c r="A145" s="33"/>
+      <c r="B145" s="32"/>
       <c r="C145" s="9" t="s">
         <v>66</v>
       </c>
@@ -4040,7 +3816,7 @@
       <c r="K146" s="9"/>
     </row>
     <row r="147" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="34" t="s">
+      <c r="A147" s="27" t="s">
         <v>68</v>
       </c>
       <c r="B147" s="21" t="s">
@@ -4057,7 +3833,7 @@
       <c r="K147" s="9"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A148" s="35"/>
+      <c r="A148" s="28"/>
       <c r="B148" s="21" t="s">
         <v>72</v>
       </c>
@@ -4072,7 +3848,7 @@
       <c r="K148" s="9"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A149" s="35"/>
+      <c r="A149" s="28"/>
       <c r="B149" s="21" t="s">
         <v>70</v>
       </c>
@@ -4087,7 +3863,7 @@
       <c r="K149" s="9"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A150" s="35"/>
+      <c r="A150" s="28"/>
       <c r="B150" s="21" t="s">
         <v>73</v>
       </c>
@@ -4135,9 +3911,31 @@
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="J147:J152 J77:J145 J2:J75" name="区域3"/>
+    <protectedRange sqref="J147:J152 J2:J75 J77:J145" name="区域3"/>
   </protectedRanges>
   <mergeCells count="38">
+    <mergeCell ref="C133:C136"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="E125:E131"/>
+    <mergeCell ref="D124:D132"/>
+    <mergeCell ref="C85:C88"/>
+    <mergeCell ref="B81:B88"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="C89:C92"/>
+    <mergeCell ref="D118:D123"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="D97:D101"/>
+    <mergeCell ref="C93:C132"/>
     <mergeCell ref="A8:A75"/>
     <mergeCell ref="C139:C140"/>
     <mergeCell ref="B89:B140"/>
@@ -4154,80 +3952,58 @@
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="B17:B22"/>
     <mergeCell ref="C81:C83"/>
-    <mergeCell ref="E125:E131"/>
-    <mergeCell ref="D124:D132"/>
-    <mergeCell ref="C85:C88"/>
-    <mergeCell ref="B81:B88"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="C89:C92"/>
-    <mergeCell ref="D118:D123"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="D97:D101"/>
-    <mergeCell ref="C93:C132"/>
-    <mergeCell ref="C133:C136"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B64:B67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="J147:J152 J77:J82 J2:J27 J68:J75 J84:J145 J32:J63">
-    <cfRule type="cellIs" dxfId="20" priority="25" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="J147:J152 J77:J82 J2:J27 J68:J75 J32:J63 J84:J145">
+    <cfRule type="cellIs" dxfId="14" priority="25" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="26" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="27" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="27" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:J31">
-    <cfRule type="cellIs" dxfId="17" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="7" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="8" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="9" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J83">
-    <cfRule type="cellIs" dxfId="14" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="6" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="6" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J64:J67">
-    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="状态错误" error="请从选项中进行选择。" sqref="J147:J152 J77:J145 J2:J75">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="状态错误" error="请从选项中进行选择。" sqref="J147:J152 J2:J75 J77:J145">
       <formula1>"0%,100%,90%,80%,70%,60%,50%,40%,30%,20%,10%"</formula1>
     </dataValidation>
   </dataValidations>

--- a/doc/开发计划V0.1.xlsx
+++ b/doc/开发计划V0.1.xlsx
@@ -308,73 +308,25 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -424,8 +376,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="10"/>
-      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="wholeTable" dxfId="4"/>
+      <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -730,7 +682,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K34" sqref="K34"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -853,10 +805,10 @@
       <c r="K7" s="8"/>
     </row>
     <row r="8" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -872,8 +824,8 @@
       <c r="K8" s="8"/>
     </row>
     <row r="9" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="16"/>
-      <c r="B9" s="18"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="8" t="s">
         <v>10</v>
       </c>
@@ -887,8 +839,8 @@
       <c r="K9" s="8"/>
     </row>
     <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="16"/>
-      <c r="B10" s="18"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="8" t="s">
         <v>11</v>
       </c>
@@ -902,8 +854,8 @@
       <c r="K10" s="8"/>
     </row>
     <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="16"/>
-      <c r="B11" s="18"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="8" t="s">
         <v>12</v>
       </c>
@@ -917,8 +869,8 @@
       <c r="K11" s="8"/>
     </row>
     <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="16"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="8" t="s">
         <v>13</v>
       </c>
@@ -932,8 +884,8 @@
       <c r="K12" s="8"/>
     </row>
     <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17" t="s">
+      <c r="A13" s="19"/>
+      <c r="B13" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -949,8 +901,8 @@
       <c r="K13" s="8"/>
     </row>
     <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="16"/>
-      <c r="B14" s="18"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="8" t="s">
         <v>10</v>
       </c>
@@ -964,8 +916,8 @@
       <c r="K14" s="8"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="16"/>
-      <c r="B15" s="18"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="8" t="s">
         <v>11</v>
       </c>
@@ -979,8 +931,8 @@
       <c r="K15" s="8"/>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="16"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="8" t="s">
         <v>12</v>
       </c>
@@ -994,8 +946,8 @@
       <c r="K16" s="8"/>
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17" t="s">
+      <c r="A17" s="19"/>
+      <c r="B17" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -1011,8 +963,8 @@
       <c r="K17" s="8"/>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="16"/>
-      <c r="B18" s="18"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="8" t="s">
         <v>10</v>
       </c>
@@ -1026,8 +978,8 @@
       <c r="K18" s="8"/>
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="16"/>
-      <c r="B19" s="18"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="8" t="s">
         <v>11</v>
       </c>
@@ -1041,8 +993,8 @@
       <c r="K19" s="8"/>
     </row>
     <row r="20" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="16"/>
-      <c r="B20" s="18"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="8" t="s">
         <v>12</v>
       </c>
@@ -1056,9 +1008,9 @@
       <c r="K20" s="8"/>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="16"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="17" t="s">
+      <c r="A21" s="19"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="8" t="s">
@@ -1073,9 +1025,9 @@
       <c r="K21" s="8"/>
     </row>
     <row r="22" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="16"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
       <c r="D22" s="8" t="s">
         <v>15</v>
       </c>
@@ -1088,8 +1040,8 @@
       <c r="K22" s="8"/>
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17" t="s">
+      <c r="A23" s="19"/>
+      <c r="B23" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="8" t="s">
@@ -1105,8 +1057,8 @@
       <c r="K23" s="8"/>
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="16"/>
-      <c r="B24" s="18"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="8" t="s">
         <v>10</v>
       </c>
@@ -1120,8 +1072,8 @@
       <c r="K24" s="8"/>
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="16"/>
-      <c r="B25" s="18"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="8" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1087,8 @@
       <c r="K25" s="8"/>
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="16"/>
-      <c r="B26" s="18"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="8" t="s">
         <v>12</v>
       </c>
@@ -1150,8 +1102,8 @@
       <c r="K26" s="8"/>
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="16"/>
-      <c r="B27" s="19"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="8" t="s">
         <v>25</v>
       </c>
@@ -1165,8 +1117,8 @@
       <c r="K27" s="8"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17" t="s">
+      <c r="A28" s="19"/>
+      <c r="B28" s="15" t="s">
         <v>22</v>
       </c>
       <c r="C28" s="8" t="s">
@@ -1182,8 +1134,8 @@
       <c r="K28" s="8"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A29" s="16"/>
-      <c r="B29" s="18"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="8" t="s">
         <v>10</v>
       </c>
@@ -1197,8 +1149,8 @@
       <c r="K29" s="8"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A30" s="16"/>
-      <c r="B30" s="18"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="17"/>
       <c r="C30" s="8" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1164,8 @@
       <c r="K30" s="8"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A31" s="16"/>
-      <c r="B31" s="19"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="8" t="s">
         <v>12</v>
       </c>
@@ -1227,7 +1179,7 @@
       <c r="K31" s="8"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A32" s="16"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="7" t="s">
         <v>18</v>
       </c>
@@ -1244,7 +1196,7 @@
       <c r="K32" s="8"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A33" s="16"/>
+      <c r="A33" s="19"/>
       <c r="B33" s="11" t="s">
         <v>23</v>
       </c>
@@ -1261,7 +1213,7 @@
       <c r="K33" s="8"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="16"/>
+      <c r="A34" s="19"/>
       <c r="B34" s="7" t="s">
         <v>17</v>
       </c>
@@ -1293,13 +1245,13 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J2:J34">
-    <cfRule type="cellIs" dxfId="8" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="25" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="26" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="27" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="27" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>

--- a/doc/开发计划V0.1.xlsx
+++ b/doc/开发计划V0.1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
   <si>
     <t>开始时间</t>
   </si>
@@ -212,6 +212,10 @@
   </si>
   <si>
     <t>2017.07.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴小刚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,34 +389,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -425,7 +429,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="18">
     <dxf>
       <fill>
         <patternFill>
@@ -557,30 +561,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -605,8 +585,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="20"/>
-      <tableStyleElement type="headerRow" dxfId="19"/>
+      <tableStyleElement type="wholeTable" dxfId="17"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -911,7 +891,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3:K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -971,7 +951,7 @@
       <c r="A3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -987,7 +967,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="23"/>
-      <c r="B4" s="20"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="6" t="s">
         <v>25</v>
       </c>
@@ -1002,7 +982,7 @@
     </row>
     <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="23"/>
-      <c r="B5" s="20"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="6" t="s">
         <v>26</v>
       </c>
@@ -1020,8 +1000,8 @@
     </row>
     <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="23"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -1030,17 +1010,19 @@
       <c r="E6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="15"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="7"/>
+      <c r="K6" s="7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="23"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="14"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="7" t="s">
         <v>15</v>
       </c>
@@ -1050,12 +1032,14 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="7"/>
+      <c r="K7" s="7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="23"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="14"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="7" t="s">
         <v>14</v>
       </c>
@@ -1065,12 +1049,14 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="7"/>
+      <c r="K8" s="7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="23"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="13"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="7" t="s">
         <v>41</v>
       </c>
@@ -1082,12 +1068,14 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="8"/>
-      <c r="K9" s="7"/>
+      <c r="K9" s="7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="23"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="17" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -1105,9 +1093,9 @@
     </row>
     <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="23"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="15" t="s">
         <v>43</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -1122,9 +1110,9 @@
     </row>
     <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="23"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="17"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="7" t="s">
         <v>17</v>
       </c>
@@ -1137,8 +1125,8 @@
     </row>
     <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="23"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="14"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="7" t="s">
         <v>18</v>
       </c>
@@ -1152,8 +1140,8 @@
     </row>
     <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="23"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="12" t="s">
+      <c r="B14" s="21"/>
+      <c r="C14" s="17" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="7" t="s">
@@ -1171,8 +1159,8 @@
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="23"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="14"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="7" t="s">
         <v>7</v>
       </c>
@@ -1186,8 +1174,8 @@
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="23"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="14"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="7" t="s">
         <v>17</v>
       </c>
@@ -1201,8 +1189,8 @@
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="23"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="14"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="7" t="s">
         <v>18</v>
       </c>
@@ -1216,8 +1204,8 @@
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="23"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="14"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="18"/>
       <c r="D18" s="7" t="s">
         <v>30</v>
       </c>
@@ -1231,8 +1219,8 @@
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="23"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="13"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="7" t="s">
         <v>31</v>
       </c>
@@ -1246,8 +1234,8 @@
     </row>
     <row r="20" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="23"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="12" t="s">
+      <c r="B20" s="21"/>
+      <c r="C20" s="17" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="7" t="s">
@@ -1265,9 +1253,9 @@
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="23"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="16" t="s">
+      <c r="B21" s="21"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="15" t="s">
         <v>43</v>
       </c>
       <c r="E21" s="7" t="s">
@@ -1282,9 +1270,9 @@
     </row>
     <row r="22" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="23"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="17"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="16"/>
       <c r="E22" s="7" t="s">
         <v>17</v>
       </c>
@@ -1297,8 +1285,8 @@
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="23"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="14"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="7" t="s">
         <v>18</v>
       </c>
@@ -1312,8 +1300,8 @@
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="23"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="14"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="7" t="s">
         <v>37</v>
       </c>
@@ -1327,8 +1315,8 @@
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="23"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="14"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="18"/>
       <c r="D25" s="7" t="s">
         <v>36</v>
       </c>
@@ -1342,8 +1330,8 @@
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="23"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="14"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="18"/>
       <c r="D26" s="7" t="s">
         <v>40</v>
       </c>
@@ -1357,8 +1345,8 @@
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="23"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="14"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="7" t="s">
         <v>29</v>
       </c>
@@ -1372,8 +1360,8 @@
     </row>
     <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="23"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="13"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="7" t="s">
         <v>32</v>
       </c>
@@ -1387,8 +1375,8 @@
     </row>
     <row r="29" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="23"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="12" t="s">
+      <c r="B29" s="21"/>
+      <c r="C29" s="17" t="s">
         <v>34</v>
       </c>
       <c r="D29" s="7" t="s">
@@ -1406,9 +1394,9 @@
     </row>
     <row r="30" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="23"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="16" t="s">
+      <c r="B30" s="21"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="15" t="s">
         <v>43</v>
       </c>
       <c r="E30" s="7" t="s">
@@ -1423,9 +1411,9 @@
     </row>
     <row r="31" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="23"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="17"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="16"/>
       <c r="E31" s="7" t="s">
         <v>17</v>
       </c>
@@ -1438,8 +1426,8 @@
     </row>
     <row r="32" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="23"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="13"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="19"/>
       <c r="D32" s="7" t="s">
         <v>18</v>
       </c>
@@ -1453,8 +1441,8 @@
     </row>
     <row r="33" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="23"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="12" t="s">
+      <c r="B33" s="21"/>
+      <c r="C33" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D33" s="7" t="s">
@@ -1472,9 +1460,9 @@
     </row>
     <row r="34" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="23"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="16" t="s">
+      <c r="B34" s="21"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="15" t="s">
         <v>43</v>
       </c>
       <c r="E34" s="7" t="s">
@@ -1489,9 +1477,9 @@
     </row>
     <row r="35" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="23"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="17"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="16"/>
       <c r="E35" s="7" t="s">
         <v>17</v>
       </c>
@@ -1504,8 +1492,8 @@
     </row>
     <row r="36" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="23"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="13"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="19"/>
       <c r="D36" s="7" t="s">
         <v>18</v>
       </c>
@@ -1519,8 +1507,8 @@
     </row>
     <row r="37" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="23"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="12" t="s">
+      <c r="B37" s="21"/>
+      <c r="C37" s="17" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="7" t="s">
@@ -1538,9 +1526,9 @@
     </row>
     <row r="38" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="23"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="16" t="s">
+      <c r="B38" s="21"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="15" t="s">
         <v>43</v>
       </c>
       <c r="E38" s="7" t="s">
@@ -1555,9 +1543,9 @@
     </row>
     <row r="39" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="23"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="17"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="16"/>
       <c r="E39" s="7" t="s">
         <v>17</v>
       </c>
@@ -1570,8 +1558,8 @@
     </row>
     <row r="40" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="23"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="14"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="18"/>
       <c r="D40" s="7" t="s">
         <v>18</v>
       </c>
@@ -1585,9 +1573,9 @@
     </row>
     <row r="41" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="23"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="18" t="s">
+      <c r="B41" s="21"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E41" s="7"/>
@@ -1600,9 +1588,9 @@
     </row>
     <row r="42" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="23"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="18" t="s">
+      <c r="B42" s="21"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="13" t="s">
         <v>35</v>
       </c>
       <c r="E42" s="7"/>
@@ -1615,11 +1603,11 @@
     </row>
     <row r="43" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="23"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="12" t="s">
+      <c r="B43" s="21"/>
+      <c r="C43" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E43" s="7" t="s">
@@ -1630,13 +1618,15 @@
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
       <c r="J43" s="8"/>
-      <c r="K43" s="7"/>
+      <c r="K43" s="7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="44" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="23"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="19"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="14"/>
       <c r="E44" s="7" t="s">
         <v>7</v>
       </c>
@@ -1647,13 +1637,15 @@
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
       <c r="J44" s="8"/>
-      <c r="K44" s="7"/>
+      <c r="K44" s="7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="45" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="23"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="18" t="s">
+      <c r="B45" s="21"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="13" t="s">
         <v>21</v>
       </c>
       <c r="E45" s="7" t="s">
@@ -1664,13 +1656,15 @@
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
       <c r="J45" s="8"/>
-      <c r="K45" s="7"/>
+      <c r="K45" s="7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="46" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="23"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="19"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="14"/>
       <c r="E46" s="7" t="s">
         <v>7</v>
       </c>
@@ -1679,12 +1673,14 @@
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
       <c r="J46" s="8"/>
-      <c r="K46" s="7"/>
+      <c r="K46" s="7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="23"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="12" t="s">
+      <c r="B47" s="21"/>
+      <c r="C47" s="17" t="s">
         <v>44</v>
       </c>
       <c r="D47" s="7" t="s">
@@ -1702,9 +1698,9 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" s="23"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="16" t="s">
+      <c r="B48" s="21"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="15" t="s">
         <v>43</v>
       </c>
       <c r="E48" s="7" t="s">
@@ -1719,9 +1715,9 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" s="23"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="17"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="16"/>
       <c r="E49" s="7" t="s">
         <v>17</v>
       </c>
@@ -1735,7 +1731,7 @@
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" s="23"/>
       <c r="B50" s="22"/>
-      <c r="C50" s="13"/>
+      <c r="C50" s="19"/>
       <c r="D50" s="7" t="s">
         <v>18</v>
       </c>
@@ -1752,6 +1748,7 @@
     <protectedRange sqref="J2:J50" name="区域3"/>
   </protectedRanges>
   <mergeCells count="17">
+    <mergeCell ref="C29:C32"/>
     <mergeCell ref="D48:D49"/>
     <mergeCell ref="C47:C50"/>
     <mergeCell ref="B3:B50"/>
@@ -1768,7 +1765,6 @@
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="C43:C46"/>
     <mergeCell ref="C37:C42"/>
-    <mergeCell ref="C29:C32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J37:J48 J20:J32 J2:J9">

--- a/doc/开发计划V0.1.xlsx
+++ b/doc/开发计划V0.1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="131">
   <si>
     <t>开始时间</t>
   </si>
@@ -119,10 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>运营后台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>方案设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,10 +171,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分页,树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分页(已删,未删)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -217,13 +209,331 @@
   <si>
     <t>吴小刚</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册登记</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>oAuth登录</t>
+  </si>
+  <si>
+    <t>手机号码登录</t>
+  </si>
+  <si>
+    <t>登录/登出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息完善</t>
+  </si>
+  <si>
+    <t>信息完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人用户信息完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业用户信息完善</t>
+  </si>
+  <si>
+    <t>实名认证</t>
+  </si>
+  <si>
+    <t>重置密码</t>
+  </si>
+  <si>
+    <t>客户日志</t>
+  </si>
+  <si>
+    <t>黑名单过滤</t>
+  </si>
+  <si>
+    <t>协议签约</t>
+  </si>
+  <si>
+    <t>前台
+01</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息验证</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信验证码</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱验证码</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录02</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台用户登录</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>找回密码</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>找回密码</t>
+  </si>
+  <si>
+    <t>电话人工验证</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>三方用户登录</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>三方账号登录</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>三方账号登录</t>
+  </si>
+  <si>
+    <t>三方授权</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权登录</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息设置
+03</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证录入</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>三方接口</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>三方认证</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险评测</t>
+  </si>
+  <si>
+    <t>会员中心</t>
+  </si>
+  <si>
+    <t>签到积分</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员特权</t>
+  </si>
+  <si>
+    <t>等级体系</t>
+  </si>
+  <si>
+    <t>会员任务</t>
+  </si>
+  <si>
+    <t>积分兑换</t>
+  </si>
+  <si>
+    <t>业务选择</t>
+  </si>
+  <si>
+    <t>注销</t>
+  </si>
+  <si>
+    <t>注销</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台
+02</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员管理
+01</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员管理</t>
+  </si>
+  <si>
+    <t>会员权利</t>
+  </si>
+  <si>
+    <t>会员评级</t>
+  </si>
+  <si>
+    <t>会员积分</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户管理
+02</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息管理</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户信息管理</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户画像</t>
+  </si>
+  <si>
+    <t>黑名单过滤</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>三方接口</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>三方认证</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户标签</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户日志</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户获取渠道</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录01</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息设置
+02</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置密码</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>注销03</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台
+02</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>渠道商维护
+01</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>渠道商维护</t>
+  </si>
+  <si>
+    <t>渠道商分类
+02</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>渠道商分类</t>
+  </si>
+  <si>
+    <t>渠道商评级
+03</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>渠道商评级</t>
+  </si>
+  <si>
+    <t>渠道商积分
+04</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>渠道商积分</t>
+  </si>
+  <si>
+    <t>渠道商信用认证
+05</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>渠道商信用认证</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>渠道商信用认证</t>
+  </si>
+  <si>
+    <t>渠道服务授权
+06</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>渠道服务授权</t>
+  </si>
+  <si>
+    <t>渠道商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,6 +565,27 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.14999847407452621"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -356,7 +687,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -399,12 +730,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -413,23 +738,132 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="28">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -561,6 +995,30 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -585,8 +1043,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="17"/>
-      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="wholeTable" dxfId="27"/>
+      <tableStyleElement type="headerRow" dxfId="26"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -887,17 +1345,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3:K50"/>
+      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="8.25" style="11" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="11" customWidth="1"/>
     <col min="3" max="3" width="12.625" style="5" customWidth="1"/>
     <col min="4" max="4" width="11.375" style="5" customWidth="1"/>
     <col min="5" max="6" width="12.25" style="5" customWidth="1"/>
@@ -940,7 +1398,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J2" s="8">
         <v>0.9</v>
@@ -948,50 +1406,54 @@
       <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="G3" s="7">
+        <v>2</v>
+      </c>
       <c r="I3" s="7"/>
       <c r="J3" s="8"/>
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="23"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="A4" s="18"/>
+      <c r="B4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="G4" s="7">
+        <v>2</v>
+      </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="8"/>
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="23"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="A5" s="18"/>
+      <c r="B5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7">
+        <v>2</v>
+      </c>
       <c r="I5" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J5" s="8">
         <v>1</v>
@@ -999,787 +1461,2159 @@
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="23"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="17" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="15" t="s">
         <v>12</v>
       </c>
+      <c r="C6" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="D6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="E6" s="12"/>
       <c r="F6" s="12"/>
-      <c r="G6" s="7"/>
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="8"/>
       <c r="K6" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="23"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="7" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="G7" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="8"/>
       <c r="K7" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="23"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="7" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="7" t="s">
         <v>14</v>
       </c>
+      <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="G8" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="8"/>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="23"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="19"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="D9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="G9" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="8"/>
       <c r="K9" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="23"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="17" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="G10" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="8"/>
-      <c r="K10" s="7"/>
+      <c r="K10" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="23"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="G11" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="7"/>
+      <c r="K11" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="23"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="7" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="7" t="s">
         <v>17</v>
       </c>
+      <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="G12" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="7"/>
+      <c r="K12" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="23"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="7" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="G13" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="7"/>
+      <c r="K13" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="23"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="17" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="15" t="s">
         <v>11</v>
       </c>
+      <c r="C14" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D14" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>38</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="G14" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="7"/>
+      <c r="K14" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="23"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="18"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="15" t="s">
+        <v>41</v>
+      </c>
       <c r="D15" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="G15" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="8"/>
-      <c r="K15" s="7"/>
+      <c r="K15" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="23"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="18"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="G16" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="8"/>
-      <c r="K16" s="7"/>
+      <c r="K16" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="23"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="7" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="G17" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="7"/>
+      <c r="K17" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="23"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="A18" s="18"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="G18" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="7"/>
+      <c r="K18" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="23"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="A19" s="18"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
+      <c r="G19" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="7"/>
+      <c r="K19" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="23"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="17" t="s">
+      <c r="A20" s="18"/>
+      <c r="B20" s="15" t="s">
         <v>5</v>
       </c>
+      <c r="C20" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D20" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>39</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+      <c r="G20" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="8"/>
-      <c r="K20" s="7"/>
+      <c r="K20" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="23"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="7" t="s">
+      <c r="A21" s="18"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="G21" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="8"/>
-      <c r="K21" s="7"/>
+      <c r="K21" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="22" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="23"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="7" t="s">
+      <c r="A22" s="18"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="7" t="s">
         <v>17</v>
       </c>
+      <c r="E22" s="7"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
+      <c r="G22" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="8"/>
-      <c r="K22" s="7"/>
+      <c r="K22" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="23"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="7" t="s">
+      <c r="A23" s="18"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
+      <c r="G23" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="7"/>
+      <c r="K23" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="23"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="7" t="s">
-        <v>37</v>
-      </c>
+      <c r="A24" s="18"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
+      <c r="G24" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="8"/>
-      <c r="K24" s="7"/>
+      <c r="K24" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="23"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="7" t="s">
-        <v>36</v>
-      </c>
+      <c r="A25" s="18"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
+      <c r="G25" s="7">
+        <v>2</v>
+      </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="8"/>
-      <c r="K25" s="7"/>
+      <c r="K25" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="23"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="A26" s="18"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
+      <c r="G26" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="8"/>
-      <c r="K26" s="7"/>
+      <c r="K26" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="23"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="A27" s="18"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
+      <c r="G27" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="8"/>
-      <c r="K27" s="7"/>
+      <c r="K27" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="23"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="A28" s="18"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
+      <c r="G28" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="7"/>
+      <c r="K28" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="29" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="23"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="17" t="s">
-        <v>34</v>
+      <c r="A29" s="18"/>
+      <c r="B29" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="7" t="s">
         <v>19</v>
       </c>
+      <c r="E29" s="7"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
+      <c r="G29" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="8"/>
-      <c r="K29" s="7"/>
+      <c r="K29" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="30" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="23"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="7" t="s">
+      <c r="A30" s="18"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="E30" s="7"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
+      <c r="G30" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="8"/>
-      <c r="K30" s="7"/>
+      <c r="K30" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="31" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="23"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="7" t="s">
+      <c r="A31" s="18"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="7" t="s">
         <v>17</v>
       </c>
+      <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
+      <c r="G31" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="8"/>
-      <c r="K31" s="7"/>
+      <c r="K31" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="32" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="23"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="7" t="s">
+      <c r="A32" s="18"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
+      <c r="G32" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="8"/>
-      <c r="K32" s="7"/>
+      <c r="K32" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="33" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="23"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="17" t="s">
+      <c r="A33" s="18"/>
+      <c r="B33" s="15" t="s">
         <v>23</v>
       </c>
+      <c r="C33" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D33" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="7" t="s">
         <v>19</v>
       </c>
+      <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
+      <c r="G33" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="8"/>
-      <c r="K33" s="7"/>
+      <c r="K33" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="34" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="23"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="7" t="s">
+      <c r="A34" s="18"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="E34" s="7"/>
       <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
+      <c r="G34" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="8"/>
-      <c r="K34" s="7"/>
+      <c r="K34" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="35" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="23"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="7" t="s">
+      <c r="A35" s="18"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="7" t="s">
         <v>17</v>
       </c>
+      <c r="E35" s="7"/>
       <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
+      <c r="G35" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="8"/>
-      <c r="K35" s="7"/>
+      <c r="K35" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="36" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="23"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="7" t="s">
+      <c r="A36" s="18"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
+      <c r="G36" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="8"/>
-      <c r="K36" s="7"/>
+      <c r="K36" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="37" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="23"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="17" t="s">
+      <c r="A37" s="18"/>
+      <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
+      <c r="C37" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D37" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>28</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E37" s="7"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
+      <c r="G37" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="8"/>
-      <c r="K37" s="7"/>
+      <c r="K37" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="38" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="23"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E38" s="7" t="s">
+      <c r="A38" s="18"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="E38" s="7"/>
       <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
+      <c r="G38" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="8"/>
-      <c r="K38" s="7"/>
+      <c r="K38" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="39" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="23"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="7" t="s">
+      <c r="A39" s="18"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="7" t="s">
         <v>17</v>
       </c>
+      <c r="E39" s="7"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
+      <c r="G39" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="8"/>
-      <c r="K39" s="7"/>
+      <c r="K39" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="40" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="23"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="7" t="s">
+      <c r="A40" s="18"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
+      <c r="G40" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="8"/>
-      <c r="K40" s="7"/>
+      <c r="K40" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="41" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="23"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="13" t="s">
-        <v>33</v>
-      </c>
+      <c r="A41" s="18"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
+      <c r="G41" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="8"/>
-      <c r="K41" s="7"/>
+      <c r="K41" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="42" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="23"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="13" t="s">
-        <v>35</v>
-      </c>
+      <c r="A42" s="18"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
+      <c r="G42" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="8"/>
-      <c r="K42" s="7"/>
+      <c r="K42" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="43" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="23"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="17" t="s">
+      <c r="A43" s="18"/>
+      <c r="B43" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="C43" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="D43" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="E43" s="7"/>
       <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
+      <c r="G43" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
       <c r="J43" s="8"/>
       <c r="K43" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="23"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="14"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="E44" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
       <c r="J44" s="8"/>
       <c r="K44" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="23"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="13" t="s">
+      <c r="A45" s="18"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="D45" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="E45" s="7"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
+      <c r="G45" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
       <c r="J45" s="8"/>
       <c r="K45" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="23"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="7" t="s">
+      <c r="A46" s="18"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="E46" s="7"/>
       <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
+      <c r="G46" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
       <c r="J46" s="8"/>
       <c r="K46" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A47" s="23"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="17" t="s">
-        <v>44</v>
+      <c r="A47" s="18"/>
+      <c r="B47" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>45</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E47" s="7"/>
       <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
+      <c r="G47" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
       <c r="J47" s="8"/>
-      <c r="K47" s="7"/>
+      <c r="K47" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A48" s="23"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E48" s="7" t="s">
+      <c r="A48" s="18"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="E48" s="7"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
+      <c r="G48" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
       <c r="J48" s="8"/>
-      <c r="K48" s="7"/>
+      <c r="K48" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A49" s="23"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="7" t="s">
+      <c r="A49" s="18"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="7" t="s">
         <v>17</v>
       </c>
+      <c r="E49" s="7"/>
       <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
+      <c r="G49" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
       <c r="J49" s="8"/>
-      <c r="K49" s="7"/>
+      <c r="K49" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A50" s="23"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="7" t="s">
+      <c r="A50" s="18"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
+      <c r="G50" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
       <c r="J50" s="8"/>
-      <c r="K50" s="7"/>
+      <c r="K50" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B51" s="5"/>
+      <c r="G51" s="7">
+        <f>SUM(G4:G49)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="7"/>
+    </row>
+    <row r="53" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="20"/>
+      <c r="B53" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="7"/>
+    </row>
+    <row r="54" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="20"/>
+      <c r="B54" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="7"/>
+    </row>
+    <row r="55" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="20"/>
+      <c r="B55" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="7"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A56" s="20"/>
+      <c r="B56" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="7"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A57" s="20"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="7"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A58" s="20"/>
+      <c r="B58" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="7"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A59" s="20"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="7"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A60" s="20"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="7"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A61" s="20"/>
+      <c r="B61" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="7"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A62" s="20"/>
+      <c r="B62" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="7"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A63" s="20"/>
+      <c r="B63" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="7"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A64" s="20"/>
+      <c r="B64" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="7"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A65" s="20"/>
+      <c r="B65" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="D65" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E65" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F65" s="25"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="7"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A66" s="20"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E66" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F66" s="25"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="7"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A67" s="20"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F67" s="25"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="7"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A68" s="20"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="D68" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E68" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="F68" s="25"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="7"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A69" s="20"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E69" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F69" s="25"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="7"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A70" s="20"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F70" s="25"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="7"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A71" s="20"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="D71" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F71" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="7"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A72" s="20"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F72" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="7"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A73" s="20"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="38"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="7"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A74" s="20"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="38"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="7"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A75" s="20"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E75" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F75" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="7"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A76" s="20"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="38"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F76" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="7"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A77" s="20"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D77" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E77" s="25"/>
+      <c r="F77" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="7"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A78" s="20"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E78" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F78" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="7"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A79" s="20"/>
+      <c r="B79" s="26"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F79" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="7"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A80" s="20"/>
+      <c r="B80" s="26"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="7"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A81" s="20"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="7"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A82" s="20"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D82" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="E82" s="33"/>
+      <c r="F82" s="33"/>
+      <c r="G82" s="34">
+        <v>0</v>
+      </c>
+      <c r="H82" s="34"/>
+      <c r="I82" s="34"/>
+      <c r="J82" s="35"/>
+      <c r="K82" s="34"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A83" s="20"/>
+      <c r="B83" s="26"/>
+      <c r="C83" s="36"/>
+      <c r="D83" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="E83" s="33"/>
+      <c r="F83" s="33"/>
+      <c r="G83" s="34">
+        <v>0</v>
+      </c>
+      <c r="H83" s="34"/>
+      <c r="I83" s="34"/>
+      <c r="J83" s="35"/>
+      <c r="K83" s="34"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A84" s="20"/>
+      <c r="B84" s="26"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="E84" s="33"/>
+      <c r="F84" s="33"/>
+      <c r="G84" s="34">
+        <v>0</v>
+      </c>
+      <c r="H84" s="34"/>
+      <c r="I84" s="34"/>
+      <c r="J84" s="35"/>
+      <c r="K84" s="34"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A85" s="20"/>
+      <c r="B85" s="26"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="E85" s="33"/>
+      <c r="F85" s="33"/>
+      <c r="G85" s="34">
+        <v>0</v>
+      </c>
+      <c r="H85" s="34"/>
+      <c r="I85" s="34"/>
+      <c r="J85" s="35"/>
+      <c r="K85" s="34"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A86" s="20"/>
+      <c r="B86" s="26"/>
+      <c r="C86" s="37"/>
+      <c r="D86" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="E86" s="33"/>
+      <c r="F86" s="33"/>
+      <c r="G86" s="34">
+        <v>0</v>
+      </c>
+      <c r="H86" s="34"/>
+      <c r="I86" s="34"/>
+      <c r="J86" s="35"/>
+      <c r="K86" s="34"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A87" s="20"/>
+      <c r="B87" s="26"/>
+      <c r="C87" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="8"/>
+      <c r="K87" s="7"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A88" s="20"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="7"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A89" s="20"/>
+      <c r="B89" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D89" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="E89" s="25"/>
+      <c r="F89" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="8"/>
+      <c r="K89" s="7"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A90" s="20"/>
+      <c r="B90" s="26"/>
+      <c r="C90" s="26"/>
+      <c r="D90" s="26"/>
+      <c r="E90" s="25"/>
+      <c r="F90" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="8"/>
+      <c r="K90" s="7"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A91" s="20"/>
+      <c r="B91" s="26"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="26"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="8"/>
+      <c r="K91" s="7"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A92" s="20"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="8"/>
+      <c r="K92" s="7"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A93" s="20"/>
+      <c r="B93" s="26"/>
+      <c r="C93" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D93" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E93" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="F93" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="8"/>
+      <c r="K93" s="7"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A94" s="20"/>
+      <c r="B94" s="26"/>
+      <c r="C94" s="26"/>
+      <c r="D94" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E94" s="25"/>
+      <c r="F94" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="8"/>
+      <c r="K94" s="7"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A95" s="20"/>
+      <c r="B95" s="26"/>
+      <c r="C95" s="26"/>
+      <c r="D95" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E95" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="F95" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="8"/>
+      <c r="K95" s="7"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A96" s="20"/>
+      <c r="B96" s="26"/>
+      <c r="C96" s="26"/>
+      <c r="D96" s="26"/>
+      <c r="E96" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="F96" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="7"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A97" s="20"/>
+      <c r="B97" s="26"/>
+      <c r="C97" s="26"/>
+      <c r="D97" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="8"/>
+      <c r="K97" s="7"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A98" s="20"/>
+      <c r="B98" s="26"/>
+      <c r="C98" s="26"/>
+      <c r="D98" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E98" s="25"/>
+      <c r="F98" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="8"/>
+      <c r="K98" s="7"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A99" s="21"/>
+      <c r="B99" s="26"/>
+      <c r="C99" s="26"/>
+      <c r="D99" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="E99" s="25"/>
+      <c r="F99" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="8"/>
+      <c r="K99" s="7"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B100" s="5"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A101" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A102" s="18"/>
+      <c r="B102" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A103" s="18"/>
+      <c r="B103" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="18"/>
+      <c r="B104" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C104" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D104" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E104" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="F104" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="7"/>
+      <c r="J104" s="8"/>
+      <c r="K104" s="7"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A105" s="18"/>
+      <c r="B105" s="26"/>
+      <c r="C105" s="26"/>
+      <c r="D105" s="26"/>
+      <c r="E105" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F105" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="7"/>
+      <c r="J105" s="8"/>
+      <c r="K105" s="7"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A106" s="18"/>
+      <c r="B106" s="26"/>
+      <c r="C106" s="26"/>
+      <c r="D106" s="26"/>
+      <c r="E106" s="26"/>
+      <c r="F106" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="7"/>
+      <c r="J106" s="8"/>
+      <c r="K106" s="7"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A107" s="18"/>
+      <c r="B107" s="26"/>
+      <c r="C107" s="26"/>
+      <c r="D107" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F107" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="G107" s="7"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="7"/>
+      <c r="J107" s="8"/>
+      <c r="K107" s="7"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A108" s="18"/>
+      <c r="B108" s="26"/>
+      <c r="C108" s="26"/>
+      <c r="D108" s="26"/>
+      <c r="E108" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F108" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G108" s="7"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="7"/>
+      <c r="J108" s="8"/>
+      <c r="K108" s="7"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A109" s="18"/>
+      <c r="B109" s="26"/>
+      <c r="C109" s="26"/>
+      <c r="D109" s="26"/>
+      <c r="E109" s="26"/>
+      <c r="F109" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="G109" s="7"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="7"/>
+      <c r="J109" s="8"/>
+      <c r="K109" s="7"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A110" s="18"/>
+      <c r="B110" s="26"/>
+      <c r="C110" s="26"/>
+      <c r="D110" s="26"/>
+      <c r="E110" s="26"/>
+      <c r="F110" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="G110" s="7"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="7"/>
+      <c r="J110" s="8"/>
+      <c r="K110" s="7"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A111" s="18"/>
+      <c r="B111" s="26"/>
+      <c r="C111" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D111" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E111" s="25"/>
+      <c r="F111" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G111" s="7"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="7"/>
+      <c r="J111" s="8"/>
+      <c r="K111" s="7"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A112" s="18"/>
+      <c r="B112" s="26"/>
+      <c r="C112" s="26"/>
+      <c r="D112" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E112" s="25"/>
+      <c r="F112" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="G112" s="7"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="7"/>
+      <c r="J112" s="8"/>
+      <c r="K112" s="7"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A113" s="18"/>
+      <c r="B113" s="26"/>
+      <c r="C113" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="D113" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E113" s="25"/>
+      <c r="F113" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="7"/>
+      <c r="J113" s="8"/>
+      <c r="K113" s="7"/>
+    </row>
+    <row r="114" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="A114" s="18"/>
+      <c r="B114" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C114" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D114" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="E114" s="24"/>
+      <c r="F114" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="G114" s="7"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="7"/>
+      <c r="J114" s="8"/>
+      <c r="K114" s="7"/>
+    </row>
+    <row r="115" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="A115" s="18"/>
+      <c r="B115" s="23"/>
+      <c r="C115" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="D115" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="E115" s="24"/>
+      <c r="F115" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="G115" s="7"/>
+      <c r="H115" s="7"/>
+      <c r="I115" s="7"/>
+      <c r="J115" s="8"/>
+      <c r="K115" s="7"/>
+    </row>
+    <row r="116" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="A116" s="18"/>
+      <c r="B116" s="23"/>
+      <c r="C116" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="D116" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="E116" s="24"/>
+      <c r="F116" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="G116" s="7"/>
+      <c r="H116" s="7"/>
+      <c r="I116" s="7"/>
+      <c r="J116" s="8"/>
+      <c r="K116" s="7"/>
+    </row>
+    <row r="117" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="A117" s="18"/>
+      <c r="B117" s="23"/>
+      <c r="C117" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D117" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="E117" s="24"/>
+      <c r="F117" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="G117" s="7"/>
+      <c r="H117" s="7"/>
+      <c r="I117" s="7"/>
+      <c r="J117" s="8"/>
+      <c r="K117" s="7"/>
+    </row>
+    <row r="118" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A118" s="18"/>
+      <c r="B118" s="23"/>
+      <c r="C118" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D118" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="E118" s="24"/>
+      <c r="F118" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="G118" s="7"/>
+      <c r="H118" s="7"/>
+      <c r="I118" s="7"/>
+      <c r="J118" s="8"/>
+      <c r="K118" s="7"/>
+    </row>
+    <row r="119" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="A119" s="18"/>
+      <c r="B119" s="23"/>
+      <c r="C119" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="D119" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="E119" s="24"/>
+      <c r="F119" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="G119" s="7"/>
+      <c r="H119" s="7"/>
+      <c r="I119" s="7"/>
+      <c r="J119" s="8"/>
+      <c r="K119" s="7"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B120" s="5"/>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="J2:J50" name="区域3"/>
+    <protectedRange sqref="J2:J50 J104:J119 J52:J99" name="区域3"/>
   </protectedRanges>
-  <mergeCells count="17">
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="B3:B50"/>
+  <mergeCells count="44">
+    <mergeCell ref="B114:B119"/>
+    <mergeCell ref="A101:A119"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="B104:B113"/>
+    <mergeCell ref="C104:C110"/>
+    <mergeCell ref="D104:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="D107:D110"/>
+    <mergeCell ref="E108:E110"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="C77:C81"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="C82:C86"/>
+    <mergeCell ref="B89:B99"/>
+    <mergeCell ref="C89:C92"/>
+    <mergeCell ref="D89:D92"/>
+    <mergeCell ref="C93:C99"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="D71:D74"/>
+    <mergeCell ref="E72:E74"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B65:B88"/>
+    <mergeCell ref="A52:A99"/>
+    <mergeCell ref="B20:B28"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C65:C67"/>
     <mergeCell ref="A3:A50"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C20:C28"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="C37:C42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="J37:J48 J20:J32 J2:J9">
-    <cfRule type="cellIs" dxfId="15" priority="41" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="J37:J48 J20:J32 J2:J9 J56:J99">
+    <cfRule type="cellIs" dxfId="22" priority="48" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="49" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="43" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="50" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:J19">
+    <cfRule type="cellIs" dxfId="19" priority="18" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="19" stopIfTrue="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="20" stopIfTrue="1" operator="between">
+      <formula>0</formula>
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J33:J36">
+    <cfRule type="cellIs" dxfId="15" priority="14" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="16" stopIfTrue="1" operator="between">
+      <formula>0</formula>
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10:J13">
     <cfRule type="cellIs" dxfId="12" priority="11" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -1791,22 +3625,22 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J33:J36">
-    <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="J49:J50">
+    <cfRule type="cellIs" dxfId="9" priority="8" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="10" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J10:J13">
+  <conditionalFormatting sqref="C43">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52:J55">
     <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -1818,7 +3652,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J49:J50">
+  <conditionalFormatting sqref="J104:J119">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -1831,7 +3665,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="状态错误" error="请从选项中进行选择。" sqref="J2:J50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="状态错误" error="请从选项中进行选择。" sqref="J2:J50 J104:J119 J52:J99">
       <formula1>"0%,100%,90%,80%,70%,60%,50%,40%,30%,20%,10%"</formula1>
     </dataValidation>
   </dataValidations>

--- a/doc/开发计划V0.1.xlsx
+++ b/doc/开发计划V0.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDE\IdeaProjects\hsd-servers\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hsd\hsd-servers\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -792,7 +792,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -825,220 +825,188 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="55">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="27">
     <dxf>
       <fill>
         <patternFill>
@@ -1239,170 +1207,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1427,8 +1231,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="54"/>
-      <tableStyleElement type="headerRow" dxfId="53"/>
+      <tableStyleElement type="wholeTable" dxfId="26"/>
+      <tableStyleElement type="headerRow" dxfId="25"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1732,8 +1536,8 @@
   <dimension ref="A1:N132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I99" sqref="I99"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I135" sqref="I135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1746,8 +1550,8 @@
     <col min="7" max="7" width="4.625" style="6" customWidth="1"/>
     <col min="8" max="8" width="11.75" style="5" customWidth="1"/>
     <col min="9" max="9" width="11.25" style="5" customWidth="1"/>
-    <col min="10" max="10" width="4.25" style="61" customWidth="1"/>
-    <col min="11" max="11" width="3.875" style="63" customWidth="1"/>
+    <col min="10" max="10" width="4.25" style="35" customWidth="1"/>
+    <col min="11" max="11" width="3.875" style="37" customWidth="1"/>
     <col min="12" max="12" width="7.625" style="5" customWidth="1"/>
     <col min="13" max="13" width="8" style="5" customWidth="1"/>
     <col min="14" max="16384" width="9" style="5"/>
@@ -1760,7 +1564,7 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="24" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="4" t="s">
@@ -1769,10 +1573,10 @@
       <c r="I1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="30" t="s">
         <v>120</v>
       </c>
       <c r="L1" s="4"/>
@@ -1787,13 +1591,13 @@
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
-      <c r="G2" s="27"/>
+      <c r="G2" s="18"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="60"/>
-      <c r="K2" s="62">
+      <c r="J2" s="34"/>
+      <c r="K2" s="36">
         <v>1</v>
       </c>
       <c r="L2" s="10">
@@ -1802,158 +1606,158 @@
       <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>91</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="14"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="13"/>
       <c r="I3" s="9"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="62">
+      <c r="J3" s="34"/>
+      <c r="K3" s="36">
         <v>1</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="9"/>
     </row>
     <row r="4" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="54"/>
+      <c r="B4" s="12" t="s">
         <v>92</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="14"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="13"/>
       <c r="I4" s="9"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="62">
+      <c r="J4" s="34"/>
+      <c r="K4" s="36">
         <v>1</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="9"/>
     </row>
     <row r="5" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="15"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="54"/>
+      <c r="B5" s="12" t="s">
         <v>90</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="14"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="13"/>
       <c r="I5" s="9"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="62">
+      <c r="J5" s="34"/>
+      <c r="K5" s="36">
         <v>1</v>
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="15"/>
-      <c r="B6" s="13"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="14"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="13"/>
       <c r="I6" s="9"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="62">
+      <c r="J6" s="34"/>
+      <c r="K6" s="36">
         <v>1</v>
       </c>
       <c r="L6" s="10"/>
       <c r="M6" s="9"/>
     </row>
     <row r="7" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="16"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="14"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="13"/>
       <c r="I7" s="9"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="62">
+      <c r="J7" s="34"/>
+      <c r="K7" s="36">
         <v>1</v>
       </c>
       <c r="L7" s="10"/>
       <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="27">
+      <c r="G8" s="18">
         <v>2</v>
       </c>
       <c r="I8" s="9"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="62">
+      <c r="J8" s="34"/>
+      <c r="K8" s="36">
         <v>1</v>
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="9"/>
     </row>
     <row r="9" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18" t="s">
+      <c r="A9" s="50"/>
+      <c r="B9" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="27">
+      <c r="G9" s="18">
         <v>2</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="62">
+      <c r="J9" s="34"/>
+      <c r="K9" s="36">
         <v>1</v>
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="9"/>
     </row>
     <row r="10" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18" t="s">
+      <c r="A10" s="50"/>
+      <c r="B10" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="27">
+      <c r="G10" s="18">
         <v>2</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="60"/>
-      <c r="K10" s="62">
+      <c r="J10" s="34"/>
+      <c r="K10" s="36">
         <v>1</v>
       </c>
       <c r="L10" s="10">
@@ -1962,8 +1766,8 @@
       <c r="M10" s="9"/>
     </row>
     <row r="11" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="17"/>
-      <c r="B11" s="19" t="s">
+      <c r="A11" s="50"/>
+      <c r="B11" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -1972,17 +1776,17 @@
       <c r="D11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="27">
+      <c r="F11" s="15"/>
+      <c r="G11" s="18">
         <v>1</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="62">
+      <c r="J11" s="34"/>
+      <c r="K11" s="36">
         <v>1</v>
       </c>
       <c r="L11" s="10"/>
@@ -1991,23 +1795,23 @@
       </c>
     </row>
     <row r="12" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A12" s="17"/>
-      <c r="B12" s="21"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="57"/>
       <c r="C12" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="9"/>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="22" t="s">
         <v>96</v>
       </c>
       <c r="F12" s="9"/>
-      <c r="G12" s="27">
+      <c r="G12" s="18">
         <v>0.5</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="62">
+      <c r="J12" s="34"/>
+      <c r="K12" s="36">
         <v>1</v>
       </c>
       <c r="L12" s="10"/>
@@ -2016,21 +1820,21 @@
       </c>
     </row>
     <row r="13" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="17"/>
-      <c r="B13" s="21"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="27">
+      <c r="G13" s="18">
         <v>0.5</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="62">
+      <c r="J13" s="34"/>
+      <c r="K13" s="36">
         <v>1</v>
       </c>
       <c r="L13" s="10"/>
@@ -2039,8 +1843,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="17"/>
-      <c r="B14" s="22"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="9" t="s">
         <v>37</v>
       </c>
@@ -2049,13 +1853,13 @@
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="27">
+      <c r="G14" s="18">
         <v>0.5</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="62">
+      <c r="J14" s="34"/>
+      <c r="K14" s="36">
         <v>1</v>
       </c>
       <c r="L14" s="10"/>
@@ -2064,8 +1868,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="17"/>
-      <c r="B15" s="19" t="s">
+      <c r="A15" s="50"/>
+      <c r="B15" s="56" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -2076,13 +1880,13 @@
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="27">
+      <c r="G15" s="18">
         <v>0.5</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="62">
+      <c r="J15" s="34"/>
+      <c r="K15" s="36">
         <v>1</v>
       </c>
       <c r="L15" s="10"/>
@@ -2091,9 +1895,9 @@
       </c>
     </row>
     <row r="16" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="17"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="23" t="s">
+      <c r="A16" s="50"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="44" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="9" t="s">
@@ -2101,13 +1905,13 @@
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="27">
+      <c r="G16" s="18">
         <v>0.5</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="62">
+      <c r="J16" s="34"/>
+      <c r="K16" s="36">
         <v>1</v>
       </c>
       <c r="L16" s="10"/>
@@ -2116,21 +1920,21 @@
       </c>
     </row>
     <row r="17" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="17"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="24"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="46"/>
       <c r="D17" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="27">
+      <c r="G17" s="18">
         <v>0.5</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="62">
+      <c r="J17" s="34"/>
+      <c r="K17" s="36">
         <v>1</v>
       </c>
       <c r="L17" s="10"/>
@@ -2139,21 +1943,21 @@
       </c>
     </row>
     <row r="18" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="17"/>
-      <c r="B18" s="22"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="58"/>
       <c r="C18" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="27">
+      <c r="G18" s="18">
         <v>0.5</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="62">
+      <c r="J18" s="34"/>
+      <c r="K18" s="36">
         <v>1</v>
       </c>
       <c r="L18" s="10"/>
@@ -2162,8 +1966,8 @@
       </c>
     </row>
     <row r="19" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="17"/>
-      <c r="B19" s="19" t="s">
+      <c r="A19" s="50"/>
+      <c r="B19" s="56" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -2174,13 +1978,13 @@
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="27">
+      <c r="G19" s="18">
         <v>0.5</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="62">
+      <c r="J19" s="34"/>
+      <c r="K19" s="36">
         <v>1</v>
       </c>
       <c r="L19" s="10"/>
@@ -2189,9 +1993,9 @@
       </c>
     </row>
     <row r="20" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="17"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="23" t="s">
+      <c r="A20" s="50"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="44" t="s">
         <v>39</v>
       </c>
       <c r="D20" s="9" t="s">
@@ -2199,13 +2003,13 @@
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="27">
+      <c r="G20" s="18">
         <v>0.5</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="62">
+      <c r="J20" s="34"/>
+      <c r="K20" s="36">
         <v>1</v>
       </c>
       <c r="L20" s="10"/>
@@ -2214,21 +2018,21 @@
       </c>
     </row>
     <row r="21" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="17"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="24"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="46"/>
       <c r="D21" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="27">
+      <c r="G21" s="18">
         <v>0.5</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="62">
+      <c r="J21" s="34"/>
+      <c r="K21" s="36">
         <v>1</v>
       </c>
       <c r="L21" s="10"/>
@@ -2237,21 +2041,21 @@
       </c>
     </row>
     <row r="22" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="17"/>
-      <c r="B22" s="21"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="57"/>
       <c r="C22" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="27">
+      <c r="G22" s="18">
         <v>0.5</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="62">
+      <c r="J22" s="34"/>
+      <c r="K22" s="36">
         <v>1</v>
       </c>
       <c r="L22" s="10"/>
@@ -2260,21 +2064,21 @@
       </c>
     </row>
     <row r="23" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="17"/>
-      <c r="B23" s="21"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="27">
+      <c r="G23" s="18">
         <v>0.5</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="62">
+      <c r="J23" s="34"/>
+      <c r="K23" s="36">
         <v>1</v>
       </c>
       <c r="L23" s="10"/>
@@ -2283,21 +2087,21 @@
       </c>
     </row>
     <row r="24" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="17"/>
-      <c r="B24" s="22"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="58"/>
       <c r="C24" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="27">
+      <c r="G24" s="18">
         <v>0.5</v>
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="62">
+      <c r="J24" s="34"/>
+      <c r="K24" s="36">
         <v>1</v>
       </c>
       <c r="L24" s="10"/>
@@ -2306,8 +2110,8 @@
       </c>
     </row>
     <row r="25" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="17"/>
-      <c r="B25" s="19" t="s">
+      <c r="A25" s="50"/>
+      <c r="B25" s="56" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -2318,13 +2122,13 @@
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="27">
+      <c r="G25" s="18">
         <v>0.5</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="62">
+      <c r="J25" s="34"/>
+      <c r="K25" s="36">
         <v>1</v>
       </c>
       <c r="L25" s="10"/>
@@ -2333,9 +2137,9 @@
       </c>
     </row>
     <row r="26" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="17"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="23" t="s">
+      <c r="A26" s="50"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="44" t="s">
         <v>39</v>
       </c>
       <c r="D26" s="9" t="s">
@@ -2343,13 +2147,13 @@
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="27">
+      <c r="G26" s="18">
         <v>0.5</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="62">
+      <c r="J26" s="34"/>
+      <c r="K26" s="36">
         <v>1</v>
       </c>
       <c r="L26" s="10"/>
@@ -2358,21 +2162,21 @@
       </c>
     </row>
     <row r="27" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="17"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="24"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="46"/>
       <c r="D27" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="27">
+      <c r="G27" s="18">
         <v>0.5</v>
       </c>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="62">
+      <c r="J27" s="34"/>
+      <c r="K27" s="36">
         <v>1</v>
       </c>
       <c r="L27" s="10"/>
@@ -2381,21 +2185,21 @@
       </c>
     </row>
     <row r="28" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="17"/>
-      <c r="B28" s="21"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
-      <c r="G28" s="27">
+      <c r="G28" s="18">
         <v>0.5</v>
       </c>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="62">
+      <c r="J28" s="34"/>
+      <c r="K28" s="36">
         <v>1</v>
       </c>
       <c r="L28" s="10"/>
@@ -2404,21 +2208,21 @@
       </c>
     </row>
     <row r="29" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="17"/>
-      <c r="B29" s="21"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="9" t="s">
         <v>35</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="27">
+      <c r="G29" s="18">
         <v>0.5</v>
       </c>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="62">
+      <c r="J29" s="34"/>
+      <c r="K29" s="36">
         <v>1</v>
       </c>
       <c r="L29" s="10"/>
@@ -2427,21 +2231,21 @@
       </c>
     </row>
     <row r="30" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="17"/>
-      <c r="B30" s="21"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="57"/>
       <c r="C30" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="27">
+      <c r="G30" s="18">
         <v>2</v>
       </c>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="62">
+      <c r="J30" s="34"/>
+      <c r="K30" s="36">
         <v>1</v>
       </c>
       <c r="L30" s="10"/>
@@ -2450,21 +2254,21 @@
       </c>
     </row>
     <row r="31" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="17"/>
-      <c r="B31" s="21"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="57"/>
       <c r="C31" s="9" t="s">
         <v>36</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="27">
+      <c r="G31" s="18">
         <v>0.5</v>
       </c>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="62">
+      <c r="J31" s="34"/>
+      <c r="K31" s="36">
         <v>1</v>
       </c>
       <c r="L31" s="10"/>
@@ -2473,21 +2277,21 @@
       </c>
     </row>
     <row r="32" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="17"/>
-      <c r="B32" s="21"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="57"/>
       <c r="C32" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="27">
+      <c r="G32" s="18">
         <v>0.5</v>
       </c>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="62">
+      <c r="J32" s="34"/>
+      <c r="K32" s="36">
         <v>1</v>
       </c>
       <c r="L32" s="10"/>
@@ -2496,21 +2300,21 @@
       </c>
     </row>
     <row r="33" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="17"/>
-      <c r="B33" s="22"/>
+      <c r="A33" s="50"/>
+      <c r="B33" s="58"/>
       <c r="C33" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
-      <c r="G33" s="27">
+      <c r="G33" s="18">
         <v>0.5</v>
       </c>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
-      <c r="J33" s="60"/>
-      <c r="K33" s="62">
+      <c r="J33" s="34"/>
+      <c r="K33" s="36">
         <v>1</v>
       </c>
       <c r="L33" s="10"/>
@@ -2519,8 +2323,8 @@
       </c>
     </row>
     <row r="34" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="17"/>
-      <c r="B34" s="19" t="s">
+      <c r="A34" s="50"/>
+      <c r="B34" s="56" t="s">
         <v>32</v>
       </c>
       <c r="C34" s="9" t="s">
@@ -2531,13 +2335,13 @@
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
-      <c r="G34" s="27">
+      <c r="G34" s="18">
         <v>0.5</v>
       </c>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
-      <c r="J34" s="60"/>
-      <c r="K34" s="62">
+      <c r="J34" s="34"/>
+      <c r="K34" s="36">
         <v>1</v>
       </c>
       <c r="L34" s="10"/>
@@ -2546,9 +2350,9 @@
       </c>
     </row>
     <row r="35" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="17"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="23" t="s">
+      <c r="A35" s="50"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="44" t="s">
         <v>39</v>
       </c>
       <c r="D35" s="9" t="s">
@@ -2556,13 +2360,13 @@
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
-      <c r="G35" s="27">
+      <c r="G35" s="18">
         <v>0.5</v>
       </c>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="62">
+      <c r="J35" s="34"/>
+      <c r="K35" s="36">
         <v>1</v>
       </c>
       <c r="L35" s="10"/>
@@ -2571,21 +2375,21 @@
       </c>
     </row>
     <row r="36" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="17"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="24"/>
+      <c r="A36" s="50"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="46"/>
       <c r="D36" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="27">
+      <c r="G36" s="18">
         <v>0.5</v>
       </c>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
-      <c r="J36" s="60"/>
-      <c r="K36" s="62">
+      <c r="J36" s="34"/>
+      <c r="K36" s="36">
         <v>1</v>
       </c>
       <c r="L36" s="10"/>
@@ -2594,21 +2398,21 @@
       </c>
     </row>
     <row r="37" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="17"/>
-      <c r="B37" s="22"/>
+      <c r="A37" s="50"/>
+      <c r="B37" s="58"/>
       <c r="C37" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
-      <c r="G37" s="27">
+      <c r="G37" s="18">
         <v>0.5</v>
       </c>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
-      <c r="J37" s="60"/>
-      <c r="K37" s="62">
+      <c r="J37" s="34"/>
+      <c r="K37" s="36">
         <v>1</v>
       </c>
       <c r="L37" s="10"/>
@@ -2617,8 +2421,8 @@
       </c>
     </row>
     <row r="38" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="17"/>
-      <c r="B38" s="19" t="s">
+      <c r="A38" s="50"/>
+      <c r="B38" s="56" t="s">
         <v>22</v>
       </c>
       <c r="C38" s="9" t="s">
@@ -2629,13 +2433,13 @@
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
-      <c r="G38" s="27">
+      <c r="G38" s="18">
         <v>0.5</v>
       </c>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
-      <c r="J38" s="60"/>
-      <c r="K38" s="62">
+      <c r="J38" s="34"/>
+      <c r="K38" s="36">
         <v>1</v>
       </c>
       <c r="L38" s="10"/>
@@ -2644,9 +2448,9 @@
       </c>
     </row>
     <row r="39" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="17"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="25" t="s">
+      <c r="A39" s="50"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="16" t="s">
         <v>39</v>
       </c>
       <c r="D39" s="9" t="s">
@@ -2654,13 +2458,13 @@
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="27">
+      <c r="G39" s="18">
         <v>0.5</v>
       </c>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
-      <c r="J39" s="60"/>
-      <c r="K39" s="62">
+      <c r="J39" s="34"/>
+      <c r="K39" s="36">
         <v>1</v>
       </c>
       <c r="L39" s="10"/>
@@ -2669,21 +2473,21 @@
       </c>
     </row>
     <row r="40" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="17"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="26"/>
+      <c r="A40" s="50"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="17"/>
       <c r="D40" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
-      <c r="G40" s="27">
+      <c r="G40" s="18">
         <v>0.5</v>
       </c>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
-      <c r="J40" s="60"/>
-      <c r="K40" s="62">
+      <c r="J40" s="34"/>
+      <c r="K40" s="36">
         <v>1</v>
       </c>
       <c r="L40" s="10"/>
@@ -2692,21 +2496,21 @@
       </c>
     </row>
     <row r="41" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="17"/>
-      <c r="B41" s="22"/>
+      <c r="A41" s="50"/>
+      <c r="B41" s="58"/>
       <c r="C41" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
-      <c r="G41" s="27">
+      <c r="G41" s="18">
         <v>0.5</v>
       </c>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
-      <c r="J41" s="60"/>
-      <c r="K41" s="62">
+      <c r="J41" s="34"/>
+      <c r="K41" s="36">
         <v>1</v>
       </c>
       <c r="L41" s="10"/>
@@ -2715,8 +2519,8 @@
       </c>
     </row>
     <row r="42" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="17"/>
-      <c r="B42" s="19" t="s">
+      <c r="A42" s="50"/>
+      <c r="B42" s="56" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="9" t="s">
@@ -2727,13 +2531,13 @@
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
-      <c r="G42" s="27">
+      <c r="G42" s="18">
         <v>0.5</v>
       </c>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
-      <c r="J42" s="60"/>
-      <c r="K42" s="62">
+      <c r="J42" s="34"/>
+      <c r="K42" s="36">
         <v>1</v>
       </c>
       <c r="L42" s="10"/>
@@ -2742,9 +2546,9 @@
       </c>
     </row>
     <row r="43" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="17"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="23" t="s">
+      <c r="A43" s="50"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="44" t="s">
         <v>39</v>
       </c>
       <c r="D43" s="9" t="s">
@@ -2752,13 +2556,13 @@
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
-      <c r="G43" s="27">
+      <c r="G43" s="18">
         <v>0.5</v>
       </c>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
-      <c r="J43" s="60"/>
-      <c r="K43" s="62">
+      <c r="J43" s="34"/>
+      <c r="K43" s="36">
         <v>1</v>
       </c>
       <c r="L43" s="10"/>
@@ -2767,21 +2571,21 @@
       </c>
     </row>
     <row r="44" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="17"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="24"/>
+      <c r="A44" s="50"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="46"/>
       <c r="D44" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
-      <c r="G44" s="27">
+      <c r="G44" s="18">
         <v>0.5</v>
       </c>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
-      <c r="J44" s="60"/>
-      <c r="K44" s="62">
+      <c r="J44" s="34"/>
+      <c r="K44" s="36">
         <v>1</v>
       </c>
       <c r="L44" s="10"/>
@@ -2790,21 +2594,21 @@
       </c>
     </row>
     <row r="45" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="17"/>
-      <c r="B45" s="21"/>
+      <c r="A45" s="50"/>
+      <c r="B45" s="57"/>
       <c r="C45" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
-      <c r="G45" s="27">
+      <c r="G45" s="18">
         <v>0.5</v>
       </c>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
-      <c r="J45" s="60"/>
-      <c r="K45" s="62">
+      <c r="J45" s="34"/>
+      <c r="K45" s="36">
         <v>1</v>
       </c>
       <c r="L45" s="10"/>
@@ -2813,21 +2617,21 @@
       </c>
     </row>
     <row r="46" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="17"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="25" t="s">
+      <c r="A46" s="50"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="16" t="s">
         <v>31</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
-      <c r="G46" s="27">
+      <c r="G46" s="18">
         <v>0.5</v>
       </c>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
-      <c r="J46" s="60"/>
-      <c r="K46" s="62">
+      <c r="J46" s="34"/>
+      <c r="K46" s="36">
         <v>1</v>
       </c>
       <c r="L46" s="10"/>
@@ -2836,21 +2640,21 @@
       </c>
     </row>
     <row r="47" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="17"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="25" t="s">
+      <c r="A47" s="50"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="16" t="s">
         <v>33</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
-      <c r="G47" s="27">
+      <c r="G47" s="18">
         <v>0.5</v>
       </c>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
-      <c r="J47" s="60"/>
-      <c r="K47" s="62">
+      <c r="J47" s="34"/>
+      <c r="K47" s="36">
         <v>1</v>
       </c>
       <c r="L47" s="10"/>
@@ -2859,11 +2663,11 @@
       </c>
     </row>
     <row r="48" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="17"/>
-      <c r="B48" s="19" t="s">
+      <c r="A48" s="50"/>
+      <c r="B48" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="16" t="s">
         <v>97</v>
       </c>
       <c r="D48" s="9" t="s">
@@ -2871,13 +2675,13 @@
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
-      <c r="G48" s="27">
+      <c r="G48" s="18">
         <v>0.5</v>
       </c>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
-      <c r="J48" s="60"/>
-      <c r="K48" s="62">
+      <c r="J48" s="34"/>
+      <c r="K48" s="36">
         <v>1</v>
       </c>
       <c r="L48" s="10"/>
@@ -2886,9 +2690,9 @@
       </c>
     </row>
     <row r="49" spans="1:14" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="17"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="26"/>
+      <c r="A49" s="50"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="17"/>
       <c r="D49" s="9" t="s">
         <v>7</v>
       </c>
@@ -2896,13 +2700,13 @@
         <v>19</v>
       </c>
       <c r="F49" s="9"/>
-      <c r="G49" s="27">
+      <c r="G49" s="18">
         <v>0.5</v>
       </c>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
-      <c r="J49" s="60"/>
-      <c r="K49" s="62">
+      <c r="J49" s="34"/>
+      <c r="K49" s="36">
         <v>1</v>
       </c>
       <c r="L49" s="10"/>
@@ -2911,9 +2715,9 @@
       </c>
     </row>
     <row r="50" spans="1:14" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="17"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="25" t="s">
+      <c r="A50" s="50"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D50" s="9" t="s">
@@ -2921,13 +2725,13 @@
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
-      <c r="G50" s="27">
+      <c r="G50" s="18">
         <v>0.5</v>
       </c>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
-      <c r="J50" s="60"/>
-      <c r="K50" s="62">
+      <c r="J50" s="34"/>
+      <c r="K50" s="36">
         <v>1</v>
       </c>
       <c r="L50" s="10"/>
@@ -2936,21 +2740,21 @@
       </c>
     </row>
     <row r="51" spans="1:14" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="17"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="26"/>
+      <c r="A51" s="50"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="17"/>
       <c r="D51" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
-      <c r="G51" s="27">
+      <c r="G51" s="18">
         <v>0.5</v>
       </c>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
-      <c r="J51" s="60"/>
-      <c r="K51" s="62">
+      <c r="J51" s="34"/>
+      <c r="K51" s="36">
         <v>1</v>
       </c>
       <c r="L51" s="10"/>
@@ -2959,8 +2763,8 @@
       </c>
     </row>
     <row r="52" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A52" s="17"/>
-      <c r="B52" s="19" t="s">
+      <c r="A52" s="50"/>
+      <c r="B52" s="56" t="s">
         <v>40</v>
       </c>
       <c r="C52" s="9" t="s">
@@ -2971,13 +2775,13 @@
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
-      <c r="G52" s="27">
+      <c r="G52" s="18">
         <v>0.5</v>
       </c>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
-      <c r="J52" s="60"/>
-      <c r="K52" s="62">
+      <c r="J52" s="34"/>
+      <c r="K52" s="36">
         <v>1</v>
       </c>
       <c r="L52" s="10"/>
@@ -2986,9 +2790,9 @@
       </c>
     </row>
     <row r="53" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A53" s="17"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="23" t="s">
+      <c r="A53" s="50"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="44" t="s">
         <v>39</v>
       </c>
       <c r="D53" s="9" t="s">
@@ -2996,13 +2800,13 @@
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
-      <c r="G53" s="27">
+      <c r="G53" s="18">
         <v>0.5</v>
       </c>
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
-      <c r="J53" s="60"/>
-      <c r="K53" s="62">
+      <c r="J53" s="34"/>
+      <c r="K53" s="36">
         <v>1</v>
       </c>
       <c r="L53" s="10"/>
@@ -3011,21 +2815,21 @@
       </c>
     </row>
     <row r="54" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A54" s="17"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="24"/>
+      <c r="A54" s="50"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="46"/>
       <c r="D54" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
-      <c r="G54" s="27">
+      <c r="G54" s="18">
         <v>0.5</v>
       </c>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
-      <c r="J54" s="60"/>
-      <c r="K54" s="62">
+      <c r="J54" s="34"/>
+      <c r="K54" s="36">
         <v>1</v>
       </c>
       <c r="L54" s="10"/>
@@ -3034,21 +2838,21 @@
       </c>
     </row>
     <row r="55" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A55" s="17"/>
-      <c r="B55" s="22"/>
+      <c r="A55" s="50"/>
+      <c r="B55" s="58"/>
       <c r="C55" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
-      <c r="G55" s="27">
+      <c r="G55" s="18">
         <v>0.5</v>
       </c>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
-      <c r="J55" s="60"/>
-      <c r="K55" s="62">
+      <c r="J55" s="34"/>
+      <c r="K55" s="36">
         <v>1</v>
       </c>
       <c r="L55" s="10"/>
@@ -3057,89 +2861,89 @@
       </c>
     </row>
     <row r="56" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="F56" s="69" t="s">
+      <c r="F56" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="G56" s="39">
+      <c r="G56" s="25">
         <f>SUM(G9:G54)</f>
         <v>28</v>
       </c>
-      <c r="J56" s="60"/>
-      <c r="K56" s="62">
+      <c r="J56" s="34"/>
+      <c r="K56" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="B57" s="27" t="s">
+      <c r="B57" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
-      <c r="G57" s="27">
+      <c r="G57" s="18">
         <v>2</v>
       </c>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
-      <c r="J57" s="60"/>
-      <c r="K57" s="62">
+      <c r="J57" s="34"/>
+      <c r="K57" s="36">
         <v>1</v>
       </c>
       <c r="L57" s="10"/>
       <c r="M57" s="9"/>
     </row>
     <row r="58" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="15"/>
-      <c r="B58" s="27" t="s">
+      <c r="A58" s="54"/>
+      <c r="B58" s="18" t="s">
         <v>23</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
-      <c r="G58" s="27">
+      <c r="G58" s="18">
         <v>2</v>
       </c>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
-      <c r="J58" s="60"/>
-      <c r="K58" s="62">
+      <c r="J58" s="34"/>
+      <c r="K58" s="36">
         <v>1</v>
       </c>
       <c r="L58" s="10"/>
       <c r="M58" s="9"/>
     </row>
     <row r="59" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="15"/>
-      <c r="B59" s="27" t="s">
+      <c r="A59" s="54"/>
+      <c r="B59" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
-      <c r="G59" s="27">
+      <c r="G59" s="18">
         <v>2</v>
       </c>
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
-      <c r="J59" s="60"/>
-      <c r="K59" s="62">
+      <c r="J59" s="34"/>
+      <c r="K59" s="36">
         <v>1</v>
       </c>
       <c r="L59" s="10"/>
       <c r="M59" s="9"/>
     </row>
     <row r="60" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="15"/>
-      <c r="B60" s="45" t="s">
+      <c r="A60" s="54"/>
+      <c r="B60" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="C60" s="47" t="s">
+      <c r="C60" s="49" t="s">
         <v>51</v>
       </c>
       <c r="D60" s="9" t="s">
@@ -3149,132 +2953,132 @@
         <v>98</v>
       </c>
       <c r="F60" s="9"/>
-      <c r="G60" s="27"/>
+      <c r="G60" s="18"/>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
-      <c r="J60" s="60"/>
-      <c r="K60" s="62">
+      <c r="J60" s="34"/>
+      <c r="K60" s="36">
         <v>1</v>
       </c>
       <c r="L60" s="10"/>
       <c r="M60" s="9"/>
-      <c r="N60" s="59" t="s">
+      <c r="N60" s="47" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="61" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="15"/>
-      <c r="B61" s="46"/>
-      <c r="C61" s="47"/>
-      <c r="D61" s="23" t="s">
+      <c r="A61" s="54"/>
+      <c r="B61" s="52"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="44" t="s">
         <v>101</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>103</v>
       </c>
       <c r="F61" s="9"/>
-      <c r="G61" s="27"/>
+      <c r="G61" s="18"/>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
-      <c r="J61" s="60"/>
-      <c r="K61" s="62">
+      <c r="J61" s="34"/>
+      <c r="K61" s="36">
         <v>1</v>
       </c>
       <c r="L61" s="10"/>
       <c r="M61" s="9"/>
-      <c r="N61" s="59"/>
+      <c r="N61" s="47"/>
     </row>
     <row r="62" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="15"/>
-      <c r="B62" s="46"/>
-      <c r="C62" s="47"/>
-      <c r="D62" s="24"/>
+      <c r="A62" s="54"/>
+      <c r="B62" s="52"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="46"/>
       <c r="E62" s="9" t="s">
         <v>99</v>
       </c>
       <c r="F62" s="9"/>
-      <c r="G62" s="27"/>
+      <c r="G62" s="18"/>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
-      <c r="J62" s="60"/>
-      <c r="K62" s="62">
+      <c r="J62" s="34"/>
+      <c r="K62" s="36">
         <v>1</v>
       </c>
       <c r="L62" s="10"/>
       <c r="M62" s="9"/>
-      <c r="N62" s="59"/>
+      <c r="N62" s="47"/>
     </row>
     <row r="63" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="15"/>
-      <c r="B63" s="46"/>
-      <c r="C63" s="23" t="s">
+      <c r="A63" s="54"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="44" t="s">
         <v>95</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E63" s="58" t="s">
+      <c r="E63" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="F63" s="36"/>
-      <c r="G63" s="27"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="18"/>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
-      <c r="J63" s="60"/>
-      <c r="K63" s="62">
+      <c r="J63" s="34"/>
+      <c r="K63" s="36">
         <v>1</v>
       </c>
       <c r="L63" s="10"/>
       <c r="M63" s="9"/>
-      <c r="N63" s="59"/>
+      <c r="N63" s="47"/>
     </row>
     <row r="64" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="15"/>
-      <c r="B64" s="46"/>
-      <c r="C64" s="24"/>
+      <c r="A64" s="54"/>
+      <c r="B64" s="52"/>
+      <c r="C64" s="46"/>
       <c r="D64" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E64" s="58" t="s">
+      <c r="E64" s="33" t="s">
         <v>109</v>
       </c>
       <c r="F64" s="9"/>
-      <c r="G64" s="27"/>
+      <c r="G64" s="18"/>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
-      <c r="J64" s="60"/>
-      <c r="K64" s="62">
+      <c r="J64" s="34"/>
+      <c r="K64" s="36">
         <v>1</v>
       </c>
       <c r="L64" s="10"/>
       <c r="M64" s="9"/>
-      <c r="N64" s="59"/>
+      <c r="N64" s="47"/>
     </row>
     <row r="65" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="15"/>
-      <c r="B65" s="46"/>
-      <c r="C65" s="26" t="s">
+      <c r="A65" s="54"/>
+      <c r="B65" s="52"/>
+      <c r="C65" s="17" t="s">
         <v>94</v>
       </c>
       <c r="D65" s="9"/>
-      <c r="E65" s="58" t="s">
+      <c r="E65" s="33" t="s">
         <v>109</v>
       </c>
       <c r="F65" s="9"/>
-      <c r="G65" s="27"/>
+      <c r="G65" s="18"/>
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
-      <c r="J65" s="60"/>
-      <c r="K65" s="62">
+      <c r="J65" s="34"/>
+      <c r="K65" s="36">
         <v>1</v>
       </c>
       <c r="L65" s="10"/>
       <c r="M65" s="9"/>
     </row>
     <row r="66" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A66" s="15"/>
-      <c r="B66" s="46"/>
-      <c r="C66" s="47" t="s">
+      <c r="A66" s="54"/>
+      <c r="B66" s="52"/>
+      <c r="C66" s="49" t="s">
         <v>56</v>
       </c>
       <c r="D66" s="9" t="s">
@@ -3282,60 +3086,60 @@
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
-      <c r="G66" s="27"/>
+      <c r="G66" s="18"/>
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
-      <c r="J66" s="60"/>
-      <c r="K66" s="62">
+      <c r="J66" s="34"/>
+      <c r="K66" s="36">
         <v>1</v>
       </c>
       <c r="L66" s="10"/>
       <c r="M66" s="9"/>
     </row>
     <row r="67" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A67" s="15"/>
-      <c r="B67" s="46"/>
-      <c r="C67" s="47"/>
-      <c r="D67" s="47" t="s">
+      <c r="A67" s="54"/>
+      <c r="B67" s="52"/>
+      <c r="C67" s="49"/>
+      <c r="D67" s="49" t="s">
         <v>102</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>100</v>
       </c>
       <c r="F67" s="9"/>
-      <c r="G67" s="27"/>
+      <c r="G67" s="18"/>
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
-      <c r="J67" s="60"/>
-      <c r="K67" s="62">
+      <c r="J67" s="34"/>
+      <c r="K67" s="36">
         <v>1</v>
       </c>
       <c r="L67" s="10"/>
       <c r="M67" s="9"/>
     </row>
     <row r="68" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A68" s="15"/>
-      <c r="B68" s="46"/>
-      <c r="C68" s="47"/>
-      <c r="D68" s="47"/>
+      <c r="A68" s="54"/>
+      <c r="B68" s="52"/>
+      <c r="C68" s="49"/>
+      <c r="D68" s="49"/>
       <c r="E68" s="9" t="s">
         <v>82</v>
       </c>
       <c r="F68" s="9"/>
-      <c r="G68" s="27"/>
+      <c r="G68" s="18"/>
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
-      <c r="J68" s="60"/>
-      <c r="K68" s="62">
+      <c r="J68" s="34"/>
+      <c r="K68" s="36">
         <v>1</v>
       </c>
       <c r="L68" s="10"/>
       <c r="M68" s="9"/>
     </row>
     <row r="69" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A69" s="15"/>
-      <c r="B69" s="46"/>
-      <c r="C69" s="23" t="s">
+      <c r="A69" s="54"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="44" t="s">
         <v>47</v>
       </c>
       <c r="D69" s="9" t="s">
@@ -3343,89 +3147,89 @@
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
-      <c r="G69" s="27"/>
+      <c r="G69" s="18"/>
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
-      <c r="J69" s="60"/>
-      <c r="K69" s="62">
+      <c r="J69" s="34"/>
+      <c r="K69" s="36">
         <v>1</v>
       </c>
       <c r="L69" s="10"/>
       <c r="M69" s="9"/>
     </row>
     <row r="70" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A70" s="15"/>
-      <c r="B70" s="46"/>
-      <c r="C70" s="51"/>
+      <c r="A70" s="54"/>
+      <c r="B70" s="52"/>
+      <c r="C70" s="45"/>
       <c r="D70" s="9" t="s">
         <v>49</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
-      <c r="G70" s="27"/>
+      <c r="G70" s="18"/>
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
-      <c r="J70" s="60"/>
-      <c r="K70" s="62">
+      <c r="J70" s="34"/>
+      <c r="K70" s="36">
         <v>1</v>
       </c>
       <c r="L70" s="10"/>
       <c r="M70" s="9"/>
     </row>
     <row r="71" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A71" s="15"/>
-      <c r="B71" s="46"/>
-      <c r="C71" s="24"/>
+      <c r="A71" s="54"/>
+      <c r="B71" s="52"/>
+      <c r="C71" s="46"/>
       <c r="D71" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E71" s="58" t="s">
+      <c r="E71" s="33" t="s">
         <v>106</v>
       </c>
       <c r="F71" s="9"/>
-      <c r="G71" s="27"/>
+      <c r="G71" s="18"/>
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
-      <c r="J71" s="60"/>
-      <c r="K71" s="62">
+      <c r="J71" s="34"/>
+      <c r="K71" s="36">
         <v>1</v>
       </c>
       <c r="L71" s="10"/>
       <c r="M71" s="9"/>
     </row>
     <row r="72" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A72" s="15"/>
-      <c r="B72" s="46"/>
+      <c r="A72" s="54"/>
+      <c r="B72" s="52"/>
       <c r="C72" s="9" t="s">
         <v>60</v>
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
-      <c r="G72" s="27"/>
+      <c r="G72" s="18"/>
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
-      <c r="J72" s="60"/>
-      <c r="K72" s="62">
+      <c r="J72" s="34"/>
+      <c r="K72" s="36">
         <v>1</v>
       </c>
       <c r="L72" s="10"/>
       <c r="M72" s="9"/>
     </row>
     <row r="73" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A73" s="15"/>
-      <c r="B73" s="46"/>
+      <c r="A73" s="54"/>
+      <c r="B73" s="52"/>
       <c r="C73" s="9" t="s">
         <v>61</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
-      <c r="G73" s="27"/>
+      <c r="G73" s="18"/>
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
-      <c r="J73" s="60"/>
-      <c r="K73" s="62">
+      <c r="J73" s="34"/>
+      <c r="K73" s="36">
         <v>1</v>
       </c>
       <c r="L73" s="10"/>
@@ -3435,245 +3239,245 @@
       </c>
     </row>
     <row r="74" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A74" s="15"/>
-      <c r="B74" s="46"/>
-      <c r="C74" s="23" t="s">
+      <c r="A74" s="54"/>
+      <c r="B74" s="52"/>
+      <c r="C74" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="D74" s="48" t="s">
+      <c r="D74" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="E74" s="33"/>
-      <c r="F74" s="49"/>
-      <c r="G74" s="27"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="18"/>
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
-      <c r="J74" s="60"/>
-      <c r="K74" s="62">
+      <c r="J74" s="34"/>
+      <c r="K74" s="36">
         <v>1</v>
       </c>
       <c r="L74" s="10"/>
       <c r="M74" s="9"/>
     </row>
     <row r="75" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A75" s="15"/>
-      <c r="B75" s="46"/>
-      <c r="C75" s="24"/>
+      <c r="A75" s="54"/>
+      <c r="B75" s="52"/>
+      <c r="C75" s="46"/>
       <c r="D75" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E75" s="58" t="s">
+      <c r="E75" s="33" t="s">
         <v>137</v>
       </c>
       <c r="F75" s="9"/>
-      <c r="G75" s="27"/>
+      <c r="G75" s="18"/>
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
-      <c r="J75" s="60"/>
-      <c r="K75" s="62">
+      <c r="J75" s="34"/>
+      <c r="K75" s="36">
         <v>1</v>
       </c>
       <c r="L75" s="10"/>
       <c r="M75" s="9"/>
     </row>
     <row r="76" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A76" s="15"/>
-      <c r="B76" s="46"/>
-      <c r="C76" s="53" t="s">
+      <c r="A76" s="54"/>
+      <c r="B76" s="52"/>
+      <c r="C76" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="D76" s="31" t="s">
+      <c r="D76" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="E76" s="31"/>
-      <c r="F76" s="31"/>
-      <c r="G76" s="40">
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="26">
         <v>0</v>
       </c>
-      <c r="H76" s="31"/>
-      <c r="I76" s="31"/>
-      <c r="J76" s="60"/>
-      <c r="K76" s="62">
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="34"/>
+      <c r="K76" s="36">
         <v>2</v>
       </c>
-      <c r="L76" s="32"/>
-      <c r="M76" s="31"/>
+      <c r="L76" s="20"/>
+      <c r="M76" s="19"/>
     </row>
     <row r="77" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A77" s="15"/>
-      <c r="B77" s="46"/>
-      <c r="C77" s="54"/>
-      <c r="D77" s="31" t="s">
+      <c r="A77" s="54"/>
+      <c r="B77" s="52"/>
+      <c r="C77" s="60"/>
+      <c r="D77" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E77" s="31"/>
-      <c r="F77" s="31"/>
-      <c r="G77" s="40">
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="26">
         <v>0</v>
       </c>
-      <c r="H77" s="31"/>
-      <c r="I77" s="31"/>
-      <c r="J77" s="60"/>
-      <c r="K77" s="62">
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="34"/>
+      <c r="K77" s="36">
         <v>2</v>
       </c>
-      <c r="L77" s="32"/>
-      <c r="M77" s="31"/>
+      <c r="L77" s="20"/>
+      <c r="M77" s="19"/>
     </row>
     <row r="78" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A78" s="15"/>
-      <c r="B78" s="46"/>
-      <c r="C78" s="54"/>
-      <c r="D78" s="31" t="s">
+      <c r="A78" s="54"/>
+      <c r="B78" s="52"/>
+      <c r="C78" s="60"/>
+      <c r="D78" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E78" s="31"/>
-      <c r="F78" s="31"/>
-      <c r="G78" s="40">
+      <c r="E78" s="19"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="26">
         <v>0</v>
       </c>
-      <c r="H78" s="31"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="60"/>
-      <c r="K78" s="62">
+      <c r="H78" s="19"/>
+      <c r="I78" s="19"/>
+      <c r="J78" s="34"/>
+      <c r="K78" s="36">
         <v>2</v>
       </c>
-      <c r="L78" s="32"/>
-      <c r="M78" s="31"/>
+      <c r="L78" s="20"/>
+      <c r="M78" s="19"/>
     </row>
     <row r="79" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A79" s="15"/>
-      <c r="B79" s="46"/>
-      <c r="C79" s="54"/>
-      <c r="D79" s="31" t="s">
+      <c r="A79" s="54"/>
+      <c r="B79" s="52"/>
+      <c r="C79" s="60"/>
+      <c r="D79" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E79" s="31"/>
-      <c r="F79" s="31"/>
-      <c r="G79" s="40">
+      <c r="E79" s="19"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="26">
         <v>0</v>
       </c>
-      <c r="H79" s="31"/>
-      <c r="I79" s="31"/>
-      <c r="J79" s="60"/>
-      <c r="K79" s="62">
+      <c r="H79" s="19"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="34"/>
+      <c r="K79" s="36">
         <v>2</v>
       </c>
-      <c r="L79" s="32"/>
-      <c r="M79" s="31"/>
+      <c r="L79" s="20"/>
+      <c r="M79" s="19"/>
     </row>
     <row r="80" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A80" s="15"/>
-      <c r="B80" s="46"/>
-      <c r="C80" s="55"/>
-      <c r="D80" s="31" t="s">
+      <c r="A80" s="54"/>
+      <c r="B80" s="52"/>
+      <c r="C80" s="61"/>
+      <c r="D80" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E80" s="31"/>
-      <c r="F80" s="31"/>
-      <c r="G80" s="40">
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="26">
         <v>0</v>
       </c>
-      <c r="H80" s="31"/>
-      <c r="I80" s="31"/>
-      <c r="J80" s="60"/>
-      <c r="K80" s="62">
+      <c r="H80" s="19"/>
+      <c r="I80" s="19"/>
+      <c r="J80" s="34"/>
+      <c r="K80" s="36">
         <v>2</v>
       </c>
-      <c r="L80" s="32"/>
-      <c r="M80" s="31"/>
+      <c r="L80" s="20"/>
+      <c r="M80" s="19"/>
     </row>
     <row r="81" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A81" s="15"/>
-      <c r="B81" s="50" t="s">
+      <c r="A81" s="54"/>
+      <c r="B81" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="C81" s="56" t="s">
+      <c r="C81" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="D81" s="20" t="s">
+      <c r="D81" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E81" s="20"/>
-      <c r="F81" s="20"/>
-      <c r="G81" s="41">
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="27">
         <v>0</v>
       </c>
       <c r="H81" s="9"/>
       <c r="I81" s="9"/>
-      <c r="J81" s="60"/>
-      <c r="K81" s="62">
+      <c r="J81" s="34"/>
+      <c r="K81" s="36">
         <v>2</v>
       </c>
       <c r="L81" s="10"/>
       <c r="M81" s="9"/>
     </row>
     <row r="82" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A82" s="15"/>
-      <c r="B82" s="37"/>
-      <c r="C82" s="57"/>
-      <c r="D82" s="20" t="s">
+      <c r="A82" s="54"/>
+      <c r="B82" s="68"/>
+      <c r="C82" s="63"/>
+      <c r="D82" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E82" s="20"/>
-      <c r="F82" s="20"/>
-      <c r="G82" s="41">
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="27">
         <v>0</v>
       </c>
       <c r="H82" s="9"/>
       <c r="I82" s="9"/>
-      <c r="J82" s="60"/>
-      <c r="K82" s="62">
+      <c r="J82" s="34"/>
+      <c r="K82" s="36">
         <v>2</v>
       </c>
       <c r="L82" s="10"/>
       <c r="M82" s="9"/>
     </row>
     <row r="83" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A83" s="15"/>
-      <c r="B83" s="37"/>
-      <c r="C83" s="57"/>
-      <c r="D83" s="20" t="s">
+      <c r="A83" s="54"/>
+      <c r="B83" s="68"/>
+      <c r="C83" s="63"/>
+      <c r="D83" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G83" s="41">
+      <c r="G83" s="27">
         <v>0</v>
       </c>
       <c r="H83" s="9"/>
       <c r="I83" s="9"/>
-      <c r="J83" s="60"/>
-      <c r="K83" s="62">
+      <c r="J83" s="34"/>
+      <c r="K83" s="36">
         <v>2</v>
       </c>
       <c r="L83" s="10"/>
       <c r="M83" s="9"/>
     </row>
     <row r="84" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A84" s="15"/>
-      <c r="B84" s="37"/>
-      <c r="C84" s="57"/>
-      <c r="D84" s="20" t="s">
+      <c r="A84" s="54"/>
+      <c r="B84" s="68"/>
+      <c r="C84" s="63"/>
+      <c r="D84" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="G84" s="41">
+      <c r="G84" s="27">
         <v>0</v>
       </c>
       <c r="H84" s="9"/>
       <c r="I84" s="9"/>
-      <c r="J84" s="60"/>
-      <c r="K84" s="62">
+      <c r="J84" s="34"/>
+      <c r="K84" s="36">
         <v>2</v>
       </c>
       <c r="L84" s="10"/>
       <c r="M84" s="9"/>
     </row>
     <row r="85" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A85" s="15"/>
-      <c r="B85" s="37"/>
-      <c r="C85" s="52" t="s">
+      <c r="A85" s="54"/>
+      <c r="B85" s="68"/>
+      <c r="C85" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="D85" s="23" t="s">
+      <c r="D85" s="44" t="s">
         <v>72</v>
       </c>
       <c r="E85" s="9" t="s">
@@ -3682,228 +3486,228 @@
       <c r="F85" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="G85" s="41"/>
+      <c r="G85" s="27"/>
       <c r="H85" s="9"/>
       <c r="I85" s="9"/>
-      <c r="J85" s="60"/>
-      <c r="K85" s="62">
+      <c r="J85" s="34"/>
+      <c r="K85" s="36">
         <v>1</v>
       </c>
       <c r="L85" s="10"/>
       <c r="M85" s="9"/>
     </row>
     <row r="86" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A86" s="15"/>
-      <c r="B86" s="37"/>
-      <c r="C86" s="52"/>
-      <c r="D86" s="51"/>
-      <c r="E86" s="23" t="s">
+      <c r="A86" s="54"/>
+      <c r="B86" s="68"/>
+      <c r="C86" s="48"/>
+      <c r="D86" s="45"/>
+      <c r="E86" s="44" t="s">
         <v>39</v>
       </c>
       <c r="F86" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G86" s="41"/>
+      <c r="G86" s="27"/>
       <c r="H86" s="9"/>
       <c r="I86" s="9"/>
-      <c r="J86" s="60"/>
-      <c r="K86" s="62">
+      <c r="J86" s="34"/>
+      <c r="K86" s="36">
         <v>1</v>
       </c>
       <c r="L86" s="10"/>
       <c r="M86" s="9"/>
     </row>
     <row r="87" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A87" s="15"/>
-      <c r="B87" s="37"/>
-      <c r="C87" s="52"/>
-      <c r="D87" s="51"/>
-      <c r="E87" s="24"/>
+      <c r="A87" s="54"/>
+      <c r="B87" s="68"/>
+      <c r="C87" s="48"/>
+      <c r="D87" s="45"/>
+      <c r="E87" s="46"/>
       <c r="F87" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G87" s="41"/>
+      <c r="G87" s="27"/>
       <c r="H87" s="9"/>
       <c r="I87" s="9"/>
-      <c r="J87" s="60"/>
-      <c r="K87" s="62">
+      <c r="J87" s="34"/>
+      <c r="K87" s="36">
         <v>1</v>
       </c>
       <c r="L87" s="10"/>
       <c r="M87" s="9"/>
     </row>
     <row r="88" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A88" s="15"/>
-      <c r="B88" s="37"/>
-      <c r="C88" s="52"/>
-      <c r="D88" s="51"/>
+      <c r="A88" s="54"/>
+      <c r="B88" s="68"/>
+      <c r="C88" s="48"/>
+      <c r="D88" s="45"/>
       <c r="E88" s="9" t="s">
         <v>17</v>
       </c>
       <c r="F88" s="9"/>
-      <c r="G88" s="41"/>
+      <c r="G88" s="27"/>
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
-      <c r="J88" s="60"/>
-      <c r="K88" s="62">
+      <c r="J88" s="34"/>
+      <c r="K88" s="36">
         <v>1</v>
       </c>
       <c r="L88" s="10"/>
       <c r="M88" s="9"/>
     </row>
     <row r="89" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A89" s="15"/>
-      <c r="B89" s="37"/>
-      <c r="C89" s="52"/>
-      <c r="D89" s="51"/>
+      <c r="A89" s="54"/>
+      <c r="B89" s="68"/>
+      <c r="C89" s="48"/>
+      <c r="D89" s="45"/>
       <c r="E89" s="9" t="s">
         <v>121</v>
       </c>
       <c r="F89" s="9"/>
-      <c r="G89" s="41"/>
+      <c r="G89" s="27"/>
       <c r="H89" s="9"/>
       <c r="I89" s="9"/>
-      <c r="J89" s="60"/>
-      <c r="K89" s="62">
+      <c r="J89" s="34"/>
+      <c r="K89" s="36">
         <v>1</v>
       </c>
       <c r="L89" s="10"/>
       <c r="M89" s="9"/>
     </row>
     <row r="90" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A90" s="15"/>
-      <c r="B90" s="37"/>
-      <c r="C90" s="52"/>
-      <c r="D90" s="51"/>
+      <c r="A90" s="54"/>
+      <c r="B90" s="68"/>
+      <c r="C90" s="48"/>
+      <c r="D90" s="45"/>
       <c r="E90" s="9" t="s">
         <v>122</v>
       </c>
       <c r="F90" s="9"/>
-      <c r="G90" s="41"/>
+      <c r="G90" s="27"/>
       <c r="H90" s="9"/>
       <c r="I90" s="9"/>
-      <c r="J90" s="60"/>
-      <c r="K90" s="62">
+      <c r="J90" s="34"/>
+      <c r="K90" s="36">
         <v>1</v>
       </c>
       <c r="L90" s="10"/>
       <c r="M90" s="9"/>
     </row>
     <row r="91" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A91" s="15"/>
-      <c r="B91" s="37"/>
-      <c r="C91" s="52"/>
-      <c r="D91" s="51"/>
-      <c r="E91" s="25" t="s">
+      <c r="A91" s="54"/>
+      <c r="B91" s="68"/>
+      <c r="C91" s="48"/>
+      <c r="D91" s="45"/>
+      <c r="E91" s="16" t="s">
         <v>135</v>
       </c>
       <c r="F91" s="9"/>
-      <c r="G91" s="41"/>
+      <c r="G91" s="27"/>
       <c r="H91" s="9"/>
       <c r="I91" s="9"/>
-      <c r="J91" s="60"/>
-      <c r="K91" s="62">
+      <c r="J91" s="34"/>
+      <c r="K91" s="36">
         <v>1</v>
       </c>
       <c r="L91" s="10"/>
       <c r="M91" s="9"/>
     </row>
     <row r="92" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A92" s="15"/>
-      <c r="B92" s="37"/>
-      <c r="C92" s="52"/>
-      <c r="D92" s="51"/>
-      <c r="E92" s="23" t="s">
+      <c r="A92" s="54"/>
+      <c r="B92" s="68"/>
+      <c r="C92" s="48"/>
+      <c r="D92" s="45"/>
+      <c r="E92" s="44" t="s">
         <v>74</v>
       </c>
       <c r="F92" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G92" s="41"/>
+      <c r="G92" s="27"/>
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>
-      <c r="J92" s="60"/>
-      <c r="K92" s="62">
+      <c r="J92" s="34"/>
+      <c r="K92" s="36">
         <v>1</v>
       </c>
       <c r="L92" s="10"/>
       <c r="M92" s="9"/>
     </row>
     <row r="93" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A93" s="15"/>
-      <c r="B93" s="37"/>
-      <c r="C93" s="52"/>
-      <c r="D93" s="51"/>
-      <c r="E93" s="51"/>
+      <c r="A93" s="54"/>
+      <c r="B93" s="68"/>
+      <c r="C93" s="48"/>
+      <c r="D93" s="45"/>
+      <c r="E93" s="45"/>
       <c r="F93" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="G93" s="41"/>
+      <c r="G93" s="27"/>
       <c r="H93" s="9"/>
       <c r="I93" s="9"/>
-      <c r="J93" s="60"/>
-      <c r="K93" s="62">
+      <c r="J93" s="34"/>
+      <c r="K93" s="36">
         <v>1</v>
       </c>
       <c r="L93" s="10"/>
       <c r="M93" s="9"/>
     </row>
     <row r="94" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A94" s="15"/>
-      <c r="B94" s="37"/>
-      <c r="C94" s="52"/>
-      <c r="D94" s="51"/>
-      <c r="E94" s="24"/>
+      <c r="A94" s="54"/>
+      <c r="B94" s="68"/>
+      <c r="C94" s="48"/>
+      <c r="D94" s="45"/>
+      <c r="E94" s="46"/>
       <c r="F94" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="G94" s="41"/>
+      <c r="G94" s="27"/>
       <c r="H94" s="9"/>
       <c r="I94" s="9"/>
-      <c r="J94" s="60"/>
-      <c r="K94" s="62">
+      <c r="J94" s="34"/>
+      <c r="K94" s="36">
         <v>1</v>
       </c>
       <c r="L94" s="10"/>
       <c r="M94" s="9"/>
     </row>
     <row r="95" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A95" s="15"/>
-      <c r="B95" s="37"/>
-      <c r="C95" s="52"/>
-      <c r="D95" s="47" t="s">
+      <c r="A95" s="54"/>
+      <c r="B95" s="68"/>
+      <c r="C95" s="48"/>
+      <c r="D95" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E95" s="9" t="s">
         <v>73</v>
       </c>
       <c r="F95" s="9"/>
-      <c r="G95" s="41"/>
+      <c r="G95" s="27"/>
       <c r="H95" s="9"/>
       <c r="I95" s="9"/>
-      <c r="J95" s="60"/>
-      <c r="K95" s="62">
+      <c r="J95" s="34"/>
+      <c r="K95" s="36">
         <v>1</v>
       </c>
       <c r="L95" s="10"/>
       <c r="M95" s="9"/>
     </row>
     <row r="96" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A96" s="15"/>
-      <c r="B96" s="37"/>
-      <c r="C96" s="52"/>
-      <c r="D96" s="47"/>
+      <c r="A96" s="54"/>
+      <c r="B96" s="68"/>
+      <c r="C96" s="48"/>
+      <c r="D96" s="49"/>
       <c r="E96" s="9" t="s">
         <v>59</v>
       </c>
       <c r="F96" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="G96" s="27"/>
+      <c r="G96" s="18"/>
       <c r="H96" s="9"/>
       <c r="I96" s="9"/>
-      <c r="J96" s="60"/>
-      <c r="K96" s="62">
+      <c r="J96" s="34"/>
+      <c r="K96" s="36">
         <v>1</v>
       </c>
       <c r="L96" s="10"/>
@@ -3913,10 +3717,10 @@
       </c>
     </row>
     <row r="97" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A97" s="15"/>
-      <c r="B97" s="37"/>
-      <c r="C97" s="52"/>
-      <c r="D97" s="23" t="s">
+      <c r="A97" s="54"/>
+      <c r="B97" s="68"/>
+      <c r="C97" s="48"/>
+      <c r="D97" s="44" t="s">
         <v>136</v>
       </c>
       <c r="E97" s="9" t="s">
@@ -3925,11 +3729,11 @@
       <c r="F97" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="G97" s="27"/>
+      <c r="G97" s="18"/>
       <c r="H97" s="9"/>
       <c r="I97" s="9"/>
-      <c r="J97" s="60"/>
-      <c r="K97" s="62">
+      <c r="J97" s="34"/>
+      <c r="K97" s="36">
         <v>1</v>
       </c>
       <c r="L97" s="10"/>
@@ -3939,93 +3743,93 @@
       </c>
     </row>
     <row r="98" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A98" s="15"/>
-      <c r="B98" s="37"/>
-      <c r="C98" s="52"/>
-      <c r="D98" s="51"/>
-      <c r="E98" s="23" t="s">
+      <c r="A98" s="54"/>
+      <c r="B98" s="68"/>
+      <c r="C98" s="48"/>
+      <c r="D98" s="45"/>
+      <c r="E98" s="44" t="s">
         <v>39</v>
       </c>
       <c r="F98" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G98" s="27"/>
+      <c r="G98" s="18"/>
       <c r="H98" s="9"/>
       <c r="I98" s="9"/>
-      <c r="J98" s="60"/>
-      <c r="K98" s="62">
+      <c r="J98" s="34"/>
+      <c r="K98" s="36">
         <v>1</v>
       </c>
       <c r="L98" s="10"/>
       <c r="M98" s="9"/>
     </row>
     <row r="99" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A99" s="15"/>
-      <c r="B99" s="37"/>
-      <c r="C99" s="52"/>
-      <c r="D99" s="51"/>
-      <c r="E99" s="24"/>
+      <c r="A99" s="54"/>
+      <c r="B99" s="68"/>
+      <c r="C99" s="48"/>
+      <c r="D99" s="45"/>
+      <c r="E99" s="46"/>
       <c r="F99" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G99" s="27"/>
+      <c r="G99" s="18"/>
       <c r="H99" s="9"/>
       <c r="I99" s="9"/>
-      <c r="J99" s="60"/>
-      <c r="K99" s="62">
+      <c r="J99" s="34"/>
+      <c r="K99" s="36">
         <v>1</v>
       </c>
       <c r="L99" s="10"/>
       <c r="M99" s="9"/>
     </row>
     <row r="100" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A100" s="15"/>
-      <c r="B100" s="37"/>
-      <c r="C100" s="52"/>
-      <c r="D100" s="24"/>
+      <c r="A100" s="54"/>
+      <c r="B100" s="68"/>
+      <c r="C100" s="48"/>
+      <c r="D100" s="46"/>
       <c r="E100" s="9" t="s">
         <v>17</v>
       </c>
       <c r="F100" s="9"/>
-      <c r="G100" s="27"/>
+      <c r="G100" s="18"/>
       <c r="H100" s="9"/>
       <c r="I100" s="9"/>
-      <c r="J100" s="60"/>
-      <c r="K100" s="62">
+      <c r="J100" s="34"/>
+      <c r="K100" s="36">
         <v>1</v>
       </c>
       <c r="L100" s="10"/>
       <c r="M100" s="9"/>
     </row>
     <row r="101" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="F101" s="69" t="s">
+      <c r="F101" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="G101" s="68">
+      <c r="G101" s="42">
         <f>SUM(G57:G100)</f>
         <v>6</v>
       </c>
-      <c r="J101" s="60"/>
-      <c r="K101" s="62"/>
+      <c r="J101" s="34"/>
+      <c r="K101" s="36"/>
     </row>
     <row r="102" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A102" s="17" t="s">
+      <c r="A102" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="B102" s="27" t="s">
+      <c r="B102" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
       <c r="E102" s="9"/>
       <c r="F102" s="9"/>
-      <c r="G102" s="27">
+      <c r="G102" s="23">
         <v>2</v>
       </c>
       <c r="H102" s="9"/>
       <c r="I102" s="9"/>
-      <c r="J102" s="60"/>
-      <c r="K102" s="62">
+      <c r="J102" s="34"/>
+      <c r="K102" s="36">
         <v>1</v>
       </c>
       <c r="L102" s="10"/>
@@ -4034,21 +3838,21 @@
       </c>
     </row>
     <row r="103" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A103" s="17"/>
-      <c r="B103" s="27" t="s">
+      <c r="A103" s="50"/>
+      <c r="B103" s="18" t="s">
         <v>23</v>
       </c>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
       <c r="F103" s="9"/>
-      <c r="G103" s="27">
+      <c r="G103" s="23">
         <v>2</v>
       </c>
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
-      <c r="J103" s="60"/>
-      <c r="K103" s="62">
+      <c r="J103" s="34"/>
+      <c r="K103" s="36">
         <v>1</v>
       </c>
       <c r="L103" s="10"/>
@@ -4057,21 +3861,21 @@
       </c>
     </row>
     <row r="104" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A104" s="17"/>
-      <c r="B104" s="27" t="s">
+      <c r="A104" s="50"/>
+      <c r="B104" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
       <c r="E104" s="9"/>
       <c r="F104" s="9"/>
-      <c r="G104" s="27">
+      <c r="G104" s="23">
         <v>2</v>
       </c>
       <c r="H104" s="9"/>
       <c r="I104" s="9"/>
-      <c r="J104" s="60"/>
-      <c r="K104" s="62">
+      <c r="J104" s="34"/>
+      <c r="K104" s="36">
         <v>1</v>
       </c>
       <c r="L104" s="10"/>
@@ -4080,11 +3884,11 @@
       </c>
     </row>
     <row r="105" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="17"/>
-      <c r="B105" s="50" t="s">
+      <c r="A105" s="50"/>
+      <c r="B105" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="C105" s="23" t="s">
+      <c r="C105" s="44" t="s">
         <v>44</v>
       </c>
       <c r="D105" s="9" t="s">
@@ -4094,11 +3898,13 @@
         <v>44</v>
       </c>
       <c r="F105" s="9"/>
-      <c r="G105" s="27"/>
+      <c r="G105" s="23">
+        <v>1</v>
+      </c>
       <c r="H105" s="9"/>
       <c r="I105" s="9"/>
-      <c r="J105" s="60"/>
-      <c r="K105" s="62">
+      <c r="J105" s="34"/>
+      <c r="K105" s="36">
         <v>1</v>
       </c>
       <c r="L105" s="10"/>
@@ -4107,21 +3913,23 @@
       </c>
     </row>
     <row r="106" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A106" s="17"/>
-      <c r="B106" s="37"/>
-      <c r="C106" s="51"/>
-      <c r="D106" s="28" t="s">
+      <c r="A106" s="50"/>
+      <c r="B106" s="68"/>
+      <c r="C106" s="45"/>
+      <c r="D106" s="64" t="s">
         <v>52</v>
       </c>
       <c r="E106" s="9" t="s">
         <v>53</v>
       </c>
       <c r="F106" s="9"/>
-      <c r="G106" s="27"/>
+      <c r="G106" s="23">
+        <v>1</v>
+      </c>
       <c r="H106" s="9"/>
       <c r="I106" s="9"/>
-      <c r="J106" s="60"/>
-      <c r="K106" s="62">
+      <c r="J106" s="34"/>
+      <c r="K106" s="36">
         <v>1</v>
       </c>
       <c r="L106" s="10"/>
@@ -4130,19 +3938,21 @@
       </c>
     </row>
     <row r="107" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A107" s="17"/>
-      <c r="B107" s="37"/>
-      <c r="C107" s="24"/>
-      <c r="D107" s="29"/>
+      <c r="A107" s="50"/>
+      <c r="B107" s="68"/>
+      <c r="C107" s="46"/>
+      <c r="D107" s="65"/>
       <c r="E107" s="9" t="s">
         <v>54</v>
       </c>
       <c r="F107" s="9"/>
-      <c r="G107" s="27"/>
+      <c r="G107" s="23">
+        <v>1</v>
+      </c>
       <c r="H107" s="9"/>
       <c r="I107" s="9"/>
-      <c r="J107" s="60"/>
-      <c r="K107" s="62">
+      <c r="J107" s="34"/>
+      <c r="K107" s="36">
         <v>1</v>
       </c>
       <c r="L107" s="10"/>
@@ -4151,9 +3961,9 @@
       </c>
     </row>
     <row r="108" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A108" s="17"/>
-      <c r="B108" s="37"/>
-      <c r="C108" s="23" t="s">
+      <c r="A108" s="50"/>
+      <c r="B108" s="68"/>
+      <c r="C108" s="44" t="s">
         <v>56</v>
       </c>
       <c r="D108" s="9" t="s">
@@ -4163,11 +3973,13 @@
         <v>57</v>
       </c>
       <c r="F108" s="9"/>
-      <c r="G108" s="27"/>
+      <c r="G108" s="23">
+        <v>1</v>
+      </c>
       <c r="H108" s="9"/>
       <c r="I108" s="9"/>
-      <c r="J108" s="60"/>
-      <c r="K108" s="62">
+      <c r="J108" s="34"/>
+      <c r="K108" s="36">
         <v>1</v>
       </c>
       <c r="L108" s="10"/>
@@ -4176,21 +3988,23 @@
       </c>
     </row>
     <row r="109" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A109" s="17"/>
-      <c r="B109" s="37"/>
-      <c r="C109" s="51"/>
-      <c r="D109" s="28" t="s">
+      <c r="A109" s="50"/>
+      <c r="B109" s="68"/>
+      <c r="C109" s="45"/>
+      <c r="D109" s="64" t="s">
         <v>52</v>
       </c>
       <c r="E109" s="9" t="s">
         <v>53</v>
       </c>
       <c r="F109" s="9"/>
-      <c r="G109" s="27"/>
+      <c r="G109" s="23">
+        <v>1</v>
+      </c>
       <c r="H109" s="9"/>
       <c r="I109" s="9"/>
-      <c r="J109" s="60"/>
-      <c r="K109" s="62">
+      <c r="J109" s="34"/>
+      <c r="K109" s="36">
         <v>1</v>
       </c>
       <c r="L109" s="10"/>
@@ -4199,19 +4013,21 @@
       </c>
     </row>
     <row r="110" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A110" s="17"/>
-      <c r="B110" s="37"/>
-      <c r="C110" s="51"/>
-      <c r="D110" s="30"/>
+      <c r="A110" s="50"/>
+      <c r="B110" s="68"/>
+      <c r="C110" s="45"/>
+      <c r="D110" s="66"/>
       <c r="E110" s="9" t="s">
         <v>54</v>
       </c>
       <c r="F110" s="9"/>
-      <c r="G110" s="27"/>
+      <c r="G110" s="23">
+        <v>1</v>
+      </c>
       <c r="H110" s="9"/>
       <c r="I110" s="9"/>
-      <c r="J110" s="60"/>
-      <c r="K110" s="62">
+      <c r="J110" s="34"/>
+      <c r="K110" s="36">
         <v>1</v>
       </c>
       <c r="L110" s="10"/>
@@ -4220,19 +4036,21 @@
       </c>
     </row>
     <row r="111" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A111" s="17"/>
-      <c r="B111" s="37"/>
-      <c r="C111" s="24"/>
-      <c r="D111" s="29"/>
+      <c r="A111" s="50"/>
+      <c r="B111" s="68"/>
+      <c r="C111" s="46"/>
+      <c r="D111" s="65"/>
       <c r="E111" s="9" t="s">
         <v>58</v>
       </c>
       <c r="F111" s="9"/>
-      <c r="G111" s="27"/>
+      <c r="G111" s="23">
+        <v>1</v>
+      </c>
       <c r="H111" s="9"/>
       <c r="I111" s="9"/>
-      <c r="J111" s="60"/>
-      <c r="K111" s="62">
+      <c r="J111" s="34"/>
+      <c r="K111" s="36">
         <v>1</v>
       </c>
       <c r="L111" s="10"/>
@@ -4241,9 +4059,9 @@
       </c>
     </row>
     <row r="112" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A112" s="17"/>
-      <c r="B112" s="37"/>
-      <c r="C112" s="52" t="s">
+      <c r="A112" s="50"/>
+      <c r="B112" s="68"/>
+      <c r="C112" s="48" t="s">
         <v>83</v>
       </c>
       <c r="D112" s="9" t="s">
@@ -4251,11 +4069,13 @@
       </c>
       <c r="E112" s="9"/>
       <c r="F112" s="9"/>
-      <c r="G112" s="27"/>
+      <c r="G112" s="23">
+        <v>1</v>
+      </c>
       <c r="H112" s="9"/>
       <c r="I112" s="9"/>
-      <c r="J112" s="60"/>
-      <c r="K112" s="62">
+      <c r="J112" s="34"/>
+      <c r="K112" s="36">
         <v>1</v>
       </c>
       <c r="L112" s="10"/>
@@ -4264,19 +4084,21 @@
       </c>
     </row>
     <row r="113" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A113" s="17"/>
-      <c r="B113" s="37"/>
-      <c r="C113" s="47"/>
+      <c r="A113" s="50"/>
+      <c r="B113" s="68"/>
+      <c r="C113" s="49"/>
       <c r="D113" s="9" t="s">
         <v>75</v>
       </c>
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
-      <c r="G113" s="27"/>
+      <c r="G113" s="23">
+        <v>1</v>
+      </c>
       <c r="H113" s="9"/>
       <c r="I113" s="9"/>
-      <c r="J113" s="60"/>
-      <c r="K113" s="62">
+      <c r="J113" s="34"/>
+      <c r="K113" s="36">
         <v>1</v>
       </c>
       <c r="L113" s="10"/>
@@ -4285,19 +4107,21 @@
       </c>
     </row>
     <row r="114" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A114" s="17"/>
-      <c r="B114" s="37"/>
+      <c r="A114" s="50"/>
+      <c r="B114" s="68"/>
       <c r="C114" s="9" t="s">
         <v>104</v>
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
-      <c r="G114" s="27"/>
+      <c r="G114" s="23">
+        <v>0.5</v>
+      </c>
       <c r="H114" s="9"/>
       <c r="I114" s="9"/>
-      <c r="J114" s="60"/>
-      <c r="K114" s="62">
+      <c r="J114" s="34"/>
+      <c r="K114" s="36">
         <v>1</v>
       </c>
       <c r="L114" s="10"/>
@@ -4306,25 +4130,27 @@
       </c>
     </row>
     <row r="115" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A115" s="17"/>
-      <c r="B115" s="50" t="s">
+      <c r="A115" s="50"/>
+      <c r="B115" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="C115" s="23" t="s">
+      <c r="C115" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="D115" s="33" t="s">
+      <c r="D115" s="21" t="s">
         <v>6</v>
       </c>
       <c r="E115" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F115" s="9"/>
-      <c r="G115" s="27"/>
+      <c r="G115" s="23">
+        <v>1</v>
+      </c>
       <c r="H115" s="9"/>
       <c r="I115" s="9"/>
-      <c r="J115" s="60"/>
-      <c r="K115" s="62">
+      <c r="J115" s="34"/>
+      <c r="K115" s="36">
         <v>1</v>
       </c>
       <c r="L115" s="10"/>
@@ -4333,21 +4159,23 @@
       </c>
     </row>
     <row r="116" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A116" s="17"/>
-      <c r="B116" s="50"/>
-      <c r="C116" s="51"/>
-      <c r="D116" s="34" t="s">
+      <c r="A116" s="50"/>
+      <c r="B116" s="67"/>
+      <c r="C116" s="45"/>
+      <c r="D116" s="69" t="s">
         <v>39</v>
       </c>
       <c r="E116" s="9" t="s">
         <v>7</v>
       </c>
       <c r="F116" s="9"/>
-      <c r="G116" s="27"/>
+      <c r="G116" s="23">
+        <v>0.5</v>
+      </c>
       <c r="H116" s="9"/>
       <c r="I116" s="9"/>
-      <c r="J116" s="60"/>
-      <c r="K116" s="62">
+      <c r="J116" s="34"/>
+      <c r="K116" s="36">
         <v>1</v>
       </c>
       <c r="L116" s="10"/>
@@ -4356,19 +4184,21 @@
       </c>
     </row>
     <row r="117" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A117" s="17"/>
-      <c r="B117" s="50"/>
-      <c r="C117" s="51"/>
-      <c r="D117" s="35"/>
+      <c r="A117" s="50"/>
+      <c r="B117" s="67"/>
+      <c r="C117" s="45"/>
+      <c r="D117" s="70"/>
       <c r="E117" s="9" t="s">
         <v>16</v>
       </c>
       <c r="F117" s="9"/>
-      <c r="G117" s="27"/>
+      <c r="G117" s="23">
+        <v>0.5</v>
+      </c>
       <c r="H117" s="9"/>
       <c r="I117" s="9"/>
-      <c r="J117" s="60"/>
-      <c r="K117" s="62">
+      <c r="J117" s="34"/>
+      <c r="K117" s="36">
         <v>1</v>
       </c>
       <c r="L117" s="10"/>
@@ -4377,19 +4207,21 @@
       </c>
     </row>
     <row r="118" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A118" s="17"/>
-      <c r="B118" s="50"/>
-      <c r="C118" s="51"/>
-      <c r="D118" s="33" t="s">
+      <c r="A118" s="50"/>
+      <c r="B118" s="67"/>
+      <c r="C118" s="45"/>
+      <c r="D118" s="21" t="s">
         <v>17</v>
       </c>
       <c r="E118" s="9"/>
       <c r="F118" s="9"/>
-      <c r="G118" s="27"/>
+      <c r="G118" s="23">
+        <v>0.5</v>
+      </c>
       <c r="H118" s="9"/>
       <c r="I118" s="9"/>
-      <c r="J118" s="60"/>
-      <c r="K118" s="62">
+      <c r="J118" s="34"/>
+      <c r="K118" s="36">
         <v>1</v>
       </c>
       <c r="L118" s="10"/>
@@ -4398,19 +4230,21 @@
       </c>
     </row>
     <row r="119" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A119" s="17"/>
-      <c r="B119" s="50"/>
-      <c r="C119" s="51"/>
-      <c r="D119" s="33" t="s">
+      <c r="A119" s="50"/>
+      <c r="B119" s="67"/>
+      <c r="C119" s="45"/>
+      <c r="D119" s="21" t="s">
         <v>35</v>
       </c>
       <c r="E119" s="9"/>
       <c r="F119" s="9"/>
-      <c r="G119" s="27"/>
+      <c r="G119" s="23">
+        <v>0.5</v>
+      </c>
       <c r="H119" s="9"/>
       <c r="I119" s="9"/>
-      <c r="J119" s="60"/>
-      <c r="K119" s="62">
+      <c r="J119" s="34"/>
+      <c r="K119" s="36">
         <v>1</v>
       </c>
       <c r="L119" s="10"/>
@@ -4419,19 +4253,21 @@
       </c>
     </row>
     <row r="120" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A120" s="17"/>
-      <c r="B120" s="50"/>
-      <c r="C120" s="51"/>
-      <c r="D120" s="33" t="s">
+      <c r="A120" s="50"/>
+      <c r="B120" s="67"/>
+      <c r="C120" s="45"/>
+      <c r="D120" s="21" t="s">
         <v>34</v>
       </c>
       <c r="E120" s="9"/>
       <c r="F120" s="9"/>
-      <c r="G120" s="27"/>
+      <c r="G120" s="23">
+        <v>2</v>
+      </c>
       <c r="H120" s="9"/>
       <c r="I120" s="9"/>
-      <c r="J120" s="60"/>
-      <c r="K120" s="62">
+      <c r="J120" s="34"/>
+      <c r="K120" s="36">
         <v>1</v>
       </c>
       <c r="L120" s="10"/>
@@ -4440,19 +4276,21 @@
       </c>
     </row>
     <row r="121" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A121" s="17"/>
-      <c r="B121" s="50"/>
-      <c r="C121" s="24"/>
-      <c r="D121" s="33" t="s">
+      <c r="A121" s="50"/>
+      <c r="B121" s="67"/>
+      <c r="C121" s="46"/>
+      <c r="D121" s="21" t="s">
         <v>36</v>
       </c>
       <c r="E121" s="9"/>
       <c r="F121" s="9"/>
-      <c r="G121" s="27"/>
+      <c r="G121" s="23">
+        <v>1</v>
+      </c>
       <c r="H121" s="9"/>
       <c r="I121" s="9"/>
-      <c r="J121" s="60"/>
-      <c r="K121" s="62">
+      <c r="J121" s="34"/>
+      <c r="K121" s="36">
         <v>1</v>
       </c>
       <c r="L121" s="10"/>
@@ -4461,23 +4299,25 @@
       </c>
     </row>
     <row r="122" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A122" s="17"/>
-      <c r="B122" s="37"/>
-      <c r="C122" s="23" t="s">
+      <c r="A122" s="50"/>
+      <c r="B122" s="68"/>
+      <c r="C122" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="D122" s="33" t="s">
+      <c r="D122" s="21" t="s">
         <v>6</v>
       </c>
       <c r="E122" s="9" t="s">
         <v>105</v>
       </c>
       <c r="F122" s="9"/>
-      <c r="G122" s="27"/>
+      <c r="G122" s="23">
+        <v>1</v>
+      </c>
       <c r="H122" s="9"/>
       <c r="I122" s="9"/>
-      <c r="J122" s="60"/>
-      <c r="K122" s="62">
+      <c r="J122" s="34"/>
+      <c r="K122" s="36">
         <v>1</v>
       </c>
       <c r="L122" s="10"/>
@@ -4486,21 +4326,23 @@
       </c>
     </row>
     <row r="123" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A123" s="17"/>
-      <c r="B123" s="37"/>
-      <c r="C123" s="51"/>
-      <c r="D123" s="34" t="s">
+      <c r="A123" s="50"/>
+      <c r="B123" s="68"/>
+      <c r="C123" s="45"/>
+      <c r="D123" s="69" t="s">
         <v>39</v>
       </c>
       <c r="E123" s="9" t="s">
         <v>7</v>
       </c>
       <c r="F123" s="9"/>
-      <c r="G123" s="27"/>
+      <c r="G123" s="23">
+        <v>0.5</v>
+      </c>
       <c r="H123" s="9"/>
       <c r="I123" s="9"/>
-      <c r="J123" s="60"/>
-      <c r="K123" s="62">
+      <c r="J123" s="34"/>
+      <c r="K123" s="36">
         <v>1</v>
       </c>
       <c r="L123" s="10"/>
@@ -4509,19 +4351,21 @@
       </c>
     </row>
     <row r="124" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A124" s="17"/>
-      <c r="B124" s="37"/>
-      <c r="C124" s="51"/>
-      <c r="D124" s="35"/>
+      <c r="A124" s="50"/>
+      <c r="B124" s="68"/>
+      <c r="C124" s="45"/>
+      <c r="D124" s="70"/>
       <c r="E124" s="9" t="s">
         <v>16</v>
       </c>
       <c r="F124" s="9"/>
-      <c r="G124" s="27"/>
+      <c r="G124" s="23">
+        <v>0.5</v>
+      </c>
       <c r="H124" s="9"/>
       <c r="I124" s="9"/>
-      <c r="J124" s="60"/>
-      <c r="K124" s="62">
+      <c r="J124" s="34"/>
+      <c r="K124" s="36">
         <v>1</v>
       </c>
       <c r="L124" s="10"/>
@@ -4530,19 +4374,21 @@
       </c>
     </row>
     <row r="125" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A125" s="17"/>
-      <c r="B125" s="37"/>
-      <c r="C125" s="24"/>
-      <c r="D125" s="33" t="s">
+      <c r="A125" s="50"/>
+      <c r="B125" s="68"/>
+      <c r="C125" s="46"/>
+      <c r="D125" s="21" t="s">
         <v>17</v>
       </c>
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
-      <c r="G125" s="27"/>
+      <c r="G125" s="23">
+        <v>0.5</v>
+      </c>
       <c r="H125" s="9"/>
       <c r="I125" s="9"/>
-      <c r="J125" s="60"/>
-      <c r="K125" s="62">
+      <c r="J125" s="34"/>
+      <c r="K125" s="36">
         <v>1</v>
       </c>
       <c r="L125" s="10"/>
@@ -4551,104 +4397,104 @@
       </c>
     </row>
     <row r="126" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A126" s="17"/>
-      <c r="B126" s="37"/>
-      <c r="C126" s="64" t="s">
+      <c r="A126" s="50"/>
+      <c r="B126" s="68"/>
+      <c r="C126" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="D126" s="65"/>
-      <c r="E126" s="64"/>
-      <c r="F126" s="64"/>
-      <c r="G126" s="66">
+      <c r="D126" s="39"/>
+      <c r="E126" s="38"/>
+      <c r="F126" s="38"/>
+      <c r="G126" s="40">
         <v>0</v>
       </c>
-      <c r="H126" s="64"/>
-      <c r="I126" s="64"/>
-      <c r="J126" s="67"/>
-      <c r="K126" s="62">
+      <c r="H126" s="38"/>
+      <c r="I126" s="38"/>
+      <c r="J126" s="41"/>
+      <c r="K126" s="36">
         <v>2</v>
       </c>
       <c r="L126" s="10"/>
       <c r="M126" s="9"/>
     </row>
     <row r="127" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A127" s="17"/>
-      <c r="B127" s="37"/>
-      <c r="C127" s="64" t="s">
+      <c r="A127" s="50"/>
+      <c r="B127" s="68"/>
+      <c r="C127" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="D127" s="65"/>
-      <c r="E127" s="64"/>
-      <c r="F127" s="64"/>
-      <c r="G127" s="66">
+      <c r="D127" s="39"/>
+      <c r="E127" s="38"/>
+      <c r="F127" s="38"/>
+      <c r="G127" s="40">
         <v>0</v>
       </c>
-      <c r="H127" s="64"/>
-      <c r="I127" s="64"/>
-      <c r="J127" s="67"/>
-      <c r="K127" s="62">
+      <c r="H127" s="38"/>
+      <c r="I127" s="38"/>
+      <c r="J127" s="41"/>
+      <c r="K127" s="36">
         <v>2</v>
       </c>
       <c r="L127" s="10"/>
       <c r="M127" s="9"/>
     </row>
     <row r="128" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A128" s="17"/>
-      <c r="B128" s="37"/>
-      <c r="C128" s="64" t="s">
+      <c r="A128" s="50"/>
+      <c r="B128" s="68"/>
+      <c r="C128" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="D128" s="64"/>
-      <c r="E128" s="64"/>
-      <c r="F128" s="64"/>
-      <c r="G128" s="66">
+      <c r="D128" s="38"/>
+      <c r="E128" s="38"/>
+      <c r="F128" s="38"/>
+      <c r="G128" s="40">
         <v>0</v>
       </c>
-      <c r="H128" s="64"/>
-      <c r="I128" s="64"/>
-      <c r="J128" s="67"/>
-      <c r="K128" s="62">
+      <c r="H128" s="38"/>
+      <c r="I128" s="38"/>
+      <c r="J128" s="41"/>
+      <c r="K128" s="36">
         <v>2</v>
       </c>
       <c r="L128" s="10"/>
       <c r="M128" s="9"/>
     </row>
     <row r="129" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A129" s="17"/>
-      <c r="B129" s="37"/>
-      <c r="C129" s="64" t="s">
+      <c r="A129" s="50"/>
+      <c r="B129" s="68"/>
+      <c r="C129" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="D129" s="64"/>
-      <c r="E129" s="64"/>
-      <c r="F129" s="64"/>
-      <c r="G129" s="66">
+      <c r="D129" s="38"/>
+      <c r="E129" s="38"/>
+      <c r="F129" s="38"/>
+      <c r="G129" s="40">
         <v>0</v>
       </c>
-      <c r="H129" s="64"/>
-      <c r="I129" s="64"/>
-      <c r="J129" s="67"/>
-      <c r="K129" s="62">
+      <c r="H129" s="38"/>
+      <c r="I129" s="38"/>
+      <c r="J129" s="41"/>
+      <c r="K129" s="36">
         <v>2</v>
       </c>
       <c r="L129" s="10"/>
       <c r="M129" s="9"/>
     </row>
     <row r="130" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F130" s="69" t="s">
+      <c r="F130" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="G130" s="68">
+      <c r="G130" s="42">
         <f>SUM(G102:G129)</f>
-        <v>6</v>
-      </c>
-      <c r="J130" s="61"/>
-      <c r="K130" s="63"/>
+        <v>24</v>
+      </c>
+      <c r="J130" s="35"/>
+      <c r="K130" s="37"/>
     </row>
     <row r="131" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="G131" s="42"/>
-      <c r="J131" s="61"/>
-      <c r="K131" s="63"/>
+      <c r="G131" s="28"/>
+      <c r="J131" s="35"/>
+      <c r="K131" s="37"/>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B132" s="5"/>
@@ -4658,44 +4504,6 @@
     <protectedRange sqref="L2:L55 L102:L129 L57:L100" name="区域3"/>
   </protectedRanges>
   <mergeCells count="49">
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="N60:N64"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="C85:C100"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="D97:D100"/>
-    <mergeCell ref="D85:D94"/>
-    <mergeCell ref="A8:A55"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="B60:B80"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B25:B33"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B47"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="C76:C80"/>
-    <mergeCell ref="C81:C84"/>
-    <mergeCell ref="C108:C111"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="D106:D107"/>
     <mergeCell ref="D109:D111"/>
     <mergeCell ref="B115:B129"/>
     <mergeCell ref="A102:A129"/>
@@ -4707,82 +4515,120 @@
     <mergeCell ref="D116:D117"/>
     <mergeCell ref="C115:C121"/>
     <mergeCell ref="D123:D124"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="A8:A55"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="B60:B80"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B25:B33"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="N60:N64"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="C85:C100"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="D97:D100"/>
+    <mergeCell ref="D85:D94"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="C76:C80"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="C108:C111"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="D106:D107"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="L42:L53 L25:L37 L2:L14 L102:L129 L66:L100">
-    <cfRule type="cellIs" dxfId="29" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="69" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="70" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="70" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="71" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="22" priority="71" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19:L24">
-    <cfRule type="cellIs" dxfId="26" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="39" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="40" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="41" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="41" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="duplicateValues" dxfId="23" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L38:L41">
-    <cfRule type="cellIs" dxfId="22" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="35" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="36" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="37" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="37" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15:L18">
-    <cfRule type="cellIs" dxfId="19" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="32" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="33" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="34" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="34" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L54:L55">
-    <cfRule type="cellIs" dxfId="16" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="29" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="30" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="31" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="31" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="duplicateValues" dxfId="13" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L57:L65">
-    <cfRule type="cellIs" dxfId="12" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="25" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="26" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="27" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="27" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
@@ -4830,19 +4676,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K129">
-    <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="9" stopIfTrue="1" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="10" stopIfTrue="1" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="11" stopIfTrue="1" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="12" stopIfTrue="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="13" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/开发计划V0.1.xlsx
+++ b/doc/开发计划V0.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hsd\hsd-servers\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp02\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="142">
   <si>
     <t>开始时间</t>
   </si>
@@ -560,6 +560,14 @@
   </si>
   <si>
     <t>分页,列表,详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张文俊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -792,7 +800,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -858,85 +866,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -964,27 +999,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1235,6 +1249,74 @@
       <tableStyleElement type="headerRow" dxfId="25"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1254,7 +1336,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C8ECCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1536,8 +1618,8 @@
   <dimension ref="A1:N132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I135" sqref="I135"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M91" sqref="M91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1550,8 +1632,8 @@
     <col min="7" max="7" width="4.625" style="6" customWidth="1"/>
     <col min="8" max="8" width="11.75" style="5" customWidth="1"/>
     <col min="9" max="9" width="11.25" style="5" customWidth="1"/>
-    <col min="10" max="10" width="4.25" style="35" customWidth="1"/>
-    <col min="11" max="11" width="3.875" style="37" customWidth="1"/>
+    <col min="10" max="10" width="4.25" style="34" customWidth="1"/>
+    <col min="11" max="11" width="3.875" style="36" customWidth="1"/>
     <col min="12" max="12" width="7.625" style="5" customWidth="1"/>
     <col min="13" max="13" width="8" style="5" customWidth="1"/>
     <col min="14" max="16384" width="9" style="5"/>
@@ -1564,7 +1646,7 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="4" t="s">
@@ -1573,10 +1655,10 @@
       <c r="I1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="29" t="s">
         <v>120</v>
       </c>
       <c r="L1" s="4"/>
@@ -1596,8 +1678,8 @@
       <c r="I2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="34"/>
-      <c r="K2" s="36">
+      <c r="J2" s="33"/>
+      <c r="K2" s="35">
         <v>1</v>
       </c>
       <c r="L2" s="10">
@@ -1606,7 +1688,7 @@
       <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="62" t="s">
         <v>89</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -1619,15 +1701,15 @@
       <c r="G3" s="18"/>
       <c r="H3" s="13"/>
       <c r="I3" s="9"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="36">
+      <c r="J3" s="33"/>
+      <c r="K3" s="35">
         <v>1</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="9"/>
     </row>
     <row r="4" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="54"/>
+      <c r="A4" s="63"/>
       <c r="B4" s="12" t="s">
         <v>92</v>
       </c>
@@ -1638,15 +1720,15 @@
       <c r="G4" s="18"/>
       <c r="H4" s="13"/>
       <c r="I4" s="9"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="36">
+      <c r="J4" s="33"/>
+      <c r="K4" s="35">
         <v>1</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="9"/>
     </row>
     <row r="5" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="54"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="12" t="s">
         <v>90</v>
       </c>
@@ -1657,15 +1739,15 @@
       <c r="G5" s="18"/>
       <c r="H5" s="13"/>
       <c r="I5" s="9"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="36">
+      <c r="J5" s="33"/>
+      <c r="K5" s="35">
         <v>1</v>
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="54"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="12"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1674,15 +1756,15 @@
       <c r="G6" s="18"/>
       <c r="H6" s="13"/>
       <c r="I6" s="9"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="36">
+      <c r="J6" s="33"/>
+      <c r="K6" s="35">
         <v>1</v>
       </c>
       <c r="L6" s="10"/>
       <c r="M6" s="9"/>
     </row>
     <row r="7" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="55"/>
+      <c r="A7" s="64"/>
       <c r="B7" s="12"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1691,15 +1773,15 @@
       <c r="G7" s="18"/>
       <c r="H7" s="13"/>
       <c r="I7" s="9"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="36">
+      <c r="J7" s="33"/>
+      <c r="K7" s="35">
         <v>1</v>
       </c>
       <c r="L7" s="10"/>
       <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="59" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="14" t="s">
@@ -1713,15 +1795,15 @@
         <v>2</v>
       </c>
       <c r="I8" s="9"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="36">
+      <c r="J8" s="33"/>
+      <c r="K8" s="35">
         <v>1</v>
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="9"/>
     </row>
     <row r="9" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="50"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="14" t="s">
         <v>23</v>
       </c>
@@ -1734,15 +1816,15 @@
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="36">
+      <c r="J9" s="33"/>
+      <c r="K9" s="35">
         <v>1</v>
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="9"/>
     </row>
     <row r="10" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="50"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="14" t="s">
         <v>24</v>
       </c>
@@ -1756,8 +1838,8 @@
       <c r="I10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="34"/>
-      <c r="K10" s="36">
+      <c r="J10" s="33"/>
+      <c r="K10" s="35">
         <v>1</v>
       </c>
       <c r="L10" s="10">
@@ -1766,8 +1848,8 @@
       <c r="M10" s="9"/>
     </row>
     <row r="11" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="50"/>
-      <c r="B11" s="56" t="s">
+      <c r="A11" s="59"/>
+      <c r="B11" s="65" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -1785,8 +1867,8 @@
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="36">
+      <c r="J11" s="33"/>
+      <c r="K11" s="35">
         <v>1</v>
       </c>
       <c r="L11" s="10"/>
@@ -1795,8 +1877,8 @@
       </c>
     </row>
     <row r="12" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A12" s="50"/>
-      <c r="B12" s="57"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="66"/>
       <c r="C12" s="9" t="s">
         <v>14</v>
       </c>
@@ -1810,8 +1892,8 @@
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="36">
+      <c r="J12" s="33"/>
+      <c r="K12" s="35">
         <v>1</v>
       </c>
       <c r="L12" s="10"/>
@@ -1820,8 +1902,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="50"/>
-      <c r="B13" s="57"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="66"/>
       <c r="C13" s="9" t="s">
         <v>13</v>
       </c>
@@ -1833,8 +1915,8 @@
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="36">
+      <c r="J13" s="33"/>
+      <c r="K13" s="35">
         <v>1</v>
       </c>
       <c r="L13" s="10"/>
@@ -1843,8 +1925,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="50"/>
-      <c r="B14" s="58"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="67"/>
       <c r="C14" s="9" t="s">
         <v>37</v>
       </c>
@@ -1858,8 +1940,8 @@
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="36">
+      <c r="J14" s="33"/>
+      <c r="K14" s="35">
         <v>1</v>
       </c>
       <c r="L14" s="10"/>
@@ -1868,8 +1950,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="50"/>
-      <c r="B15" s="56" t="s">
+      <c r="A15" s="59"/>
+      <c r="B15" s="65" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -1885,8 +1967,8 @@
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="36">
+      <c r="J15" s="33"/>
+      <c r="K15" s="35">
         <v>1</v>
       </c>
       <c r="L15" s="10"/>
@@ -1895,9 +1977,9 @@
       </c>
     </row>
     <row r="16" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="50"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="44" t="s">
+      <c r="A16" s="59"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="49" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="9" t="s">
@@ -1910,8 +1992,8 @@
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="36">
+      <c r="J16" s="33"/>
+      <c r="K16" s="35">
         <v>1</v>
       </c>
       <c r="L16" s="10"/>
@@ -1920,9 +2002,9 @@
       </c>
     </row>
     <row r="17" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="50"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="46"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="50"/>
       <c r="D17" s="9" t="s">
         <v>16</v>
       </c>
@@ -1933,8 +2015,8 @@
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="36">
+      <c r="J17" s="33"/>
+      <c r="K17" s="35">
         <v>1</v>
       </c>
       <c r="L17" s="10"/>
@@ -1943,8 +2025,8 @@
       </c>
     </row>
     <row r="18" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="50"/>
-      <c r="B18" s="58"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="67"/>
       <c r="C18" s="9" t="s">
         <v>17</v>
       </c>
@@ -1956,8 +2038,8 @@
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="36">
+      <c r="J18" s="33"/>
+      <c r="K18" s="35">
         <v>1</v>
       </c>
       <c r="L18" s="10"/>
@@ -1966,8 +2048,8 @@
       </c>
     </row>
     <row r="19" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="50"/>
-      <c r="B19" s="56" t="s">
+      <c r="A19" s="59"/>
+      <c r="B19" s="65" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -1983,8 +2065,8 @@
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="36">
+      <c r="J19" s="33"/>
+      <c r="K19" s="35">
         <v>1</v>
       </c>
       <c r="L19" s="10"/>
@@ -1993,9 +2075,9 @@
       </c>
     </row>
     <row r="20" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="50"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="44" t="s">
+      <c r="A20" s="59"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="49" t="s">
         <v>39</v>
       </c>
       <c r="D20" s="9" t="s">
@@ -2008,8 +2090,8 @@
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="36">
+      <c r="J20" s="33"/>
+      <c r="K20" s="35">
         <v>1</v>
       </c>
       <c r="L20" s="10"/>
@@ -2018,9 +2100,9 @@
       </c>
     </row>
     <row r="21" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="50"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="46"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="9" t="s">
         <v>16</v>
       </c>
@@ -2031,8 +2113,8 @@
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="36">
+      <c r="J21" s="33"/>
+      <c r="K21" s="35">
         <v>1</v>
       </c>
       <c r="L21" s="10"/>
@@ -2041,8 +2123,8 @@
       </c>
     </row>
     <row r="22" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="50"/>
-      <c r="B22" s="57"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="66"/>
       <c r="C22" s="9" t="s">
         <v>17</v>
       </c>
@@ -2054,8 +2136,8 @@
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="36">
+      <c r="J22" s="33"/>
+      <c r="K22" s="35">
         <v>1</v>
       </c>
       <c r="L22" s="10"/>
@@ -2064,8 +2146,8 @@
       </c>
     </row>
     <row r="23" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="50"/>
-      <c r="B23" s="57"/>
+      <c r="A23" s="59"/>
+      <c r="B23" s="66"/>
       <c r="C23" s="9" t="s">
         <v>28</v>
       </c>
@@ -2077,8 +2159,8 @@
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="36">
+      <c r="J23" s="33"/>
+      <c r="K23" s="35">
         <v>1</v>
       </c>
       <c r="L23" s="10"/>
@@ -2087,8 +2169,8 @@
       </c>
     </row>
     <row r="24" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="50"/>
-      <c r="B24" s="58"/>
+      <c r="A24" s="59"/>
+      <c r="B24" s="67"/>
       <c r="C24" s="9" t="s">
         <v>29</v>
       </c>
@@ -2100,8 +2182,8 @@
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="36">
+      <c r="J24" s="33"/>
+      <c r="K24" s="35">
         <v>1</v>
       </c>
       <c r="L24" s="10"/>
@@ -2110,8 +2192,8 @@
       </c>
     </row>
     <row r="25" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="50"/>
-      <c r="B25" s="56" t="s">
+      <c r="A25" s="59"/>
+      <c r="B25" s="65" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -2127,8 +2209,8 @@
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="36">
+      <c r="J25" s="33"/>
+      <c r="K25" s="35">
         <v>1</v>
       </c>
       <c r="L25" s="10"/>
@@ -2137,9 +2219,9 @@
       </c>
     </row>
     <row r="26" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="50"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="44" t="s">
+      <c r="A26" s="59"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="49" t="s">
         <v>39</v>
       </c>
       <c r="D26" s="9" t="s">
@@ -2152,8 +2234,8 @@
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="36">
+      <c r="J26" s="33"/>
+      <c r="K26" s="35">
         <v>1</v>
       </c>
       <c r="L26" s="10"/>
@@ -2162,9 +2244,9 @@
       </c>
     </row>
     <row r="27" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="50"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="46"/>
+      <c r="A27" s="59"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="9" t="s">
         <v>16</v>
       </c>
@@ -2175,8 +2257,8 @@
       </c>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="36">
+      <c r="J27" s="33"/>
+      <c r="K27" s="35">
         <v>1</v>
       </c>
       <c r="L27" s="10"/>
@@ -2185,8 +2267,8 @@
       </c>
     </row>
     <row r="28" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="50"/>
-      <c r="B28" s="57"/>
+      <c r="A28" s="59"/>
+      <c r="B28" s="66"/>
       <c r="C28" s="9" t="s">
         <v>17</v>
       </c>
@@ -2198,8 +2280,8 @@
       </c>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="36">
+      <c r="J28" s="33"/>
+      <c r="K28" s="35">
         <v>1</v>
       </c>
       <c r="L28" s="10"/>
@@ -2208,8 +2290,8 @@
       </c>
     </row>
     <row r="29" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="50"/>
-      <c r="B29" s="57"/>
+      <c r="A29" s="59"/>
+      <c r="B29" s="66"/>
       <c r="C29" s="9" t="s">
         <v>35</v>
       </c>
@@ -2221,8 +2303,8 @@
       </c>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="36">
+      <c r="J29" s="33"/>
+      <c r="K29" s="35">
         <v>1</v>
       </c>
       <c r="L29" s="10"/>
@@ -2231,8 +2313,8 @@
       </c>
     </row>
     <row r="30" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="50"/>
-      <c r="B30" s="57"/>
+      <c r="A30" s="59"/>
+      <c r="B30" s="66"/>
       <c r="C30" s="9" t="s">
         <v>34</v>
       </c>
@@ -2244,8 +2326,8 @@
       </c>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="36">
+      <c r="J30" s="33"/>
+      <c r="K30" s="35">
         <v>1</v>
       </c>
       <c r="L30" s="10"/>
@@ -2254,8 +2336,8 @@
       </c>
     </row>
     <row r="31" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="50"/>
-      <c r="B31" s="57"/>
+      <c r="A31" s="59"/>
+      <c r="B31" s="66"/>
       <c r="C31" s="9" t="s">
         <v>36</v>
       </c>
@@ -2267,8 +2349,8 @@
       </c>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="36">
+      <c r="J31" s="33"/>
+      <c r="K31" s="35">
         <v>1</v>
       </c>
       <c r="L31" s="10"/>
@@ -2277,8 +2359,8 @@
       </c>
     </row>
     <row r="32" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="50"/>
-      <c r="B32" s="57"/>
+      <c r="A32" s="59"/>
+      <c r="B32" s="66"/>
       <c r="C32" s="9" t="s">
         <v>27</v>
       </c>
@@ -2290,8 +2372,8 @@
       </c>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="36">
+      <c r="J32" s="33"/>
+      <c r="K32" s="35">
         <v>1</v>
       </c>
       <c r="L32" s="10"/>
@@ -2300,8 +2382,8 @@
       </c>
     </row>
     <row r="33" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="50"/>
-      <c r="B33" s="58"/>
+      <c r="A33" s="59"/>
+      <c r="B33" s="67"/>
       <c r="C33" s="9" t="s">
         <v>30</v>
       </c>
@@ -2313,8 +2395,8 @@
       </c>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="36">
+      <c r="J33" s="33"/>
+      <c r="K33" s="35">
         <v>1</v>
       </c>
       <c r="L33" s="10"/>
@@ -2323,8 +2405,8 @@
       </c>
     </row>
     <row r="34" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="50"/>
-      <c r="B34" s="56" t="s">
+      <c r="A34" s="59"/>
+      <c r="B34" s="65" t="s">
         <v>32</v>
       </c>
       <c r="C34" s="9" t="s">
@@ -2340,8 +2422,8 @@
       </c>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="36">
+      <c r="J34" s="33"/>
+      <c r="K34" s="35">
         <v>1</v>
       </c>
       <c r="L34" s="10"/>
@@ -2350,9 +2432,9 @@
       </c>
     </row>
     <row r="35" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="50"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="44" t="s">
+      <c r="A35" s="59"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="49" t="s">
         <v>39</v>
       </c>
       <c r="D35" s="9" t="s">
@@ -2365,8 +2447,8 @@
       </c>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="36">
+      <c r="J35" s="33"/>
+      <c r="K35" s="35">
         <v>1</v>
       </c>
       <c r="L35" s="10"/>
@@ -2375,9 +2457,9 @@
       </c>
     </row>
     <row r="36" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="50"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="46"/>
+      <c r="A36" s="59"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="50"/>
       <c r="D36" s="9" t="s">
         <v>16</v>
       </c>
@@ -2388,8 +2470,8 @@
       </c>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="36">
+      <c r="J36" s="33"/>
+      <c r="K36" s="35">
         <v>1</v>
       </c>
       <c r="L36" s="10"/>
@@ -2398,8 +2480,8 @@
       </c>
     </row>
     <row r="37" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="50"/>
-      <c r="B37" s="58"/>
+      <c r="A37" s="59"/>
+      <c r="B37" s="67"/>
       <c r="C37" s="9" t="s">
         <v>17</v>
       </c>
@@ -2411,8 +2493,8 @@
       </c>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="36">
+      <c r="J37" s="33"/>
+      <c r="K37" s="35">
         <v>1</v>
       </c>
       <c r="L37" s="10"/>
@@ -2421,8 +2503,8 @@
       </c>
     </row>
     <row r="38" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="50"/>
-      <c r="B38" s="56" t="s">
+      <c r="A38" s="59"/>
+      <c r="B38" s="65" t="s">
         <v>22</v>
       </c>
       <c r="C38" s="9" t="s">
@@ -2438,8 +2520,8 @@
       </c>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="36">
+      <c r="J38" s="33"/>
+      <c r="K38" s="35">
         <v>1</v>
       </c>
       <c r="L38" s="10"/>
@@ -2448,8 +2530,8 @@
       </c>
     </row>
     <row r="39" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="50"/>
-      <c r="B39" s="57"/>
+      <c r="A39" s="59"/>
+      <c r="B39" s="66"/>
       <c r="C39" s="16" t="s">
         <v>39</v>
       </c>
@@ -2463,8 +2545,8 @@
       </c>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="36">
+      <c r="J39" s="33"/>
+      <c r="K39" s="35">
         <v>1</v>
       </c>
       <c r="L39" s="10"/>
@@ -2473,8 +2555,8 @@
       </c>
     </row>
     <row r="40" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="50"/>
-      <c r="B40" s="57"/>
+      <c r="A40" s="59"/>
+      <c r="B40" s="66"/>
       <c r="C40" s="17"/>
       <c r="D40" s="9" t="s">
         <v>16</v>
@@ -2486,8 +2568,8 @@
       </c>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="36">
+      <c r="J40" s="33"/>
+      <c r="K40" s="35">
         <v>1</v>
       </c>
       <c r="L40" s="10"/>
@@ -2496,8 +2578,8 @@
       </c>
     </row>
     <row r="41" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="50"/>
-      <c r="B41" s="58"/>
+      <c r="A41" s="59"/>
+      <c r="B41" s="67"/>
       <c r="C41" s="9" t="s">
         <v>17</v>
       </c>
@@ -2509,8 +2591,8 @@
       </c>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="36">
+      <c r="J41" s="33"/>
+      <c r="K41" s="35">
         <v>1</v>
       </c>
       <c r="L41" s="10"/>
@@ -2519,8 +2601,8 @@
       </c>
     </row>
     <row r="42" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="50"/>
-      <c r="B42" s="56" t="s">
+      <c r="A42" s="59"/>
+      <c r="B42" s="65" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="9" t="s">
@@ -2536,8 +2618,8 @@
       </c>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="36">
+      <c r="J42" s="33"/>
+      <c r="K42" s="35">
         <v>1</v>
       </c>
       <c r="L42" s="10"/>
@@ -2546,9 +2628,9 @@
       </c>
     </row>
     <row r="43" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="50"/>
-      <c r="B43" s="57"/>
-      <c r="C43" s="44" t="s">
+      <c r="A43" s="59"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="49" t="s">
         <v>39</v>
       </c>
       <c r="D43" s="9" t="s">
@@ -2561,8 +2643,8 @@
       </c>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="36">
+      <c r="J43" s="33"/>
+      <c r="K43" s="35">
         <v>1</v>
       </c>
       <c r="L43" s="10"/>
@@ -2571,9 +2653,9 @@
       </c>
     </row>
     <row r="44" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="50"/>
-      <c r="B44" s="57"/>
-      <c r="C44" s="46"/>
+      <c r="A44" s="59"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="50"/>
       <c r="D44" s="9" t="s">
         <v>16</v>
       </c>
@@ -2584,8 +2666,8 @@
       </c>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="36">
+      <c r="J44" s="33"/>
+      <c r="K44" s="35">
         <v>1</v>
       </c>
       <c r="L44" s="10"/>
@@ -2594,8 +2676,8 @@
       </c>
     </row>
     <row r="45" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="50"/>
-      <c r="B45" s="57"/>
+      <c r="A45" s="59"/>
+      <c r="B45" s="66"/>
       <c r="C45" s="9" t="s">
         <v>17</v>
       </c>
@@ -2607,8 +2689,8 @@
       </c>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="36">
+      <c r="J45" s="33"/>
+      <c r="K45" s="35">
         <v>1</v>
       </c>
       <c r="L45" s="10"/>
@@ -2617,8 +2699,8 @@
       </c>
     </row>
     <row r="46" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="50"/>
-      <c r="B46" s="57"/>
+      <c r="A46" s="59"/>
+      <c r="B46" s="66"/>
       <c r="C46" s="16" t="s">
         <v>31</v>
       </c>
@@ -2630,8 +2712,8 @@
       </c>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="36">
+      <c r="J46" s="33"/>
+      <c r="K46" s="35">
         <v>1</v>
       </c>
       <c r="L46" s="10"/>
@@ -2640,8 +2722,8 @@
       </c>
     </row>
     <row r="47" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="50"/>
-      <c r="B47" s="58"/>
+      <c r="A47" s="59"/>
+      <c r="B47" s="67"/>
       <c r="C47" s="16" t="s">
         <v>33</v>
       </c>
@@ -2653,8 +2735,8 @@
       </c>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="36">
+      <c r="J47" s="33"/>
+      <c r="K47" s="35">
         <v>1</v>
       </c>
       <c r="L47" s="10"/>
@@ -2663,8 +2745,8 @@
       </c>
     </row>
     <row r="48" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="50"/>
-      <c r="B48" s="56" t="s">
+      <c r="A48" s="59"/>
+      <c r="B48" s="65" t="s">
         <v>21</v>
       </c>
       <c r="C48" s="16" t="s">
@@ -2680,8 +2762,8 @@
       </c>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="36">
+      <c r="J48" s="33"/>
+      <c r="K48" s="35">
         <v>1</v>
       </c>
       <c r="L48" s="10"/>
@@ -2690,8 +2772,8 @@
       </c>
     </row>
     <row r="49" spans="1:14" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="50"/>
-      <c r="B49" s="57"/>
+      <c r="A49" s="59"/>
+      <c r="B49" s="66"/>
       <c r="C49" s="17"/>
       <c r="D49" s="9" t="s">
         <v>7</v>
@@ -2705,8 +2787,8 @@
       </c>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="36">
+      <c r="J49" s="33"/>
+      <c r="K49" s="35">
         <v>1</v>
       </c>
       <c r="L49" s="10"/>
@@ -2715,8 +2797,8 @@
       </c>
     </row>
     <row r="50" spans="1:14" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="50"/>
-      <c r="B50" s="57"/>
+      <c r="A50" s="59"/>
+      <c r="B50" s="66"/>
       <c r="C50" s="16" t="s">
         <v>20</v>
       </c>
@@ -2730,8 +2812,8 @@
       </c>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="36">
+      <c r="J50" s="33"/>
+      <c r="K50" s="35">
         <v>1</v>
       </c>
       <c r="L50" s="10"/>
@@ -2740,8 +2822,8 @@
       </c>
     </row>
     <row r="51" spans="1:14" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="50"/>
-      <c r="B51" s="58"/>
+      <c r="A51" s="59"/>
+      <c r="B51" s="67"/>
       <c r="C51" s="17"/>
       <c r="D51" s="9" t="s">
         <v>7</v>
@@ -2753,8 +2835,8 @@
       </c>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
-      <c r="J51" s="34"/>
-      <c r="K51" s="36">
+      <c r="J51" s="33"/>
+      <c r="K51" s="35">
         <v>1</v>
       </c>
       <c r="L51" s="10"/>
@@ -2763,8 +2845,8 @@
       </c>
     </row>
     <row r="52" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A52" s="50"/>
-      <c r="B52" s="56" t="s">
+      <c r="A52" s="59"/>
+      <c r="B52" s="65" t="s">
         <v>40</v>
       </c>
       <c r="C52" s="9" t="s">
@@ -2780,8 +2862,8 @@
       </c>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="36">
+      <c r="J52" s="33"/>
+      <c r="K52" s="35">
         <v>1</v>
       </c>
       <c r="L52" s="10"/>
@@ -2790,9 +2872,9 @@
       </c>
     </row>
     <row r="53" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A53" s="50"/>
-      <c r="B53" s="57"/>
-      <c r="C53" s="44" t="s">
+      <c r="A53" s="59"/>
+      <c r="B53" s="66"/>
+      <c r="C53" s="49" t="s">
         <v>39</v>
       </c>
       <c r="D53" s="9" t="s">
@@ -2805,8 +2887,8 @@
       </c>
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
-      <c r="J53" s="34"/>
-      <c r="K53" s="36">
+      <c r="J53" s="33"/>
+      <c r="K53" s="35">
         <v>1</v>
       </c>
       <c r="L53" s="10"/>
@@ -2815,9 +2897,9 @@
       </c>
     </row>
     <row r="54" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A54" s="50"/>
-      <c r="B54" s="57"/>
-      <c r="C54" s="46"/>
+      <c r="A54" s="59"/>
+      <c r="B54" s="66"/>
+      <c r="C54" s="50"/>
       <c r="D54" s="9" t="s">
         <v>16</v>
       </c>
@@ -2828,8 +2910,8 @@
       </c>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="36">
+      <c r="J54" s="33"/>
+      <c r="K54" s="35">
         <v>1</v>
       </c>
       <c r="L54" s="10"/>
@@ -2838,8 +2920,8 @@
       </c>
     </row>
     <row r="55" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A55" s="50"/>
-      <c r="B55" s="58"/>
+      <c r="A55" s="59"/>
+      <c r="B55" s="67"/>
       <c r="C55" s="9" t="s">
         <v>17</v>
       </c>
@@ -2851,8 +2933,8 @@
       </c>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
-      <c r="J55" s="34"/>
-      <c r="K55" s="36">
+      <c r="J55" s="33"/>
+      <c r="K55" s="35">
         <v>1</v>
       </c>
       <c r="L55" s="10"/>
@@ -2861,20 +2943,20 @@
       </c>
     </row>
     <row r="56" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="F56" s="43" t="s">
+      <c r="F56" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="G56" s="25">
+      <c r="G56" s="24">
         <f>SUM(G9:G54)</f>
         <v>28</v>
       </c>
-      <c r="J56" s="34"/>
-      <c r="K56" s="36">
+      <c r="J56" s="33"/>
+      <c r="K56" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="53" t="s">
+      <c r="A57" s="62" t="s">
         <v>88</v>
       </c>
       <c r="B57" s="18" t="s">
@@ -2887,17 +2969,19 @@
       <c r="G57" s="18">
         <v>2</v>
       </c>
-      <c r="H57" s="9"/>
+      <c r="H57" s="45">
+        <v>42949</v>
+      </c>
       <c r="I57" s="9"/>
-      <c r="J57" s="34"/>
-      <c r="K57" s="36">
+      <c r="J57" s="33"/>
+      <c r="K57" s="35">
         <v>1</v>
       </c>
       <c r="L57" s="10"/>
       <c r="M57" s="9"/>
     </row>
     <row r="58" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="54"/>
+      <c r="A58" s="63"/>
       <c r="B58" s="18" t="s">
         <v>23</v>
       </c>
@@ -2910,15 +2994,15 @@
       </c>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
-      <c r="J58" s="34"/>
-      <c r="K58" s="36">
+      <c r="J58" s="33"/>
+      <c r="K58" s="35">
         <v>1</v>
       </c>
       <c r="L58" s="10"/>
       <c r="M58" s="9"/>
     </row>
     <row r="59" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="54"/>
+      <c r="A59" s="63"/>
       <c r="B59" s="18" t="s">
         <v>24</v>
       </c>
@@ -2931,19 +3015,19 @@
       </c>
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
-      <c r="J59" s="34"/>
-      <c r="K59" s="36">
+      <c r="J59" s="33"/>
+      <c r="K59" s="35">
         <v>1</v>
       </c>
       <c r="L59" s="10"/>
       <c r="M59" s="9"/>
     </row>
     <row r="60" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="54"/>
-      <c r="B60" s="51" t="s">
+      <c r="A60" s="63"/>
+      <c r="B60" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="C60" s="49" t="s">
+      <c r="C60" s="52" t="s">
         <v>51</v>
       </c>
       <c r="D60" s="9" t="s">
@@ -2953,132 +3037,154 @@
         <v>98</v>
       </c>
       <c r="F60" s="9"/>
-      <c r="G60" s="18"/>
+      <c r="G60" s="18">
+        <v>0.5</v>
+      </c>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
-      <c r="J60" s="34"/>
-      <c r="K60" s="36">
+      <c r="J60" s="33"/>
+      <c r="K60" s="35">
         <v>1</v>
       </c>
       <c r="L60" s="10"/>
-      <c r="M60" s="9"/>
-      <c r="N60" s="47" t="s">
+      <c r="M60" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="N60" s="48" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="61" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="54"/>
-      <c r="B61" s="52"/>
-      <c r="C61" s="49"/>
-      <c r="D61" s="44" t="s">
+      <c r="A61" s="63"/>
+      <c r="B61" s="61"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="49" t="s">
         <v>101</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>103</v>
       </c>
       <c r="F61" s="9"/>
-      <c r="G61" s="18"/>
+      <c r="G61" s="18">
+        <v>0.5</v>
+      </c>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
-      <c r="J61" s="34"/>
-      <c r="K61" s="36">
+      <c r="J61" s="33"/>
+      <c r="K61" s="35">
         <v>1</v>
       </c>
       <c r="L61" s="10"/>
-      <c r="M61" s="9"/>
-      <c r="N61" s="47"/>
+      <c r="M61" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="N61" s="48"/>
     </row>
     <row r="62" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="54"/>
-      <c r="B62" s="52"/>
-      <c r="C62" s="49"/>
-      <c r="D62" s="46"/>
+      <c r="A62" s="63"/>
+      <c r="B62" s="61"/>
+      <c r="C62" s="52"/>
+      <c r="D62" s="50"/>
       <c r="E62" s="9" t="s">
         <v>99</v>
       </c>
       <c r="F62" s="9"/>
-      <c r="G62" s="18"/>
+      <c r="G62" s="18">
+        <v>0.5</v>
+      </c>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="36">
+      <c r="J62" s="33"/>
+      <c r="K62" s="35">
         <v>1</v>
       </c>
       <c r="L62" s="10"/>
-      <c r="M62" s="9"/>
-      <c r="N62" s="47"/>
+      <c r="M62" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="N62" s="48"/>
     </row>
     <row r="63" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="54"/>
-      <c r="B63" s="52"/>
-      <c r="C63" s="44" t="s">
+      <c r="A63" s="63"/>
+      <c r="B63" s="61"/>
+      <c r="C63" s="49" t="s">
         <v>95</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E63" s="33" t="s">
+      <c r="E63" s="32" t="s">
         <v>109</v>
       </c>
       <c r="F63" s="22"/>
-      <c r="G63" s="18"/>
+      <c r="G63" s="18">
+        <v>1</v>
+      </c>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
-      <c r="J63" s="34"/>
-      <c r="K63" s="36">
+      <c r="J63" s="33"/>
+      <c r="K63" s="35">
         <v>1</v>
       </c>
       <c r="L63" s="10"/>
-      <c r="M63" s="9"/>
-      <c r="N63" s="47"/>
+      <c r="M63" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="N63" s="48"/>
     </row>
     <row r="64" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="54"/>
-      <c r="B64" s="52"/>
-      <c r="C64" s="46"/>
+      <c r="A64" s="63"/>
+      <c r="B64" s="61"/>
+      <c r="C64" s="50"/>
       <c r="D64" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E64" s="33" t="s">
+      <c r="E64" s="32" t="s">
         <v>109</v>
       </c>
       <c r="F64" s="9"/>
-      <c r="G64" s="18"/>
+      <c r="G64" s="18">
+        <v>1</v>
+      </c>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
-      <c r="J64" s="34"/>
-      <c r="K64" s="36">
+      <c r="J64" s="33"/>
+      <c r="K64" s="35">
         <v>1</v>
       </c>
       <c r="L64" s="10"/>
-      <c r="M64" s="9"/>
-      <c r="N64" s="47"/>
+      <c r="M64" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="N64" s="48"/>
     </row>
     <row r="65" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="54"/>
-      <c r="B65" s="52"/>
+      <c r="A65" s="63"/>
+      <c r="B65" s="61"/>
       <c r="C65" s="17" t="s">
         <v>94</v>
       </c>
       <c r="D65" s="9"/>
-      <c r="E65" s="33" t="s">
+      <c r="E65" s="32" t="s">
         <v>109</v>
       </c>
       <c r="F65" s="9"/>
       <c r="G65" s="18"/>
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
-      <c r="J65" s="34"/>
-      <c r="K65" s="36">
+      <c r="J65" s="33"/>
+      <c r="K65" s="35">
         <v>1</v>
       </c>
       <c r="L65" s="10"/>
-      <c r="M65" s="9"/>
+      <c r="M65" s="43" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="66" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A66" s="54"/>
-      <c r="B66" s="52"/>
-      <c r="C66" s="49" t="s">
+      <c r="A66" s="63"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="52" t="s">
         <v>56</v>
       </c>
       <c r="D66" s="9" t="s">
@@ -3086,60 +3192,72 @@
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
-      <c r="G66" s="18"/>
+      <c r="G66" s="18">
+        <v>0.5</v>
+      </c>
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
-      <c r="J66" s="34"/>
-      <c r="K66" s="36">
+      <c r="J66" s="33"/>
+      <c r="K66" s="35">
         <v>1</v>
       </c>
       <c r="L66" s="10"/>
-      <c r="M66" s="9"/>
+      <c r="M66" s="43" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="67" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A67" s="54"/>
-      <c r="B67" s="52"/>
-      <c r="C67" s="49"/>
-      <c r="D67" s="49" t="s">
+      <c r="A67" s="63"/>
+      <c r="B67" s="61"/>
+      <c r="C67" s="52"/>
+      <c r="D67" s="52" t="s">
         <v>102</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>100</v>
       </c>
       <c r="F67" s="9"/>
-      <c r="G67" s="18"/>
+      <c r="G67" s="18">
+        <v>0.5</v>
+      </c>
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
-      <c r="J67" s="34"/>
-      <c r="K67" s="36">
+      <c r="J67" s="33"/>
+      <c r="K67" s="35">
         <v>1</v>
       </c>
       <c r="L67" s="10"/>
-      <c r="M67" s="9"/>
+      <c r="M67" s="43" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="68" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A68" s="54"/>
-      <c r="B68" s="52"/>
-      <c r="C68" s="49"/>
-      <c r="D68" s="49"/>
+      <c r="A68" s="63"/>
+      <c r="B68" s="61"/>
+      <c r="C68" s="52"/>
+      <c r="D68" s="52"/>
       <c r="E68" s="9" t="s">
         <v>82</v>
       </c>
       <c r="F68" s="9"/>
-      <c r="G68" s="18"/>
+      <c r="G68" s="18">
+        <v>0.5</v>
+      </c>
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
-      <c r="J68" s="34"/>
-      <c r="K68" s="36">
+      <c r="J68" s="33"/>
+      <c r="K68" s="35">
         <v>1</v>
       </c>
       <c r="L68" s="10"/>
-      <c r="M68" s="9"/>
+      <c r="M68" s="43" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="69" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A69" s="54"/>
-      <c r="B69" s="52"/>
-      <c r="C69" s="44" t="s">
+      <c r="A69" s="63"/>
+      <c r="B69" s="61"/>
+      <c r="C69" s="49" t="s">
         <v>47</v>
       </c>
       <c r="D69" s="9" t="s">
@@ -3147,143 +3265,171 @@
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
-      <c r="G69" s="18"/>
+      <c r="G69" s="18">
+        <v>0.5</v>
+      </c>
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
-      <c r="J69" s="34"/>
-      <c r="K69" s="36">
+      <c r="J69" s="33"/>
+      <c r="K69" s="35">
         <v>1</v>
       </c>
       <c r="L69" s="10"/>
-      <c r="M69" s="9"/>
+      <c r="M69" s="43" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="70" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A70" s="54"/>
-      <c r="B70" s="52"/>
-      <c r="C70" s="45"/>
+      <c r="A70" s="63"/>
+      <c r="B70" s="61"/>
+      <c r="C70" s="53"/>
       <c r="D70" s="9" t="s">
         <v>49</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
-      <c r="G70" s="18"/>
+      <c r="G70" s="18">
+        <v>0.5</v>
+      </c>
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
-      <c r="J70" s="34"/>
-      <c r="K70" s="36">
+      <c r="J70" s="33"/>
+      <c r="K70" s="35">
         <v>1</v>
       </c>
       <c r="L70" s="10"/>
-      <c r="M70" s="9"/>
+      <c r="M70" s="43" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="71" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A71" s="54"/>
-      <c r="B71" s="52"/>
-      <c r="C71" s="46"/>
+      <c r="A71" s="63"/>
+      <c r="B71" s="61"/>
+      <c r="C71" s="50"/>
       <c r="D71" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E71" s="33" t="s">
+      <c r="E71" s="32" t="s">
         <v>106</v>
       </c>
       <c r="F71" s="9"/>
-      <c r="G71" s="18"/>
+      <c r="G71" s="18">
+        <v>1</v>
+      </c>
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
-      <c r="J71" s="34"/>
-      <c r="K71" s="36">
+      <c r="J71" s="33"/>
+      <c r="K71" s="35">
         <v>1</v>
       </c>
       <c r="L71" s="10"/>
-      <c r="M71" s="9"/>
+      <c r="M71" s="43" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="72" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A72" s="54"/>
-      <c r="B72" s="52"/>
+      <c r="A72" s="63"/>
+      <c r="B72" s="61"/>
       <c r="C72" s="9" t="s">
         <v>60</v>
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
-      <c r="G72" s="18"/>
+      <c r="G72" s="18">
+        <v>0.5</v>
+      </c>
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
-      <c r="J72" s="34"/>
-      <c r="K72" s="36">
+      <c r="J72" s="33"/>
+      <c r="K72" s="35">
         <v>1</v>
       </c>
       <c r="L72" s="10"/>
-      <c r="M72" s="9"/>
+      <c r="M72" s="43" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="73" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A73" s="54"/>
-      <c r="B73" s="52"/>
+      <c r="A73" s="63"/>
+      <c r="B73" s="61"/>
       <c r="C73" s="9" t="s">
         <v>61</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
-      <c r="G73" s="18"/>
+      <c r="G73" s="18">
+        <v>1</v>
+      </c>
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
-      <c r="J73" s="34"/>
-      <c r="K73" s="36">
+      <c r="J73" s="33"/>
+      <c r="K73" s="35">
         <v>1</v>
       </c>
       <c r="L73" s="10"/>
-      <c r="M73" s="9"/>
+      <c r="M73" s="43" t="s">
+        <v>140</v>
+      </c>
       <c r="N73" s="11" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="74" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A74" s="54"/>
-      <c r="B74" s="52"/>
-      <c r="C74" s="44" t="s">
+      <c r="A74" s="63"/>
+      <c r="B74" s="61"/>
+      <c r="C74" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="D74" s="31" t="s">
+      <c r="D74" s="30" t="s">
         <v>107</v>
       </c>
       <c r="E74" s="21"/>
-      <c r="F74" s="32"/>
-      <c r="G74" s="18"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="18">
+        <v>1</v>
+      </c>
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
-      <c r="J74" s="34"/>
-      <c r="K74" s="36">
+      <c r="J74" s="33"/>
+      <c r="K74" s="35">
         <v>1</v>
       </c>
       <c r="L74" s="10"/>
-      <c r="M74" s="9"/>
+      <c r="M74" s="43" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="75" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A75" s="54"/>
-      <c r="B75" s="52"/>
-      <c r="C75" s="46"/>
+      <c r="A75" s="63"/>
+      <c r="B75" s="61"/>
+      <c r="C75" s="50"/>
       <c r="D75" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E75" s="33" t="s">
+      <c r="E75" s="32" t="s">
         <v>137</v>
       </c>
       <c r="F75" s="9"/>
-      <c r="G75" s="18"/>
+      <c r="G75" s="18">
+        <v>1</v>
+      </c>
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
-      <c r="J75" s="34"/>
-      <c r="K75" s="36">
+      <c r="J75" s="33"/>
+      <c r="K75" s="35">
         <v>1</v>
       </c>
       <c r="L75" s="10"/>
-      <c r="M75" s="9"/>
+      <c r="M75" s="43" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="76" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A76" s="54"/>
-      <c r="B76" s="52"/>
-      <c r="C76" s="59" t="s">
+      <c r="A76" s="63"/>
+      <c r="B76" s="61"/>
+      <c r="C76" s="54" t="s">
         <v>62</v>
       </c>
       <c r="D76" s="19" t="s">
@@ -3291,108 +3437,108 @@
       </c>
       <c r="E76" s="19"/>
       <c r="F76" s="19"/>
-      <c r="G76" s="26">
+      <c r="G76" s="25">
         <v>0</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
-      <c r="J76" s="34"/>
-      <c r="K76" s="36">
+      <c r="J76" s="33"/>
+      <c r="K76" s="35">
         <v>2</v>
       </c>
       <c r="L76" s="20"/>
-      <c r="M76" s="19"/>
+      <c r="M76" s="43"/>
     </row>
     <row r="77" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A77" s="54"/>
-      <c r="B77" s="52"/>
-      <c r="C77" s="60"/>
+      <c r="A77" s="63"/>
+      <c r="B77" s="61"/>
+      <c r="C77" s="55"/>
       <c r="D77" s="19" t="s">
         <v>64</v>
       </c>
       <c r="E77" s="19"/>
       <c r="F77" s="19"/>
-      <c r="G77" s="26">
+      <c r="G77" s="25">
         <v>0</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
-      <c r="J77" s="34"/>
-      <c r="K77" s="36">
+      <c r="J77" s="33"/>
+      <c r="K77" s="35">
         <v>2</v>
       </c>
       <c r="L77" s="20"/>
-      <c r="M77" s="19"/>
+      <c r="M77" s="43"/>
     </row>
     <row r="78" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A78" s="54"/>
-      <c r="B78" s="52"/>
-      <c r="C78" s="60"/>
+      <c r="A78" s="63"/>
+      <c r="B78" s="61"/>
+      <c r="C78" s="55"/>
       <c r="D78" s="19" t="s">
         <v>65</v>
       </c>
       <c r="E78" s="19"/>
       <c r="F78" s="19"/>
-      <c r="G78" s="26">
+      <c r="G78" s="25">
         <v>0</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
-      <c r="J78" s="34"/>
-      <c r="K78" s="36">
+      <c r="J78" s="33"/>
+      <c r="K78" s="35">
         <v>2</v>
       </c>
       <c r="L78" s="20"/>
-      <c r="M78" s="19"/>
+      <c r="M78" s="43"/>
     </row>
     <row r="79" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A79" s="54"/>
-      <c r="B79" s="52"/>
-      <c r="C79" s="60"/>
+      <c r="A79" s="63"/>
+      <c r="B79" s="61"/>
+      <c r="C79" s="55"/>
       <c r="D79" s="19" t="s">
         <v>66</v>
       </c>
       <c r="E79" s="19"/>
       <c r="F79" s="19"/>
-      <c r="G79" s="26">
+      <c r="G79" s="25">
         <v>0</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
-      <c r="J79" s="34"/>
-      <c r="K79" s="36">
+      <c r="J79" s="33"/>
+      <c r="K79" s="35">
         <v>2</v>
       </c>
       <c r="L79" s="20"/>
-      <c r="M79" s="19"/>
+      <c r="M79" s="43"/>
     </row>
     <row r="80" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A80" s="54"/>
-      <c r="B80" s="52"/>
-      <c r="C80" s="61"/>
+      <c r="A80" s="63"/>
+      <c r="B80" s="61"/>
+      <c r="C80" s="56"/>
       <c r="D80" s="19" t="s">
         <v>67</v>
       </c>
       <c r="E80" s="19"/>
       <c r="F80" s="19"/>
-      <c r="G80" s="26">
+      <c r="G80" s="25">
         <v>0</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
-      <c r="J80" s="34"/>
-      <c r="K80" s="36">
+      <c r="J80" s="33"/>
+      <c r="K80" s="35">
         <v>2</v>
       </c>
       <c r="L80" s="20"/>
-      <c r="M80" s="19"/>
+      <c r="M80" s="43"/>
     </row>
     <row r="81" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A81" s="54"/>
-      <c r="B81" s="67" t="s">
+      <c r="A81" s="63"/>
+      <c r="B81" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="C81" s="62" t="s">
+      <c r="C81" s="57" t="s">
         <v>86</v>
       </c>
       <c r="D81" s="15" t="s">
@@ -3400,84 +3546,84 @@
       </c>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
-      <c r="G81" s="27">
+      <c r="G81" s="26">
         <v>0</v>
       </c>
       <c r="H81" s="9"/>
       <c r="I81" s="9"/>
-      <c r="J81" s="34"/>
-      <c r="K81" s="36">
+      <c r="J81" s="33"/>
+      <c r="K81" s="35">
         <v>2</v>
       </c>
       <c r="L81" s="10"/>
-      <c r="M81" s="9"/>
+      <c r="M81" s="43"/>
     </row>
     <row r="82" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A82" s="54"/>
-      <c r="B82" s="68"/>
-      <c r="C82" s="63"/>
+      <c r="A82" s="63"/>
+      <c r="B82" s="70"/>
+      <c r="C82" s="58"/>
       <c r="D82" s="15" t="s">
         <v>70</v>
       </c>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
-      <c r="G82" s="27">
+      <c r="G82" s="26">
         <v>0</v>
       </c>
       <c r="H82" s="9"/>
       <c r="I82" s="9"/>
-      <c r="J82" s="34"/>
-      <c r="K82" s="36">
+      <c r="J82" s="33"/>
+      <c r="K82" s="35">
         <v>2</v>
       </c>
       <c r="L82" s="10"/>
-      <c r="M82" s="9"/>
+      <c r="M82" s="43"/>
     </row>
     <row r="83" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A83" s="54"/>
-      <c r="B83" s="68"/>
-      <c r="C83" s="63"/>
+      <c r="A83" s="63"/>
+      <c r="B83" s="70"/>
+      <c r="C83" s="58"/>
       <c r="D83" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G83" s="27">
+      <c r="G83" s="26">
         <v>0</v>
       </c>
       <c r="H83" s="9"/>
       <c r="I83" s="9"/>
-      <c r="J83" s="34"/>
-      <c r="K83" s="36">
+      <c r="J83" s="33"/>
+      <c r="K83" s="35">
         <v>2</v>
       </c>
       <c r="L83" s="10"/>
-      <c r="M83" s="9"/>
+      <c r="M83" s="43"/>
     </row>
     <row r="84" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A84" s="54"/>
-      <c r="B84" s="68"/>
-      <c r="C84" s="63"/>
+      <c r="A84" s="63"/>
+      <c r="B84" s="70"/>
+      <c r="C84" s="58"/>
       <c r="D84" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="G84" s="27">
+      <c r="G84" s="26">
         <v>0</v>
       </c>
       <c r="H84" s="9"/>
       <c r="I84" s="9"/>
-      <c r="J84" s="34"/>
-      <c r="K84" s="36">
+      <c r="J84" s="33"/>
+      <c r="K84" s="35">
         <v>2</v>
       </c>
       <c r="L84" s="10"/>
-      <c r="M84" s="9"/>
+      <c r="M84" s="43"/>
     </row>
     <row r="85" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A85" s="54"/>
-      <c r="B85" s="68"/>
-      <c r="C85" s="48" t="s">
+      <c r="A85" s="63"/>
+      <c r="B85" s="70"/>
+      <c r="C85" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="D85" s="44" t="s">
+      <c r="D85" s="49" t="s">
         <v>72</v>
       </c>
       <c r="E85" s="9" t="s">
@@ -3486,241 +3632,289 @@
       <c r="F85" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="G85" s="27"/>
+      <c r="G85" s="44">
+        <v>1</v>
+      </c>
       <c r="H85" s="9"/>
       <c r="I85" s="9"/>
-      <c r="J85" s="34"/>
-      <c r="K85" s="36">
+      <c r="J85" s="33"/>
+      <c r="K85" s="35">
         <v>1</v>
       </c>
       <c r="L85" s="10"/>
-      <c r="M85" s="9"/>
+      <c r="M85" s="43" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="86" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A86" s="54"/>
-      <c r="B86" s="68"/>
-      <c r="C86" s="48"/>
-      <c r="D86" s="45"/>
-      <c r="E86" s="44" t="s">
+      <c r="A86" s="63"/>
+      <c r="B86" s="70"/>
+      <c r="C86" s="51"/>
+      <c r="D86" s="53"/>
+      <c r="E86" s="49" t="s">
         <v>39</v>
       </c>
       <c r="F86" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G86" s="27"/>
+      <c r="G86" s="44">
+        <v>0.5</v>
+      </c>
       <c r="H86" s="9"/>
       <c r="I86" s="9"/>
-      <c r="J86" s="34"/>
-      <c r="K86" s="36">
+      <c r="J86" s="33"/>
+      <c r="K86" s="35">
         <v>1</v>
       </c>
       <c r="L86" s="10"/>
-      <c r="M86" s="9"/>
+      <c r="M86" s="43" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="87" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A87" s="54"/>
-      <c r="B87" s="68"/>
-      <c r="C87" s="48"/>
-      <c r="D87" s="45"/>
-      <c r="E87" s="46"/>
+      <c r="A87" s="63"/>
+      <c r="B87" s="70"/>
+      <c r="C87" s="51"/>
+      <c r="D87" s="53"/>
+      <c r="E87" s="50"/>
       <c r="F87" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G87" s="27"/>
+      <c r="G87" s="44">
+        <v>0.5</v>
+      </c>
       <c r="H87" s="9"/>
       <c r="I87" s="9"/>
-      <c r="J87" s="34"/>
-      <c r="K87" s="36">
+      <c r="J87" s="33"/>
+      <c r="K87" s="35">
         <v>1</v>
       </c>
       <c r="L87" s="10"/>
-      <c r="M87" s="9"/>
+      <c r="M87" s="43" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="88" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A88" s="54"/>
-      <c r="B88" s="68"/>
-      <c r="C88" s="48"/>
-      <c r="D88" s="45"/>
+      <c r="A88" s="63"/>
+      <c r="B88" s="70"/>
+      <c r="C88" s="51"/>
+      <c r="D88" s="53"/>
       <c r="E88" s="9" t="s">
         <v>17</v>
       </c>
       <c r="F88" s="9"/>
-      <c r="G88" s="27"/>
+      <c r="G88" s="44">
+        <v>0.5</v>
+      </c>
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
-      <c r="J88" s="34"/>
-      <c r="K88" s="36">
+      <c r="J88" s="33"/>
+      <c r="K88" s="35">
         <v>1</v>
       </c>
       <c r="L88" s="10"/>
-      <c r="M88" s="9"/>
+      <c r="M88" s="43" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="89" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A89" s="54"/>
-      <c r="B89" s="68"/>
-      <c r="C89" s="48"/>
-      <c r="D89" s="45"/>
+      <c r="A89" s="63"/>
+      <c r="B89" s="70"/>
+      <c r="C89" s="51"/>
+      <c r="D89" s="53"/>
       <c r="E89" s="9" t="s">
         <v>121</v>
       </c>
       <c r="F89" s="9"/>
-      <c r="G89" s="27"/>
+      <c r="G89" s="44">
+        <v>0.5</v>
+      </c>
       <c r="H89" s="9"/>
       <c r="I89" s="9"/>
-      <c r="J89" s="34"/>
-      <c r="K89" s="36">
+      <c r="J89" s="33"/>
+      <c r="K89" s="35">
         <v>1</v>
       </c>
       <c r="L89" s="10"/>
-      <c r="M89" s="9"/>
+      <c r="M89" s="43" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="90" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A90" s="54"/>
-      <c r="B90" s="68"/>
-      <c r="C90" s="48"/>
-      <c r="D90" s="45"/>
+      <c r="A90" s="63"/>
+      <c r="B90" s="70"/>
+      <c r="C90" s="51"/>
+      <c r="D90" s="53"/>
       <c r="E90" s="9" t="s">
         <v>122</v>
       </c>
       <c r="F90" s="9"/>
-      <c r="G90" s="27"/>
+      <c r="G90" s="44">
+        <v>0.5</v>
+      </c>
       <c r="H90" s="9"/>
       <c r="I90" s="9"/>
-      <c r="J90" s="34"/>
-      <c r="K90" s="36">
+      <c r="J90" s="33"/>
+      <c r="K90" s="35">
         <v>1</v>
       </c>
       <c r="L90" s="10"/>
-      <c r="M90" s="9"/>
+      <c r="M90" s="43" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="91" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A91" s="54"/>
-      <c r="B91" s="68"/>
-      <c r="C91" s="48"/>
-      <c r="D91" s="45"/>
+      <c r="A91" s="63"/>
+      <c r="B91" s="70"/>
+      <c r="C91" s="51"/>
+      <c r="D91" s="53"/>
       <c r="E91" s="16" t="s">
         <v>135</v>
       </c>
       <c r="F91" s="9"/>
-      <c r="G91" s="27"/>
+      <c r="G91" s="44">
+        <v>0.5</v>
+      </c>
       <c r="H91" s="9"/>
       <c r="I91" s="9"/>
-      <c r="J91" s="34"/>
-      <c r="K91" s="36">
+      <c r="J91" s="33"/>
+      <c r="K91" s="35">
         <v>1</v>
       </c>
       <c r="L91" s="10"/>
-      <c r="M91" s="9"/>
+      <c r="M91" s="43" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="92" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A92" s="54"/>
-      <c r="B92" s="68"/>
-      <c r="C92" s="48"/>
-      <c r="D92" s="45"/>
-      <c r="E92" s="44" t="s">
+      <c r="A92" s="63"/>
+      <c r="B92" s="70"/>
+      <c r="C92" s="51"/>
+      <c r="D92" s="53"/>
+      <c r="E92" s="49" t="s">
         <v>74</v>
       </c>
       <c r="F92" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G92" s="27"/>
+      <c r="G92" s="44">
+        <v>0.5</v>
+      </c>
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>
-      <c r="J92" s="34"/>
-      <c r="K92" s="36">
+      <c r="J92" s="33"/>
+      <c r="K92" s="35">
         <v>1</v>
       </c>
       <c r="L92" s="10"/>
-      <c r="M92" s="9"/>
+      <c r="M92" s="43" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="93" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A93" s="54"/>
-      <c r="B93" s="68"/>
-      <c r="C93" s="48"/>
-      <c r="D93" s="45"/>
-      <c r="E93" s="45"/>
+      <c r="A93" s="63"/>
+      <c r="B93" s="70"/>
+      <c r="C93" s="51"/>
+      <c r="D93" s="53"/>
+      <c r="E93" s="53"/>
       <c r="F93" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="G93" s="27"/>
+      <c r="G93" s="44">
+        <v>0.5</v>
+      </c>
       <c r="H93" s="9"/>
       <c r="I93" s="9"/>
-      <c r="J93" s="34"/>
-      <c r="K93" s="36">
+      <c r="J93" s="33"/>
+      <c r="K93" s="35">
         <v>1</v>
       </c>
       <c r="L93" s="10"/>
-      <c r="M93" s="9"/>
+      <c r="M93" s="43" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="94" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A94" s="54"/>
-      <c r="B94" s="68"/>
-      <c r="C94" s="48"/>
-      <c r="D94" s="45"/>
-      <c r="E94" s="46"/>
+      <c r="A94" s="63"/>
+      <c r="B94" s="70"/>
+      <c r="C94" s="51"/>
+      <c r="D94" s="53"/>
+      <c r="E94" s="50"/>
       <c r="F94" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="G94" s="27"/>
+      <c r="G94" s="44">
+        <v>0.5</v>
+      </c>
       <c r="H94" s="9"/>
       <c r="I94" s="9"/>
-      <c r="J94" s="34"/>
-      <c r="K94" s="36">
+      <c r="J94" s="33"/>
+      <c r="K94" s="35">
         <v>1</v>
       </c>
       <c r="L94" s="10"/>
-      <c r="M94" s="9"/>
+      <c r="M94" s="43" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="95" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A95" s="54"/>
-      <c r="B95" s="68"/>
-      <c r="C95" s="48"/>
-      <c r="D95" s="49" t="s">
+      <c r="A95" s="63"/>
+      <c r="B95" s="70"/>
+      <c r="C95" s="51"/>
+      <c r="D95" s="52" t="s">
         <v>123</v>
       </c>
       <c r="E95" s="9" t="s">
         <v>73</v>
       </c>
       <c r="F95" s="9"/>
-      <c r="G95" s="27"/>
+      <c r="G95" s="44">
+        <v>1</v>
+      </c>
       <c r="H95" s="9"/>
       <c r="I95" s="9"/>
-      <c r="J95" s="34"/>
-      <c r="K95" s="36">
+      <c r="J95" s="33"/>
+      <c r="K95" s="35">
         <v>1</v>
       </c>
       <c r="L95" s="10"/>
-      <c r="M95" s="9"/>
+      <c r="M95" s="43" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="96" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A96" s="54"/>
-      <c r="B96" s="68"/>
-      <c r="C96" s="48"/>
-      <c r="D96" s="49"/>
+      <c r="A96" s="63"/>
+      <c r="B96" s="70"/>
+      <c r="C96" s="51"/>
+      <c r="D96" s="52"/>
       <c r="E96" s="9" t="s">
         <v>59</v>
       </c>
       <c r="F96" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="G96" s="18"/>
+      <c r="G96" s="44" t="s">
+        <v>141</v>
+      </c>
       <c r="H96" s="9"/>
       <c r="I96" s="9"/>
-      <c r="J96" s="34"/>
-      <c r="K96" s="36">
+      <c r="J96" s="33"/>
+      <c r="K96" s="35">
         <v>1</v>
       </c>
       <c r="L96" s="10"/>
-      <c r="M96" s="9"/>
+      <c r="M96" s="43" t="s">
+        <v>140</v>
+      </c>
       <c r="N96" s="11" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A97" s="54"/>
-      <c r="B97" s="68"/>
-      <c r="C97" s="48"/>
-      <c r="D97" s="44" t="s">
+      <c r="A97" s="63"/>
+      <c r="B97" s="70"/>
+      <c r="C97" s="51"/>
+      <c r="D97" s="49" t="s">
         <v>136</v>
       </c>
       <c r="E97" s="9" t="s">
@@ -3729,91 +3923,107 @@
       <c r="F97" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="G97" s="18"/>
+      <c r="G97" s="44">
+        <v>1</v>
+      </c>
       <c r="H97" s="9"/>
       <c r="I97" s="9"/>
-      <c r="J97" s="34"/>
-      <c r="K97" s="36">
+      <c r="J97" s="33"/>
+      <c r="K97" s="35">
         <v>1</v>
       </c>
       <c r="L97" s="10"/>
-      <c r="M97" s="9"/>
+      <c r="M97" s="43" t="s">
+        <v>140</v>
+      </c>
       <c r="N97" s="11" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A98" s="54"/>
-      <c r="B98" s="68"/>
-      <c r="C98" s="48"/>
-      <c r="D98" s="45"/>
-      <c r="E98" s="44" t="s">
+      <c r="A98" s="63"/>
+      <c r="B98" s="70"/>
+      <c r="C98" s="51"/>
+      <c r="D98" s="53"/>
+      <c r="E98" s="49" t="s">
         <v>39</v>
       </c>
       <c r="F98" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G98" s="18"/>
+      <c r="G98" s="44">
+        <v>0.5</v>
+      </c>
       <c r="H98" s="9"/>
       <c r="I98" s="9"/>
-      <c r="J98" s="34"/>
-      <c r="K98" s="36">
+      <c r="J98" s="33"/>
+      <c r="K98" s="35">
         <v>1</v>
       </c>
       <c r="L98" s="10"/>
-      <c r="M98" s="9"/>
+      <c r="M98" s="43" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="99" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A99" s="54"/>
-      <c r="B99" s="68"/>
-      <c r="C99" s="48"/>
-      <c r="D99" s="45"/>
-      <c r="E99" s="46"/>
+      <c r="A99" s="63"/>
+      <c r="B99" s="70"/>
+      <c r="C99" s="51"/>
+      <c r="D99" s="53"/>
+      <c r="E99" s="50"/>
       <c r="F99" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G99" s="18"/>
+      <c r="G99" s="44">
+        <v>0.5</v>
+      </c>
       <c r="H99" s="9"/>
       <c r="I99" s="9"/>
-      <c r="J99" s="34"/>
-      <c r="K99" s="36">
+      <c r="J99" s="33"/>
+      <c r="K99" s="35">
         <v>1</v>
       </c>
       <c r="L99" s="10"/>
-      <c r="M99" s="9"/>
+      <c r="M99" s="43" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="100" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A100" s="54"/>
-      <c r="B100" s="68"/>
-      <c r="C100" s="48"/>
-      <c r="D100" s="46"/>
+      <c r="A100" s="63"/>
+      <c r="B100" s="70"/>
+      <c r="C100" s="51"/>
+      <c r="D100" s="50"/>
       <c r="E100" s="9" t="s">
         <v>17</v>
       </c>
       <c r="F100" s="9"/>
-      <c r="G100" s="18"/>
+      <c r="G100" s="44">
+        <v>0.5</v>
+      </c>
       <c r="H100" s="9"/>
       <c r="I100" s="9"/>
-      <c r="J100" s="34"/>
-      <c r="K100" s="36">
+      <c r="J100" s="33"/>
+      <c r="K100" s="35">
         <v>1</v>
       </c>
       <c r="L100" s="10"/>
-      <c r="M100" s="9"/>
+      <c r="M100" s="43" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="101" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="F101" s="43" t="s">
+      <c r="F101" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="G101" s="42">
+      <c r="G101" s="41">
         <f>SUM(G57:G100)</f>
-        <v>6</v>
-      </c>
-      <c r="J101" s="34"/>
-      <c r="K101" s="36"/>
+        <v>25.5</v>
+      </c>
+      <c r="J101" s="33"/>
+      <c r="K101" s="35"/>
     </row>
     <row r="102" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A102" s="50" t="s">
+      <c r="A102" s="59" t="s">
         <v>81</v>
       </c>
       <c r="B102" s="18" t="s">
@@ -3823,13 +4033,13 @@
       <c r="D102" s="9"/>
       <c r="E102" s="9"/>
       <c r="F102" s="9"/>
-      <c r="G102" s="23">
+      <c r="G102" s="18">
         <v>2</v>
       </c>
       <c r="H102" s="9"/>
       <c r="I102" s="9"/>
-      <c r="J102" s="34"/>
-      <c r="K102" s="36">
+      <c r="J102" s="33"/>
+      <c r="K102" s="35">
         <v>1</v>
       </c>
       <c r="L102" s="10"/>
@@ -3838,7 +4048,7 @@
       </c>
     </row>
     <row r="103" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A103" s="50"/>
+      <c r="A103" s="59"/>
       <c r="B103" s="18" t="s">
         <v>23</v>
       </c>
@@ -3846,13 +4056,13 @@
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
       <c r="F103" s="9"/>
-      <c r="G103" s="23">
+      <c r="G103" s="18">
         <v>2</v>
       </c>
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
-      <c r="J103" s="34"/>
-      <c r="K103" s="36">
+      <c r="J103" s="33"/>
+      <c r="K103" s="35">
         <v>1</v>
       </c>
       <c r="L103" s="10"/>
@@ -3861,7 +4071,7 @@
       </c>
     </row>
     <row r="104" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A104" s="50"/>
+      <c r="A104" s="59"/>
       <c r="B104" s="18" t="s">
         <v>24</v>
       </c>
@@ -3869,13 +4079,13 @@
       <c r="D104" s="9"/>
       <c r="E104" s="9"/>
       <c r="F104" s="9"/>
-      <c r="G104" s="23">
+      <c r="G104" s="18">
         <v>2</v>
       </c>
       <c r="H104" s="9"/>
       <c r="I104" s="9"/>
-      <c r="J104" s="34"/>
-      <c r="K104" s="36">
+      <c r="J104" s="33"/>
+      <c r="K104" s="35">
         <v>1</v>
       </c>
       <c r="L104" s="10"/>
@@ -3884,11 +4094,11 @@
       </c>
     </row>
     <row r="105" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="50"/>
-      <c r="B105" s="67" t="s">
+      <c r="A105" s="59"/>
+      <c r="B105" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="C105" s="44" t="s">
+      <c r="C105" s="49" t="s">
         <v>44</v>
       </c>
       <c r="D105" s="9" t="s">
@@ -3898,13 +4108,11 @@
         <v>44</v>
       </c>
       <c r="F105" s="9"/>
-      <c r="G105" s="23">
-        <v>1</v>
-      </c>
+      <c r="G105" s="18"/>
       <c r="H105" s="9"/>
       <c r="I105" s="9"/>
-      <c r="J105" s="34"/>
-      <c r="K105" s="36">
+      <c r="J105" s="33"/>
+      <c r="K105" s="35">
         <v>1</v>
       </c>
       <c r="L105" s="10"/>
@@ -3913,23 +4121,21 @@
       </c>
     </row>
     <row r="106" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A106" s="50"/>
-      <c r="B106" s="68"/>
-      <c r="C106" s="45"/>
-      <c r="D106" s="64" t="s">
+      <c r="A106" s="59"/>
+      <c r="B106" s="70"/>
+      <c r="C106" s="53"/>
+      <c r="D106" s="46" t="s">
         <v>52</v>
       </c>
       <c r="E106" s="9" t="s">
         <v>53</v>
       </c>
       <c r="F106" s="9"/>
-      <c r="G106" s="23">
-        <v>1</v>
-      </c>
+      <c r="G106" s="18"/>
       <c r="H106" s="9"/>
       <c r="I106" s="9"/>
-      <c r="J106" s="34"/>
-      <c r="K106" s="36">
+      <c r="J106" s="33"/>
+      <c r="K106" s="35">
         <v>1</v>
       </c>
       <c r="L106" s="10"/>
@@ -3938,21 +4144,19 @@
       </c>
     </row>
     <row r="107" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A107" s="50"/>
-      <c r="B107" s="68"/>
-      <c r="C107" s="46"/>
-      <c r="D107" s="65"/>
+      <c r="A107" s="59"/>
+      <c r="B107" s="70"/>
+      <c r="C107" s="50"/>
+      <c r="D107" s="47"/>
       <c r="E107" s="9" t="s">
         <v>54</v>
       </c>
       <c r="F107" s="9"/>
-      <c r="G107" s="23">
-        <v>1</v>
-      </c>
+      <c r="G107" s="18"/>
       <c r="H107" s="9"/>
       <c r="I107" s="9"/>
-      <c r="J107" s="34"/>
-      <c r="K107" s="36">
+      <c r="J107" s="33"/>
+      <c r="K107" s="35">
         <v>1</v>
       </c>
       <c r="L107" s="10"/>
@@ -3961,9 +4165,9 @@
       </c>
     </row>
     <row r="108" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A108" s="50"/>
-      <c r="B108" s="68"/>
-      <c r="C108" s="44" t="s">
+      <c r="A108" s="59"/>
+      <c r="B108" s="70"/>
+      <c r="C108" s="49" t="s">
         <v>56</v>
       </c>
       <c r="D108" s="9" t="s">
@@ -3973,13 +4177,11 @@
         <v>57</v>
       </c>
       <c r="F108" s="9"/>
-      <c r="G108" s="23">
-        <v>1</v>
-      </c>
+      <c r="G108" s="18"/>
       <c r="H108" s="9"/>
       <c r="I108" s="9"/>
-      <c r="J108" s="34"/>
-      <c r="K108" s="36">
+      <c r="J108" s="33"/>
+      <c r="K108" s="35">
         <v>1</v>
       </c>
       <c r="L108" s="10"/>
@@ -3988,23 +4190,21 @@
       </c>
     </row>
     <row r="109" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A109" s="50"/>
-      <c r="B109" s="68"/>
-      <c r="C109" s="45"/>
-      <c r="D109" s="64" t="s">
+      <c r="A109" s="59"/>
+      <c r="B109" s="70"/>
+      <c r="C109" s="53"/>
+      <c r="D109" s="46" t="s">
         <v>52</v>
       </c>
       <c r="E109" s="9" t="s">
         <v>53</v>
       </c>
       <c r="F109" s="9"/>
-      <c r="G109" s="23">
-        <v>1</v>
-      </c>
+      <c r="G109" s="18"/>
       <c r="H109" s="9"/>
       <c r="I109" s="9"/>
-      <c r="J109" s="34"/>
-      <c r="K109" s="36">
+      <c r="J109" s="33"/>
+      <c r="K109" s="35">
         <v>1</v>
       </c>
       <c r="L109" s="10"/>
@@ -4013,21 +4213,19 @@
       </c>
     </row>
     <row r="110" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A110" s="50"/>
-      <c r="B110" s="68"/>
-      <c r="C110" s="45"/>
-      <c r="D110" s="66"/>
+      <c r="A110" s="59"/>
+      <c r="B110" s="70"/>
+      <c r="C110" s="53"/>
+      <c r="D110" s="68"/>
       <c r="E110" s="9" t="s">
         <v>54</v>
       </c>
       <c r="F110" s="9"/>
-      <c r="G110" s="23">
-        <v>1</v>
-      </c>
+      <c r="G110" s="18"/>
       <c r="H110" s="9"/>
       <c r="I110" s="9"/>
-      <c r="J110" s="34"/>
-      <c r="K110" s="36">
+      <c r="J110" s="33"/>
+      <c r="K110" s="35">
         <v>1</v>
       </c>
       <c r="L110" s="10"/>
@@ -4036,21 +4234,19 @@
       </c>
     </row>
     <row r="111" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A111" s="50"/>
-      <c r="B111" s="68"/>
-      <c r="C111" s="46"/>
-      <c r="D111" s="65"/>
+      <c r="A111" s="59"/>
+      <c r="B111" s="70"/>
+      <c r="C111" s="50"/>
+      <c r="D111" s="47"/>
       <c r="E111" s="9" t="s">
         <v>58</v>
       </c>
       <c r="F111" s="9"/>
-      <c r="G111" s="23">
-        <v>1</v>
-      </c>
+      <c r="G111" s="18"/>
       <c r="H111" s="9"/>
       <c r="I111" s="9"/>
-      <c r="J111" s="34"/>
-      <c r="K111" s="36">
+      <c r="J111" s="33"/>
+      <c r="K111" s="35">
         <v>1</v>
       </c>
       <c r="L111" s="10"/>
@@ -4059,9 +4255,9 @@
       </c>
     </row>
     <row r="112" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A112" s="50"/>
-      <c r="B112" s="68"/>
-      <c r="C112" s="48" t="s">
+      <c r="A112" s="59"/>
+      <c r="B112" s="70"/>
+      <c r="C112" s="51" t="s">
         <v>83</v>
       </c>
       <c r="D112" s="9" t="s">
@@ -4069,13 +4265,11 @@
       </c>
       <c r="E112" s="9"/>
       <c r="F112" s="9"/>
-      <c r="G112" s="23">
-        <v>1</v>
-      </c>
+      <c r="G112" s="18"/>
       <c r="H112" s="9"/>
       <c r="I112" s="9"/>
-      <c r="J112" s="34"/>
-      <c r="K112" s="36">
+      <c r="J112" s="33"/>
+      <c r="K112" s="35">
         <v>1</v>
       </c>
       <c r="L112" s="10"/>
@@ -4084,21 +4278,19 @@
       </c>
     </row>
     <row r="113" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A113" s="50"/>
-      <c r="B113" s="68"/>
-      <c r="C113" s="49"/>
+      <c r="A113" s="59"/>
+      <c r="B113" s="70"/>
+      <c r="C113" s="52"/>
       <c r="D113" s="9" t="s">
         <v>75</v>
       </c>
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
-      <c r="G113" s="23">
-        <v>1</v>
-      </c>
+      <c r="G113" s="18"/>
       <c r="H113" s="9"/>
       <c r="I113" s="9"/>
-      <c r="J113" s="34"/>
-      <c r="K113" s="36">
+      <c r="J113" s="33"/>
+      <c r="K113" s="35">
         <v>1</v>
       </c>
       <c r="L113" s="10"/>
@@ -4107,21 +4299,19 @@
       </c>
     </row>
     <row r="114" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A114" s="50"/>
-      <c r="B114" s="68"/>
+      <c r="A114" s="59"/>
+      <c r="B114" s="70"/>
       <c r="C114" s="9" t="s">
         <v>104</v>
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
-      <c r="G114" s="23">
-        <v>0.5</v>
-      </c>
+      <c r="G114" s="18"/>
       <c r="H114" s="9"/>
       <c r="I114" s="9"/>
-      <c r="J114" s="34"/>
-      <c r="K114" s="36">
+      <c r="J114" s="33"/>
+      <c r="K114" s="35">
         <v>1</v>
       </c>
       <c r="L114" s="10"/>
@@ -4130,11 +4320,11 @@
       </c>
     </row>
     <row r="115" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A115" s="50"/>
-      <c r="B115" s="67" t="s">
+      <c r="A115" s="59"/>
+      <c r="B115" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="C115" s="44" t="s">
+      <c r="C115" s="49" t="s">
         <v>76</v>
       </c>
       <c r="D115" s="21" t="s">
@@ -4144,13 +4334,11 @@
         <v>126</v>
       </c>
       <c r="F115" s="9"/>
-      <c r="G115" s="23">
-        <v>1</v>
-      </c>
+      <c r="G115" s="18"/>
       <c r="H115" s="9"/>
       <c r="I115" s="9"/>
-      <c r="J115" s="34"/>
-      <c r="K115" s="36">
+      <c r="J115" s="33"/>
+      <c r="K115" s="35">
         <v>1</v>
       </c>
       <c r="L115" s="10"/>
@@ -4159,23 +4347,21 @@
       </c>
     </row>
     <row r="116" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A116" s="50"/>
-      <c r="B116" s="67"/>
-      <c r="C116" s="45"/>
-      <c r="D116" s="69" t="s">
+      <c r="A116" s="59"/>
+      <c r="B116" s="69"/>
+      <c r="C116" s="53"/>
+      <c r="D116" s="71" t="s">
         <v>39</v>
       </c>
       <c r="E116" s="9" t="s">
         <v>7</v>
       </c>
       <c r="F116" s="9"/>
-      <c r="G116" s="23">
-        <v>0.5</v>
-      </c>
+      <c r="G116" s="18"/>
       <c r="H116" s="9"/>
       <c r="I116" s="9"/>
-      <c r="J116" s="34"/>
-      <c r="K116" s="36">
+      <c r="J116" s="33"/>
+      <c r="K116" s="35">
         <v>1</v>
       </c>
       <c r="L116" s="10"/>
@@ -4184,21 +4370,19 @@
       </c>
     </row>
     <row r="117" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A117" s="50"/>
-      <c r="B117" s="67"/>
-      <c r="C117" s="45"/>
-      <c r="D117" s="70"/>
+      <c r="A117" s="59"/>
+      <c r="B117" s="69"/>
+      <c r="C117" s="53"/>
+      <c r="D117" s="72"/>
       <c r="E117" s="9" t="s">
         <v>16</v>
       </c>
       <c r="F117" s="9"/>
-      <c r="G117" s="23">
-        <v>0.5</v>
-      </c>
+      <c r="G117" s="18"/>
       <c r="H117" s="9"/>
       <c r="I117" s="9"/>
-      <c r="J117" s="34"/>
-      <c r="K117" s="36">
+      <c r="J117" s="33"/>
+      <c r="K117" s="35">
         <v>1</v>
       </c>
       <c r="L117" s="10"/>
@@ -4207,21 +4391,19 @@
       </c>
     </row>
     <row r="118" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A118" s="50"/>
-      <c r="B118" s="67"/>
-      <c r="C118" s="45"/>
+      <c r="A118" s="59"/>
+      <c r="B118" s="69"/>
+      <c r="C118" s="53"/>
       <c r="D118" s="21" t="s">
         <v>17</v>
       </c>
       <c r="E118" s="9"/>
       <c r="F118" s="9"/>
-      <c r="G118" s="23">
-        <v>0.5</v>
-      </c>
+      <c r="G118" s="18"/>
       <c r="H118" s="9"/>
       <c r="I118" s="9"/>
-      <c r="J118" s="34"/>
-      <c r="K118" s="36">
+      <c r="J118" s="33"/>
+      <c r="K118" s="35">
         <v>1</v>
       </c>
       <c r="L118" s="10"/>
@@ -4230,21 +4412,19 @@
       </c>
     </row>
     <row r="119" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A119" s="50"/>
-      <c r="B119" s="67"/>
-      <c r="C119" s="45"/>
+      <c r="A119" s="59"/>
+      <c r="B119" s="69"/>
+      <c r="C119" s="53"/>
       <c r="D119" s="21" t="s">
         <v>35</v>
       </c>
       <c r="E119" s="9"/>
       <c r="F119" s="9"/>
-      <c r="G119" s="23">
-        <v>0.5</v>
-      </c>
+      <c r="G119" s="18"/>
       <c r="H119" s="9"/>
       <c r="I119" s="9"/>
-      <c r="J119" s="34"/>
-      <c r="K119" s="36">
+      <c r="J119" s="33"/>
+      <c r="K119" s="35">
         <v>1</v>
       </c>
       <c r="L119" s="10"/>
@@ -4253,21 +4433,19 @@
       </c>
     </row>
     <row r="120" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A120" s="50"/>
-      <c r="B120" s="67"/>
-      <c r="C120" s="45"/>
+      <c r="A120" s="59"/>
+      <c r="B120" s="69"/>
+      <c r="C120" s="53"/>
       <c r="D120" s="21" t="s">
         <v>34</v>
       </c>
       <c r="E120" s="9"/>
       <c r="F120" s="9"/>
-      <c r="G120" s="23">
-        <v>2</v>
-      </c>
+      <c r="G120" s="18"/>
       <c r="H120" s="9"/>
       <c r="I120" s="9"/>
-      <c r="J120" s="34"/>
-      <c r="K120" s="36">
+      <c r="J120" s="33"/>
+      <c r="K120" s="35">
         <v>1</v>
       </c>
       <c r="L120" s="10"/>
@@ -4276,21 +4454,19 @@
       </c>
     </row>
     <row r="121" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A121" s="50"/>
-      <c r="B121" s="67"/>
-      <c r="C121" s="46"/>
+      <c r="A121" s="59"/>
+      <c r="B121" s="69"/>
+      <c r="C121" s="50"/>
       <c r="D121" s="21" t="s">
         <v>36</v>
       </c>
       <c r="E121" s="9"/>
       <c r="F121" s="9"/>
-      <c r="G121" s="23">
-        <v>1</v>
-      </c>
+      <c r="G121" s="18"/>
       <c r="H121" s="9"/>
       <c r="I121" s="9"/>
-      <c r="J121" s="34"/>
-      <c r="K121" s="36">
+      <c r="J121" s="33"/>
+      <c r="K121" s="35">
         <v>1</v>
       </c>
       <c r="L121" s="10"/>
@@ -4299,9 +4475,9 @@
       </c>
     </row>
     <row r="122" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A122" s="50"/>
-      <c r="B122" s="68"/>
-      <c r="C122" s="44" t="s">
+      <c r="A122" s="59"/>
+      <c r="B122" s="70"/>
+      <c r="C122" s="49" t="s">
         <v>118</v>
       </c>
       <c r="D122" s="21" t="s">
@@ -4311,13 +4487,11 @@
         <v>105</v>
       </c>
       <c r="F122" s="9"/>
-      <c r="G122" s="23">
-        <v>1</v>
-      </c>
+      <c r="G122" s="18"/>
       <c r="H122" s="9"/>
       <c r="I122" s="9"/>
-      <c r="J122" s="34"/>
-      <c r="K122" s="36">
+      <c r="J122" s="33"/>
+      <c r="K122" s="35">
         <v>1</v>
       </c>
       <c r="L122" s="10"/>
@@ -4326,23 +4500,21 @@
       </c>
     </row>
     <row r="123" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A123" s="50"/>
-      <c r="B123" s="68"/>
-      <c r="C123" s="45"/>
-      <c r="D123" s="69" t="s">
+      <c r="A123" s="59"/>
+      <c r="B123" s="70"/>
+      <c r="C123" s="53"/>
+      <c r="D123" s="71" t="s">
         <v>39</v>
       </c>
       <c r="E123" s="9" t="s">
         <v>7</v>
       </c>
       <c r="F123" s="9"/>
-      <c r="G123" s="23">
-        <v>0.5</v>
-      </c>
+      <c r="G123" s="18"/>
       <c r="H123" s="9"/>
       <c r="I123" s="9"/>
-      <c r="J123" s="34"/>
-      <c r="K123" s="36">
+      <c r="J123" s="33"/>
+      <c r="K123" s="35">
         <v>1</v>
       </c>
       <c r="L123" s="10"/>
@@ -4351,21 +4523,19 @@
       </c>
     </row>
     <row r="124" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A124" s="50"/>
-      <c r="B124" s="68"/>
-      <c r="C124" s="45"/>
-      <c r="D124" s="70"/>
+      <c r="A124" s="59"/>
+      <c r="B124" s="70"/>
+      <c r="C124" s="53"/>
+      <c r="D124" s="72"/>
       <c r="E124" s="9" t="s">
         <v>16</v>
       </c>
       <c r="F124" s="9"/>
-      <c r="G124" s="23">
-        <v>0.5</v>
-      </c>
+      <c r="G124" s="18"/>
       <c r="H124" s="9"/>
       <c r="I124" s="9"/>
-      <c r="J124" s="34"/>
-      <c r="K124" s="36">
+      <c r="J124" s="33"/>
+      <c r="K124" s="35">
         <v>1</v>
       </c>
       <c r="L124" s="10"/>
@@ -4374,21 +4544,19 @@
       </c>
     </row>
     <row r="125" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A125" s="50"/>
-      <c r="B125" s="68"/>
-      <c r="C125" s="46"/>
+      <c r="A125" s="59"/>
+      <c r="B125" s="70"/>
+      <c r="C125" s="50"/>
       <c r="D125" s="21" t="s">
         <v>17</v>
       </c>
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
-      <c r="G125" s="23">
-        <v>0.5</v>
-      </c>
+      <c r="G125" s="18"/>
       <c r="H125" s="9"/>
       <c r="I125" s="9"/>
-      <c r="J125" s="34"/>
-      <c r="K125" s="36">
+      <c r="J125" s="33"/>
+      <c r="K125" s="35">
         <v>1</v>
       </c>
       <c r="L125" s="10"/>
@@ -4397,104 +4565,104 @@
       </c>
     </row>
     <row r="126" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A126" s="50"/>
-      <c r="B126" s="68"/>
-      <c r="C126" s="38" t="s">
+      <c r="A126" s="59"/>
+      <c r="B126" s="70"/>
+      <c r="C126" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="D126" s="39"/>
-      <c r="E126" s="38"/>
-      <c r="F126" s="38"/>
-      <c r="G126" s="40">
+      <c r="D126" s="38"/>
+      <c r="E126" s="37"/>
+      <c r="F126" s="37"/>
+      <c r="G126" s="39">
         <v>0</v>
       </c>
-      <c r="H126" s="38"/>
-      <c r="I126" s="38"/>
-      <c r="J126" s="41"/>
-      <c r="K126" s="36">
+      <c r="H126" s="37"/>
+      <c r="I126" s="37"/>
+      <c r="J126" s="40"/>
+      <c r="K126" s="35">
         <v>2</v>
       </c>
       <c r="L126" s="10"/>
       <c r="M126" s="9"/>
     </row>
     <row r="127" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A127" s="50"/>
-      <c r="B127" s="68"/>
-      <c r="C127" s="38" t="s">
+      <c r="A127" s="59"/>
+      <c r="B127" s="70"/>
+      <c r="C127" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="D127" s="39"/>
-      <c r="E127" s="38"/>
-      <c r="F127" s="38"/>
-      <c r="G127" s="40">
+      <c r="D127" s="38"/>
+      <c r="E127" s="37"/>
+      <c r="F127" s="37"/>
+      <c r="G127" s="39">
         <v>0</v>
       </c>
-      <c r="H127" s="38"/>
-      <c r="I127" s="38"/>
-      <c r="J127" s="41"/>
-      <c r="K127" s="36">
+      <c r="H127" s="37"/>
+      <c r="I127" s="37"/>
+      <c r="J127" s="40"/>
+      <c r="K127" s="35">
         <v>2</v>
       </c>
       <c r="L127" s="10"/>
       <c r="M127" s="9"/>
     </row>
     <row r="128" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A128" s="50"/>
-      <c r="B128" s="68"/>
-      <c r="C128" s="38" t="s">
+      <c r="A128" s="59"/>
+      <c r="B128" s="70"/>
+      <c r="C128" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="D128" s="38"/>
-      <c r="E128" s="38"/>
-      <c r="F128" s="38"/>
-      <c r="G128" s="40">
+      <c r="D128" s="37"/>
+      <c r="E128" s="37"/>
+      <c r="F128" s="37"/>
+      <c r="G128" s="39">
         <v>0</v>
       </c>
-      <c r="H128" s="38"/>
-      <c r="I128" s="38"/>
-      <c r="J128" s="41"/>
-      <c r="K128" s="36">
+      <c r="H128" s="37"/>
+      <c r="I128" s="37"/>
+      <c r="J128" s="40"/>
+      <c r="K128" s="35">
         <v>2</v>
       </c>
       <c r="L128" s="10"/>
       <c r="M128" s="9"/>
     </row>
     <row r="129" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A129" s="50"/>
-      <c r="B129" s="68"/>
-      <c r="C129" s="38" t="s">
+      <c r="A129" s="59"/>
+      <c r="B129" s="70"/>
+      <c r="C129" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="D129" s="38"/>
-      <c r="E129" s="38"/>
-      <c r="F129" s="38"/>
-      <c r="G129" s="40">
+      <c r="D129" s="37"/>
+      <c r="E129" s="37"/>
+      <c r="F129" s="37"/>
+      <c r="G129" s="39">
         <v>0</v>
       </c>
-      <c r="H129" s="38"/>
-      <c r="I129" s="38"/>
-      <c r="J129" s="41"/>
-      <c r="K129" s="36">
+      <c r="H129" s="37"/>
+      <c r="I129" s="37"/>
+      <c r="J129" s="40"/>
+      <c r="K129" s="35">
         <v>2</v>
       </c>
       <c r="L129" s="10"/>
       <c r="M129" s="9"/>
     </row>
     <row r="130" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F130" s="43" t="s">
+      <c r="F130" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="G130" s="42">
+      <c r="G130" s="41">
         <f>SUM(G102:G129)</f>
-        <v>24</v>
-      </c>
-      <c r="J130" s="35"/>
-      <c r="K130" s="37"/>
+        <v>6</v>
+      </c>
+      <c r="J130" s="34"/>
+      <c r="K130" s="36"/>
     </row>
     <row r="131" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="G131" s="28"/>
-      <c r="J131" s="35"/>
-      <c r="K131" s="37"/>
+      <c r="G131" s="27"/>
+      <c r="J131" s="34"/>
+      <c r="K131" s="36"/>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B132" s="5"/>
@@ -4515,6 +4683,11 @@
     <mergeCell ref="D116:D117"/>
     <mergeCell ref="C115:C121"/>
     <mergeCell ref="D123:D124"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="C108:C111"/>
+    <mergeCell ref="C105:C107"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="C53:C54"/>
@@ -4537,8 +4710,7 @@
     <mergeCell ref="B25:B33"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="B19:B24"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D106:D107"/>
     <mergeCell ref="N60:N64"/>
     <mergeCell ref="E86:E87"/>
     <mergeCell ref="C85:C100"/>
@@ -4547,12 +4719,8 @@
     <mergeCell ref="D97:D100"/>
     <mergeCell ref="D85:D94"/>
     <mergeCell ref="E92:E94"/>
-    <mergeCell ref="C112:C113"/>
     <mergeCell ref="C76:C80"/>
     <mergeCell ref="C81:C84"/>
-    <mergeCell ref="C108:C111"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="D106:D107"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="L42:L53 L25:L37 L2:L14 L102:L129 L66:L100">

--- a/doc/开发计划V0.1.xlsx
+++ b/doc/开发计划V0.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp02\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hsd\hsd-servers\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -800,7 +800,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -935,30 +935,75 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -973,48 +1018,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1249,74 +1252,6 @@
       <tableStyleElement type="headerRow" dxfId="25"/>
     </tableStyle>
   </tableStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1336,7 +1271,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C8ECCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1618,8 +1553,8 @@
   <dimension ref="A1:N132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M91" sqref="M91"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G102" sqref="G102:G125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1688,7 +1623,7 @@
       <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="53" t="s">
         <v>89</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -1709,7 +1644,7 @@
       <c r="M3" s="9"/>
     </row>
     <row r="4" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="63"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="12" t="s">
         <v>92</v>
       </c>
@@ -1728,7 +1663,7 @@
       <c r="M4" s="9"/>
     </row>
     <row r="5" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="63"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="12" t="s">
         <v>90</v>
       </c>
@@ -1747,7 +1682,7 @@
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="63"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="12"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1764,7 +1699,7 @@
       <c r="M6" s="9"/>
     </row>
     <row r="7" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="64"/>
+      <c r="A7" s="67"/>
       <c r="B7" s="12"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1781,7 +1716,7 @@
       <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="52" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="14" t="s">
@@ -1803,7 +1738,7 @@
       <c r="M8" s="9"/>
     </row>
     <row r="9" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="59"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="14" t="s">
         <v>23</v>
       </c>
@@ -1824,7 +1759,7 @@
       <c r="M9" s="9"/>
     </row>
     <row r="10" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="59"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="14" t="s">
         <v>24</v>
       </c>
@@ -1848,8 +1783,8 @@
       <c r="M10" s="9"/>
     </row>
     <row r="11" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="59"/>
-      <c r="B11" s="65" t="s">
+      <c r="A11" s="52"/>
+      <c r="B11" s="62" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -1877,8 +1812,8 @@
       </c>
     </row>
     <row r="12" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A12" s="59"/>
-      <c r="B12" s="66"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="63"/>
       <c r="C12" s="9" t="s">
         <v>14</v>
       </c>
@@ -1902,8 +1837,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="59"/>
-      <c r="B13" s="66"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="63"/>
       <c r="C13" s="9" t="s">
         <v>13</v>
       </c>
@@ -1925,8 +1860,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="59"/>
-      <c r="B14" s="67"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="9" t="s">
         <v>37</v>
       </c>
@@ -1950,8 +1885,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="59"/>
-      <c r="B15" s="65" t="s">
+      <c r="A15" s="52"/>
+      <c r="B15" s="62" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -1977,9 +1912,9 @@
       </c>
     </row>
     <row r="16" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="59"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="49" t="s">
+      <c r="A16" s="52"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="55" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="9" t="s">
@@ -2002,9 +1937,9 @@
       </c>
     </row>
     <row r="17" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="59"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="50"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="56"/>
       <c r="D17" s="9" t="s">
         <v>16</v>
       </c>
@@ -2025,8 +1960,8 @@
       </c>
     </row>
     <row r="18" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="59"/>
-      <c r="B18" s="67"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="64"/>
       <c r="C18" s="9" t="s">
         <v>17</v>
       </c>
@@ -2048,8 +1983,8 @@
       </c>
     </row>
     <row r="19" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="59"/>
-      <c r="B19" s="65" t="s">
+      <c r="A19" s="52"/>
+      <c r="B19" s="62" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -2075,9 +2010,9 @@
       </c>
     </row>
     <row r="20" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="59"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="49" t="s">
+      <c r="A20" s="52"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="55" t="s">
         <v>39</v>
       </c>
       <c r="D20" s="9" t="s">
@@ -2100,9 +2035,9 @@
       </c>
     </row>
     <row r="21" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="59"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="50"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="56"/>
       <c r="D21" s="9" t="s">
         <v>16</v>
       </c>
@@ -2123,8 +2058,8 @@
       </c>
     </row>
     <row r="22" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="59"/>
-      <c r="B22" s="66"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="63"/>
       <c r="C22" s="9" t="s">
         <v>17</v>
       </c>
@@ -2146,8 +2081,8 @@
       </c>
     </row>
     <row r="23" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="59"/>
-      <c r="B23" s="66"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="63"/>
       <c r="C23" s="9" t="s">
         <v>28</v>
       </c>
@@ -2169,8 +2104,8 @@
       </c>
     </row>
     <row r="24" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="59"/>
-      <c r="B24" s="67"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="64"/>
       <c r="C24" s="9" t="s">
         <v>29</v>
       </c>
@@ -2192,8 +2127,8 @@
       </c>
     </row>
     <row r="25" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="59"/>
-      <c r="B25" s="65" t="s">
+      <c r="A25" s="52"/>
+      <c r="B25" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -2219,9 +2154,9 @@
       </c>
     </row>
     <row r="26" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="59"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="49" t="s">
+      <c r="A26" s="52"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="55" t="s">
         <v>39</v>
       </c>
       <c r="D26" s="9" t="s">
@@ -2244,9 +2179,9 @@
       </c>
     </row>
     <row r="27" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="59"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="50"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="56"/>
       <c r="D27" s="9" t="s">
         <v>16</v>
       </c>
@@ -2267,8 +2202,8 @@
       </c>
     </row>
     <row r="28" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="59"/>
-      <c r="B28" s="66"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="63"/>
       <c r="C28" s="9" t="s">
         <v>17</v>
       </c>
@@ -2290,8 +2225,8 @@
       </c>
     </row>
     <row r="29" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="59"/>
-      <c r="B29" s="66"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="63"/>
       <c r="C29" s="9" t="s">
         <v>35</v>
       </c>
@@ -2313,8 +2248,8 @@
       </c>
     </row>
     <row r="30" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="59"/>
-      <c r="B30" s="66"/>
+      <c r="A30" s="52"/>
+      <c r="B30" s="63"/>
       <c r="C30" s="9" t="s">
         <v>34</v>
       </c>
@@ -2336,8 +2271,8 @@
       </c>
     </row>
     <row r="31" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="59"/>
-      <c r="B31" s="66"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="63"/>
       <c r="C31" s="9" t="s">
         <v>36</v>
       </c>
@@ -2359,8 +2294,8 @@
       </c>
     </row>
     <row r="32" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="59"/>
-      <c r="B32" s="66"/>
+      <c r="A32" s="52"/>
+      <c r="B32" s="63"/>
       <c r="C32" s="9" t="s">
         <v>27</v>
       </c>
@@ -2382,8 +2317,8 @@
       </c>
     </row>
     <row r="33" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="59"/>
-      <c r="B33" s="67"/>
+      <c r="A33" s="52"/>
+      <c r="B33" s="64"/>
       <c r="C33" s="9" t="s">
         <v>30</v>
       </c>
@@ -2405,8 +2340,8 @@
       </c>
     </row>
     <row r="34" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="59"/>
-      <c r="B34" s="65" t="s">
+      <c r="A34" s="52"/>
+      <c r="B34" s="62" t="s">
         <v>32</v>
       </c>
       <c r="C34" s="9" t="s">
@@ -2432,9 +2367,9 @@
       </c>
     </row>
     <row r="35" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="59"/>
-      <c r="B35" s="66"/>
-      <c r="C35" s="49" t="s">
+      <c r="A35" s="52"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="55" t="s">
         <v>39</v>
       </c>
       <c r="D35" s="9" t="s">
@@ -2457,9 +2392,9 @@
       </c>
     </row>
     <row r="36" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="59"/>
-      <c r="B36" s="66"/>
-      <c r="C36" s="50"/>
+      <c r="A36" s="52"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="56"/>
       <c r="D36" s="9" t="s">
         <v>16</v>
       </c>
@@ -2480,8 +2415,8 @@
       </c>
     </row>
     <row r="37" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="59"/>
-      <c r="B37" s="67"/>
+      <c r="A37" s="52"/>
+      <c r="B37" s="64"/>
       <c r="C37" s="9" t="s">
         <v>17</v>
       </c>
@@ -2503,8 +2438,8 @@
       </c>
     </row>
     <row r="38" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="59"/>
-      <c r="B38" s="65" t="s">
+      <c r="A38" s="52"/>
+      <c r="B38" s="62" t="s">
         <v>22</v>
       </c>
       <c r="C38" s="9" t="s">
@@ -2530,8 +2465,8 @@
       </c>
     </row>
     <row r="39" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="59"/>
-      <c r="B39" s="66"/>
+      <c r="A39" s="52"/>
+      <c r="B39" s="63"/>
       <c r="C39" s="16" t="s">
         <v>39</v>
       </c>
@@ -2555,8 +2490,8 @@
       </c>
     </row>
     <row r="40" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="59"/>
-      <c r="B40" s="66"/>
+      <c r="A40" s="52"/>
+      <c r="B40" s="63"/>
       <c r="C40" s="17"/>
       <c r="D40" s="9" t="s">
         <v>16</v>
@@ -2578,8 +2513,8 @@
       </c>
     </row>
     <row r="41" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="59"/>
-      <c r="B41" s="67"/>
+      <c r="A41" s="52"/>
+      <c r="B41" s="64"/>
       <c r="C41" s="9" t="s">
         <v>17</v>
       </c>
@@ -2601,8 +2536,8 @@
       </c>
     </row>
     <row r="42" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="59"/>
-      <c r="B42" s="65" t="s">
+      <c r="A42" s="52"/>
+      <c r="B42" s="62" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="9" t="s">
@@ -2628,9 +2563,9 @@
       </c>
     </row>
     <row r="43" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="59"/>
-      <c r="B43" s="66"/>
-      <c r="C43" s="49" t="s">
+      <c r="A43" s="52"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="55" t="s">
         <v>39</v>
       </c>
       <c r="D43" s="9" t="s">
@@ -2653,9 +2588,9 @@
       </c>
     </row>
     <row r="44" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="59"/>
-      <c r="B44" s="66"/>
-      <c r="C44" s="50"/>
+      <c r="A44" s="52"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="56"/>
       <c r="D44" s="9" t="s">
         <v>16</v>
       </c>
@@ -2676,8 +2611,8 @@
       </c>
     </row>
     <row r="45" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="59"/>
-      <c r="B45" s="66"/>
+      <c r="A45" s="52"/>
+      <c r="B45" s="63"/>
       <c r="C45" s="9" t="s">
         <v>17</v>
       </c>
@@ -2699,8 +2634,8 @@
       </c>
     </row>
     <row r="46" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="59"/>
-      <c r="B46" s="66"/>
+      <c r="A46" s="52"/>
+      <c r="B46" s="63"/>
       <c r="C46" s="16" t="s">
         <v>31</v>
       </c>
@@ -2722,8 +2657,8 @@
       </c>
     </row>
     <row r="47" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="59"/>
-      <c r="B47" s="67"/>
+      <c r="A47" s="52"/>
+      <c r="B47" s="64"/>
       <c r="C47" s="16" t="s">
         <v>33</v>
       </c>
@@ -2745,8 +2680,8 @@
       </c>
     </row>
     <row r="48" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="59"/>
-      <c r="B48" s="65" t="s">
+      <c r="A48" s="52"/>
+      <c r="B48" s="62" t="s">
         <v>21</v>
       </c>
       <c r="C48" s="16" t="s">
@@ -2772,8 +2707,8 @@
       </c>
     </row>
     <row r="49" spans="1:14" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="59"/>
-      <c r="B49" s="66"/>
+      <c r="A49" s="52"/>
+      <c r="B49" s="63"/>
       <c r="C49" s="17"/>
       <c r="D49" s="9" t="s">
         <v>7</v>
@@ -2797,8 +2732,8 @@
       </c>
     </row>
     <row r="50" spans="1:14" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="59"/>
-      <c r="B50" s="66"/>
+      <c r="A50" s="52"/>
+      <c r="B50" s="63"/>
       <c r="C50" s="16" t="s">
         <v>20</v>
       </c>
@@ -2822,8 +2757,8 @@
       </c>
     </row>
     <row r="51" spans="1:14" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="59"/>
-      <c r="B51" s="67"/>
+      <c r="A51" s="52"/>
+      <c r="B51" s="64"/>
       <c r="C51" s="17"/>
       <c r="D51" s="9" t="s">
         <v>7</v>
@@ -2845,8 +2780,8 @@
       </c>
     </row>
     <row r="52" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A52" s="59"/>
-      <c r="B52" s="65" t="s">
+      <c r="A52" s="52"/>
+      <c r="B52" s="62" t="s">
         <v>40</v>
       </c>
       <c r="C52" s="9" t="s">
@@ -2872,9 +2807,9 @@
       </c>
     </row>
     <row r="53" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A53" s="59"/>
-      <c r="B53" s="66"/>
-      <c r="C53" s="49" t="s">
+      <c r="A53" s="52"/>
+      <c r="B53" s="63"/>
+      <c r="C53" s="55" t="s">
         <v>39</v>
       </c>
       <c r="D53" s="9" t="s">
@@ -2897,9 +2832,9 @@
       </c>
     </row>
     <row r="54" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A54" s="59"/>
-      <c r="B54" s="66"/>
-      <c r="C54" s="50"/>
+      <c r="A54" s="52"/>
+      <c r="B54" s="63"/>
+      <c r="C54" s="56"/>
       <c r="D54" s="9" t="s">
         <v>16</v>
       </c>
@@ -2920,8 +2855,8 @@
       </c>
     </row>
     <row r="55" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A55" s="59"/>
-      <c r="B55" s="67"/>
+      <c r="A55" s="52"/>
+      <c r="B55" s="64"/>
       <c r="C55" s="9" t="s">
         <v>17</v>
       </c>
@@ -2956,7 +2891,7 @@
       </c>
     </row>
     <row r="57" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="62" t="s">
+      <c r="A57" s="53" t="s">
         <v>88</v>
       </c>
       <c r="B57" s="18" t="s">
@@ -2981,7 +2916,7 @@
       <c r="M57" s="9"/>
     </row>
     <row r="58" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="63"/>
+      <c r="A58" s="54"/>
       <c r="B58" s="18" t="s">
         <v>23</v>
       </c>
@@ -3002,7 +2937,7 @@
       <c r="M58" s="9"/>
     </row>
     <row r="59" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="63"/>
+      <c r="A59" s="54"/>
       <c r="B59" s="18" t="s">
         <v>24</v>
       </c>
@@ -3023,11 +2958,11 @@
       <c r="M59" s="9"/>
     </row>
     <row r="60" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="63"/>
-      <c r="B60" s="60" t="s">
+      <c r="A60" s="54"/>
+      <c r="B60" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="C60" s="52" t="s">
+      <c r="C60" s="57" t="s">
         <v>51</v>
       </c>
       <c r="D60" s="9" t="s">
@@ -3050,15 +2985,15 @@
       <c r="M60" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="N60" s="48" t="s">
+      <c r="N60" s="68" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="61" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="63"/>
-      <c r="B61" s="61"/>
-      <c r="C61" s="52"/>
-      <c r="D61" s="49" t="s">
+      <c r="A61" s="54"/>
+      <c r="B61" s="66"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="55" t="s">
         <v>101</v>
       </c>
       <c r="E61" s="9" t="s">
@@ -3078,13 +3013,13 @@
       <c r="M61" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="N61" s="48"/>
+      <c r="N61" s="68"/>
     </row>
     <row r="62" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="63"/>
-      <c r="B62" s="61"/>
-      <c r="C62" s="52"/>
-      <c r="D62" s="50"/>
+      <c r="A62" s="54"/>
+      <c r="B62" s="66"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="56"/>
       <c r="E62" s="9" t="s">
         <v>99</v>
       </c>
@@ -3102,12 +3037,12 @@
       <c r="M62" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="N62" s="48"/>
+      <c r="N62" s="68"/>
     </row>
     <row r="63" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="63"/>
-      <c r="B63" s="61"/>
-      <c r="C63" s="49" t="s">
+      <c r="A63" s="54"/>
+      <c r="B63" s="66"/>
+      <c r="C63" s="55" t="s">
         <v>95</v>
       </c>
       <c r="D63" s="9" t="s">
@@ -3130,12 +3065,12 @@
       <c r="M63" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="N63" s="48"/>
+      <c r="N63" s="68"/>
     </row>
     <row r="64" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="63"/>
-      <c r="B64" s="61"/>
-      <c r="C64" s="50"/>
+      <c r="A64" s="54"/>
+      <c r="B64" s="66"/>
+      <c r="C64" s="56"/>
       <c r="D64" s="9" t="s">
         <v>93</v>
       </c>
@@ -3156,11 +3091,11 @@
       <c r="M64" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="N64" s="48"/>
+      <c r="N64" s="68"/>
     </row>
     <row r="65" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="63"/>
-      <c r="B65" s="61"/>
+      <c r="A65" s="54"/>
+      <c r="B65" s="66"/>
       <c r="C65" s="17" t="s">
         <v>94</v>
       </c>
@@ -3182,9 +3117,9 @@
       </c>
     </row>
     <row r="66" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A66" s="63"/>
-      <c r="B66" s="61"/>
-      <c r="C66" s="52" t="s">
+      <c r="A66" s="54"/>
+      <c r="B66" s="66"/>
+      <c r="C66" s="57" t="s">
         <v>56</v>
       </c>
       <c r="D66" s="9" t="s">
@@ -3207,10 +3142,10 @@
       </c>
     </row>
     <row r="67" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A67" s="63"/>
-      <c r="B67" s="61"/>
-      <c r="C67" s="52"/>
-      <c r="D67" s="52" t="s">
+      <c r="A67" s="54"/>
+      <c r="B67" s="66"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="57" t="s">
         <v>102</v>
       </c>
       <c r="E67" s="9" t="s">
@@ -3232,10 +3167,10 @@
       </c>
     </row>
     <row r="68" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A68" s="63"/>
-      <c r="B68" s="61"/>
-      <c r="C68" s="52"/>
-      <c r="D68" s="52"/>
+      <c r="A68" s="54"/>
+      <c r="B68" s="66"/>
+      <c r="C68" s="57"/>
+      <c r="D68" s="57"/>
       <c r="E68" s="9" t="s">
         <v>82</v>
       </c>
@@ -3255,9 +3190,9 @@
       </c>
     </row>
     <row r="69" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A69" s="63"/>
-      <c r="B69" s="61"/>
-      <c r="C69" s="49" t="s">
+      <c r="A69" s="54"/>
+      <c r="B69" s="66"/>
+      <c r="C69" s="55" t="s">
         <v>47</v>
       </c>
       <c r="D69" s="9" t="s">
@@ -3280,9 +3215,9 @@
       </c>
     </row>
     <row r="70" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A70" s="63"/>
-      <c r="B70" s="61"/>
-      <c r="C70" s="53"/>
+      <c r="A70" s="54"/>
+      <c r="B70" s="66"/>
+      <c r="C70" s="60"/>
       <c r="D70" s="9" t="s">
         <v>49</v>
       </c>
@@ -3303,9 +3238,9 @@
       </c>
     </row>
     <row r="71" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A71" s="63"/>
-      <c r="B71" s="61"/>
-      <c r="C71" s="50"/>
+      <c r="A71" s="54"/>
+      <c r="B71" s="66"/>
+      <c r="C71" s="56"/>
       <c r="D71" s="9" t="s">
         <v>50</v>
       </c>
@@ -3328,8 +3263,8 @@
       </c>
     </row>
     <row r="72" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A72" s="63"/>
-      <c r="B72" s="61"/>
+      <c r="A72" s="54"/>
+      <c r="B72" s="66"/>
       <c r="C72" s="9" t="s">
         <v>60</v>
       </c>
@@ -3351,8 +3286,8 @@
       </c>
     </row>
     <row r="73" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A73" s="63"/>
-      <c r="B73" s="61"/>
+      <c r="A73" s="54"/>
+      <c r="B73" s="66"/>
       <c r="C73" s="9" t="s">
         <v>61</v>
       </c>
@@ -3377,9 +3312,9 @@
       </c>
     </row>
     <row r="74" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A74" s="63"/>
-      <c r="B74" s="61"/>
-      <c r="C74" s="49" t="s">
+      <c r="A74" s="54"/>
+      <c r="B74" s="66"/>
+      <c r="C74" s="55" t="s">
         <v>68</v>
       </c>
       <c r="D74" s="30" t="s">
@@ -3402,9 +3337,9 @@
       </c>
     </row>
     <row r="75" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A75" s="63"/>
-      <c r="B75" s="61"/>
-      <c r="C75" s="50"/>
+      <c r="A75" s="54"/>
+      <c r="B75" s="66"/>
+      <c r="C75" s="56"/>
       <c r="D75" s="9" t="s">
         <v>108</v>
       </c>
@@ -3427,9 +3362,9 @@
       </c>
     </row>
     <row r="76" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A76" s="63"/>
-      <c r="B76" s="61"/>
-      <c r="C76" s="54" t="s">
+      <c r="A76" s="54"/>
+      <c r="B76" s="66"/>
+      <c r="C76" s="69" t="s">
         <v>62</v>
       </c>
       <c r="D76" s="19" t="s">
@@ -3450,9 +3385,9 @@
       <c r="M76" s="43"/>
     </row>
     <row r="77" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A77" s="63"/>
-      <c r="B77" s="61"/>
-      <c r="C77" s="55"/>
+      <c r="A77" s="54"/>
+      <c r="B77" s="66"/>
+      <c r="C77" s="70"/>
       <c r="D77" s="19" t="s">
         <v>64</v>
       </c>
@@ -3471,9 +3406,9 @@
       <c r="M77" s="43"/>
     </row>
     <row r="78" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A78" s="63"/>
-      <c r="B78" s="61"/>
-      <c r="C78" s="55"/>
+      <c r="A78" s="54"/>
+      <c r="B78" s="66"/>
+      <c r="C78" s="70"/>
       <c r="D78" s="19" t="s">
         <v>65</v>
       </c>
@@ -3492,9 +3427,9 @@
       <c r="M78" s="43"/>
     </row>
     <row r="79" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A79" s="63"/>
-      <c r="B79" s="61"/>
-      <c r="C79" s="55"/>
+      <c r="A79" s="54"/>
+      <c r="B79" s="66"/>
+      <c r="C79" s="70"/>
       <c r="D79" s="19" t="s">
         <v>66</v>
       </c>
@@ -3513,9 +3448,9 @@
       <c r="M79" s="43"/>
     </row>
     <row r="80" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A80" s="63"/>
-      <c r="B80" s="61"/>
-      <c r="C80" s="56"/>
+      <c r="A80" s="54"/>
+      <c r="B80" s="66"/>
+      <c r="C80" s="71"/>
       <c r="D80" s="19" t="s">
         <v>67</v>
       </c>
@@ -3534,11 +3469,11 @@
       <c r="M80" s="43"/>
     </row>
     <row r="81" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A81" s="63"/>
-      <c r="B81" s="69" t="s">
+      <c r="A81" s="54"/>
+      <c r="B81" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="C81" s="57" t="s">
+      <c r="C81" s="72" t="s">
         <v>86</v>
       </c>
       <c r="D81" s="15" t="s">
@@ -3559,9 +3494,9 @@
       <c r="M81" s="43"/>
     </row>
     <row r="82" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A82" s="63"/>
-      <c r="B82" s="70"/>
-      <c r="C82" s="58"/>
+      <c r="A82" s="54"/>
+      <c r="B82" s="51"/>
+      <c r="C82" s="73"/>
       <c r="D82" s="15" t="s">
         <v>70</v>
       </c>
@@ -3580,9 +3515,9 @@
       <c r="M82" s="43"/>
     </row>
     <row r="83" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A83" s="63"/>
-      <c r="B83" s="70"/>
-      <c r="C83" s="58"/>
+      <c r="A83" s="54"/>
+      <c r="B83" s="51"/>
+      <c r="C83" s="73"/>
       <c r="D83" s="15" t="s">
         <v>66</v>
       </c>
@@ -3599,9 +3534,9 @@
       <c r="M83" s="43"/>
     </row>
     <row r="84" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A84" s="63"/>
-      <c r="B84" s="70"/>
-      <c r="C84" s="58"/>
+      <c r="A84" s="54"/>
+      <c r="B84" s="51"/>
+      <c r="C84" s="73"/>
       <c r="D84" s="15" t="s">
         <v>71</v>
       </c>
@@ -3618,12 +3553,12 @@
       <c r="M84" s="43"/>
     </row>
     <row r="85" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A85" s="63"/>
-      <c r="B85" s="70"/>
-      <c r="C85" s="51" t="s">
+      <c r="A85" s="54"/>
+      <c r="B85" s="51"/>
+      <c r="C85" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="D85" s="49" t="s">
+      <c r="D85" s="55" t="s">
         <v>72</v>
       </c>
       <c r="E85" s="9" t="s">
@@ -3647,11 +3582,11 @@
       </c>
     </row>
     <row r="86" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A86" s="63"/>
-      <c r="B86" s="70"/>
-      <c r="C86" s="51"/>
-      <c r="D86" s="53"/>
-      <c r="E86" s="49" t="s">
+      <c r="A86" s="54"/>
+      <c r="B86" s="51"/>
+      <c r="C86" s="61"/>
+      <c r="D86" s="60"/>
+      <c r="E86" s="55" t="s">
         <v>39</v>
       </c>
       <c r="F86" s="9" t="s">
@@ -3672,11 +3607,11 @@
       </c>
     </row>
     <row r="87" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A87" s="63"/>
-      <c r="B87" s="70"/>
-      <c r="C87" s="51"/>
-      <c r="D87" s="53"/>
-      <c r="E87" s="50"/>
+      <c r="A87" s="54"/>
+      <c r="B87" s="51"/>
+      <c r="C87" s="61"/>
+      <c r="D87" s="60"/>
+      <c r="E87" s="56"/>
       <c r="F87" s="9" t="s">
         <v>16</v>
       </c>
@@ -3695,10 +3630,10 @@
       </c>
     </row>
     <row r="88" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A88" s="63"/>
-      <c r="B88" s="70"/>
-      <c r="C88" s="51"/>
-      <c r="D88" s="53"/>
+      <c r="A88" s="54"/>
+      <c r="B88" s="51"/>
+      <c r="C88" s="61"/>
+      <c r="D88" s="60"/>
       <c r="E88" s="9" t="s">
         <v>17</v>
       </c>
@@ -3718,10 +3653,10 @@
       </c>
     </row>
     <row r="89" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A89" s="63"/>
-      <c r="B89" s="70"/>
-      <c r="C89" s="51"/>
-      <c r="D89" s="53"/>
+      <c r="A89" s="54"/>
+      <c r="B89" s="51"/>
+      <c r="C89" s="61"/>
+      <c r="D89" s="60"/>
       <c r="E89" s="9" t="s">
         <v>121</v>
       </c>
@@ -3741,10 +3676,10 @@
       </c>
     </row>
     <row r="90" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A90" s="63"/>
-      <c r="B90" s="70"/>
-      <c r="C90" s="51"/>
-      <c r="D90" s="53"/>
+      <c r="A90" s="54"/>
+      <c r="B90" s="51"/>
+      <c r="C90" s="61"/>
+      <c r="D90" s="60"/>
       <c r="E90" s="9" t="s">
         <v>122</v>
       </c>
@@ -3764,10 +3699,10 @@
       </c>
     </row>
     <row r="91" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A91" s="63"/>
-      <c r="B91" s="70"/>
-      <c r="C91" s="51"/>
-      <c r="D91" s="53"/>
+      <c r="A91" s="54"/>
+      <c r="B91" s="51"/>
+      <c r="C91" s="61"/>
+      <c r="D91" s="60"/>
       <c r="E91" s="16" t="s">
         <v>135</v>
       </c>
@@ -3787,11 +3722,11 @@
       </c>
     </row>
     <row r="92" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A92" s="63"/>
-      <c r="B92" s="70"/>
-      <c r="C92" s="51"/>
-      <c r="D92" s="53"/>
-      <c r="E92" s="49" t="s">
+      <c r="A92" s="54"/>
+      <c r="B92" s="51"/>
+      <c r="C92" s="61"/>
+      <c r="D92" s="60"/>
+      <c r="E92" s="55" t="s">
         <v>74</v>
       </c>
       <c r="F92" s="9" t="s">
@@ -3812,11 +3747,11 @@
       </c>
     </row>
     <row r="93" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A93" s="63"/>
-      <c r="B93" s="70"/>
-      <c r="C93" s="51"/>
-      <c r="D93" s="53"/>
-      <c r="E93" s="53"/>
+      <c r="A93" s="54"/>
+      <c r="B93" s="51"/>
+      <c r="C93" s="61"/>
+      <c r="D93" s="60"/>
+      <c r="E93" s="60"/>
       <c r="F93" s="9" t="s">
         <v>116</v>
       </c>
@@ -3835,11 +3770,11 @@
       </c>
     </row>
     <row r="94" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A94" s="63"/>
-      <c r="B94" s="70"/>
-      <c r="C94" s="51"/>
-      <c r="D94" s="53"/>
-      <c r="E94" s="50"/>
+      <c r="A94" s="54"/>
+      <c r="B94" s="51"/>
+      <c r="C94" s="61"/>
+      <c r="D94" s="60"/>
+      <c r="E94" s="56"/>
       <c r="F94" s="9" t="s">
         <v>117</v>
       </c>
@@ -3858,10 +3793,10 @@
       </c>
     </row>
     <row r="95" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A95" s="63"/>
-      <c r="B95" s="70"/>
-      <c r="C95" s="51"/>
-      <c r="D95" s="52" t="s">
+      <c r="A95" s="54"/>
+      <c r="B95" s="51"/>
+      <c r="C95" s="61"/>
+      <c r="D95" s="57" t="s">
         <v>123</v>
       </c>
       <c r="E95" s="9" t="s">
@@ -3883,10 +3818,10 @@
       </c>
     </row>
     <row r="96" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A96" s="63"/>
-      <c r="B96" s="70"/>
-      <c r="C96" s="51"/>
-      <c r="D96" s="52"/>
+      <c r="A96" s="54"/>
+      <c r="B96" s="51"/>
+      <c r="C96" s="61"/>
+      <c r="D96" s="57"/>
       <c r="E96" s="9" t="s">
         <v>59</v>
       </c>
@@ -3911,10 +3846,10 @@
       </c>
     </row>
     <row r="97" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A97" s="63"/>
-      <c r="B97" s="70"/>
-      <c r="C97" s="51"/>
-      <c r="D97" s="49" t="s">
+      <c r="A97" s="54"/>
+      <c r="B97" s="51"/>
+      <c r="C97" s="61"/>
+      <c r="D97" s="55" t="s">
         <v>136</v>
       </c>
       <c r="E97" s="9" t="s">
@@ -3941,11 +3876,11 @@
       </c>
     </row>
     <row r="98" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A98" s="63"/>
-      <c r="B98" s="70"/>
-      <c r="C98" s="51"/>
-      <c r="D98" s="53"/>
-      <c r="E98" s="49" t="s">
+      <c r="A98" s="54"/>
+      <c r="B98" s="51"/>
+      <c r="C98" s="61"/>
+      <c r="D98" s="60"/>
+      <c r="E98" s="55" t="s">
         <v>39</v>
       </c>
       <c r="F98" s="9" t="s">
@@ -3966,11 +3901,11 @@
       </c>
     </row>
     <row r="99" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A99" s="63"/>
-      <c r="B99" s="70"/>
-      <c r="C99" s="51"/>
-      <c r="D99" s="53"/>
-      <c r="E99" s="50"/>
+      <c r="A99" s="54"/>
+      <c r="B99" s="51"/>
+      <c r="C99" s="61"/>
+      <c r="D99" s="60"/>
+      <c r="E99" s="56"/>
       <c r="F99" s="9" t="s">
         <v>16</v>
       </c>
@@ -3989,10 +3924,10 @@
       </c>
     </row>
     <row r="100" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A100" s="63"/>
-      <c r="B100" s="70"/>
-      <c r="C100" s="51"/>
-      <c r="D100" s="50"/>
+      <c r="A100" s="54"/>
+      <c r="B100" s="51"/>
+      <c r="C100" s="61"/>
+      <c r="D100" s="56"/>
       <c r="E100" s="9" t="s">
         <v>17</v>
       </c>
@@ -4023,7 +3958,7 @@
       <c r="K101" s="35"/>
     </row>
     <row r="102" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A102" s="59" t="s">
+      <c r="A102" s="52" t="s">
         <v>81</v>
       </c>
       <c r="B102" s="18" t="s">
@@ -4033,7 +3968,7 @@
       <c r="D102" s="9"/>
       <c r="E102" s="9"/>
       <c r="F102" s="9"/>
-      <c r="G102" s="18">
+      <c r="G102" s="46">
         <v>2</v>
       </c>
       <c r="H102" s="9"/>
@@ -4048,7 +3983,7 @@
       </c>
     </row>
     <row r="103" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A103" s="59"/>
+      <c r="A103" s="52"/>
       <c r="B103" s="18" t="s">
         <v>23</v>
       </c>
@@ -4056,7 +3991,7 @@
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
       <c r="F103" s="9"/>
-      <c r="G103" s="18">
+      <c r="G103" s="46">
         <v>2</v>
       </c>
       <c r="H103" s="9"/>
@@ -4071,7 +4006,7 @@
       </c>
     </row>
     <row r="104" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A104" s="59"/>
+      <c r="A104" s="52"/>
       <c r="B104" s="18" t="s">
         <v>24</v>
       </c>
@@ -4079,7 +4014,7 @@
       <c r="D104" s="9"/>
       <c r="E104" s="9"/>
       <c r="F104" s="9"/>
-      <c r="G104" s="18">
+      <c r="G104" s="46">
         <v>2</v>
       </c>
       <c r="H104" s="9"/>
@@ -4094,11 +4029,11 @@
       </c>
     </row>
     <row r="105" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="59"/>
-      <c r="B105" s="69" t="s">
+      <c r="A105" s="52"/>
+      <c r="B105" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C105" s="49" t="s">
+      <c r="C105" s="55" t="s">
         <v>44</v>
       </c>
       <c r="D105" s="9" t="s">
@@ -4108,7 +4043,9 @@
         <v>44</v>
       </c>
       <c r="F105" s="9"/>
-      <c r="G105" s="18"/>
+      <c r="G105" s="46">
+        <v>1</v>
+      </c>
       <c r="H105" s="9"/>
       <c r="I105" s="9"/>
       <c r="J105" s="33"/>
@@ -4121,17 +4058,19 @@
       </c>
     </row>
     <row r="106" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A106" s="59"/>
-      <c r="B106" s="70"/>
-      <c r="C106" s="53"/>
-      <c r="D106" s="46" t="s">
+      <c r="A106" s="52"/>
+      <c r="B106" s="51"/>
+      <c r="C106" s="60"/>
+      <c r="D106" s="47" t="s">
         <v>52</v>
       </c>
       <c r="E106" s="9" t="s">
         <v>53</v>
       </c>
       <c r="F106" s="9"/>
-      <c r="G106" s="18"/>
+      <c r="G106" s="46">
+        <v>1</v>
+      </c>
       <c r="H106" s="9"/>
       <c r="I106" s="9"/>
       <c r="J106" s="33"/>
@@ -4144,15 +4083,17 @@
       </c>
     </row>
     <row r="107" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A107" s="59"/>
-      <c r="B107" s="70"/>
-      <c r="C107" s="50"/>
-      <c r="D107" s="47"/>
+      <c r="A107" s="52"/>
+      <c r="B107" s="51"/>
+      <c r="C107" s="56"/>
+      <c r="D107" s="49"/>
       <c r="E107" s="9" t="s">
         <v>54</v>
       </c>
       <c r="F107" s="9"/>
-      <c r="G107" s="18"/>
+      <c r="G107" s="46">
+        <v>1</v>
+      </c>
       <c r="H107" s="9"/>
       <c r="I107" s="9"/>
       <c r="J107" s="33"/>
@@ -4165,9 +4106,9 @@
       </c>
     </row>
     <row r="108" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A108" s="59"/>
-      <c r="B108" s="70"/>
-      <c r="C108" s="49" t="s">
+      <c r="A108" s="52"/>
+      <c r="B108" s="51"/>
+      <c r="C108" s="55" t="s">
         <v>56</v>
       </c>
       <c r="D108" s="9" t="s">
@@ -4177,7 +4118,9 @@
         <v>57</v>
       </c>
       <c r="F108" s="9"/>
-      <c r="G108" s="18"/>
+      <c r="G108" s="46">
+        <v>1</v>
+      </c>
       <c r="H108" s="9"/>
       <c r="I108" s="9"/>
       <c r="J108" s="33"/>
@@ -4190,17 +4133,19 @@
       </c>
     </row>
     <row r="109" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A109" s="59"/>
-      <c r="B109" s="70"/>
-      <c r="C109" s="53"/>
-      <c r="D109" s="46" t="s">
+      <c r="A109" s="52"/>
+      <c r="B109" s="51"/>
+      <c r="C109" s="60"/>
+      <c r="D109" s="47" t="s">
         <v>52</v>
       </c>
       <c r="E109" s="9" t="s">
         <v>53</v>
       </c>
       <c r="F109" s="9"/>
-      <c r="G109" s="18"/>
+      <c r="G109" s="46">
+        <v>1</v>
+      </c>
       <c r="H109" s="9"/>
       <c r="I109" s="9"/>
       <c r="J109" s="33"/>
@@ -4213,15 +4158,17 @@
       </c>
     </row>
     <row r="110" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A110" s="59"/>
-      <c r="B110" s="70"/>
-      <c r="C110" s="53"/>
-      <c r="D110" s="68"/>
+      <c r="A110" s="52"/>
+      <c r="B110" s="51"/>
+      <c r="C110" s="60"/>
+      <c r="D110" s="48"/>
       <c r="E110" s="9" t="s">
         <v>54</v>
       </c>
       <c r="F110" s="9"/>
-      <c r="G110" s="18"/>
+      <c r="G110" s="46">
+        <v>1</v>
+      </c>
       <c r="H110" s="9"/>
       <c r="I110" s="9"/>
       <c r="J110" s="33"/>
@@ -4234,15 +4181,17 @@
       </c>
     </row>
     <row r="111" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A111" s="59"/>
-      <c r="B111" s="70"/>
-      <c r="C111" s="50"/>
-      <c r="D111" s="47"/>
+      <c r="A111" s="52"/>
+      <c r="B111" s="51"/>
+      <c r="C111" s="56"/>
+      <c r="D111" s="49"/>
       <c r="E111" s="9" t="s">
         <v>58</v>
       </c>
       <c r="F111" s="9"/>
-      <c r="G111" s="18"/>
+      <c r="G111" s="46">
+        <v>1</v>
+      </c>
       <c r="H111" s="9"/>
       <c r="I111" s="9"/>
       <c r="J111" s="33"/>
@@ -4255,9 +4204,9 @@
       </c>
     </row>
     <row r="112" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A112" s="59"/>
-      <c r="B112" s="70"/>
-      <c r="C112" s="51" t="s">
+      <c r="A112" s="52"/>
+      <c r="B112" s="51"/>
+      <c r="C112" s="61" t="s">
         <v>83</v>
       </c>
       <c r="D112" s="9" t="s">
@@ -4265,7 +4214,9 @@
       </c>
       <c r="E112" s="9"/>
       <c r="F112" s="9"/>
-      <c r="G112" s="18"/>
+      <c r="G112" s="46">
+        <v>1</v>
+      </c>
       <c r="H112" s="9"/>
       <c r="I112" s="9"/>
       <c r="J112" s="33"/>
@@ -4278,15 +4229,17 @@
       </c>
     </row>
     <row r="113" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A113" s="59"/>
-      <c r="B113" s="70"/>
-      <c r="C113" s="52"/>
+      <c r="A113" s="52"/>
+      <c r="B113" s="51"/>
+      <c r="C113" s="57"/>
       <c r="D113" s="9" t="s">
         <v>75</v>
       </c>
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
-      <c r="G113" s="18"/>
+      <c r="G113" s="46">
+        <v>1</v>
+      </c>
       <c r="H113" s="9"/>
       <c r="I113" s="9"/>
       <c r="J113" s="33"/>
@@ -4299,15 +4252,17 @@
       </c>
     </row>
     <row r="114" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A114" s="59"/>
-      <c r="B114" s="70"/>
+      <c r="A114" s="52"/>
+      <c r="B114" s="51"/>
       <c r="C114" s="9" t="s">
         <v>104</v>
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
-      <c r="G114" s="18"/>
+      <c r="G114" s="46">
+        <v>0.5</v>
+      </c>
       <c r="H114" s="9"/>
       <c r="I114" s="9"/>
       <c r="J114" s="33"/>
@@ -4320,11 +4275,11 @@
       </c>
     </row>
     <row r="115" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A115" s="59"/>
-      <c r="B115" s="69" t="s">
+      <c r="A115" s="52"/>
+      <c r="B115" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="C115" s="49" t="s">
+      <c r="C115" s="55" t="s">
         <v>76</v>
       </c>
       <c r="D115" s="21" t="s">
@@ -4334,7 +4289,9 @@
         <v>126</v>
       </c>
       <c r="F115" s="9"/>
-      <c r="G115" s="18"/>
+      <c r="G115" s="46">
+        <v>1</v>
+      </c>
       <c r="H115" s="9"/>
       <c r="I115" s="9"/>
       <c r="J115" s="33"/>
@@ -4347,17 +4304,19 @@
       </c>
     </row>
     <row r="116" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A116" s="59"/>
-      <c r="B116" s="69"/>
-      <c r="C116" s="53"/>
-      <c r="D116" s="71" t="s">
+      <c r="A116" s="52"/>
+      <c r="B116" s="50"/>
+      <c r="C116" s="60"/>
+      <c r="D116" s="58" t="s">
         <v>39</v>
       </c>
       <c r="E116" s="9" t="s">
         <v>7</v>
       </c>
       <c r="F116" s="9"/>
-      <c r="G116" s="18"/>
+      <c r="G116" s="46">
+        <v>0.5</v>
+      </c>
       <c r="H116" s="9"/>
       <c r="I116" s="9"/>
       <c r="J116" s="33"/>
@@ -4370,15 +4329,17 @@
       </c>
     </row>
     <row r="117" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A117" s="59"/>
-      <c r="B117" s="69"/>
-      <c r="C117" s="53"/>
-      <c r="D117" s="72"/>
+      <c r="A117" s="52"/>
+      <c r="B117" s="50"/>
+      <c r="C117" s="60"/>
+      <c r="D117" s="59"/>
       <c r="E117" s="9" t="s">
         <v>16</v>
       </c>
       <c r="F117" s="9"/>
-      <c r="G117" s="18"/>
+      <c r="G117" s="46">
+        <v>0.5</v>
+      </c>
       <c r="H117" s="9"/>
       <c r="I117" s="9"/>
       <c r="J117" s="33"/>
@@ -4391,15 +4352,17 @@
       </c>
     </row>
     <row r="118" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A118" s="59"/>
-      <c r="B118" s="69"/>
-      <c r="C118" s="53"/>
+      <c r="A118" s="52"/>
+      <c r="B118" s="50"/>
+      <c r="C118" s="60"/>
       <c r="D118" s="21" t="s">
         <v>17</v>
       </c>
       <c r="E118" s="9"/>
       <c r="F118" s="9"/>
-      <c r="G118" s="18"/>
+      <c r="G118" s="46">
+        <v>0.5</v>
+      </c>
       <c r="H118" s="9"/>
       <c r="I118" s="9"/>
       <c r="J118" s="33"/>
@@ -4412,15 +4375,17 @@
       </c>
     </row>
     <row r="119" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A119" s="59"/>
-      <c r="B119" s="69"/>
-      <c r="C119" s="53"/>
+      <c r="A119" s="52"/>
+      <c r="B119" s="50"/>
+      <c r="C119" s="60"/>
       <c r="D119" s="21" t="s">
         <v>35</v>
       </c>
       <c r="E119" s="9"/>
       <c r="F119" s="9"/>
-      <c r="G119" s="18"/>
+      <c r="G119" s="46">
+        <v>0.5</v>
+      </c>
       <c r="H119" s="9"/>
       <c r="I119" s="9"/>
       <c r="J119" s="33"/>
@@ -4433,15 +4398,17 @@
       </c>
     </row>
     <row r="120" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A120" s="59"/>
-      <c r="B120" s="69"/>
-      <c r="C120" s="53"/>
+      <c r="A120" s="52"/>
+      <c r="B120" s="50"/>
+      <c r="C120" s="60"/>
       <c r="D120" s="21" t="s">
         <v>34</v>
       </c>
       <c r="E120" s="9"/>
       <c r="F120" s="9"/>
-      <c r="G120" s="18"/>
+      <c r="G120" s="46">
+        <v>2</v>
+      </c>
       <c r="H120" s="9"/>
       <c r="I120" s="9"/>
       <c r="J120" s="33"/>
@@ -4454,15 +4421,17 @@
       </c>
     </row>
     <row r="121" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A121" s="59"/>
-      <c r="B121" s="69"/>
-      <c r="C121" s="50"/>
+      <c r="A121" s="52"/>
+      <c r="B121" s="50"/>
+      <c r="C121" s="56"/>
       <c r="D121" s="21" t="s">
         <v>36</v>
       </c>
       <c r="E121" s="9"/>
       <c r="F121" s="9"/>
-      <c r="G121" s="18"/>
+      <c r="G121" s="46">
+        <v>1</v>
+      </c>
       <c r="H121" s="9"/>
       <c r="I121" s="9"/>
       <c r="J121" s="33"/>
@@ -4475,9 +4444,9 @@
       </c>
     </row>
     <row r="122" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A122" s="59"/>
-      <c r="B122" s="70"/>
-      <c r="C122" s="49" t="s">
+      <c r="A122" s="52"/>
+      <c r="B122" s="51"/>
+      <c r="C122" s="55" t="s">
         <v>118</v>
       </c>
       <c r="D122" s="21" t="s">
@@ -4487,7 +4456,9 @@
         <v>105</v>
       </c>
       <c r="F122" s="9"/>
-      <c r="G122" s="18"/>
+      <c r="G122" s="46">
+        <v>1</v>
+      </c>
       <c r="H122" s="9"/>
       <c r="I122" s="9"/>
       <c r="J122" s="33"/>
@@ -4500,17 +4471,19 @@
       </c>
     </row>
     <row r="123" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A123" s="59"/>
-      <c r="B123" s="70"/>
-      <c r="C123" s="53"/>
-      <c r="D123" s="71" t="s">
+      <c r="A123" s="52"/>
+      <c r="B123" s="51"/>
+      <c r="C123" s="60"/>
+      <c r="D123" s="58" t="s">
         <v>39</v>
       </c>
       <c r="E123" s="9" t="s">
         <v>7</v>
       </c>
       <c r="F123" s="9"/>
-      <c r="G123" s="18"/>
+      <c r="G123" s="46">
+        <v>0.5</v>
+      </c>
       <c r="H123" s="9"/>
       <c r="I123" s="9"/>
       <c r="J123" s="33"/>
@@ -4523,15 +4496,17 @@
       </c>
     </row>
     <row r="124" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A124" s="59"/>
-      <c r="B124" s="70"/>
-      <c r="C124" s="53"/>
-      <c r="D124" s="72"/>
+      <c r="A124" s="52"/>
+      <c r="B124" s="51"/>
+      <c r="C124" s="60"/>
+      <c r="D124" s="59"/>
       <c r="E124" s="9" t="s">
         <v>16</v>
       </c>
       <c r="F124" s="9"/>
-      <c r="G124" s="18"/>
+      <c r="G124" s="46">
+        <v>0.5</v>
+      </c>
       <c r="H124" s="9"/>
       <c r="I124" s="9"/>
       <c r="J124" s="33"/>
@@ -4544,15 +4519,17 @@
       </c>
     </row>
     <row r="125" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A125" s="59"/>
-      <c r="B125" s="70"/>
-      <c r="C125" s="50"/>
+      <c r="A125" s="52"/>
+      <c r="B125" s="51"/>
+      <c r="C125" s="56"/>
       <c r="D125" s="21" t="s">
         <v>17</v>
       </c>
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
-      <c r="G125" s="18"/>
+      <c r="G125" s="46">
+        <v>0.5</v>
+      </c>
       <c r="H125" s="9"/>
       <c r="I125" s="9"/>
       <c r="J125" s="33"/>
@@ -4565,8 +4542,8 @@
       </c>
     </row>
     <row r="126" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A126" s="59"/>
-      <c r="B126" s="70"/>
+      <c r="A126" s="52"/>
+      <c r="B126" s="51"/>
       <c r="C126" s="37" t="s">
         <v>77</v>
       </c>
@@ -4586,8 +4563,8 @@
       <c r="M126" s="9"/>
     </row>
     <row r="127" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A127" s="59"/>
-      <c r="B127" s="70"/>
+      <c r="A127" s="52"/>
+      <c r="B127" s="51"/>
       <c r="C127" s="37" t="s">
         <v>78</v>
       </c>
@@ -4607,8 +4584,8 @@
       <c r="M127" s="9"/>
     </row>
     <row r="128" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A128" s="59"/>
-      <c r="B128" s="70"/>
+      <c r="A128" s="52"/>
+      <c r="B128" s="51"/>
       <c r="C128" s="37" t="s">
         <v>79</v>
       </c>
@@ -4628,8 +4605,8 @@
       <c r="M128" s="9"/>
     </row>
     <row r="129" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A129" s="59"/>
-      <c r="B129" s="70"/>
+      <c r="A129" s="52"/>
+      <c r="B129" s="51"/>
       <c r="C129" s="37" t="s">
         <v>80</v>
       </c>
@@ -4654,7 +4631,7 @@
       </c>
       <c r="G130" s="41">
         <f>SUM(G102:G129)</f>
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="J130" s="34"/>
       <c r="K130" s="36"/>
@@ -4672,6 +4649,39 @@
     <protectedRange sqref="L2:L55 L102:L129 L57:L100" name="区域3"/>
   </protectedRanges>
   <mergeCells count="49">
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="N60:N64"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="C85:C100"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="D97:D100"/>
+    <mergeCell ref="D85:D94"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="C76:C80"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="A8:A55"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="B60:B80"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B25:B33"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="B48:B51"/>
     <mergeCell ref="D109:D111"/>
     <mergeCell ref="B115:B129"/>
     <mergeCell ref="A102:A129"/>
@@ -4688,39 +4698,6 @@
     <mergeCell ref="C112:C113"/>
     <mergeCell ref="C108:C111"/>
     <mergeCell ref="C105:C107"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B47"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="A8:A55"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="B60:B80"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B25:B33"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="N60:N64"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="C85:C100"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="D97:D100"/>
-    <mergeCell ref="D85:D94"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="C76:C80"/>
-    <mergeCell ref="C81:C84"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="L42:L53 L25:L37 L2:L14 L102:L129 L66:L100">

--- a/doc/开发计划V0.1.xlsx
+++ b/doc/开发计划V0.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hsd\hsd-servers\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDE\IdeaProjects\hsd-servers\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,10 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>检索/展示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -56,18 +52,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>角色管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>架构搭建</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>组织机构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>登录服务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,14 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日志管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>方案设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,10 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>系统域管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分页,列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,14 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>组织vs用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织vs角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户vs组织</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -151,10 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>功能(权限)管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>角色vs功能(权限)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -180,10 +144,6 @@
   </si>
   <si>
     <t>保存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据字典管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -568,6 +528,46 @@
   </si>
   <si>
     <t>1~2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统域管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能(权限)管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织vs角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织vs用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织机构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据字典管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -941,89 +941,473 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="75">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1248,8 +1632,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="26"/>
-      <tableStyleElement type="headerRow" dxfId="25"/>
+      <tableStyleElement type="wholeTable" dxfId="74"/>
+      <tableStyleElement type="headerRow" dxfId="73"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1553,8 +1937,8 @@
   <dimension ref="A1:N132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G102" sqref="G102:G125"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1591,10 +1975,10 @@
         <v>1</v>
       </c>
       <c r="J1" s="28" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="K1" s="29" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -1602,7 +1986,7 @@
     <row r="2" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="7"/>
       <c r="B2" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -1611,7 +1995,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="J2" s="33"/>
       <c r="K2" s="35">
@@ -1623,11 +2007,11 @@
       <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="53" t="s">
-        <v>89</v>
+      <c r="A3" s="63" t="s">
+        <v>79</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -1644,9 +2028,9 @@
       <c r="M3" s="9"/>
     </row>
     <row r="4" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="54"/>
+      <c r="A4" s="64"/>
       <c r="B4" s="12" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -1663,9 +2047,9 @@
       <c r="M4" s="9"/>
     </row>
     <row r="5" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="54"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="12" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -1682,7 +2066,7 @@
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="54"/>
+      <c r="A6" s="64"/>
       <c r="B6" s="12"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1699,7 +2083,7 @@
       <c r="M6" s="9"/>
     </row>
     <row r="7" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="67"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="12"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1716,7 +2100,7 @@
       <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="60" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="14" t="s">
@@ -1738,9 +2122,9 @@
       <c r="M8" s="9"/>
     </row>
     <row r="9" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="52"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="14" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -1759,9 +2143,9 @@
       <c r="M9" s="9"/>
     </row>
     <row r="10" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="52"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -1771,7 +2155,7 @@
         <v>2</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="J10" s="33"/>
       <c r="K10" s="35">
@@ -1783,64 +2167,76 @@
       <c r="M10" s="9"/>
     </row>
     <row r="11" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="52"/>
-      <c r="B11" s="62" t="s">
-        <v>11</v>
+      <c r="A11" s="60"/>
+      <c r="B11" s="66" t="s">
+        <v>8</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="18">
         <v>1</v>
       </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="H11" s="45">
+        <v>42954</v>
+      </c>
+      <c r="I11" s="45">
+        <v>42958</v>
+      </c>
       <c r="J11" s="33"/>
       <c r="K11" s="35">
         <v>1</v>
       </c>
-      <c r="L11" s="10"/>
+      <c r="L11" s="10">
+        <v>1</v>
+      </c>
       <c r="M11" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A12" s="52"/>
-      <c r="B12" s="63"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="67"/>
       <c r="C12" s="9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="22" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="18">
         <v>0.5</v>
       </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="H12" s="45">
+        <v>42954</v>
+      </c>
+      <c r="I12" s="45">
+        <v>42954</v>
+      </c>
       <c r="J12" s="33"/>
       <c r="K12" s="35">
         <v>1</v>
       </c>
-      <c r="L12" s="10"/>
+      <c r="L12" s="10">
+        <v>1</v>
+      </c>
       <c r="M12" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="52"/>
-      <c r="B13" s="63"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="67"/>
       <c r="C13" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -1856,17 +2252,17 @@
       </c>
       <c r="L13" s="10"/>
       <c r="M13" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="52"/>
-      <c r="B14" s="64"/>
+      <c r="A14" s="60"/>
+      <c r="B14" s="68"/>
       <c r="C14" s="9" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -1881,89 +2277,107 @@
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="52"/>
-      <c r="B15" s="62" t="s">
-        <v>25</v>
+      <c r="A15" s="60"/>
+      <c r="B15" s="66" t="s">
+        <v>132</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="18">
         <v>0.5</v>
       </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
+      <c r="H15" s="45">
+        <v>42954</v>
+      </c>
+      <c r="I15" s="45">
+        <v>42954</v>
+      </c>
       <c r="J15" s="33"/>
       <c r="K15" s="35">
         <v>1</v>
       </c>
-      <c r="L15" s="10"/>
+      <c r="L15" s="10">
+        <v>1</v>
+      </c>
       <c r="M15" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="52"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="55" t="s">
-        <v>39</v>
+      <c r="A16" s="60"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="50" t="s">
+        <v>30</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="18">
         <v>0.5</v>
       </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
+      <c r="H16" s="45">
+        <v>42954</v>
+      </c>
+      <c r="I16" s="45">
+        <v>42954</v>
+      </c>
       <c r="J16" s="33"/>
       <c r="K16" s="35">
         <v>1</v>
       </c>
-      <c r="L16" s="10"/>
+      <c r="L16" s="10">
+        <v>1</v>
+      </c>
       <c r="M16" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="52"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="56"/>
+      <c r="A17" s="60"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="18">
         <v>0.5</v>
       </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="H17" s="45">
+        <v>42954</v>
+      </c>
+      <c r="I17" s="45">
+        <v>42954</v>
+      </c>
       <c r="J17" s="33"/>
       <c r="K17" s="35">
         <v>1</v>
       </c>
-      <c r="L17" s="10"/>
+      <c r="L17" s="10">
+        <v>1</v>
+      </c>
       <c r="M17" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="52"/>
-      <c r="B18" s="64"/>
+      <c r="A18" s="60"/>
+      <c r="B18" s="68"/>
       <c r="C18" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
@@ -1971,97 +2385,117 @@
       <c r="G18" s="18">
         <v>0.5</v>
       </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
+      <c r="H18" s="45">
+        <v>42954</v>
+      </c>
+      <c r="I18" s="45">
+        <v>42954</v>
+      </c>
       <c r="J18" s="33"/>
       <c r="K18" s="35">
         <v>1</v>
       </c>
-      <c r="L18" s="10"/>
+      <c r="L18" s="10">
+        <v>1</v>
+      </c>
       <c r="M18" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="52"/>
-      <c r="B19" s="62" t="s">
-        <v>10</v>
+      <c r="A19" s="60"/>
+      <c r="B19" s="66" t="s">
+        <v>139</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="18">
         <v>0.5</v>
       </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
+      <c r="H19" s="45">
+        <v>42955</v>
+      </c>
+      <c r="I19" s="45">
+        <v>42955</v>
+      </c>
       <c r="J19" s="33"/>
       <c r="K19" s="35">
         <v>1</v>
       </c>
-      <c r="L19" s="10"/>
+      <c r="L19" s="10">
+        <v>1</v>
+      </c>
       <c r="M19" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="52"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="55" t="s">
-        <v>39</v>
+      <c r="A20" s="60"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="50" t="s">
+        <v>30</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="18">
         <v>0.5</v>
       </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
+      <c r="H20" s="45">
+        <v>42955</v>
+      </c>
+      <c r="I20" s="45"/>
       <c r="J20" s="33"/>
       <c r="K20" s="35">
         <v>1</v>
       </c>
-      <c r="L20" s="10"/>
+      <c r="L20" s="10">
+        <v>1</v>
+      </c>
       <c r="M20" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="52"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="56"/>
+      <c r="A21" s="60"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="18">
         <v>0.5</v>
       </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
+      <c r="H21" s="45">
+        <v>42955</v>
+      </c>
+      <c r="I21" s="45"/>
       <c r="J21" s="33"/>
       <c r="K21" s="35">
         <v>1</v>
       </c>
-      <c r="L21" s="10"/>
+      <c r="L21" s="10">
+        <v>1</v>
+      </c>
       <c r="M21" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="52"/>
-      <c r="B22" s="63"/>
+      <c r="A22" s="60"/>
+      <c r="B22" s="67"/>
       <c r="C22" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
@@ -2069,22 +2503,28 @@
       <c r="G22" s="18">
         <v>0.5</v>
       </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
+      <c r="H22" s="45">
+        <v>42955</v>
+      </c>
+      <c r="I22" s="45">
+        <v>42955</v>
+      </c>
       <c r="J22" s="33"/>
       <c r="K22" s="35">
         <v>1</v>
       </c>
-      <c r="L22" s="10"/>
+      <c r="L22" s="10">
+        <v>1</v>
+      </c>
       <c r="M22" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="52"/>
-      <c r="B23" s="63"/>
+      <c r="A23" s="60"/>
+      <c r="B23" s="67"/>
       <c r="C23" s="9" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
@@ -2100,14 +2540,14 @@
       </c>
       <c r="L23" s="10"/>
       <c r="M23" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="52"/>
-      <c r="B24" s="64"/>
+      <c r="A24" s="60"/>
+      <c r="B24" s="68"/>
       <c r="C24" s="9" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -2123,89 +2563,103 @@
       </c>
       <c r="L24" s="10"/>
       <c r="M24" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="52"/>
-      <c r="B25" s="62" t="s">
+      <c r="A25" s="60"/>
+      <c r="B25" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>6</v>
-      </c>
       <c r="D25" s="9" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="18">
         <v>0.5</v>
       </c>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
+      <c r="H25" s="45">
+        <v>42956</v>
+      </c>
+      <c r="I25" s="45">
+        <v>42956</v>
+      </c>
       <c r="J25" s="33"/>
       <c r="K25" s="35">
         <v>1</v>
       </c>
-      <c r="L25" s="10"/>
+      <c r="L25" s="10">
+        <v>1</v>
+      </c>
       <c r="M25" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="52"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="55" t="s">
-        <v>39</v>
+      <c r="A26" s="60"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="50" t="s">
+        <v>30</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="18">
         <v>0.5</v>
       </c>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
+      <c r="H26" s="45">
+        <v>42956</v>
+      </c>
+      <c r="I26" s="45"/>
       <c r="J26" s="33"/>
       <c r="K26" s="35">
         <v>1</v>
       </c>
-      <c r="L26" s="10"/>
+      <c r="L26" s="10">
+        <v>0.9</v>
+      </c>
       <c r="M26" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="52"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="56"/>
+      <c r="A27" s="60"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="51"/>
       <c r="D27" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="18">
         <v>0.5</v>
       </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
+      <c r="H27" s="45">
+        <v>42956</v>
+      </c>
+      <c r="I27" s="45"/>
       <c r="J27" s="33"/>
       <c r="K27" s="35">
         <v>1</v>
       </c>
-      <c r="L27" s="10"/>
+      <c r="L27" s="10">
+        <v>0.9</v>
+      </c>
       <c r="M27" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="52"/>
-      <c r="B28" s="63"/>
+      <c r="A28" s="60"/>
+      <c r="B28" s="67"/>
       <c r="C28" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
@@ -2213,22 +2667,28 @@
       <c r="G28" s="18">
         <v>0.5</v>
       </c>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
+      <c r="H28" s="45">
+        <v>42956</v>
+      </c>
+      <c r="I28" s="45">
+        <v>42956</v>
+      </c>
       <c r="J28" s="33"/>
       <c r="K28" s="35">
         <v>1</v>
       </c>
-      <c r="L28" s="10"/>
+      <c r="L28" s="10">
+        <v>1</v>
+      </c>
       <c r="M28" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="52"/>
-      <c r="B29" s="63"/>
+      <c r="A29" s="60"/>
+      <c r="B29" s="67"/>
       <c r="C29" s="9" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
@@ -2244,14 +2704,14 @@
       </c>
       <c r="L29" s="10"/>
       <c r="M29" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="52"/>
-      <c r="B30" s="63"/>
+      <c r="A30" s="60"/>
+      <c r="B30" s="67"/>
       <c r="C30" s="9" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -2267,14 +2727,14 @@
       </c>
       <c r="L30" s="10"/>
       <c r="M30" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="52"/>
-      <c r="B31" s="63"/>
+      <c r="A31" s="60"/>
+      <c r="B31" s="67"/>
       <c r="C31" s="9" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
@@ -2290,14 +2750,14 @@
       </c>
       <c r="L31" s="10"/>
       <c r="M31" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="52"/>
-      <c r="B32" s="63"/>
+      <c r="A32" s="60"/>
+      <c r="B32" s="67"/>
       <c r="C32" s="9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
@@ -2313,14 +2773,14 @@
       </c>
       <c r="L32" s="10"/>
       <c r="M32" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="52"/>
-      <c r="B33" s="64"/>
+      <c r="A33" s="60"/>
+      <c r="B33" s="68"/>
       <c r="C33" s="9" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
@@ -2336,89 +2796,103 @@
       </c>
       <c r="L33" s="10"/>
       <c r="M33" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="52"/>
-      <c r="B34" s="62" t="s">
-        <v>32</v>
+      <c r="A34" s="60"/>
+      <c r="B34" s="66" t="s">
+        <v>133</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="18">
         <v>0.5</v>
       </c>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
+      <c r="H34" s="45">
+        <v>42957</v>
+      </c>
+      <c r="I34" s="45">
+        <v>42957</v>
+      </c>
       <c r="J34" s="33"/>
       <c r="K34" s="35">
         <v>1</v>
       </c>
-      <c r="L34" s="10"/>
+      <c r="L34" s="10">
+        <v>1</v>
+      </c>
       <c r="M34" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="52"/>
-      <c r="B35" s="63"/>
-      <c r="C35" s="55" t="s">
-        <v>39</v>
+      <c r="A35" s="60"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="50" t="s">
+        <v>30</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
       <c r="G35" s="18">
         <v>0.5</v>
       </c>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
+      <c r="H35" s="45">
+        <v>42957</v>
+      </c>
+      <c r="I35" s="45"/>
       <c r="J35" s="33"/>
       <c r="K35" s="35">
         <v>1</v>
       </c>
-      <c r="L35" s="10"/>
+      <c r="L35" s="10">
+        <v>0.9</v>
+      </c>
       <c r="M35" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="52"/>
-      <c r="B36" s="63"/>
-      <c r="C36" s="56"/>
+      <c r="A36" s="60"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="51"/>
       <c r="D36" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="18">
         <v>0.5</v>
       </c>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
+      <c r="H36" s="45">
+        <v>42957</v>
+      </c>
+      <c r="I36" s="45"/>
       <c r="J36" s="33"/>
       <c r="K36" s="35">
         <v>1</v>
       </c>
-      <c r="L36" s="10"/>
+      <c r="L36" s="10">
+        <v>0.9</v>
+      </c>
       <c r="M36" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="52"/>
-      <c r="B37" s="64"/>
+      <c r="A37" s="60"/>
+      <c r="B37" s="68"/>
       <c r="C37" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
@@ -2426,97 +2900,117 @@
       <c r="G37" s="18">
         <v>0.5</v>
       </c>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
+      <c r="H37" s="45">
+        <v>42957</v>
+      </c>
+      <c r="I37" s="45">
+        <v>42957</v>
+      </c>
       <c r="J37" s="33"/>
       <c r="K37" s="35">
         <v>1</v>
       </c>
-      <c r="L37" s="10"/>
+      <c r="L37" s="10">
+        <v>1</v>
+      </c>
       <c r="M37" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="52"/>
-      <c r="B38" s="62" t="s">
-        <v>22</v>
+      <c r="A38" s="60"/>
+      <c r="B38" s="66" t="s">
+        <v>134</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
       <c r="G38" s="18">
         <v>0.5</v>
       </c>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
+      <c r="H38" s="45">
+        <v>42958</v>
+      </c>
+      <c r="I38" s="45">
+        <v>42958</v>
+      </c>
       <c r="J38" s="33"/>
       <c r="K38" s="35">
         <v>1</v>
       </c>
-      <c r="L38" s="10"/>
+      <c r="L38" s="10">
+        <v>1</v>
+      </c>
       <c r="M38" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="52"/>
-      <c r="B39" s="63"/>
-      <c r="C39" s="16" t="s">
-        <v>39</v>
+      <c r="A39" s="60"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="50" t="s">
+        <v>30</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="18">
         <v>0.5</v>
       </c>
-      <c r="H39" s="9"/>
+      <c r="H39" s="45">
+        <v>42958</v>
+      </c>
       <c r="I39" s="9"/>
       <c r="J39" s="33"/>
       <c r="K39" s="35">
         <v>1</v>
       </c>
-      <c r="L39" s="10"/>
+      <c r="L39" s="10">
+        <v>0.7</v>
+      </c>
       <c r="M39" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="52"/>
-      <c r="B40" s="63"/>
-      <c r="C40" s="17"/>
+      <c r="A40" s="60"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="51"/>
       <c r="D40" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
       <c r="G40" s="18">
         <v>0.5</v>
       </c>
-      <c r="H40" s="9"/>
+      <c r="H40" s="45">
+        <v>42958</v>
+      </c>
       <c r="I40" s="9"/>
       <c r="J40" s="33"/>
       <c r="K40" s="35">
         <v>1</v>
       </c>
-      <c r="L40" s="10"/>
+      <c r="L40" s="10">
+        <v>0.7</v>
+      </c>
       <c r="M40" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="52"/>
-      <c r="B41" s="64"/>
+      <c r="A41" s="60"/>
+      <c r="B41" s="68"/>
       <c r="C41" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
@@ -2524,97 +3018,121 @@
       <c r="G41" s="18">
         <v>0.5</v>
       </c>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
+      <c r="H41" s="45">
+        <v>42958</v>
+      </c>
+      <c r="I41" s="45">
+        <v>42958</v>
+      </c>
       <c r="J41" s="33"/>
       <c r="K41" s="35">
         <v>1</v>
       </c>
-      <c r="L41" s="10"/>
+      <c r="L41" s="10">
+        <v>1</v>
+      </c>
       <c r="M41" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="52"/>
-      <c r="B42" s="62" t="s">
-        <v>8</v>
+      <c r="A42" s="60"/>
+      <c r="B42" s="66" t="s">
+        <v>138</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="18">
         <v>0.5</v>
       </c>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
+      <c r="H42" s="45">
+        <v>42958</v>
+      </c>
+      <c r="I42" s="45">
+        <v>42958</v>
+      </c>
       <c r="J42" s="33"/>
       <c r="K42" s="35">
         <v>1</v>
       </c>
-      <c r="L42" s="10"/>
+      <c r="L42" s="10">
+        <v>1</v>
+      </c>
       <c r="M42" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="52"/>
-      <c r="B43" s="63"/>
-      <c r="C43" s="55" t="s">
-        <v>39</v>
+      <c r="A43" s="60"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="50" t="s">
+        <v>30</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="18">
         <v>0.5</v>
       </c>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
+      <c r="H43" s="45">
+        <v>42958</v>
+      </c>
+      <c r="I43" s="45">
+        <v>42958</v>
+      </c>
       <c r="J43" s="33"/>
       <c r="K43" s="35">
         <v>1</v>
       </c>
-      <c r="L43" s="10"/>
+      <c r="L43" s="10">
+        <v>0.9</v>
+      </c>
       <c r="M43" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="52"/>
-      <c r="B44" s="63"/>
-      <c r="C44" s="56"/>
+      <c r="A44" s="60"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="51"/>
       <c r="D44" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="18">
         <v>0.5</v>
       </c>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
+      <c r="H44" s="45">
+        <v>42958</v>
+      </c>
+      <c r="I44" s="45">
+        <v>42958</v>
+      </c>
       <c r="J44" s="33"/>
       <c r="K44" s="35">
         <v>1</v>
       </c>
-      <c r="L44" s="10"/>
+      <c r="L44" s="10">
+        <v>0.9</v>
+      </c>
       <c r="M44" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="52"/>
-      <c r="B45" s="63"/>
+      <c r="A45" s="60"/>
+      <c r="B45" s="67"/>
       <c r="C45" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
@@ -2622,22 +3140,28 @@
       <c r="G45" s="18">
         <v>0.5</v>
       </c>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
+      <c r="H45" s="45">
+        <v>42958</v>
+      </c>
+      <c r="I45" s="45">
+        <v>42958</v>
+      </c>
       <c r="J45" s="33"/>
       <c r="K45" s="35">
         <v>1</v>
       </c>
-      <c r="L45" s="10"/>
+      <c r="L45" s="10">
+        <v>1</v>
+      </c>
       <c r="M45" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="52"/>
-      <c r="B46" s="63"/>
+      <c r="A46" s="60"/>
+      <c r="B46" s="67"/>
       <c r="C46" s="16" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
@@ -2653,14 +3177,14 @@
       </c>
       <c r="L46" s="10"/>
       <c r="M46" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="52"/>
-      <c r="B47" s="64"/>
+      <c r="A47" s="60"/>
+      <c r="B47" s="68"/>
       <c r="C47" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
@@ -2676,189 +3200,231 @@
       </c>
       <c r="L47" s="10"/>
       <c r="M47" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="52"/>
-      <c r="B48" s="62" t="s">
-        <v>21</v>
+      <c r="A48" s="60"/>
+      <c r="B48" s="66" t="s">
+        <v>135</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
       <c r="G48" s="18">
         <v>0.5</v>
       </c>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
+      <c r="H48" s="45">
+        <v>42956</v>
+      </c>
+      <c r="I48" s="45">
+        <v>42958</v>
+      </c>
       <c r="J48" s="33"/>
       <c r="K48" s="35">
         <v>1</v>
       </c>
-      <c r="L48" s="10"/>
+      <c r="L48" s="10">
+        <v>1</v>
+      </c>
       <c r="M48" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:14" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="52"/>
-      <c r="B49" s="63"/>
+      <c r="A49" s="60"/>
+      <c r="B49" s="67"/>
       <c r="C49" s="17"/>
       <c r="D49" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="18">
         <v>0.5</v>
       </c>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
+      <c r="H49" s="45">
+        <v>42956</v>
+      </c>
+      <c r="I49" s="45">
+        <v>42958</v>
+      </c>
       <c r="J49" s="33"/>
       <c r="K49" s="35">
         <v>1</v>
       </c>
-      <c r="L49" s="10"/>
+      <c r="L49" s="10">
+        <v>1</v>
+      </c>
       <c r="M49" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:14" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="52"/>
-      <c r="B50" s="63"/>
+      <c r="A50" s="60"/>
+      <c r="B50" s="67"/>
       <c r="C50" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
       <c r="G50" s="18">
         <v>0.5</v>
       </c>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
+      <c r="H50" s="45">
+        <v>42956</v>
+      </c>
+      <c r="I50" s="45">
+        <v>42958</v>
+      </c>
       <c r="J50" s="33"/>
       <c r="K50" s="35">
         <v>1</v>
       </c>
-      <c r="L50" s="10"/>
+      <c r="L50" s="10">
+        <v>1</v>
+      </c>
       <c r="M50" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:14" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="52"/>
-      <c r="B51" s="64"/>
+      <c r="A51" s="60"/>
+      <c r="B51" s="68"/>
       <c r="C51" s="17"/>
       <c r="D51" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="18">
         <v>0.5</v>
       </c>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
+      <c r="H51" s="45">
+        <v>42956</v>
+      </c>
+      <c r="I51" s="45">
+        <v>42958</v>
+      </c>
       <c r="J51" s="33"/>
       <c r="K51" s="35">
         <v>1</v>
       </c>
-      <c r="L51" s="10"/>
+      <c r="L51" s="10">
+        <v>1</v>
+      </c>
       <c r="M51" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A52" s="52"/>
-      <c r="B52" s="62" t="s">
-        <v>40</v>
+      <c r="A52" s="60"/>
+      <c r="B52" s="66" t="s">
+        <v>141</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
       <c r="G52" s="18">
         <v>0.5</v>
       </c>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
+      <c r="H52" s="45">
+        <v>42958</v>
+      </c>
+      <c r="I52" s="45">
+        <v>42958</v>
+      </c>
       <c r="J52" s="33"/>
       <c r="K52" s="35">
         <v>1</v>
       </c>
-      <c r="L52" s="10"/>
+      <c r="L52" s="10">
+        <v>1</v>
+      </c>
       <c r="M52" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A53" s="52"/>
-      <c r="B53" s="63"/>
-      <c r="C53" s="55" t="s">
-        <v>39</v>
+      <c r="A53" s="60"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="50" t="s">
+        <v>30</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
       <c r="G53" s="18">
         <v>0.5</v>
       </c>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
+      <c r="H53" s="45">
+        <v>42958</v>
+      </c>
+      <c r="I53" s="45">
+        <v>42958</v>
+      </c>
       <c r="J53" s="33"/>
       <c r="K53" s="35">
         <v>1</v>
       </c>
-      <c r="L53" s="10"/>
+      <c r="L53" s="10">
+        <v>0.9</v>
+      </c>
       <c r="M53" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A54" s="52"/>
-      <c r="B54" s="63"/>
-      <c r="C54" s="56"/>
+      <c r="A54" s="60"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="51"/>
       <c r="D54" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
       <c r="G54" s="18">
         <v>0.5</v>
       </c>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
+      <c r="H54" s="45">
+        <v>42958</v>
+      </c>
+      <c r="I54" s="45">
+        <v>42958</v>
+      </c>
       <c r="J54" s="33"/>
       <c r="K54" s="35">
         <v>1</v>
       </c>
-      <c r="L54" s="10"/>
+      <c r="L54" s="10">
+        <v>0.9</v>
+      </c>
       <c r="M54" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A55" s="52"/>
-      <c r="B55" s="64"/>
+      <c r="A55" s="60"/>
+      <c r="B55" s="68"/>
       <c r="C55" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
@@ -2866,20 +3432,26 @@
       <c r="G55" s="18">
         <v>0.5</v>
       </c>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
+      <c r="H55" s="45">
+        <v>42958</v>
+      </c>
+      <c r="I55" s="45">
+        <v>42958</v>
+      </c>
       <c r="J55" s="33"/>
       <c r="K55" s="35">
         <v>1</v>
       </c>
-      <c r="L55" s="10"/>
+      <c r="L55" s="10">
+        <v>1</v>
+      </c>
       <c r="M55" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="F56" s="42" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="G56" s="24">
         <f>SUM(G9:G54)</f>
@@ -2891,8 +3463,8 @@
       </c>
     </row>
     <row r="57" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="53" t="s">
-        <v>88</v>
+      <c r="A57" s="63" t="s">
+        <v>78</v>
       </c>
       <c r="B57" s="18" t="s">
         <v>3</v>
@@ -2916,9 +3488,9 @@
       <c r="M57" s="9"/>
     </row>
     <row r="58" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="54"/>
+      <c r="A58" s="64"/>
       <c r="B58" s="18" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
@@ -2937,9 +3509,9 @@
       <c r="M58" s="9"/>
     </row>
     <row r="59" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="54"/>
+      <c r="A59" s="64"/>
       <c r="B59" s="18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
@@ -2958,18 +3530,18 @@
       <c r="M59" s="9"/>
     </row>
     <row r="60" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="54"/>
-      <c r="B60" s="65" t="s">
-        <v>84</v>
-      </c>
-      <c r="C60" s="57" t="s">
-        <v>51</v>
+      <c r="A60" s="64"/>
+      <c r="B60" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60" s="53" t="s">
+        <v>41</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F60" s="9"/>
       <c r="G60" s="18">
@@ -2983,21 +3555,21 @@
       </c>
       <c r="L60" s="10"/>
       <c r="M60" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="N60" s="68" t="s">
-        <v>110</v>
+        <v>130</v>
+      </c>
+      <c r="N60" s="49" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="54"/>
-      <c r="B61" s="66"/>
-      <c r="C61" s="57"/>
-      <c r="D61" s="55" t="s">
-        <v>101</v>
+      <c r="A61" s="64"/>
+      <c r="B61" s="62"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="50" t="s">
+        <v>91</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F61" s="9"/>
       <c r="G61" s="18">
@@ -3011,17 +3583,17 @@
       </c>
       <c r="L61" s="10"/>
       <c r="M61" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="N61" s="68"/>
+        <v>130</v>
+      </c>
+      <c r="N61" s="49"/>
     </row>
     <row r="62" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="54"/>
-      <c r="B62" s="66"/>
-      <c r="C62" s="57"/>
-      <c r="D62" s="56"/>
+      <c r="A62" s="64"/>
+      <c r="B62" s="62"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="51"/>
       <c r="E62" s="9" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F62" s="9"/>
       <c r="G62" s="18">
@@ -3035,21 +3607,21 @@
       </c>
       <c r="L62" s="10"/>
       <c r="M62" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="N62" s="68"/>
+        <v>130</v>
+      </c>
+      <c r="N62" s="49"/>
     </row>
     <row r="63" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="54"/>
-      <c r="B63" s="66"/>
-      <c r="C63" s="55" t="s">
-        <v>95</v>
+      <c r="A63" s="64"/>
+      <c r="B63" s="62"/>
+      <c r="C63" s="50" t="s">
+        <v>85</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E63" s="32" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F63" s="22"/>
       <c r="G63" s="18">
@@ -3063,19 +3635,19 @@
       </c>
       <c r="L63" s="10"/>
       <c r="M63" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="N63" s="68"/>
+        <v>130</v>
+      </c>
+      <c r="N63" s="49"/>
     </row>
     <row r="64" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="54"/>
-      <c r="B64" s="66"/>
-      <c r="C64" s="56"/>
+      <c r="A64" s="64"/>
+      <c r="B64" s="62"/>
+      <c r="C64" s="51"/>
       <c r="D64" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E64" s="32" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F64" s="9"/>
       <c r="G64" s="18">
@@ -3089,19 +3661,19 @@
       </c>
       <c r="L64" s="10"/>
       <c r="M64" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="N64" s="68"/>
+        <v>130</v>
+      </c>
+      <c r="N64" s="49"/>
     </row>
     <row r="65" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="54"/>
-      <c r="B65" s="66"/>
+      <c r="A65" s="64"/>
+      <c r="B65" s="62"/>
       <c r="C65" s="17" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="32" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F65" s="9"/>
       <c r="G65" s="18"/>
@@ -3113,17 +3685,17 @@
       </c>
       <c r="L65" s="10"/>
       <c r="M65" s="43" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A66" s="54"/>
-      <c r="B66" s="66"/>
-      <c r="C66" s="57" t="s">
-        <v>56</v>
+      <c r="A66" s="64"/>
+      <c r="B66" s="62"/>
+      <c r="C66" s="53" t="s">
+        <v>46</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
@@ -3138,18 +3710,18 @@
       </c>
       <c r="L66" s="10"/>
       <c r="M66" s="43" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A67" s="54"/>
-      <c r="B67" s="66"/>
-      <c r="C67" s="57"/>
-      <c r="D67" s="57" t="s">
-        <v>102</v>
+      <c r="A67" s="64"/>
+      <c r="B67" s="62"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="53" t="s">
+        <v>92</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F67" s="9"/>
       <c r="G67" s="18">
@@ -3163,16 +3735,16 @@
       </c>
       <c r="L67" s="10"/>
       <c r="M67" s="43" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A68" s="54"/>
-      <c r="B68" s="66"/>
-      <c r="C68" s="57"/>
-      <c r="D68" s="57"/>
+      <c r="A68" s="64"/>
+      <c r="B68" s="62"/>
+      <c r="C68" s="53"/>
+      <c r="D68" s="53"/>
       <c r="E68" s="9" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F68" s="9"/>
       <c r="G68" s="18">
@@ -3186,17 +3758,17 @@
       </c>
       <c r="L68" s="10"/>
       <c r="M68" s="43" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A69" s="54"/>
-      <c r="B69" s="66"/>
-      <c r="C69" s="55" t="s">
-        <v>47</v>
+      <c r="A69" s="64"/>
+      <c r="B69" s="62"/>
+      <c r="C69" s="50" t="s">
+        <v>37</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
@@ -3211,15 +3783,15 @@
       </c>
       <c r="L69" s="10"/>
       <c r="M69" s="43" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A70" s="54"/>
-      <c r="B70" s="66"/>
-      <c r="C70" s="60"/>
+      <c r="A70" s="64"/>
+      <c r="B70" s="62"/>
+      <c r="C70" s="54"/>
       <c r="D70" s="9" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
@@ -3234,18 +3806,18 @@
       </c>
       <c r="L70" s="10"/>
       <c r="M70" s="43" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="71" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A71" s="54"/>
-      <c r="B71" s="66"/>
-      <c r="C71" s="56"/>
+      <c r="A71" s="64"/>
+      <c r="B71" s="62"/>
+      <c r="C71" s="51"/>
       <c r="D71" s="9" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E71" s="32" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F71" s="9"/>
       <c r="G71" s="18">
@@ -3259,14 +3831,14 @@
       </c>
       <c r="L71" s="10"/>
       <c r="M71" s="43" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A72" s="54"/>
-      <c r="B72" s="66"/>
+      <c r="A72" s="64"/>
+      <c r="B72" s="62"/>
       <c r="C72" s="9" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
@@ -3282,14 +3854,14 @@
       </c>
       <c r="L72" s="10"/>
       <c r="M72" s="43" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A73" s="54"/>
-      <c r="B73" s="66"/>
+      <c r="A73" s="64"/>
+      <c r="B73" s="62"/>
       <c r="C73" s="9" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
@@ -3305,20 +3877,20 @@
       </c>
       <c r="L73" s="10"/>
       <c r="M73" s="43" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="N73" s="11" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A74" s="54"/>
-      <c r="B74" s="66"/>
-      <c r="C74" s="55" t="s">
-        <v>68</v>
+      <c r="A74" s="64"/>
+      <c r="B74" s="62"/>
+      <c r="C74" s="50" t="s">
+        <v>58</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E74" s="21"/>
       <c r="F74" s="31"/>
@@ -3333,18 +3905,18 @@
       </c>
       <c r="L74" s="10"/>
       <c r="M74" s="43" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A75" s="54"/>
-      <c r="B75" s="66"/>
-      <c r="C75" s="56"/>
+      <c r="A75" s="64"/>
+      <c r="B75" s="62"/>
+      <c r="C75" s="51"/>
       <c r="D75" s="9" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E75" s="32" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="F75" s="9"/>
       <c r="G75" s="18">
@@ -3358,17 +3930,17 @@
       </c>
       <c r="L75" s="10"/>
       <c r="M75" s="43" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A76" s="54"/>
-      <c r="B76" s="66"/>
-      <c r="C76" s="69" t="s">
-        <v>62</v>
+      <c r="A76" s="64"/>
+      <c r="B76" s="62"/>
+      <c r="C76" s="55" t="s">
+        <v>52</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E76" s="19"/>
       <c r="F76" s="19"/>
@@ -3385,11 +3957,11 @@
       <c r="M76" s="43"/>
     </row>
     <row r="77" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A77" s="54"/>
-      <c r="B77" s="66"/>
-      <c r="C77" s="70"/>
+      <c r="A77" s="64"/>
+      <c r="B77" s="62"/>
+      <c r="C77" s="56"/>
       <c r="D77" s="19" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E77" s="19"/>
       <c r="F77" s="19"/>
@@ -3406,11 +3978,11 @@
       <c r="M77" s="43"/>
     </row>
     <row r="78" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A78" s="54"/>
-      <c r="B78" s="66"/>
-      <c r="C78" s="70"/>
+      <c r="A78" s="64"/>
+      <c r="B78" s="62"/>
+      <c r="C78" s="56"/>
       <c r="D78" s="19" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E78" s="19"/>
       <c r="F78" s="19"/>
@@ -3427,11 +3999,11 @@
       <c r="M78" s="43"/>
     </row>
     <row r="79" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A79" s="54"/>
-      <c r="B79" s="66"/>
-      <c r="C79" s="70"/>
+      <c r="A79" s="64"/>
+      <c r="B79" s="62"/>
+      <c r="C79" s="56"/>
       <c r="D79" s="19" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E79" s="19"/>
       <c r="F79" s="19"/>
@@ -3448,11 +4020,11 @@
       <c r="M79" s="43"/>
     </row>
     <row r="80" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A80" s="54"/>
-      <c r="B80" s="66"/>
-      <c r="C80" s="71"/>
+      <c r="A80" s="64"/>
+      <c r="B80" s="62"/>
+      <c r="C80" s="57"/>
       <c r="D80" s="19" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E80" s="19"/>
       <c r="F80" s="19"/>
@@ -3469,15 +4041,15 @@
       <c r="M80" s="43"/>
     </row>
     <row r="81" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A81" s="54"/>
-      <c r="B81" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="C81" s="72" t="s">
-        <v>86</v>
+      <c r="A81" s="64"/>
+      <c r="B81" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="C81" s="58" t="s">
+        <v>76</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
@@ -3494,11 +4066,11 @@
       <c r="M81" s="43"/>
     </row>
     <row r="82" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A82" s="54"/>
-      <c r="B82" s="51"/>
-      <c r="C82" s="73"/>
+      <c r="A82" s="64"/>
+      <c r="B82" s="71"/>
+      <c r="C82" s="59"/>
       <c r="D82" s="15" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
@@ -3515,11 +4087,11 @@
       <c r="M82" s="43"/>
     </row>
     <row r="83" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A83" s="54"/>
-      <c r="B83" s="51"/>
-      <c r="C83" s="73"/>
+      <c r="A83" s="64"/>
+      <c r="B83" s="71"/>
+      <c r="C83" s="59"/>
       <c r="D83" s="15" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="G83" s="26">
         <v>0</v>
@@ -3534,11 +4106,11 @@
       <c r="M83" s="43"/>
     </row>
     <row r="84" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A84" s="54"/>
-      <c r="B84" s="51"/>
-      <c r="C84" s="73"/>
+      <c r="A84" s="64"/>
+      <c r="B84" s="71"/>
+      <c r="C84" s="59"/>
       <c r="D84" s="15" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G84" s="26">
         <v>0</v>
@@ -3553,19 +4125,19 @@
       <c r="M84" s="43"/>
     </row>
     <row r="85" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A85" s="54"/>
-      <c r="B85" s="51"/>
-      <c r="C85" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="D85" s="55" t="s">
-        <v>72</v>
+      <c r="A85" s="64"/>
+      <c r="B85" s="71"/>
+      <c r="C85" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="D85" s="50" t="s">
+        <v>62</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="G85" s="44">
         <v>1</v>
@@ -3578,19 +4150,19 @@
       </c>
       <c r="L85" s="10"/>
       <c r="M85" s="43" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A86" s="54"/>
-      <c r="B86" s="51"/>
-      <c r="C86" s="61"/>
-      <c r="D86" s="60"/>
-      <c r="E86" s="55" t="s">
-        <v>39</v>
+      <c r="A86" s="64"/>
+      <c r="B86" s="71"/>
+      <c r="C86" s="52"/>
+      <c r="D86" s="54"/>
+      <c r="E86" s="50" t="s">
+        <v>30</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G86" s="44">
         <v>0.5</v>
@@ -3603,17 +4175,17 @@
       </c>
       <c r="L86" s="10"/>
       <c r="M86" s="43" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="87" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A87" s="54"/>
-      <c r="B87" s="51"/>
-      <c r="C87" s="61"/>
-      <c r="D87" s="60"/>
-      <c r="E87" s="56"/>
+      <c r="A87" s="64"/>
+      <c r="B87" s="71"/>
+      <c r="C87" s="52"/>
+      <c r="D87" s="54"/>
+      <c r="E87" s="51"/>
       <c r="F87" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G87" s="44">
         <v>0.5</v>
@@ -3626,16 +4198,16 @@
       </c>
       <c r="L87" s="10"/>
       <c r="M87" s="43" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="88" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A88" s="54"/>
-      <c r="B88" s="51"/>
-      <c r="C88" s="61"/>
-      <c r="D88" s="60"/>
+      <c r="A88" s="64"/>
+      <c r="B88" s="71"/>
+      <c r="C88" s="52"/>
+      <c r="D88" s="54"/>
       <c r="E88" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F88" s="9"/>
       <c r="G88" s="44">
@@ -3649,16 +4221,16 @@
       </c>
       <c r="L88" s="10"/>
       <c r="M88" s="43" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="89" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A89" s="54"/>
-      <c r="B89" s="51"/>
-      <c r="C89" s="61"/>
-      <c r="D89" s="60"/>
+      <c r="A89" s="64"/>
+      <c r="B89" s="71"/>
+      <c r="C89" s="52"/>
+      <c r="D89" s="54"/>
       <c r="E89" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F89" s="9"/>
       <c r="G89" s="44">
@@ -3672,16 +4244,16 @@
       </c>
       <c r="L89" s="10"/>
       <c r="M89" s="43" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="90" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A90" s="54"/>
-      <c r="B90" s="51"/>
-      <c r="C90" s="61"/>
-      <c r="D90" s="60"/>
+      <c r="A90" s="64"/>
+      <c r="B90" s="71"/>
+      <c r="C90" s="52"/>
+      <c r="D90" s="54"/>
       <c r="E90" s="9" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F90" s="9"/>
       <c r="G90" s="44">
@@ -3695,16 +4267,16 @@
       </c>
       <c r="L90" s="10"/>
       <c r="M90" s="43" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="91" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A91" s="54"/>
-      <c r="B91" s="51"/>
-      <c r="C91" s="61"/>
-      <c r="D91" s="60"/>
+      <c r="A91" s="64"/>
+      <c r="B91" s="71"/>
+      <c r="C91" s="52"/>
+      <c r="D91" s="54"/>
       <c r="E91" s="16" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="F91" s="9"/>
       <c r="G91" s="44">
@@ -3718,19 +4290,19 @@
       </c>
       <c r="L91" s="10"/>
       <c r="M91" s="43" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A92" s="54"/>
-      <c r="B92" s="51"/>
-      <c r="C92" s="61"/>
-      <c r="D92" s="60"/>
-      <c r="E92" s="55" t="s">
-        <v>74</v>
+      <c r="A92" s="64"/>
+      <c r="B92" s="71"/>
+      <c r="C92" s="52"/>
+      <c r="D92" s="54"/>
+      <c r="E92" s="50" t="s">
+        <v>64</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G92" s="44">
         <v>0.5</v>
@@ -3743,17 +4315,17 @@
       </c>
       <c r="L92" s="10"/>
       <c r="M92" s="43" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="93" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A93" s="54"/>
-      <c r="B93" s="51"/>
-      <c r="C93" s="61"/>
-      <c r="D93" s="60"/>
-      <c r="E93" s="60"/>
+      <c r="A93" s="64"/>
+      <c r="B93" s="71"/>
+      <c r="C93" s="52"/>
+      <c r="D93" s="54"/>
+      <c r="E93" s="54"/>
       <c r="F93" s="9" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="G93" s="44">
         <v>0.5</v>
@@ -3766,17 +4338,17 @@
       </c>
       <c r="L93" s="10"/>
       <c r="M93" s="43" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="94" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A94" s="54"/>
-      <c r="B94" s="51"/>
-      <c r="C94" s="61"/>
-      <c r="D94" s="60"/>
-      <c r="E94" s="56"/>
+      <c r="A94" s="64"/>
+      <c r="B94" s="71"/>
+      <c r="C94" s="52"/>
+      <c r="D94" s="54"/>
+      <c r="E94" s="51"/>
       <c r="F94" s="9" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G94" s="44">
         <v>0.5</v>
@@ -3789,18 +4361,18 @@
       </c>
       <c r="L94" s="10"/>
       <c r="M94" s="43" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="95" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A95" s="54"/>
-      <c r="B95" s="51"/>
-      <c r="C95" s="61"/>
-      <c r="D95" s="57" t="s">
-        <v>123</v>
+      <c r="A95" s="64"/>
+      <c r="B95" s="71"/>
+      <c r="C95" s="52"/>
+      <c r="D95" s="53" t="s">
+        <v>113</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F95" s="9"/>
       <c r="G95" s="44">
@@ -3814,22 +4386,22 @@
       </c>
       <c r="L95" s="10"/>
       <c r="M95" s="43" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="96" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A96" s="54"/>
-      <c r="B96" s="51"/>
-      <c r="C96" s="61"/>
-      <c r="D96" s="57"/>
+      <c r="A96" s="64"/>
+      <c r="B96" s="71"/>
+      <c r="C96" s="52"/>
+      <c r="D96" s="53"/>
       <c r="E96" s="9" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="G96" s="44" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="H96" s="9"/>
       <c r="I96" s="9"/>
@@ -3839,24 +4411,24 @@
       </c>
       <c r="L96" s="10"/>
       <c r="M96" s="43" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="N96" s="11" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A97" s="54"/>
-      <c r="B97" s="51"/>
-      <c r="C97" s="61"/>
-      <c r="D97" s="55" t="s">
-        <v>136</v>
+      <c r="A97" s="64"/>
+      <c r="B97" s="71"/>
+      <c r="C97" s="52"/>
+      <c r="D97" s="50" t="s">
+        <v>126</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="G97" s="44">
         <v>1</v>
@@ -3869,22 +4441,22 @@
       </c>
       <c r="L97" s="10"/>
       <c r="M97" s="43" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="N97" s="11" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="98" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A98" s="54"/>
-      <c r="B98" s="51"/>
-      <c r="C98" s="61"/>
-      <c r="D98" s="60"/>
-      <c r="E98" s="55" t="s">
-        <v>39</v>
+      <c r="A98" s="64"/>
+      <c r="B98" s="71"/>
+      <c r="C98" s="52"/>
+      <c r="D98" s="54"/>
+      <c r="E98" s="50" t="s">
+        <v>30</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G98" s="44">
         <v>0.5</v>
@@ -3897,17 +4469,17 @@
       </c>
       <c r="L98" s="10"/>
       <c r="M98" s="43" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="99" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A99" s="54"/>
-      <c r="B99" s="51"/>
-      <c r="C99" s="61"/>
-      <c r="D99" s="60"/>
-      <c r="E99" s="56"/>
+      <c r="A99" s="64"/>
+      <c r="B99" s="71"/>
+      <c r="C99" s="52"/>
+      <c r="D99" s="54"/>
+      <c r="E99" s="51"/>
       <c r="F99" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G99" s="44">
         <v>0.5</v>
@@ -3920,16 +4492,16 @@
       </c>
       <c r="L99" s="10"/>
       <c r="M99" s="43" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="100" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A100" s="54"/>
-      <c r="B100" s="51"/>
-      <c r="C100" s="61"/>
-      <c r="D100" s="56"/>
+      <c r="A100" s="64"/>
+      <c r="B100" s="71"/>
+      <c r="C100" s="52"/>
+      <c r="D100" s="51"/>
       <c r="E100" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F100" s="9"/>
       <c r="G100" s="44">
@@ -3943,12 +4515,12 @@
       </c>
       <c r="L100" s="10"/>
       <c r="M100" s="43" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="101" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="F101" s="42" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="G101" s="41">
         <f>SUM(G57:G100)</f>
@@ -3958,8 +4530,8 @@
       <c r="K101" s="35"/>
     </row>
     <row r="102" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A102" s="52" t="s">
-        <v>81</v>
+      <c r="A102" s="60" t="s">
+        <v>71</v>
       </c>
       <c r="B102" s="18" t="s">
         <v>3</v>
@@ -3979,13 +4551,13 @@
       </c>
       <c r="L102" s="10"/>
       <c r="M102" s="9" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A103" s="52"/>
+      <c r="A103" s="60"/>
       <c r="B103" s="18" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
@@ -4002,13 +4574,13 @@
       </c>
       <c r="L103" s="10"/>
       <c r="M103" s="9" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A104" s="52"/>
+      <c r="A104" s="60"/>
       <c r="B104" s="18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
@@ -4025,22 +4597,22 @@
       </c>
       <c r="L104" s="10"/>
       <c r="M104" s="9" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="105" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="52"/>
-      <c r="B105" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="C105" s="55" t="s">
-        <v>44</v>
+      <c r="A105" s="60"/>
+      <c r="B105" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C105" s="50" t="s">
+        <v>34</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F105" s="9"/>
       <c r="G105" s="46">
@@ -4054,18 +4626,18 @@
       </c>
       <c r="L105" s="10"/>
       <c r="M105" s="9" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="106" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A106" s="52"/>
-      <c r="B106" s="51"/>
-      <c r="C106" s="60"/>
+      <c r="A106" s="60"/>
+      <c r="B106" s="71"/>
+      <c r="C106" s="54"/>
       <c r="D106" s="47" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F106" s="9"/>
       <c r="G106" s="46">
@@ -4079,16 +4651,16 @@
       </c>
       <c r="L106" s="10"/>
       <c r="M106" s="9" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="107" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A107" s="52"/>
-      <c r="B107" s="51"/>
-      <c r="C107" s="56"/>
-      <c r="D107" s="49"/>
+      <c r="A107" s="60"/>
+      <c r="B107" s="71"/>
+      <c r="C107" s="51"/>
+      <c r="D107" s="48"/>
       <c r="E107" s="9" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F107" s="9"/>
       <c r="G107" s="46">
@@ -4102,20 +4674,20 @@
       </c>
       <c r="L107" s="10"/>
       <c r="M107" s="9" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="108" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A108" s="52"/>
-      <c r="B108" s="51"/>
-      <c r="C108" s="55" t="s">
-        <v>56</v>
+      <c r="A108" s="60"/>
+      <c r="B108" s="71"/>
+      <c r="C108" s="50" t="s">
+        <v>46</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F108" s="9"/>
       <c r="G108" s="46">
@@ -4129,18 +4701,18 @@
       </c>
       <c r="L108" s="10"/>
       <c r="M108" s="9" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="109" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A109" s="52"/>
-      <c r="B109" s="51"/>
-      <c r="C109" s="60"/>
+      <c r="A109" s="60"/>
+      <c r="B109" s="71"/>
+      <c r="C109" s="54"/>
       <c r="D109" s="47" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F109" s="9"/>
       <c r="G109" s="46">
@@ -4154,16 +4726,16 @@
       </c>
       <c r="L109" s="10"/>
       <c r="M109" s="9" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="110" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A110" s="52"/>
-      <c r="B110" s="51"/>
-      <c r="C110" s="60"/>
-      <c r="D110" s="48"/>
+      <c r="A110" s="60"/>
+      <c r="B110" s="71"/>
+      <c r="C110" s="54"/>
+      <c r="D110" s="69"/>
       <c r="E110" s="9" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F110" s="9"/>
       <c r="G110" s="46">
@@ -4177,16 +4749,16 @@
       </c>
       <c r="L110" s="10"/>
       <c r="M110" s="9" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="111" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A111" s="52"/>
-      <c r="B111" s="51"/>
-      <c r="C111" s="56"/>
-      <c r="D111" s="49"/>
+      <c r="A111" s="60"/>
+      <c r="B111" s="71"/>
+      <c r="C111" s="51"/>
+      <c r="D111" s="48"/>
       <c r="E111" s="9" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F111" s="9"/>
       <c r="G111" s="46">
@@ -4200,17 +4772,17 @@
       </c>
       <c r="L111" s="10"/>
       <c r="M111" s="9" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="112" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A112" s="52"/>
-      <c r="B112" s="51"/>
-      <c r="C112" s="61" t="s">
-        <v>83</v>
+      <c r="A112" s="60"/>
+      <c r="B112" s="71"/>
+      <c r="C112" s="52" t="s">
+        <v>73</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E112" s="9"/>
       <c r="F112" s="9"/>
@@ -4225,15 +4797,15 @@
       </c>
       <c r="L112" s="10"/>
       <c r="M112" s="9" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="113" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A113" s="52"/>
-      <c r="B113" s="51"/>
-      <c r="C113" s="57"/>
+      <c r="A113" s="60"/>
+      <c r="B113" s="71"/>
+      <c r="C113" s="53"/>
       <c r="D113" s="9" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
@@ -4248,14 +4820,14 @@
       </c>
       <c r="L113" s="10"/>
       <c r="M113" s="9" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="114" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A114" s="52"/>
-      <c r="B114" s="51"/>
+      <c r="A114" s="60"/>
+      <c r="B114" s="71"/>
       <c r="C114" s="9" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
@@ -4271,22 +4843,22 @@
       </c>
       <c r="L114" s="10"/>
       <c r="M114" s="9" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="115" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A115" s="52"/>
-      <c r="B115" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="C115" s="55" t="s">
-        <v>76</v>
+      <c r="A115" s="60"/>
+      <c r="B115" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="C115" s="50" t="s">
+        <v>66</v>
       </c>
       <c r="D115" s="21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F115" s="9"/>
       <c r="G115" s="46">
@@ -4300,18 +4872,18 @@
       </c>
       <c r="L115" s="10"/>
       <c r="M115" s="9" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="116" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A116" s="52"/>
-      <c r="B116" s="50"/>
-      <c r="C116" s="60"/>
-      <c r="D116" s="58" t="s">
-        <v>39</v>
+      <c r="A116" s="60"/>
+      <c r="B116" s="70"/>
+      <c r="C116" s="54"/>
+      <c r="D116" s="72" t="s">
+        <v>30</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F116" s="9"/>
       <c r="G116" s="46">
@@ -4325,16 +4897,16 @@
       </c>
       <c r="L116" s="10"/>
       <c r="M116" s="9" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A117" s="52"/>
-      <c r="B117" s="50"/>
-      <c r="C117" s="60"/>
-      <c r="D117" s="59"/>
+      <c r="A117" s="60"/>
+      <c r="B117" s="70"/>
+      <c r="C117" s="54"/>
+      <c r="D117" s="73"/>
       <c r="E117" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F117" s="9"/>
       <c r="G117" s="46">
@@ -4348,15 +4920,15 @@
       </c>
       <c r="L117" s="10"/>
       <c r="M117" s="9" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="118" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A118" s="52"/>
-      <c r="B118" s="50"/>
-      <c r="C118" s="60"/>
+      <c r="A118" s="60"/>
+      <c r="B118" s="70"/>
+      <c r="C118" s="54"/>
       <c r="D118" s="21" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E118" s="9"/>
       <c r="F118" s="9"/>
@@ -4371,15 +4943,15 @@
       </c>
       <c r="L118" s="10"/>
       <c r="M118" s="9" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="119" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A119" s="52"/>
-      <c r="B119" s="50"/>
-      <c r="C119" s="60"/>
+      <c r="A119" s="60"/>
+      <c r="B119" s="70"/>
+      <c r="C119" s="54"/>
       <c r="D119" s="21" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E119" s="9"/>
       <c r="F119" s="9"/>
@@ -4394,15 +4966,15 @@
       </c>
       <c r="L119" s="10"/>
       <c r="M119" s="9" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="120" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A120" s="52"/>
-      <c r="B120" s="50"/>
-      <c r="C120" s="60"/>
+      <c r="A120" s="60"/>
+      <c r="B120" s="70"/>
+      <c r="C120" s="54"/>
       <c r="D120" s="21" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E120" s="9"/>
       <c r="F120" s="9"/>
@@ -4417,15 +4989,15 @@
       </c>
       <c r="L120" s="10"/>
       <c r="M120" s="9" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="121" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A121" s="52"/>
-      <c r="B121" s="50"/>
-      <c r="C121" s="56"/>
+      <c r="A121" s="60"/>
+      <c r="B121" s="70"/>
+      <c r="C121" s="51"/>
       <c r="D121" s="21" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E121" s="9"/>
       <c r="F121" s="9"/>
@@ -4440,20 +5012,20 @@
       </c>
       <c r="L121" s="10"/>
       <c r="M121" s="9" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="122" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A122" s="52"/>
-      <c r="B122" s="51"/>
-      <c r="C122" s="55" t="s">
-        <v>118</v>
+      <c r="A122" s="60"/>
+      <c r="B122" s="71"/>
+      <c r="C122" s="50" t="s">
+        <v>108</v>
       </c>
       <c r="D122" s="21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F122" s="9"/>
       <c r="G122" s="46">
@@ -4467,18 +5039,18 @@
       </c>
       <c r="L122" s="10"/>
       <c r="M122" s="9" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="123" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A123" s="52"/>
-      <c r="B123" s="51"/>
-      <c r="C123" s="60"/>
-      <c r="D123" s="58" t="s">
-        <v>39</v>
+      <c r="A123" s="60"/>
+      <c r="B123" s="71"/>
+      <c r="C123" s="54"/>
+      <c r="D123" s="72" t="s">
+        <v>30</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F123" s="9"/>
       <c r="G123" s="46">
@@ -4492,16 +5064,16 @@
       </c>
       <c r="L123" s="10"/>
       <c r="M123" s="9" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="124" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A124" s="52"/>
-      <c r="B124" s="51"/>
-      <c r="C124" s="60"/>
-      <c r="D124" s="59"/>
+      <c r="A124" s="60"/>
+      <c r="B124" s="71"/>
+      <c r="C124" s="54"/>
+      <c r="D124" s="73"/>
       <c r="E124" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F124" s="9"/>
       <c r="G124" s="46">
@@ -4515,15 +5087,15 @@
       </c>
       <c r="L124" s="10"/>
       <c r="M124" s="9" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="125" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A125" s="52"/>
-      <c r="B125" s="51"/>
-      <c r="C125" s="56"/>
+      <c r="A125" s="60"/>
+      <c r="B125" s="71"/>
+      <c r="C125" s="51"/>
       <c r="D125" s="21" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
@@ -4538,14 +5110,14 @@
       </c>
       <c r="L125" s="10"/>
       <c r="M125" s="9" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="126" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A126" s="52"/>
-      <c r="B126" s="51"/>
+      <c r="A126" s="60"/>
+      <c r="B126" s="71"/>
       <c r="C126" s="37" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D126" s="38"/>
       <c r="E126" s="37"/>
@@ -4563,10 +5135,10 @@
       <c r="M126" s="9"/>
     </row>
     <row r="127" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A127" s="52"/>
-      <c r="B127" s="51"/>
+      <c r="A127" s="60"/>
+      <c r="B127" s="71"/>
       <c r="C127" s="37" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D127" s="38"/>
       <c r="E127" s="37"/>
@@ -4584,10 +5156,10 @@
       <c r="M127" s="9"/>
     </row>
     <row r="128" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A128" s="52"/>
-      <c r="B128" s="51"/>
+      <c r="A128" s="60"/>
+      <c r="B128" s="71"/>
       <c r="C128" s="37" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D128" s="37"/>
       <c r="E128" s="37"/>
@@ -4605,10 +5177,10 @@
       <c r="M128" s="9"/>
     </row>
     <row r="129" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A129" s="52"/>
-      <c r="B129" s="51"/>
+      <c r="A129" s="60"/>
+      <c r="B129" s="71"/>
       <c r="C129" s="37" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D129" s="37"/>
       <c r="E129" s="37"/>
@@ -4627,7 +5199,7 @@
     </row>
     <row r="130" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F130" s="42" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="G130" s="41">
         <f>SUM(G102:G129)</f>
@@ -4646,20 +5218,32 @@
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="L2:L55 L102:L129 L57:L100" name="区域3"/>
+    <protectedRange sqref="L102:L129 L57:L100 L2:L55" name="区域3"/>
   </protectedRanges>
-  <mergeCells count="49">
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="N60:N64"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="C85:C100"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="D97:D100"/>
-    <mergeCell ref="D85:D94"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="C76:C80"/>
-    <mergeCell ref="C81:C84"/>
+  <mergeCells count="50">
+    <mergeCell ref="D109:D111"/>
+    <mergeCell ref="B115:B129"/>
+    <mergeCell ref="A102:A129"/>
+    <mergeCell ref="B105:B114"/>
+    <mergeCell ref="B81:B100"/>
+    <mergeCell ref="A57:A100"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="C115:C121"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="C108:C111"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="C39:C40"/>
     <mergeCell ref="A8:A55"/>
     <mergeCell ref="C69:C71"/>
     <mergeCell ref="B60:B80"/>
@@ -4676,110 +5260,75 @@
     <mergeCell ref="B25:B33"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="B19:B24"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B47"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="D109:D111"/>
-    <mergeCell ref="B115:B129"/>
-    <mergeCell ref="A102:A129"/>
-    <mergeCell ref="B105:B114"/>
-    <mergeCell ref="B81:B100"/>
-    <mergeCell ref="A57:A100"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="C115:C121"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="C108:C111"/>
-    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="N60:N64"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="C85:C100"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="D97:D100"/>
+    <mergeCell ref="D85:D94"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="C76:C80"/>
+    <mergeCell ref="C81:C84"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="L42:L53 L25:L37 L2:L14 L102:L129 L66:L100">
-    <cfRule type="cellIs" dxfId="24" priority="69" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="L2:L14 L102:L129 L66:L100 L25:L37 L46:L51 L43:L44">
+    <cfRule type="cellIs" dxfId="72" priority="87" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="70" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="88" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="71" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="70" priority="89" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L19:L24">
-    <cfRule type="cellIs" dxfId="21" priority="39" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="L23:L24">
+    <cfRule type="cellIs" dxfId="69" priority="57" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="58" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="41" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="67" priority="59" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="duplicateValues" dxfId="18" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L38:L41">
-    <cfRule type="cellIs" dxfId="17" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="53" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="54" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="37" stopIfTrue="1" operator="between">
-      <formula>0</formula>
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L15:L18">
-    <cfRule type="cellIs" dxfId="14" priority="32" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="33" stopIfTrue="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="34" stopIfTrue="1" operator="between">
-      <formula>0</formula>
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L54:L55">
-    <cfRule type="cellIs" dxfId="11" priority="29" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="30" stopIfTrue="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="31" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="63" priority="55" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="duplicateValues" dxfId="8" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L57:L65">
-    <cfRule type="cellIs" dxfId="7" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="43" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="44" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="27" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="53" priority="45" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K76">
-    <cfRule type="colorScale" priority="14">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="num" val="5"/>
         <cfvo type="max"/>
@@ -4787,7 +5336,7 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="15">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="num" val="4"/>
         <cfvo type="max"/>
@@ -4795,7 +5344,7 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="16">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="num" val="3"/>
         <cfvo type="max"/>
@@ -4803,7 +5352,7 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="17">
+    <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="num" val="2"/>
         <cfvo type="max"/>
@@ -4811,7 +5360,7 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="num" val="1"/>
         <cfvo type="max"/>
@@ -4821,24 +5370,84 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K129">
-    <cfRule type="cellIs" dxfId="4" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="27" stopIfTrue="1" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="28" stopIfTrue="1" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="29" stopIfTrue="1" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="30" stopIfTrue="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="31" stopIfTrue="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L15:L19 L22">
+    <cfRule type="cellIs" dxfId="47" priority="16" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="17" stopIfTrue="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="18" stopIfTrue="1" operator="between">
+      <formula>0</formula>
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L20:L21">
+    <cfRule type="cellIs" dxfId="26" priority="10" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="11" stopIfTrue="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="12" stopIfTrue="1" operator="between">
+      <formula>0</formula>
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L52:L55">
+    <cfRule type="cellIs" dxfId="20" priority="7" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="8" stopIfTrue="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="9" stopIfTrue="1" operator="between">
+      <formula>0</formula>
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L42">
+    <cfRule type="cellIs" dxfId="14" priority="4" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="5" stopIfTrue="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="6" stopIfTrue="1" operator="between">
+      <formula>0</formula>
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L45">
+    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="between">
+      <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="状态错误" error="请从选项中进行选择。" sqref="L2:L55 L102:L129 L57:L100">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="状态错误" error="请从选项中进行选择。" sqref="L57:L100 L102:L129 L2:L55">
       <formula1>"0%,100%,90%,80%,70%,60%,50%,40%,30%,20%,10%"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J129">

--- a/doc/开发计划V0.1.xlsx
+++ b/doc/开发计划V0.1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDE\IdeaProjects\hsd-servers\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\360安全浏览器下载\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="21840" windowHeight="13710"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="总体计划" sheetId="1" r:id="rId1"/>
@@ -60,10 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>jwt+shiro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>个人密码修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -568,6 +564,10 @@
   </si>
   <si>
     <t>数据字典管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jwt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -800,7 +800,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -938,30 +938,75 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -976,198 +1021,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="75">
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="51">
     <dxf>
       <fill>
         <patternFill>
@@ -1502,54 +1361,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1632,8 +1443,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="74"/>
-      <tableStyleElement type="headerRow" dxfId="73"/>
+      <tableStyleElement type="wholeTable" dxfId="50"/>
+      <tableStyleElement type="headerRow" dxfId="49"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1938,7 +1749,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomLeft" activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1946,8 +1757,9 @@
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="13.625" style="6" customWidth="1"/>
     <col min="3" max="3" width="14.25" style="5" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="5" customWidth="1"/>
-    <col min="5" max="6" width="12.25" style="5" customWidth="1"/>
+    <col min="4" max="4" width="27.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.75" style="5" customWidth="1"/>
     <col min="7" max="7" width="4.625" style="6" customWidth="1"/>
     <col min="8" max="8" width="11.75" style="5" customWidth="1"/>
     <col min="9" max="9" width="11.25" style="5" customWidth="1"/>
@@ -1975,10 +1787,10 @@
         <v>1</v>
       </c>
       <c r="J1" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="K1" s="29" t="s">
         <v>109</v>
-      </c>
-      <c r="K1" s="29" t="s">
-        <v>110</v>
       </c>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -1995,7 +1807,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J2" s="33"/>
       <c r="K2" s="35">
@@ -2007,11 +1819,11 @@
       <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="63" t="s">
-        <v>79</v>
+      <c r="A3" s="54" t="s">
+        <v>78</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -2028,9 +1840,9 @@
       <c r="M3" s="9"/>
     </row>
     <row r="4" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="64"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -2047,9 +1859,9 @@
       <c r="M4" s="9"/>
     </row>
     <row r="5" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="64"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -2066,7 +1878,7 @@
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="64"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="12"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -2083,7 +1895,7 @@
       <c r="M6" s="9"/>
     </row>
     <row r="7" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="65"/>
+      <c r="A7" s="68"/>
       <c r="B7" s="12"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -2100,7 +1912,7 @@
       <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="53" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="14" t="s">
@@ -2122,9 +1934,9 @@
       <c r="M8" s="9"/>
     </row>
     <row r="9" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="60"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -2143,9 +1955,9 @@
       <c r="M9" s="9"/>
     </row>
     <row r="10" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="60"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -2155,7 +1967,7 @@
         <v>2</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J10" s="33"/>
       <c r="K10" s="35">
@@ -2167,18 +1979,18 @@
       <c r="M10" s="9"/>
     </row>
     <row r="11" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="60"/>
-      <c r="B11" s="66" t="s">
+      <c r="A11" s="53"/>
+      <c r="B11" s="63" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>141</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="18">
@@ -2198,18 +2010,18 @@
         <v>1</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A12" s="60"/>
-      <c r="B12" s="67"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="18">
@@ -2229,14 +2041,14 @@
         <v>1</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="60"/>
-      <c r="B13" s="67"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -2252,17 +2064,17 @@
       </c>
       <c r="L13" s="10"/>
       <c r="M13" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="60"/>
-      <c r="B14" s="68"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="65"/>
       <c r="C14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -2277,19 +2089,19 @@
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="60"/>
-      <c r="B15" s="66" t="s">
-        <v>132</v>
+      <c r="A15" s="53"/>
+      <c r="B15" s="63" t="s">
+        <v>131</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -2310,14 +2122,14 @@
         <v>1</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="60"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="50" t="s">
-        <v>30</v>
+      <c r="A16" s="53"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="56" t="s">
+        <v>29</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>6</v>
@@ -2341,15 +2153,15 @@
         <v>1</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="60"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="51"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="57"/>
       <c r="D17" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -2370,14 +2182,14 @@
         <v>1</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="60"/>
-      <c r="B18" s="68"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="65"/>
       <c r="C18" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
@@ -2399,19 +2211,19 @@
         <v>1</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="60"/>
-      <c r="B19" s="66" t="s">
-        <v>139</v>
+      <c r="A19" s="53"/>
+      <c r="B19" s="63" t="s">
+        <v>138</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
@@ -2432,14 +2244,14 @@
         <v>1</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="60"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="50" t="s">
-        <v>30</v>
+      <c r="A20" s="53"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="56" t="s">
+        <v>29</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>6</v>
@@ -2461,15 +2273,15 @@
         <v>1</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="60"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="51"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
@@ -2488,14 +2300,14 @@
         <v>1</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="60"/>
-      <c r="B22" s="67"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="64"/>
       <c r="C22" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
@@ -2517,14 +2329,14 @@
         <v>1</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="60"/>
-      <c r="B23" s="67"/>
+      <c r="A23" s="53"/>
+      <c r="B23" s="64"/>
       <c r="C23" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
@@ -2532,22 +2344,26 @@
       <c r="G23" s="18">
         <v>0.5</v>
       </c>
-      <c r="H23" s="9"/>
+      <c r="H23" s="45">
+        <v>42962</v>
+      </c>
       <c r="I23" s="9"/>
       <c r="J23" s="33"/>
       <c r="K23" s="35">
         <v>1</v>
       </c>
-      <c r="L23" s="10"/>
+      <c r="L23" s="10">
+        <v>0.7</v>
+      </c>
       <c r="M23" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="60"/>
-      <c r="B24" s="68"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="65"/>
       <c r="C24" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -2555,27 +2371,31 @@
       <c r="G24" s="18">
         <v>0.5</v>
       </c>
-      <c r="H24" s="9"/>
+      <c r="H24" s="45">
+        <v>42962</v>
+      </c>
       <c r="I24" s="9"/>
       <c r="J24" s="33"/>
       <c r="K24" s="35">
         <v>1</v>
       </c>
-      <c r="L24" s="10"/>
+      <c r="L24" s="10">
+        <v>0.7</v>
+      </c>
       <c r="M24" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="60"/>
-      <c r="B25" s="66" t="s">
-        <v>140</v>
+      <c r="A25" s="53"/>
+      <c r="B25" s="63" t="s">
+        <v>139</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
@@ -2596,14 +2416,14 @@
         <v>1</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="60"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="50" t="s">
-        <v>30</v>
+      <c r="A26" s="53"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="56" t="s">
+        <v>29</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>6</v>
@@ -2625,15 +2445,15 @@
         <v>0.9</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="60"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="51"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="57"/>
       <c r="D27" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
@@ -2652,14 +2472,14 @@
         <v>0.9</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="60"/>
-      <c r="B28" s="67"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="64"/>
       <c r="C28" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
@@ -2681,14 +2501,14 @@
         <v>1</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="60"/>
-      <c r="B29" s="67"/>
+      <c r="A29" s="53"/>
+      <c r="B29" s="64"/>
       <c r="C29" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
@@ -2704,14 +2524,14 @@
       </c>
       <c r="L29" s="10"/>
       <c r="M29" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="60"/>
-      <c r="B30" s="67"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="64"/>
       <c r="C30" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -2727,14 +2547,14 @@
       </c>
       <c r="L30" s="10"/>
       <c r="M30" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="60"/>
-      <c r="B31" s="67"/>
+      <c r="A31" s="53"/>
+      <c r="B31" s="64"/>
       <c r="C31" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
@@ -2750,14 +2570,14 @@
       </c>
       <c r="L31" s="10"/>
       <c r="M31" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="60"/>
-      <c r="B32" s="67"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="64"/>
       <c r="C32" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
@@ -2765,7 +2585,7 @@
       <c r="G32" s="18">
         <v>0.5</v>
       </c>
-      <c r="H32" s="9"/>
+      <c r="H32" s="45"/>
       <c r="I32" s="9"/>
       <c r="J32" s="33"/>
       <c r="K32" s="35">
@@ -2773,14 +2593,14 @@
       </c>
       <c r="L32" s="10"/>
       <c r="M32" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="60"/>
-      <c r="B33" s="68"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="65"/>
       <c r="C33" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
@@ -2788,7 +2608,7 @@
       <c r="G33" s="18">
         <v>0.5</v>
       </c>
-      <c r="H33" s="9"/>
+      <c r="H33" s="45"/>
       <c r="I33" s="9"/>
       <c r="J33" s="33"/>
       <c r="K33" s="35">
@@ -2796,19 +2616,19 @@
       </c>
       <c r="L33" s="10"/>
       <c r="M33" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="60"/>
-      <c r="B34" s="66" t="s">
-        <v>133</v>
+      <c r="A34" s="53"/>
+      <c r="B34" s="63" t="s">
+        <v>132</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
@@ -2829,14 +2649,14 @@
         <v>1</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="60"/>
-      <c r="B35" s="67"/>
-      <c r="C35" s="50" t="s">
-        <v>30</v>
+      <c r="A35" s="53"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="56" t="s">
+        <v>29</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>6</v>
@@ -2849,24 +2669,26 @@
       <c r="H35" s="45">
         <v>42957</v>
       </c>
-      <c r="I35" s="45"/>
+      <c r="I35" s="45">
+        <v>42962</v>
+      </c>
       <c r="J35" s="33"/>
       <c r="K35" s="35">
         <v>1</v>
       </c>
       <c r="L35" s="10">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="60"/>
-      <c r="B36" s="67"/>
-      <c r="C36" s="51"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="57"/>
       <c r="D36" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
@@ -2876,23 +2698,25 @@
       <c r="H36" s="45">
         <v>42957</v>
       </c>
-      <c r="I36" s="45"/>
+      <c r="I36" s="45">
+        <v>42962</v>
+      </c>
       <c r="J36" s="33"/>
       <c r="K36" s="35">
         <v>1</v>
       </c>
       <c r="L36" s="10">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="60"/>
-      <c r="B37" s="68"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="65"/>
       <c r="C37" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
@@ -2914,19 +2738,19 @@
         <v>1</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="60"/>
-      <c r="B38" s="66" t="s">
-        <v>134</v>
+      <c r="A38" s="53"/>
+      <c r="B38" s="63" t="s">
+        <v>133</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
@@ -2947,14 +2771,14 @@
         <v>1</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="60"/>
-      <c r="B39" s="67"/>
-      <c r="C39" s="50" t="s">
-        <v>30</v>
+      <c r="A39" s="53"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="56" t="s">
+        <v>29</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>6</v>
@@ -2967,24 +2791,26 @@
       <c r="H39" s="45">
         <v>42958</v>
       </c>
-      <c r="I39" s="9"/>
+      <c r="I39" s="45">
+        <v>42962</v>
+      </c>
       <c r="J39" s="33"/>
       <c r="K39" s="35">
         <v>1</v>
       </c>
       <c r="L39" s="10">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="60"/>
-      <c r="B40" s="67"/>
-      <c r="C40" s="51"/>
+      <c r="A40" s="53"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="57"/>
       <c r="D40" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
@@ -2994,23 +2820,25 @@
       <c r="H40" s="45">
         <v>42958</v>
       </c>
-      <c r="I40" s="9"/>
+      <c r="I40" s="45">
+        <v>42962</v>
+      </c>
       <c r="J40" s="33"/>
       <c r="K40" s="35">
         <v>1</v>
       </c>
       <c r="L40" s="10">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="60"/>
-      <c r="B41" s="68"/>
+      <c r="A41" s="53"/>
+      <c r="B41" s="65"/>
       <c r="C41" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
@@ -3032,19 +2860,19 @@
         <v>1</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="60"/>
-      <c r="B42" s="66" t="s">
-        <v>138</v>
+      <c r="A42" s="53"/>
+      <c r="B42" s="63" t="s">
+        <v>137</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
@@ -3065,14 +2893,14 @@
         <v>1</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="60"/>
-      <c r="B43" s="67"/>
-      <c r="C43" s="50" t="s">
-        <v>30</v>
+      <c r="A43" s="53"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="56" t="s">
+        <v>29</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>6</v>
@@ -3093,18 +2921,18 @@
         <v>1</v>
       </c>
       <c r="L43" s="10">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="60"/>
-      <c r="B44" s="67"/>
-      <c r="C44" s="51"/>
+      <c r="A44" s="53"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="57"/>
       <c r="D44" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
@@ -3122,17 +2950,17 @@
         <v>1</v>
       </c>
       <c r="L44" s="10">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="60"/>
-      <c r="B45" s="67"/>
+      <c r="A45" s="53"/>
+      <c r="B45" s="64"/>
       <c r="C45" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
@@ -3154,14 +2982,14 @@
         <v>1</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="60"/>
-      <c r="B46" s="67"/>
+      <c r="A46" s="53"/>
+      <c r="B46" s="64"/>
       <c r="C46" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
@@ -3169,22 +2997,28 @@
       <c r="G46" s="18">
         <v>0.5</v>
       </c>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
+      <c r="H46" s="45">
+        <v>42961</v>
+      </c>
+      <c r="I46" s="45">
+        <v>42962</v>
+      </c>
       <c r="J46" s="33"/>
       <c r="K46" s="35">
         <v>1</v>
       </c>
-      <c r="L46" s="10"/>
+      <c r="L46" s="10">
+        <v>1</v>
+      </c>
       <c r="M46" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="60"/>
-      <c r="B47" s="68"/>
+      <c r="A47" s="53"/>
+      <c r="B47" s="65"/>
       <c r="C47" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
@@ -3192,27 +3026,33 @@
       <c r="G47" s="18">
         <v>0.5</v>
       </c>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
+      <c r="H47" s="45">
+        <v>42961</v>
+      </c>
+      <c r="I47" s="45">
+        <v>42962</v>
+      </c>
       <c r="J47" s="33"/>
       <c r="K47" s="35">
         <v>1</v>
       </c>
-      <c r="L47" s="10"/>
+      <c r="L47" s="10">
+        <v>1</v>
+      </c>
       <c r="M47" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="60"/>
-      <c r="B48" s="66" t="s">
-        <v>135</v>
+      <c r="A48" s="53"/>
+      <c r="B48" s="63" t="s">
+        <v>134</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
@@ -3233,18 +3073,18 @@
         <v>1</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:14" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="60"/>
-      <c r="B49" s="67"/>
+      <c r="A49" s="53"/>
+      <c r="B49" s="64"/>
       <c r="C49" s="17"/>
       <c r="D49" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="18">
@@ -3264,17 +3104,17 @@
         <v>1</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:14" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="60"/>
-      <c r="B50" s="67"/>
+      <c r="A50" s="53"/>
+      <c r="B50" s="64"/>
       <c r="C50" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
@@ -3295,12 +3135,12 @@
         <v>1</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:14" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="60"/>
-      <c r="B51" s="68"/>
+      <c r="A51" s="53"/>
+      <c r="B51" s="65"/>
       <c r="C51" s="17"/>
       <c r="D51" s="9" t="s">
         <v>6</v>
@@ -3324,19 +3164,19 @@
         <v>1</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A52" s="60"/>
-      <c r="B52" s="66" t="s">
-        <v>141</v>
+      <c r="A52" s="53"/>
+      <c r="B52" s="63" t="s">
+        <v>140</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
@@ -3357,14 +3197,14 @@
         <v>1</v>
       </c>
       <c r="M52" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A53" s="60"/>
-      <c r="B53" s="67"/>
-      <c r="C53" s="50" t="s">
-        <v>30</v>
+      <c r="A53" s="53"/>
+      <c r="B53" s="64"/>
+      <c r="C53" s="56" t="s">
+        <v>29</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>6</v>
@@ -3385,18 +3225,18 @@
         <v>1</v>
       </c>
       <c r="L53" s="10">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A54" s="60"/>
-      <c r="B54" s="67"/>
-      <c r="C54" s="51"/>
+      <c r="A54" s="53"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="57"/>
       <c r="D54" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
@@ -3414,17 +3254,17 @@
         <v>1</v>
       </c>
       <c r="L54" s="10">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A55" s="60"/>
-      <c r="B55" s="68"/>
+      <c r="A55" s="53"/>
+      <c r="B55" s="65"/>
       <c r="C55" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
@@ -3446,12 +3286,12 @@
         <v>1</v>
       </c>
       <c r="M55" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="F56" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G56" s="24">
         <f>SUM(G9:G54)</f>
@@ -3463,8 +3303,8 @@
       </c>
     </row>
     <row r="57" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="63" t="s">
-        <v>78</v>
+      <c r="A57" s="54" t="s">
+        <v>77</v>
       </c>
       <c r="B57" s="18" t="s">
         <v>3</v>
@@ -3488,9 +3328,9 @@
       <c r="M57" s="9"/>
     </row>
     <row r="58" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="64"/>
+      <c r="A58" s="55"/>
       <c r="B58" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
@@ -3509,9 +3349,9 @@
       <c r="M58" s="9"/>
     </row>
     <row r="59" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="64"/>
+      <c r="A59" s="55"/>
       <c r="B59" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
@@ -3530,18 +3370,18 @@
       <c r="M59" s="9"/>
     </row>
     <row r="60" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="64"/>
-      <c r="B60" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="C60" s="53" t="s">
-        <v>41</v>
+      <c r="A60" s="55"/>
+      <c r="B60" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" s="58" t="s">
+        <v>40</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F60" s="9"/>
       <c r="G60" s="18">
@@ -3555,21 +3395,21 @@
       </c>
       <c r="L60" s="10"/>
       <c r="M60" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="N60" s="49" t="s">
-        <v>100</v>
+        <v>129</v>
+      </c>
+      <c r="N60" s="69" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="64"/>
-      <c r="B61" s="62"/>
-      <c r="C61" s="53"/>
-      <c r="D61" s="50" t="s">
-        <v>91</v>
+      <c r="A61" s="55"/>
+      <c r="B61" s="67"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="56" t="s">
+        <v>90</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F61" s="9"/>
       <c r="G61" s="18">
@@ -3579,21 +3419,21 @@
       <c r="I61" s="9"/>
       <c r="J61" s="33"/>
       <c r="K61" s="35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L61" s="10"/>
       <c r="M61" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="N61" s="49"/>
+        <v>129</v>
+      </c>
+      <c r="N61" s="69"/>
     </row>
     <row r="62" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="64"/>
-      <c r="B62" s="62"/>
-      <c r="C62" s="53"/>
-      <c r="D62" s="51"/>
+      <c r="A62" s="55"/>
+      <c r="B62" s="67"/>
+      <c r="C62" s="58"/>
+      <c r="D62" s="57"/>
       <c r="E62" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F62" s="9"/>
       <c r="G62" s="18">
@@ -3603,25 +3443,25 @@
       <c r="I62" s="9"/>
       <c r="J62" s="33"/>
       <c r="K62" s="35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L62" s="10"/>
       <c r="M62" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="N62" s="49"/>
+        <v>129</v>
+      </c>
+      <c r="N62" s="69"/>
     </row>
     <row r="63" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="64"/>
-      <c r="B63" s="62"/>
-      <c r="C63" s="50" t="s">
-        <v>85</v>
+      <c r="A63" s="55"/>
+      <c r="B63" s="67"/>
+      <c r="C63" s="56" t="s">
+        <v>84</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E63" s="32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F63" s="22"/>
       <c r="G63" s="18">
@@ -3635,19 +3475,19 @@
       </c>
       <c r="L63" s="10"/>
       <c r="M63" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="N63" s="49"/>
+        <v>129</v>
+      </c>
+      <c r="N63" s="69"/>
     </row>
     <row r="64" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="64"/>
-      <c r="B64" s="62"/>
-      <c r="C64" s="51"/>
+      <c r="A64" s="55"/>
+      <c r="B64" s="67"/>
+      <c r="C64" s="57"/>
       <c r="D64" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E64" s="32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F64" s="9"/>
       <c r="G64" s="18">
@@ -3661,19 +3501,19 @@
       </c>
       <c r="L64" s="10"/>
       <c r="M64" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="N64" s="49"/>
+        <v>129</v>
+      </c>
+      <c r="N64" s="69"/>
     </row>
     <row r="65" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="64"/>
-      <c r="B65" s="62"/>
+      <c r="A65" s="55"/>
+      <c r="B65" s="67"/>
       <c r="C65" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F65" s="9"/>
       <c r="G65" s="18"/>
@@ -3685,17 +3525,17 @@
       </c>
       <c r="L65" s="10"/>
       <c r="M65" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A66" s="64"/>
-      <c r="B66" s="62"/>
-      <c r="C66" s="53" t="s">
-        <v>46</v>
+      <c r="A66" s="55"/>
+      <c r="B66" s="67"/>
+      <c r="C66" s="58" t="s">
+        <v>45</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
@@ -3710,18 +3550,18 @@
       </c>
       <c r="L66" s="10"/>
       <c r="M66" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A67" s="64"/>
-      <c r="B67" s="62"/>
-      <c r="C67" s="53"/>
-      <c r="D67" s="53" t="s">
-        <v>92</v>
+      <c r="A67" s="55"/>
+      <c r="B67" s="67"/>
+      <c r="C67" s="58"/>
+      <c r="D67" s="58" t="s">
+        <v>91</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F67" s="9"/>
       <c r="G67" s="18">
@@ -3731,20 +3571,20 @@
       <c r="I67" s="9"/>
       <c r="J67" s="33"/>
       <c r="K67" s="35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L67" s="10"/>
       <c r="M67" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A68" s="64"/>
-      <c r="B68" s="62"/>
-      <c r="C68" s="53"/>
-      <c r="D68" s="53"/>
+      <c r="A68" s="55"/>
+      <c r="B68" s="67"/>
+      <c r="C68" s="58"/>
+      <c r="D68" s="58"/>
       <c r="E68" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F68" s="9"/>
       <c r="G68" s="18">
@@ -3754,21 +3594,21 @@
       <c r="I68" s="9"/>
       <c r="J68" s="33"/>
       <c r="K68" s="35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L68" s="10"/>
       <c r="M68" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="69" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A69" s="64"/>
-      <c r="B69" s="62"/>
-      <c r="C69" s="50" t="s">
+      <c r="A69" s="55"/>
+      <c r="B69" s="67"/>
+      <c r="C69" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="D69" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
@@ -3783,15 +3623,15 @@
       </c>
       <c r="L69" s="10"/>
       <c r="M69" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A70" s="64"/>
-      <c r="B70" s="62"/>
-      <c r="C70" s="54"/>
+      <c r="A70" s="55"/>
+      <c r="B70" s="67"/>
+      <c r="C70" s="61"/>
       <c r="D70" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
@@ -3806,18 +3646,18 @@
       </c>
       <c r="L70" s="10"/>
       <c r="M70" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A71" s="64"/>
-      <c r="B71" s="62"/>
-      <c r="C71" s="51"/>
+      <c r="A71" s="55"/>
+      <c r="B71" s="67"/>
+      <c r="C71" s="57"/>
       <c r="D71" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E71" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F71" s="9"/>
       <c r="G71" s="18">
@@ -3827,18 +3667,18 @@
       <c r="I71" s="9"/>
       <c r="J71" s="33"/>
       <c r="K71" s="35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L71" s="10"/>
       <c r="M71" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="72" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A72" s="64"/>
-      <c r="B72" s="62"/>
+      <c r="A72" s="55"/>
+      <c r="B72" s="67"/>
       <c r="C72" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
@@ -3854,14 +3694,14 @@
       </c>
       <c r="L72" s="10"/>
       <c r="M72" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A73" s="64"/>
-      <c r="B73" s="62"/>
+      <c r="A73" s="55"/>
+      <c r="B73" s="67"/>
       <c r="C73" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
@@ -3877,20 +3717,20 @@
       </c>
       <c r="L73" s="10"/>
       <c r="M73" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N73" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A74" s="64"/>
-      <c r="B74" s="62"/>
-      <c r="C74" s="50" t="s">
-        <v>58</v>
+      <c r="A74" s="55"/>
+      <c r="B74" s="67"/>
+      <c r="C74" s="56" t="s">
+        <v>57</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E74" s="21"/>
       <c r="F74" s="31"/>
@@ -3905,18 +3745,18 @@
       </c>
       <c r="L74" s="10"/>
       <c r="M74" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A75" s="64"/>
-      <c r="B75" s="62"/>
-      <c r="C75" s="51"/>
+      <c r="A75" s="55"/>
+      <c r="B75" s="67"/>
+      <c r="C75" s="57"/>
       <c r="D75" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E75" s="32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F75" s="9"/>
       <c r="G75" s="18">
@@ -3930,17 +3770,17 @@
       </c>
       <c r="L75" s="10"/>
       <c r="M75" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="76" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A76" s="64"/>
-      <c r="B76" s="62"/>
-      <c r="C76" s="55" t="s">
+      <c r="A76" s="55"/>
+      <c r="B76" s="67"/>
+      <c r="C76" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="D76" s="19" t="s">
         <v>52</v>
-      </c>
-      <c r="D76" s="19" t="s">
-        <v>53</v>
       </c>
       <c r="E76" s="19"/>
       <c r="F76" s="19"/>
@@ -3957,11 +3797,11 @@
       <c r="M76" s="43"/>
     </row>
     <row r="77" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A77" s="64"/>
-      <c r="B77" s="62"/>
-      <c r="C77" s="56"/>
+      <c r="A77" s="55"/>
+      <c r="B77" s="67"/>
+      <c r="C77" s="71"/>
       <c r="D77" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E77" s="19"/>
       <c r="F77" s="19"/>
@@ -3978,11 +3818,11 @@
       <c r="M77" s="43"/>
     </row>
     <row r="78" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A78" s="64"/>
-      <c r="B78" s="62"/>
-      <c r="C78" s="56"/>
+      <c r="A78" s="55"/>
+      <c r="B78" s="67"/>
+      <c r="C78" s="71"/>
       <c r="D78" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E78" s="19"/>
       <c r="F78" s="19"/>
@@ -3999,11 +3839,11 @@
       <c r="M78" s="43"/>
     </row>
     <row r="79" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A79" s="64"/>
-      <c r="B79" s="62"/>
-      <c r="C79" s="56"/>
+      <c r="A79" s="55"/>
+      <c r="B79" s="67"/>
+      <c r="C79" s="71"/>
       <c r="D79" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E79" s="19"/>
       <c r="F79" s="19"/>
@@ -4020,11 +3860,11 @@
       <c r="M79" s="43"/>
     </row>
     <row r="80" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A80" s="64"/>
-      <c r="B80" s="62"/>
-      <c r="C80" s="57"/>
+      <c r="A80" s="55"/>
+      <c r="B80" s="67"/>
+      <c r="C80" s="72"/>
       <c r="D80" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E80" s="19"/>
       <c r="F80" s="19"/>
@@ -4041,15 +3881,15 @@
       <c r="M80" s="43"/>
     </row>
     <row r="81" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A81" s="64"/>
-      <c r="B81" s="70" t="s">
+      <c r="A81" s="55"/>
+      <c r="B81" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C81" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="C81" s="58" t="s">
-        <v>76</v>
-      </c>
       <c r="D81" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
@@ -4066,11 +3906,11 @@
       <c r="M81" s="43"/>
     </row>
     <row r="82" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A82" s="64"/>
-      <c r="B82" s="71"/>
-      <c r="C82" s="59"/>
+      <c r="A82" s="55"/>
+      <c r="B82" s="52"/>
+      <c r="C82" s="74"/>
       <c r="D82" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
@@ -4087,11 +3927,11 @@
       <c r="M82" s="43"/>
     </row>
     <row r="83" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A83" s="64"/>
-      <c r="B83" s="71"/>
-      <c r="C83" s="59"/>
+      <c r="A83" s="55"/>
+      <c r="B83" s="52"/>
+      <c r="C83" s="74"/>
       <c r="D83" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G83" s="26">
         <v>0</v>
@@ -4106,11 +3946,11 @@
       <c r="M83" s="43"/>
     </row>
     <row r="84" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A84" s="64"/>
-      <c r="B84" s="71"/>
-      <c r="C84" s="59"/>
+      <c r="A84" s="55"/>
+      <c r="B84" s="52"/>
+      <c r="C84" s="74"/>
       <c r="D84" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G84" s="26">
         <v>0</v>
@@ -4125,19 +3965,19 @@
       <c r="M84" s="43"/>
     </row>
     <row r="85" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A85" s="64"/>
-      <c r="B85" s="71"/>
-      <c r="C85" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="D85" s="50" t="s">
-        <v>62</v>
+      <c r="A85" s="55"/>
+      <c r="B85" s="52"/>
+      <c r="C85" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="D85" s="56" t="s">
+        <v>61</v>
       </c>
       <c r="E85" s="9" t="s">
         <v>5</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G85" s="44">
         <v>1</v>
@@ -4150,16 +3990,16 @@
       </c>
       <c r="L85" s="10"/>
       <c r="M85" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="86" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A86" s="64"/>
-      <c r="B86" s="71"/>
-      <c r="C86" s="52"/>
-      <c r="D86" s="54"/>
-      <c r="E86" s="50" t="s">
-        <v>30</v>
+      <c r="A86" s="55"/>
+      <c r="B86" s="52"/>
+      <c r="C86" s="62"/>
+      <c r="D86" s="61"/>
+      <c r="E86" s="56" t="s">
+        <v>29</v>
       </c>
       <c r="F86" s="9" t="s">
         <v>6</v>
@@ -4175,17 +4015,17 @@
       </c>
       <c r="L86" s="10"/>
       <c r="M86" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="87" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A87" s="64"/>
-      <c r="B87" s="71"/>
-      <c r="C87" s="52"/>
-      <c r="D87" s="54"/>
-      <c r="E87" s="51"/>
+      <c r="A87" s="55"/>
+      <c r="B87" s="52"/>
+      <c r="C87" s="62"/>
+      <c r="D87" s="61"/>
+      <c r="E87" s="57"/>
       <c r="F87" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G87" s="44">
         <v>0.5</v>
@@ -4198,16 +4038,16 @@
       </c>
       <c r="L87" s="10"/>
       <c r="M87" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="88" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A88" s="64"/>
-      <c r="B88" s="71"/>
-      <c r="C88" s="52"/>
-      <c r="D88" s="54"/>
+      <c r="A88" s="55"/>
+      <c r="B88" s="52"/>
+      <c r="C88" s="62"/>
+      <c r="D88" s="61"/>
       <c r="E88" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F88" s="9"/>
       <c r="G88" s="44">
@@ -4221,16 +4061,16 @@
       </c>
       <c r="L88" s="10"/>
       <c r="M88" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="89" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A89" s="64"/>
-      <c r="B89" s="71"/>
-      <c r="C89" s="52"/>
-      <c r="D89" s="54"/>
+      <c r="A89" s="55"/>
+      <c r="B89" s="52"/>
+      <c r="C89" s="62"/>
+      <c r="D89" s="61"/>
       <c r="E89" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F89" s="9"/>
       <c r="G89" s="44">
@@ -4244,16 +4084,16 @@
       </c>
       <c r="L89" s="10"/>
       <c r="M89" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="90" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A90" s="64"/>
-      <c r="B90" s="71"/>
-      <c r="C90" s="52"/>
-      <c r="D90" s="54"/>
+      <c r="A90" s="55"/>
+      <c r="B90" s="52"/>
+      <c r="C90" s="62"/>
+      <c r="D90" s="61"/>
       <c r="E90" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F90" s="9"/>
       <c r="G90" s="44">
@@ -4263,20 +4103,20 @@
       <c r="I90" s="9"/>
       <c r="J90" s="33"/>
       <c r="K90" s="35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L90" s="10"/>
       <c r="M90" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="91" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A91" s="64"/>
-      <c r="B91" s="71"/>
-      <c r="C91" s="52"/>
-      <c r="D91" s="54"/>
+      <c r="A91" s="55"/>
+      <c r="B91" s="52"/>
+      <c r="C91" s="62"/>
+      <c r="D91" s="61"/>
       <c r="E91" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F91" s="9"/>
       <c r="G91" s="44">
@@ -4290,19 +4130,19 @@
       </c>
       <c r="L91" s="10"/>
       <c r="M91" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="92" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A92" s="64"/>
-      <c r="B92" s="71"/>
-      <c r="C92" s="52"/>
-      <c r="D92" s="54"/>
-      <c r="E92" s="50" t="s">
-        <v>64</v>
+      <c r="A92" s="55"/>
+      <c r="B92" s="52"/>
+      <c r="C92" s="62"/>
+      <c r="D92" s="61"/>
+      <c r="E92" s="56" t="s">
+        <v>63</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G92" s="44">
         <v>0.5</v>
@@ -4315,17 +4155,17 @@
       </c>
       <c r="L92" s="10"/>
       <c r="M92" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="93" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A93" s="64"/>
-      <c r="B93" s="71"/>
-      <c r="C93" s="52"/>
-      <c r="D93" s="54"/>
-      <c r="E93" s="54"/>
+      <c r="A93" s="55"/>
+      <c r="B93" s="52"/>
+      <c r="C93" s="62"/>
+      <c r="D93" s="61"/>
+      <c r="E93" s="61"/>
       <c r="F93" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G93" s="44">
         <v>0.5</v>
@@ -4338,17 +4178,17 @@
       </c>
       <c r="L93" s="10"/>
       <c r="M93" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="94" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A94" s="64"/>
-      <c r="B94" s="71"/>
-      <c r="C94" s="52"/>
-      <c r="D94" s="54"/>
-      <c r="E94" s="51"/>
+      <c r="A94" s="55"/>
+      <c r="B94" s="52"/>
+      <c r="C94" s="62"/>
+      <c r="D94" s="61"/>
+      <c r="E94" s="57"/>
       <c r="F94" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G94" s="44">
         <v>0.5</v>
@@ -4361,18 +4201,18 @@
       </c>
       <c r="L94" s="10"/>
       <c r="M94" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="95" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A95" s="64"/>
-      <c r="B95" s="71"/>
-      <c r="C95" s="52"/>
-      <c r="D95" s="53" t="s">
-        <v>113</v>
+      <c r="A95" s="55"/>
+      <c r="B95" s="52"/>
+      <c r="C95" s="62"/>
+      <c r="D95" s="58" t="s">
+        <v>112</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F95" s="9"/>
       <c r="G95" s="44">
@@ -4382,53 +4222,53 @@
       <c r="I95" s="9"/>
       <c r="J95" s="33"/>
       <c r="K95" s="35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L95" s="10"/>
       <c r="M95" s="43" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A96" s="55"/>
+      <c r="B96" s="52"/>
+      <c r="C96" s="62"/>
+      <c r="D96" s="58"/>
+      <c r="E96" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G96" s="44" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A96" s="64"/>
-      <c r="B96" s="71"/>
-      <c r="C96" s="52"/>
-      <c r="D96" s="53"/>
-      <c r="E96" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F96" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="G96" s="44" t="s">
-        <v>131</v>
       </c>
       <c r="H96" s="9"/>
       <c r="I96" s="9"/>
       <c r="J96" s="33"/>
       <c r="K96" s="35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L96" s="10"/>
       <c r="M96" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N96" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="97" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A97" s="64"/>
-      <c r="B97" s="71"/>
-      <c r="C97" s="52"/>
-      <c r="D97" s="50" t="s">
-        <v>126</v>
+      <c r="A97" s="55"/>
+      <c r="B97" s="52"/>
+      <c r="C97" s="62"/>
+      <c r="D97" s="56" t="s">
+        <v>125</v>
       </c>
       <c r="E97" s="9" t="s">
         <v>5</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G97" s="44">
         <v>1</v>
@@ -4441,19 +4281,19 @@
       </c>
       <c r="L97" s="10"/>
       <c r="M97" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N97" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="98" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A98" s="64"/>
-      <c r="B98" s="71"/>
-      <c r="C98" s="52"/>
-      <c r="D98" s="54"/>
-      <c r="E98" s="50" t="s">
-        <v>30</v>
+      <c r="A98" s="55"/>
+      <c r="B98" s="52"/>
+      <c r="C98" s="62"/>
+      <c r="D98" s="61"/>
+      <c r="E98" s="56" t="s">
+        <v>29</v>
       </c>
       <c r="F98" s="9" t="s">
         <v>6</v>
@@ -4469,17 +4309,17 @@
       </c>
       <c r="L98" s="10"/>
       <c r="M98" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="99" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A99" s="64"/>
-      <c r="B99" s="71"/>
-      <c r="C99" s="52"/>
-      <c r="D99" s="54"/>
-      <c r="E99" s="51"/>
+      <c r="A99" s="55"/>
+      <c r="B99" s="52"/>
+      <c r="C99" s="62"/>
+      <c r="D99" s="61"/>
+      <c r="E99" s="57"/>
       <c r="F99" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G99" s="44">
         <v>0.5</v>
@@ -4492,16 +4332,16 @@
       </c>
       <c r="L99" s="10"/>
       <c r="M99" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="100" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A100" s="64"/>
-      <c r="B100" s="71"/>
-      <c r="C100" s="52"/>
-      <c r="D100" s="51"/>
+      <c r="A100" s="55"/>
+      <c r="B100" s="52"/>
+      <c r="C100" s="62"/>
+      <c r="D100" s="57"/>
       <c r="E100" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F100" s="9"/>
       <c r="G100" s="44">
@@ -4515,12 +4355,12 @@
       </c>
       <c r="L100" s="10"/>
       <c r="M100" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="101" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="F101" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G101" s="41">
         <f>SUM(G57:G100)</f>
@@ -4530,8 +4370,8 @@
       <c r="K101" s="35"/>
     </row>
     <row r="102" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A102" s="60" t="s">
-        <v>71</v>
+      <c r="A102" s="53" t="s">
+        <v>70</v>
       </c>
       <c r="B102" s="18" t="s">
         <v>3</v>
@@ -4551,13 +4391,13 @@
       </c>
       <c r="L102" s="10"/>
       <c r="M102" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A103" s="60"/>
+      <c r="A103" s="53"/>
       <c r="B103" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
@@ -4574,13 +4414,13 @@
       </c>
       <c r="L103" s="10"/>
       <c r="M103" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A104" s="60"/>
+      <c r="A104" s="53"/>
       <c r="B104" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
@@ -4597,22 +4437,22 @@
       </c>
       <c r="L104" s="10"/>
       <c r="M104" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="105" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="60"/>
-      <c r="B105" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="C105" s="50" t="s">
-        <v>34</v>
+      <c r="A105" s="53"/>
+      <c r="B105" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C105" s="56" t="s">
+        <v>33</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F105" s="9"/>
       <c r="G105" s="46">
@@ -4626,18 +4466,18 @@
       </c>
       <c r="L105" s="10"/>
       <c r="M105" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="106" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A106" s="60"/>
-      <c r="B106" s="71"/>
-      <c r="C106" s="54"/>
-      <c r="D106" s="47" t="s">
+      <c r="A106" s="53"/>
+      <c r="B106" s="52"/>
+      <c r="C106" s="61"/>
+      <c r="D106" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="E106" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="E106" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="F106" s="9"/>
       <c r="G106" s="46">
@@ -4647,20 +4487,20 @@
       <c r="I106" s="9"/>
       <c r="J106" s="33"/>
       <c r="K106" s="35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L106" s="10"/>
       <c r="M106" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="107" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A107" s="60"/>
-      <c r="B107" s="71"/>
-      <c r="C107" s="51"/>
-      <c r="D107" s="48"/>
+      <c r="A107" s="53"/>
+      <c r="B107" s="52"/>
+      <c r="C107" s="57"/>
+      <c r="D107" s="50"/>
       <c r="E107" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F107" s="9"/>
       <c r="G107" s="46">
@@ -4670,24 +4510,24 @@
       <c r="I107" s="9"/>
       <c r="J107" s="33"/>
       <c r="K107" s="35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L107" s="10"/>
       <c r="M107" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="108" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A108" s="60"/>
-      <c r="B108" s="71"/>
-      <c r="C108" s="50" t="s">
+      <c r="A108" s="53"/>
+      <c r="B108" s="52"/>
+      <c r="C108" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E108" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E108" s="9" t="s">
-        <v>47</v>
       </c>
       <c r="F108" s="9"/>
       <c r="G108" s="46">
@@ -4701,18 +4541,18 @@
       </c>
       <c r="L108" s="10"/>
       <c r="M108" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A109" s="60"/>
-      <c r="B109" s="71"/>
-      <c r="C109" s="54"/>
-      <c r="D109" s="47" t="s">
+      <c r="A109" s="53"/>
+      <c r="B109" s="52"/>
+      <c r="C109" s="61"/>
+      <c r="D109" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="E109" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="E109" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="F109" s="9"/>
       <c r="G109" s="46">
@@ -4722,20 +4562,20 @@
       <c r="I109" s="9"/>
       <c r="J109" s="33"/>
       <c r="K109" s="35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L109" s="10"/>
       <c r="M109" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="110" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A110" s="60"/>
-      <c r="B110" s="71"/>
-      <c r="C110" s="54"/>
-      <c r="D110" s="69"/>
+      <c r="A110" s="53"/>
+      <c r="B110" s="52"/>
+      <c r="C110" s="61"/>
+      <c r="D110" s="49"/>
       <c r="E110" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F110" s="9"/>
       <c r="G110" s="46">
@@ -4745,20 +4585,20 @@
       <c r="I110" s="9"/>
       <c r="J110" s="33"/>
       <c r="K110" s="35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L110" s="10"/>
       <c r="M110" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="111" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A111" s="60"/>
-      <c r="B111" s="71"/>
-      <c r="C111" s="51"/>
-      <c r="D111" s="48"/>
+      <c r="A111" s="53"/>
+      <c r="B111" s="52"/>
+      <c r="C111" s="57"/>
+      <c r="D111" s="50"/>
       <c r="E111" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F111" s="9"/>
       <c r="G111" s="46">
@@ -4768,21 +4608,21 @@
       <c r="I111" s="9"/>
       <c r="J111" s="33"/>
       <c r="K111" s="35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L111" s="10"/>
       <c r="M111" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="112" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A112" s="60"/>
-      <c r="B112" s="71"/>
-      <c r="C112" s="52" t="s">
-        <v>73</v>
+      <c r="A112" s="53"/>
+      <c r="B112" s="52"/>
+      <c r="C112" s="62" t="s">
+        <v>72</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E112" s="9"/>
       <c r="F112" s="9"/>
@@ -4797,15 +4637,15 @@
       </c>
       <c r="L112" s="10"/>
       <c r="M112" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="113" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A113" s="60"/>
-      <c r="B113" s="71"/>
-      <c r="C113" s="53"/>
+      <c r="A113" s="53"/>
+      <c r="B113" s="52"/>
+      <c r="C113" s="58"/>
       <c r="D113" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
@@ -4820,14 +4660,14 @@
       </c>
       <c r="L113" s="10"/>
       <c r="M113" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="114" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A114" s="60"/>
-      <c r="B114" s="71"/>
+      <c r="A114" s="53"/>
+      <c r="B114" s="52"/>
       <c r="C114" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
@@ -4843,22 +4683,22 @@
       </c>
       <c r="L114" s="10"/>
       <c r="M114" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="115" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A115" s="60"/>
-      <c r="B115" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="C115" s="50" t="s">
-        <v>66</v>
+      <c r="A115" s="53"/>
+      <c r="B115" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C115" s="56" t="s">
+        <v>65</v>
       </c>
       <c r="D115" s="21" t="s">
         <v>5</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F115" s="9"/>
       <c r="G115" s="46">
@@ -4872,15 +4712,15 @@
       </c>
       <c r="L115" s="10"/>
       <c r="M115" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A116" s="60"/>
-      <c r="B116" s="70"/>
-      <c r="C116" s="54"/>
-      <c r="D116" s="72" t="s">
-        <v>30</v>
+      <c r="A116" s="53"/>
+      <c r="B116" s="51"/>
+      <c r="C116" s="61"/>
+      <c r="D116" s="59" t="s">
+        <v>29</v>
       </c>
       <c r="E116" s="9" t="s">
         <v>6</v>
@@ -4895,18 +4735,20 @@
       <c r="K116" s="35">
         <v>1</v>
       </c>
-      <c r="L116" s="10"/>
+      <c r="L116" s="10">
+        <v>1</v>
+      </c>
       <c r="M116" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="117" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A117" s="60"/>
-      <c r="B117" s="70"/>
-      <c r="C117" s="54"/>
-      <c r="D117" s="73"/>
+      <c r="A117" s="53"/>
+      <c r="B117" s="51"/>
+      <c r="C117" s="61"/>
+      <c r="D117" s="60"/>
       <c r="E117" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F117" s="9"/>
       <c r="G117" s="46">
@@ -4918,17 +4760,19 @@
       <c r="K117" s="35">
         <v>1</v>
       </c>
-      <c r="L117" s="10"/>
+      <c r="L117" s="10">
+        <v>1</v>
+      </c>
       <c r="M117" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="118" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A118" s="60"/>
-      <c r="B118" s="70"/>
-      <c r="C118" s="54"/>
+      <c r="A118" s="53"/>
+      <c r="B118" s="51"/>
+      <c r="C118" s="61"/>
       <c r="D118" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E118" s="9"/>
       <c r="F118" s="9"/>
@@ -4941,17 +4785,19 @@
       <c r="K118" s="35">
         <v>1</v>
       </c>
-      <c r="L118" s="10"/>
+      <c r="L118" s="10">
+        <v>1</v>
+      </c>
       <c r="M118" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="119" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A119" s="60"/>
-      <c r="B119" s="70"/>
-      <c r="C119" s="54"/>
+      <c r="A119" s="53"/>
+      <c r="B119" s="51"/>
+      <c r="C119" s="61"/>
       <c r="D119" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E119" s="9"/>
       <c r="F119" s="9"/>
@@ -4964,17 +4810,19 @@
       <c r="K119" s="35">
         <v>1</v>
       </c>
-      <c r="L119" s="10"/>
+      <c r="L119" s="10">
+        <v>1</v>
+      </c>
       <c r="M119" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="120" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A120" s="60"/>
-      <c r="B120" s="70"/>
-      <c r="C120" s="54"/>
+      <c r="A120" s="53"/>
+      <c r="B120" s="51"/>
+      <c r="C120" s="61"/>
       <c r="D120" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E120" s="9"/>
       <c r="F120" s="9"/>
@@ -4989,15 +4837,15 @@
       </c>
       <c r="L120" s="10"/>
       <c r="M120" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="121" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A121" s="60"/>
-      <c r="B121" s="70"/>
-      <c r="C121" s="51"/>
+      <c r="A121" s="53"/>
+      <c r="B121" s="51"/>
+      <c r="C121" s="57"/>
       <c r="D121" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E121" s="9"/>
       <c r="F121" s="9"/>
@@ -5012,20 +4860,20 @@
       </c>
       <c r="L121" s="10"/>
       <c r="M121" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="122" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A122" s="60"/>
-      <c r="B122" s="71"/>
-      <c r="C122" s="50" t="s">
-        <v>108</v>
+      <c r="A122" s="53"/>
+      <c r="B122" s="52"/>
+      <c r="C122" s="56" t="s">
+        <v>107</v>
       </c>
       <c r="D122" s="21" t="s">
         <v>5</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F122" s="9"/>
       <c r="G122" s="46">
@@ -5039,15 +4887,15 @@
       </c>
       <c r="L122" s="10"/>
       <c r="M122" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="123" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A123" s="60"/>
-      <c r="B123" s="71"/>
-      <c r="C123" s="54"/>
-      <c r="D123" s="72" t="s">
-        <v>30</v>
+      <c r="A123" s="53"/>
+      <c r="B123" s="52"/>
+      <c r="C123" s="61"/>
+      <c r="D123" s="59" t="s">
+        <v>29</v>
       </c>
       <c r="E123" s="9" t="s">
         <v>6</v>
@@ -5062,18 +4910,20 @@
       <c r="K123" s="35">
         <v>1</v>
       </c>
-      <c r="L123" s="10"/>
+      <c r="L123" s="10">
+        <v>1</v>
+      </c>
       <c r="M123" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="124" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A124" s="60"/>
-      <c r="B124" s="71"/>
-      <c r="C124" s="54"/>
-      <c r="D124" s="73"/>
+      <c r="A124" s="53"/>
+      <c r="B124" s="52"/>
+      <c r="C124" s="61"/>
+      <c r="D124" s="60"/>
       <c r="E124" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F124" s="9"/>
       <c r="G124" s="46">
@@ -5085,17 +4935,19 @@
       <c r="K124" s="35">
         <v>1</v>
       </c>
-      <c r="L124" s="10"/>
+      <c r="L124" s="10">
+        <v>1</v>
+      </c>
       <c r="M124" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="125" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A125" s="60"/>
-      <c r="B125" s="71"/>
-      <c r="C125" s="51"/>
+      <c r="A125" s="53"/>
+      <c r="B125" s="52"/>
+      <c r="C125" s="57"/>
       <c r="D125" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
@@ -5108,16 +4960,18 @@
       <c r="K125" s="35">
         <v>1</v>
       </c>
-      <c r="L125" s="10"/>
+      <c r="L125" s="10">
+        <v>1</v>
+      </c>
       <c r="M125" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="126" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A126" s="60"/>
-      <c r="B126" s="71"/>
+      <c r="A126" s="53"/>
+      <c r="B126" s="52"/>
       <c r="C126" s="37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D126" s="38"/>
       <c r="E126" s="37"/>
@@ -5135,10 +4989,10 @@
       <c r="M126" s="9"/>
     </row>
     <row r="127" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A127" s="60"/>
-      <c r="B127" s="71"/>
+      <c r="A127" s="53"/>
+      <c r="B127" s="52"/>
       <c r="C127" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D127" s="38"/>
       <c r="E127" s="37"/>
@@ -5156,10 +5010,10 @@
       <c r="M127" s="9"/>
     </row>
     <row r="128" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A128" s="60"/>
-      <c r="B128" s="71"/>
+      <c r="A128" s="53"/>
+      <c r="B128" s="52"/>
       <c r="C128" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D128" s="37"/>
       <c r="E128" s="37"/>
@@ -5177,10 +5031,10 @@
       <c r="M128" s="9"/>
     </row>
     <row r="129" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A129" s="60"/>
-      <c r="B129" s="71"/>
+      <c r="A129" s="53"/>
+      <c r="B129" s="52"/>
       <c r="C129" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D129" s="37"/>
       <c r="E129" s="37"/>
@@ -5199,7 +5053,7 @@
     </row>
     <row r="130" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F130" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G130" s="41">
         <f>SUM(G102:G129)</f>
@@ -5221,6 +5075,40 @@
     <protectedRange sqref="L102:L129 L57:L100 L2:L55" name="区域3"/>
   </protectedRanges>
   <mergeCells count="50">
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="N60:N64"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="C85:C100"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="D97:D100"/>
+    <mergeCell ref="D85:D94"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="C76:C80"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="A8:A55"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="B60:B80"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B25:B33"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="C39:C40"/>
     <mergeCell ref="D109:D111"/>
     <mergeCell ref="B115:B129"/>
     <mergeCell ref="A102:A129"/>
@@ -5237,98 +5125,64 @@
     <mergeCell ref="C112:C113"/>
     <mergeCell ref="C108:C111"/>
     <mergeCell ref="C105:C107"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B47"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="A8:A55"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="B60:B80"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B25:B33"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="N60:N64"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="C85:C100"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="D97:D100"/>
-    <mergeCell ref="D85:D94"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="C76:C80"/>
-    <mergeCell ref="C81:C84"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="L2:L14 L102:L129 L66:L100 L25:L37 L46:L51 L43:L44">
-    <cfRule type="cellIs" dxfId="72" priority="87" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="L2:L14 L102:L129 L66:L100 L48:L51 L43:L44 L25:L37">
+    <cfRule type="cellIs" dxfId="48" priority="90" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="88" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="91" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="89" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="46" priority="92" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23:L24">
-    <cfRule type="cellIs" dxfId="69" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="60" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="61" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="59" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="43" priority="62" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="duplicateValues" dxfId="66" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L38:L41">
-    <cfRule type="cellIs" dxfId="65" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="56" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="57" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="55" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="39" priority="58" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="duplicateValues" dxfId="56" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L57:L65">
-    <cfRule type="cellIs" dxfId="55" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="46" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="47" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="45" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="35" priority="48" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K76">
-    <cfRule type="colorScale" priority="32">
+    <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="num" val="5"/>
         <cfvo type="max"/>
@@ -5336,7 +5190,7 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="33">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="num" val="4"/>
         <cfvo type="max"/>
@@ -5344,7 +5198,7 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="34">
+    <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="num" val="3"/>
         <cfvo type="max"/>
@@ -5352,7 +5206,7 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="35">
+    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="num" val="2"/>
         <cfvo type="max"/>
@@ -5360,7 +5214,7 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="36">
+    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="num" val="1"/>
         <cfvo type="max"/>
@@ -5370,47 +5224,59 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K129">
-    <cfRule type="cellIs" dxfId="52" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="30" stopIfTrue="1" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="31" stopIfTrue="1" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="32" stopIfTrue="1" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="33" stopIfTrue="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="34" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15:L19 L22">
-    <cfRule type="cellIs" dxfId="47" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="19" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="20" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="18" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="27" priority="21" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20:L21">
-    <cfRule type="cellIs" dxfId="26" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="13" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="14" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="12" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="24" priority="15" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L52:L55">
+    <cfRule type="cellIs" dxfId="23" priority="10" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="11" stopIfTrue="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="12" stopIfTrue="1" operator="between">
+      <formula>0</formula>
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L42">
     <cfRule type="cellIs" dxfId="20" priority="7" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5422,26 +5288,26 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L42">
-    <cfRule type="cellIs" dxfId="14" priority="4" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="L45">
+    <cfRule type="cellIs" dxfId="17" priority="4" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="5" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="6" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="6" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L45">
-    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="L46:L47">
+    <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="3" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>

--- a/doc/开发计划V0.1.xlsx
+++ b/doc/开发计划V0.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\360安全浏览器下载\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDE\IdeaProjects\hsd-servers\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -944,185 +944,89 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="51">
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="39">
     <dxf>
       <fill>
         <patternFill>
@@ -1443,8 +1347,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="50"/>
-      <tableStyleElement type="headerRow" dxfId="49"/>
+      <tableStyleElement type="wholeTable" dxfId="38"/>
+      <tableStyleElement type="headerRow" dxfId="37"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1748,8 +1652,8 @@
   <dimension ref="A1:N132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L24" sqref="L24"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1819,7 +1723,7 @@
       <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="64" t="s">
         <v>78</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -1840,7 +1744,7 @@
       <c r="M3" s="9"/>
     </row>
     <row r="4" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="55"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="12" t="s">
         <v>81</v>
       </c>
@@ -1859,7 +1763,7 @@
       <c r="M4" s="9"/>
     </row>
     <row r="5" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="55"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="12" t="s">
         <v>79</v>
       </c>
@@ -1878,7 +1782,7 @@
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="55"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="12"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1895,7 +1799,7 @@
       <c r="M6" s="9"/>
     </row>
     <row r="7" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="68"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="12"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1912,7 +1816,7 @@
       <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="61" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="14" t="s">
@@ -1934,7 +1838,7 @@
       <c r="M8" s="9"/>
     </row>
     <row r="9" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="53"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="14" t="s">
         <v>17</v>
       </c>
@@ -1955,7 +1859,7 @@
       <c r="M9" s="9"/>
     </row>
     <row r="10" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="53"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="14" t="s">
         <v>18</v>
       </c>
@@ -1979,8 +1883,8 @@
       <c r="M10" s="9"/>
     </row>
     <row r="11" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="53"/>
-      <c r="B11" s="63" t="s">
+      <c r="A11" s="61"/>
+      <c r="B11" s="67" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -2014,8 +1918,8 @@
       </c>
     </row>
     <row r="12" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A12" s="53"/>
-      <c r="B12" s="64"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="68"/>
       <c r="C12" s="9" t="s">
         <v>10</v>
       </c>
@@ -2045,8 +1949,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="53"/>
-      <c r="B13" s="64"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="68"/>
       <c r="C13" s="9" t="s">
         <v>9</v>
       </c>
@@ -2068,8 +1972,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="53"/>
-      <c r="B14" s="65"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="69"/>
       <c r="C14" s="9" t="s">
         <v>27</v>
       </c>
@@ -2093,8 +1997,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="53"/>
-      <c r="B15" s="63" t="s">
+      <c r="A15" s="61"/>
+      <c r="B15" s="67" t="s">
         <v>131</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -2126,9 +2030,9 @@
       </c>
     </row>
     <row r="16" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="53"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="56" t="s">
+      <c r="A16" s="61"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="51" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="9" t="s">
@@ -2157,9 +2061,9 @@
       </c>
     </row>
     <row r="17" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="53"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="57"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="9" t="s">
         <v>12</v>
       </c>
@@ -2186,8 +2090,8 @@
       </c>
     </row>
     <row r="18" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="53"/>
-      <c r="B18" s="65"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="69"/>
       <c r="C18" s="9" t="s">
         <v>13</v>
       </c>
@@ -2215,8 +2119,8 @@
       </c>
     </row>
     <row r="19" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="53"/>
-      <c r="B19" s="63" t="s">
+      <c r="A19" s="61"/>
+      <c r="B19" s="67" t="s">
         <v>138</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -2248,9 +2152,9 @@
       </c>
     </row>
     <row r="20" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="53"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="56" t="s">
+      <c r="A20" s="61"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="51" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="9" t="s">
@@ -2264,7 +2168,9 @@
       <c r="H20" s="45">
         <v>42955</v>
       </c>
-      <c r="I20" s="45"/>
+      <c r="I20" s="45">
+        <v>42955</v>
+      </c>
       <c r="J20" s="33"/>
       <c r="K20" s="35">
         <v>1</v>
@@ -2277,9 +2183,9 @@
       </c>
     </row>
     <row r="21" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="53"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="57"/>
+      <c r="A21" s="61"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="9" t="s">
         <v>12</v>
       </c>
@@ -2291,7 +2197,9 @@
       <c r="H21" s="45">
         <v>42955</v>
       </c>
-      <c r="I21" s="45"/>
+      <c r="I21" s="45">
+        <v>42955</v>
+      </c>
       <c r="J21" s="33"/>
       <c r="K21" s="35">
         <v>1</v>
@@ -2304,8 +2212,8 @@
       </c>
     </row>
     <row r="22" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="53"/>
-      <c r="B22" s="64"/>
+      <c r="A22" s="61"/>
+      <c r="B22" s="68"/>
       <c r="C22" s="9" t="s">
         <v>13</v>
       </c>
@@ -2333,8 +2241,8 @@
       </c>
     </row>
     <row r="23" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="53"/>
-      <c r="B23" s="64"/>
+      <c r="A23" s="61"/>
+      <c r="B23" s="68"/>
       <c r="C23" s="9" t="s">
         <v>136</v>
       </c>
@@ -2347,21 +2255,23 @@
       <c r="H23" s="45">
         <v>42962</v>
       </c>
-      <c r="I23" s="9"/>
+      <c r="I23" s="45">
+        <v>42963</v>
+      </c>
       <c r="J23" s="33"/>
       <c r="K23" s="35">
         <v>1</v>
       </c>
       <c r="L23" s="10">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="M23" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="53"/>
-      <c r="B24" s="65"/>
+      <c r="A24" s="61"/>
+      <c r="B24" s="69"/>
       <c r="C24" s="9" t="s">
         <v>135</v>
       </c>
@@ -2374,21 +2284,23 @@
       <c r="H24" s="45">
         <v>42962</v>
       </c>
-      <c r="I24" s="9"/>
+      <c r="I24" s="45">
+        <v>42963</v>
+      </c>
       <c r="J24" s="33"/>
       <c r="K24" s="35">
         <v>1</v>
       </c>
       <c r="L24" s="10">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="M24" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="53"/>
-      <c r="B25" s="63" t="s">
+      <c r="A25" s="61"/>
+      <c r="B25" s="67" t="s">
         <v>139</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -2420,9 +2332,9 @@
       </c>
     </row>
     <row r="26" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="53"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="56" t="s">
+      <c r="A26" s="61"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="51" t="s">
         <v>29</v>
       </c>
       <c r="D26" s="9" t="s">
@@ -2449,9 +2361,9 @@
       </c>
     </row>
     <row r="27" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="53"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="57"/>
+      <c r="A27" s="61"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="52"/>
       <c r="D27" s="9" t="s">
         <v>12</v>
       </c>
@@ -2476,8 +2388,8 @@
       </c>
     </row>
     <row r="28" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="53"/>
-      <c r="B28" s="64"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="68"/>
       <c r="C28" s="9" t="s">
         <v>13</v>
       </c>
@@ -2505,8 +2417,8 @@
       </c>
     </row>
     <row r="29" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="53"/>
-      <c r="B29" s="64"/>
+      <c r="A29" s="61"/>
+      <c r="B29" s="68"/>
       <c r="C29" s="9" t="s">
         <v>25</v>
       </c>
@@ -2528,8 +2440,8 @@
       </c>
     </row>
     <row r="30" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="53"/>
-      <c r="B30" s="64"/>
+      <c r="A30" s="61"/>
+      <c r="B30" s="68"/>
       <c r="C30" s="9" t="s">
         <v>24</v>
       </c>
@@ -2551,8 +2463,8 @@
       </c>
     </row>
     <row r="31" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="53"/>
-      <c r="B31" s="64"/>
+      <c r="A31" s="61"/>
+      <c r="B31" s="68"/>
       <c r="C31" s="9" t="s">
         <v>26</v>
       </c>
@@ -2574,8 +2486,8 @@
       </c>
     </row>
     <row r="32" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="53"/>
-      <c r="B32" s="64"/>
+      <c r="A32" s="61"/>
+      <c r="B32" s="68"/>
       <c r="C32" s="9" t="s">
         <v>20</v>
       </c>
@@ -2597,8 +2509,8 @@
       </c>
     </row>
     <row r="33" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="53"/>
-      <c r="B33" s="65"/>
+      <c r="A33" s="61"/>
+      <c r="B33" s="69"/>
       <c r="C33" s="9" t="s">
         <v>21</v>
       </c>
@@ -2620,8 +2532,8 @@
       </c>
     </row>
     <row r="34" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="53"/>
-      <c r="B34" s="63" t="s">
+      <c r="A34" s="61"/>
+      <c r="B34" s="67" t="s">
         <v>132</v>
       </c>
       <c r="C34" s="9" t="s">
@@ -2653,9 +2565,9 @@
       </c>
     </row>
     <row r="35" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="53"/>
-      <c r="B35" s="64"/>
-      <c r="C35" s="56" t="s">
+      <c r="A35" s="61"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="51" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="9" t="s">
@@ -2684,9 +2596,9 @@
       </c>
     </row>
     <row r="36" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="53"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="57"/>
+      <c r="A36" s="61"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="52"/>
       <c r="D36" s="9" t="s">
         <v>12</v>
       </c>
@@ -2713,8 +2625,8 @@
       </c>
     </row>
     <row r="37" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="53"/>
-      <c r="B37" s="65"/>
+      <c r="A37" s="61"/>
+      <c r="B37" s="69"/>
       <c r="C37" s="9" t="s">
         <v>13</v>
       </c>
@@ -2742,8 +2654,8 @@
       </c>
     </row>
     <row r="38" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="53"/>
-      <c r="B38" s="63" t="s">
+      <c r="A38" s="61"/>
+      <c r="B38" s="67" t="s">
         <v>133</v>
       </c>
       <c r="C38" s="9" t="s">
@@ -2775,9 +2687,9 @@
       </c>
     </row>
     <row r="39" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="53"/>
-      <c r="B39" s="64"/>
-      <c r="C39" s="56" t="s">
+      <c r="A39" s="61"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="51" t="s">
         <v>29</v>
       </c>
       <c r="D39" s="9" t="s">
@@ -2806,9 +2718,9 @@
       </c>
     </row>
     <row r="40" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="53"/>
-      <c r="B40" s="64"/>
-      <c r="C40" s="57"/>
+      <c r="A40" s="61"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="52"/>
       <c r="D40" s="9" t="s">
         <v>12</v>
       </c>
@@ -2835,8 +2747,8 @@
       </c>
     </row>
     <row r="41" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="53"/>
-      <c r="B41" s="65"/>
+      <c r="A41" s="61"/>
+      <c r="B41" s="69"/>
       <c r="C41" s="9" t="s">
         <v>13</v>
       </c>
@@ -2864,8 +2776,8 @@
       </c>
     </row>
     <row r="42" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="53"/>
-      <c r="B42" s="63" t="s">
+      <c r="A42" s="61"/>
+      <c r="B42" s="67" t="s">
         <v>137</v>
       </c>
       <c r="C42" s="9" t="s">
@@ -2897,9 +2809,9 @@
       </c>
     </row>
     <row r="43" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="53"/>
-      <c r="B43" s="64"/>
-      <c r="C43" s="56" t="s">
+      <c r="A43" s="61"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="51" t="s">
         <v>29</v>
       </c>
       <c r="D43" s="9" t="s">
@@ -2928,9 +2840,9 @@
       </c>
     </row>
     <row r="44" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="53"/>
-      <c r="B44" s="64"/>
-      <c r="C44" s="57"/>
+      <c r="A44" s="61"/>
+      <c r="B44" s="68"/>
+      <c r="C44" s="52"/>
       <c r="D44" s="9" t="s">
         <v>12</v>
       </c>
@@ -2957,8 +2869,8 @@
       </c>
     </row>
     <row r="45" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="53"/>
-      <c r="B45" s="64"/>
+      <c r="A45" s="61"/>
+      <c r="B45" s="68"/>
       <c r="C45" s="9" t="s">
         <v>13</v>
       </c>
@@ -2986,8 +2898,8 @@
       </c>
     </row>
     <row r="46" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="53"/>
-      <c r="B46" s="64"/>
+      <c r="A46" s="61"/>
+      <c r="B46" s="68"/>
       <c r="C46" s="16" t="s">
         <v>22</v>
       </c>
@@ -3015,8 +2927,8 @@
       </c>
     </row>
     <row r="47" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="53"/>
-      <c r="B47" s="65"/>
+      <c r="A47" s="61"/>
+      <c r="B47" s="69"/>
       <c r="C47" s="16" t="s">
         <v>23</v>
       </c>
@@ -3044,8 +2956,8 @@
       </c>
     </row>
     <row r="48" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="53"/>
-      <c r="B48" s="63" t="s">
+      <c r="A48" s="61"/>
+      <c r="B48" s="67" t="s">
         <v>134</v>
       </c>
       <c r="C48" s="16" t="s">
@@ -3077,8 +2989,8 @@
       </c>
     </row>
     <row r="49" spans="1:14" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="53"/>
-      <c r="B49" s="64"/>
+      <c r="A49" s="61"/>
+      <c r="B49" s="68"/>
       <c r="C49" s="17"/>
       <c r="D49" s="9" t="s">
         <v>6</v>
@@ -3108,8 +3020,8 @@
       </c>
     </row>
     <row r="50" spans="1:14" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="53"/>
-      <c r="B50" s="64"/>
+      <c r="A50" s="61"/>
+      <c r="B50" s="68"/>
       <c r="C50" s="16" t="s">
         <v>16</v>
       </c>
@@ -3139,8 +3051,8 @@
       </c>
     </row>
     <row r="51" spans="1:14" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="53"/>
-      <c r="B51" s="65"/>
+      <c r="A51" s="61"/>
+      <c r="B51" s="69"/>
       <c r="C51" s="17"/>
       <c r="D51" s="9" t="s">
         <v>6</v>
@@ -3168,8 +3080,8 @@
       </c>
     </row>
     <row r="52" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A52" s="53"/>
-      <c r="B52" s="63" t="s">
+      <c r="A52" s="61"/>
+      <c r="B52" s="67" t="s">
         <v>140</v>
       </c>
       <c r="C52" s="9" t="s">
@@ -3201,9 +3113,9 @@
       </c>
     </row>
     <row r="53" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A53" s="53"/>
-      <c r="B53" s="64"/>
-      <c r="C53" s="56" t="s">
+      <c r="A53" s="61"/>
+      <c r="B53" s="68"/>
+      <c r="C53" s="51" t="s">
         <v>29</v>
       </c>
       <c r="D53" s="9" t="s">
@@ -3232,9 +3144,9 @@
       </c>
     </row>
     <row r="54" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A54" s="53"/>
-      <c r="B54" s="64"/>
-      <c r="C54" s="57"/>
+      <c r="A54" s="61"/>
+      <c r="B54" s="68"/>
+      <c r="C54" s="52"/>
       <c r="D54" s="9" t="s">
         <v>12</v>
       </c>
@@ -3261,8 +3173,8 @@
       </c>
     </row>
     <row r="55" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A55" s="53"/>
-      <c r="B55" s="65"/>
+      <c r="A55" s="61"/>
+      <c r="B55" s="69"/>
       <c r="C55" s="9" t="s">
         <v>13</v>
       </c>
@@ -3303,7 +3215,7 @@
       </c>
     </row>
     <row r="57" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="54" t="s">
+      <c r="A57" s="64" t="s">
         <v>77</v>
       </c>
       <c r="B57" s="18" t="s">
@@ -3328,7 +3240,7 @@
       <c r="M57" s="9"/>
     </row>
     <row r="58" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="55"/>
+      <c r="A58" s="65"/>
       <c r="B58" s="18" t="s">
         <v>17</v>
       </c>
@@ -3349,7 +3261,7 @@
       <c r="M58" s="9"/>
     </row>
     <row r="59" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="55"/>
+      <c r="A59" s="65"/>
       <c r="B59" s="18" t="s">
         <v>18</v>
       </c>
@@ -3370,11 +3282,11 @@
       <c r="M59" s="9"/>
     </row>
     <row r="60" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="55"/>
-      <c r="B60" s="66" t="s">
+      <c r="A60" s="65"/>
+      <c r="B60" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="C60" s="58" t="s">
+      <c r="C60" s="54" t="s">
         <v>40</v>
       </c>
       <c r="D60" s="9" t="s">
@@ -3397,15 +3309,15 @@
       <c r="M60" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="N60" s="69" t="s">
+      <c r="N60" s="50" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="55"/>
-      <c r="B61" s="67"/>
-      <c r="C61" s="58"/>
-      <c r="D61" s="56" t="s">
+      <c r="A61" s="65"/>
+      <c r="B61" s="63"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="51" t="s">
         <v>90</v>
       </c>
       <c r="E61" s="9" t="s">
@@ -3425,13 +3337,13 @@
       <c r="M61" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="N61" s="69"/>
+      <c r="N61" s="50"/>
     </row>
     <row r="62" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="55"/>
-      <c r="B62" s="67"/>
-      <c r="C62" s="58"/>
-      <c r="D62" s="57"/>
+      <c r="A62" s="65"/>
+      <c r="B62" s="63"/>
+      <c r="C62" s="54"/>
+      <c r="D62" s="52"/>
       <c r="E62" s="9" t="s">
         <v>88</v>
       </c>
@@ -3449,12 +3361,12 @@
       <c r="M62" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="N62" s="69"/>
+      <c r="N62" s="50"/>
     </row>
     <row r="63" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="55"/>
-      <c r="B63" s="67"/>
-      <c r="C63" s="56" t="s">
+      <c r="A63" s="65"/>
+      <c r="B63" s="63"/>
+      <c r="C63" s="51" t="s">
         <v>84</v>
       </c>
       <c r="D63" s="9" t="s">
@@ -3477,12 +3389,12 @@
       <c r="M63" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="N63" s="69"/>
+      <c r="N63" s="50"/>
     </row>
     <row r="64" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="55"/>
-      <c r="B64" s="67"/>
-      <c r="C64" s="57"/>
+      <c r="A64" s="65"/>
+      <c r="B64" s="63"/>
+      <c r="C64" s="52"/>
       <c r="D64" s="9" t="s">
         <v>82</v>
       </c>
@@ -3503,11 +3415,11 @@
       <c r="M64" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="N64" s="69"/>
+      <c r="N64" s="50"/>
     </row>
     <row r="65" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="55"/>
-      <c r="B65" s="67"/>
+      <c r="A65" s="65"/>
+      <c r="B65" s="63"/>
       <c r="C65" s="17" t="s">
         <v>83</v>
       </c>
@@ -3529,9 +3441,9 @@
       </c>
     </row>
     <row r="66" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A66" s="55"/>
-      <c r="B66" s="67"/>
-      <c r="C66" s="58" t="s">
+      <c r="A66" s="65"/>
+      <c r="B66" s="63"/>
+      <c r="C66" s="54" t="s">
         <v>45</v>
       </c>
       <c r="D66" s="9" t="s">
@@ -3554,10 +3466,10 @@
       </c>
     </row>
     <row r="67" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A67" s="55"/>
-      <c r="B67" s="67"/>
-      <c r="C67" s="58"/>
-      <c r="D67" s="58" t="s">
+      <c r="A67" s="65"/>
+      <c r="B67" s="63"/>
+      <c r="C67" s="54"/>
+      <c r="D67" s="54" t="s">
         <v>91</v>
       </c>
       <c r="E67" s="9" t="s">
@@ -3579,10 +3491,10 @@
       </c>
     </row>
     <row r="68" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A68" s="55"/>
-      <c r="B68" s="67"/>
-      <c r="C68" s="58"/>
-      <c r="D68" s="58"/>
+      <c r="A68" s="65"/>
+      <c r="B68" s="63"/>
+      <c r="C68" s="54"/>
+      <c r="D68" s="54"/>
       <c r="E68" s="9" t="s">
         <v>71</v>
       </c>
@@ -3602,9 +3514,9 @@
       </c>
     </row>
     <row r="69" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A69" s="55"/>
-      <c r="B69" s="67"/>
-      <c r="C69" s="56" t="s">
+      <c r="A69" s="65"/>
+      <c r="B69" s="63"/>
+      <c r="C69" s="51" t="s">
         <v>36</v>
       </c>
       <c r="D69" s="9" t="s">
@@ -3627,9 +3539,9 @@
       </c>
     </row>
     <row r="70" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A70" s="55"/>
-      <c r="B70" s="67"/>
-      <c r="C70" s="61"/>
+      <c r="A70" s="65"/>
+      <c r="B70" s="63"/>
+      <c r="C70" s="55"/>
       <c r="D70" s="9" t="s">
         <v>38</v>
       </c>
@@ -3650,9 +3562,9 @@
       </c>
     </row>
     <row r="71" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A71" s="55"/>
-      <c r="B71" s="67"/>
-      <c r="C71" s="57"/>
+      <c r="A71" s="65"/>
+      <c r="B71" s="63"/>
+      <c r="C71" s="52"/>
       <c r="D71" s="9" t="s">
         <v>39</v>
       </c>
@@ -3675,8 +3587,8 @@
       </c>
     </row>
     <row r="72" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A72" s="55"/>
-      <c r="B72" s="67"/>
+      <c r="A72" s="65"/>
+      <c r="B72" s="63"/>
       <c r="C72" s="9" t="s">
         <v>49</v>
       </c>
@@ -3698,8 +3610,8 @@
       </c>
     </row>
     <row r="73" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A73" s="55"/>
-      <c r="B73" s="67"/>
+      <c r="A73" s="65"/>
+      <c r="B73" s="63"/>
       <c r="C73" s="9" t="s">
         <v>50</v>
       </c>
@@ -3724,9 +3636,9 @@
       </c>
     </row>
     <row r="74" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A74" s="55"/>
-      <c r="B74" s="67"/>
-      <c r="C74" s="56" t="s">
+      <c r="A74" s="65"/>
+      <c r="B74" s="63"/>
+      <c r="C74" s="51" t="s">
         <v>57</v>
       </c>
       <c r="D74" s="30" t="s">
@@ -3749,9 +3661,9 @@
       </c>
     </row>
     <row r="75" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A75" s="55"/>
-      <c r="B75" s="67"/>
-      <c r="C75" s="57"/>
+      <c r="A75" s="65"/>
+      <c r="B75" s="63"/>
+      <c r="C75" s="52"/>
       <c r="D75" s="9" t="s">
         <v>97</v>
       </c>
@@ -3774,9 +3686,9 @@
       </c>
     </row>
     <row r="76" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A76" s="55"/>
-      <c r="B76" s="67"/>
-      <c r="C76" s="70" t="s">
+      <c r="A76" s="65"/>
+      <c r="B76" s="63"/>
+      <c r="C76" s="56" t="s">
         <v>51</v>
       </c>
       <c r="D76" s="19" t="s">
@@ -3797,9 +3709,9 @@
       <c r="M76" s="43"/>
     </row>
     <row r="77" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A77" s="55"/>
-      <c r="B77" s="67"/>
-      <c r="C77" s="71"/>
+      <c r="A77" s="65"/>
+      <c r="B77" s="63"/>
+      <c r="C77" s="57"/>
       <c r="D77" s="19" t="s">
         <v>53</v>
       </c>
@@ -3818,9 +3730,9 @@
       <c r="M77" s="43"/>
     </row>
     <row r="78" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A78" s="55"/>
-      <c r="B78" s="67"/>
-      <c r="C78" s="71"/>
+      <c r="A78" s="65"/>
+      <c r="B78" s="63"/>
+      <c r="C78" s="57"/>
       <c r="D78" s="19" t="s">
         <v>54</v>
       </c>
@@ -3839,9 +3751,9 @@
       <c r="M78" s="43"/>
     </row>
     <row r="79" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A79" s="55"/>
-      <c r="B79" s="67"/>
-      <c r="C79" s="71"/>
+      <c r="A79" s="65"/>
+      <c r="B79" s="63"/>
+      <c r="C79" s="57"/>
       <c r="D79" s="19" t="s">
         <v>55</v>
       </c>
@@ -3860,9 +3772,9 @@
       <c r="M79" s="43"/>
     </row>
     <row r="80" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A80" s="55"/>
-      <c r="B80" s="67"/>
-      <c r="C80" s="72"/>
+      <c r="A80" s="65"/>
+      <c r="B80" s="63"/>
+      <c r="C80" s="58"/>
       <c r="D80" s="19" t="s">
         <v>56</v>
       </c>
@@ -3881,11 +3793,11 @@
       <c r="M80" s="43"/>
     </row>
     <row r="81" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A81" s="55"/>
-      <c r="B81" s="51" t="s">
+      <c r="A81" s="65"/>
+      <c r="B81" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="C81" s="73" t="s">
+      <c r="C81" s="59" t="s">
         <v>75</v>
       </c>
       <c r="D81" s="15" t="s">
@@ -3906,9 +3818,9 @@
       <c r="M81" s="43"/>
     </row>
     <row r="82" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A82" s="55"/>
-      <c r="B82" s="52"/>
-      <c r="C82" s="74"/>
+      <c r="A82" s="65"/>
+      <c r="B82" s="72"/>
+      <c r="C82" s="60"/>
       <c r="D82" s="15" t="s">
         <v>59</v>
       </c>
@@ -3927,9 +3839,9 @@
       <c r="M82" s="43"/>
     </row>
     <row r="83" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A83" s="55"/>
-      <c r="B83" s="52"/>
-      <c r="C83" s="74"/>
+      <c r="A83" s="65"/>
+      <c r="B83" s="72"/>
+      <c r="C83" s="60"/>
       <c r="D83" s="15" t="s">
         <v>55</v>
       </c>
@@ -3946,9 +3858,9 @@
       <c r="M83" s="43"/>
     </row>
     <row r="84" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A84" s="55"/>
-      <c r="B84" s="52"/>
-      <c r="C84" s="74"/>
+      <c r="A84" s="65"/>
+      <c r="B84" s="72"/>
+      <c r="C84" s="60"/>
       <c r="D84" s="15" t="s">
         <v>60</v>
       </c>
@@ -3965,12 +3877,12 @@
       <c r="M84" s="43"/>
     </row>
     <row r="85" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A85" s="55"/>
-      <c r="B85" s="52"/>
-      <c r="C85" s="62" t="s">
+      <c r="A85" s="65"/>
+      <c r="B85" s="72"/>
+      <c r="C85" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="D85" s="56" t="s">
+      <c r="D85" s="51" t="s">
         <v>61</v>
       </c>
       <c r="E85" s="9" t="s">
@@ -3994,11 +3906,11 @@
       </c>
     </row>
     <row r="86" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A86" s="55"/>
-      <c r="B86" s="52"/>
-      <c r="C86" s="62"/>
-      <c r="D86" s="61"/>
-      <c r="E86" s="56" t="s">
+      <c r="A86" s="65"/>
+      <c r="B86" s="72"/>
+      <c r="C86" s="53"/>
+      <c r="D86" s="55"/>
+      <c r="E86" s="51" t="s">
         <v>29</v>
       </c>
       <c r="F86" s="9" t="s">
@@ -4019,11 +3931,11 @@
       </c>
     </row>
     <row r="87" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A87" s="55"/>
-      <c r="B87" s="52"/>
-      <c r="C87" s="62"/>
-      <c r="D87" s="61"/>
-      <c r="E87" s="57"/>
+      <c r="A87" s="65"/>
+      <c r="B87" s="72"/>
+      <c r="C87" s="53"/>
+      <c r="D87" s="55"/>
+      <c r="E87" s="52"/>
       <c r="F87" s="9" t="s">
         <v>12</v>
       </c>
@@ -4042,10 +3954,10 @@
       </c>
     </row>
     <row r="88" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A88" s="55"/>
-      <c r="B88" s="52"/>
-      <c r="C88" s="62"/>
-      <c r="D88" s="61"/>
+      <c r="A88" s="65"/>
+      <c r="B88" s="72"/>
+      <c r="C88" s="53"/>
+      <c r="D88" s="55"/>
       <c r="E88" s="9" t="s">
         <v>13</v>
       </c>
@@ -4065,10 +3977,10 @@
       </c>
     </row>
     <row r="89" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A89" s="55"/>
-      <c r="B89" s="52"/>
-      <c r="C89" s="62"/>
-      <c r="D89" s="61"/>
+      <c r="A89" s="65"/>
+      <c r="B89" s="72"/>
+      <c r="C89" s="53"/>
+      <c r="D89" s="55"/>
       <c r="E89" s="9" t="s">
         <v>110</v>
       </c>
@@ -4088,10 +4000,10 @@
       </c>
     </row>
     <row r="90" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A90" s="55"/>
-      <c r="B90" s="52"/>
-      <c r="C90" s="62"/>
-      <c r="D90" s="61"/>
+      <c r="A90" s="65"/>
+      <c r="B90" s="72"/>
+      <c r="C90" s="53"/>
+      <c r="D90" s="55"/>
       <c r="E90" s="9" t="s">
         <v>111</v>
       </c>
@@ -4111,10 +4023,10 @@
       </c>
     </row>
     <row r="91" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A91" s="55"/>
-      <c r="B91" s="52"/>
-      <c r="C91" s="62"/>
-      <c r="D91" s="61"/>
+      <c r="A91" s="65"/>
+      <c r="B91" s="72"/>
+      <c r="C91" s="53"/>
+      <c r="D91" s="55"/>
       <c r="E91" s="16" t="s">
         <v>124</v>
       </c>
@@ -4134,11 +4046,11 @@
       </c>
     </row>
     <row r="92" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A92" s="55"/>
-      <c r="B92" s="52"/>
-      <c r="C92" s="62"/>
-      <c r="D92" s="61"/>
-      <c r="E92" s="56" t="s">
+      <c r="A92" s="65"/>
+      <c r="B92" s="72"/>
+      <c r="C92" s="53"/>
+      <c r="D92" s="55"/>
+      <c r="E92" s="51" t="s">
         <v>63</v>
       </c>
       <c r="F92" s="9" t="s">
@@ -4159,11 +4071,11 @@
       </c>
     </row>
     <row r="93" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A93" s="55"/>
-      <c r="B93" s="52"/>
-      <c r="C93" s="62"/>
-      <c r="D93" s="61"/>
-      <c r="E93" s="61"/>
+      <c r="A93" s="65"/>
+      <c r="B93" s="72"/>
+      <c r="C93" s="53"/>
+      <c r="D93" s="55"/>
+      <c r="E93" s="55"/>
       <c r="F93" s="9" t="s">
         <v>105</v>
       </c>
@@ -4182,11 +4094,11 @@
       </c>
     </row>
     <row r="94" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A94" s="55"/>
-      <c r="B94" s="52"/>
-      <c r="C94" s="62"/>
-      <c r="D94" s="61"/>
-      <c r="E94" s="57"/>
+      <c r="A94" s="65"/>
+      <c r="B94" s="72"/>
+      <c r="C94" s="53"/>
+      <c r="D94" s="55"/>
+      <c r="E94" s="52"/>
       <c r="F94" s="9" t="s">
         <v>106</v>
       </c>
@@ -4205,10 +4117,10 @@
       </c>
     </row>
     <row r="95" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A95" s="55"/>
-      <c r="B95" s="52"/>
-      <c r="C95" s="62"/>
-      <c r="D95" s="58" t="s">
+      <c r="A95" s="65"/>
+      <c r="B95" s="72"/>
+      <c r="C95" s="53"/>
+      <c r="D95" s="54" t="s">
         <v>112</v>
       </c>
       <c r="E95" s="9" t="s">
@@ -4230,10 +4142,10 @@
       </c>
     </row>
     <row r="96" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A96" s="55"/>
-      <c r="B96" s="52"/>
-      <c r="C96" s="62"/>
-      <c r="D96" s="58"/>
+      <c r="A96" s="65"/>
+      <c r="B96" s="72"/>
+      <c r="C96" s="53"/>
+      <c r="D96" s="54"/>
       <c r="E96" s="9" t="s">
         <v>48</v>
       </c>
@@ -4258,10 +4170,10 @@
       </c>
     </row>
     <row r="97" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A97" s="55"/>
-      <c r="B97" s="52"/>
-      <c r="C97" s="62"/>
-      <c r="D97" s="56" t="s">
+      <c r="A97" s="65"/>
+      <c r="B97" s="72"/>
+      <c r="C97" s="53"/>
+      <c r="D97" s="51" t="s">
         <v>125</v>
       </c>
       <c r="E97" s="9" t="s">
@@ -4288,11 +4200,11 @@
       </c>
     </row>
     <row r="98" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A98" s="55"/>
-      <c r="B98" s="52"/>
-      <c r="C98" s="62"/>
-      <c r="D98" s="61"/>
-      <c r="E98" s="56" t="s">
+      <c r="A98" s="65"/>
+      <c r="B98" s="72"/>
+      <c r="C98" s="53"/>
+      <c r="D98" s="55"/>
+      <c r="E98" s="51" t="s">
         <v>29</v>
       </c>
       <c r="F98" s="9" t="s">
@@ -4313,11 +4225,11 @@
       </c>
     </row>
     <row r="99" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A99" s="55"/>
-      <c r="B99" s="52"/>
-      <c r="C99" s="62"/>
-      <c r="D99" s="61"/>
-      <c r="E99" s="57"/>
+      <c r="A99" s="65"/>
+      <c r="B99" s="72"/>
+      <c r="C99" s="53"/>
+      <c r="D99" s="55"/>
+      <c r="E99" s="52"/>
       <c r="F99" s="9" t="s">
         <v>12</v>
       </c>
@@ -4336,10 +4248,10 @@
       </c>
     </row>
     <row r="100" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A100" s="55"/>
-      <c r="B100" s="52"/>
-      <c r="C100" s="62"/>
-      <c r="D100" s="57"/>
+      <c r="A100" s="65"/>
+      <c r="B100" s="72"/>
+      <c r="C100" s="53"/>
+      <c r="D100" s="52"/>
       <c r="E100" s="9" t="s">
         <v>13</v>
       </c>
@@ -4370,7 +4282,7 @@
       <c r="K101" s="35"/>
     </row>
     <row r="102" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A102" s="53" t="s">
+      <c r="A102" s="61" t="s">
         <v>70</v>
       </c>
       <c r="B102" s="18" t="s">
@@ -4395,7 +4307,7 @@
       </c>
     </row>
     <row r="103" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A103" s="53"/>
+      <c r="A103" s="61"/>
       <c r="B103" s="18" t="s">
         <v>17</v>
       </c>
@@ -4418,7 +4330,7 @@
       </c>
     </row>
     <row r="104" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A104" s="53"/>
+      <c r="A104" s="61"/>
       <c r="B104" s="18" t="s">
         <v>18</v>
       </c>
@@ -4441,11 +4353,11 @@
       </c>
     </row>
     <row r="105" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="53"/>
-      <c r="B105" s="51" t="s">
+      <c r="A105" s="61"/>
+      <c r="B105" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="C105" s="56" t="s">
+      <c r="C105" s="51" t="s">
         <v>33</v>
       </c>
       <c r="D105" s="9" t="s">
@@ -4470,9 +4382,9 @@
       </c>
     </row>
     <row r="106" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A106" s="53"/>
-      <c r="B106" s="52"/>
-      <c r="C106" s="61"/>
+      <c r="A106" s="61"/>
+      <c r="B106" s="72"/>
+      <c r="C106" s="55"/>
       <c r="D106" s="48" t="s">
         <v>41</v>
       </c>
@@ -4495,10 +4407,10 @@
       </c>
     </row>
     <row r="107" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A107" s="53"/>
-      <c r="B107" s="52"/>
-      <c r="C107" s="57"/>
-      <c r="D107" s="50"/>
+      <c r="A107" s="61"/>
+      <c r="B107" s="72"/>
+      <c r="C107" s="52"/>
+      <c r="D107" s="49"/>
       <c r="E107" s="9" t="s">
         <v>43</v>
       </c>
@@ -4518,9 +4430,9 @@
       </c>
     </row>
     <row r="108" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A108" s="53"/>
-      <c r="B108" s="52"/>
-      <c r="C108" s="56" t="s">
+      <c r="A108" s="61"/>
+      <c r="B108" s="72"/>
+      <c r="C108" s="51" t="s">
         <v>45</v>
       </c>
       <c r="D108" s="9" t="s">
@@ -4545,9 +4457,9 @@
       </c>
     </row>
     <row r="109" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A109" s="53"/>
-      <c r="B109" s="52"/>
-      <c r="C109" s="61"/>
+      <c r="A109" s="61"/>
+      <c r="B109" s="72"/>
+      <c r="C109" s="55"/>
       <c r="D109" s="48" t="s">
         <v>41</v>
       </c>
@@ -4570,10 +4482,10 @@
       </c>
     </row>
     <row r="110" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A110" s="53"/>
-      <c r="B110" s="52"/>
-      <c r="C110" s="61"/>
-      <c r="D110" s="49"/>
+      <c r="A110" s="61"/>
+      <c r="B110" s="72"/>
+      <c r="C110" s="55"/>
+      <c r="D110" s="70"/>
       <c r="E110" s="9" t="s">
         <v>43</v>
       </c>
@@ -4593,10 +4505,10 @@
       </c>
     </row>
     <row r="111" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A111" s="53"/>
-      <c r="B111" s="52"/>
-      <c r="C111" s="57"/>
-      <c r="D111" s="50"/>
+      <c r="A111" s="61"/>
+      <c r="B111" s="72"/>
+      <c r="C111" s="52"/>
+      <c r="D111" s="49"/>
       <c r="E111" s="9" t="s">
         <v>47</v>
       </c>
@@ -4616,9 +4528,9 @@
       </c>
     </row>
     <row r="112" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A112" s="53"/>
-      <c r="B112" s="52"/>
-      <c r="C112" s="62" t="s">
+      <c r="A112" s="61"/>
+      <c r="B112" s="72"/>
+      <c r="C112" s="53" t="s">
         <v>72</v>
       </c>
       <c r="D112" s="9" t="s">
@@ -4641,9 +4553,9 @@
       </c>
     </row>
     <row r="113" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A113" s="53"/>
-      <c r="B113" s="52"/>
-      <c r="C113" s="58"/>
+      <c r="A113" s="61"/>
+      <c r="B113" s="72"/>
+      <c r="C113" s="54"/>
       <c r="D113" s="9" t="s">
         <v>64</v>
       </c>
@@ -4664,8 +4576,8 @@
       </c>
     </row>
     <row r="114" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A114" s="53"/>
-      <c r="B114" s="52"/>
+      <c r="A114" s="61"/>
+      <c r="B114" s="72"/>
       <c r="C114" s="9" t="s">
         <v>93</v>
       </c>
@@ -4687,11 +4599,11 @@
       </c>
     </row>
     <row r="115" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A115" s="53"/>
-      <c r="B115" s="51" t="s">
+      <c r="A115" s="61"/>
+      <c r="B115" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="C115" s="56" t="s">
+      <c r="C115" s="51" t="s">
         <v>65</v>
       </c>
       <c r="D115" s="21" t="s">
@@ -4716,10 +4628,10 @@
       </c>
     </row>
     <row r="116" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A116" s="53"/>
-      <c r="B116" s="51"/>
-      <c r="C116" s="61"/>
-      <c r="D116" s="59" t="s">
+      <c r="A116" s="61"/>
+      <c r="B116" s="71"/>
+      <c r="C116" s="55"/>
+      <c r="D116" s="73" t="s">
         <v>29</v>
       </c>
       <c r="E116" s="9" t="s">
@@ -4743,10 +4655,10 @@
       </c>
     </row>
     <row r="117" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A117" s="53"/>
-      <c r="B117" s="51"/>
-      <c r="C117" s="61"/>
-      <c r="D117" s="60"/>
+      <c r="A117" s="61"/>
+      <c r="B117" s="71"/>
+      <c r="C117" s="55"/>
+      <c r="D117" s="74"/>
       <c r="E117" s="9" t="s">
         <v>12</v>
       </c>
@@ -4768,9 +4680,9 @@
       </c>
     </row>
     <row r="118" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A118" s="53"/>
-      <c r="B118" s="51"/>
-      <c r="C118" s="61"/>
+      <c r="A118" s="61"/>
+      <c r="B118" s="71"/>
+      <c r="C118" s="55"/>
       <c r="D118" s="21" t="s">
         <v>13</v>
       </c>
@@ -4793,9 +4705,9 @@
       </c>
     </row>
     <row r="119" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A119" s="53"/>
-      <c r="B119" s="51"/>
-      <c r="C119" s="61"/>
+      <c r="A119" s="61"/>
+      <c r="B119" s="71"/>
+      <c r="C119" s="55"/>
       <c r="D119" s="21" t="s">
         <v>25</v>
       </c>
@@ -4818,9 +4730,9 @@
       </c>
     </row>
     <row r="120" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A120" s="53"/>
-      <c r="B120" s="51"/>
-      <c r="C120" s="61"/>
+      <c r="A120" s="61"/>
+      <c r="B120" s="71"/>
+      <c r="C120" s="55"/>
       <c r="D120" s="21" t="s">
         <v>24</v>
       </c>
@@ -4841,9 +4753,9 @@
       </c>
     </row>
     <row r="121" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A121" s="53"/>
-      <c r="B121" s="51"/>
-      <c r="C121" s="57"/>
+      <c r="A121" s="61"/>
+      <c r="B121" s="71"/>
+      <c r="C121" s="52"/>
       <c r="D121" s="21" t="s">
         <v>26</v>
       </c>
@@ -4864,9 +4776,9 @@
       </c>
     </row>
     <row r="122" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A122" s="53"/>
-      <c r="B122" s="52"/>
-      <c r="C122" s="56" t="s">
+      <c r="A122" s="61"/>
+      <c r="B122" s="72"/>
+      <c r="C122" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D122" s="21" t="s">
@@ -4891,10 +4803,10 @@
       </c>
     </row>
     <row r="123" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A123" s="53"/>
-      <c r="B123" s="52"/>
-      <c r="C123" s="61"/>
-      <c r="D123" s="59" t="s">
+      <c r="A123" s="61"/>
+      <c r="B123" s="72"/>
+      <c r="C123" s="55"/>
+      <c r="D123" s="73" t="s">
         <v>29</v>
       </c>
       <c r="E123" s="9" t="s">
@@ -4918,10 +4830,10 @@
       </c>
     </row>
     <row r="124" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A124" s="53"/>
-      <c r="B124" s="52"/>
-      <c r="C124" s="61"/>
-      <c r="D124" s="60"/>
+      <c r="A124" s="61"/>
+      <c r="B124" s="72"/>
+      <c r="C124" s="55"/>
+      <c r="D124" s="74"/>
       <c r="E124" s="9" t="s">
         <v>12</v>
       </c>
@@ -4943,9 +4855,9 @@
       </c>
     </row>
     <row r="125" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A125" s="53"/>
-      <c r="B125" s="52"/>
-      <c r="C125" s="57"/>
+      <c r="A125" s="61"/>
+      <c r="B125" s="72"/>
+      <c r="C125" s="52"/>
       <c r="D125" s="21" t="s">
         <v>13</v>
       </c>
@@ -4968,8 +4880,8 @@
       </c>
     </row>
     <row r="126" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A126" s="53"/>
-      <c r="B126" s="52"/>
+      <c r="A126" s="61"/>
+      <c r="B126" s="72"/>
       <c r="C126" s="37" t="s">
         <v>66</v>
       </c>
@@ -4989,8 +4901,8 @@
       <c r="M126" s="9"/>
     </row>
     <row r="127" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A127" s="53"/>
-      <c r="B127" s="52"/>
+      <c r="A127" s="61"/>
+      <c r="B127" s="72"/>
       <c r="C127" s="37" t="s">
         <v>67</v>
       </c>
@@ -5010,8 +4922,8 @@
       <c r="M127" s="9"/>
     </row>
     <row r="128" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A128" s="53"/>
-      <c r="B128" s="52"/>
+      <c r="A128" s="61"/>
+      <c r="B128" s="72"/>
       <c r="C128" s="37" t="s">
         <v>68</v>
       </c>
@@ -5031,8 +4943,8 @@
       <c r="M128" s="9"/>
     </row>
     <row r="129" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A129" s="53"/>
-      <c r="B129" s="52"/>
+      <c r="A129" s="61"/>
+      <c r="B129" s="72"/>
       <c r="C129" s="37" t="s">
         <v>69</v>
       </c>
@@ -5075,17 +4987,29 @@
     <protectedRange sqref="L102:L129 L57:L100 L2:L55" name="区域3"/>
   </protectedRanges>
   <mergeCells count="50">
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="N60:N64"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="C85:C100"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="D97:D100"/>
-    <mergeCell ref="D85:D94"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="C76:C80"/>
-    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="D109:D111"/>
+    <mergeCell ref="B115:B129"/>
+    <mergeCell ref="A102:A129"/>
+    <mergeCell ref="B105:B114"/>
+    <mergeCell ref="B81:B100"/>
+    <mergeCell ref="A57:A100"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="C115:C121"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="C108:C111"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="C39:C40"/>
     <mergeCell ref="A8:A55"/>
     <mergeCell ref="C69:C71"/>
     <mergeCell ref="B60:B80"/>
@@ -5102,81 +5026,69 @@
     <mergeCell ref="B25:B33"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="B19:B24"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B47"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D109:D111"/>
-    <mergeCell ref="B115:B129"/>
-    <mergeCell ref="A102:A129"/>
-    <mergeCell ref="B105:B114"/>
-    <mergeCell ref="B81:B100"/>
-    <mergeCell ref="A57:A100"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="C115:C121"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="C108:C111"/>
-    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="N60:N64"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="C85:C100"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="D97:D100"/>
+    <mergeCell ref="D85:D94"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="C76:C80"/>
+    <mergeCell ref="C81:C84"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="L2:L14 L102:L129 L66:L100 L48:L51 L43:L44 L25:L37">
-    <cfRule type="cellIs" dxfId="48" priority="90" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="90" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="91" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="91" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="92" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="34" priority="92" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23:L24">
-    <cfRule type="cellIs" dxfId="45" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="60" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="61" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="62" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="31" priority="62" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="duplicateValues" dxfId="42" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L38:L41">
-    <cfRule type="cellIs" dxfId="41" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="56" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="57" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="58" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="27" priority="58" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="duplicateValues" dxfId="38" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L57:L65">
-    <cfRule type="cellIs" dxfId="37" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="46" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="47" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="48" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="23" priority="48" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
@@ -5224,90 +5136,90 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K129">
-    <cfRule type="cellIs" dxfId="34" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="30" stopIfTrue="1" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="31" stopIfTrue="1" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="32" stopIfTrue="1" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="33" stopIfTrue="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="34" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15:L19 L22">
-    <cfRule type="cellIs" dxfId="29" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="19" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="20" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="21" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="21" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20:L21">
-    <cfRule type="cellIs" dxfId="26" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="13" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="15" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="15" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L52:L55">
-    <cfRule type="cellIs" dxfId="23" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="10" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="12" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="12" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L42">
-    <cfRule type="cellIs" dxfId="20" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="9" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="9" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L45">
-    <cfRule type="cellIs" dxfId="17" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="6" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="6" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L46:L47">
-    <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>

--- a/doc/开发计划V0.1.xlsx
+++ b/doc/开发计划V0.1.xlsx
@@ -800,7 +800,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -941,30 +941,75 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -979,48 +1024,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1652,8 +1655,8 @@
   <dimension ref="A1:N132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P22" sqref="P22"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1723,7 +1726,7 @@
       <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="55" t="s">
         <v>78</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -1744,7 +1747,7 @@
       <c r="M3" s="9"/>
     </row>
     <row r="4" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="65"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="12" t="s">
         <v>81</v>
       </c>
@@ -1763,7 +1766,7 @@
       <c r="M4" s="9"/>
     </row>
     <row r="5" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="65"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="12" t="s">
         <v>79</v>
       </c>
@@ -1782,7 +1785,7 @@
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="65"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="12"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1795,11 +1798,11 @@
       <c r="K6" s="35">
         <v>1</v>
       </c>
-      <c r="L6" s="10"/>
+      <c r="L6" s="48"/>
       <c r="M6" s="9"/>
     </row>
     <row r="7" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="66"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="12"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1812,11 +1815,11 @@
       <c r="K7" s="35">
         <v>1</v>
       </c>
-      <c r="L7" s="10"/>
+      <c r="L7" s="48"/>
       <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="54" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="14" t="s">
@@ -1838,7 +1841,7 @@
       <c r="M8" s="9"/>
     </row>
     <row r="9" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="61"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="14" t="s">
         <v>17</v>
       </c>
@@ -1859,7 +1862,7 @@
       <c r="M9" s="9"/>
     </row>
     <row r="10" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="61"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="14" t="s">
         <v>18</v>
       </c>
@@ -1883,8 +1886,8 @@
       <c r="M10" s="9"/>
     </row>
     <row r="11" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="61"/>
-      <c r="B11" s="67" t="s">
+      <c r="A11" s="54"/>
+      <c r="B11" s="64" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -1918,8 +1921,8 @@
       </c>
     </row>
     <row r="12" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A12" s="61"/>
-      <c r="B12" s="68"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="65"/>
       <c r="C12" s="9" t="s">
         <v>10</v>
       </c>
@@ -1949,8 +1952,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="61"/>
-      <c r="B13" s="68"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="65"/>
       <c r="C13" s="9" t="s">
         <v>9</v>
       </c>
@@ -1966,14 +1969,16 @@
       <c r="K13" s="35">
         <v>1</v>
       </c>
-      <c r="L13" s="10"/>
+      <c r="L13" s="10">
+        <v>1</v>
+      </c>
       <c r="M13" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="61"/>
-      <c r="B14" s="69"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="66"/>
       <c r="C14" s="9" t="s">
         <v>27</v>
       </c>
@@ -1985,20 +1990,26 @@
       <c r="G14" s="18">
         <v>0.5</v>
       </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="H14" s="45">
+        <v>42954</v>
+      </c>
+      <c r="I14" s="45">
+        <v>42958</v>
+      </c>
       <c r="J14" s="33"/>
       <c r="K14" s="35">
         <v>1</v>
       </c>
-      <c r="L14" s="10"/>
+      <c r="L14" s="10">
+        <v>1</v>
+      </c>
       <c r="M14" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="61"/>
-      <c r="B15" s="67" t="s">
+      <c r="A15" s="54"/>
+      <c r="B15" s="64" t="s">
         <v>131</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -2030,9 +2041,9 @@
       </c>
     </row>
     <row r="16" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="61"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="51" t="s">
+      <c r="A16" s="54"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="57" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="9" t="s">
@@ -2061,9 +2072,9 @@
       </c>
     </row>
     <row r="17" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="61"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="52"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="58"/>
       <c r="D17" s="9" t="s">
         <v>12</v>
       </c>
@@ -2090,8 +2101,8 @@
       </c>
     </row>
     <row r="18" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="61"/>
-      <c r="B18" s="69"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="66"/>
       <c r="C18" s="9" t="s">
         <v>13</v>
       </c>
@@ -2119,8 +2130,8 @@
       </c>
     </row>
     <row r="19" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="61"/>
-      <c r="B19" s="67" t="s">
+      <c r="A19" s="54"/>
+      <c r="B19" s="64" t="s">
         <v>138</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -2152,9 +2163,9 @@
       </c>
     </row>
     <row r="20" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="61"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="51" t="s">
+      <c r="A20" s="54"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="57" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="9" t="s">
@@ -2183,9 +2194,9 @@
       </c>
     </row>
     <row r="21" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="61"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="52"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="9" t="s">
         <v>12</v>
       </c>
@@ -2212,8 +2223,8 @@
       </c>
     </row>
     <row r="22" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="61"/>
-      <c r="B22" s="68"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="65"/>
       <c r="C22" s="9" t="s">
         <v>13</v>
       </c>
@@ -2241,8 +2252,8 @@
       </c>
     </row>
     <row r="23" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="61"/>
-      <c r="B23" s="68"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="65"/>
       <c r="C23" s="9" t="s">
         <v>136</v>
       </c>
@@ -2270,8 +2281,8 @@
       </c>
     </row>
     <row r="24" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="61"/>
-      <c r="B24" s="69"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="66"/>
       <c r="C24" s="9" t="s">
         <v>135</v>
       </c>
@@ -2299,8 +2310,8 @@
       </c>
     </row>
     <row r="25" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="61"/>
-      <c r="B25" s="67" t="s">
+      <c r="A25" s="54"/>
+      <c r="B25" s="64" t="s">
         <v>139</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -2332,9 +2343,9 @@
       </c>
     </row>
     <row r="26" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="61"/>
-      <c r="B26" s="68"/>
-      <c r="C26" s="51" t="s">
+      <c r="A26" s="54"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="57" t="s">
         <v>29</v>
       </c>
       <c r="D26" s="9" t="s">
@@ -2348,22 +2359,24 @@
       <c r="H26" s="45">
         <v>42956</v>
       </c>
-      <c r="I26" s="45"/>
+      <c r="I26" s="45">
+        <v>42957</v>
+      </c>
       <c r="J26" s="33"/>
       <c r="K26" s="35">
         <v>1</v>
       </c>
       <c r="L26" s="10">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="M26" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="61"/>
-      <c r="B27" s="68"/>
-      <c r="C27" s="52"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="58"/>
       <c r="D27" s="9" t="s">
         <v>12</v>
       </c>
@@ -2375,21 +2388,23 @@
       <c r="H27" s="45">
         <v>42956</v>
       </c>
-      <c r="I27" s="45"/>
+      <c r="I27" s="45">
+        <v>42957</v>
+      </c>
       <c r="J27" s="33"/>
       <c r="K27" s="35">
         <v>1</v>
       </c>
       <c r="L27" s="10">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="M27" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="61"/>
-      <c r="B28" s="68"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="65"/>
       <c r="C28" s="9" t="s">
         <v>13</v>
       </c>
@@ -2417,8 +2432,8 @@
       </c>
     </row>
     <row r="29" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="61"/>
-      <c r="B29" s="68"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="65"/>
       <c r="C29" s="9" t="s">
         <v>25</v>
       </c>
@@ -2428,20 +2443,26 @@
       <c r="G29" s="18">
         <v>0.5</v>
       </c>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
+      <c r="H29" s="45">
+        <v>42964</v>
+      </c>
+      <c r="I29" s="45">
+        <v>42964</v>
+      </c>
       <c r="J29" s="33"/>
       <c r="K29" s="35">
         <v>1</v>
       </c>
-      <c r="L29" s="10"/>
+      <c r="L29" s="10">
+        <v>1</v>
+      </c>
       <c r="M29" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="61"/>
-      <c r="B30" s="68"/>
+      <c r="A30" s="54"/>
+      <c r="B30" s="65"/>
       <c r="C30" s="9" t="s">
         <v>24</v>
       </c>
@@ -2463,8 +2484,8 @@
       </c>
     </row>
     <row r="31" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="61"/>
-      <c r="B31" s="68"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="65"/>
       <c r="C31" s="9" t="s">
         <v>26</v>
       </c>
@@ -2474,20 +2495,26 @@
       <c r="G31" s="18">
         <v>0.5</v>
       </c>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
+      <c r="H31" s="45">
+        <v>42964</v>
+      </c>
+      <c r="I31" s="45">
+        <v>42964</v>
+      </c>
       <c r="J31" s="33"/>
       <c r="K31" s="35">
         <v>1</v>
       </c>
-      <c r="L31" s="10"/>
+      <c r="L31" s="10">
+        <v>1</v>
+      </c>
       <c r="M31" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="61"/>
-      <c r="B32" s="68"/>
+      <c r="A32" s="54"/>
+      <c r="B32" s="65"/>
       <c r="C32" s="9" t="s">
         <v>20</v>
       </c>
@@ -2509,8 +2536,8 @@
       </c>
     </row>
     <row r="33" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="61"/>
-      <c r="B33" s="69"/>
+      <c r="A33" s="54"/>
+      <c r="B33" s="66"/>
       <c r="C33" s="9" t="s">
         <v>21</v>
       </c>
@@ -2532,8 +2559,8 @@
       </c>
     </row>
     <row r="34" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="61"/>
-      <c r="B34" s="67" t="s">
+      <c r="A34" s="54"/>
+      <c r="B34" s="64" t="s">
         <v>132</v>
       </c>
       <c r="C34" s="9" t="s">
@@ -2565,9 +2592,9 @@
       </c>
     </row>
     <row r="35" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="61"/>
-      <c r="B35" s="68"/>
-      <c r="C35" s="51" t="s">
+      <c r="A35" s="54"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="57" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="9" t="s">
@@ -2596,9 +2623,9 @@
       </c>
     </row>
     <row r="36" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="61"/>
-      <c r="B36" s="68"/>
-      <c r="C36" s="52"/>
+      <c r="A36" s="54"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="58"/>
       <c r="D36" s="9" t="s">
         <v>12</v>
       </c>
@@ -2625,8 +2652,8 @@
       </c>
     </row>
     <row r="37" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="61"/>
-      <c r="B37" s="69"/>
+      <c r="A37" s="54"/>
+      <c r="B37" s="66"/>
       <c r="C37" s="9" t="s">
         <v>13</v>
       </c>
@@ -2654,8 +2681,8 @@
       </c>
     </row>
     <row r="38" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="61"/>
-      <c r="B38" s="67" t="s">
+      <c r="A38" s="54"/>
+      <c r="B38" s="64" t="s">
         <v>133</v>
       </c>
       <c r="C38" s="9" t="s">
@@ -2687,9 +2714,9 @@
       </c>
     </row>
     <row r="39" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="61"/>
-      <c r="B39" s="68"/>
-      <c r="C39" s="51" t="s">
+      <c r="A39" s="54"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="57" t="s">
         <v>29</v>
       </c>
       <c r="D39" s="9" t="s">
@@ -2718,9 +2745,9 @@
       </c>
     </row>
     <row r="40" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="61"/>
-      <c r="B40" s="68"/>
-      <c r="C40" s="52"/>
+      <c r="A40" s="54"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="58"/>
       <c r="D40" s="9" t="s">
         <v>12</v>
       </c>
@@ -2747,8 +2774,8 @@
       </c>
     </row>
     <row r="41" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="61"/>
-      <c r="B41" s="69"/>
+      <c r="A41" s="54"/>
+      <c r="B41" s="66"/>
       <c r="C41" s="9" t="s">
         <v>13</v>
       </c>
@@ -2776,8 +2803,8 @@
       </c>
     </row>
     <row r="42" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="61"/>
-      <c r="B42" s="67" t="s">
+      <c r="A42" s="54"/>
+      <c r="B42" s="64" t="s">
         <v>137</v>
       </c>
       <c r="C42" s="9" t="s">
@@ -2809,9 +2836,9 @@
       </c>
     </row>
     <row r="43" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="61"/>
-      <c r="B43" s="68"/>
-      <c r="C43" s="51" t="s">
+      <c r="A43" s="54"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="57" t="s">
         <v>29</v>
       </c>
       <c r="D43" s="9" t="s">
@@ -2840,9 +2867,9 @@
       </c>
     </row>
     <row r="44" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="61"/>
-      <c r="B44" s="68"/>
-      <c r="C44" s="52"/>
+      <c r="A44" s="54"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="58"/>
       <c r="D44" s="9" t="s">
         <v>12</v>
       </c>
@@ -2869,8 +2896,8 @@
       </c>
     </row>
     <row r="45" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="61"/>
-      <c r="B45" s="68"/>
+      <c r="A45" s="54"/>
+      <c r="B45" s="65"/>
       <c r="C45" s="9" t="s">
         <v>13</v>
       </c>
@@ -2898,8 +2925,8 @@
       </c>
     </row>
     <row r="46" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="61"/>
-      <c r="B46" s="68"/>
+      <c r="A46" s="54"/>
+      <c r="B46" s="65"/>
       <c r="C46" s="16" t="s">
         <v>22</v>
       </c>
@@ -2927,8 +2954,8 @@
       </c>
     </row>
     <row r="47" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="61"/>
-      <c r="B47" s="69"/>
+      <c r="A47" s="54"/>
+      <c r="B47" s="66"/>
       <c r="C47" s="16" t="s">
         <v>23</v>
       </c>
@@ -2956,8 +2983,8 @@
       </c>
     </row>
     <row r="48" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="61"/>
-      <c r="B48" s="67" t="s">
+      <c r="A48" s="54"/>
+      <c r="B48" s="64" t="s">
         <v>134</v>
       </c>
       <c r="C48" s="16" t="s">
@@ -2989,8 +3016,8 @@
       </c>
     </row>
     <row r="49" spans="1:14" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="61"/>
-      <c r="B49" s="68"/>
+      <c r="A49" s="54"/>
+      <c r="B49" s="65"/>
       <c r="C49" s="17"/>
       <c r="D49" s="9" t="s">
         <v>6</v>
@@ -3020,8 +3047,8 @@
       </c>
     </row>
     <row r="50" spans="1:14" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="61"/>
-      <c r="B50" s="68"/>
+      <c r="A50" s="54"/>
+      <c r="B50" s="65"/>
       <c r="C50" s="16" t="s">
         <v>16</v>
       </c>
@@ -3051,8 +3078,8 @@
       </c>
     </row>
     <row r="51" spans="1:14" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="61"/>
-      <c r="B51" s="69"/>
+      <c r="A51" s="54"/>
+      <c r="B51" s="66"/>
       <c r="C51" s="17"/>
       <c r="D51" s="9" t="s">
         <v>6</v>
@@ -3080,8 +3107,8 @@
       </c>
     </row>
     <row r="52" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A52" s="61"/>
-      <c r="B52" s="67" t="s">
+      <c r="A52" s="54"/>
+      <c r="B52" s="64" t="s">
         <v>140</v>
       </c>
       <c r="C52" s="9" t="s">
@@ -3113,9 +3140,9 @@
       </c>
     </row>
     <row r="53" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A53" s="61"/>
-      <c r="B53" s="68"/>
-      <c r="C53" s="51" t="s">
+      <c r="A53" s="54"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="57" t="s">
         <v>29</v>
       </c>
       <c r="D53" s="9" t="s">
@@ -3144,9 +3171,9 @@
       </c>
     </row>
     <row r="54" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A54" s="61"/>
-      <c r="B54" s="68"/>
-      <c r="C54" s="52"/>
+      <c r="A54" s="54"/>
+      <c r="B54" s="65"/>
+      <c r="C54" s="58"/>
       <c r="D54" s="9" t="s">
         <v>12</v>
       </c>
@@ -3173,8 +3200,8 @@
       </c>
     </row>
     <row r="55" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A55" s="61"/>
-      <c r="B55" s="69"/>
+      <c r="A55" s="54"/>
+      <c r="B55" s="66"/>
       <c r="C55" s="9" t="s">
         <v>13</v>
       </c>
@@ -3215,7 +3242,7 @@
       </c>
     </row>
     <row r="57" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="64" t="s">
+      <c r="A57" s="55" t="s">
         <v>77</v>
       </c>
       <c r="B57" s="18" t="s">
@@ -3240,7 +3267,7 @@
       <c r="M57" s="9"/>
     </row>
     <row r="58" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="65"/>
+      <c r="A58" s="56"/>
       <c r="B58" s="18" t="s">
         <v>17</v>
       </c>
@@ -3261,7 +3288,7 @@
       <c r="M58" s="9"/>
     </row>
     <row r="59" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="65"/>
+      <c r="A59" s="56"/>
       <c r="B59" s="18" t="s">
         <v>18</v>
       </c>
@@ -3282,11 +3309,11 @@
       <c r="M59" s="9"/>
     </row>
     <row r="60" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="65"/>
-      <c r="B60" s="62" t="s">
+      <c r="A60" s="56"/>
+      <c r="B60" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="C60" s="54" t="s">
+      <c r="C60" s="59" t="s">
         <v>40</v>
       </c>
       <c r="D60" s="9" t="s">
@@ -3309,15 +3336,15 @@
       <c r="M60" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="N60" s="50" t="s">
+      <c r="N60" s="70" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="65"/>
-      <c r="B61" s="63"/>
-      <c r="C61" s="54"/>
-      <c r="D61" s="51" t="s">
+      <c r="A61" s="56"/>
+      <c r="B61" s="68"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="57" t="s">
         <v>90</v>
       </c>
       <c r="E61" s="9" t="s">
@@ -3337,13 +3364,13 @@
       <c r="M61" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="N61" s="50"/>
+      <c r="N61" s="70"/>
     </row>
     <row r="62" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="65"/>
-      <c r="B62" s="63"/>
-      <c r="C62" s="54"/>
-      <c r="D62" s="52"/>
+      <c r="A62" s="56"/>
+      <c r="B62" s="68"/>
+      <c r="C62" s="59"/>
+      <c r="D62" s="58"/>
       <c r="E62" s="9" t="s">
         <v>88</v>
       </c>
@@ -3361,12 +3388,12 @@
       <c r="M62" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="N62" s="50"/>
+      <c r="N62" s="70"/>
     </row>
     <row r="63" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="65"/>
-      <c r="B63" s="63"/>
-      <c r="C63" s="51" t="s">
+      <c r="A63" s="56"/>
+      <c r="B63" s="68"/>
+      <c r="C63" s="57" t="s">
         <v>84</v>
       </c>
       <c r="D63" s="9" t="s">
@@ -3389,12 +3416,12 @@
       <c r="M63" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="N63" s="50"/>
+      <c r="N63" s="70"/>
     </row>
     <row r="64" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="65"/>
-      <c r="B64" s="63"/>
-      <c r="C64" s="52"/>
+      <c r="A64" s="56"/>
+      <c r="B64" s="68"/>
+      <c r="C64" s="58"/>
       <c r="D64" s="9" t="s">
         <v>82</v>
       </c>
@@ -3415,11 +3442,11 @@
       <c r="M64" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="N64" s="50"/>
+      <c r="N64" s="70"/>
     </row>
     <row r="65" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="65"/>
-      <c r="B65" s="63"/>
+      <c r="A65" s="56"/>
+      <c r="B65" s="68"/>
       <c r="C65" s="17" t="s">
         <v>83</v>
       </c>
@@ -3441,9 +3468,9 @@
       </c>
     </row>
     <row r="66" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A66" s="65"/>
-      <c r="B66" s="63"/>
-      <c r="C66" s="54" t="s">
+      <c r="A66" s="56"/>
+      <c r="B66" s="68"/>
+      <c r="C66" s="59" t="s">
         <v>45</v>
       </c>
       <c r="D66" s="9" t="s">
@@ -3466,10 +3493,10 @@
       </c>
     </row>
     <row r="67" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A67" s="65"/>
-      <c r="B67" s="63"/>
-      <c r="C67" s="54"/>
-      <c r="D67" s="54" t="s">
+      <c r="A67" s="56"/>
+      <c r="B67" s="68"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="59" t="s">
         <v>91</v>
       </c>
       <c r="E67" s="9" t="s">
@@ -3491,10 +3518,10 @@
       </c>
     </row>
     <row r="68" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A68" s="65"/>
-      <c r="B68" s="63"/>
-      <c r="C68" s="54"/>
-      <c r="D68" s="54"/>
+      <c r="A68" s="56"/>
+      <c r="B68" s="68"/>
+      <c r="C68" s="59"/>
+      <c r="D68" s="59"/>
       <c r="E68" s="9" t="s">
         <v>71</v>
       </c>
@@ -3514,9 +3541,9 @@
       </c>
     </row>
     <row r="69" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A69" s="65"/>
-      <c r="B69" s="63"/>
-      <c r="C69" s="51" t="s">
+      <c r="A69" s="56"/>
+      <c r="B69" s="68"/>
+      <c r="C69" s="57" t="s">
         <v>36</v>
       </c>
       <c r="D69" s="9" t="s">
@@ -3539,9 +3566,9 @@
       </c>
     </row>
     <row r="70" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A70" s="65"/>
-      <c r="B70" s="63"/>
-      <c r="C70" s="55"/>
+      <c r="A70" s="56"/>
+      <c r="B70" s="68"/>
+      <c r="C70" s="62"/>
       <c r="D70" s="9" t="s">
         <v>38</v>
       </c>
@@ -3562,9 +3589,9 @@
       </c>
     </row>
     <row r="71" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A71" s="65"/>
-      <c r="B71" s="63"/>
-      <c r="C71" s="52"/>
+      <c r="A71" s="56"/>
+      <c r="B71" s="68"/>
+      <c r="C71" s="58"/>
       <c r="D71" s="9" t="s">
         <v>39</v>
       </c>
@@ -3587,8 +3614,8 @@
       </c>
     </row>
     <row r="72" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A72" s="65"/>
-      <c r="B72" s="63"/>
+      <c r="A72" s="56"/>
+      <c r="B72" s="68"/>
       <c r="C72" s="9" t="s">
         <v>49</v>
       </c>
@@ -3610,8 +3637,8 @@
       </c>
     </row>
     <row r="73" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A73" s="65"/>
-      <c r="B73" s="63"/>
+      <c r="A73" s="56"/>
+      <c r="B73" s="68"/>
       <c r="C73" s="9" t="s">
         <v>50</v>
       </c>
@@ -3636,9 +3663,9 @@
       </c>
     </row>
     <row r="74" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A74" s="65"/>
-      <c r="B74" s="63"/>
-      <c r="C74" s="51" t="s">
+      <c r="A74" s="56"/>
+      <c r="B74" s="68"/>
+      <c r="C74" s="57" t="s">
         <v>57</v>
       </c>
       <c r="D74" s="30" t="s">
@@ -3661,9 +3688,9 @@
       </c>
     </row>
     <row r="75" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A75" s="65"/>
-      <c r="B75" s="63"/>
-      <c r="C75" s="52"/>
+      <c r="A75" s="56"/>
+      <c r="B75" s="68"/>
+      <c r="C75" s="58"/>
       <c r="D75" s="9" t="s">
         <v>97</v>
       </c>
@@ -3686,9 +3713,9 @@
       </c>
     </row>
     <row r="76" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A76" s="65"/>
-      <c r="B76" s="63"/>
-      <c r="C76" s="56" t="s">
+      <c r="A76" s="56"/>
+      <c r="B76" s="68"/>
+      <c r="C76" s="71" t="s">
         <v>51</v>
       </c>
       <c r="D76" s="19" t="s">
@@ -3709,9 +3736,9 @@
       <c r="M76" s="43"/>
     </row>
     <row r="77" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A77" s="65"/>
-      <c r="B77" s="63"/>
-      <c r="C77" s="57"/>
+      <c r="A77" s="56"/>
+      <c r="B77" s="68"/>
+      <c r="C77" s="72"/>
       <c r="D77" s="19" t="s">
         <v>53</v>
       </c>
@@ -3730,9 +3757,9 @@
       <c r="M77" s="43"/>
     </row>
     <row r="78" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A78" s="65"/>
-      <c r="B78" s="63"/>
-      <c r="C78" s="57"/>
+      <c r="A78" s="56"/>
+      <c r="B78" s="68"/>
+      <c r="C78" s="72"/>
       <c r="D78" s="19" t="s">
         <v>54</v>
       </c>
@@ -3751,9 +3778,9 @@
       <c r="M78" s="43"/>
     </row>
     <row r="79" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A79" s="65"/>
-      <c r="B79" s="63"/>
-      <c r="C79" s="57"/>
+      <c r="A79" s="56"/>
+      <c r="B79" s="68"/>
+      <c r="C79" s="72"/>
       <c r="D79" s="19" t="s">
         <v>55</v>
       </c>
@@ -3772,9 +3799,9 @@
       <c r="M79" s="43"/>
     </row>
     <row r="80" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A80" s="65"/>
-      <c r="B80" s="63"/>
-      <c r="C80" s="58"/>
+      <c r="A80" s="56"/>
+      <c r="B80" s="68"/>
+      <c r="C80" s="73"/>
       <c r="D80" s="19" t="s">
         <v>56</v>
       </c>
@@ -3793,11 +3820,11 @@
       <c r="M80" s="43"/>
     </row>
     <row r="81" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A81" s="65"/>
-      <c r="B81" s="71" t="s">
+      <c r="A81" s="56"/>
+      <c r="B81" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="C81" s="59" t="s">
+      <c r="C81" s="74" t="s">
         <v>75</v>
       </c>
       <c r="D81" s="15" t="s">
@@ -3818,9 +3845,9 @@
       <c r="M81" s="43"/>
     </row>
     <row r="82" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A82" s="65"/>
-      <c r="B82" s="72"/>
-      <c r="C82" s="60"/>
+      <c r="A82" s="56"/>
+      <c r="B82" s="53"/>
+      <c r="C82" s="75"/>
       <c r="D82" s="15" t="s">
         <v>59</v>
       </c>
@@ -3839,9 +3866,9 @@
       <c r="M82" s="43"/>
     </row>
     <row r="83" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A83" s="65"/>
-      <c r="B83" s="72"/>
-      <c r="C83" s="60"/>
+      <c r="A83" s="56"/>
+      <c r="B83" s="53"/>
+      <c r="C83" s="75"/>
       <c r="D83" s="15" t="s">
         <v>55</v>
       </c>
@@ -3858,9 +3885,9 @@
       <c r="M83" s="43"/>
     </row>
     <row r="84" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A84" s="65"/>
-      <c r="B84" s="72"/>
-      <c r="C84" s="60"/>
+      <c r="A84" s="56"/>
+      <c r="B84" s="53"/>
+      <c r="C84" s="75"/>
       <c r="D84" s="15" t="s">
         <v>60</v>
       </c>
@@ -3877,12 +3904,12 @@
       <c r="M84" s="43"/>
     </row>
     <row r="85" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A85" s="65"/>
-      <c r="B85" s="72"/>
-      <c r="C85" s="53" t="s">
+      <c r="A85" s="56"/>
+      <c r="B85" s="53"/>
+      <c r="C85" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="D85" s="51" t="s">
+      <c r="D85" s="57" t="s">
         <v>61</v>
       </c>
       <c r="E85" s="9" t="s">
@@ -3906,11 +3933,11 @@
       </c>
     </row>
     <row r="86" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A86" s="65"/>
-      <c r="B86" s="72"/>
-      <c r="C86" s="53"/>
-      <c r="D86" s="55"/>
-      <c r="E86" s="51" t="s">
+      <c r="A86" s="56"/>
+      <c r="B86" s="53"/>
+      <c r="C86" s="63"/>
+      <c r="D86" s="62"/>
+      <c r="E86" s="57" t="s">
         <v>29</v>
       </c>
       <c r="F86" s="9" t="s">
@@ -3931,11 +3958,11 @@
       </c>
     </row>
     <row r="87" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A87" s="65"/>
-      <c r="B87" s="72"/>
-      <c r="C87" s="53"/>
-      <c r="D87" s="55"/>
-      <c r="E87" s="52"/>
+      <c r="A87" s="56"/>
+      <c r="B87" s="53"/>
+      <c r="C87" s="63"/>
+      <c r="D87" s="62"/>
+      <c r="E87" s="58"/>
       <c r="F87" s="9" t="s">
         <v>12</v>
       </c>
@@ -3954,10 +3981,10 @@
       </c>
     </row>
     <row r="88" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A88" s="65"/>
-      <c r="B88" s="72"/>
-      <c r="C88" s="53"/>
-      <c r="D88" s="55"/>
+      <c r="A88" s="56"/>
+      <c r="B88" s="53"/>
+      <c r="C88" s="63"/>
+      <c r="D88" s="62"/>
       <c r="E88" s="9" t="s">
         <v>13</v>
       </c>
@@ -3977,10 +4004,10 @@
       </c>
     </row>
     <row r="89" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A89" s="65"/>
-      <c r="B89" s="72"/>
-      <c r="C89" s="53"/>
-      <c r="D89" s="55"/>
+      <c r="A89" s="56"/>
+      <c r="B89" s="53"/>
+      <c r="C89" s="63"/>
+      <c r="D89" s="62"/>
       <c r="E89" s="9" t="s">
         <v>110</v>
       </c>
@@ -4000,10 +4027,10 @@
       </c>
     </row>
     <row r="90" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A90" s="65"/>
-      <c r="B90" s="72"/>
-      <c r="C90" s="53"/>
-      <c r="D90" s="55"/>
+      <c r="A90" s="56"/>
+      <c r="B90" s="53"/>
+      <c r="C90" s="63"/>
+      <c r="D90" s="62"/>
       <c r="E90" s="9" t="s">
         <v>111</v>
       </c>
@@ -4023,10 +4050,10 @@
       </c>
     </row>
     <row r="91" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A91" s="65"/>
-      <c r="B91" s="72"/>
-      <c r="C91" s="53"/>
-      <c r="D91" s="55"/>
+      <c r="A91" s="56"/>
+      <c r="B91" s="53"/>
+      <c r="C91" s="63"/>
+      <c r="D91" s="62"/>
       <c r="E91" s="16" t="s">
         <v>124</v>
       </c>
@@ -4046,11 +4073,11 @@
       </c>
     </row>
     <row r="92" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A92" s="65"/>
-      <c r="B92" s="72"/>
-      <c r="C92" s="53"/>
-      <c r="D92" s="55"/>
-      <c r="E92" s="51" t="s">
+      <c r="A92" s="56"/>
+      <c r="B92" s="53"/>
+      <c r="C92" s="63"/>
+      <c r="D92" s="62"/>
+      <c r="E92" s="57" t="s">
         <v>63</v>
       </c>
       <c r="F92" s="9" t="s">
@@ -4071,11 +4098,11 @@
       </c>
     </row>
     <row r="93" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A93" s="65"/>
-      <c r="B93" s="72"/>
-      <c r="C93" s="53"/>
-      <c r="D93" s="55"/>
-      <c r="E93" s="55"/>
+      <c r="A93" s="56"/>
+      <c r="B93" s="53"/>
+      <c r="C93" s="63"/>
+      <c r="D93" s="62"/>
+      <c r="E93" s="62"/>
       <c r="F93" s="9" t="s">
         <v>105</v>
       </c>
@@ -4094,11 +4121,11 @@
       </c>
     </row>
     <row r="94" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A94" s="65"/>
-      <c r="B94" s="72"/>
-      <c r="C94" s="53"/>
-      <c r="D94" s="55"/>
-      <c r="E94" s="52"/>
+      <c r="A94" s="56"/>
+      <c r="B94" s="53"/>
+      <c r="C94" s="63"/>
+      <c r="D94" s="62"/>
+      <c r="E94" s="58"/>
       <c r="F94" s="9" t="s">
         <v>106</v>
       </c>
@@ -4117,10 +4144,10 @@
       </c>
     </row>
     <row r="95" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A95" s="65"/>
-      <c r="B95" s="72"/>
-      <c r="C95" s="53"/>
-      <c r="D95" s="54" t="s">
+      <c r="A95" s="56"/>
+      <c r="B95" s="53"/>
+      <c r="C95" s="63"/>
+      <c r="D95" s="59" t="s">
         <v>112</v>
       </c>
       <c r="E95" s="9" t="s">
@@ -4142,10 +4169,10 @@
       </c>
     </row>
     <row r="96" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A96" s="65"/>
-      <c r="B96" s="72"/>
-      <c r="C96" s="53"/>
-      <c r="D96" s="54"/>
+      <c r="A96" s="56"/>
+      <c r="B96" s="53"/>
+      <c r="C96" s="63"/>
+      <c r="D96" s="59"/>
       <c r="E96" s="9" t="s">
         <v>48</v>
       </c>
@@ -4170,10 +4197,10 @@
       </c>
     </row>
     <row r="97" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A97" s="65"/>
-      <c r="B97" s="72"/>
-      <c r="C97" s="53"/>
-      <c r="D97" s="51" t="s">
+      <c r="A97" s="56"/>
+      <c r="B97" s="53"/>
+      <c r="C97" s="63"/>
+      <c r="D97" s="57" t="s">
         <v>125</v>
       </c>
       <c r="E97" s="9" t="s">
@@ -4200,11 +4227,11 @@
       </c>
     </row>
     <row r="98" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A98" s="65"/>
-      <c r="B98" s="72"/>
-      <c r="C98" s="53"/>
-      <c r="D98" s="55"/>
-      <c r="E98" s="51" t="s">
+      <c r="A98" s="56"/>
+      <c r="B98" s="53"/>
+      <c r="C98" s="63"/>
+      <c r="D98" s="62"/>
+      <c r="E98" s="57" t="s">
         <v>29</v>
       </c>
       <c r="F98" s="9" t="s">
@@ -4225,11 +4252,11 @@
       </c>
     </row>
     <row r="99" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A99" s="65"/>
-      <c r="B99" s="72"/>
-      <c r="C99" s="53"/>
-      <c r="D99" s="55"/>
-      <c r="E99" s="52"/>
+      <c r="A99" s="56"/>
+      <c r="B99" s="53"/>
+      <c r="C99" s="63"/>
+      <c r="D99" s="62"/>
+      <c r="E99" s="58"/>
       <c r="F99" s="9" t="s">
         <v>12</v>
       </c>
@@ -4248,10 +4275,10 @@
       </c>
     </row>
     <row r="100" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A100" s="65"/>
-      <c r="B100" s="72"/>
-      <c r="C100" s="53"/>
-      <c r="D100" s="52"/>
+      <c r="A100" s="56"/>
+      <c r="B100" s="53"/>
+      <c r="C100" s="63"/>
+      <c r="D100" s="58"/>
       <c r="E100" s="9" t="s">
         <v>13</v>
       </c>
@@ -4282,7 +4309,7 @@
       <c r="K101" s="35"/>
     </row>
     <row r="102" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A102" s="61" t="s">
+      <c r="A102" s="54" t="s">
         <v>70</v>
       </c>
       <c r="B102" s="18" t="s">
@@ -4307,7 +4334,7 @@
       </c>
     </row>
     <row r="103" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A103" s="61"/>
+      <c r="A103" s="54"/>
       <c r="B103" s="18" t="s">
         <v>17</v>
       </c>
@@ -4330,7 +4357,7 @@
       </c>
     </row>
     <row r="104" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A104" s="61"/>
+      <c r="A104" s="54"/>
       <c r="B104" s="18" t="s">
         <v>18</v>
       </c>
@@ -4353,11 +4380,11 @@
       </c>
     </row>
     <row r="105" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="61"/>
-      <c r="B105" s="71" t="s">
+      <c r="A105" s="54"/>
+      <c r="B105" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="C105" s="51" t="s">
+      <c r="C105" s="57" t="s">
         <v>33</v>
       </c>
       <c r="D105" s="9" t="s">
@@ -4382,10 +4409,10 @@
       </c>
     </row>
     <row r="106" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A106" s="61"/>
-      <c r="B106" s="72"/>
-      <c r="C106" s="55"/>
-      <c r="D106" s="48" t="s">
+      <c r="A106" s="54"/>
+      <c r="B106" s="53"/>
+      <c r="C106" s="62"/>
+      <c r="D106" s="49" t="s">
         <v>41</v>
       </c>
       <c r="E106" s="9" t="s">
@@ -4407,10 +4434,10 @@
       </c>
     </row>
     <row r="107" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A107" s="61"/>
-      <c r="B107" s="72"/>
-      <c r="C107" s="52"/>
-      <c r="D107" s="49"/>
+      <c r="A107" s="54"/>
+      <c r="B107" s="53"/>
+      <c r="C107" s="58"/>
+      <c r="D107" s="51"/>
       <c r="E107" s="9" t="s">
         <v>43</v>
       </c>
@@ -4430,9 +4457,9 @@
       </c>
     </row>
     <row r="108" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A108" s="61"/>
-      <c r="B108" s="72"/>
-      <c r="C108" s="51" t="s">
+      <c r="A108" s="54"/>
+      <c r="B108" s="53"/>
+      <c r="C108" s="57" t="s">
         <v>45</v>
       </c>
       <c r="D108" s="9" t="s">
@@ -4457,10 +4484,10 @@
       </c>
     </row>
     <row r="109" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A109" s="61"/>
-      <c r="B109" s="72"/>
-      <c r="C109" s="55"/>
-      <c r="D109" s="48" t="s">
+      <c r="A109" s="54"/>
+      <c r="B109" s="53"/>
+      <c r="C109" s="62"/>
+      <c r="D109" s="49" t="s">
         <v>41</v>
       </c>
       <c r="E109" s="9" t="s">
@@ -4482,10 +4509,10 @@
       </c>
     </row>
     <row r="110" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A110" s="61"/>
-      <c r="B110" s="72"/>
-      <c r="C110" s="55"/>
-      <c r="D110" s="70"/>
+      <c r="A110" s="54"/>
+      <c r="B110" s="53"/>
+      <c r="C110" s="62"/>
+      <c r="D110" s="50"/>
       <c r="E110" s="9" t="s">
         <v>43</v>
       </c>
@@ -4505,10 +4532,10 @@
       </c>
     </row>
     <row r="111" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A111" s="61"/>
-      <c r="B111" s="72"/>
-      <c r="C111" s="52"/>
-      <c r="D111" s="49"/>
+      <c r="A111" s="54"/>
+      <c r="B111" s="53"/>
+      <c r="C111" s="58"/>
+      <c r="D111" s="51"/>
       <c r="E111" s="9" t="s">
         <v>47</v>
       </c>
@@ -4528,9 +4555,9 @@
       </c>
     </row>
     <row r="112" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A112" s="61"/>
-      <c r="B112" s="72"/>
-      <c r="C112" s="53" t="s">
+      <c r="A112" s="54"/>
+      <c r="B112" s="53"/>
+      <c r="C112" s="63" t="s">
         <v>72</v>
       </c>
       <c r="D112" s="9" t="s">
@@ -4553,9 +4580,9 @@
       </c>
     </row>
     <row r="113" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A113" s="61"/>
-      <c r="B113" s="72"/>
-      <c r="C113" s="54"/>
+      <c r="A113" s="54"/>
+      <c r="B113" s="53"/>
+      <c r="C113" s="59"/>
       <c r="D113" s="9" t="s">
         <v>64</v>
       </c>
@@ -4576,8 +4603,8 @@
       </c>
     </row>
     <row r="114" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A114" s="61"/>
-      <c r="B114" s="72"/>
+      <c r="A114" s="54"/>
+      <c r="B114" s="53"/>
       <c r="C114" s="9" t="s">
         <v>93</v>
       </c>
@@ -4599,11 +4626,11 @@
       </c>
     </row>
     <row r="115" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A115" s="61"/>
-      <c r="B115" s="71" t="s">
+      <c r="A115" s="54"/>
+      <c r="B115" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="C115" s="51" t="s">
+      <c r="C115" s="57" t="s">
         <v>65</v>
       </c>
       <c r="D115" s="21" t="s">
@@ -4628,10 +4655,10 @@
       </c>
     </row>
     <row r="116" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A116" s="61"/>
-      <c r="B116" s="71"/>
-      <c r="C116" s="55"/>
-      <c r="D116" s="73" t="s">
+      <c r="A116" s="54"/>
+      <c r="B116" s="52"/>
+      <c r="C116" s="62"/>
+      <c r="D116" s="60" t="s">
         <v>29</v>
       </c>
       <c r="E116" s="9" t="s">
@@ -4655,10 +4682,10 @@
       </c>
     </row>
     <row r="117" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A117" s="61"/>
-      <c r="B117" s="71"/>
-      <c r="C117" s="55"/>
-      <c r="D117" s="74"/>
+      <c r="A117" s="54"/>
+      <c r="B117" s="52"/>
+      <c r="C117" s="62"/>
+      <c r="D117" s="61"/>
       <c r="E117" s="9" t="s">
         <v>12</v>
       </c>
@@ -4680,9 +4707,9 @@
       </c>
     </row>
     <row r="118" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A118" s="61"/>
-      <c r="B118" s="71"/>
-      <c r="C118" s="55"/>
+      <c r="A118" s="54"/>
+      <c r="B118" s="52"/>
+      <c r="C118" s="62"/>
       <c r="D118" s="21" t="s">
         <v>13</v>
       </c>
@@ -4705,9 +4732,9 @@
       </c>
     </row>
     <row r="119" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A119" s="61"/>
-      <c r="B119" s="71"/>
-      <c r="C119" s="55"/>
+      <c r="A119" s="54"/>
+      <c r="B119" s="52"/>
+      <c r="C119" s="62"/>
       <c r="D119" s="21" t="s">
         <v>25</v>
       </c>
@@ -4730,9 +4757,9 @@
       </c>
     </row>
     <row r="120" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A120" s="61"/>
-      <c r="B120" s="71"/>
-      <c r="C120" s="55"/>
+      <c r="A120" s="54"/>
+      <c r="B120" s="52"/>
+      <c r="C120" s="62"/>
       <c r="D120" s="21" t="s">
         <v>24</v>
       </c>
@@ -4753,9 +4780,9 @@
       </c>
     </row>
     <row r="121" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A121" s="61"/>
-      <c r="B121" s="71"/>
-      <c r="C121" s="52"/>
+      <c r="A121" s="54"/>
+      <c r="B121" s="52"/>
+      <c r="C121" s="58"/>
       <c r="D121" s="21" t="s">
         <v>26</v>
       </c>
@@ -4776,9 +4803,9 @@
       </c>
     </row>
     <row r="122" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A122" s="61"/>
-      <c r="B122" s="72"/>
-      <c r="C122" s="51" t="s">
+      <c r="A122" s="54"/>
+      <c r="B122" s="53"/>
+      <c r="C122" s="57" t="s">
         <v>107</v>
       </c>
       <c r="D122" s="21" t="s">
@@ -4803,10 +4830,10 @@
       </c>
     </row>
     <row r="123" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A123" s="61"/>
-      <c r="B123" s="72"/>
-      <c r="C123" s="55"/>
-      <c r="D123" s="73" t="s">
+      <c r="A123" s="54"/>
+      <c r="B123" s="53"/>
+      <c r="C123" s="62"/>
+      <c r="D123" s="60" t="s">
         <v>29</v>
       </c>
       <c r="E123" s="9" t="s">
@@ -4830,10 +4857,10 @@
       </c>
     </row>
     <row r="124" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A124" s="61"/>
-      <c r="B124" s="72"/>
-      <c r="C124" s="55"/>
-      <c r="D124" s="74"/>
+      <c r="A124" s="54"/>
+      <c r="B124" s="53"/>
+      <c r="C124" s="62"/>
+      <c r="D124" s="61"/>
       <c r="E124" s="9" t="s">
         <v>12</v>
       </c>
@@ -4855,9 +4882,9 @@
       </c>
     </row>
     <row r="125" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A125" s="61"/>
-      <c r="B125" s="72"/>
-      <c r="C125" s="52"/>
+      <c r="A125" s="54"/>
+      <c r="B125" s="53"/>
+      <c r="C125" s="58"/>
       <c r="D125" s="21" t="s">
         <v>13</v>
       </c>
@@ -4880,8 +4907,8 @@
       </c>
     </row>
     <row r="126" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A126" s="61"/>
-      <c r="B126" s="72"/>
+      <c r="A126" s="54"/>
+      <c r="B126" s="53"/>
       <c r="C126" s="37" t="s">
         <v>66</v>
       </c>
@@ -4901,8 +4928,8 @@
       <c r="M126" s="9"/>
     </row>
     <row r="127" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A127" s="61"/>
-      <c r="B127" s="72"/>
+      <c r="A127" s="54"/>
+      <c r="B127" s="53"/>
       <c r="C127" s="37" t="s">
         <v>67</v>
       </c>
@@ -4922,8 +4949,8 @@
       <c r="M127" s="9"/>
     </row>
     <row r="128" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A128" s="61"/>
-      <c r="B128" s="72"/>
+      <c r="A128" s="54"/>
+      <c r="B128" s="53"/>
       <c r="C128" s="37" t="s">
         <v>68</v>
       </c>
@@ -4943,8 +4970,8 @@
       <c r="M128" s="9"/>
     </row>
     <row r="129" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A129" s="61"/>
-      <c r="B129" s="72"/>
+      <c r="A129" s="54"/>
+      <c r="B129" s="53"/>
       <c r="C129" s="37" t="s">
         <v>69</v>
       </c>
@@ -4984,9 +5011,43 @@
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="L102:L129 L57:L100 L2:L55" name="区域3"/>
+    <protectedRange sqref="L102:L129 L57:L100 L2:L5 L8:L55" name="区域3"/>
   </protectedRanges>
   <mergeCells count="50">
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="N60:N64"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="C85:C100"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="D97:D100"/>
+    <mergeCell ref="D85:D94"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="C76:C80"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="A8:A55"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="B60:B80"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B25:B33"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="C39:C40"/>
     <mergeCell ref="D109:D111"/>
     <mergeCell ref="B115:B129"/>
     <mergeCell ref="A102:A129"/>
@@ -5003,43 +5064,9 @@
     <mergeCell ref="C112:C113"/>
     <mergeCell ref="C108:C111"/>
     <mergeCell ref="C105:C107"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B47"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="A8:A55"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="B60:B80"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B25:B33"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="N60:N64"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="C85:C100"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="D97:D100"/>
-    <mergeCell ref="D85:D94"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="C76:C80"/>
-    <mergeCell ref="C81:C84"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="L2:L14 L102:L129 L66:L100 L48:L51 L43:L44 L25:L37">
+  <conditionalFormatting sqref="L2:L5 L102:L129 L66:L100 L48:L51 L43:L44 L25:L37 L8:L14">
     <cfRule type="cellIs" dxfId="36" priority="90" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5225,7 +5252,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="状态错误" error="请从选项中进行选择。" sqref="L57:L100 L102:L129 L2:L55">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="状态错误" error="请从选项中进行选择。" sqref="L57:L100 L102:L129 L2:L5 L8:L55">
       <formula1>"0%,100%,90%,80%,70%,60%,50%,40%,30%,20%,10%"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J129">

--- a/doc/开发计划V0.1.xlsx
+++ b/doc/开发计划V0.1.xlsx
@@ -1655,8 +1655,8 @@
   <dimension ref="A1:N132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O43" sqref="O43"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1963,8 +1963,12 @@
       <c r="G13" s="18">
         <v>0.5</v>
       </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
+      <c r="H13" s="45">
+        <v>42964</v>
+      </c>
+      <c r="I13" s="45">
+        <v>42964</v>
+      </c>
       <c r="J13" s="33"/>
       <c r="K13" s="35">
         <v>1</v>
@@ -2524,7 +2528,9 @@
       <c r="G32" s="18">
         <v>0.5</v>
       </c>
-      <c r="H32" s="45"/>
+      <c r="H32" s="45">
+        <v>42964</v>
+      </c>
       <c r="I32" s="9"/>
       <c r="J32" s="33"/>
       <c r="K32" s="35">
@@ -2547,13 +2553,19 @@
       <c r="G33" s="18">
         <v>0.5</v>
       </c>
-      <c r="H33" s="45"/>
-      <c r="I33" s="9"/>
+      <c r="H33" s="45">
+        <v>42964</v>
+      </c>
+      <c r="I33" s="45">
+        <v>42964</v>
+      </c>
       <c r="J33" s="33"/>
       <c r="K33" s="35">
         <v>1</v>
       </c>
-      <c r="L33" s="10"/>
+      <c r="L33" s="10">
+        <v>1</v>
+      </c>
       <c r="M33" s="9" t="s">
         <v>32</v>
       </c>

--- a/doc/开发计划V0.1.xlsx
+++ b/doc/开发计划V0.1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="142">
   <si>
     <t>开始时间</t>
   </si>
@@ -1655,8 +1655,8 @@
   <dimension ref="A1:N132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M55" sqref="M31:M55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1838,7 +1838,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="10"/>
-      <c r="M8" s="9"/>
+      <c r="M8" s="48"/>
     </row>
     <row r="9" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A9" s="54"/>
@@ -1859,7 +1859,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="10"/>
-      <c r="M9" s="9"/>
+      <c r="M9" s="48"/>
     </row>
     <row r="10" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="54"/>
@@ -1873,6 +1873,9 @@
       <c r="G10" s="18">
         <v>2</v>
       </c>
+      <c r="H10" s="48">
+        <v>2017.07</v>
+      </c>
       <c r="I10" s="9" t="s">
         <v>30</v>
       </c>
@@ -1883,7 +1886,9 @@
       <c r="L10" s="10">
         <v>1</v>
       </c>
-      <c r="M10" s="9"/>
+      <c r="M10" s="48" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="11" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="54"/>
@@ -2531,12 +2536,16 @@
       <c r="H32" s="45">
         <v>42964</v>
       </c>
-      <c r="I32" s="9"/>
+      <c r="I32" s="45">
+        <v>42964</v>
+      </c>
       <c r="J32" s="33"/>
       <c r="K32" s="35">
         <v>1</v>
       </c>
-      <c r="L32" s="10"/>
+      <c r="L32" s="10">
+        <v>1</v>
+      </c>
       <c r="M32" s="9" t="s">
         <v>32</v>
       </c>

--- a/doc/开发计划V0.1.xlsx
+++ b/doc/开发计划V0.1.xlsx
@@ -947,83 +947,83 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1655,8 +1655,8 @@
   <dimension ref="A1:N132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M55" sqref="M31:M55"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1726,7 +1726,7 @@
       <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="65" t="s">
         <v>78</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -1747,7 +1747,7 @@
       <c r="M3" s="9"/>
     </row>
     <row r="4" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="56"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="12" t="s">
         <v>81</v>
       </c>
@@ -1766,7 +1766,7 @@
       <c r="M4" s="9"/>
     </row>
     <row r="5" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="56"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="12" t="s">
         <v>79</v>
       </c>
@@ -1785,7 +1785,7 @@
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="56"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="12"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1802,7 +1802,7 @@
       <c r="M6" s="9"/>
     </row>
     <row r="7" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="69"/>
+      <c r="A7" s="67"/>
       <c r="B7" s="12"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1819,7 +1819,7 @@
       <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="62" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="14" t="s">
@@ -1841,7 +1841,7 @@
       <c r="M8" s="48"/>
     </row>
     <row r="9" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="54"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="14" t="s">
         <v>17</v>
       </c>
@@ -1862,7 +1862,7 @@
       <c r="M9" s="48"/>
     </row>
     <row r="10" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="54"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="14" t="s">
         <v>18</v>
       </c>
@@ -1891,8 +1891,8 @@
       </c>
     </row>
     <row r="11" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="54"/>
-      <c r="B11" s="64" t="s">
+      <c r="A11" s="62"/>
+      <c r="B11" s="68" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -1926,8 +1926,8 @@
       </c>
     </row>
     <row r="12" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A12" s="54"/>
-      <c r="B12" s="65"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="69"/>
       <c r="C12" s="9" t="s">
         <v>10</v>
       </c>
@@ -1957,8 +1957,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="54"/>
-      <c r="B13" s="65"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="69"/>
       <c r="C13" s="9" t="s">
         <v>9</v>
       </c>
@@ -1986,8 +1986,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="54"/>
-      <c r="B14" s="66"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="70"/>
       <c r="C14" s="9" t="s">
         <v>27</v>
       </c>
@@ -2017,8 +2017,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="54"/>
-      <c r="B15" s="64" t="s">
+      <c r="A15" s="62"/>
+      <c r="B15" s="68" t="s">
         <v>131</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -2050,9 +2050,9 @@
       </c>
     </row>
     <row r="16" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="54"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="57" t="s">
+      <c r="A16" s="62"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="52" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="9" t="s">
@@ -2081,9 +2081,9 @@
       </c>
     </row>
     <row r="17" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="54"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="58"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="53"/>
       <c r="D17" s="9" t="s">
         <v>12</v>
       </c>
@@ -2110,8 +2110,8 @@
       </c>
     </row>
     <row r="18" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="54"/>
-      <c r="B18" s="66"/>
+      <c r="A18" s="62"/>
+      <c r="B18" s="70"/>
       <c r="C18" s="9" t="s">
         <v>13</v>
       </c>
@@ -2139,8 +2139,8 @@
       </c>
     </row>
     <row r="19" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="54"/>
-      <c r="B19" s="64" t="s">
+      <c r="A19" s="62"/>
+      <c r="B19" s="68" t="s">
         <v>138</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -2172,9 +2172,9 @@
       </c>
     </row>
     <row r="20" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="54"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="57" t="s">
+      <c r="A20" s="62"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="52" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="9" t="s">
@@ -2203,9 +2203,9 @@
       </c>
     </row>
     <row r="21" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="54"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="58"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="53"/>
       <c r="D21" s="9" t="s">
         <v>12</v>
       </c>
@@ -2232,8 +2232,8 @@
       </c>
     </row>
     <row r="22" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="54"/>
-      <c r="B22" s="65"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="69"/>
       <c r="C22" s="9" t="s">
         <v>13</v>
       </c>
@@ -2261,8 +2261,8 @@
       </c>
     </row>
     <row r="23" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="54"/>
-      <c r="B23" s="65"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="69"/>
       <c r="C23" s="9" t="s">
         <v>136</v>
       </c>
@@ -2290,8 +2290,8 @@
       </c>
     </row>
     <row r="24" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="54"/>
-      <c r="B24" s="66"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="70"/>
       <c r="C24" s="9" t="s">
         <v>135</v>
       </c>
@@ -2319,8 +2319,8 @@
       </c>
     </row>
     <row r="25" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="54"/>
-      <c r="B25" s="64" t="s">
+      <c r="A25" s="62"/>
+      <c r="B25" s="68" t="s">
         <v>139</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -2352,9 +2352,9 @@
       </c>
     </row>
     <row r="26" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="54"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="57" t="s">
+      <c r="A26" s="62"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="52" t="s">
         <v>29</v>
       </c>
       <c r="D26" s="9" t="s">
@@ -2383,9 +2383,9 @@
       </c>
     </row>
     <row r="27" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="54"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="58"/>
+      <c r="A27" s="62"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="53"/>
       <c r="D27" s="9" t="s">
         <v>12</v>
       </c>
@@ -2412,8 +2412,8 @@
       </c>
     </row>
     <row r="28" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="54"/>
-      <c r="B28" s="65"/>
+      <c r="A28" s="62"/>
+      <c r="B28" s="69"/>
       <c r="C28" s="9" t="s">
         <v>13</v>
       </c>
@@ -2441,8 +2441,8 @@
       </c>
     </row>
     <row r="29" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="54"/>
-      <c r="B29" s="65"/>
+      <c r="A29" s="62"/>
+      <c r="B29" s="69"/>
       <c r="C29" s="9" t="s">
         <v>25</v>
       </c>
@@ -2470,8 +2470,8 @@
       </c>
     </row>
     <row r="30" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="54"/>
-      <c r="B30" s="65"/>
+      <c r="A30" s="62"/>
+      <c r="B30" s="69"/>
       <c r="C30" s="9" t="s">
         <v>24</v>
       </c>
@@ -2481,20 +2481,26 @@
       <c r="G30" s="18">
         <v>2</v>
       </c>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
+      <c r="H30" s="45">
+        <v>42965</v>
+      </c>
+      <c r="I30" s="45">
+        <v>42965</v>
+      </c>
       <c r="J30" s="33"/>
       <c r="K30" s="35">
         <v>1</v>
       </c>
-      <c r="L30" s="10"/>
+      <c r="L30" s="10">
+        <v>1</v>
+      </c>
       <c r="M30" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="54"/>
-      <c r="B31" s="65"/>
+      <c r="A31" s="62"/>
+      <c r="B31" s="69"/>
       <c r="C31" s="9" t="s">
         <v>26</v>
       </c>
@@ -2522,8 +2528,8 @@
       </c>
     </row>
     <row r="32" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="54"/>
-      <c r="B32" s="65"/>
+      <c r="A32" s="62"/>
+      <c r="B32" s="69"/>
       <c r="C32" s="9" t="s">
         <v>20</v>
       </c>
@@ -2551,8 +2557,8 @@
       </c>
     </row>
     <row r="33" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="54"/>
-      <c r="B33" s="66"/>
+      <c r="A33" s="62"/>
+      <c r="B33" s="70"/>
       <c r="C33" s="9" t="s">
         <v>21</v>
       </c>
@@ -2580,8 +2586,8 @@
       </c>
     </row>
     <row r="34" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="54"/>
-      <c r="B34" s="64" t="s">
+      <c r="A34" s="62"/>
+      <c r="B34" s="68" t="s">
         <v>132</v>
       </c>
       <c r="C34" s="9" t="s">
@@ -2613,9 +2619,9 @@
       </c>
     </row>
     <row r="35" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="54"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="57" t="s">
+      <c r="A35" s="62"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="52" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="9" t="s">
@@ -2644,9 +2650,9 @@
       </c>
     </row>
     <row r="36" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="54"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="58"/>
+      <c r="A36" s="62"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="53"/>
       <c r="D36" s="9" t="s">
         <v>12</v>
       </c>
@@ -2673,8 +2679,8 @@
       </c>
     </row>
     <row r="37" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="54"/>
-      <c r="B37" s="66"/>
+      <c r="A37" s="62"/>
+      <c r="B37" s="70"/>
       <c r="C37" s="9" t="s">
         <v>13</v>
       </c>
@@ -2702,8 +2708,8 @@
       </c>
     </row>
     <row r="38" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="54"/>
-      <c r="B38" s="64" t="s">
+      <c r="A38" s="62"/>
+      <c r="B38" s="68" t="s">
         <v>133</v>
       </c>
       <c r="C38" s="9" t="s">
@@ -2735,9 +2741,9 @@
       </c>
     </row>
     <row r="39" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="54"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="57" t="s">
+      <c r="A39" s="62"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="52" t="s">
         <v>29</v>
       </c>
       <c r="D39" s="9" t="s">
@@ -2766,9 +2772,9 @@
       </c>
     </row>
     <row r="40" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="54"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="58"/>
+      <c r="A40" s="62"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="53"/>
       <c r="D40" s="9" t="s">
         <v>12</v>
       </c>
@@ -2795,8 +2801,8 @@
       </c>
     </row>
     <row r="41" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="54"/>
-      <c r="B41" s="66"/>
+      <c r="A41" s="62"/>
+      <c r="B41" s="70"/>
       <c r="C41" s="9" t="s">
         <v>13</v>
       </c>
@@ -2824,8 +2830,8 @@
       </c>
     </row>
     <row r="42" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="54"/>
-      <c r="B42" s="64" t="s">
+      <c r="A42" s="62"/>
+      <c r="B42" s="68" t="s">
         <v>137</v>
       </c>
       <c r="C42" s="9" t="s">
@@ -2857,9 +2863,9 @@
       </c>
     </row>
     <row r="43" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="54"/>
-      <c r="B43" s="65"/>
-      <c r="C43" s="57" t="s">
+      <c r="A43" s="62"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="52" t="s">
         <v>29</v>
       </c>
       <c r="D43" s="9" t="s">
@@ -2888,9 +2894,9 @@
       </c>
     </row>
     <row r="44" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="54"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="58"/>
+      <c r="A44" s="62"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="53"/>
       <c r="D44" s="9" t="s">
         <v>12</v>
       </c>
@@ -2917,8 +2923,8 @@
       </c>
     </row>
     <row r="45" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="54"/>
-      <c r="B45" s="65"/>
+      <c r="A45" s="62"/>
+      <c r="B45" s="69"/>
       <c r="C45" s="9" t="s">
         <v>13</v>
       </c>
@@ -2946,8 +2952,8 @@
       </c>
     </row>
     <row r="46" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="54"/>
-      <c r="B46" s="65"/>
+      <c r="A46" s="62"/>
+      <c r="B46" s="69"/>
       <c r="C46" s="16" t="s">
         <v>22</v>
       </c>
@@ -2975,8 +2981,8 @@
       </c>
     </row>
     <row r="47" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="54"/>
-      <c r="B47" s="66"/>
+      <c r="A47" s="62"/>
+      <c r="B47" s="70"/>
       <c r="C47" s="16" t="s">
         <v>23</v>
       </c>
@@ -3004,8 +3010,8 @@
       </c>
     </row>
     <row r="48" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="54"/>
-      <c r="B48" s="64" t="s">
+      <c r="A48" s="62"/>
+      <c r="B48" s="68" t="s">
         <v>134</v>
       </c>
       <c r="C48" s="16" t="s">
@@ -3037,8 +3043,8 @@
       </c>
     </row>
     <row r="49" spans="1:14" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="54"/>
-      <c r="B49" s="65"/>
+      <c r="A49" s="62"/>
+      <c r="B49" s="69"/>
       <c r="C49" s="17"/>
       <c r="D49" s="9" t="s">
         <v>6</v>
@@ -3068,8 +3074,8 @@
       </c>
     </row>
     <row r="50" spans="1:14" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="54"/>
-      <c r="B50" s="65"/>
+      <c r="A50" s="62"/>
+      <c r="B50" s="69"/>
       <c r="C50" s="16" t="s">
         <v>16</v>
       </c>
@@ -3099,8 +3105,8 @@
       </c>
     </row>
     <row r="51" spans="1:14" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="54"/>
-      <c r="B51" s="66"/>
+      <c r="A51" s="62"/>
+      <c r="B51" s="70"/>
       <c r="C51" s="17"/>
       <c r="D51" s="9" t="s">
         <v>6</v>
@@ -3128,8 +3134,8 @@
       </c>
     </row>
     <row r="52" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A52" s="54"/>
-      <c r="B52" s="64" t="s">
+      <c r="A52" s="62"/>
+      <c r="B52" s="68" t="s">
         <v>140</v>
       </c>
       <c r="C52" s="9" t="s">
@@ -3161,9 +3167,9 @@
       </c>
     </row>
     <row r="53" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A53" s="54"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="57" t="s">
+      <c r="A53" s="62"/>
+      <c r="B53" s="69"/>
+      <c r="C53" s="52" t="s">
         <v>29</v>
       </c>
       <c r="D53" s="9" t="s">
@@ -3192,9 +3198,9 @@
       </c>
     </row>
     <row r="54" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A54" s="54"/>
-      <c r="B54" s="65"/>
-      <c r="C54" s="58"/>
+      <c r="A54" s="62"/>
+      <c r="B54" s="69"/>
+      <c r="C54" s="53"/>
       <c r="D54" s="9" t="s">
         <v>12</v>
       </c>
@@ -3221,8 +3227,8 @@
       </c>
     </row>
     <row r="55" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A55" s="54"/>
-      <c r="B55" s="66"/>
+      <c r="A55" s="62"/>
+      <c r="B55" s="70"/>
       <c r="C55" s="9" t="s">
         <v>13</v>
       </c>
@@ -3263,7 +3269,7 @@
       </c>
     </row>
     <row r="57" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="55" t="s">
+      <c r="A57" s="65" t="s">
         <v>77</v>
       </c>
       <c r="B57" s="18" t="s">
@@ -3288,7 +3294,7 @@
       <c r="M57" s="9"/>
     </row>
     <row r="58" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="56"/>
+      <c r="A58" s="66"/>
       <c r="B58" s="18" t="s">
         <v>17</v>
       </c>
@@ -3309,7 +3315,7 @@
       <c r="M58" s="9"/>
     </row>
     <row r="59" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="56"/>
+      <c r="A59" s="66"/>
       <c r="B59" s="18" t="s">
         <v>18</v>
       </c>
@@ -3330,11 +3336,11 @@
       <c r="M59" s="9"/>
     </row>
     <row r="60" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="56"/>
-      <c r="B60" s="67" t="s">
+      <c r="A60" s="66"/>
+      <c r="B60" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="C60" s="59" t="s">
+      <c r="C60" s="55" t="s">
         <v>40</v>
       </c>
       <c r="D60" s="9" t="s">
@@ -3357,15 +3363,15 @@
       <c r="M60" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="N60" s="70" t="s">
+      <c r="N60" s="51" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="56"/>
-      <c r="B61" s="68"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="57" t="s">
+      <c r="A61" s="66"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="55"/>
+      <c r="D61" s="52" t="s">
         <v>90</v>
       </c>
       <c r="E61" s="9" t="s">
@@ -3385,13 +3391,13 @@
       <c r="M61" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="N61" s="70"/>
+      <c r="N61" s="51"/>
     </row>
     <row r="62" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="56"/>
-      <c r="B62" s="68"/>
-      <c r="C62" s="59"/>
-      <c r="D62" s="58"/>
+      <c r="A62" s="66"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="55"/>
+      <c r="D62" s="53"/>
       <c r="E62" s="9" t="s">
         <v>88</v>
       </c>
@@ -3409,12 +3415,12 @@
       <c r="M62" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="N62" s="70"/>
+      <c r="N62" s="51"/>
     </row>
     <row r="63" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="56"/>
-      <c r="B63" s="68"/>
-      <c r="C63" s="57" t="s">
+      <c r="A63" s="66"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="52" t="s">
         <v>84</v>
       </c>
       <c r="D63" s="9" t="s">
@@ -3437,12 +3443,12 @@
       <c r="M63" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="N63" s="70"/>
+      <c r="N63" s="51"/>
     </row>
     <row r="64" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="56"/>
-      <c r="B64" s="68"/>
-      <c r="C64" s="58"/>
+      <c r="A64" s="66"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="53"/>
       <c r="D64" s="9" t="s">
         <v>82</v>
       </c>
@@ -3463,11 +3469,11 @@
       <c r="M64" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="N64" s="70"/>
+      <c r="N64" s="51"/>
     </row>
     <row r="65" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="56"/>
-      <c r="B65" s="68"/>
+      <c r="A65" s="66"/>
+      <c r="B65" s="64"/>
       <c r="C65" s="17" t="s">
         <v>83</v>
       </c>
@@ -3489,9 +3495,9 @@
       </c>
     </row>
     <row r="66" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A66" s="56"/>
-      <c r="B66" s="68"/>
-      <c r="C66" s="59" t="s">
+      <c r="A66" s="66"/>
+      <c r="B66" s="64"/>
+      <c r="C66" s="55" t="s">
         <v>45</v>
       </c>
       <c r="D66" s="9" t="s">
@@ -3514,10 +3520,10 @@
       </c>
     </row>
     <row r="67" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A67" s="56"/>
-      <c r="B67" s="68"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="59" t="s">
+      <c r="A67" s="66"/>
+      <c r="B67" s="64"/>
+      <c r="C67" s="55"/>
+      <c r="D67" s="55" t="s">
         <v>91</v>
       </c>
       <c r="E67" s="9" t="s">
@@ -3539,10 +3545,10 @@
       </c>
     </row>
     <row r="68" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A68" s="56"/>
-      <c r="B68" s="68"/>
-      <c r="C68" s="59"/>
-      <c r="D68" s="59"/>
+      <c r="A68" s="66"/>
+      <c r="B68" s="64"/>
+      <c r="C68" s="55"/>
+      <c r="D68" s="55"/>
       <c r="E68" s="9" t="s">
         <v>71</v>
       </c>
@@ -3562,9 +3568,9 @@
       </c>
     </row>
     <row r="69" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A69" s="56"/>
-      <c r="B69" s="68"/>
-      <c r="C69" s="57" t="s">
+      <c r="A69" s="66"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="52" t="s">
         <v>36</v>
       </c>
       <c r="D69" s="9" t="s">
@@ -3587,9 +3593,9 @@
       </c>
     </row>
     <row r="70" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A70" s="56"/>
-      <c r="B70" s="68"/>
-      <c r="C70" s="62"/>
+      <c r="A70" s="66"/>
+      <c r="B70" s="64"/>
+      <c r="C70" s="56"/>
       <c r="D70" s="9" t="s">
         <v>38</v>
       </c>
@@ -3610,9 +3616,9 @@
       </c>
     </row>
     <row r="71" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A71" s="56"/>
-      <c r="B71" s="68"/>
-      <c r="C71" s="58"/>
+      <c r="A71" s="66"/>
+      <c r="B71" s="64"/>
+      <c r="C71" s="53"/>
       <c r="D71" s="9" t="s">
         <v>39</v>
       </c>
@@ -3635,8 +3641,8 @@
       </c>
     </row>
     <row r="72" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A72" s="56"/>
-      <c r="B72" s="68"/>
+      <c r="A72" s="66"/>
+      <c r="B72" s="64"/>
       <c r="C72" s="9" t="s">
         <v>49</v>
       </c>
@@ -3658,8 +3664,8 @@
       </c>
     </row>
     <row r="73" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A73" s="56"/>
-      <c r="B73" s="68"/>
+      <c r="A73" s="66"/>
+      <c r="B73" s="64"/>
       <c r="C73" s="9" t="s">
         <v>50</v>
       </c>
@@ -3684,9 +3690,9 @@
       </c>
     </row>
     <row r="74" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A74" s="56"/>
-      <c r="B74" s="68"/>
-      <c r="C74" s="57" t="s">
+      <c r="A74" s="66"/>
+      <c r="B74" s="64"/>
+      <c r="C74" s="52" t="s">
         <v>57</v>
       </c>
       <c r="D74" s="30" t="s">
@@ -3709,9 +3715,9 @@
       </c>
     </row>
     <row r="75" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A75" s="56"/>
-      <c r="B75" s="68"/>
-      <c r="C75" s="58"/>
+      <c r="A75" s="66"/>
+      <c r="B75" s="64"/>
+      <c r="C75" s="53"/>
       <c r="D75" s="9" t="s">
         <v>97</v>
       </c>
@@ -3734,9 +3740,9 @@
       </c>
     </row>
     <row r="76" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A76" s="56"/>
-      <c r="B76" s="68"/>
-      <c r="C76" s="71" t="s">
+      <c r="A76" s="66"/>
+      <c r="B76" s="64"/>
+      <c r="C76" s="57" t="s">
         <v>51</v>
       </c>
       <c r="D76" s="19" t="s">
@@ -3757,9 +3763,9 @@
       <c r="M76" s="43"/>
     </row>
     <row r="77" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A77" s="56"/>
-      <c r="B77" s="68"/>
-      <c r="C77" s="72"/>
+      <c r="A77" s="66"/>
+      <c r="B77" s="64"/>
+      <c r="C77" s="58"/>
       <c r="D77" s="19" t="s">
         <v>53</v>
       </c>
@@ -3778,9 +3784,9 @@
       <c r="M77" s="43"/>
     </row>
     <row r="78" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A78" s="56"/>
-      <c r="B78" s="68"/>
-      <c r="C78" s="72"/>
+      <c r="A78" s="66"/>
+      <c r="B78" s="64"/>
+      <c r="C78" s="58"/>
       <c r="D78" s="19" t="s">
         <v>54</v>
       </c>
@@ -3799,9 +3805,9 @@
       <c r="M78" s="43"/>
     </row>
     <row r="79" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A79" s="56"/>
-      <c r="B79" s="68"/>
-      <c r="C79" s="72"/>
+      <c r="A79" s="66"/>
+      <c r="B79" s="64"/>
+      <c r="C79" s="58"/>
       <c r="D79" s="19" t="s">
         <v>55</v>
       </c>
@@ -3820,9 +3826,9 @@
       <c r="M79" s="43"/>
     </row>
     <row r="80" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A80" s="56"/>
-      <c r="B80" s="68"/>
-      <c r="C80" s="73"/>
+      <c r="A80" s="66"/>
+      <c r="B80" s="64"/>
+      <c r="C80" s="59"/>
       <c r="D80" s="19" t="s">
         <v>56</v>
       </c>
@@ -3841,11 +3847,11 @@
       <c r="M80" s="43"/>
     </row>
     <row r="81" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A81" s="56"/>
-      <c r="B81" s="52" t="s">
+      <c r="A81" s="66"/>
+      <c r="B81" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="C81" s="74" t="s">
+      <c r="C81" s="60" t="s">
         <v>75</v>
       </c>
       <c r="D81" s="15" t="s">
@@ -3866,9 +3872,9 @@
       <c r="M81" s="43"/>
     </row>
     <row r="82" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A82" s="56"/>
-      <c r="B82" s="53"/>
-      <c r="C82" s="75"/>
+      <c r="A82" s="66"/>
+      <c r="B82" s="73"/>
+      <c r="C82" s="61"/>
       <c r="D82" s="15" t="s">
         <v>59</v>
       </c>
@@ -3887,9 +3893,9 @@
       <c r="M82" s="43"/>
     </row>
     <row r="83" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A83" s="56"/>
-      <c r="B83" s="53"/>
-      <c r="C83" s="75"/>
+      <c r="A83" s="66"/>
+      <c r="B83" s="73"/>
+      <c r="C83" s="61"/>
       <c r="D83" s="15" t="s">
         <v>55</v>
       </c>
@@ -3906,9 +3912,9 @@
       <c r="M83" s="43"/>
     </row>
     <row r="84" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A84" s="56"/>
-      <c r="B84" s="53"/>
-      <c r="C84" s="75"/>
+      <c r="A84" s="66"/>
+      <c r="B84" s="73"/>
+      <c r="C84" s="61"/>
       <c r="D84" s="15" t="s">
         <v>60</v>
       </c>
@@ -3925,12 +3931,12 @@
       <c r="M84" s="43"/>
     </row>
     <row r="85" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A85" s="56"/>
-      <c r="B85" s="53"/>
-      <c r="C85" s="63" t="s">
+      <c r="A85" s="66"/>
+      <c r="B85" s="73"/>
+      <c r="C85" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="D85" s="57" t="s">
+      <c r="D85" s="52" t="s">
         <v>61</v>
       </c>
       <c r="E85" s="9" t="s">
@@ -3954,11 +3960,11 @@
       </c>
     </row>
     <row r="86" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A86" s="56"/>
-      <c r="B86" s="53"/>
-      <c r="C86" s="63"/>
-      <c r="D86" s="62"/>
-      <c r="E86" s="57" t="s">
+      <c r="A86" s="66"/>
+      <c r="B86" s="73"/>
+      <c r="C86" s="54"/>
+      <c r="D86" s="56"/>
+      <c r="E86" s="52" t="s">
         <v>29</v>
       </c>
       <c r="F86" s="9" t="s">
@@ -3979,11 +3985,11 @@
       </c>
     </row>
     <row r="87" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A87" s="56"/>
-      <c r="B87" s="53"/>
-      <c r="C87" s="63"/>
-      <c r="D87" s="62"/>
-      <c r="E87" s="58"/>
+      <c r="A87" s="66"/>
+      <c r="B87" s="73"/>
+      <c r="C87" s="54"/>
+      <c r="D87" s="56"/>
+      <c r="E87" s="53"/>
       <c r="F87" s="9" t="s">
         <v>12</v>
       </c>
@@ -4002,10 +4008,10 @@
       </c>
     </row>
     <row r="88" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A88" s="56"/>
-      <c r="B88" s="53"/>
-      <c r="C88" s="63"/>
-      <c r="D88" s="62"/>
+      <c r="A88" s="66"/>
+      <c r="B88" s="73"/>
+      <c r="C88" s="54"/>
+      <c r="D88" s="56"/>
       <c r="E88" s="9" t="s">
         <v>13</v>
       </c>
@@ -4025,10 +4031,10 @@
       </c>
     </row>
     <row r="89" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A89" s="56"/>
-      <c r="B89" s="53"/>
-      <c r="C89" s="63"/>
-      <c r="D89" s="62"/>
+      <c r="A89" s="66"/>
+      <c r="B89" s="73"/>
+      <c r="C89" s="54"/>
+      <c r="D89" s="56"/>
       <c r="E89" s="9" t="s">
         <v>110</v>
       </c>
@@ -4048,10 +4054,10 @@
       </c>
     </row>
     <row r="90" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A90" s="56"/>
-      <c r="B90" s="53"/>
-      <c r="C90" s="63"/>
-      <c r="D90" s="62"/>
+      <c r="A90" s="66"/>
+      <c r="B90" s="73"/>
+      <c r="C90" s="54"/>
+      <c r="D90" s="56"/>
       <c r="E90" s="9" t="s">
         <v>111</v>
       </c>
@@ -4071,10 +4077,10 @@
       </c>
     </row>
     <row r="91" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A91" s="56"/>
-      <c r="B91" s="53"/>
-      <c r="C91" s="63"/>
-      <c r="D91" s="62"/>
+      <c r="A91" s="66"/>
+      <c r="B91" s="73"/>
+      <c r="C91" s="54"/>
+      <c r="D91" s="56"/>
       <c r="E91" s="16" t="s">
         <v>124</v>
       </c>
@@ -4094,11 +4100,11 @@
       </c>
     </row>
     <row r="92" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A92" s="56"/>
-      <c r="B92" s="53"/>
-      <c r="C92" s="63"/>
-      <c r="D92" s="62"/>
-      <c r="E92" s="57" t="s">
+      <c r="A92" s="66"/>
+      <c r="B92" s="73"/>
+      <c r="C92" s="54"/>
+      <c r="D92" s="56"/>
+      <c r="E92" s="52" t="s">
         <v>63</v>
       </c>
       <c r="F92" s="9" t="s">
@@ -4119,11 +4125,11 @@
       </c>
     </row>
     <row r="93" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A93" s="56"/>
-      <c r="B93" s="53"/>
-      <c r="C93" s="63"/>
-      <c r="D93" s="62"/>
-      <c r="E93" s="62"/>
+      <c r="A93" s="66"/>
+      <c r="B93" s="73"/>
+      <c r="C93" s="54"/>
+      <c r="D93" s="56"/>
+      <c r="E93" s="56"/>
       <c r="F93" s="9" t="s">
         <v>105</v>
       </c>
@@ -4142,11 +4148,11 @@
       </c>
     </row>
     <row r="94" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A94" s="56"/>
-      <c r="B94" s="53"/>
-      <c r="C94" s="63"/>
-      <c r="D94" s="62"/>
-      <c r="E94" s="58"/>
+      <c r="A94" s="66"/>
+      <c r="B94" s="73"/>
+      <c r="C94" s="54"/>
+      <c r="D94" s="56"/>
+      <c r="E94" s="53"/>
       <c r="F94" s="9" t="s">
         <v>106</v>
       </c>
@@ -4165,10 +4171,10 @@
       </c>
     </row>
     <row r="95" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A95" s="56"/>
-      <c r="B95" s="53"/>
-      <c r="C95" s="63"/>
-      <c r="D95" s="59" t="s">
+      <c r="A95" s="66"/>
+      <c r="B95" s="73"/>
+      <c r="C95" s="54"/>
+      <c r="D95" s="55" t="s">
         <v>112</v>
       </c>
       <c r="E95" s="9" t="s">
@@ -4190,10 +4196,10 @@
       </c>
     </row>
     <row r="96" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A96" s="56"/>
-      <c r="B96" s="53"/>
-      <c r="C96" s="63"/>
-      <c r="D96" s="59"/>
+      <c r="A96" s="66"/>
+      <c r="B96" s="73"/>
+      <c r="C96" s="54"/>
+      <c r="D96" s="55"/>
       <c r="E96" s="9" t="s">
         <v>48</v>
       </c>
@@ -4218,10 +4224,10 @@
       </c>
     </row>
     <row r="97" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A97" s="56"/>
-      <c r="B97" s="53"/>
-      <c r="C97" s="63"/>
-      <c r="D97" s="57" t="s">
+      <c r="A97" s="66"/>
+      <c r="B97" s="73"/>
+      <c r="C97" s="54"/>
+      <c r="D97" s="52" t="s">
         <v>125</v>
       </c>
       <c r="E97" s="9" t="s">
@@ -4248,11 +4254,11 @@
       </c>
     </row>
     <row r="98" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A98" s="56"/>
-      <c r="B98" s="53"/>
-      <c r="C98" s="63"/>
-      <c r="D98" s="62"/>
-      <c r="E98" s="57" t="s">
+      <c r="A98" s="66"/>
+      <c r="B98" s="73"/>
+      <c r="C98" s="54"/>
+      <c r="D98" s="56"/>
+      <c r="E98" s="52" t="s">
         <v>29</v>
       </c>
       <c r="F98" s="9" t="s">
@@ -4273,11 +4279,11 @@
       </c>
     </row>
     <row r="99" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A99" s="56"/>
-      <c r="B99" s="53"/>
-      <c r="C99" s="63"/>
-      <c r="D99" s="62"/>
-      <c r="E99" s="58"/>
+      <c r="A99" s="66"/>
+      <c r="B99" s="73"/>
+      <c r="C99" s="54"/>
+      <c r="D99" s="56"/>
+      <c r="E99" s="53"/>
       <c r="F99" s="9" t="s">
         <v>12</v>
       </c>
@@ -4296,10 +4302,10 @@
       </c>
     </row>
     <row r="100" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A100" s="56"/>
-      <c r="B100" s="53"/>
-      <c r="C100" s="63"/>
-      <c r="D100" s="58"/>
+      <c r="A100" s="66"/>
+      <c r="B100" s="73"/>
+      <c r="C100" s="54"/>
+      <c r="D100" s="53"/>
       <c r="E100" s="9" t="s">
         <v>13</v>
       </c>
@@ -4330,7 +4336,7 @@
       <c r="K101" s="35"/>
     </row>
     <row r="102" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A102" s="54" t="s">
+      <c r="A102" s="62" t="s">
         <v>70</v>
       </c>
       <c r="B102" s="18" t="s">
@@ -4355,7 +4361,7 @@
       </c>
     </row>
     <row r="103" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A103" s="54"/>
+      <c r="A103" s="62"/>
       <c r="B103" s="18" t="s">
         <v>17</v>
       </c>
@@ -4378,7 +4384,7 @@
       </c>
     </row>
     <row r="104" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A104" s="54"/>
+      <c r="A104" s="62"/>
       <c r="B104" s="18" t="s">
         <v>18</v>
       </c>
@@ -4401,11 +4407,11 @@
       </c>
     </row>
     <row r="105" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="54"/>
-      <c r="B105" s="52" t="s">
+      <c r="A105" s="62"/>
+      <c r="B105" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="C105" s="57" t="s">
+      <c r="C105" s="52" t="s">
         <v>33</v>
       </c>
       <c r="D105" s="9" t="s">
@@ -4430,9 +4436,9 @@
       </c>
     </row>
     <row r="106" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A106" s="54"/>
-      <c r="B106" s="53"/>
-      <c r="C106" s="62"/>
+      <c r="A106" s="62"/>
+      <c r="B106" s="73"/>
+      <c r="C106" s="56"/>
       <c r="D106" s="49" t="s">
         <v>41</v>
       </c>
@@ -4455,10 +4461,10 @@
       </c>
     </row>
     <row r="107" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A107" s="54"/>
-      <c r="B107" s="53"/>
-      <c r="C107" s="58"/>
-      <c r="D107" s="51"/>
+      <c r="A107" s="62"/>
+      <c r="B107" s="73"/>
+      <c r="C107" s="53"/>
+      <c r="D107" s="50"/>
       <c r="E107" s="9" t="s">
         <v>43</v>
       </c>
@@ -4478,9 +4484,9 @@
       </c>
     </row>
     <row r="108" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A108" s="54"/>
-      <c r="B108" s="53"/>
-      <c r="C108" s="57" t="s">
+      <c r="A108" s="62"/>
+      <c r="B108" s="73"/>
+      <c r="C108" s="52" t="s">
         <v>45</v>
       </c>
       <c r="D108" s="9" t="s">
@@ -4505,9 +4511,9 @@
       </c>
     </row>
     <row r="109" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A109" s="54"/>
-      <c r="B109" s="53"/>
-      <c r="C109" s="62"/>
+      <c r="A109" s="62"/>
+      <c r="B109" s="73"/>
+      <c r="C109" s="56"/>
       <c r="D109" s="49" t="s">
         <v>41</v>
       </c>
@@ -4530,10 +4536,10 @@
       </c>
     </row>
     <row r="110" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A110" s="54"/>
-      <c r="B110" s="53"/>
-      <c r="C110" s="62"/>
-      <c r="D110" s="50"/>
+      <c r="A110" s="62"/>
+      <c r="B110" s="73"/>
+      <c r="C110" s="56"/>
+      <c r="D110" s="71"/>
       <c r="E110" s="9" t="s">
         <v>43</v>
       </c>
@@ -4553,10 +4559,10 @@
       </c>
     </row>
     <row r="111" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A111" s="54"/>
-      <c r="B111" s="53"/>
-      <c r="C111" s="58"/>
-      <c r="D111" s="51"/>
+      <c r="A111" s="62"/>
+      <c r="B111" s="73"/>
+      <c r="C111" s="53"/>
+      <c r="D111" s="50"/>
       <c r="E111" s="9" t="s">
         <v>47</v>
       </c>
@@ -4576,9 +4582,9 @@
       </c>
     </row>
     <row r="112" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A112" s="54"/>
-      <c r="B112" s="53"/>
-      <c r="C112" s="63" t="s">
+      <c r="A112" s="62"/>
+      <c r="B112" s="73"/>
+      <c r="C112" s="54" t="s">
         <v>72</v>
       </c>
       <c r="D112" s="9" t="s">
@@ -4601,9 +4607,9 @@
       </c>
     </row>
     <row r="113" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A113" s="54"/>
-      <c r="B113" s="53"/>
-      <c r="C113" s="59"/>
+      <c r="A113" s="62"/>
+      <c r="B113" s="73"/>
+      <c r="C113" s="55"/>
       <c r="D113" s="9" t="s">
         <v>64</v>
       </c>
@@ -4624,8 +4630,8 @@
       </c>
     </row>
     <row r="114" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A114" s="54"/>
-      <c r="B114" s="53"/>
+      <c r="A114" s="62"/>
+      <c r="B114" s="73"/>
       <c r="C114" s="9" t="s">
         <v>93</v>
       </c>
@@ -4647,11 +4653,11 @@
       </c>
     </row>
     <row r="115" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A115" s="54"/>
-      <c r="B115" s="52" t="s">
+      <c r="A115" s="62"/>
+      <c r="B115" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="C115" s="57" t="s">
+      <c r="C115" s="52" t="s">
         <v>65</v>
       </c>
       <c r="D115" s="21" t="s">
@@ -4676,10 +4682,10 @@
       </c>
     </row>
     <row r="116" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A116" s="54"/>
-      <c r="B116" s="52"/>
-      <c r="C116" s="62"/>
-      <c r="D116" s="60" t="s">
+      <c r="A116" s="62"/>
+      <c r="B116" s="72"/>
+      <c r="C116" s="56"/>
+      <c r="D116" s="74" t="s">
         <v>29</v>
       </c>
       <c r="E116" s="9" t="s">
@@ -4703,10 +4709,10 @@
       </c>
     </row>
     <row r="117" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A117" s="54"/>
-      <c r="B117" s="52"/>
-      <c r="C117" s="62"/>
-      <c r="D117" s="61"/>
+      <c r="A117" s="62"/>
+      <c r="B117" s="72"/>
+      <c r="C117" s="56"/>
+      <c r="D117" s="75"/>
       <c r="E117" s="9" t="s">
         <v>12</v>
       </c>
@@ -4728,9 +4734,9 @@
       </c>
     </row>
     <row r="118" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A118" s="54"/>
-      <c r="B118" s="52"/>
-      <c r="C118" s="62"/>
+      <c r="A118" s="62"/>
+      <c r="B118" s="72"/>
+      <c r="C118" s="56"/>
       <c r="D118" s="21" t="s">
         <v>13</v>
       </c>
@@ -4753,9 +4759,9 @@
       </c>
     </row>
     <row r="119" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A119" s="54"/>
-      <c r="B119" s="52"/>
-      <c r="C119" s="62"/>
+      <c r="A119" s="62"/>
+      <c r="B119" s="72"/>
+      <c r="C119" s="56"/>
       <c r="D119" s="21" t="s">
         <v>25</v>
       </c>
@@ -4778,9 +4784,9 @@
       </c>
     </row>
     <row r="120" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A120" s="54"/>
-      <c r="B120" s="52"/>
-      <c r="C120" s="62"/>
+      <c r="A120" s="62"/>
+      <c r="B120" s="72"/>
+      <c r="C120" s="56"/>
       <c r="D120" s="21" t="s">
         <v>24</v>
       </c>
@@ -4801,9 +4807,9 @@
       </c>
     </row>
     <row r="121" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A121" s="54"/>
-      <c r="B121" s="52"/>
-      <c r="C121" s="58"/>
+      <c r="A121" s="62"/>
+      <c r="B121" s="72"/>
+      <c r="C121" s="53"/>
       <c r="D121" s="21" t="s">
         <v>26</v>
       </c>
@@ -4824,9 +4830,9 @@
       </c>
     </row>
     <row r="122" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A122" s="54"/>
-      <c r="B122" s="53"/>
-      <c r="C122" s="57" t="s">
+      <c r="A122" s="62"/>
+      <c r="B122" s="73"/>
+      <c r="C122" s="52" t="s">
         <v>107</v>
       </c>
       <c r="D122" s="21" t="s">
@@ -4851,10 +4857,10 @@
       </c>
     </row>
     <row r="123" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A123" s="54"/>
-      <c r="B123" s="53"/>
-      <c r="C123" s="62"/>
-      <c r="D123" s="60" t="s">
+      <c r="A123" s="62"/>
+      <c r="B123" s="73"/>
+      <c r="C123" s="56"/>
+      <c r="D123" s="74" t="s">
         <v>29</v>
       </c>
       <c r="E123" s="9" t="s">
@@ -4878,10 +4884,10 @@
       </c>
     </row>
     <row r="124" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A124" s="54"/>
-      <c r="B124" s="53"/>
-      <c r="C124" s="62"/>
-      <c r="D124" s="61"/>
+      <c r="A124" s="62"/>
+      <c r="B124" s="73"/>
+      <c r="C124" s="56"/>
+      <c r="D124" s="75"/>
       <c r="E124" s="9" t="s">
         <v>12</v>
       </c>
@@ -4903,9 +4909,9 @@
       </c>
     </row>
     <row r="125" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A125" s="54"/>
-      <c r="B125" s="53"/>
-      <c r="C125" s="58"/>
+      <c r="A125" s="62"/>
+      <c r="B125" s="73"/>
+      <c r="C125" s="53"/>
       <c r="D125" s="21" t="s">
         <v>13</v>
       </c>
@@ -4928,8 +4934,8 @@
       </c>
     </row>
     <row r="126" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A126" s="54"/>
-      <c r="B126" s="53"/>
+      <c r="A126" s="62"/>
+      <c r="B126" s="73"/>
       <c r="C126" s="37" t="s">
         <v>66</v>
       </c>
@@ -4949,8 +4955,8 @@
       <c r="M126" s="9"/>
     </row>
     <row r="127" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A127" s="54"/>
-      <c r="B127" s="53"/>
+      <c r="A127" s="62"/>
+      <c r="B127" s="73"/>
       <c r="C127" s="37" t="s">
         <v>67</v>
       </c>
@@ -4970,8 +4976,8 @@
       <c r="M127" s="9"/>
     </row>
     <row r="128" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A128" s="54"/>
-      <c r="B128" s="53"/>
+      <c r="A128" s="62"/>
+      <c r="B128" s="73"/>
       <c r="C128" s="37" t="s">
         <v>68</v>
       </c>
@@ -4991,8 +4997,8 @@
       <c r="M128" s="9"/>
     </row>
     <row r="129" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A129" s="54"/>
-      <c r="B129" s="53"/>
+      <c r="A129" s="62"/>
+      <c r="B129" s="73"/>
       <c r="C129" s="37" t="s">
         <v>69</v>
       </c>
@@ -5035,17 +5041,29 @@
     <protectedRange sqref="L102:L129 L57:L100 L2:L5 L8:L55" name="区域3"/>
   </protectedRanges>
   <mergeCells count="50">
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="N60:N64"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="C85:C100"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="D97:D100"/>
-    <mergeCell ref="D85:D94"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="C76:C80"/>
-    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="D109:D111"/>
+    <mergeCell ref="B115:B129"/>
+    <mergeCell ref="A102:A129"/>
+    <mergeCell ref="B105:B114"/>
+    <mergeCell ref="B81:B100"/>
+    <mergeCell ref="A57:A100"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="C115:C121"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="C108:C111"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="C39:C40"/>
     <mergeCell ref="A8:A55"/>
     <mergeCell ref="C69:C71"/>
     <mergeCell ref="B60:B80"/>
@@ -5062,29 +5080,17 @@
     <mergeCell ref="B25:B33"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="B19:B24"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B47"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D109:D111"/>
-    <mergeCell ref="B115:B129"/>
-    <mergeCell ref="A102:A129"/>
-    <mergeCell ref="B105:B114"/>
-    <mergeCell ref="B81:B100"/>
-    <mergeCell ref="A57:A100"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="C115:C121"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="C108:C111"/>
-    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="N60:N64"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="C85:C100"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="D97:D100"/>
+    <mergeCell ref="D85:D94"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="C76:C80"/>
+    <mergeCell ref="C81:C84"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="L2:L5 L102:L129 L66:L100 L48:L51 L43:L44 L25:L37 L8:L14">

--- a/doc/开发计划V0.1.xlsx
+++ b/doc/开发计划V0.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDE\IdeaProjects\hsd-servers\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\hsd-servers\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="138">
   <si>
     <t>开始时间</t>
   </si>
@@ -400,19 +400,6 @@
   <si>
     <t>+登录日志</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑名单?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流程由流程引擎设定</t>
-  </si>
-  <si>
-    <t>二期</t>
-  </si>
-  <si>
-    <t>一期仅限手动加黑？</t>
   </si>
   <si>
     <t>三方认证?</t>
@@ -947,27 +934,69 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -982,48 +1011,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1655,8 +1642,8 @@
   <dimension ref="A1:N132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I30" sqref="I30"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N60" sqref="N60:N64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1694,10 +1681,10 @@
         <v>1</v>
       </c>
       <c r="J1" s="28" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K1" s="29" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -1726,7 +1713,7 @@
       <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="55" t="s">
         <v>78</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -1747,7 +1734,7 @@
       <c r="M3" s="9"/>
     </row>
     <row r="4" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="66"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="12" t="s">
         <v>81</v>
       </c>
@@ -1766,7 +1753,7 @@
       <c r="M4" s="9"/>
     </row>
     <row r="5" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="66"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="12" t="s">
         <v>79</v>
       </c>
@@ -1785,7 +1772,7 @@
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="66"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="12"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1802,7 +1789,7 @@
       <c r="M6" s="9"/>
     </row>
     <row r="7" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="67"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="12"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1819,7 +1806,7 @@
       <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="54" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="14" t="s">
@@ -1841,7 +1828,7 @@
       <c r="M8" s="48"/>
     </row>
     <row r="9" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="62"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="14" t="s">
         <v>17</v>
       </c>
@@ -1862,7 +1849,7 @@
       <c r="M9" s="48"/>
     </row>
     <row r="10" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="62"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="14" t="s">
         <v>18</v>
       </c>
@@ -1891,18 +1878,18 @@
       </c>
     </row>
     <row r="11" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="62"/>
-      <c r="B11" s="68" t="s">
+      <c r="A11" s="54"/>
+      <c r="B11" s="64" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="18">
@@ -1926,8 +1913,8 @@
       </c>
     </row>
     <row r="12" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A12" s="62"/>
-      <c r="B12" s="69"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="65"/>
       <c r="C12" s="9" t="s">
         <v>10</v>
       </c>
@@ -1957,8 +1944,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="62"/>
-      <c r="B13" s="69"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="65"/>
       <c r="C13" s="9" t="s">
         <v>9</v>
       </c>
@@ -1986,8 +1973,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="62"/>
-      <c r="B14" s="70"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="66"/>
       <c r="C14" s="9" t="s">
         <v>27</v>
       </c>
@@ -2017,9 +2004,9 @@
       </c>
     </row>
     <row r="15" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="62"/>
-      <c r="B15" s="68" t="s">
-        <v>131</v>
+      <c r="A15" s="54"/>
+      <c r="B15" s="64" t="s">
+        <v>127</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>5</v>
@@ -2050,9 +2037,9 @@
       </c>
     </row>
     <row r="16" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="62"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="52" t="s">
+      <c r="A16" s="54"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="57" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="9" t="s">
@@ -2081,9 +2068,9 @@
       </c>
     </row>
     <row r="17" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="62"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="53"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="58"/>
       <c r="D17" s="9" t="s">
         <v>12</v>
       </c>
@@ -2110,8 +2097,8 @@
       </c>
     </row>
     <row r="18" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="62"/>
-      <c r="B18" s="70"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="66"/>
       <c r="C18" s="9" t="s">
         <v>13</v>
       </c>
@@ -2139,9 +2126,9 @@
       </c>
     </row>
     <row r="19" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="62"/>
-      <c r="B19" s="68" t="s">
-        <v>138</v>
+      <c r="A19" s="54"/>
+      <c r="B19" s="64" t="s">
+        <v>134</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>5</v>
@@ -2172,9 +2159,9 @@
       </c>
     </row>
     <row r="20" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="62"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="52" t="s">
+      <c r="A20" s="54"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="57" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="9" t="s">
@@ -2203,9 +2190,9 @@
       </c>
     </row>
     <row r="21" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="62"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="53"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="9" t="s">
         <v>12</v>
       </c>
@@ -2232,8 +2219,8 @@
       </c>
     </row>
     <row r="22" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="62"/>
-      <c r="B22" s="69"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="65"/>
       <c r="C22" s="9" t="s">
         <v>13</v>
       </c>
@@ -2261,10 +2248,10 @@
       </c>
     </row>
     <row r="23" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="62"/>
-      <c r="B23" s="69"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="65"/>
       <c r="C23" s="9" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
@@ -2290,10 +2277,10 @@
       </c>
     </row>
     <row r="24" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="62"/>
-      <c r="B24" s="70"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="66"/>
       <c r="C24" s="9" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -2319,15 +2306,15 @@
       </c>
     </row>
     <row r="25" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="62"/>
-      <c r="B25" s="68" t="s">
-        <v>139</v>
+      <c r="A25" s="54"/>
+      <c r="B25" s="64" t="s">
+        <v>135</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
@@ -2352,9 +2339,9 @@
       </c>
     </row>
     <row r="26" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="62"/>
-      <c r="B26" s="69"/>
-      <c r="C26" s="52" t="s">
+      <c r="A26" s="54"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="57" t="s">
         <v>29</v>
       </c>
       <c r="D26" s="9" t="s">
@@ -2383,9 +2370,9 @@
       </c>
     </row>
     <row r="27" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="62"/>
-      <c r="B27" s="69"/>
-      <c r="C27" s="53"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="58"/>
       <c r="D27" s="9" t="s">
         <v>12</v>
       </c>
@@ -2412,8 +2399,8 @@
       </c>
     </row>
     <row r="28" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="62"/>
-      <c r="B28" s="69"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="65"/>
       <c r="C28" s="9" t="s">
         <v>13</v>
       </c>
@@ -2441,8 +2428,8 @@
       </c>
     </row>
     <row r="29" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="62"/>
-      <c r="B29" s="69"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="65"/>
       <c r="C29" s="9" t="s">
         <v>25</v>
       </c>
@@ -2470,8 +2457,8 @@
       </c>
     </row>
     <row r="30" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="62"/>
-      <c r="B30" s="69"/>
+      <c r="A30" s="54"/>
+      <c r="B30" s="65"/>
       <c r="C30" s="9" t="s">
         <v>24</v>
       </c>
@@ -2499,8 +2486,8 @@
       </c>
     </row>
     <row r="31" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="62"/>
-      <c r="B31" s="69"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="65"/>
       <c r="C31" s="9" t="s">
         <v>26</v>
       </c>
@@ -2528,8 +2515,8 @@
       </c>
     </row>
     <row r="32" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="62"/>
-      <c r="B32" s="69"/>
+      <c r="A32" s="54"/>
+      <c r="B32" s="65"/>
       <c r="C32" s="9" t="s">
         <v>20</v>
       </c>
@@ -2557,8 +2544,8 @@
       </c>
     </row>
     <row r="33" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="62"/>
-      <c r="B33" s="70"/>
+      <c r="A33" s="54"/>
+      <c r="B33" s="66"/>
       <c r="C33" s="9" t="s">
         <v>21</v>
       </c>
@@ -2586,15 +2573,15 @@
       </c>
     </row>
     <row r="34" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="62"/>
-      <c r="B34" s="68" t="s">
-        <v>132</v>
+      <c r="A34" s="54"/>
+      <c r="B34" s="64" t="s">
+        <v>128</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
@@ -2619,9 +2606,9 @@
       </c>
     </row>
     <row r="35" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="62"/>
-      <c r="B35" s="69"/>
-      <c r="C35" s="52" t="s">
+      <c r="A35" s="54"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="57" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="9" t="s">
@@ -2650,9 +2637,9 @@
       </c>
     </row>
     <row r="36" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="62"/>
-      <c r="B36" s="69"/>
-      <c r="C36" s="53"/>
+      <c r="A36" s="54"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="58"/>
       <c r="D36" s="9" t="s">
         <v>12</v>
       </c>
@@ -2679,8 +2666,8 @@
       </c>
     </row>
     <row r="37" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="62"/>
-      <c r="B37" s="70"/>
+      <c r="A37" s="54"/>
+      <c r="B37" s="66"/>
       <c r="C37" s="9" t="s">
         <v>13</v>
       </c>
@@ -2708,15 +2695,15 @@
       </c>
     </row>
     <row r="38" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="62"/>
-      <c r="B38" s="68" t="s">
-        <v>133</v>
+      <c r="A38" s="54"/>
+      <c r="B38" s="64" t="s">
+        <v>129</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
@@ -2741,9 +2728,9 @@
       </c>
     </row>
     <row r="39" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="62"/>
-      <c r="B39" s="69"/>
-      <c r="C39" s="52" t="s">
+      <c r="A39" s="54"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="57" t="s">
         <v>29</v>
       </c>
       <c r="D39" s="9" t="s">
@@ -2772,9 +2759,9 @@
       </c>
     </row>
     <row r="40" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="62"/>
-      <c r="B40" s="69"/>
-      <c r="C40" s="53"/>
+      <c r="A40" s="54"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="58"/>
       <c r="D40" s="9" t="s">
         <v>12</v>
       </c>
@@ -2801,8 +2788,8 @@
       </c>
     </row>
     <row r="41" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="62"/>
-      <c r="B41" s="70"/>
+      <c r="A41" s="54"/>
+      <c r="B41" s="66"/>
       <c r="C41" s="9" t="s">
         <v>13</v>
       </c>
@@ -2830,15 +2817,15 @@
       </c>
     </row>
     <row r="42" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="62"/>
-      <c r="B42" s="68" t="s">
-        <v>137</v>
+      <c r="A42" s="54"/>
+      <c r="B42" s="64" t="s">
+        <v>133</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
@@ -2863,9 +2850,9 @@
       </c>
     </row>
     <row r="43" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="62"/>
-      <c r="B43" s="69"/>
-      <c r="C43" s="52" t="s">
+      <c r="A43" s="54"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="57" t="s">
         <v>29</v>
       </c>
       <c r="D43" s="9" t="s">
@@ -2894,9 +2881,9 @@
       </c>
     </row>
     <row r="44" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="62"/>
-      <c r="B44" s="69"/>
-      <c r="C44" s="53"/>
+      <c r="A44" s="54"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="58"/>
       <c r="D44" s="9" t="s">
         <v>12</v>
       </c>
@@ -2923,8 +2910,8 @@
       </c>
     </row>
     <row r="45" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="62"/>
-      <c r="B45" s="69"/>
+      <c r="A45" s="54"/>
+      <c r="B45" s="65"/>
       <c r="C45" s="9" t="s">
         <v>13</v>
       </c>
@@ -2952,8 +2939,8 @@
       </c>
     </row>
     <row r="46" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="62"/>
-      <c r="B46" s="69"/>
+      <c r="A46" s="54"/>
+      <c r="B46" s="65"/>
       <c r="C46" s="16" t="s">
         <v>22</v>
       </c>
@@ -2981,8 +2968,8 @@
       </c>
     </row>
     <row r="47" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="62"/>
-      <c r="B47" s="70"/>
+      <c r="A47" s="54"/>
+      <c r="B47" s="66"/>
       <c r="C47" s="16" t="s">
         <v>23</v>
       </c>
@@ -3010,15 +2997,15 @@
       </c>
     </row>
     <row r="48" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="62"/>
-      <c r="B48" s="68" t="s">
-        <v>134</v>
+      <c r="A48" s="54"/>
+      <c r="B48" s="64" t="s">
+        <v>130</v>
       </c>
       <c r="C48" s="16" t="s">
         <v>86</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
@@ -3043,8 +3030,8 @@
       </c>
     </row>
     <row r="49" spans="1:14" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="62"/>
-      <c r="B49" s="69"/>
+      <c r="A49" s="54"/>
+      <c r="B49" s="65"/>
       <c r="C49" s="17"/>
       <c r="D49" s="9" t="s">
         <v>6</v>
@@ -3074,13 +3061,13 @@
       </c>
     </row>
     <row r="50" spans="1:14" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="62"/>
-      <c r="B50" s="69"/>
+      <c r="A50" s="54"/>
+      <c r="B50" s="65"/>
       <c r="C50" s="16" t="s">
         <v>16</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
@@ -3105,8 +3092,8 @@
       </c>
     </row>
     <row r="51" spans="1:14" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="62"/>
-      <c r="B51" s="70"/>
+      <c r="A51" s="54"/>
+      <c r="B51" s="66"/>
       <c r="C51" s="17"/>
       <c r="D51" s="9" t="s">
         <v>6</v>
@@ -3134,15 +3121,15 @@
       </c>
     </row>
     <row r="52" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A52" s="62"/>
-      <c r="B52" s="68" t="s">
-        <v>140</v>
+      <c r="A52" s="54"/>
+      <c r="B52" s="64" t="s">
+        <v>136</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
@@ -3167,9 +3154,9 @@
       </c>
     </row>
     <row r="53" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A53" s="62"/>
-      <c r="B53" s="69"/>
-      <c r="C53" s="52" t="s">
+      <c r="A53" s="54"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="57" t="s">
         <v>29</v>
       </c>
       <c r="D53" s="9" t="s">
@@ -3198,9 +3185,9 @@
       </c>
     </row>
     <row r="54" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A54" s="62"/>
-      <c r="B54" s="69"/>
-      <c r="C54" s="53"/>
+      <c r="A54" s="54"/>
+      <c r="B54" s="65"/>
+      <c r="C54" s="58"/>
       <c r="D54" s="9" t="s">
         <v>12</v>
       </c>
@@ -3227,8 +3214,8 @@
       </c>
     </row>
     <row r="55" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A55" s="62"/>
-      <c r="B55" s="70"/>
+      <c r="A55" s="54"/>
+      <c r="B55" s="66"/>
       <c r="C55" s="9" t="s">
         <v>13</v>
       </c>
@@ -3257,7 +3244,7 @@
     </row>
     <row r="56" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="F56" s="42" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G56" s="24">
         <f>SUM(G9:G54)</f>
@@ -3269,7 +3256,7 @@
       </c>
     </row>
     <row r="57" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="65" t="s">
+      <c r="A57" s="55" t="s">
         <v>77</v>
       </c>
       <c r="B57" s="18" t="s">
@@ -3294,7 +3281,7 @@
       <c r="M57" s="9"/>
     </row>
     <row r="58" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="66"/>
+      <c r="A58" s="56"/>
       <c r="B58" s="18" t="s">
         <v>17</v>
       </c>
@@ -3315,7 +3302,7 @@
       <c r="M58" s="9"/>
     </row>
     <row r="59" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="66"/>
+      <c r="A59" s="56"/>
       <c r="B59" s="18" t="s">
         <v>18</v>
       </c>
@@ -3336,11 +3323,11 @@
       <c r="M59" s="9"/>
     </row>
     <row r="60" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="66"/>
-      <c r="B60" s="63" t="s">
+      <c r="A60" s="56"/>
+      <c r="B60" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="C60" s="55" t="s">
+      <c r="C60" s="59" t="s">
         <v>40</v>
       </c>
       <c r="D60" s="9" t="s">
@@ -3361,17 +3348,15 @@
       </c>
       <c r="L60" s="10"/>
       <c r="M60" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="N60" s="51" t="s">
-        <v>99</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="N60" s="70"/>
     </row>
     <row r="61" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="66"/>
-      <c r="B61" s="64"/>
-      <c r="C61" s="55"/>
-      <c r="D61" s="52" t="s">
+      <c r="A61" s="56"/>
+      <c r="B61" s="68"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="57" t="s">
         <v>90</v>
       </c>
       <c r="E61" s="9" t="s">
@@ -3389,15 +3374,15 @@
       </c>
       <c r="L61" s="10"/>
       <c r="M61" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="N61" s="51"/>
+        <v>125</v>
+      </c>
+      <c r="N61" s="70"/>
     </row>
     <row r="62" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="66"/>
-      <c r="B62" s="64"/>
-      <c r="C62" s="55"/>
-      <c r="D62" s="53"/>
+      <c r="A62" s="56"/>
+      <c r="B62" s="68"/>
+      <c r="C62" s="59"/>
+      <c r="D62" s="58"/>
       <c r="E62" s="9" t="s">
         <v>88</v>
       </c>
@@ -3413,14 +3398,14 @@
       </c>
       <c r="L62" s="10"/>
       <c r="M62" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="N62" s="51"/>
+        <v>125</v>
+      </c>
+      <c r="N62" s="70"/>
     </row>
     <row r="63" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="66"/>
-      <c r="B63" s="64"/>
-      <c r="C63" s="52" t="s">
+      <c r="A63" s="56"/>
+      <c r="B63" s="68"/>
+      <c r="C63" s="57" t="s">
         <v>84</v>
       </c>
       <c r="D63" s="9" t="s">
@@ -3441,14 +3426,14 @@
       </c>
       <c r="L63" s="10"/>
       <c r="M63" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="N63" s="51"/>
+        <v>125</v>
+      </c>
+      <c r="N63" s="70"/>
     </row>
     <row r="64" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="66"/>
-      <c r="B64" s="64"/>
-      <c r="C64" s="53"/>
+      <c r="A64" s="56"/>
+      <c r="B64" s="68"/>
+      <c r="C64" s="58"/>
       <c r="D64" s="9" t="s">
         <v>82</v>
       </c>
@@ -3467,13 +3452,13 @@
       </c>
       <c r="L64" s="10"/>
       <c r="M64" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="N64" s="51"/>
-    </row>
-    <row r="65" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="66"/>
-      <c r="B65" s="64"/>
+        <v>125</v>
+      </c>
+      <c r="N64" s="70"/>
+    </row>
+    <row r="65" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="56"/>
+      <c r="B65" s="68"/>
       <c r="C65" s="17" t="s">
         <v>83</v>
       </c>
@@ -3491,13 +3476,13 @@
       </c>
       <c r="L65" s="10"/>
       <c r="M65" s="43" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A66" s="66"/>
-      <c r="B66" s="64"/>
-      <c r="C66" s="55" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A66" s="56"/>
+      <c r="B66" s="68"/>
+      <c r="C66" s="59" t="s">
         <v>45</v>
       </c>
       <c r="D66" s="9" t="s">
@@ -3516,14 +3501,14 @@
       </c>
       <c r="L66" s="10"/>
       <c r="M66" s="43" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A67" s="66"/>
-      <c r="B67" s="64"/>
-      <c r="C67" s="55"/>
-      <c r="D67" s="55" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A67" s="56"/>
+      <c r="B67" s="68"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="59" t="s">
         <v>91</v>
       </c>
       <c r="E67" s="9" t="s">
@@ -3541,14 +3526,14 @@
       </c>
       <c r="L67" s="10"/>
       <c r="M67" s="43" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A68" s="66"/>
-      <c r="B68" s="64"/>
-      <c r="C68" s="55"/>
-      <c r="D68" s="55"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A68" s="56"/>
+      <c r="B68" s="68"/>
+      <c r="C68" s="59"/>
+      <c r="D68" s="59"/>
       <c r="E68" s="9" t="s">
         <v>71</v>
       </c>
@@ -3564,13 +3549,13 @@
       </c>
       <c r="L68" s="10"/>
       <c r="M68" s="43" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A69" s="66"/>
-      <c r="B69" s="64"/>
-      <c r="C69" s="52" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A69" s="56"/>
+      <c r="B69" s="68"/>
+      <c r="C69" s="57" t="s">
         <v>36</v>
       </c>
       <c r="D69" s="9" t="s">
@@ -3589,13 +3574,13 @@
       </c>
       <c r="L69" s="10"/>
       <c r="M69" s="43" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A70" s="66"/>
-      <c r="B70" s="64"/>
-      <c r="C70" s="56"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A70" s="56"/>
+      <c r="B70" s="68"/>
+      <c r="C70" s="62"/>
       <c r="D70" s="9" t="s">
         <v>38</v>
       </c>
@@ -3612,13 +3597,13 @@
       </c>
       <c r="L70" s="10"/>
       <c r="M70" s="43" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A71" s="66"/>
-      <c r="B71" s="64"/>
-      <c r="C71" s="53"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A71" s="56"/>
+      <c r="B71" s="68"/>
+      <c r="C71" s="58"/>
       <c r="D71" s="9" t="s">
         <v>39</v>
       </c>
@@ -3637,12 +3622,12 @@
       </c>
       <c r="L71" s="10"/>
       <c r="M71" s="43" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A72" s="66"/>
-      <c r="B72" s="64"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A72" s="56"/>
+      <c r="B72" s="68"/>
       <c r="C72" s="9" t="s">
         <v>49</v>
       </c>
@@ -3660,12 +3645,12 @@
       </c>
       <c r="L72" s="10"/>
       <c r="M72" s="43" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A73" s="66"/>
-      <c r="B73" s="64"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A73" s="56"/>
+      <c r="B73" s="68"/>
       <c r="C73" s="9" t="s">
         <v>50</v>
       </c>
@@ -3683,16 +3668,13 @@
       </c>
       <c r="L73" s="10"/>
       <c r="M73" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="N73" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A74" s="66"/>
-      <c r="B74" s="64"/>
-      <c r="C74" s="52" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A74" s="56"/>
+      <c r="B74" s="68"/>
+      <c r="C74" s="57" t="s">
         <v>57</v>
       </c>
       <c r="D74" s="30" t="s">
@@ -3711,18 +3693,18 @@
       </c>
       <c r="L74" s="10"/>
       <c r="M74" s="43" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A75" s="66"/>
-      <c r="B75" s="64"/>
-      <c r="C75" s="53"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A75" s="56"/>
+      <c r="B75" s="68"/>
+      <c r="C75" s="58"/>
       <c r="D75" s="9" t="s">
         <v>97</v>
       </c>
       <c r="E75" s="32" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F75" s="9"/>
       <c r="G75" s="18">
@@ -3736,13 +3718,13 @@
       </c>
       <c r="L75" s="10"/>
       <c r="M75" s="43" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A76" s="66"/>
-      <c r="B76" s="64"/>
-      <c r="C76" s="57" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A76" s="56"/>
+      <c r="B76" s="68"/>
+      <c r="C76" s="71" t="s">
         <v>51</v>
       </c>
       <c r="D76" s="19" t="s">
@@ -3762,10 +3744,10 @@
       <c r="L76" s="20"/>
       <c r="M76" s="43"/>
     </row>
-    <row r="77" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A77" s="66"/>
-      <c r="B77" s="64"/>
-      <c r="C77" s="58"/>
+    <row r="77" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A77" s="56"/>
+      <c r="B77" s="68"/>
+      <c r="C77" s="72"/>
       <c r="D77" s="19" t="s">
         <v>53</v>
       </c>
@@ -3783,10 +3765,10 @@
       <c r="L77" s="20"/>
       <c r="M77" s="43"/>
     </row>
-    <row r="78" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A78" s="66"/>
-      <c r="B78" s="64"/>
-      <c r="C78" s="58"/>
+    <row r="78" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A78" s="56"/>
+      <c r="B78" s="68"/>
+      <c r="C78" s="72"/>
       <c r="D78" s="19" t="s">
         <v>54</v>
       </c>
@@ -3804,10 +3786,10 @@
       <c r="L78" s="20"/>
       <c r="M78" s="43"/>
     </row>
-    <row r="79" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A79" s="66"/>
-      <c r="B79" s="64"/>
-      <c r="C79" s="58"/>
+    <row r="79" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A79" s="56"/>
+      <c r="B79" s="68"/>
+      <c r="C79" s="72"/>
       <c r="D79" s="19" t="s">
         <v>55</v>
       </c>
@@ -3825,10 +3807,10 @@
       <c r="L79" s="20"/>
       <c r="M79" s="43"/>
     </row>
-    <row r="80" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A80" s="66"/>
-      <c r="B80" s="64"/>
-      <c r="C80" s="59"/>
+    <row r="80" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A80" s="56"/>
+      <c r="B80" s="68"/>
+      <c r="C80" s="73"/>
       <c r="D80" s="19" t="s">
         <v>56</v>
       </c>
@@ -3846,12 +3828,12 @@
       <c r="L80" s="20"/>
       <c r="M80" s="43"/>
     </row>
-    <row r="81" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A81" s="66"/>
-      <c r="B81" s="72" t="s">
+    <row r="81" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A81" s="56"/>
+      <c r="B81" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="C81" s="60" t="s">
+      <c r="C81" s="74" t="s">
         <v>75</v>
       </c>
       <c r="D81" s="15" t="s">
@@ -3871,10 +3853,10 @@
       <c r="L81" s="10"/>
       <c r="M81" s="43"/>
     </row>
-    <row r="82" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A82" s="66"/>
-      <c r="B82" s="73"/>
-      <c r="C82" s="61"/>
+    <row r="82" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A82" s="56"/>
+      <c r="B82" s="53"/>
+      <c r="C82" s="75"/>
       <c r="D82" s="15" t="s">
         <v>59</v>
       </c>
@@ -3892,10 +3874,10 @@
       <c r="L82" s="10"/>
       <c r="M82" s="43"/>
     </row>
-    <row r="83" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A83" s="66"/>
-      <c r="B83" s="73"/>
-      <c r="C83" s="61"/>
+    <row r="83" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A83" s="56"/>
+      <c r="B83" s="53"/>
+      <c r="C83" s="75"/>
       <c r="D83" s="15" t="s">
         <v>55</v>
       </c>
@@ -3911,10 +3893,10 @@
       <c r="L83" s="10"/>
       <c r="M83" s="43"/>
     </row>
-    <row r="84" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A84" s="66"/>
-      <c r="B84" s="73"/>
-      <c r="C84" s="61"/>
+    <row r="84" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A84" s="56"/>
+      <c r="B84" s="53"/>
+      <c r="C84" s="75"/>
       <c r="D84" s="15" t="s">
         <v>60</v>
       </c>
@@ -3930,20 +3912,20 @@
       <c r="L84" s="10"/>
       <c r="M84" s="43"/>
     </row>
-    <row r="85" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A85" s="66"/>
-      <c r="B85" s="73"/>
-      <c r="C85" s="54" t="s">
+    <row r="85" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A85" s="56"/>
+      <c r="B85" s="53"/>
+      <c r="C85" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="D85" s="52" t="s">
+      <c r="D85" s="57" t="s">
         <v>61</v>
       </c>
       <c r="E85" s="9" t="s">
         <v>5</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G85" s="44">
         <v>1</v>
@@ -3956,15 +3938,15 @@
       </c>
       <c r="L85" s="10"/>
       <c r="M85" s="43" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A86" s="66"/>
-      <c r="B86" s="73"/>
-      <c r="C86" s="54"/>
-      <c r="D86" s="56"/>
-      <c r="E86" s="52" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A86" s="56"/>
+      <c r="B86" s="53"/>
+      <c r="C86" s="63"/>
+      <c r="D86" s="62"/>
+      <c r="E86" s="57" t="s">
         <v>29</v>
       </c>
       <c r="F86" s="9" t="s">
@@ -3981,15 +3963,15 @@
       </c>
       <c r="L86" s="10"/>
       <c r="M86" s="43" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A87" s="66"/>
-      <c r="B87" s="73"/>
-      <c r="C87" s="54"/>
-      <c r="D87" s="56"/>
-      <c r="E87" s="53"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A87" s="56"/>
+      <c r="B87" s="53"/>
+      <c r="C87" s="63"/>
+      <c r="D87" s="62"/>
+      <c r="E87" s="58"/>
       <c r="F87" s="9" t="s">
         <v>12</v>
       </c>
@@ -4004,14 +3986,14 @@
       </c>
       <c r="L87" s="10"/>
       <c r="M87" s="43" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A88" s="66"/>
-      <c r="B88" s="73"/>
-      <c r="C88" s="54"/>
-      <c r="D88" s="56"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A88" s="56"/>
+      <c r="B88" s="53"/>
+      <c r="C88" s="63"/>
+      <c r="D88" s="62"/>
       <c r="E88" s="9" t="s">
         <v>13</v>
       </c>
@@ -4027,16 +4009,16 @@
       </c>
       <c r="L88" s="10"/>
       <c r="M88" s="43" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A89" s="66"/>
-      <c r="B89" s="73"/>
-      <c r="C89" s="54"/>
-      <c r="D89" s="56"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A89" s="56"/>
+      <c r="B89" s="53"/>
+      <c r="C89" s="63"/>
+      <c r="D89" s="62"/>
       <c r="E89" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F89" s="9"/>
       <c r="G89" s="44">
@@ -4050,16 +4032,16 @@
       </c>
       <c r="L89" s="10"/>
       <c r="M89" s="43" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A90" s="66"/>
-      <c r="B90" s="73"/>
-      <c r="C90" s="54"/>
-      <c r="D90" s="56"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A90" s="56"/>
+      <c r="B90" s="53"/>
+      <c r="C90" s="63"/>
+      <c r="D90" s="62"/>
       <c r="E90" s="9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F90" s="9"/>
       <c r="G90" s="44">
@@ -4073,16 +4055,16 @@
       </c>
       <c r="L90" s="10"/>
       <c r="M90" s="43" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A91" s="66"/>
-      <c r="B91" s="73"/>
-      <c r="C91" s="54"/>
-      <c r="D91" s="56"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A91" s="56"/>
+      <c r="B91" s="53"/>
+      <c r="C91" s="63"/>
+      <c r="D91" s="62"/>
       <c r="E91" s="16" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F91" s="9"/>
       <c r="G91" s="44">
@@ -4096,19 +4078,19 @@
       </c>
       <c r="L91" s="10"/>
       <c r="M91" s="43" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A92" s="66"/>
-      <c r="B92" s="73"/>
-      <c r="C92" s="54"/>
-      <c r="D92" s="56"/>
-      <c r="E92" s="52" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A92" s="56"/>
+      <c r="B92" s="53"/>
+      <c r="C92" s="63"/>
+      <c r="D92" s="62"/>
+      <c r="E92" s="57" t="s">
         <v>63</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G92" s="44">
         <v>0.5</v>
@@ -4121,17 +4103,17 @@
       </c>
       <c r="L92" s="10"/>
       <c r="M92" s="43" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A93" s="66"/>
-      <c r="B93" s="73"/>
-      <c r="C93" s="54"/>
-      <c r="D93" s="56"/>
-      <c r="E93" s="56"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A93" s="56"/>
+      <c r="B93" s="53"/>
+      <c r="C93" s="63"/>
+      <c r="D93" s="62"/>
+      <c r="E93" s="62"/>
       <c r="F93" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G93" s="44">
         <v>0.5</v>
@@ -4144,17 +4126,17 @@
       </c>
       <c r="L93" s="10"/>
       <c r="M93" s="43" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A94" s="66"/>
-      <c r="B94" s="73"/>
-      <c r="C94" s="54"/>
-      <c r="D94" s="56"/>
-      <c r="E94" s="53"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A94" s="56"/>
+      <c r="B94" s="53"/>
+      <c r="C94" s="63"/>
+      <c r="D94" s="62"/>
+      <c r="E94" s="58"/>
       <c r="F94" s="9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G94" s="44">
         <v>0.5</v>
@@ -4167,15 +4149,15 @@
       </c>
       <c r="L94" s="10"/>
       <c r="M94" s="43" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A95" s="66"/>
-      <c r="B95" s="73"/>
-      <c r="C95" s="54"/>
-      <c r="D95" s="55" t="s">
-        <v>112</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A95" s="56"/>
+      <c r="B95" s="53"/>
+      <c r="C95" s="63"/>
+      <c r="D95" s="59" t="s">
+        <v>108</v>
       </c>
       <c r="E95" s="9" t="s">
         <v>62</v>
@@ -4192,22 +4174,22 @@
       </c>
       <c r="L95" s="10"/>
       <c r="M95" s="43" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A96" s="66"/>
-      <c r="B96" s="73"/>
-      <c r="C96" s="54"/>
-      <c r="D96" s="55"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A96" s="56"/>
+      <c r="B96" s="53"/>
+      <c r="C96" s="63"/>
+      <c r="D96" s="59"/>
       <c r="E96" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G96" s="44" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H96" s="9"/>
       <c r="I96" s="9"/>
@@ -4217,24 +4199,21 @@
       </c>
       <c r="L96" s="10"/>
       <c r="M96" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="N96" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A97" s="66"/>
-      <c r="B97" s="73"/>
-      <c r="C97" s="54"/>
-      <c r="D97" s="52" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A97" s="56"/>
+      <c r="B97" s="53"/>
+      <c r="C97" s="63"/>
+      <c r="D97" s="57" t="s">
+        <v>121</v>
       </c>
       <c r="E97" s="9" t="s">
         <v>5</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G97" s="44">
         <v>1</v>
@@ -4247,18 +4226,15 @@
       </c>
       <c r="L97" s="10"/>
       <c r="M97" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="N97" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A98" s="66"/>
-      <c r="B98" s="73"/>
-      <c r="C98" s="54"/>
-      <c r="D98" s="56"/>
-      <c r="E98" s="52" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A98" s="56"/>
+      <c r="B98" s="53"/>
+      <c r="C98" s="63"/>
+      <c r="D98" s="62"/>
+      <c r="E98" s="57" t="s">
         <v>29</v>
       </c>
       <c r="F98" s="9" t="s">
@@ -4275,15 +4251,15 @@
       </c>
       <c r="L98" s="10"/>
       <c r="M98" s="43" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A99" s="66"/>
-      <c r="B99" s="73"/>
-      <c r="C99" s="54"/>
-      <c r="D99" s="56"/>
-      <c r="E99" s="53"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A99" s="56"/>
+      <c r="B99" s="53"/>
+      <c r="C99" s="63"/>
+      <c r="D99" s="62"/>
+      <c r="E99" s="58"/>
       <c r="F99" s="9" t="s">
         <v>12</v>
       </c>
@@ -4298,14 +4274,14 @@
       </c>
       <c r="L99" s="10"/>
       <c r="M99" s="43" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A100" s="66"/>
-      <c r="B100" s="73"/>
-      <c r="C100" s="54"/>
-      <c r="D100" s="53"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A100" s="56"/>
+      <c r="B100" s="53"/>
+      <c r="C100" s="63"/>
+      <c r="D100" s="58"/>
       <c r="E100" s="9" t="s">
         <v>13</v>
       </c>
@@ -4321,12 +4297,12 @@
       </c>
       <c r="L100" s="10"/>
       <c r="M100" s="43" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="F101" s="42" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G101" s="41">
         <f>SUM(G57:G100)</f>
@@ -4335,8 +4311,8 @@
       <c r="J101" s="33"/>
       <c r="K101" s="35"/>
     </row>
-    <row r="102" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A102" s="62" t="s">
+    <row r="102" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A102" s="54" t="s">
         <v>70</v>
       </c>
       <c r="B102" s="18" t="s">
@@ -4357,11 +4333,11 @@
       </c>
       <c r="L102" s="10"/>
       <c r="M102" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A103" s="62"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A103" s="54"/>
       <c r="B103" s="18" t="s">
         <v>17</v>
       </c>
@@ -4380,11 +4356,11 @@
       </c>
       <c r="L103" s="10"/>
       <c r="M103" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A104" s="62"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A104" s="54"/>
       <c r="B104" s="18" t="s">
         <v>18</v>
       </c>
@@ -4403,15 +4379,15 @@
       </c>
       <c r="L104" s="10"/>
       <c r="M104" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="62"/>
-      <c r="B105" s="72" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="54"/>
+      <c r="B105" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="C105" s="52" t="s">
+      <c r="C105" s="57" t="s">
         <v>33</v>
       </c>
       <c r="D105" s="9" t="s">
@@ -4432,13 +4408,13 @@
       </c>
       <c r="L105" s="10"/>
       <c r="M105" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A106" s="62"/>
-      <c r="B106" s="73"/>
-      <c r="C106" s="56"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A106" s="54"/>
+      <c r="B106" s="53"/>
+      <c r="C106" s="62"/>
       <c r="D106" s="49" t="s">
         <v>41</v>
       </c>
@@ -4457,14 +4433,14 @@
       </c>
       <c r="L106" s="10"/>
       <c r="M106" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A107" s="62"/>
-      <c r="B107" s="73"/>
-      <c r="C107" s="53"/>
-      <c r="D107" s="50"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A107" s="54"/>
+      <c r="B107" s="53"/>
+      <c r="C107" s="58"/>
+      <c r="D107" s="51"/>
       <c r="E107" s="9" t="s">
         <v>43</v>
       </c>
@@ -4480,13 +4456,13 @@
       </c>
       <c r="L107" s="10"/>
       <c r="M107" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A108" s="62"/>
-      <c r="B108" s="73"/>
-      <c r="C108" s="52" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A108" s="54"/>
+      <c r="B108" s="53"/>
+      <c r="C108" s="57" t="s">
         <v>45</v>
       </c>
       <c r="D108" s="9" t="s">
@@ -4507,13 +4483,13 @@
       </c>
       <c r="L108" s="10"/>
       <c r="M108" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A109" s="62"/>
-      <c r="B109" s="73"/>
-      <c r="C109" s="56"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A109" s="54"/>
+      <c r="B109" s="53"/>
+      <c r="C109" s="62"/>
       <c r="D109" s="49" t="s">
         <v>41</v>
       </c>
@@ -4532,14 +4508,14 @@
       </c>
       <c r="L109" s="10"/>
       <c r="M109" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A110" s="62"/>
-      <c r="B110" s="73"/>
-      <c r="C110" s="56"/>
-      <c r="D110" s="71"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A110" s="54"/>
+      <c r="B110" s="53"/>
+      <c r="C110" s="62"/>
+      <c r="D110" s="50"/>
       <c r="E110" s="9" t="s">
         <v>43</v>
       </c>
@@ -4555,14 +4531,14 @@
       </c>
       <c r="L110" s="10"/>
       <c r="M110" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A111" s="62"/>
-      <c r="B111" s="73"/>
-      <c r="C111" s="53"/>
-      <c r="D111" s="50"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A111" s="54"/>
+      <c r="B111" s="53"/>
+      <c r="C111" s="58"/>
+      <c r="D111" s="51"/>
       <c r="E111" s="9" t="s">
         <v>47</v>
       </c>
@@ -4578,13 +4554,13 @@
       </c>
       <c r="L111" s="10"/>
       <c r="M111" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A112" s="62"/>
-      <c r="B112" s="73"/>
-      <c r="C112" s="54" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A112" s="54"/>
+      <c r="B112" s="53"/>
+      <c r="C112" s="63" t="s">
         <v>72</v>
       </c>
       <c r="D112" s="9" t="s">
@@ -4603,13 +4579,13 @@
       </c>
       <c r="L112" s="10"/>
       <c r="M112" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A113" s="62"/>
-      <c r="B113" s="73"/>
-      <c r="C113" s="55"/>
+      <c r="A113" s="54"/>
+      <c r="B113" s="53"/>
+      <c r="C113" s="59"/>
       <c r="D113" s="9" t="s">
         <v>64</v>
       </c>
@@ -4626,12 +4602,12 @@
       </c>
       <c r="L113" s="10"/>
       <c r="M113" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="114" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A114" s="62"/>
-      <c r="B114" s="73"/>
+      <c r="A114" s="54"/>
+      <c r="B114" s="53"/>
       <c r="C114" s="9" t="s">
         <v>93</v>
       </c>
@@ -4649,22 +4625,22 @@
       </c>
       <c r="L114" s="10"/>
       <c r="M114" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="115" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A115" s="62"/>
-      <c r="B115" s="72" t="s">
+      <c r="A115" s="54"/>
+      <c r="B115" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="C115" s="52" t="s">
+      <c r="C115" s="57" t="s">
         <v>65</v>
       </c>
       <c r="D115" s="21" t="s">
         <v>5</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F115" s="9"/>
       <c r="G115" s="46">
@@ -4678,14 +4654,14 @@
       </c>
       <c r="L115" s="10"/>
       <c r="M115" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="116" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A116" s="62"/>
-      <c r="B116" s="72"/>
-      <c r="C116" s="56"/>
-      <c r="D116" s="74" t="s">
+      <c r="A116" s="54"/>
+      <c r="B116" s="52"/>
+      <c r="C116" s="62"/>
+      <c r="D116" s="60" t="s">
         <v>29</v>
       </c>
       <c r="E116" s="9" t="s">
@@ -4705,14 +4681,14 @@
         <v>1</v>
       </c>
       <c r="M116" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="117" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A117" s="62"/>
-      <c r="B117" s="72"/>
-      <c r="C117" s="56"/>
-      <c r="D117" s="75"/>
+      <c r="A117" s="54"/>
+      <c r="B117" s="52"/>
+      <c r="C117" s="62"/>
+      <c r="D117" s="61"/>
       <c r="E117" s="9" t="s">
         <v>12</v>
       </c>
@@ -4730,13 +4706,13 @@
         <v>1</v>
       </c>
       <c r="M117" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="118" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A118" s="62"/>
-      <c r="B118" s="72"/>
-      <c r="C118" s="56"/>
+      <c r="A118" s="54"/>
+      <c r="B118" s="52"/>
+      <c r="C118" s="62"/>
       <c r="D118" s="21" t="s">
         <v>13</v>
       </c>
@@ -4755,13 +4731,13 @@
         <v>1</v>
       </c>
       <c r="M118" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="119" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A119" s="62"/>
-      <c r="B119" s="72"/>
-      <c r="C119" s="56"/>
+      <c r="A119" s="54"/>
+      <c r="B119" s="52"/>
+      <c r="C119" s="62"/>
       <c r="D119" s="21" t="s">
         <v>25</v>
       </c>
@@ -4780,13 +4756,13 @@
         <v>1</v>
       </c>
       <c r="M119" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="120" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A120" s="62"/>
-      <c r="B120" s="72"/>
-      <c r="C120" s="56"/>
+      <c r="A120" s="54"/>
+      <c r="B120" s="52"/>
+      <c r="C120" s="62"/>
       <c r="D120" s="21" t="s">
         <v>24</v>
       </c>
@@ -4803,13 +4779,13 @@
       </c>
       <c r="L120" s="10"/>
       <c r="M120" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="121" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A121" s="62"/>
-      <c r="B121" s="72"/>
-      <c r="C121" s="53"/>
+      <c r="A121" s="54"/>
+      <c r="B121" s="52"/>
+      <c r="C121" s="58"/>
       <c r="D121" s="21" t="s">
         <v>26</v>
       </c>
@@ -4826,14 +4802,14 @@
       </c>
       <c r="L121" s="10"/>
       <c r="M121" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="122" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A122" s="62"/>
-      <c r="B122" s="73"/>
-      <c r="C122" s="52" t="s">
-        <v>107</v>
+      <c r="A122" s="54"/>
+      <c r="B122" s="53"/>
+      <c r="C122" s="57" t="s">
+        <v>103</v>
       </c>
       <c r="D122" s="21" t="s">
         <v>5</v>
@@ -4853,14 +4829,14 @@
       </c>
       <c r="L122" s="10"/>
       <c r="M122" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="123" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A123" s="62"/>
-      <c r="B123" s="73"/>
-      <c r="C123" s="56"/>
-      <c r="D123" s="74" t="s">
+      <c r="A123" s="54"/>
+      <c r="B123" s="53"/>
+      <c r="C123" s="62"/>
+      <c r="D123" s="60" t="s">
         <v>29</v>
       </c>
       <c r="E123" s="9" t="s">
@@ -4880,14 +4856,14 @@
         <v>1</v>
       </c>
       <c r="M123" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="124" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A124" s="62"/>
-      <c r="B124" s="73"/>
-      <c r="C124" s="56"/>
-      <c r="D124" s="75"/>
+      <c r="A124" s="54"/>
+      <c r="B124" s="53"/>
+      <c r="C124" s="62"/>
+      <c r="D124" s="61"/>
       <c r="E124" s="9" t="s">
         <v>12</v>
       </c>
@@ -4905,13 +4881,13 @@
         <v>1</v>
       </c>
       <c r="M124" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="125" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A125" s="62"/>
-      <c r="B125" s="73"/>
-      <c r="C125" s="53"/>
+      <c r="A125" s="54"/>
+      <c r="B125" s="53"/>
+      <c r="C125" s="58"/>
       <c r="D125" s="21" t="s">
         <v>13</v>
       </c>
@@ -4930,12 +4906,12 @@
         <v>1</v>
       </c>
       <c r="M125" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="126" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A126" s="62"/>
-      <c r="B126" s="73"/>
+      <c r="A126" s="54"/>
+      <c r="B126" s="53"/>
       <c r="C126" s="37" t="s">
         <v>66</v>
       </c>
@@ -4955,8 +4931,8 @@
       <c r="M126" s="9"/>
     </row>
     <row r="127" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A127" s="62"/>
-      <c r="B127" s="73"/>
+      <c r="A127" s="54"/>
+      <c r="B127" s="53"/>
       <c r="C127" s="37" t="s">
         <v>67</v>
       </c>
@@ -4976,8 +4952,8 @@
       <c r="M127" s="9"/>
     </row>
     <row r="128" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A128" s="62"/>
-      <c r="B128" s="73"/>
+      <c r="A128" s="54"/>
+      <c r="B128" s="53"/>
       <c r="C128" s="37" t="s">
         <v>68</v>
       </c>
@@ -4997,8 +4973,8 @@
       <c r="M128" s="9"/>
     </row>
     <row r="129" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A129" s="62"/>
-      <c r="B129" s="73"/>
+      <c r="A129" s="54"/>
+      <c r="B129" s="53"/>
       <c r="C129" s="37" t="s">
         <v>69</v>
       </c>
@@ -5019,7 +4995,7 @@
     </row>
     <row r="130" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F130" s="42" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G130" s="41">
         <f>SUM(G102:G129)</f>
@@ -5041,6 +5017,40 @@
     <protectedRange sqref="L102:L129 L57:L100 L2:L5 L8:L55" name="区域3"/>
   </protectedRanges>
   <mergeCells count="50">
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="N60:N64"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="C85:C100"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="D97:D100"/>
+    <mergeCell ref="D85:D94"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="C76:C80"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="A8:A55"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="B60:B80"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B25:B33"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="C39:C40"/>
     <mergeCell ref="D109:D111"/>
     <mergeCell ref="B115:B129"/>
     <mergeCell ref="A102:A129"/>
@@ -5057,40 +5067,6 @@
     <mergeCell ref="C112:C113"/>
     <mergeCell ref="C108:C111"/>
     <mergeCell ref="C105:C107"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B47"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="A8:A55"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="B60:B80"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B25:B33"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="N60:N64"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="C85:C100"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="D97:D100"/>
-    <mergeCell ref="D85:D94"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="C76:C80"/>
-    <mergeCell ref="C81:C84"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="L2:L5 L102:L129 L66:L100 L48:L51 L43:L44 L25:L37 L8:L14">

--- a/doc/开发计划V0.1.xlsx
+++ b/doc/开发计划V0.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\hsd-servers\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hsd\hsd-servers\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -934,83 +934,83 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1642,8 +1642,8 @@
   <dimension ref="A1:N132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N60" sqref="N60:N64"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L105" sqref="L105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1713,7 +1713,7 @@
       <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="65" t="s">
         <v>78</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -1734,7 +1734,7 @@
       <c r="M3" s="9"/>
     </row>
     <row r="4" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="56"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="12" t="s">
         <v>81</v>
       </c>
@@ -1753,7 +1753,7 @@
       <c r="M4" s="9"/>
     </row>
     <row r="5" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="56"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="12" t="s">
         <v>79</v>
       </c>
@@ -1772,7 +1772,7 @@
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="56"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="12"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1789,7 +1789,7 @@
       <c r="M6" s="9"/>
     </row>
     <row r="7" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="69"/>
+      <c r="A7" s="67"/>
       <c r="B7" s="12"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1806,7 +1806,7 @@
       <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="62" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="14" t="s">
@@ -1828,7 +1828,7 @@
       <c r="M8" s="48"/>
     </row>
     <row r="9" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="54"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="14" t="s">
         <v>17</v>
       </c>
@@ -1849,7 +1849,7 @@
       <c r="M9" s="48"/>
     </row>
     <row r="10" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="54"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="14" t="s">
         <v>18</v>
       </c>
@@ -1878,8 +1878,8 @@
       </c>
     </row>
     <row r="11" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="54"/>
-      <c r="B11" s="64" t="s">
+      <c r="A11" s="62"/>
+      <c r="B11" s="68" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -1913,8 +1913,8 @@
       </c>
     </row>
     <row r="12" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A12" s="54"/>
-      <c r="B12" s="65"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="69"/>
       <c r="C12" s="9" t="s">
         <v>10</v>
       </c>
@@ -1944,8 +1944,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="54"/>
-      <c r="B13" s="65"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="69"/>
       <c r="C13" s="9" t="s">
         <v>9</v>
       </c>
@@ -1973,8 +1973,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="54"/>
-      <c r="B14" s="66"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="70"/>
       <c r="C14" s="9" t="s">
         <v>27</v>
       </c>
@@ -2004,8 +2004,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="54"/>
-      <c r="B15" s="64" t="s">
+      <c r="A15" s="62"/>
+      <c r="B15" s="68" t="s">
         <v>127</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -2037,9 +2037,9 @@
       </c>
     </row>
     <row r="16" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="54"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="57" t="s">
+      <c r="A16" s="62"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="52" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="9" t="s">
@@ -2068,9 +2068,9 @@
       </c>
     </row>
     <row r="17" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="54"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="58"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="53"/>
       <c r="D17" s="9" t="s">
         <v>12</v>
       </c>
@@ -2097,8 +2097,8 @@
       </c>
     </row>
     <row r="18" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="54"/>
-      <c r="B18" s="66"/>
+      <c r="A18" s="62"/>
+      <c r="B18" s="70"/>
       <c r="C18" s="9" t="s">
         <v>13</v>
       </c>
@@ -2126,8 +2126,8 @@
       </c>
     </row>
     <row r="19" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="54"/>
-      <c r="B19" s="64" t="s">
+      <c r="A19" s="62"/>
+      <c r="B19" s="68" t="s">
         <v>134</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -2159,9 +2159,9 @@
       </c>
     </row>
     <row r="20" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="54"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="57" t="s">
+      <c r="A20" s="62"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="52" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="9" t="s">
@@ -2190,9 +2190,9 @@
       </c>
     </row>
     <row r="21" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="54"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="58"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="53"/>
       <c r="D21" s="9" t="s">
         <v>12</v>
       </c>
@@ -2219,8 +2219,8 @@
       </c>
     </row>
     <row r="22" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="54"/>
-      <c r="B22" s="65"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="69"/>
       <c r="C22" s="9" t="s">
         <v>13</v>
       </c>
@@ -2248,8 +2248,8 @@
       </c>
     </row>
     <row r="23" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="54"/>
-      <c r="B23" s="65"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="69"/>
       <c r="C23" s="9" t="s">
         <v>132</v>
       </c>
@@ -2277,8 +2277,8 @@
       </c>
     </row>
     <row r="24" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="54"/>
-      <c r="B24" s="66"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="70"/>
       <c r="C24" s="9" t="s">
         <v>131</v>
       </c>
@@ -2306,8 +2306,8 @@
       </c>
     </row>
     <row r="25" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="54"/>
-      <c r="B25" s="64" t="s">
+      <c r="A25" s="62"/>
+      <c r="B25" s="68" t="s">
         <v>135</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -2339,9 +2339,9 @@
       </c>
     </row>
     <row r="26" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="54"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="57" t="s">
+      <c r="A26" s="62"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="52" t="s">
         <v>29</v>
       </c>
       <c r="D26" s="9" t="s">
@@ -2370,9 +2370,9 @@
       </c>
     </row>
     <row r="27" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="54"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="58"/>
+      <c r="A27" s="62"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="53"/>
       <c r="D27" s="9" t="s">
         <v>12</v>
       </c>
@@ -2399,8 +2399,8 @@
       </c>
     </row>
     <row r="28" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="54"/>
-      <c r="B28" s="65"/>
+      <c r="A28" s="62"/>
+      <c r="B28" s="69"/>
       <c r="C28" s="9" t="s">
         <v>13</v>
       </c>
@@ -2428,8 +2428,8 @@
       </c>
     </row>
     <row r="29" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="54"/>
-      <c r="B29" s="65"/>
+      <c r="A29" s="62"/>
+      <c r="B29" s="69"/>
       <c r="C29" s="9" t="s">
         <v>25</v>
       </c>
@@ -2457,8 +2457,8 @@
       </c>
     </row>
     <row r="30" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="54"/>
-      <c r="B30" s="65"/>
+      <c r="A30" s="62"/>
+      <c r="B30" s="69"/>
       <c r="C30" s="9" t="s">
         <v>24</v>
       </c>
@@ -2486,8 +2486,8 @@
       </c>
     </row>
     <row r="31" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="54"/>
-      <c r="B31" s="65"/>
+      <c r="A31" s="62"/>
+      <c r="B31" s="69"/>
       <c r="C31" s="9" t="s">
         <v>26</v>
       </c>
@@ -2515,8 +2515,8 @@
       </c>
     </row>
     <row r="32" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="54"/>
-      <c r="B32" s="65"/>
+      <c r="A32" s="62"/>
+      <c r="B32" s="69"/>
       <c r="C32" s="9" t="s">
         <v>20</v>
       </c>
@@ -2544,8 +2544,8 @@
       </c>
     </row>
     <row r="33" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="54"/>
-      <c r="B33" s="66"/>
+      <c r="A33" s="62"/>
+      <c r="B33" s="70"/>
       <c r="C33" s="9" t="s">
         <v>21</v>
       </c>
@@ -2573,8 +2573,8 @@
       </c>
     </row>
     <row r="34" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="54"/>
-      <c r="B34" s="64" t="s">
+      <c r="A34" s="62"/>
+      <c r="B34" s="68" t="s">
         <v>128</v>
       </c>
       <c r="C34" s="9" t="s">
@@ -2606,9 +2606,9 @@
       </c>
     </row>
     <row r="35" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="54"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="57" t="s">
+      <c r="A35" s="62"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="52" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="9" t="s">
@@ -2637,9 +2637,9 @@
       </c>
     </row>
     <row r="36" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="54"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="58"/>
+      <c r="A36" s="62"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="53"/>
       <c r="D36" s="9" t="s">
         <v>12</v>
       </c>
@@ -2666,8 +2666,8 @@
       </c>
     </row>
     <row r="37" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="54"/>
-      <c r="B37" s="66"/>
+      <c r="A37" s="62"/>
+      <c r="B37" s="70"/>
       <c r="C37" s="9" t="s">
         <v>13</v>
       </c>
@@ -2695,8 +2695,8 @@
       </c>
     </row>
     <row r="38" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="54"/>
-      <c r="B38" s="64" t="s">
+      <c r="A38" s="62"/>
+      <c r="B38" s="68" t="s">
         <v>129</v>
       </c>
       <c r="C38" s="9" t="s">
@@ -2728,9 +2728,9 @@
       </c>
     </row>
     <row r="39" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="54"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="57" t="s">
+      <c r="A39" s="62"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="52" t="s">
         <v>29</v>
       </c>
       <c r="D39" s="9" t="s">
@@ -2759,9 +2759,9 @@
       </c>
     </row>
     <row r="40" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="54"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="58"/>
+      <c r="A40" s="62"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="53"/>
       <c r="D40" s="9" t="s">
         <v>12</v>
       </c>
@@ -2788,8 +2788,8 @@
       </c>
     </row>
     <row r="41" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="54"/>
-      <c r="B41" s="66"/>
+      <c r="A41" s="62"/>
+      <c r="B41" s="70"/>
       <c r="C41" s="9" t="s">
         <v>13</v>
       </c>
@@ -2817,8 +2817,8 @@
       </c>
     </row>
     <row r="42" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="54"/>
-      <c r="B42" s="64" t="s">
+      <c r="A42" s="62"/>
+      <c r="B42" s="68" t="s">
         <v>133</v>
       </c>
       <c r="C42" s="9" t="s">
@@ -2850,9 +2850,9 @@
       </c>
     </row>
     <row r="43" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="54"/>
-      <c r="B43" s="65"/>
-      <c r="C43" s="57" t="s">
+      <c r="A43" s="62"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="52" t="s">
         <v>29</v>
       </c>
       <c r="D43" s="9" t="s">
@@ -2881,9 +2881,9 @@
       </c>
     </row>
     <row r="44" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="54"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="58"/>
+      <c r="A44" s="62"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="53"/>
       <c r="D44" s="9" t="s">
         <v>12</v>
       </c>
@@ -2910,8 +2910,8 @@
       </c>
     </row>
     <row r="45" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="54"/>
-      <c r="B45" s="65"/>
+      <c r="A45" s="62"/>
+      <c r="B45" s="69"/>
       <c r="C45" s="9" t="s">
         <v>13</v>
       </c>
@@ -2939,8 +2939,8 @@
       </c>
     </row>
     <row r="46" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="54"/>
-      <c r="B46" s="65"/>
+      <c r="A46" s="62"/>
+      <c r="B46" s="69"/>
       <c r="C46" s="16" t="s">
         <v>22</v>
       </c>
@@ -2968,8 +2968,8 @@
       </c>
     </row>
     <row r="47" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="54"/>
-      <c r="B47" s="66"/>
+      <c r="A47" s="62"/>
+      <c r="B47" s="70"/>
       <c r="C47" s="16" t="s">
         <v>23</v>
       </c>
@@ -2997,8 +2997,8 @@
       </c>
     </row>
     <row r="48" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="54"/>
-      <c r="B48" s="64" t="s">
+      <c r="A48" s="62"/>
+      <c r="B48" s="68" t="s">
         <v>130</v>
       </c>
       <c r="C48" s="16" t="s">
@@ -3030,8 +3030,8 @@
       </c>
     </row>
     <row r="49" spans="1:14" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="54"/>
-      <c r="B49" s="65"/>
+      <c r="A49" s="62"/>
+      <c r="B49" s="69"/>
       <c r="C49" s="17"/>
       <c r="D49" s="9" t="s">
         <v>6</v>
@@ -3061,8 +3061,8 @@
       </c>
     </row>
     <row r="50" spans="1:14" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="54"/>
-      <c r="B50" s="65"/>
+      <c r="A50" s="62"/>
+      <c r="B50" s="69"/>
       <c r="C50" s="16" t="s">
         <v>16</v>
       </c>
@@ -3092,8 +3092,8 @@
       </c>
     </row>
     <row r="51" spans="1:14" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="54"/>
-      <c r="B51" s="66"/>
+      <c r="A51" s="62"/>
+      <c r="B51" s="70"/>
       <c r="C51" s="17"/>
       <c r="D51" s="9" t="s">
         <v>6</v>
@@ -3121,8 +3121,8 @@
       </c>
     </row>
     <row r="52" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A52" s="54"/>
-      <c r="B52" s="64" t="s">
+      <c r="A52" s="62"/>
+      <c r="B52" s="68" t="s">
         <v>136</v>
       </c>
       <c r="C52" s="9" t="s">
@@ -3154,9 +3154,9 @@
       </c>
     </row>
     <row r="53" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A53" s="54"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="57" t="s">
+      <c r="A53" s="62"/>
+      <c r="B53" s="69"/>
+      <c r="C53" s="52" t="s">
         <v>29</v>
       </c>
       <c r="D53" s="9" t="s">
@@ -3185,9 +3185,9 @@
       </c>
     </row>
     <row r="54" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A54" s="54"/>
-      <c r="B54" s="65"/>
-      <c r="C54" s="58"/>
+      <c r="A54" s="62"/>
+      <c r="B54" s="69"/>
+      <c r="C54" s="53"/>
       <c r="D54" s="9" t="s">
         <v>12</v>
       </c>
@@ -3214,8 +3214,8 @@
       </c>
     </row>
     <row r="55" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A55" s="54"/>
-      <c r="B55" s="66"/>
+      <c r="A55" s="62"/>
+      <c r="B55" s="70"/>
       <c r="C55" s="9" t="s">
         <v>13</v>
       </c>
@@ -3256,7 +3256,7 @@
       </c>
     </row>
     <row r="57" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="55" t="s">
+      <c r="A57" s="65" t="s">
         <v>77</v>
       </c>
       <c r="B57" s="18" t="s">
@@ -3281,7 +3281,7 @@
       <c r="M57" s="9"/>
     </row>
     <row r="58" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="56"/>
+      <c r="A58" s="66"/>
       <c r="B58" s="18" t="s">
         <v>17</v>
       </c>
@@ -3302,7 +3302,7 @@
       <c r="M58" s="9"/>
     </row>
     <row r="59" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="56"/>
+      <c r="A59" s="66"/>
       <c r="B59" s="18" t="s">
         <v>18</v>
       </c>
@@ -3323,11 +3323,11 @@
       <c r="M59" s="9"/>
     </row>
     <row r="60" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="56"/>
-      <c r="B60" s="67" t="s">
+      <c r="A60" s="66"/>
+      <c r="B60" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="C60" s="59" t="s">
+      <c r="C60" s="55" t="s">
         <v>40</v>
       </c>
       <c r="D60" s="9" t="s">
@@ -3350,13 +3350,13 @@
       <c r="M60" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="N60" s="70"/>
+      <c r="N60" s="51"/>
     </row>
     <row r="61" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="56"/>
-      <c r="B61" s="68"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="57" t="s">
+      <c r="A61" s="66"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="55"/>
+      <c r="D61" s="52" t="s">
         <v>90</v>
       </c>
       <c r="E61" s="9" t="s">
@@ -3376,13 +3376,13 @@
       <c r="M61" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="N61" s="70"/>
+      <c r="N61" s="51"/>
     </row>
     <row r="62" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="56"/>
-      <c r="B62" s="68"/>
-      <c r="C62" s="59"/>
-      <c r="D62" s="58"/>
+      <c r="A62" s="66"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="55"/>
+      <c r="D62" s="53"/>
       <c r="E62" s="9" t="s">
         <v>88</v>
       </c>
@@ -3400,12 +3400,12 @@
       <c r="M62" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="N62" s="70"/>
+      <c r="N62" s="51"/>
     </row>
     <row r="63" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="56"/>
-      <c r="B63" s="68"/>
-      <c r="C63" s="57" t="s">
+      <c r="A63" s="66"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="52" t="s">
         <v>84</v>
       </c>
       <c r="D63" s="9" t="s">
@@ -3428,12 +3428,12 @@
       <c r="M63" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="N63" s="70"/>
+      <c r="N63" s="51"/>
     </row>
     <row r="64" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="56"/>
-      <c r="B64" s="68"/>
-      <c r="C64" s="58"/>
+      <c r="A64" s="66"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="53"/>
       <c r="D64" s="9" t="s">
         <v>82</v>
       </c>
@@ -3454,11 +3454,11 @@
       <c r="M64" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="N64" s="70"/>
+      <c r="N64" s="51"/>
     </row>
     <row r="65" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="56"/>
-      <c r="B65" s="68"/>
+      <c r="A65" s="66"/>
+      <c r="B65" s="64"/>
       <c r="C65" s="17" t="s">
         <v>83</v>
       </c>
@@ -3480,9 +3480,9 @@
       </c>
     </row>
     <row r="66" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A66" s="56"/>
-      <c r="B66" s="68"/>
-      <c r="C66" s="59" t="s">
+      <c r="A66" s="66"/>
+      <c r="B66" s="64"/>
+      <c r="C66" s="55" t="s">
         <v>45</v>
       </c>
       <c r="D66" s="9" t="s">
@@ -3505,10 +3505,10 @@
       </c>
     </row>
     <row r="67" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A67" s="56"/>
-      <c r="B67" s="68"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="59" t="s">
+      <c r="A67" s="66"/>
+      <c r="B67" s="64"/>
+      <c r="C67" s="55"/>
+      <c r="D67" s="55" t="s">
         <v>91</v>
       </c>
       <c r="E67" s="9" t="s">
@@ -3530,10 +3530,10 @@
       </c>
     </row>
     <row r="68" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A68" s="56"/>
-      <c r="B68" s="68"/>
-      <c r="C68" s="59"/>
-      <c r="D68" s="59"/>
+      <c r="A68" s="66"/>
+      <c r="B68" s="64"/>
+      <c r="C68" s="55"/>
+      <c r="D68" s="55"/>
       <c r="E68" s="9" t="s">
         <v>71</v>
       </c>
@@ -3553,9 +3553,9 @@
       </c>
     </row>
     <row r="69" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A69" s="56"/>
-      <c r="B69" s="68"/>
-      <c r="C69" s="57" t="s">
+      <c r="A69" s="66"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="52" t="s">
         <v>36</v>
       </c>
       <c r="D69" s="9" t="s">
@@ -3578,9 +3578,9 @@
       </c>
     </row>
     <row r="70" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A70" s="56"/>
-      <c r="B70" s="68"/>
-      <c r="C70" s="62"/>
+      <c r="A70" s="66"/>
+      <c r="B70" s="64"/>
+      <c r="C70" s="56"/>
       <c r="D70" s="9" t="s">
         <v>38</v>
       </c>
@@ -3601,9 +3601,9 @@
       </c>
     </row>
     <row r="71" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A71" s="56"/>
-      <c r="B71" s="68"/>
-      <c r="C71" s="58"/>
+      <c r="A71" s="66"/>
+      <c r="B71" s="64"/>
+      <c r="C71" s="53"/>
       <c r="D71" s="9" t="s">
         <v>39</v>
       </c>
@@ -3626,8 +3626,8 @@
       </c>
     </row>
     <row r="72" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A72" s="56"/>
-      <c r="B72" s="68"/>
+      <c r="A72" s="66"/>
+      <c r="B72" s="64"/>
       <c r="C72" s="9" t="s">
         <v>49</v>
       </c>
@@ -3649,8 +3649,8 @@
       </c>
     </row>
     <row r="73" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A73" s="56"/>
-      <c r="B73" s="68"/>
+      <c r="A73" s="66"/>
+      <c r="B73" s="64"/>
       <c r="C73" s="9" t="s">
         <v>50</v>
       </c>
@@ -3672,9 +3672,9 @@
       </c>
     </row>
     <row r="74" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A74" s="56"/>
-      <c r="B74" s="68"/>
-      <c r="C74" s="57" t="s">
+      <c r="A74" s="66"/>
+      <c r="B74" s="64"/>
+      <c r="C74" s="52" t="s">
         <v>57</v>
       </c>
       <c r="D74" s="30" t="s">
@@ -3697,9 +3697,9 @@
       </c>
     </row>
     <row r="75" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A75" s="56"/>
-      <c r="B75" s="68"/>
-      <c r="C75" s="58"/>
+      <c r="A75" s="66"/>
+      <c r="B75" s="64"/>
+      <c r="C75" s="53"/>
       <c r="D75" s="9" t="s">
         <v>97</v>
       </c>
@@ -3722,9 +3722,9 @@
       </c>
     </row>
     <row r="76" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A76" s="56"/>
-      <c r="B76" s="68"/>
-      <c r="C76" s="71" t="s">
+      <c r="A76" s="66"/>
+      <c r="B76" s="64"/>
+      <c r="C76" s="57" t="s">
         <v>51</v>
       </c>
       <c r="D76" s="19" t="s">
@@ -3745,9 +3745,9 @@
       <c r="M76" s="43"/>
     </row>
     <row r="77" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A77" s="56"/>
-      <c r="B77" s="68"/>
-      <c r="C77" s="72"/>
+      <c r="A77" s="66"/>
+      <c r="B77" s="64"/>
+      <c r="C77" s="58"/>
       <c r="D77" s="19" t="s">
         <v>53</v>
       </c>
@@ -3766,9 +3766,9 @@
       <c r="M77" s="43"/>
     </row>
     <row r="78" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A78" s="56"/>
-      <c r="B78" s="68"/>
-      <c r="C78" s="72"/>
+      <c r="A78" s="66"/>
+      <c r="B78" s="64"/>
+      <c r="C78" s="58"/>
       <c r="D78" s="19" t="s">
         <v>54</v>
       </c>
@@ -3787,9 +3787,9 @@
       <c r="M78" s="43"/>
     </row>
     <row r="79" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A79" s="56"/>
-      <c r="B79" s="68"/>
-      <c r="C79" s="72"/>
+      <c r="A79" s="66"/>
+      <c r="B79" s="64"/>
+      <c r="C79" s="58"/>
       <c r="D79" s="19" t="s">
         <v>55</v>
       </c>
@@ -3808,9 +3808,9 @@
       <c r="M79" s="43"/>
     </row>
     <row r="80" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A80" s="56"/>
-      <c r="B80" s="68"/>
-      <c r="C80" s="73"/>
+      <c r="A80" s="66"/>
+      <c r="B80" s="64"/>
+      <c r="C80" s="59"/>
       <c r="D80" s="19" t="s">
         <v>56</v>
       </c>
@@ -3829,11 +3829,11 @@
       <c r="M80" s="43"/>
     </row>
     <row r="81" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A81" s="56"/>
-      <c r="B81" s="52" t="s">
+      <c r="A81" s="66"/>
+      <c r="B81" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="C81" s="74" t="s">
+      <c r="C81" s="60" t="s">
         <v>75</v>
       </c>
       <c r="D81" s="15" t="s">
@@ -3854,9 +3854,9 @@
       <c r="M81" s="43"/>
     </row>
     <row r="82" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A82" s="56"/>
-      <c r="B82" s="53"/>
-      <c r="C82" s="75"/>
+      <c r="A82" s="66"/>
+      <c r="B82" s="73"/>
+      <c r="C82" s="61"/>
       <c r="D82" s="15" t="s">
         <v>59</v>
       </c>
@@ -3875,9 +3875,9 @@
       <c r="M82" s="43"/>
     </row>
     <row r="83" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A83" s="56"/>
-      <c r="B83" s="53"/>
-      <c r="C83" s="75"/>
+      <c r="A83" s="66"/>
+      <c r="B83" s="73"/>
+      <c r="C83" s="61"/>
       <c r="D83" s="15" t="s">
         <v>55</v>
       </c>
@@ -3894,9 +3894,9 @@
       <c r="M83" s="43"/>
     </row>
     <row r="84" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A84" s="56"/>
-      <c r="B84" s="53"/>
-      <c r="C84" s="75"/>
+      <c r="A84" s="66"/>
+      <c r="B84" s="73"/>
+      <c r="C84" s="61"/>
       <c r="D84" s="15" t="s">
         <v>60</v>
       </c>
@@ -3913,12 +3913,12 @@
       <c r="M84" s="43"/>
     </row>
     <row r="85" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A85" s="56"/>
-      <c r="B85" s="53"/>
-      <c r="C85" s="63" t="s">
+      <c r="A85" s="66"/>
+      <c r="B85" s="73"/>
+      <c r="C85" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="D85" s="57" t="s">
+      <c r="D85" s="52" t="s">
         <v>61</v>
       </c>
       <c r="E85" s="9" t="s">
@@ -3942,11 +3942,11 @@
       </c>
     </row>
     <row r="86" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A86" s="56"/>
-      <c r="B86" s="53"/>
-      <c r="C86" s="63"/>
-      <c r="D86" s="62"/>
-      <c r="E86" s="57" t="s">
+      <c r="A86" s="66"/>
+      <c r="B86" s="73"/>
+      <c r="C86" s="54"/>
+      <c r="D86" s="56"/>
+      <c r="E86" s="52" t="s">
         <v>29</v>
       </c>
       <c r="F86" s="9" t="s">
@@ -3967,11 +3967,11 @@
       </c>
     </row>
     <row r="87" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A87" s="56"/>
-      <c r="B87" s="53"/>
-      <c r="C87" s="63"/>
-      <c r="D87" s="62"/>
-      <c r="E87" s="58"/>
+      <c r="A87" s="66"/>
+      <c r="B87" s="73"/>
+      <c r="C87" s="54"/>
+      <c r="D87" s="56"/>
+      <c r="E87" s="53"/>
       <c r="F87" s="9" t="s">
         <v>12</v>
       </c>
@@ -3990,10 +3990,10 @@
       </c>
     </row>
     <row r="88" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A88" s="56"/>
-      <c r="B88" s="53"/>
-      <c r="C88" s="63"/>
-      <c r="D88" s="62"/>
+      <c r="A88" s="66"/>
+      <c r="B88" s="73"/>
+      <c r="C88" s="54"/>
+      <c r="D88" s="56"/>
       <c r="E88" s="9" t="s">
         <v>13</v>
       </c>
@@ -4013,10 +4013,10 @@
       </c>
     </row>
     <row r="89" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A89" s="56"/>
-      <c r="B89" s="53"/>
-      <c r="C89" s="63"/>
-      <c r="D89" s="62"/>
+      <c r="A89" s="66"/>
+      <c r="B89" s="73"/>
+      <c r="C89" s="54"/>
+      <c r="D89" s="56"/>
       <c r="E89" s="9" t="s">
         <v>106</v>
       </c>
@@ -4036,10 +4036,10 @@
       </c>
     </row>
     <row r="90" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A90" s="56"/>
-      <c r="B90" s="53"/>
-      <c r="C90" s="63"/>
-      <c r="D90" s="62"/>
+      <c r="A90" s="66"/>
+      <c r="B90" s="73"/>
+      <c r="C90" s="54"/>
+      <c r="D90" s="56"/>
       <c r="E90" s="9" t="s">
         <v>107</v>
       </c>
@@ -4059,10 +4059,10 @@
       </c>
     </row>
     <row r="91" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A91" s="56"/>
-      <c r="B91" s="53"/>
-      <c r="C91" s="63"/>
-      <c r="D91" s="62"/>
+      <c r="A91" s="66"/>
+      <c r="B91" s="73"/>
+      <c r="C91" s="54"/>
+      <c r="D91" s="56"/>
       <c r="E91" s="16" t="s">
         <v>120</v>
       </c>
@@ -4082,11 +4082,11 @@
       </c>
     </row>
     <row r="92" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A92" s="56"/>
-      <c r="B92" s="53"/>
-      <c r="C92" s="63"/>
-      <c r="D92" s="62"/>
-      <c r="E92" s="57" t="s">
+      <c r="A92" s="66"/>
+      <c r="B92" s="73"/>
+      <c r="C92" s="54"/>
+      <c r="D92" s="56"/>
+      <c r="E92" s="52" t="s">
         <v>63</v>
       </c>
       <c r="F92" s="9" t="s">
@@ -4107,11 +4107,11 @@
       </c>
     </row>
     <row r="93" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A93" s="56"/>
-      <c r="B93" s="53"/>
-      <c r="C93" s="63"/>
-      <c r="D93" s="62"/>
-      <c r="E93" s="62"/>
+      <c r="A93" s="66"/>
+      <c r="B93" s="73"/>
+      <c r="C93" s="54"/>
+      <c r="D93" s="56"/>
+      <c r="E93" s="56"/>
       <c r="F93" s="9" t="s">
         <v>101</v>
       </c>
@@ -4130,11 +4130,11 @@
       </c>
     </row>
     <row r="94" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A94" s="56"/>
-      <c r="B94" s="53"/>
-      <c r="C94" s="63"/>
-      <c r="D94" s="62"/>
-      <c r="E94" s="58"/>
+      <c r="A94" s="66"/>
+      <c r="B94" s="73"/>
+      <c r="C94" s="54"/>
+      <c r="D94" s="56"/>
+      <c r="E94" s="53"/>
       <c r="F94" s="9" t="s">
         <v>102</v>
       </c>
@@ -4153,10 +4153,10 @@
       </c>
     </row>
     <row r="95" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A95" s="56"/>
-      <c r="B95" s="53"/>
-      <c r="C95" s="63"/>
-      <c r="D95" s="59" t="s">
+      <c r="A95" s="66"/>
+      <c r="B95" s="73"/>
+      <c r="C95" s="54"/>
+      <c r="D95" s="55" t="s">
         <v>108</v>
       </c>
       <c r="E95" s="9" t="s">
@@ -4178,10 +4178,10 @@
       </c>
     </row>
     <row r="96" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A96" s="56"/>
-      <c r="B96" s="53"/>
-      <c r="C96" s="63"/>
-      <c r="D96" s="59"/>
+      <c r="A96" s="66"/>
+      <c r="B96" s="73"/>
+      <c r="C96" s="54"/>
+      <c r="D96" s="55"/>
       <c r="E96" s="9" t="s">
         <v>48</v>
       </c>
@@ -4203,10 +4203,10 @@
       </c>
     </row>
     <row r="97" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A97" s="56"/>
-      <c r="B97" s="53"/>
-      <c r="C97" s="63"/>
-      <c r="D97" s="57" t="s">
+      <c r="A97" s="66"/>
+      <c r="B97" s="73"/>
+      <c r="C97" s="54"/>
+      <c r="D97" s="52" t="s">
         <v>121</v>
       </c>
       <c r="E97" s="9" t="s">
@@ -4230,11 +4230,11 @@
       </c>
     </row>
     <row r="98" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A98" s="56"/>
-      <c r="B98" s="53"/>
-      <c r="C98" s="63"/>
-      <c r="D98" s="62"/>
-      <c r="E98" s="57" t="s">
+      <c r="A98" s="66"/>
+      <c r="B98" s="73"/>
+      <c r="C98" s="54"/>
+      <c r="D98" s="56"/>
+      <c r="E98" s="52" t="s">
         <v>29</v>
       </c>
       <c r="F98" s="9" t="s">
@@ -4255,11 +4255,11 @@
       </c>
     </row>
     <row r="99" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A99" s="56"/>
-      <c r="B99" s="53"/>
-      <c r="C99" s="63"/>
-      <c r="D99" s="62"/>
-      <c r="E99" s="58"/>
+      <c r="A99" s="66"/>
+      <c r="B99" s="73"/>
+      <c r="C99" s="54"/>
+      <c r="D99" s="56"/>
+      <c r="E99" s="53"/>
       <c r="F99" s="9" t="s">
         <v>12</v>
       </c>
@@ -4278,10 +4278,10 @@
       </c>
     </row>
     <row r="100" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A100" s="56"/>
-      <c r="B100" s="53"/>
-      <c r="C100" s="63"/>
-      <c r="D100" s="58"/>
+      <c r="A100" s="66"/>
+      <c r="B100" s="73"/>
+      <c r="C100" s="54"/>
+      <c r="D100" s="53"/>
       <c r="E100" s="9" t="s">
         <v>13</v>
       </c>
@@ -4312,7 +4312,7 @@
       <c r="K101" s="35"/>
     </row>
     <row r="102" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A102" s="54" t="s">
+      <c r="A102" s="62" t="s">
         <v>70</v>
       </c>
       <c r="B102" s="18" t="s">
@@ -4337,7 +4337,7 @@
       </c>
     </row>
     <row r="103" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A103" s="54"/>
+      <c r="A103" s="62"/>
       <c r="B103" s="18" t="s">
         <v>17</v>
       </c>
@@ -4360,7 +4360,7 @@
       </c>
     </row>
     <row r="104" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A104" s="54"/>
+      <c r="A104" s="62"/>
       <c r="B104" s="18" t="s">
         <v>18</v>
       </c>
@@ -4383,11 +4383,11 @@
       </c>
     </row>
     <row r="105" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="54"/>
-      <c r="B105" s="52" t="s">
+      <c r="A105" s="62"/>
+      <c r="B105" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="C105" s="57" t="s">
+      <c r="C105" s="52" t="s">
         <v>33</v>
       </c>
       <c r="D105" s="9" t="s">
@@ -4406,15 +4406,17 @@
       <c r="K105" s="35">
         <v>1</v>
       </c>
-      <c r="L105" s="10"/>
+      <c r="L105" s="10">
+        <v>0.6</v>
+      </c>
       <c r="M105" s="9" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="106" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A106" s="54"/>
-      <c r="B106" s="53"/>
-      <c r="C106" s="62"/>
+      <c r="A106" s="62"/>
+      <c r="B106" s="73"/>
+      <c r="C106" s="56"/>
       <c r="D106" s="49" t="s">
         <v>41</v>
       </c>
@@ -4437,10 +4439,10 @@
       </c>
     </row>
     <row r="107" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A107" s="54"/>
-      <c r="B107" s="53"/>
-      <c r="C107" s="58"/>
-      <c r="D107" s="51"/>
+      <c r="A107" s="62"/>
+      <c r="B107" s="73"/>
+      <c r="C107" s="53"/>
+      <c r="D107" s="50"/>
       <c r="E107" s="9" t="s">
         <v>43</v>
       </c>
@@ -4460,9 +4462,9 @@
       </c>
     </row>
     <row r="108" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A108" s="54"/>
-      <c r="B108" s="53"/>
-      <c r="C108" s="57" t="s">
+      <c r="A108" s="62"/>
+      <c r="B108" s="73"/>
+      <c r="C108" s="52" t="s">
         <v>45</v>
       </c>
       <c r="D108" s="9" t="s">
@@ -4487,9 +4489,9 @@
       </c>
     </row>
     <row r="109" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A109" s="54"/>
-      <c r="B109" s="53"/>
-      <c r="C109" s="62"/>
+      <c r="A109" s="62"/>
+      <c r="B109" s="73"/>
+      <c r="C109" s="56"/>
       <c r="D109" s="49" t="s">
         <v>41</v>
       </c>
@@ -4512,10 +4514,10 @@
       </c>
     </row>
     <row r="110" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A110" s="54"/>
-      <c r="B110" s="53"/>
-      <c r="C110" s="62"/>
-      <c r="D110" s="50"/>
+      <c r="A110" s="62"/>
+      <c r="B110" s="73"/>
+      <c r="C110" s="56"/>
+      <c r="D110" s="71"/>
       <c r="E110" s="9" t="s">
         <v>43</v>
       </c>
@@ -4535,10 +4537,10 @@
       </c>
     </row>
     <row r="111" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A111" s="54"/>
-      <c r="B111" s="53"/>
-      <c r="C111" s="58"/>
-      <c r="D111" s="51"/>
+      <c r="A111" s="62"/>
+      <c r="B111" s="73"/>
+      <c r="C111" s="53"/>
+      <c r="D111" s="50"/>
       <c r="E111" s="9" t="s">
         <v>47</v>
       </c>
@@ -4558,9 +4560,9 @@
       </c>
     </row>
     <row r="112" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A112" s="54"/>
-      <c r="B112" s="53"/>
-      <c r="C112" s="63" t="s">
+      <c r="A112" s="62"/>
+      <c r="B112" s="73"/>
+      <c r="C112" s="54" t="s">
         <v>72</v>
       </c>
       <c r="D112" s="9" t="s">
@@ -4577,15 +4579,17 @@
       <c r="K112" s="35">
         <v>1</v>
       </c>
-      <c r="L112" s="10"/>
+      <c r="L112" s="10">
+        <v>1</v>
+      </c>
       <c r="M112" s="9" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="113" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A113" s="54"/>
-      <c r="B113" s="53"/>
-      <c r="C113" s="59"/>
+      <c r="A113" s="62"/>
+      <c r="B113" s="73"/>
+      <c r="C113" s="55"/>
       <c r="D113" s="9" t="s">
         <v>64</v>
       </c>
@@ -4600,14 +4604,16 @@
       <c r="K113" s="35">
         <v>1</v>
       </c>
-      <c r="L113" s="10"/>
+      <c r="L113" s="10">
+        <v>1</v>
+      </c>
       <c r="M113" s="9" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="114" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A114" s="54"/>
-      <c r="B114" s="53"/>
+      <c r="A114" s="62"/>
+      <c r="B114" s="73"/>
       <c r="C114" s="9" t="s">
         <v>93</v>
       </c>
@@ -4623,17 +4629,19 @@
       <c r="K114" s="35">
         <v>1</v>
       </c>
-      <c r="L114" s="10"/>
+      <c r="L114" s="10">
+        <v>1</v>
+      </c>
       <c r="M114" s="9" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="115" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A115" s="54"/>
-      <c r="B115" s="52" t="s">
+      <c r="A115" s="62"/>
+      <c r="B115" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="C115" s="57" t="s">
+      <c r="C115" s="52" t="s">
         <v>65</v>
       </c>
       <c r="D115" s="21" t="s">
@@ -4652,16 +4660,18 @@
       <c r="K115" s="35">
         <v>1</v>
       </c>
-      <c r="L115" s="10"/>
+      <c r="L115" s="10">
+        <v>1</v>
+      </c>
       <c r="M115" s="9" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="116" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A116" s="54"/>
-      <c r="B116" s="52"/>
-      <c r="C116" s="62"/>
-      <c r="D116" s="60" t="s">
+      <c r="A116" s="62"/>
+      <c r="B116" s="72"/>
+      <c r="C116" s="56"/>
+      <c r="D116" s="74" t="s">
         <v>29</v>
       </c>
       <c r="E116" s="9" t="s">
@@ -4685,10 +4695,10 @@
       </c>
     </row>
     <row r="117" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A117" s="54"/>
-      <c r="B117" s="52"/>
-      <c r="C117" s="62"/>
-      <c r="D117" s="61"/>
+      <c r="A117" s="62"/>
+      <c r="B117" s="72"/>
+      <c r="C117" s="56"/>
+      <c r="D117" s="75"/>
       <c r="E117" s="9" t="s">
         <v>12</v>
       </c>
@@ -4710,9 +4720,9 @@
       </c>
     </row>
     <row r="118" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A118" s="54"/>
-      <c r="B118" s="52"/>
-      <c r="C118" s="62"/>
+      <c r="A118" s="62"/>
+      <c r="B118" s="72"/>
+      <c r="C118" s="56"/>
       <c r="D118" s="21" t="s">
         <v>13</v>
       </c>
@@ -4735,9 +4745,9 @@
       </c>
     </row>
     <row r="119" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A119" s="54"/>
-      <c r="B119" s="52"/>
-      <c r="C119" s="62"/>
+      <c r="A119" s="62"/>
+      <c r="B119" s="72"/>
+      <c r="C119" s="56"/>
       <c r="D119" s="21" t="s">
         <v>25</v>
       </c>
@@ -4760,9 +4770,9 @@
       </c>
     </row>
     <row r="120" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A120" s="54"/>
-      <c r="B120" s="52"/>
-      <c r="C120" s="62"/>
+      <c r="A120" s="62"/>
+      <c r="B120" s="72"/>
+      <c r="C120" s="56"/>
       <c r="D120" s="21" t="s">
         <v>24</v>
       </c>
@@ -4777,15 +4787,17 @@
       <c r="K120" s="35">
         <v>1</v>
       </c>
-      <c r="L120" s="10"/>
+      <c r="L120" s="10">
+        <v>1</v>
+      </c>
       <c r="M120" s="9" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="121" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A121" s="54"/>
-      <c r="B121" s="52"/>
-      <c r="C121" s="58"/>
+      <c r="A121" s="62"/>
+      <c r="B121" s="72"/>
+      <c r="C121" s="53"/>
       <c r="D121" s="21" t="s">
         <v>26</v>
       </c>
@@ -4800,15 +4812,17 @@
       <c r="K121" s="35">
         <v>1</v>
       </c>
-      <c r="L121" s="10"/>
+      <c r="L121" s="10">
+        <v>1</v>
+      </c>
       <c r="M121" s="9" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="122" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A122" s="54"/>
-      <c r="B122" s="53"/>
-      <c r="C122" s="57" t="s">
+      <c r="A122" s="62"/>
+      <c r="B122" s="73"/>
+      <c r="C122" s="52" t="s">
         <v>103</v>
       </c>
       <c r="D122" s="21" t="s">
@@ -4827,16 +4841,18 @@
       <c r="K122" s="35">
         <v>1</v>
       </c>
-      <c r="L122" s="10"/>
+      <c r="L122" s="10">
+        <v>1</v>
+      </c>
       <c r="M122" s="9" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="123" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A123" s="54"/>
-      <c r="B123" s="53"/>
-      <c r="C123" s="62"/>
-      <c r="D123" s="60" t="s">
+      <c r="A123" s="62"/>
+      <c r="B123" s="73"/>
+      <c r="C123" s="56"/>
+      <c r="D123" s="74" t="s">
         <v>29</v>
       </c>
       <c r="E123" s="9" t="s">
@@ -4860,10 +4876,10 @@
       </c>
     </row>
     <row r="124" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A124" s="54"/>
-      <c r="B124" s="53"/>
-      <c r="C124" s="62"/>
-      <c r="D124" s="61"/>
+      <c r="A124" s="62"/>
+      <c r="B124" s="73"/>
+      <c r="C124" s="56"/>
+      <c r="D124" s="75"/>
       <c r="E124" s="9" t="s">
         <v>12</v>
       </c>
@@ -4885,9 +4901,9 @@
       </c>
     </row>
     <row r="125" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A125" s="54"/>
-      <c r="B125" s="53"/>
-      <c r="C125" s="58"/>
+      <c r="A125" s="62"/>
+      <c r="B125" s="73"/>
+      <c r="C125" s="53"/>
       <c r="D125" s="21" t="s">
         <v>13</v>
       </c>
@@ -4910,8 +4926,8 @@
       </c>
     </row>
     <row r="126" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A126" s="54"/>
-      <c r="B126" s="53"/>
+      <c r="A126" s="62"/>
+      <c r="B126" s="73"/>
       <c r="C126" s="37" t="s">
         <v>66</v>
       </c>
@@ -4931,8 +4947,8 @@
       <c r="M126" s="9"/>
     </row>
     <row r="127" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A127" s="54"/>
-      <c r="B127" s="53"/>
+      <c r="A127" s="62"/>
+      <c r="B127" s="73"/>
       <c r="C127" s="37" t="s">
         <v>67</v>
       </c>
@@ -4952,8 +4968,8 @@
       <c r="M127" s="9"/>
     </row>
     <row r="128" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A128" s="54"/>
-      <c r="B128" s="53"/>
+      <c r="A128" s="62"/>
+      <c r="B128" s="73"/>
       <c r="C128" s="37" t="s">
         <v>68</v>
       </c>
@@ -4973,8 +4989,8 @@
       <c r="M128" s="9"/>
     </row>
     <row r="129" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A129" s="54"/>
-      <c r="B129" s="53"/>
+      <c r="A129" s="62"/>
+      <c r="B129" s="73"/>
       <c r="C129" s="37" t="s">
         <v>69</v>
       </c>
@@ -5017,17 +5033,29 @@
     <protectedRange sqref="L102:L129 L57:L100 L2:L5 L8:L55" name="区域3"/>
   </protectedRanges>
   <mergeCells count="50">
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="N60:N64"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="C85:C100"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="D97:D100"/>
-    <mergeCell ref="D85:D94"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="C76:C80"/>
-    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="D109:D111"/>
+    <mergeCell ref="B115:B129"/>
+    <mergeCell ref="A102:A129"/>
+    <mergeCell ref="B105:B114"/>
+    <mergeCell ref="B81:B100"/>
+    <mergeCell ref="A57:A100"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="C115:C121"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="C108:C111"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="C39:C40"/>
     <mergeCell ref="A8:A55"/>
     <mergeCell ref="C69:C71"/>
     <mergeCell ref="B60:B80"/>
@@ -5044,29 +5072,17 @@
     <mergeCell ref="B25:B33"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="B19:B24"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B47"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D109:D111"/>
-    <mergeCell ref="B115:B129"/>
-    <mergeCell ref="A102:A129"/>
-    <mergeCell ref="B105:B114"/>
-    <mergeCell ref="B81:B100"/>
-    <mergeCell ref="A57:A100"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="C115:C121"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="C108:C111"/>
-    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="N60:N64"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="C85:C100"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="D97:D100"/>
+    <mergeCell ref="D85:D94"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="C76:C80"/>
+    <mergeCell ref="C81:C84"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="L2:L5 L102:L129 L66:L100 L48:L51 L43:L44 L25:L37 L8:L14">

--- a/doc/开发计划V0.1.xlsx
+++ b/doc/开发计划V0.1.xlsx
@@ -1642,8 +1642,8 @@
   <dimension ref="A1:N132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L105" sqref="L105"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q113" sqref="Q113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -4407,7 +4407,7 @@
         <v>1</v>
       </c>
       <c r="L105" s="10">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="M105" s="9" t="s">
         <v>110</v>
@@ -4481,7 +4481,7 @@
       <c r="I108" s="9"/>
       <c r="J108" s="33"/>
       <c r="K108" s="35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L108" s="10"/>
       <c r="M108" s="9" t="s">

--- a/doc/开发计划V0.1.xlsx
+++ b/doc/开发计划V0.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hsd\hsd-servers\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDE\IdeaProjects\hsd-servers\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="137">
   <si>
     <t>开始时间</t>
   </si>
@@ -503,10 +503,6 @@
   </si>
   <si>
     <t>分页,列表,详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张文俊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -787,7 +783,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -931,30 +927,75 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -969,48 +1010,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1642,8 +1641,8 @@
   <dimension ref="A1:N132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q113" sqref="Q113"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1713,7 +1712,7 @@
       <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="56" t="s">
         <v>78</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -1734,7 +1733,7 @@
       <c r="M3" s="9"/>
     </row>
     <row r="4" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="66"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="12" t="s">
         <v>81</v>
       </c>
@@ -1753,7 +1752,7 @@
       <c r="M4" s="9"/>
     </row>
     <row r="5" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="66"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="12" t="s">
         <v>79</v>
       </c>
@@ -1772,7 +1771,7 @@
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="66"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="12"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1789,7 +1788,7 @@
       <c r="M6" s="9"/>
     </row>
     <row r="7" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="67"/>
+      <c r="A7" s="70"/>
       <c r="B7" s="12"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1806,7 +1805,7 @@
       <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="55" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="14" t="s">
@@ -1828,7 +1827,7 @@
       <c r="M8" s="48"/>
     </row>
     <row r="9" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="62"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="14" t="s">
         <v>17</v>
       </c>
@@ -1849,7 +1848,7 @@
       <c r="M9" s="48"/>
     </row>
     <row r="10" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="62"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="14" t="s">
         <v>18</v>
       </c>
@@ -1878,15 +1877,15 @@
       </c>
     </row>
     <row r="11" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="62"/>
-      <c r="B11" s="68" t="s">
+      <c r="A11" s="55"/>
+      <c r="B11" s="65" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E11" s="22" t="s">
         <v>123</v>
@@ -1913,8 +1912,8 @@
       </c>
     </row>
     <row r="12" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A12" s="62"/>
-      <c r="B12" s="69"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="66"/>
       <c r="C12" s="9" t="s">
         <v>10</v>
       </c>
@@ -1944,8 +1943,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="62"/>
-      <c r="B13" s="69"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="66"/>
       <c r="C13" s="9" t="s">
         <v>9</v>
       </c>
@@ -1973,8 +1972,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="62"/>
-      <c r="B14" s="70"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="67"/>
       <c r="C14" s="9" t="s">
         <v>27</v>
       </c>
@@ -2004,9 +2003,9 @@
       </c>
     </row>
     <row r="15" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="62"/>
-      <c r="B15" s="68" t="s">
-        <v>127</v>
+      <c r="A15" s="55"/>
+      <c r="B15" s="65" t="s">
+        <v>126</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>5</v>
@@ -2037,9 +2036,9 @@
       </c>
     </row>
     <row r="16" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="62"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="52" t="s">
+      <c r="A16" s="55"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="58" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="9" t="s">
@@ -2068,9 +2067,9 @@
       </c>
     </row>
     <row r="17" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="62"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="53"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="59"/>
       <c r="D17" s="9" t="s">
         <v>12</v>
       </c>
@@ -2097,8 +2096,8 @@
       </c>
     </row>
     <row r="18" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="62"/>
-      <c r="B18" s="70"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="67"/>
       <c r="C18" s="9" t="s">
         <v>13</v>
       </c>
@@ -2126,9 +2125,9 @@
       </c>
     </row>
     <row r="19" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="62"/>
-      <c r="B19" s="68" t="s">
-        <v>134</v>
+      <c r="A19" s="55"/>
+      <c r="B19" s="65" t="s">
+        <v>133</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>5</v>
@@ -2159,9 +2158,9 @@
       </c>
     </row>
     <row r="20" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="62"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="52" t="s">
+      <c r="A20" s="55"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="58" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="9" t="s">
@@ -2190,9 +2189,9 @@
       </c>
     </row>
     <row r="21" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="62"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="53"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="59"/>
       <c r="D21" s="9" t="s">
         <v>12</v>
       </c>
@@ -2219,8 +2218,8 @@
       </c>
     </row>
     <row r="22" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="62"/>
-      <c r="B22" s="69"/>
+      <c r="A22" s="55"/>
+      <c r="B22" s="66"/>
       <c r="C22" s="9" t="s">
         <v>13</v>
       </c>
@@ -2248,10 +2247,10 @@
       </c>
     </row>
     <row r="23" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="62"/>
-      <c r="B23" s="69"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="66"/>
       <c r="C23" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
@@ -2277,10 +2276,10 @@
       </c>
     </row>
     <row r="24" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="62"/>
-      <c r="B24" s="70"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="67"/>
       <c r="C24" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -2306,9 +2305,9 @@
       </c>
     </row>
     <row r="25" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="62"/>
-      <c r="B25" s="68" t="s">
-        <v>135</v>
+      <c r="A25" s="55"/>
+      <c r="B25" s="65" t="s">
+        <v>134</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>5</v>
@@ -2339,9 +2338,9 @@
       </c>
     </row>
     <row r="26" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="62"/>
-      <c r="B26" s="69"/>
-      <c r="C26" s="52" t="s">
+      <c r="A26" s="55"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="58" t="s">
         <v>29</v>
       </c>
       <c r="D26" s="9" t="s">
@@ -2370,9 +2369,9 @@
       </c>
     </row>
     <row r="27" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="62"/>
-      <c r="B27" s="69"/>
-      <c r="C27" s="53"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="59"/>
       <c r="D27" s="9" t="s">
         <v>12</v>
       </c>
@@ -2399,8 +2398,8 @@
       </c>
     </row>
     <row r="28" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="62"/>
-      <c r="B28" s="69"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="66"/>
       <c r="C28" s="9" t="s">
         <v>13</v>
       </c>
@@ -2428,8 +2427,8 @@
       </c>
     </row>
     <row r="29" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="62"/>
-      <c r="B29" s="69"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="66"/>
       <c r="C29" s="9" t="s">
         <v>25</v>
       </c>
@@ -2457,8 +2456,8 @@
       </c>
     </row>
     <row r="30" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="62"/>
-      <c r="B30" s="69"/>
+      <c r="A30" s="55"/>
+      <c r="B30" s="66"/>
       <c r="C30" s="9" t="s">
         <v>24</v>
       </c>
@@ -2486,8 +2485,8 @@
       </c>
     </row>
     <row r="31" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="62"/>
-      <c r="B31" s="69"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="66"/>
       <c r="C31" s="9" t="s">
         <v>26</v>
       </c>
@@ -2515,8 +2514,8 @@
       </c>
     </row>
     <row r="32" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="62"/>
-      <c r="B32" s="69"/>
+      <c r="A32" s="55"/>
+      <c r="B32" s="66"/>
       <c r="C32" s="9" t="s">
         <v>20</v>
       </c>
@@ -2544,8 +2543,8 @@
       </c>
     </row>
     <row r="33" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="62"/>
-      <c r="B33" s="70"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="67"/>
       <c r="C33" s="9" t="s">
         <v>21</v>
       </c>
@@ -2573,9 +2572,9 @@
       </c>
     </row>
     <row r="34" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="62"/>
-      <c r="B34" s="68" t="s">
-        <v>128</v>
+      <c r="A34" s="55"/>
+      <c r="B34" s="65" t="s">
+        <v>127</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>5</v>
@@ -2606,9 +2605,9 @@
       </c>
     </row>
     <row r="35" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="62"/>
-      <c r="B35" s="69"/>
-      <c r="C35" s="52" t="s">
+      <c r="A35" s="55"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="58" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="9" t="s">
@@ -2637,9 +2636,9 @@
       </c>
     </row>
     <row r="36" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="62"/>
-      <c r="B36" s="69"/>
-      <c r="C36" s="53"/>
+      <c r="A36" s="55"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="59"/>
       <c r="D36" s="9" t="s">
         <v>12</v>
       </c>
@@ -2666,8 +2665,8 @@
       </c>
     </row>
     <row r="37" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="62"/>
-      <c r="B37" s="70"/>
+      <c r="A37" s="55"/>
+      <c r="B37" s="67"/>
       <c r="C37" s="9" t="s">
         <v>13</v>
       </c>
@@ -2695,9 +2694,9 @@
       </c>
     </row>
     <row r="38" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="62"/>
-      <c r="B38" s="68" t="s">
-        <v>129</v>
+      <c r="A38" s="55"/>
+      <c r="B38" s="65" t="s">
+        <v>128</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>5</v>
@@ -2728,9 +2727,9 @@
       </c>
     </row>
     <row r="39" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="62"/>
-      <c r="B39" s="69"/>
-      <c r="C39" s="52" t="s">
+      <c r="A39" s="55"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="58" t="s">
         <v>29</v>
       </c>
       <c r="D39" s="9" t="s">
@@ -2759,9 +2758,9 @@
       </c>
     </row>
     <row r="40" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="62"/>
-      <c r="B40" s="69"/>
-      <c r="C40" s="53"/>
+      <c r="A40" s="55"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="59"/>
       <c r="D40" s="9" t="s">
         <v>12</v>
       </c>
@@ -2788,8 +2787,8 @@
       </c>
     </row>
     <row r="41" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="62"/>
-      <c r="B41" s="70"/>
+      <c r="A41" s="55"/>
+      <c r="B41" s="67"/>
       <c r="C41" s="9" t="s">
         <v>13</v>
       </c>
@@ -2817,9 +2816,9 @@
       </c>
     </row>
     <row r="42" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="62"/>
-      <c r="B42" s="68" t="s">
-        <v>133</v>
+      <c r="A42" s="55"/>
+      <c r="B42" s="65" t="s">
+        <v>132</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>5</v>
@@ -2850,9 +2849,9 @@
       </c>
     </row>
     <row r="43" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="62"/>
-      <c r="B43" s="69"/>
-      <c r="C43" s="52" t="s">
+      <c r="A43" s="55"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="58" t="s">
         <v>29</v>
       </c>
       <c r="D43" s="9" t="s">
@@ -2881,9 +2880,9 @@
       </c>
     </row>
     <row r="44" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="62"/>
-      <c r="B44" s="69"/>
-      <c r="C44" s="53"/>
+      <c r="A44" s="55"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="59"/>
       <c r="D44" s="9" t="s">
         <v>12</v>
       </c>
@@ -2910,8 +2909,8 @@
       </c>
     </row>
     <row r="45" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="62"/>
-      <c r="B45" s="69"/>
+      <c r="A45" s="55"/>
+      <c r="B45" s="66"/>
       <c r="C45" s="9" t="s">
         <v>13</v>
       </c>
@@ -2939,8 +2938,8 @@
       </c>
     </row>
     <row r="46" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="62"/>
-      <c r="B46" s="69"/>
+      <c r="A46" s="55"/>
+      <c r="B46" s="66"/>
       <c r="C46" s="16" t="s">
         <v>22</v>
       </c>
@@ -2968,8 +2967,8 @@
       </c>
     </row>
     <row r="47" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="62"/>
-      <c r="B47" s="70"/>
+      <c r="A47" s="55"/>
+      <c r="B47" s="67"/>
       <c r="C47" s="16" t="s">
         <v>23</v>
       </c>
@@ -2997,9 +2996,9 @@
       </c>
     </row>
     <row r="48" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="62"/>
-      <c r="B48" s="68" t="s">
-        <v>130</v>
+      <c r="A48" s="55"/>
+      <c r="B48" s="65" t="s">
+        <v>129</v>
       </c>
       <c r="C48" s="16" t="s">
         <v>86</v>
@@ -3030,8 +3029,8 @@
       </c>
     </row>
     <row r="49" spans="1:14" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="62"/>
-      <c r="B49" s="69"/>
+      <c r="A49" s="55"/>
+      <c r="B49" s="66"/>
       <c r="C49" s="17"/>
       <c r="D49" s="9" t="s">
         <v>6</v>
@@ -3061,8 +3060,8 @@
       </c>
     </row>
     <row r="50" spans="1:14" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="62"/>
-      <c r="B50" s="69"/>
+      <c r="A50" s="55"/>
+      <c r="B50" s="66"/>
       <c r="C50" s="16" t="s">
         <v>16</v>
       </c>
@@ -3092,8 +3091,8 @@
       </c>
     </row>
     <row r="51" spans="1:14" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="62"/>
-      <c r="B51" s="70"/>
+      <c r="A51" s="55"/>
+      <c r="B51" s="67"/>
       <c r="C51" s="17"/>
       <c r="D51" s="9" t="s">
         <v>6</v>
@@ -3121,9 +3120,9 @@
       </c>
     </row>
     <row r="52" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A52" s="62"/>
-      <c r="B52" s="68" t="s">
-        <v>136</v>
+      <c r="A52" s="55"/>
+      <c r="B52" s="65" t="s">
+        <v>135</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>5</v>
@@ -3154,9 +3153,9 @@
       </c>
     </row>
     <row r="53" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A53" s="62"/>
-      <c r="B53" s="69"/>
-      <c r="C53" s="52" t="s">
+      <c r="A53" s="55"/>
+      <c r="B53" s="66"/>
+      <c r="C53" s="58" t="s">
         <v>29</v>
       </c>
       <c r="D53" s="9" t="s">
@@ -3185,9 +3184,9 @@
       </c>
     </row>
     <row r="54" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A54" s="62"/>
-      <c r="B54" s="69"/>
-      <c r="C54" s="53"/>
+      <c r="A54" s="55"/>
+      <c r="B54" s="66"/>
+      <c r="C54" s="59"/>
       <c r="D54" s="9" t="s">
         <v>12</v>
       </c>
@@ -3214,8 +3213,8 @@
       </c>
     </row>
     <row r="55" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A55" s="62"/>
-      <c r="B55" s="70"/>
+      <c r="A55" s="55"/>
+      <c r="B55" s="67"/>
       <c r="C55" s="9" t="s">
         <v>13</v>
       </c>
@@ -3256,7 +3255,7 @@
       </c>
     </row>
     <row r="57" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="65" t="s">
+      <c r="A57" s="56" t="s">
         <v>77</v>
       </c>
       <c r="B57" s="18" t="s">
@@ -3281,7 +3280,7 @@
       <c r="M57" s="9"/>
     </row>
     <row r="58" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="66"/>
+      <c r="A58" s="57"/>
       <c r="B58" s="18" t="s">
         <v>17</v>
       </c>
@@ -3302,7 +3301,7 @@
       <c r="M58" s="9"/>
     </row>
     <row r="59" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="66"/>
+      <c r="A59" s="57"/>
       <c r="B59" s="18" t="s">
         <v>18</v>
       </c>
@@ -3323,11 +3322,11 @@
       <c r="M59" s="9"/>
     </row>
     <row r="60" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="66"/>
-      <c r="B60" s="63" t="s">
+      <c r="A60" s="57"/>
+      <c r="B60" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="C60" s="55" t="s">
+      <c r="C60" s="60" t="s">
         <v>40</v>
       </c>
       <c r="D60" s="9" t="s">
@@ -3347,16 +3346,16 @@
         <v>1</v>
       </c>
       <c r="L60" s="10"/>
-      <c r="M60" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="N60" s="51"/>
+      <c r="M60" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="N60" s="71"/>
     </row>
     <row r="61" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="66"/>
-      <c r="B61" s="64"/>
-      <c r="C61" s="55"/>
-      <c r="D61" s="52" t="s">
+      <c r="A61" s="57"/>
+      <c r="B61" s="69"/>
+      <c r="C61" s="60"/>
+      <c r="D61" s="58" t="s">
         <v>90</v>
       </c>
       <c r="E61" s="9" t="s">
@@ -3373,16 +3372,14 @@
         <v>2</v>
       </c>
       <c r="L61" s="10"/>
-      <c r="M61" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="N61" s="51"/>
+      <c r="M61" s="49"/>
+      <c r="N61" s="71"/>
     </row>
     <row r="62" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="66"/>
-      <c r="B62" s="64"/>
-      <c r="C62" s="55"/>
-      <c r="D62" s="53"/>
+      <c r="A62" s="57"/>
+      <c r="B62" s="69"/>
+      <c r="C62" s="60"/>
+      <c r="D62" s="59"/>
       <c r="E62" s="9" t="s">
         <v>88</v>
       </c>
@@ -3397,15 +3394,13 @@
         <v>2</v>
       </c>
       <c r="L62" s="10"/>
-      <c r="M62" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="N62" s="51"/>
+      <c r="M62" s="49"/>
+      <c r="N62" s="71"/>
     </row>
     <row r="63" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="66"/>
-      <c r="B63" s="64"/>
-      <c r="C63" s="52" t="s">
+      <c r="A63" s="57"/>
+      <c r="B63" s="69"/>
+      <c r="C63" s="58" t="s">
         <v>84</v>
       </c>
       <c r="D63" s="9" t="s">
@@ -3425,15 +3420,15 @@
         <v>1</v>
       </c>
       <c r="L63" s="10"/>
-      <c r="M63" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="N63" s="51"/>
+      <c r="M63" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="N63" s="71"/>
     </row>
     <row r="64" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="66"/>
-      <c r="B64" s="64"/>
-      <c r="C64" s="53"/>
+      <c r="A64" s="57"/>
+      <c r="B64" s="69"/>
+      <c r="C64" s="59"/>
       <c r="D64" s="9" t="s">
         <v>82</v>
       </c>
@@ -3451,14 +3446,14 @@
         <v>1</v>
       </c>
       <c r="L64" s="10"/>
-      <c r="M64" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="N64" s="51"/>
+      <c r="M64" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="N64" s="71"/>
     </row>
     <row r="65" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="66"/>
-      <c r="B65" s="64"/>
+      <c r="A65" s="57"/>
+      <c r="B65" s="69"/>
       <c r="C65" s="17" t="s">
         <v>83</v>
       </c>
@@ -3475,14 +3470,14 @@
         <v>1</v>
       </c>
       <c r="L65" s="10"/>
-      <c r="M65" s="43" t="s">
-        <v>125</v>
+      <c r="M65" s="49" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A66" s="66"/>
-      <c r="B66" s="64"/>
-      <c r="C66" s="55" t="s">
+      <c r="A66" s="57"/>
+      <c r="B66" s="69"/>
+      <c r="C66" s="60" t="s">
         <v>45</v>
       </c>
       <c r="D66" s="9" t="s">
@@ -3500,15 +3495,15 @@
         <v>1</v>
       </c>
       <c r="L66" s="10"/>
-      <c r="M66" s="43" t="s">
-        <v>125</v>
+      <c r="M66" s="49" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A67" s="66"/>
-      <c r="B67" s="64"/>
-      <c r="C67" s="55"/>
-      <c r="D67" s="55" t="s">
+      <c r="A67" s="57"/>
+      <c r="B67" s="69"/>
+      <c r="C67" s="60"/>
+      <c r="D67" s="60" t="s">
         <v>91</v>
       </c>
       <c r="E67" s="9" t="s">
@@ -3525,15 +3520,13 @@
         <v>2</v>
       </c>
       <c r="L67" s="10"/>
-      <c r="M67" s="43" t="s">
-        <v>125</v>
-      </c>
+      <c r="M67" s="49"/>
     </row>
     <row r="68" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A68" s="66"/>
-      <c r="B68" s="64"/>
-      <c r="C68" s="55"/>
-      <c r="D68" s="55"/>
+      <c r="A68" s="57"/>
+      <c r="B68" s="69"/>
+      <c r="C68" s="60"/>
+      <c r="D68" s="60"/>
       <c r="E68" s="9" t="s">
         <v>71</v>
       </c>
@@ -3548,14 +3541,12 @@
         <v>2</v>
       </c>
       <c r="L68" s="10"/>
-      <c r="M68" s="43" t="s">
-        <v>125</v>
-      </c>
+      <c r="M68" s="49"/>
     </row>
     <row r="69" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A69" s="66"/>
-      <c r="B69" s="64"/>
-      <c r="C69" s="52" t="s">
+      <c r="A69" s="57"/>
+      <c r="B69" s="69"/>
+      <c r="C69" s="58" t="s">
         <v>36</v>
       </c>
       <c r="D69" s="9" t="s">
@@ -3573,14 +3564,14 @@
         <v>1</v>
       </c>
       <c r="L69" s="10"/>
-      <c r="M69" s="43" t="s">
-        <v>125</v>
+      <c r="M69" s="49" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A70" s="66"/>
-      <c r="B70" s="64"/>
-      <c r="C70" s="56"/>
+      <c r="A70" s="57"/>
+      <c r="B70" s="69"/>
+      <c r="C70" s="63"/>
       <c r="D70" s="9" t="s">
         <v>38</v>
       </c>
@@ -3596,14 +3587,14 @@
         <v>1</v>
       </c>
       <c r="L70" s="10"/>
-      <c r="M70" s="43" t="s">
-        <v>125</v>
+      <c r="M70" s="49" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A71" s="66"/>
-      <c r="B71" s="64"/>
-      <c r="C71" s="53"/>
+      <c r="A71" s="57"/>
+      <c r="B71" s="69"/>
+      <c r="C71" s="59"/>
       <c r="D71" s="9" t="s">
         <v>39</v>
       </c>
@@ -3621,13 +3612,11 @@
         <v>2</v>
       </c>
       <c r="L71" s="10"/>
-      <c r="M71" s="43" t="s">
-        <v>125</v>
-      </c>
+      <c r="M71" s="49"/>
     </row>
     <row r="72" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A72" s="66"/>
-      <c r="B72" s="64"/>
+      <c r="A72" s="57"/>
+      <c r="B72" s="69"/>
       <c r="C72" s="9" t="s">
         <v>49</v>
       </c>
@@ -3644,13 +3633,13 @@
         <v>1</v>
       </c>
       <c r="L72" s="10"/>
-      <c r="M72" s="43" t="s">
-        <v>125</v>
+      <c r="M72" s="49" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="73" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A73" s="66"/>
-      <c r="B73" s="64"/>
+      <c r="A73" s="57"/>
+      <c r="B73" s="69"/>
       <c r="C73" s="9" t="s">
         <v>50</v>
       </c>
@@ -3667,14 +3656,14 @@
         <v>1</v>
       </c>
       <c r="L73" s="10"/>
-      <c r="M73" s="43" t="s">
-        <v>125</v>
+      <c r="M73" s="49" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="74" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A74" s="66"/>
-      <c r="B74" s="64"/>
-      <c r="C74" s="52" t="s">
+      <c r="A74" s="57"/>
+      <c r="B74" s="69"/>
+      <c r="C74" s="58" t="s">
         <v>57</v>
       </c>
       <c r="D74" s="30" t="s">
@@ -3692,14 +3681,14 @@
         <v>1</v>
       </c>
       <c r="L74" s="10"/>
-      <c r="M74" s="43" t="s">
-        <v>125</v>
+      <c r="M74" s="49" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="75" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A75" s="66"/>
-      <c r="B75" s="64"/>
-      <c r="C75" s="53"/>
+      <c r="A75" s="57"/>
+      <c r="B75" s="69"/>
+      <c r="C75" s="59"/>
       <c r="D75" s="9" t="s">
         <v>97</v>
       </c>
@@ -3717,14 +3706,14 @@
         <v>1</v>
       </c>
       <c r="L75" s="10"/>
-      <c r="M75" s="43" t="s">
-        <v>125</v>
+      <c r="M75" s="49" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="76" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A76" s="66"/>
-      <c r="B76" s="64"/>
-      <c r="C76" s="57" t="s">
+      <c r="A76" s="57"/>
+      <c r="B76" s="69"/>
+      <c r="C76" s="72" t="s">
         <v>51</v>
       </c>
       <c r="D76" s="19" t="s">
@@ -3745,9 +3734,9 @@
       <c r="M76" s="43"/>
     </row>
     <row r="77" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A77" s="66"/>
-      <c r="B77" s="64"/>
-      <c r="C77" s="58"/>
+      <c r="A77" s="57"/>
+      <c r="B77" s="69"/>
+      <c r="C77" s="73"/>
       <c r="D77" s="19" t="s">
         <v>53</v>
       </c>
@@ -3766,9 +3755,9 @@
       <c r="M77" s="43"/>
     </row>
     <row r="78" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A78" s="66"/>
-      <c r="B78" s="64"/>
-      <c r="C78" s="58"/>
+      <c r="A78" s="57"/>
+      <c r="B78" s="69"/>
+      <c r="C78" s="73"/>
       <c r="D78" s="19" t="s">
         <v>54</v>
       </c>
@@ -3787,9 +3776,9 @@
       <c r="M78" s="43"/>
     </row>
     <row r="79" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A79" s="66"/>
-      <c r="B79" s="64"/>
-      <c r="C79" s="58"/>
+      <c r="A79" s="57"/>
+      <c r="B79" s="69"/>
+      <c r="C79" s="73"/>
       <c r="D79" s="19" t="s">
         <v>55</v>
       </c>
@@ -3808,9 +3797,9 @@
       <c r="M79" s="43"/>
     </row>
     <row r="80" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A80" s="66"/>
-      <c r="B80" s="64"/>
-      <c r="C80" s="59"/>
+      <c r="A80" s="57"/>
+      <c r="B80" s="69"/>
+      <c r="C80" s="74"/>
       <c r="D80" s="19" t="s">
         <v>56</v>
       </c>
@@ -3829,11 +3818,11 @@
       <c r="M80" s="43"/>
     </row>
     <row r="81" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A81" s="66"/>
-      <c r="B81" s="72" t="s">
+      <c r="A81" s="57"/>
+      <c r="B81" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="C81" s="60" t="s">
+      <c r="C81" s="75" t="s">
         <v>75</v>
       </c>
       <c r="D81" s="15" t="s">
@@ -3854,9 +3843,9 @@
       <c r="M81" s="43"/>
     </row>
     <row r="82" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A82" s="66"/>
-      <c r="B82" s="73"/>
-      <c r="C82" s="61"/>
+      <c r="A82" s="57"/>
+      <c r="B82" s="54"/>
+      <c r="C82" s="76"/>
       <c r="D82" s="15" t="s">
         <v>59</v>
       </c>
@@ -3875,9 +3864,9 @@
       <c r="M82" s="43"/>
     </row>
     <row r="83" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A83" s="66"/>
-      <c r="B83" s="73"/>
-      <c r="C83" s="61"/>
+      <c r="A83" s="57"/>
+      <c r="B83" s="54"/>
+      <c r="C83" s="76"/>
       <c r="D83" s="15" t="s">
         <v>55</v>
       </c>
@@ -3894,9 +3883,9 @@
       <c r="M83" s="43"/>
     </row>
     <row r="84" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A84" s="66"/>
-      <c r="B84" s="73"/>
-      <c r="C84" s="61"/>
+      <c r="A84" s="57"/>
+      <c r="B84" s="54"/>
+      <c r="C84" s="76"/>
       <c r="D84" s="15" t="s">
         <v>60</v>
       </c>
@@ -3913,12 +3902,12 @@
       <c r="M84" s="43"/>
     </row>
     <row r="85" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A85" s="66"/>
-      <c r="B85" s="73"/>
-      <c r="C85" s="54" t="s">
+      <c r="A85" s="57"/>
+      <c r="B85" s="54"/>
+      <c r="C85" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="D85" s="52" t="s">
+      <c r="D85" s="58" t="s">
         <v>61</v>
       </c>
       <c r="E85" s="9" t="s">
@@ -3937,16 +3926,16 @@
         <v>1</v>
       </c>
       <c r="L85" s="10"/>
-      <c r="M85" s="43" t="s">
-        <v>125</v>
+      <c r="M85" s="49" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="86" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A86" s="66"/>
-      <c r="B86" s="73"/>
-      <c r="C86" s="54"/>
-      <c r="D86" s="56"/>
-      <c r="E86" s="52" t="s">
+      <c r="A86" s="57"/>
+      <c r="B86" s="54"/>
+      <c r="C86" s="64"/>
+      <c r="D86" s="63"/>
+      <c r="E86" s="58" t="s">
         <v>29</v>
       </c>
       <c r="F86" s="9" t="s">
@@ -3962,16 +3951,16 @@
         <v>1</v>
       </c>
       <c r="L86" s="10"/>
-      <c r="M86" s="43" t="s">
-        <v>125</v>
+      <c r="M86" s="49" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="87" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A87" s="66"/>
-      <c r="B87" s="73"/>
-      <c r="C87" s="54"/>
-      <c r="D87" s="56"/>
-      <c r="E87" s="53"/>
+      <c r="A87" s="57"/>
+      <c r="B87" s="54"/>
+      <c r="C87" s="64"/>
+      <c r="D87" s="63"/>
+      <c r="E87" s="59"/>
       <c r="F87" s="9" t="s">
         <v>12</v>
       </c>
@@ -3985,15 +3974,15 @@
         <v>1</v>
       </c>
       <c r="L87" s="10"/>
-      <c r="M87" s="43" t="s">
-        <v>125</v>
+      <c r="M87" s="49" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="88" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A88" s="66"/>
-      <c r="B88" s="73"/>
-      <c r="C88" s="54"/>
-      <c r="D88" s="56"/>
+      <c r="A88" s="57"/>
+      <c r="B88" s="54"/>
+      <c r="C88" s="64"/>
+      <c r="D88" s="63"/>
       <c r="E88" s="9" t="s">
         <v>13</v>
       </c>
@@ -4008,15 +3997,15 @@
         <v>1</v>
       </c>
       <c r="L88" s="10"/>
-      <c r="M88" s="43" t="s">
-        <v>125</v>
+      <c r="M88" s="49" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="89" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A89" s="66"/>
-      <c r="B89" s="73"/>
-      <c r="C89" s="54"/>
-      <c r="D89" s="56"/>
+      <c r="A89" s="57"/>
+      <c r="B89" s="54"/>
+      <c r="C89" s="64"/>
+      <c r="D89" s="63"/>
       <c r="E89" s="9" t="s">
         <v>106</v>
       </c>
@@ -4031,15 +4020,15 @@
         <v>1</v>
       </c>
       <c r="L89" s="10"/>
-      <c r="M89" s="43" t="s">
-        <v>125</v>
+      <c r="M89" s="49" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="90" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A90" s="66"/>
-      <c r="B90" s="73"/>
-      <c r="C90" s="54"/>
-      <c r="D90" s="56"/>
+      <c r="A90" s="57"/>
+      <c r="B90" s="54"/>
+      <c r="C90" s="64"/>
+      <c r="D90" s="63"/>
       <c r="E90" s="9" t="s">
         <v>107</v>
       </c>
@@ -4054,15 +4043,13 @@
         <v>2</v>
       </c>
       <c r="L90" s="10"/>
-      <c r="M90" s="43" t="s">
-        <v>125</v>
-      </c>
+      <c r="M90" s="49"/>
     </row>
     <row r="91" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A91" s="66"/>
-      <c r="B91" s="73"/>
-      <c r="C91" s="54"/>
-      <c r="D91" s="56"/>
+      <c r="A91" s="57"/>
+      <c r="B91" s="54"/>
+      <c r="C91" s="64"/>
+      <c r="D91" s="63"/>
       <c r="E91" s="16" t="s">
         <v>120</v>
       </c>
@@ -4077,16 +4064,16 @@
         <v>1</v>
       </c>
       <c r="L91" s="10"/>
-      <c r="M91" s="43" t="s">
-        <v>125</v>
+      <c r="M91" s="49" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="92" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A92" s="66"/>
-      <c r="B92" s="73"/>
-      <c r="C92" s="54"/>
-      <c r="D92" s="56"/>
-      <c r="E92" s="52" t="s">
+      <c r="A92" s="57"/>
+      <c r="B92" s="54"/>
+      <c r="C92" s="64"/>
+      <c r="D92" s="63"/>
+      <c r="E92" s="58" t="s">
         <v>63</v>
       </c>
       <c r="F92" s="9" t="s">
@@ -4102,16 +4089,16 @@
         <v>1</v>
       </c>
       <c r="L92" s="10"/>
-      <c r="M92" s="43" t="s">
-        <v>125</v>
+      <c r="M92" s="49" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="93" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A93" s="66"/>
-      <c r="B93" s="73"/>
-      <c r="C93" s="54"/>
-      <c r="D93" s="56"/>
-      <c r="E93" s="56"/>
+      <c r="A93" s="57"/>
+      <c r="B93" s="54"/>
+      <c r="C93" s="64"/>
+      <c r="D93" s="63"/>
+      <c r="E93" s="63"/>
       <c r="F93" s="9" t="s">
         <v>101</v>
       </c>
@@ -4125,16 +4112,16 @@
         <v>1</v>
       </c>
       <c r="L93" s="10"/>
-      <c r="M93" s="43" t="s">
-        <v>125</v>
+      <c r="M93" s="49" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="94" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A94" s="66"/>
-      <c r="B94" s="73"/>
-      <c r="C94" s="54"/>
-      <c r="D94" s="56"/>
-      <c r="E94" s="53"/>
+      <c r="A94" s="57"/>
+      <c r="B94" s="54"/>
+      <c r="C94" s="64"/>
+      <c r="D94" s="63"/>
+      <c r="E94" s="59"/>
       <c r="F94" s="9" t="s">
         <v>102</v>
       </c>
@@ -4148,15 +4135,15 @@
         <v>1</v>
       </c>
       <c r="L94" s="10"/>
-      <c r="M94" s="43" t="s">
-        <v>125</v>
+      <c r="M94" s="49" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="95" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A95" s="66"/>
-      <c r="B95" s="73"/>
-      <c r="C95" s="54"/>
-      <c r="D95" s="55" t="s">
+      <c r="A95" s="57"/>
+      <c r="B95" s="54"/>
+      <c r="C95" s="64"/>
+      <c r="D95" s="60" t="s">
         <v>108</v>
       </c>
       <c r="E95" s="9" t="s">
@@ -4173,15 +4160,13 @@
         <v>2</v>
       </c>
       <c r="L95" s="10"/>
-      <c r="M95" s="43" t="s">
-        <v>125</v>
-      </c>
+      <c r="M95" s="49"/>
     </row>
     <row r="96" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A96" s="66"/>
-      <c r="B96" s="73"/>
-      <c r="C96" s="54"/>
-      <c r="D96" s="55"/>
+      <c r="A96" s="57"/>
+      <c r="B96" s="54"/>
+      <c r="C96" s="64"/>
+      <c r="D96" s="60"/>
       <c r="E96" s="9" t="s">
         <v>48</v>
       </c>
@@ -4189,7 +4174,7 @@
         <v>99</v>
       </c>
       <c r="G96" s="44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H96" s="9"/>
       <c r="I96" s="9"/>
@@ -4198,15 +4183,13 @@
         <v>2</v>
       </c>
       <c r="L96" s="10"/>
-      <c r="M96" s="43" t="s">
-        <v>125</v>
-      </c>
+      <c r="M96" s="49"/>
     </row>
     <row r="97" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A97" s="66"/>
-      <c r="B97" s="73"/>
-      <c r="C97" s="54"/>
-      <c r="D97" s="52" t="s">
+      <c r="A97" s="57"/>
+      <c r="B97" s="54"/>
+      <c r="C97" s="64"/>
+      <c r="D97" s="58" t="s">
         <v>121</v>
       </c>
       <c r="E97" s="9" t="s">
@@ -4225,16 +4208,16 @@
         <v>1</v>
       </c>
       <c r="L97" s="10"/>
-      <c r="M97" s="43" t="s">
-        <v>125</v>
+      <c r="M97" s="49" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="98" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A98" s="66"/>
-      <c r="B98" s="73"/>
-      <c r="C98" s="54"/>
-      <c r="D98" s="56"/>
-      <c r="E98" s="52" t="s">
+      <c r="A98" s="57"/>
+      <c r="B98" s="54"/>
+      <c r="C98" s="64"/>
+      <c r="D98" s="63"/>
+      <c r="E98" s="58" t="s">
         <v>29</v>
       </c>
       <c r="F98" s="9" t="s">
@@ -4250,16 +4233,16 @@
         <v>1</v>
       </c>
       <c r="L98" s="10"/>
-      <c r="M98" s="43" t="s">
-        <v>125</v>
+      <c r="M98" s="49" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="99" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A99" s="66"/>
-      <c r="B99" s="73"/>
-      <c r="C99" s="54"/>
-      <c r="D99" s="56"/>
-      <c r="E99" s="53"/>
+      <c r="A99" s="57"/>
+      <c r="B99" s="54"/>
+      <c r="C99" s="64"/>
+      <c r="D99" s="63"/>
+      <c r="E99" s="59"/>
       <c r="F99" s="9" t="s">
         <v>12</v>
       </c>
@@ -4273,15 +4256,15 @@
         <v>1</v>
       </c>
       <c r="L99" s="10"/>
-      <c r="M99" s="43" t="s">
-        <v>125</v>
+      <c r="M99" s="49" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="100" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A100" s="66"/>
-      <c r="B100" s="73"/>
-      <c r="C100" s="54"/>
-      <c r="D100" s="53"/>
+      <c r="A100" s="57"/>
+      <c r="B100" s="54"/>
+      <c r="C100" s="64"/>
+      <c r="D100" s="59"/>
       <c r="E100" s="9" t="s">
         <v>13</v>
       </c>
@@ -4296,8 +4279,8 @@
         <v>1</v>
       </c>
       <c r="L100" s="10"/>
-      <c r="M100" s="43" t="s">
-        <v>125</v>
+      <c r="M100" s="49" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="101" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
@@ -4312,7 +4295,7 @@
       <c r="K101" s="35"/>
     </row>
     <row r="102" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A102" s="62" t="s">
+      <c r="A102" s="55" t="s">
         <v>70</v>
       </c>
       <c r="B102" s="18" t="s">
@@ -4337,7 +4320,7 @@
       </c>
     </row>
     <row r="103" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A103" s="62"/>
+      <c r="A103" s="55"/>
       <c r="B103" s="18" t="s">
         <v>17</v>
       </c>
@@ -4360,7 +4343,7 @@
       </c>
     </row>
     <row r="104" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A104" s="62"/>
+      <c r="A104" s="55"/>
       <c r="B104" s="18" t="s">
         <v>18</v>
       </c>
@@ -4383,11 +4366,11 @@
       </c>
     </row>
     <row r="105" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="62"/>
-      <c r="B105" s="72" t="s">
+      <c r="A105" s="55"/>
+      <c r="B105" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="C105" s="52" t="s">
+      <c r="C105" s="58" t="s">
         <v>33</v>
       </c>
       <c r="D105" s="9" t="s">
@@ -4414,10 +4397,10 @@
       </c>
     </row>
     <row r="106" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A106" s="62"/>
-      <c r="B106" s="73"/>
-      <c r="C106" s="56"/>
-      <c r="D106" s="49" t="s">
+      <c r="A106" s="55"/>
+      <c r="B106" s="54"/>
+      <c r="C106" s="63"/>
+      <c r="D106" s="50" t="s">
         <v>41</v>
       </c>
       <c r="E106" s="9" t="s">
@@ -4439,10 +4422,10 @@
       </c>
     </row>
     <row r="107" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A107" s="62"/>
-      <c r="B107" s="73"/>
-      <c r="C107" s="53"/>
-      <c r="D107" s="50"/>
+      <c r="A107" s="55"/>
+      <c r="B107" s="54"/>
+      <c r="C107" s="59"/>
+      <c r="D107" s="52"/>
       <c r="E107" s="9" t="s">
         <v>43</v>
       </c>
@@ -4462,9 +4445,9 @@
       </c>
     </row>
     <row r="108" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A108" s="62"/>
-      <c r="B108" s="73"/>
-      <c r="C108" s="52" t="s">
+      <c r="A108" s="55"/>
+      <c r="B108" s="54"/>
+      <c r="C108" s="58" t="s">
         <v>45</v>
       </c>
       <c r="D108" s="9" t="s">
@@ -4489,10 +4472,10 @@
       </c>
     </row>
     <row r="109" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A109" s="62"/>
-      <c r="B109" s="73"/>
-      <c r="C109" s="56"/>
-      <c r="D109" s="49" t="s">
+      <c r="A109" s="55"/>
+      <c r="B109" s="54"/>
+      <c r="C109" s="63"/>
+      <c r="D109" s="50" t="s">
         <v>41</v>
       </c>
       <c r="E109" s="9" t="s">
@@ -4514,10 +4497,10 @@
       </c>
     </row>
     <row r="110" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A110" s="62"/>
-      <c r="B110" s="73"/>
-      <c r="C110" s="56"/>
-      <c r="D110" s="71"/>
+      <c r="A110" s="55"/>
+      <c r="B110" s="54"/>
+      <c r="C110" s="63"/>
+      <c r="D110" s="51"/>
       <c r="E110" s="9" t="s">
         <v>43</v>
       </c>
@@ -4537,10 +4520,10 @@
       </c>
     </row>
     <row r="111" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A111" s="62"/>
-      <c r="B111" s="73"/>
-      <c r="C111" s="53"/>
-      <c r="D111" s="50"/>
+      <c r="A111" s="55"/>
+      <c r="B111" s="54"/>
+      <c r="C111" s="59"/>
+      <c r="D111" s="52"/>
       <c r="E111" s="9" t="s">
         <v>47</v>
       </c>
@@ -4560,9 +4543,9 @@
       </c>
     </row>
     <row r="112" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A112" s="62"/>
-      <c r="B112" s="73"/>
-      <c r="C112" s="54" t="s">
+      <c r="A112" s="55"/>
+      <c r="B112" s="54"/>
+      <c r="C112" s="64" t="s">
         <v>72</v>
       </c>
       <c r="D112" s="9" t="s">
@@ -4587,9 +4570,9 @@
       </c>
     </row>
     <row r="113" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A113" s="62"/>
-      <c r="B113" s="73"/>
-      <c r="C113" s="55"/>
+      <c r="A113" s="55"/>
+      <c r="B113" s="54"/>
+      <c r="C113" s="60"/>
       <c r="D113" s="9" t="s">
         <v>64</v>
       </c>
@@ -4612,8 +4595,8 @@
       </c>
     </row>
     <row r="114" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A114" s="62"/>
-      <c r="B114" s="73"/>
+      <c r="A114" s="55"/>
+      <c r="B114" s="54"/>
       <c r="C114" s="9" t="s">
         <v>93</v>
       </c>
@@ -4637,11 +4620,11 @@
       </c>
     </row>
     <row r="115" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A115" s="62"/>
-      <c r="B115" s="72" t="s">
+      <c r="A115" s="55"/>
+      <c r="B115" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="C115" s="52" t="s">
+      <c r="C115" s="58" t="s">
         <v>65</v>
       </c>
       <c r="D115" s="21" t="s">
@@ -4668,10 +4651,10 @@
       </c>
     </row>
     <row r="116" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A116" s="62"/>
-      <c r="B116" s="72"/>
-      <c r="C116" s="56"/>
-      <c r="D116" s="74" t="s">
+      <c r="A116" s="55"/>
+      <c r="B116" s="53"/>
+      <c r="C116" s="63"/>
+      <c r="D116" s="61" t="s">
         <v>29</v>
       </c>
       <c r="E116" s="9" t="s">
@@ -4695,10 +4678,10 @@
       </c>
     </row>
     <row r="117" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A117" s="62"/>
-      <c r="B117" s="72"/>
-      <c r="C117" s="56"/>
-      <c r="D117" s="75"/>
+      <c r="A117" s="55"/>
+      <c r="B117" s="53"/>
+      <c r="C117" s="63"/>
+      <c r="D117" s="62"/>
       <c r="E117" s="9" t="s">
         <v>12</v>
       </c>
@@ -4720,9 +4703,9 @@
       </c>
     </row>
     <row r="118" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A118" s="62"/>
-      <c r="B118" s="72"/>
-      <c r="C118" s="56"/>
+      <c r="A118" s="55"/>
+      <c r="B118" s="53"/>
+      <c r="C118" s="63"/>
       <c r="D118" s="21" t="s">
         <v>13</v>
       </c>
@@ -4745,9 +4728,9 @@
       </c>
     </row>
     <row r="119" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A119" s="62"/>
-      <c r="B119" s="72"/>
-      <c r="C119" s="56"/>
+      <c r="A119" s="55"/>
+      <c r="B119" s="53"/>
+      <c r="C119" s="63"/>
       <c r="D119" s="21" t="s">
         <v>25</v>
       </c>
@@ -4770,9 +4753,9 @@
       </c>
     </row>
     <row r="120" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A120" s="62"/>
-      <c r="B120" s="72"/>
-      <c r="C120" s="56"/>
+      <c r="A120" s="55"/>
+      <c r="B120" s="53"/>
+      <c r="C120" s="63"/>
       <c r="D120" s="21" t="s">
         <v>24</v>
       </c>
@@ -4795,9 +4778,9 @@
       </c>
     </row>
     <row r="121" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A121" s="62"/>
-      <c r="B121" s="72"/>
-      <c r="C121" s="53"/>
+      <c r="A121" s="55"/>
+      <c r="B121" s="53"/>
+      <c r="C121" s="59"/>
       <c r="D121" s="21" t="s">
         <v>26</v>
       </c>
@@ -4820,9 +4803,9 @@
       </c>
     </row>
     <row r="122" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A122" s="62"/>
-      <c r="B122" s="73"/>
-      <c r="C122" s="52" t="s">
+      <c r="A122" s="55"/>
+      <c r="B122" s="54"/>
+      <c r="C122" s="58" t="s">
         <v>103</v>
       </c>
       <c r="D122" s="21" t="s">
@@ -4849,10 +4832,10 @@
       </c>
     </row>
     <row r="123" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A123" s="62"/>
-      <c r="B123" s="73"/>
-      <c r="C123" s="56"/>
-      <c r="D123" s="74" t="s">
+      <c r="A123" s="55"/>
+      <c r="B123" s="54"/>
+      <c r="C123" s="63"/>
+      <c r="D123" s="61" t="s">
         <v>29</v>
       </c>
       <c r="E123" s="9" t="s">
@@ -4876,10 +4859,10 @@
       </c>
     </row>
     <row r="124" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A124" s="62"/>
-      <c r="B124" s="73"/>
-      <c r="C124" s="56"/>
-      <c r="D124" s="75"/>
+      <c r="A124" s="55"/>
+      <c r="B124" s="54"/>
+      <c r="C124" s="63"/>
+      <c r="D124" s="62"/>
       <c r="E124" s="9" t="s">
         <v>12</v>
       </c>
@@ -4901,9 +4884,9 @@
       </c>
     </row>
     <row r="125" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A125" s="62"/>
-      <c r="B125" s="73"/>
-      <c r="C125" s="53"/>
+      <c r="A125" s="55"/>
+      <c r="B125" s="54"/>
+      <c r="C125" s="59"/>
       <c r="D125" s="21" t="s">
         <v>13</v>
       </c>
@@ -4926,8 +4909,8 @@
       </c>
     </row>
     <row r="126" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A126" s="62"/>
-      <c r="B126" s="73"/>
+      <c r="A126" s="55"/>
+      <c r="B126" s="54"/>
       <c r="C126" s="37" t="s">
         <v>66</v>
       </c>
@@ -4947,8 +4930,8 @@
       <c r="M126" s="9"/>
     </row>
     <row r="127" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A127" s="62"/>
-      <c r="B127" s="73"/>
+      <c r="A127" s="55"/>
+      <c r="B127" s="54"/>
       <c r="C127" s="37" t="s">
         <v>67</v>
       </c>
@@ -4968,8 +4951,8 @@
       <c r="M127" s="9"/>
     </row>
     <row r="128" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A128" s="62"/>
-      <c r="B128" s="73"/>
+      <c r="A128" s="55"/>
+      <c r="B128" s="54"/>
       <c r="C128" s="37" t="s">
         <v>68</v>
       </c>
@@ -4989,8 +4972,8 @@
       <c r="M128" s="9"/>
     </row>
     <row r="129" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A129" s="62"/>
-      <c r="B129" s="73"/>
+      <c r="A129" s="55"/>
+      <c r="B129" s="54"/>
       <c r="C129" s="37" t="s">
         <v>69</v>
       </c>
@@ -5033,6 +5016,40 @@
     <protectedRange sqref="L102:L129 L57:L100 L2:L5 L8:L55" name="区域3"/>
   </protectedRanges>
   <mergeCells count="50">
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="N60:N64"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="C85:C100"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="D97:D100"/>
+    <mergeCell ref="D85:D94"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="C76:C80"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="A8:A55"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="B60:B80"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B25:B33"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="C39:C40"/>
     <mergeCell ref="D109:D111"/>
     <mergeCell ref="B115:B129"/>
     <mergeCell ref="A102:A129"/>
@@ -5049,40 +5066,6 @@
     <mergeCell ref="C112:C113"/>
     <mergeCell ref="C108:C111"/>
     <mergeCell ref="C105:C107"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B47"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="A8:A55"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="B60:B80"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B25:B33"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="N60:N64"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="C85:C100"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="D97:D100"/>
-    <mergeCell ref="D85:D94"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="C76:C80"/>
-    <mergeCell ref="C81:C84"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="L2:L5 L102:L129 L66:L100 L48:L51 L43:L44 L25:L37 L8:L14">

--- a/doc/开发计划V0.1.xlsx
+++ b/doc/开发计划V0.1.xlsx
@@ -1015,7 +1015,31 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="42">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1336,8 +1360,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="38"/>
-      <tableStyleElement type="headerRow" dxfId="37"/>
+      <tableStyleElement type="wholeTable" dxfId="41"/>
+      <tableStyleElement type="headerRow" dxfId="40"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1641,8 +1665,8 @@
   <dimension ref="A1:N132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H69" sqref="H69"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D85" sqref="D85:M94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -3919,13 +3943,17 @@
       <c r="G85" s="44">
         <v>1</v>
       </c>
-      <c r="H85" s="9"/>
-      <c r="I85" s="9"/>
+      <c r="H85" s="45">
+        <v>42971</v>
+      </c>
+      <c r="I85" s="45"/>
       <c r="J85" s="33"/>
       <c r="K85" s="35">
         <v>1</v>
       </c>
-      <c r="L85" s="10"/>
+      <c r="L85" s="10">
+        <v>0.5</v>
+      </c>
       <c r="M85" s="49" t="s">
         <v>32</v>
       </c>
@@ -4201,13 +4229,19 @@
       <c r="G97" s="44">
         <v>1</v>
       </c>
-      <c r="H97" s="9"/>
-      <c r="I97" s="9"/>
+      <c r="H97" s="45">
+        <v>42971</v>
+      </c>
+      <c r="I97" s="45">
+        <v>42971</v>
+      </c>
       <c r="J97" s="33"/>
       <c r="K97" s="35">
         <v>1</v>
       </c>
-      <c r="L97" s="10"/>
+      <c r="L97" s="10">
+        <v>1</v>
+      </c>
       <c r="M97" s="49" t="s">
         <v>32</v>
       </c>
@@ -4226,13 +4260,19 @@
       <c r="G98" s="44">
         <v>0.5</v>
       </c>
-      <c r="H98" s="9"/>
-      <c r="I98" s="9"/>
+      <c r="H98" s="45">
+        <v>42971</v>
+      </c>
+      <c r="I98" s="45">
+        <v>42971</v>
+      </c>
       <c r="J98" s="33"/>
       <c r="K98" s="35">
         <v>1</v>
       </c>
-      <c r="L98" s="10"/>
+      <c r="L98" s="10">
+        <v>1</v>
+      </c>
       <c r="M98" s="49" t="s">
         <v>32</v>
       </c>
@@ -4249,13 +4289,19 @@
       <c r="G99" s="44">
         <v>0.5</v>
       </c>
-      <c r="H99" s="9"/>
-      <c r="I99" s="9"/>
+      <c r="H99" s="45">
+        <v>42971</v>
+      </c>
+      <c r="I99" s="45">
+        <v>42971</v>
+      </c>
       <c r="J99" s="33"/>
       <c r="K99" s="35">
         <v>1</v>
       </c>
-      <c r="L99" s="10"/>
+      <c r="L99" s="10">
+        <v>1</v>
+      </c>
       <c r="M99" s="49" t="s">
         <v>32</v>
       </c>
@@ -4272,13 +4318,19 @@
       <c r="G100" s="44">
         <v>0.5</v>
       </c>
-      <c r="H100" s="9"/>
-      <c r="I100" s="9"/>
+      <c r="H100" s="45">
+        <v>42971</v>
+      </c>
+      <c r="I100" s="45">
+        <v>42971</v>
+      </c>
       <c r="J100" s="33"/>
       <c r="K100" s="35">
         <v>1</v>
       </c>
-      <c r="L100" s="10"/>
+      <c r="L100" s="10">
+        <v>1</v>
+      </c>
       <c r="M100" s="49" t="s">
         <v>32</v>
       </c>
@@ -5013,7 +5065,7 @@
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="L102:L129 L57:L100 L2:L5 L8:L55" name="区域3"/>
+    <protectedRange sqref="L102:L129 L2:L5 L8:L55 L57:L100" name="区域3"/>
   </protectedRanges>
   <mergeCells count="50">
     <mergeCell ref="D106:D107"/>
@@ -5068,56 +5120,56 @@
     <mergeCell ref="C105:C107"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="L2:L5 L102:L129 L66:L100 L48:L51 L43:L44 L25:L37 L8:L14">
-    <cfRule type="cellIs" dxfId="36" priority="90" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="L2:L5 L102:L129 L48:L51 L43:L44 L25:L37 L8:L14 L66:L100">
+    <cfRule type="cellIs" dxfId="39" priority="90" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="91" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="91" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="92" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="37" priority="92" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23:L24">
-    <cfRule type="cellIs" dxfId="33" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="60" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="61" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="62" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="34" priority="62" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="duplicateValues" dxfId="30" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L38:L41">
-    <cfRule type="cellIs" dxfId="29" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="56" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="57" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="58" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="30" priority="58" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="duplicateValues" dxfId="26" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L57:L65">
-    <cfRule type="cellIs" dxfId="25" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="46" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="47" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="48" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="26" priority="48" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
@@ -5165,96 +5217,96 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K129">
-    <cfRule type="cellIs" dxfId="22" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="30" stopIfTrue="1" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="31" stopIfTrue="1" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="32" stopIfTrue="1" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="33" stopIfTrue="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="34" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15:L19 L22">
-    <cfRule type="cellIs" dxfId="17" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="19" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="21" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="21" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20:L21">
-    <cfRule type="cellIs" dxfId="14" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="13" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="14" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="15" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="15" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L52:L55">
-    <cfRule type="cellIs" dxfId="11" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="10" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="11" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="12" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L42">
-    <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="7" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="8" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L45">
-    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="6" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L46:L47">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="状态错误" error="请从选项中进行选择。" sqref="L57:L100 L102:L129 L2:L5 L8:L55">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="状态错误" error="请从选项中进行选择。" sqref="L8:L55 L102:L129 L2:L5 L57:L100">
       <formula1>"0%,100%,90%,80%,70%,60%,50%,40%,30%,20%,10%"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J129">

--- a/doc/开发计划V0.1.xlsx
+++ b/doc/开发计划V0.1.xlsx
@@ -260,10 +260,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>客户日志</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>修改密码</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -406,10 +402,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>登录日志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>网签日志</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -427,14 +419,6 @@
   </si>
   <si>
     <t>版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户vs标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户vs黑名单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -486,71 +470,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>客户标签管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+记录网签日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页,列表,详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统域管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能(权限)管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织vs角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织vs用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织机构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据字典管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jwt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户vs标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户vs黑名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>客户vs渠道</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>客户标签管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+记录网签日志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分页,列表,详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1~2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统域管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能(权限)管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日志管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织vs角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织vs用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织机构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据字典管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jwt</t>
+    <t>客户日志</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录日志</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1666,7 +1666,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D85" sqref="D85:M94"/>
+      <selection pane="bottomLeft" activeCell="N92" sqref="N92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1704,10 +1704,10 @@
         <v>1</v>
       </c>
       <c r="J1" s="28" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K1" s="29" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -1737,10 +1737,10 @@
     </row>
     <row r="3" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -1759,7 +1759,7 @@
     <row r="4" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="57"/>
       <c r="B4" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -1778,7 +1778,7 @@
     <row r="5" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="57"/>
       <c r="B5" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -1909,10 +1909,10 @@
         <v>11</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="18">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="18">
@@ -2029,7 +2029,7 @@
     <row r="15" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="55"/>
       <c r="B15" s="65" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>5</v>
@@ -2151,7 +2151,7 @@
     <row r="19" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="55"/>
       <c r="B19" s="65" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>5</v>
@@ -2274,7 +2274,7 @@
       <c r="A23" s="55"/>
       <c r="B23" s="66"/>
       <c r="C23" s="9" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
@@ -2303,7 +2303,7 @@
       <c r="A24" s="55"/>
       <c r="B24" s="67"/>
       <c r="C24" s="9" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -2331,13 +2331,13 @@
     <row r="25" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="55"/>
       <c r="B25" s="65" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
@@ -2598,13 +2598,13 @@
     <row r="34" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="55"/>
       <c r="B34" s="65" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
@@ -2720,13 +2720,13 @@
     <row r="38" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="55"/>
       <c r="B38" s="65" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
@@ -2842,13 +2842,13 @@
     <row r="42" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="55"/>
       <c r="B42" s="65" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
@@ -3022,13 +3022,13 @@
     <row r="48" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="55"/>
       <c r="B48" s="65" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
@@ -3090,7 +3090,7 @@
         <v>16</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
@@ -3146,13 +3146,13 @@
     <row r="52" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A52" s="55"/>
       <c r="B52" s="65" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
@@ -3267,7 +3267,7 @@
     </row>
     <row r="56" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="F56" s="42" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G56" s="24">
         <f>SUM(G9:G54)</f>
@@ -3280,7 +3280,7 @@
     </row>
     <row r="57" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B57" s="18" t="s">
         <v>3</v>
@@ -3348,16 +3348,16 @@
     <row r="60" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="57"/>
       <c r="B60" s="68" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C60" s="60" t="s">
         <v>40</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F60" s="9"/>
       <c r="G60" s="18">
@@ -3380,10 +3380,10 @@
       <c r="B61" s="69"/>
       <c r="C61" s="60"/>
       <c r="D61" s="58" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F61" s="9"/>
       <c r="G61" s="18">
@@ -3405,7 +3405,7 @@
       <c r="C62" s="60"/>
       <c r="D62" s="59"/>
       <c r="E62" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F62" s="9"/>
       <c r="G62" s="18">
@@ -3425,13 +3425,13 @@
       <c r="A63" s="57"/>
       <c r="B63" s="69"/>
       <c r="C63" s="58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>34</v>
       </c>
       <c r="E63" s="32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F63" s="22"/>
       <c r="G63" s="18">
@@ -3454,10 +3454,10 @@
       <c r="B64" s="69"/>
       <c r="C64" s="59"/>
       <c r="D64" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E64" s="32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F64" s="9"/>
       <c r="G64" s="18">
@@ -3479,11 +3479,11 @@
       <c r="A65" s="57"/>
       <c r="B65" s="69"/>
       <c r="C65" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F65" s="9"/>
       <c r="G65" s="18"/>
@@ -3528,10 +3528,10 @@
       <c r="B67" s="69"/>
       <c r="C67" s="60"/>
       <c r="D67" s="60" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F67" s="9"/>
       <c r="G67" s="18">
@@ -3552,7 +3552,7 @@
       <c r="C68" s="60"/>
       <c r="D68" s="60"/>
       <c r="E68" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F68" s="9"/>
       <c r="G68" s="18">
@@ -3623,7 +3623,7 @@
         <v>39</v>
       </c>
       <c r="E71" s="32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F71" s="9"/>
       <c r="G71" s="18">
@@ -3691,7 +3691,7 @@
         <v>57</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E74" s="21"/>
       <c r="F74" s="31"/>
@@ -3714,10 +3714,10 @@
       <c r="B75" s="69"/>
       <c r="C75" s="59"/>
       <c r="D75" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E75" s="32" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F75" s="9"/>
       <c r="G75" s="18">
@@ -3844,10 +3844,10 @@
     <row r="81" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A81" s="57"/>
       <c r="B81" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="C81" s="75" t="s">
         <v>74</v>
-      </c>
-      <c r="C81" s="75" t="s">
-        <v>75</v>
       </c>
       <c r="D81" s="15" t="s">
         <v>58</v>
@@ -3929,7 +3929,7 @@
       <c r="A85" s="57"/>
       <c r="B85" s="54"/>
       <c r="C85" s="64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D85" s="58" t="s">
         <v>61</v>
@@ -3938,7 +3938,7 @@
         <v>5</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G85" s="44">
         <v>1</v>
@@ -4035,7 +4035,7 @@
       <c r="C89" s="64"/>
       <c r="D89" s="63"/>
       <c r="E89" s="9" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="F89" s="9"/>
       <c r="G89" s="44">
@@ -4058,7 +4058,7 @@
       <c r="C90" s="64"/>
       <c r="D90" s="63"/>
       <c r="E90" s="9" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="F90" s="9"/>
       <c r="G90" s="44">
@@ -4079,7 +4079,7 @@
       <c r="C91" s="64"/>
       <c r="D91" s="63"/>
       <c r="E91" s="16" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="F91" s="9"/>
       <c r="G91" s="44">
@@ -4102,10 +4102,10 @@
       <c r="C92" s="64"/>
       <c r="D92" s="63"/>
       <c r="E92" s="58" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="G92" s="44">
         <v>0.5</v>
@@ -4128,7 +4128,7 @@
       <c r="D93" s="63"/>
       <c r="E93" s="63"/>
       <c r="F93" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G93" s="44">
         <v>0.5</v>
@@ -4151,7 +4151,7 @@
       <c r="D94" s="63"/>
       <c r="E94" s="59"/>
       <c r="F94" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G94" s="44">
         <v>0.5</v>
@@ -4172,7 +4172,7 @@
       <c r="B95" s="54"/>
       <c r="C95" s="64"/>
       <c r="D95" s="60" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E95" s="9" t="s">
         <v>62</v>
@@ -4199,10 +4199,10 @@
         <v>48</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G96" s="44" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H96" s="9"/>
       <c r="I96" s="9"/>
@@ -4218,13 +4218,13 @@
       <c r="B97" s="54"/>
       <c r="C97" s="64"/>
       <c r="D97" s="58" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E97" s="9" t="s">
         <v>5</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G97" s="44">
         <v>1</v>
@@ -4337,7 +4337,7 @@
     </row>
     <row r="101" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="F101" s="42" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G101" s="41">
         <f>SUM(G57:G100)</f>
@@ -4348,7 +4348,7 @@
     </row>
     <row r="102" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A102" s="55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B102" s="18" t="s">
         <v>3</v>
@@ -4368,7 +4368,7 @@
       </c>
       <c r="L102" s="10"/>
       <c r="M102" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="103" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
@@ -4391,7 +4391,7 @@
       </c>
       <c r="L103" s="10"/>
       <c r="M103" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="104" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
@@ -4414,13 +4414,13 @@
       </c>
       <c r="L104" s="10"/>
       <c r="M104" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="105" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="55"/>
       <c r="B105" s="53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C105" s="58" t="s">
         <v>33</v>
@@ -4445,7 +4445,7 @@
         <v>1</v>
       </c>
       <c r="M105" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="106" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
@@ -4470,7 +4470,7 @@
       </c>
       <c r="L106" s="10"/>
       <c r="M106" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="107" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
@@ -4493,7 +4493,7 @@
       </c>
       <c r="L107" s="10"/>
       <c r="M107" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
@@ -4520,7 +4520,7 @@
       </c>
       <c r="L108" s="10"/>
       <c r="M108" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="109" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
@@ -4545,7 +4545,7 @@
       </c>
       <c r="L109" s="10"/>
       <c r="M109" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="110" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
@@ -4568,7 +4568,7 @@
       </c>
       <c r="L110" s="10"/>
       <c r="M110" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="111" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
@@ -4591,14 +4591,14 @@
       </c>
       <c r="L111" s="10"/>
       <c r="M111" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="112" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A112" s="55"/>
       <c r="B112" s="54"/>
       <c r="C112" s="64" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D112" s="9" t="s">
         <v>35</v>
@@ -4618,7 +4618,7 @@
         <v>1</v>
       </c>
       <c r="M112" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="113" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
@@ -4626,7 +4626,7 @@
       <c r="B113" s="54"/>
       <c r="C113" s="60"/>
       <c r="D113" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
@@ -4643,14 +4643,14 @@
         <v>1</v>
       </c>
       <c r="M113" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="114" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A114" s="55"/>
       <c r="B114" s="54"/>
       <c r="C114" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
@@ -4668,22 +4668,22 @@
         <v>1</v>
       </c>
       <c r="M114" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="115" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A115" s="55"/>
       <c r="B115" s="53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C115" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D115" s="21" t="s">
         <v>5</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F115" s="9"/>
       <c r="G115" s="46">
@@ -4699,7 +4699,7 @@
         <v>1</v>
       </c>
       <c r="M115" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="116" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
@@ -4726,7 +4726,7 @@
         <v>1</v>
       </c>
       <c r="M116" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="117" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
@@ -4751,7 +4751,7 @@
         <v>1</v>
       </c>
       <c r="M117" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="118" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
@@ -4776,7 +4776,7 @@
         <v>1</v>
       </c>
       <c r="M118" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="119" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
@@ -4801,7 +4801,7 @@
         <v>1</v>
       </c>
       <c r="M119" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="120" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
@@ -4826,7 +4826,7 @@
         <v>1</v>
       </c>
       <c r="M120" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="121" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
@@ -4851,20 +4851,20 @@
         <v>1</v>
       </c>
       <c r="M121" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="122" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A122" s="55"/>
       <c r="B122" s="54"/>
       <c r="C122" s="58" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D122" s="21" t="s">
         <v>5</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F122" s="9"/>
       <c r="G122" s="46">
@@ -4880,7 +4880,7 @@
         <v>1</v>
       </c>
       <c r="M122" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="123" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
@@ -4907,7 +4907,7 @@
         <v>1</v>
       </c>
       <c r="M123" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="124" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
@@ -4932,7 +4932,7 @@
         <v>1</v>
       </c>
       <c r="M124" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="125" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
@@ -4957,14 +4957,14 @@
         <v>1</v>
       </c>
       <c r="M125" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="126" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A126" s="55"/>
       <c r="B126" s="54"/>
       <c r="C126" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D126" s="38"/>
       <c r="E126" s="37"/>
@@ -4985,7 +4985,7 @@
       <c r="A127" s="55"/>
       <c r="B127" s="54"/>
       <c r="C127" s="37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D127" s="38"/>
       <c r="E127" s="37"/>
@@ -5006,7 +5006,7 @@
       <c r="A128" s="55"/>
       <c r="B128" s="54"/>
       <c r="C128" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D128" s="37"/>
       <c r="E128" s="37"/>
@@ -5027,7 +5027,7 @@
       <c r="A129" s="55"/>
       <c r="B129" s="54"/>
       <c r="C129" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D129" s="37"/>
       <c r="E129" s="37"/>
@@ -5046,7 +5046,7 @@
     </row>
     <row r="130" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F130" s="42" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G130" s="41">
         <f>SUM(G102:G129)</f>

--- a/doc/开发计划V0.1.xlsx
+++ b/doc/开发计划V0.1.xlsx
@@ -402,14 +402,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>网签日志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实名认证日志?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>渠道商分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -551,6 +543,14 @@
   </si>
   <si>
     <t>登录日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网签日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实名认证日志?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1666,7 +1666,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N92" sqref="N92"/>
+      <selection pane="bottomLeft" activeCell="S83" sqref="S83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1704,10 +1704,10 @@
         <v>1</v>
       </c>
       <c r="J1" s="28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K1" s="29" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -1909,10 +1909,10 @@
         <v>11</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="18">
@@ -2029,7 +2029,7 @@
     <row r="15" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="55"/>
       <c r="B15" s="65" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>5</v>
@@ -2151,7 +2151,7 @@
     <row r="19" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="55"/>
       <c r="B19" s="65" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>5</v>
@@ -2274,7 +2274,7 @@
       <c r="A23" s="55"/>
       <c r="B23" s="66"/>
       <c r="C23" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
@@ -2303,7 +2303,7 @@
       <c r="A24" s="55"/>
       <c r="B24" s="67"/>
       <c r="C24" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -2331,13 +2331,13 @@
     <row r="25" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="55"/>
       <c r="B25" s="65" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
@@ -2598,13 +2598,13 @@
     <row r="34" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="55"/>
       <c r="B34" s="65" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
@@ -2720,13 +2720,13 @@
     <row r="38" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="55"/>
       <c r="B38" s="65" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
@@ -2842,13 +2842,13 @@
     <row r="42" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="55"/>
       <c r="B42" s="65" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
@@ -3022,13 +3022,13 @@
     <row r="48" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="55"/>
       <c r="B48" s="65" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C48" s="16" t="s">
         <v>85</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
@@ -3090,7 +3090,7 @@
         <v>16</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
@@ -3146,13 +3146,13 @@
     <row r="52" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A52" s="55"/>
       <c r="B52" s="65" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
@@ -3267,7 +3267,7 @@
     </row>
     <row r="56" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="F56" s="42" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G56" s="24">
         <f>SUM(G9:G54)</f>
@@ -3717,7 +3717,7 @@
         <v>96</v>
       </c>
       <c r="E75" s="32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F75" s="9"/>
       <c r="G75" s="18">
@@ -3938,7 +3938,7 @@
         <v>5</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G85" s="44">
         <v>1</v>
@@ -4035,7 +4035,7 @@
       <c r="C89" s="64"/>
       <c r="D89" s="63"/>
       <c r="E89" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F89" s="9"/>
       <c r="G89" s="44">
@@ -4058,7 +4058,7 @@
       <c r="C90" s="64"/>
       <c r="D90" s="63"/>
       <c r="E90" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F90" s="9"/>
       <c r="G90" s="44">
@@ -4079,7 +4079,7 @@
       <c r="C91" s="64"/>
       <c r="D91" s="63"/>
       <c r="E91" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F91" s="9"/>
       <c r="G91" s="44">
@@ -4102,10 +4102,10 @@
       <c r="C92" s="64"/>
       <c r="D92" s="63"/>
       <c r="E92" s="58" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G92" s="44">
         <v>0.5</v>
@@ -4128,7 +4128,7 @@
       <c r="D93" s="63"/>
       <c r="E93" s="63"/>
       <c r="F93" s="9" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="G93" s="44">
         <v>0.5</v>
@@ -4151,7 +4151,7 @@
       <c r="D94" s="63"/>
       <c r="E94" s="59"/>
       <c r="F94" s="9" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="G94" s="44">
         <v>0.5</v>
@@ -4172,7 +4172,7 @@
       <c r="B95" s="54"/>
       <c r="C95" s="64"/>
       <c r="D95" s="60" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E95" s="9" t="s">
         <v>62</v>
@@ -4202,7 +4202,7 @@
         <v>98</v>
       </c>
       <c r="G96" s="44" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H96" s="9"/>
       <c r="I96" s="9"/>
@@ -4218,13 +4218,13 @@
       <c r="B97" s="54"/>
       <c r="C97" s="64"/>
       <c r="D97" s="58" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E97" s="9" t="s">
         <v>5</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G97" s="44">
         <v>1</v>
@@ -4337,7 +4337,7 @@
     </row>
     <row r="101" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="F101" s="42" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G101" s="41">
         <f>SUM(G57:G100)</f>
@@ -4368,7 +4368,7 @@
       </c>
       <c r="L102" s="10"/>
       <c r="M102" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="103" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
@@ -4391,7 +4391,7 @@
       </c>
       <c r="L103" s="10"/>
       <c r="M103" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="104" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
@@ -4414,7 +4414,7 @@
       </c>
       <c r="L104" s="10"/>
       <c r="M104" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="105" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4445,7 +4445,7 @@
         <v>1</v>
       </c>
       <c r="M105" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
@@ -4470,7 +4470,7 @@
       </c>
       <c r="L106" s="10"/>
       <c r="M106" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="107" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
@@ -4493,7 +4493,7 @@
       </c>
       <c r="L107" s="10"/>
       <c r="M107" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="108" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
@@ -4520,7 +4520,7 @@
       </c>
       <c r="L108" s="10"/>
       <c r="M108" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="109" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
@@ -4545,7 +4545,7 @@
       </c>
       <c r="L109" s="10"/>
       <c r="M109" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="110" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
@@ -4568,7 +4568,7 @@
       </c>
       <c r="L110" s="10"/>
       <c r="M110" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="111" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
@@ -4591,7 +4591,7 @@
       </c>
       <c r="L111" s="10"/>
       <c r="M111" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="112" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
@@ -4618,7 +4618,7 @@
         <v>1</v>
       </c>
       <c r="M112" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="113" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
@@ -4643,7 +4643,7 @@
         <v>1</v>
       </c>
       <c r="M113" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="114" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
@@ -4668,7 +4668,7 @@
         <v>1</v>
       </c>
       <c r="M114" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="115" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
@@ -4683,7 +4683,7 @@
         <v>5</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F115" s="9"/>
       <c r="G115" s="46">
@@ -4699,7 +4699,7 @@
         <v>1</v>
       </c>
       <c r="M115" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="116" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
@@ -4726,7 +4726,7 @@
         <v>1</v>
       </c>
       <c r="M116" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="117" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
@@ -4751,7 +4751,7 @@
         <v>1</v>
       </c>
       <c r="M117" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="118" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
@@ -4776,7 +4776,7 @@
         <v>1</v>
       </c>
       <c r="M118" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="119" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
@@ -4801,7 +4801,7 @@
         <v>1</v>
       </c>
       <c r="M119" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="120" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
@@ -4826,7 +4826,7 @@
         <v>1</v>
       </c>
       <c r="M120" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="121" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
@@ -4851,14 +4851,14 @@
         <v>1</v>
       </c>
       <c r="M121" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="122" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A122" s="55"/>
       <c r="B122" s="54"/>
       <c r="C122" s="58" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D122" s="21" t="s">
         <v>5</v>
@@ -4880,7 +4880,7 @@
         <v>1</v>
       </c>
       <c r="M122" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="123" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
@@ -4907,7 +4907,7 @@
         <v>1</v>
       </c>
       <c r="M123" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="124" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
@@ -4932,7 +4932,7 @@
         <v>1</v>
       </c>
       <c r="M124" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="125" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
@@ -4957,7 +4957,7 @@
         <v>1</v>
       </c>
       <c r="M125" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="126" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
@@ -5046,7 +5046,7 @@
     </row>
     <row r="130" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F130" s="42" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G130" s="41">
         <f>SUM(G102:G129)</f>

--- a/doc/开发计划V0.1.xlsx
+++ b/doc/开发计划V0.1.xlsx
@@ -933,113 +933,89 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="39">
     <dxf>
       <fill>
         <patternFill>
@@ -1360,8 +1336,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="41"/>
-      <tableStyleElement type="headerRow" dxfId="40"/>
+      <tableStyleElement type="wholeTable" dxfId="38"/>
+      <tableStyleElement type="headerRow" dxfId="37"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1665,8 +1641,8 @@
   <dimension ref="A1:N132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S83" sqref="S83"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B60" sqref="B60:M80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1736,7 +1712,7 @@
       <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="66" t="s">
         <v>77</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -1757,7 +1733,7 @@
       <c r="M3" s="9"/>
     </row>
     <row r="4" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="57"/>
+      <c r="A4" s="67"/>
       <c r="B4" s="12" t="s">
         <v>80</v>
       </c>
@@ -1776,7 +1752,7 @@
       <c r="M4" s="9"/>
     </row>
     <row r="5" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="57"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="12" t="s">
         <v>78</v>
       </c>
@@ -1795,7 +1771,7 @@
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="57"/>
+      <c r="A6" s="67"/>
       <c r="B6" s="12"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1812,7 +1788,7 @@
       <c r="M6" s="9"/>
     </row>
     <row r="7" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="70"/>
+      <c r="A7" s="68"/>
       <c r="B7" s="12"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1829,7 +1805,7 @@
       <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="63" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="14" t="s">
@@ -1851,7 +1827,7 @@
       <c r="M8" s="48"/>
     </row>
     <row r="9" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="55"/>
+      <c r="A9" s="63"/>
       <c r="B9" s="14" t="s">
         <v>17</v>
       </c>
@@ -1872,7 +1848,7 @@
       <c r="M9" s="48"/>
     </row>
     <row r="10" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="55"/>
+      <c r="A10" s="63"/>
       <c r="B10" s="14" t="s">
         <v>18</v>
       </c>
@@ -1901,8 +1877,8 @@
       </c>
     </row>
     <row r="11" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="55"/>
-      <c r="B11" s="65" t="s">
+      <c r="A11" s="63"/>
+      <c r="B11" s="69" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -1936,8 +1912,8 @@
       </c>
     </row>
     <row r="12" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A12" s="55"/>
-      <c r="B12" s="66"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="70"/>
       <c r="C12" s="9" t="s">
         <v>10</v>
       </c>
@@ -1967,8 +1943,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="55"/>
-      <c r="B13" s="66"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="70"/>
       <c r="C13" s="9" t="s">
         <v>9</v>
       </c>
@@ -1996,8 +1972,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="55"/>
-      <c r="B14" s="67"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="71"/>
       <c r="C14" s="9" t="s">
         <v>27</v>
       </c>
@@ -2027,8 +2003,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="55"/>
-      <c r="B15" s="65" t="s">
+      <c r="A15" s="63"/>
+      <c r="B15" s="69" t="s">
         <v>119</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -2060,9 +2036,9 @@
       </c>
     </row>
     <row r="16" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="55"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="58" t="s">
+      <c r="A16" s="63"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="53" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="9" t="s">
@@ -2091,9 +2067,9 @@
       </c>
     </row>
     <row r="17" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="55"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="59"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="9" t="s">
         <v>12</v>
       </c>
@@ -2120,8 +2096,8 @@
       </c>
     </row>
     <row r="18" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="55"/>
-      <c r="B18" s="67"/>
+      <c r="A18" s="63"/>
+      <c r="B18" s="71"/>
       <c r="C18" s="9" t="s">
         <v>13</v>
       </c>
@@ -2149,8 +2125,8 @@
       </c>
     </row>
     <row r="19" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="55"/>
-      <c r="B19" s="65" t="s">
+      <c r="A19" s="63"/>
+      <c r="B19" s="69" t="s">
         <v>126</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -2182,9 +2158,9 @@
       </c>
     </row>
     <row r="20" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="55"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="58" t="s">
+      <c r="A20" s="63"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="53" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="9" t="s">
@@ -2213,9 +2189,9 @@
       </c>
     </row>
     <row r="21" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="55"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="59"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="54"/>
       <c r="D21" s="9" t="s">
         <v>12</v>
       </c>
@@ -2242,8 +2218,8 @@
       </c>
     </row>
     <row r="22" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="55"/>
-      <c r="B22" s="66"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="70"/>
       <c r="C22" s="9" t="s">
         <v>13</v>
       </c>
@@ -2271,8 +2247,8 @@
       </c>
     </row>
     <row r="23" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="55"/>
-      <c r="B23" s="66"/>
+      <c r="A23" s="63"/>
+      <c r="B23" s="70"/>
       <c r="C23" s="9" t="s">
         <v>124</v>
       </c>
@@ -2300,8 +2276,8 @@
       </c>
     </row>
     <row r="24" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="55"/>
-      <c r="B24" s="67"/>
+      <c r="A24" s="63"/>
+      <c r="B24" s="71"/>
       <c r="C24" s="9" t="s">
         <v>123</v>
       </c>
@@ -2329,8 +2305,8 @@
       </c>
     </row>
     <row r="25" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="55"/>
-      <c r="B25" s="65" t="s">
+      <c r="A25" s="63"/>
+      <c r="B25" s="69" t="s">
         <v>127</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -2362,9 +2338,9 @@
       </c>
     </row>
     <row r="26" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="55"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="58" t="s">
+      <c r="A26" s="63"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="53" t="s">
         <v>29</v>
       </c>
       <c r="D26" s="9" t="s">
@@ -2393,9 +2369,9 @@
       </c>
     </row>
     <row r="27" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="55"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="59"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="9" t="s">
         <v>12</v>
       </c>
@@ -2422,8 +2398,8 @@
       </c>
     </row>
     <row r="28" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="55"/>
-      <c r="B28" s="66"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="70"/>
       <c r="C28" s="9" t="s">
         <v>13</v>
       </c>
@@ -2451,8 +2427,8 @@
       </c>
     </row>
     <row r="29" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="55"/>
-      <c r="B29" s="66"/>
+      <c r="A29" s="63"/>
+      <c r="B29" s="70"/>
       <c r="C29" s="9" t="s">
         <v>25</v>
       </c>
@@ -2480,8 +2456,8 @@
       </c>
     </row>
     <row r="30" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="55"/>
-      <c r="B30" s="66"/>
+      <c r="A30" s="63"/>
+      <c r="B30" s="70"/>
       <c r="C30" s="9" t="s">
         <v>24</v>
       </c>
@@ -2509,8 +2485,8 @@
       </c>
     </row>
     <row r="31" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="55"/>
-      <c r="B31" s="66"/>
+      <c r="A31" s="63"/>
+      <c r="B31" s="70"/>
       <c r="C31" s="9" t="s">
         <v>26</v>
       </c>
@@ -2538,8 +2514,8 @@
       </c>
     </row>
     <row r="32" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="55"/>
-      <c r="B32" s="66"/>
+      <c r="A32" s="63"/>
+      <c r="B32" s="70"/>
       <c r="C32" s="9" t="s">
         <v>20</v>
       </c>
@@ -2567,8 +2543,8 @@
       </c>
     </row>
     <row r="33" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="55"/>
-      <c r="B33" s="67"/>
+      <c r="A33" s="63"/>
+      <c r="B33" s="71"/>
       <c r="C33" s="9" t="s">
         <v>21</v>
       </c>
@@ -2596,8 +2572,8 @@
       </c>
     </row>
     <row r="34" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="55"/>
-      <c r="B34" s="65" t="s">
+      <c r="A34" s="63"/>
+      <c r="B34" s="69" t="s">
         <v>120</v>
       </c>
       <c r="C34" s="9" t="s">
@@ -2629,9 +2605,9 @@
       </c>
     </row>
     <row r="35" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="55"/>
-      <c r="B35" s="66"/>
-      <c r="C35" s="58" t="s">
+      <c r="A35" s="63"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="53" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="9" t="s">
@@ -2660,9 +2636,9 @@
       </c>
     </row>
     <row r="36" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="55"/>
-      <c r="B36" s="66"/>
-      <c r="C36" s="59"/>
+      <c r="A36" s="63"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="54"/>
       <c r="D36" s="9" t="s">
         <v>12</v>
       </c>
@@ -2689,8 +2665,8 @@
       </c>
     </row>
     <row r="37" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="55"/>
-      <c r="B37" s="67"/>
+      <c r="A37" s="63"/>
+      <c r="B37" s="71"/>
       <c r="C37" s="9" t="s">
         <v>13</v>
       </c>
@@ -2718,8 +2694,8 @@
       </c>
     </row>
     <row r="38" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="55"/>
-      <c r="B38" s="65" t="s">
+      <c r="A38" s="63"/>
+      <c r="B38" s="69" t="s">
         <v>121</v>
       </c>
       <c r="C38" s="9" t="s">
@@ -2751,9 +2727,9 @@
       </c>
     </row>
     <row r="39" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="55"/>
-      <c r="B39" s="66"/>
-      <c r="C39" s="58" t="s">
+      <c r="A39" s="63"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="53" t="s">
         <v>29</v>
       </c>
       <c r="D39" s="9" t="s">
@@ -2782,9 +2758,9 @@
       </c>
     </row>
     <row r="40" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="55"/>
-      <c r="B40" s="66"/>
-      <c r="C40" s="59"/>
+      <c r="A40" s="63"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="54"/>
       <c r="D40" s="9" t="s">
         <v>12</v>
       </c>
@@ -2811,8 +2787,8 @@
       </c>
     </row>
     <row r="41" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="55"/>
-      <c r="B41" s="67"/>
+      <c r="A41" s="63"/>
+      <c r="B41" s="71"/>
       <c r="C41" s="9" t="s">
         <v>13</v>
       </c>
@@ -2840,8 +2816,8 @@
       </c>
     </row>
     <row r="42" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="55"/>
-      <c r="B42" s="65" t="s">
+      <c r="A42" s="63"/>
+      <c r="B42" s="69" t="s">
         <v>125</v>
       </c>
       <c r="C42" s="9" t="s">
@@ -2873,9 +2849,9 @@
       </c>
     </row>
     <row r="43" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="55"/>
-      <c r="B43" s="66"/>
-      <c r="C43" s="58" t="s">
+      <c r="A43" s="63"/>
+      <c r="B43" s="70"/>
+      <c r="C43" s="53" t="s">
         <v>29</v>
       </c>
       <c r="D43" s="9" t="s">
@@ -2904,9 +2880,9 @@
       </c>
     </row>
     <row r="44" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="55"/>
-      <c r="B44" s="66"/>
-      <c r="C44" s="59"/>
+      <c r="A44" s="63"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="54"/>
       <c r="D44" s="9" t="s">
         <v>12</v>
       </c>
@@ -2933,8 +2909,8 @@
       </c>
     </row>
     <row r="45" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="55"/>
-      <c r="B45" s="66"/>
+      <c r="A45" s="63"/>
+      <c r="B45" s="70"/>
       <c r="C45" s="9" t="s">
         <v>13</v>
       </c>
@@ -2962,8 +2938,8 @@
       </c>
     </row>
     <row r="46" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="55"/>
-      <c r="B46" s="66"/>
+      <c r="A46" s="63"/>
+      <c r="B46" s="70"/>
       <c r="C46" s="16" t="s">
         <v>22</v>
       </c>
@@ -2991,8 +2967,8 @@
       </c>
     </row>
     <row r="47" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="55"/>
-      <c r="B47" s="67"/>
+      <c r="A47" s="63"/>
+      <c r="B47" s="71"/>
       <c r="C47" s="16" t="s">
         <v>23</v>
       </c>
@@ -3020,8 +2996,8 @@
       </c>
     </row>
     <row r="48" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="55"/>
-      <c r="B48" s="65" t="s">
+      <c r="A48" s="63"/>
+      <c r="B48" s="69" t="s">
         <v>122</v>
       </c>
       <c r="C48" s="16" t="s">
@@ -3053,8 +3029,8 @@
       </c>
     </row>
     <row r="49" spans="1:14" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="55"/>
-      <c r="B49" s="66"/>
+      <c r="A49" s="63"/>
+      <c r="B49" s="70"/>
       <c r="C49" s="17"/>
       <c r="D49" s="9" t="s">
         <v>6</v>
@@ -3084,8 +3060,8 @@
       </c>
     </row>
     <row r="50" spans="1:14" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="55"/>
-      <c r="B50" s="66"/>
+      <c r="A50" s="63"/>
+      <c r="B50" s="70"/>
       <c r="C50" s="16" t="s">
         <v>16</v>
       </c>
@@ -3115,8 +3091,8 @@
       </c>
     </row>
     <row r="51" spans="1:14" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="55"/>
-      <c r="B51" s="67"/>
+      <c r="A51" s="63"/>
+      <c r="B51" s="71"/>
       <c r="C51" s="17"/>
       <c r="D51" s="9" t="s">
         <v>6</v>
@@ -3144,8 +3120,8 @@
       </c>
     </row>
     <row r="52" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A52" s="55"/>
-      <c r="B52" s="65" t="s">
+      <c r="A52" s="63"/>
+      <c r="B52" s="69" t="s">
         <v>128</v>
       </c>
       <c r="C52" s="9" t="s">
@@ -3177,9 +3153,9 @@
       </c>
     </row>
     <row r="53" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A53" s="55"/>
-      <c r="B53" s="66"/>
-      <c r="C53" s="58" t="s">
+      <c r="A53" s="63"/>
+      <c r="B53" s="70"/>
+      <c r="C53" s="53" t="s">
         <v>29</v>
       </c>
       <c r="D53" s="9" t="s">
@@ -3208,9 +3184,9 @@
       </c>
     </row>
     <row r="54" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A54" s="55"/>
-      <c r="B54" s="66"/>
-      <c r="C54" s="59"/>
+      <c r="A54" s="63"/>
+      <c r="B54" s="70"/>
+      <c r="C54" s="54"/>
       <c r="D54" s="9" t="s">
         <v>12</v>
       </c>
@@ -3237,8 +3213,8 @@
       </c>
     </row>
     <row r="55" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A55" s="55"/>
-      <c r="B55" s="67"/>
+      <c r="A55" s="63"/>
+      <c r="B55" s="71"/>
       <c r="C55" s="9" t="s">
         <v>13</v>
       </c>
@@ -3279,7 +3255,7 @@
       </c>
     </row>
     <row r="57" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="56" t="s">
+      <c r="A57" s="66" t="s">
         <v>76</v>
       </c>
       <c r="B57" s="18" t="s">
@@ -3304,7 +3280,7 @@
       <c r="M57" s="9"/>
     </row>
     <row r="58" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="57"/>
+      <c r="A58" s="67"/>
       <c r="B58" s="18" t="s">
         <v>17</v>
       </c>
@@ -3325,7 +3301,7 @@
       <c r="M58" s="9"/>
     </row>
     <row r="59" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="57"/>
+      <c r="A59" s="67"/>
       <c r="B59" s="18" t="s">
         <v>18</v>
       </c>
@@ -3346,11 +3322,11 @@
       <c r="M59" s="9"/>
     </row>
     <row r="60" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="57"/>
-      <c r="B60" s="68" t="s">
+      <c r="A60" s="67"/>
+      <c r="B60" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="C60" s="60" t="s">
+      <c r="C60" s="56" t="s">
         <v>40</v>
       </c>
       <c r="D60" s="9" t="s">
@@ -3373,13 +3349,13 @@
       <c r="M60" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="N60" s="71"/>
+      <c r="N60" s="52"/>
     </row>
     <row r="61" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="57"/>
-      <c r="B61" s="69"/>
-      <c r="C61" s="60"/>
-      <c r="D61" s="58" t="s">
+      <c r="A61" s="67"/>
+      <c r="B61" s="65"/>
+      <c r="C61" s="56"/>
+      <c r="D61" s="53" t="s">
         <v>89</v>
       </c>
       <c r="E61" s="9" t="s">
@@ -3397,13 +3373,13 @@
       </c>
       <c r="L61" s="10"/>
       <c r="M61" s="49"/>
-      <c r="N61" s="71"/>
+      <c r="N61" s="52"/>
     </row>
     <row r="62" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="57"/>
-      <c r="B62" s="69"/>
-      <c r="C62" s="60"/>
-      <c r="D62" s="59"/>
+      <c r="A62" s="67"/>
+      <c r="B62" s="65"/>
+      <c r="C62" s="56"/>
+      <c r="D62" s="54"/>
       <c r="E62" s="9" t="s">
         <v>87</v>
       </c>
@@ -3419,12 +3395,12 @@
       </c>
       <c r="L62" s="10"/>
       <c r="M62" s="49"/>
-      <c r="N62" s="71"/>
+      <c r="N62" s="52"/>
     </row>
     <row r="63" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="57"/>
-      <c r="B63" s="69"/>
-      <c r="C63" s="58" t="s">
+      <c r="A63" s="67"/>
+      <c r="B63" s="65"/>
+      <c r="C63" s="53" t="s">
         <v>83</v>
       </c>
       <c r="D63" s="9" t="s">
@@ -3447,12 +3423,12 @@
       <c r="M63" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="N63" s="71"/>
+      <c r="N63" s="52"/>
     </row>
     <row r="64" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="57"/>
-      <c r="B64" s="69"/>
-      <c r="C64" s="59"/>
+      <c r="A64" s="67"/>
+      <c r="B64" s="65"/>
+      <c r="C64" s="54"/>
       <c r="D64" s="9" t="s">
         <v>81</v>
       </c>
@@ -3473,11 +3449,11 @@
       <c r="M64" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="N64" s="71"/>
+      <c r="N64" s="52"/>
     </row>
     <row r="65" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="57"/>
-      <c r="B65" s="69"/>
+      <c r="A65" s="67"/>
+      <c r="B65" s="65"/>
       <c r="C65" s="17" t="s">
         <v>82</v>
       </c>
@@ -3499,9 +3475,9 @@
       </c>
     </row>
     <row r="66" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A66" s="57"/>
-      <c r="B66" s="69"/>
-      <c r="C66" s="60" t="s">
+      <c r="A66" s="67"/>
+      <c r="B66" s="65"/>
+      <c r="C66" s="56" t="s">
         <v>45</v>
       </c>
       <c r="D66" s="9" t="s">
@@ -3524,10 +3500,10 @@
       </c>
     </row>
     <row r="67" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A67" s="57"/>
-      <c r="B67" s="69"/>
-      <c r="C67" s="60"/>
-      <c r="D67" s="60" t="s">
+      <c r="A67" s="67"/>
+      <c r="B67" s="65"/>
+      <c r="C67" s="56"/>
+      <c r="D67" s="56" t="s">
         <v>90</v>
       </c>
       <c r="E67" s="9" t="s">
@@ -3547,10 +3523,10 @@
       <c r="M67" s="49"/>
     </row>
     <row r="68" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A68" s="57"/>
-      <c r="B68" s="69"/>
-      <c r="C68" s="60"/>
-      <c r="D68" s="60"/>
+      <c r="A68" s="67"/>
+      <c r="B68" s="65"/>
+      <c r="C68" s="56"/>
+      <c r="D68" s="56"/>
       <c r="E68" s="9" t="s">
         <v>70</v>
       </c>
@@ -3568,9 +3544,9 @@
       <c r="M68" s="49"/>
     </row>
     <row r="69" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A69" s="57"/>
-      <c r="B69" s="69"/>
-      <c r="C69" s="58" t="s">
+      <c r="A69" s="67"/>
+      <c r="B69" s="65"/>
+      <c r="C69" s="53" t="s">
         <v>36</v>
       </c>
       <c r="D69" s="9" t="s">
@@ -3593,9 +3569,9 @@
       </c>
     </row>
     <row r="70" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A70" s="57"/>
-      <c r="B70" s="69"/>
-      <c r="C70" s="63"/>
+      <c r="A70" s="67"/>
+      <c r="B70" s="65"/>
+      <c r="C70" s="57"/>
       <c r="D70" s="9" t="s">
         <v>38</v>
       </c>
@@ -3616,9 +3592,9 @@
       </c>
     </row>
     <row r="71" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A71" s="57"/>
-      <c r="B71" s="69"/>
-      <c r="C71" s="59"/>
+      <c r="A71" s="67"/>
+      <c r="B71" s="65"/>
+      <c r="C71" s="54"/>
       <c r="D71" s="9" t="s">
         <v>39</v>
       </c>
@@ -3639,8 +3615,8 @@
       <c r="M71" s="49"/>
     </row>
     <row r="72" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A72" s="57"/>
-      <c r="B72" s="69"/>
+      <c r="A72" s="67"/>
+      <c r="B72" s="65"/>
       <c r="C72" s="9" t="s">
         <v>49</v>
       </c>
@@ -3662,8 +3638,8 @@
       </c>
     </row>
     <row r="73" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A73" s="57"/>
-      <c r="B73" s="69"/>
+      <c r="A73" s="67"/>
+      <c r="B73" s="65"/>
       <c r="C73" s="9" t="s">
         <v>50</v>
       </c>
@@ -3685,9 +3661,9 @@
       </c>
     </row>
     <row r="74" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A74" s="57"/>
-      <c r="B74" s="69"/>
-      <c r="C74" s="58" t="s">
+      <c r="A74" s="67"/>
+      <c r="B74" s="65"/>
+      <c r="C74" s="53" t="s">
         <v>57</v>
       </c>
       <c r="D74" s="30" t="s">
@@ -3710,9 +3686,9 @@
       </c>
     </row>
     <row r="75" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A75" s="57"/>
-      <c r="B75" s="69"/>
-      <c r="C75" s="59"/>
+      <c r="A75" s="67"/>
+      <c r="B75" s="65"/>
+      <c r="C75" s="54"/>
       <c r="D75" s="9" t="s">
         <v>96</v>
       </c>
@@ -3735,9 +3711,9 @@
       </c>
     </row>
     <row r="76" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A76" s="57"/>
-      <c r="B76" s="69"/>
-      <c r="C76" s="72" t="s">
+      <c r="A76" s="67"/>
+      <c r="B76" s="65"/>
+      <c r="C76" s="58" t="s">
         <v>51</v>
       </c>
       <c r="D76" s="19" t="s">
@@ -3758,9 +3734,9 @@
       <c r="M76" s="43"/>
     </row>
     <row r="77" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A77" s="57"/>
-      <c r="B77" s="69"/>
-      <c r="C77" s="73"/>
+      <c r="A77" s="67"/>
+      <c r="B77" s="65"/>
+      <c r="C77" s="59"/>
       <c r="D77" s="19" t="s">
         <v>53</v>
       </c>
@@ -3779,9 +3755,9 @@
       <c r="M77" s="43"/>
     </row>
     <row r="78" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A78" s="57"/>
-      <c r="B78" s="69"/>
-      <c r="C78" s="73"/>
+      <c r="A78" s="67"/>
+      <c r="B78" s="65"/>
+      <c r="C78" s="59"/>
       <c r="D78" s="19" t="s">
         <v>54</v>
       </c>
@@ -3800,9 +3776,9 @@
       <c r="M78" s="43"/>
     </row>
     <row r="79" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A79" s="57"/>
-      <c r="B79" s="69"/>
-      <c r="C79" s="73"/>
+      <c r="A79" s="67"/>
+      <c r="B79" s="65"/>
+      <c r="C79" s="59"/>
       <c r="D79" s="19" t="s">
         <v>55</v>
       </c>
@@ -3821,9 +3797,9 @@
       <c r="M79" s="43"/>
     </row>
     <row r="80" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A80" s="57"/>
-      <c r="B80" s="69"/>
-      <c r="C80" s="74"/>
+      <c r="A80" s="67"/>
+      <c r="B80" s="65"/>
+      <c r="C80" s="60"/>
       <c r="D80" s="19" t="s">
         <v>56</v>
       </c>
@@ -3842,11 +3818,11 @@
       <c r="M80" s="43"/>
     </row>
     <row r="81" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A81" s="57"/>
-      <c r="B81" s="53" t="s">
+      <c r="A81" s="67"/>
+      <c r="B81" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="C81" s="75" t="s">
+      <c r="C81" s="61" t="s">
         <v>74</v>
       </c>
       <c r="D81" s="15" t="s">
@@ -3867,9 +3843,9 @@
       <c r="M81" s="43"/>
     </row>
     <row r="82" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A82" s="57"/>
-      <c r="B82" s="54"/>
-      <c r="C82" s="76"/>
+      <c r="A82" s="67"/>
+      <c r="B82" s="74"/>
+      <c r="C82" s="62"/>
       <c r="D82" s="15" t="s">
         <v>59</v>
       </c>
@@ -3888,9 +3864,9 @@
       <c r="M82" s="43"/>
     </row>
     <row r="83" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A83" s="57"/>
-      <c r="B83" s="54"/>
-      <c r="C83" s="76"/>
+      <c r="A83" s="67"/>
+      <c r="B83" s="74"/>
+      <c r="C83" s="62"/>
       <c r="D83" s="15" t="s">
         <v>55</v>
       </c>
@@ -3907,9 +3883,9 @@
       <c r="M83" s="43"/>
     </row>
     <row r="84" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A84" s="57"/>
-      <c r="B84" s="54"/>
-      <c r="C84" s="76"/>
+      <c r="A84" s="67"/>
+      <c r="B84" s="74"/>
+      <c r="C84" s="62"/>
       <c r="D84" s="15" t="s">
         <v>60</v>
       </c>
@@ -3926,12 +3902,12 @@
       <c r="M84" s="43"/>
     </row>
     <row r="85" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A85" s="57"/>
-      <c r="B85" s="54"/>
-      <c r="C85" s="64" t="s">
+      <c r="A85" s="67"/>
+      <c r="B85" s="74"/>
+      <c r="C85" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="D85" s="58" t="s">
+      <c r="D85" s="53" t="s">
         <v>61</v>
       </c>
       <c r="E85" s="9" t="s">
@@ -3952,18 +3928,18 @@
         <v>1</v>
       </c>
       <c r="L85" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M85" s="49" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="86" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A86" s="57"/>
-      <c r="B86" s="54"/>
-      <c r="C86" s="64"/>
-      <c r="D86" s="63"/>
-      <c r="E86" s="58" t="s">
+      <c r="A86" s="67"/>
+      <c r="B86" s="74"/>
+      <c r="C86" s="55"/>
+      <c r="D86" s="57"/>
+      <c r="E86" s="53" t="s">
         <v>29</v>
       </c>
       <c r="F86" s="9" t="s">
@@ -3978,17 +3954,19 @@
       <c r="K86" s="35">
         <v>1</v>
       </c>
-      <c r="L86" s="10"/>
+      <c r="L86" s="10">
+        <v>1</v>
+      </c>
       <c r="M86" s="49" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="87" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A87" s="57"/>
-      <c r="B87" s="54"/>
-      <c r="C87" s="64"/>
-      <c r="D87" s="63"/>
-      <c r="E87" s="59"/>
+      <c r="A87" s="67"/>
+      <c r="B87" s="74"/>
+      <c r="C87" s="55"/>
+      <c r="D87" s="57"/>
+      <c r="E87" s="54"/>
       <c r="F87" s="9" t="s">
         <v>12</v>
       </c>
@@ -4001,16 +3979,18 @@
       <c r="K87" s="35">
         <v>1</v>
       </c>
-      <c r="L87" s="10"/>
+      <c r="L87" s="10">
+        <v>1</v>
+      </c>
       <c r="M87" s="49" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="88" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A88" s="57"/>
-      <c r="B88" s="54"/>
-      <c r="C88" s="64"/>
-      <c r="D88" s="63"/>
+      <c r="A88" s="67"/>
+      <c r="B88" s="74"/>
+      <c r="C88" s="55"/>
+      <c r="D88" s="57"/>
       <c r="E88" s="9" t="s">
         <v>13</v>
       </c>
@@ -4024,16 +4004,18 @@
       <c r="K88" s="35">
         <v>1</v>
       </c>
-      <c r="L88" s="10"/>
+      <c r="L88" s="10">
+        <v>1</v>
+      </c>
       <c r="M88" s="49" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="89" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A89" s="57"/>
-      <c r="B89" s="54"/>
-      <c r="C89" s="64"/>
-      <c r="D89" s="63"/>
+      <c r="A89" s="67"/>
+      <c r="B89" s="74"/>
+      <c r="C89" s="55"/>
+      <c r="D89" s="57"/>
       <c r="E89" s="9" t="s">
         <v>130</v>
       </c>
@@ -4047,16 +4029,18 @@
       <c r="K89" s="35">
         <v>1</v>
       </c>
-      <c r="L89" s="10"/>
+      <c r="L89" s="10">
+        <v>1</v>
+      </c>
       <c r="M89" s="49" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="90" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A90" s="57"/>
-      <c r="B90" s="54"/>
-      <c r="C90" s="64"/>
-      <c r="D90" s="63"/>
+      <c r="A90" s="67"/>
+      <c r="B90" s="74"/>
+      <c r="C90" s="55"/>
+      <c r="D90" s="57"/>
       <c r="E90" s="9" t="s">
         <v>131</v>
       </c>
@@ -4070,14 +4054,16 @@
       <c r="K90" s="35">
         <v>2</v>
       </c>
-      <c r="L90" s="10"/>
+      <c r="L90" s="10">
+        <v>1</v>
+      </c>
       <c r="M90" s="49"/>
     </row>
     <row r="91" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A91" s="57"/>
-      <c r="B91" s="54"/>
-      <c r="C91" s="64"/>
-      <c r="D91" s="63"/>
+      <c r="A91" s="67"/>
+      <c r="B91" s="74"/>
+      <c r="C91" s="55"/>
+      <c r="D91" s="57"/>
       <c r="E91" s="16" t="s">
         <v>132</v>
       </c>
@@ -4097,11 +4083,11 @@
       </c>
     </row>
     <row r="92" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A92" s="57"/>
-      <c r="B92" s="54"/>
-      <c r="C92" s="64"/>
-      <c r="D92" s="63"/>
-      <c r="E92" s="58" t="s">
+      <c r="A92" s="67"/>
+      <c r="B92" s="74"/>
+      <c r="C92" s="55"/>
+      <c r="D92" s="57"/>
+      <c r="E92" s="53" t="s">
         <v>133</v>
       </c>
       <c r="F92" s="9" t="s">
@@ -4116,17 +4102,19 @@
       <c r="K92" s="35">
         <v>1</v>
       </c>
-      <c r="L92" s="10"/>
+      <c r="L92" s="10">
+        <v>1</v>
+      </c>
       <c r="M92" s="49" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="93" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A93" s="57"/>
-      <c r="B93" s="54"/>
-      <c r="C93" s="64"/>
-      <c r="D93" s="63"/>
-      <c r="E93" s="63"/>
+      <c r="A93" s="67"/>
+      <c r="B93" s="74"/>
+      <c r="C93" s="55"/>
+      <c r="D93" s="57"/>
+      <c r="E93" s="57"/>
       <c r="F93" s="9" t="s">
         <v>135</v>
       </c>
@@ -4139,17 +4127,19 @@
       <c r="K93" s="35">
         <v>1</v>
       </c>
-      <c r="L93" s="10"/>
+      <c r="L93" s="10">
+        <v>1</v>
+      </c>
       <c r="M93" s="49" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="94" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A94" s="57"/>
-      <c r="B94" s="54"/>
-      <c r="C94" s="64"/>
-      <c r="D94" s="63"/>
-      <c r="E94" s="59"/>
+      <c r="A94" s="67"/>
+      <c r="B94" s="74"/>
+      <c r="C94" s="55"/>
+      <c r="D94" s="57"/>
+      <c r="E94" s="54"/>
       <c r="F94" s="9" t="s">
         <v>136</v>
       </c>
@@ -4162,16 +4152,18 @@
       <c r="K94" s="35">
         <v>1</v>
       </c>
-      <c r="L94" s="10"/>
+      <c r="L94" s="10">
+        <v>1</v>
+      </c>
       <c r="M94" s="49" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="95" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A95" s="57"/>
-      <c r="B95" s="54"/>
-      <c r="C95" s="64"/>
-      <c r="D95" s="60" t="s">
+      <c r="A95" s="67"/>
+      <c r="B95" s="74"/>
+      <c r="C95" s="55"/>
+      <c r="D95" s="56" t="s">
         <v>102</v>
       </c>
       <c r="E95" s="9" t="s">
@@ -4191,10 +4183,10 @@
       <c r="M95" s="49"/>
     </row>
     <row r="96" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A96" s="57"/>
-      <c r="B96" s="54"/>
-      <c r="C96" s="64"/>
-      <c r="D96" s="60"/>
+      <c r="A96" s="67"/>
+      <c r="B96" s="74"/>
+      <c r="C96" s="55"/>
+      <c r="D96" s="56"/>
       <c r="E96" s="9" t="s">
         <v>48</v>
       </c>
@@ -4214,10 +4206,10 @@
       <c r="M96" s="49"/>
     </row>
     <row r="97" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A97" s="57"/>
-      <c r="B97" s="54"/>
-      <c r="C97" s="64"/>
-      <c r="D97" s="58" t="s">
+      <c r="A97" s="67"/>
+      <c r="B97" s="74"/>
+      <c r="C97" s="55"/>
+      <c r="D97" s="53" t="s">
         <v>114</v>
       </c>
       <c r="E97" s="9" t="s">
@@ -4247,11 +4239,11 @@
       </c>
     </row>
     <row r="98" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A98" s="57"/>
-      <c r="B98" s="54"/>
-      <c r="C98" s="64"/>
-      <c r="D98" s="63"/>
-      <c r="E98" s="58" t="s">
+      <c r="A98" s="67"/>
+      <c r="B98" s="74"/>
+      <c r="C98" s="55"/>
+      <c r="D98" s="57"/>
+      <c r="E98" s="53" t="s">
         <v>29</v>
       </c>
       <c r="F98" s="9" t="s">
@@ -4278,11 +4270,11 @@
       </c>
     </row>
     <row r="99" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A99" s="57"/>
-      <c r="B99" s="54"/>
-      <c r="C99" s="64"/>
-      <c r="D99" s="63"/>
-      <c r="E99" s="59"/>
+      <c r="A99" s="67"/>
+      <c r="B99" s="74"/>
+      <c r="C99" s="55"/>
+      <c r="D99" s="57"/>
+      <c r="E99" s="54"/>
       <c r="F99" s="9" t="s">
         <v>12</v>
       </c>
@@ -4307,10 +4299,10 @@
       </c>
     </row>
     <row r="100" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A100" s="57"/>
-      <c r="B100" s="54"/>
-      <c r="C100" s="64"/>
-      <c r="D100" s="59"/>
+      <c r="A100" s="67"/>
+      <c r="B100" s="74"/>
+      <c r="C100" s="55"/>
+      <c r="D100" s="54"/>
       <c r="E100" s="9" t="s">
         <v>13</v>
       </c>
@@ -4347,7 +4339,7 @@
       <c r="K101" s="35"/>
     </row>
     <row r="102" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A102" s="55" t="s">
+      <c r="A102" s="63" t="s">
         <v>69</v>
       </c>
       <c r="B102" s="18" t="s">
@@ -4372,7 +4364,7 @@
       </c>
     </row>
     <row r="103" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A103" s="55"/>
+      <c r="A103" s="63"/>
       <c r="B103" s="18" t="s">
         <v>17</v>
       </c>
@@ -4395,7 +4387,7 @@
       </c>
     </row>
     <row r="104" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A104" s="55"/>
+      <c r="A104" s="63"/>
       <c r="B104" s="18" t="s">
         <v>18</v>
       </c>
@@ -4418,11 +4410,11 @@
       </c>
     </row>
     <row r="105" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="55"/>
-      <c r="B105" s="53" t="s">
+      <c r="A105" s="63"/>
+      <c r="B105" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="C105" s="58" t="s">
+      <c r="C105" s="53" t="s">
         <v>33</v>
       </c>
       <c r="D105" s="9" t="s">
@@ -4449,9 +4441,9 @@
       </c>
     </row>
     <row r="106" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A106" s="55"/>
-      <c r="B106" s="54"/>
-      <c r="C106" s="63"/>
+      <c r="A106" s="63"/>
+      <c r="B106" s="74"/>
+      <c r="C106" s="57"/>
       <c r="D106" s="50" t="s">
         <v>41</v>
       </c>
@@ -4474,10 +4466,10 @@
       </c>
     </row>
     <row r="107" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A107" s="55"/>
-      <c r="B107" s="54"/>
-      <c r="C107" s="59"/>
-      <c r="D107" s="52"/>
+      <c r="A107" s="63"/>
+      <c r="B107" s="74"/>
+      <c r="C107" s="54"/>
+      <c r="D107" s="51"/>
       <c r="E107" s="9" t="s">
         <v>43</v>
       </c>
@@ -4497,9 +4489,9 @@
       </c>
     </row>
     <row r="108" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A108" s="55"/>
-      <c r="B108" s="54"/>
-      <c r="C108" s="58" t="s">
+      <c r="A108" s="63"/>
+      <c r="B108" s="74"/>
+      <c r="C108" s="53" t="s">
         <v>45</v>
       </c>
       <c r="D108" s="9" t="s">
@@ -4524,9 +4516,9 @@
       </c>
     </row>
     <row r="109" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A109" s="55"/>
-      <c r="B109" s="54"/>
-      <c r="C109" s="63"/>
+      <c r="A109" s="63"/>
+      <c r="B109" s="74"/>
+      <c r="C109" s="57"/>
       <c r="D109" s="50" t="s">
         <v>41</v>
       </c>
@@ -4549,10 +4541,10 @@
       </c>
     </row>
     <row r="110" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A110" s="55"/>
-      <c r="B110" s="54"/>
-      <c r="C110" s="63"/>
-      <c r="D110" s="51"/>
+      <c r="A110" s="63"/>
+      <c r="B110" s="74"/>
+      <c r="C110" s="57"/>
+      <c r="D110" s="72"/>
       <c r="E110" s="9" t="s">
         <v>43</v>
       </c>
@@ -4572,10 +4564,10 @@
       </c>
     </row>
     <row r="111" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A111" s="55"/>
-      <c r="B111" s="54"/>
-      <c r="C111" s="59"/>
-      <c r="D111" s="52"/>
+      <c r="A111" s="63"/>
+      <c r="B111" s="74"/>
+      <c r="C111" s="54"/>
+      <c r="D111" s="51"/>
       <c r="E111" s="9" t="s">
         <v>47</v>
       </c>
@@ -4595,9 +4587,9 @@
       </c>
     </row>
     <row r="112" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A112" s="55"/>
-      <c r="B112" s="54"/>
-      <c r="C112" s="64" t="s">
+      <c r="A112" s="63"/>
+      <c r="B112" s="74"/>
+      <c r="C112" s="55" t="s">
         <v>71</v>
       </c>
       <c r="D112" s="9" t="s">
@@ -4622,9 +4614,9 @@
       </c>
     </row>
     <row r="113" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A113" s="55"/>
-      <c r="B113" s="54"/>
-      <c r="C113" s="60"/>
+      <c r="A113" s="63"/>
+      <c r="B113" s="74"/>
+      <c r="C113" s="56"/>
       <c r="D113" s="9" t="s">
         <v>63</v>
       </c>
@@ -4647,8 +4639,8 @@
       </c>
     </row>
     <row r="114" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A114" s="55"/>
-      <c r="B114" s="54"/>
+      <c r="A114" s="63"/>
+      <c r="B114" s="74"/>
       <c r="C114" s="9" t="s">
         <v>92</v>
       </c>
@@ -4672,11 +4664,11 @@
       </c>
     </row>
     <row r="115" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A115" s="55"/>
-      <c r="B115" s="53" t="s">
+      <c r="A115" s="63"/>
+      <c r="B115" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="C115" s="58" t="s">
+      <c r="C115" s="53" t="s">
         <v>64</v>
       </c>
       <c r="D115" s="21" t="s">
@@ -4703,10 +4695,10 @@
       </c>
     </row>
     <row r="116" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A116" s="55"/>
-      <c r="B116" s="53"/>
-      <c r="C116" s="63"/>
-      <c r="D116" s="61" t="s">
+      <c r="A116" s="63"/>
+      <c r="B116" s="73"/>
+      <c r="C116" s="57"/>
+      <c r="D116" s="75" t="s">
         <v>29</v>
       </c>
       <c r="E116" s="9" t="s">
@@ -4730,10 +4722,10 @@
       </c>
     </row>
     <row r="117" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A117" s="55"/>
-      <c r="B117" s="53"/>
-      <c r="C117" s="63"/>
-      <c r="D117" s="62"/>
+      <c r="A117" s="63"/>
+      <c r="B117" s="73"/>
+      <c r="C117" s="57"/>
+      <c r="D117" s="76"/>
       <c r="E117" s="9" t="s">
         <v>12</v>
       </c>
@@ -4755,9 +4747,9 @@
       </c>
     </row>
     <row r="118" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A118" s="55"/>
-      <c r="B118" s="53"/>
-      <c r="C118" s="63"/>
+      <c r="A118" s="63"/>
+      <c r="B118" s="73"/>
+      <c r="C118" s="57"/>
       <c r="D118" s="21" t="s">
         <v>13</v>
       </c>
@@ -4780,9 +4772,9 @@
       </c>
     </row>
     <row r="119" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A119" s="55"/>
-      <c r="B119" s="53"/>
-      <c r="C119" s="63"/>
+      <c r="A119" s="63"/>
+      <c r="B119" s="73"/>
+      <c r="C119" s="57"/>
       <c r="D119" s="21" t="s">
         <v>25</v>
       </c>
@@ -4805,9 +4797,9 @@
       </c>
     </row>
     <row r="120" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A120" s="55"/>
-      <c r="B120" s="53"/>
-      <c r="C120" s="63"/>
+      <c r="A120" s="63"/>
+      <c r="B120" s="73"/>
+      <c r="C120" s="57"/>
       <c r="D120" s="21" t="s">
         <v>24</v>
       </c>
@@ -4830,9 +4822,9 @@
       </c>
     </row>
     <row r="121" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A121" s="55"/>
-      <c r="B121" s="53"/>
-      <c r="C121" s="59"/>
+      <c r="A121" s="63"/>
+      <c r="B121" s="73"/>
+      <c r="C121" s="54"/>
       <c r="D121" s="21" t="s">
         <v>26</v>
       </c>
@@ -4855,9 +4847,9 @@
       </c>
     </row>
     <row r="122" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A122" s="55"/>
-      <c r="B122" s="54"/>
-      <c r="C122" s="58" t="s">
+      <c r="A122" s="63"/>
+      <c r="B122" s="74"/>
+      <c r="C122" s="53" t="s">
         <v>99</v>
       </c>
       <c r="D122" s="21" t="s">
@@ -4884,10 +4876,10 @@
       </c>
     </row>
     <row r="123" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A123" s="55"/>
-      <c r="B123" s="54"/>
-      <c r="C123" s="63"/>
-      <c r="D123" s="61" t="s">
+      <c r="A123" s="63"/>
+      <c r="B123" s="74"/>
+      <c r="C123" s="57"/>
+      <c r="D123" s="75" t="s">
         <v>29</v>
       </c>
       <c r="E123" s="9" t="s">
@@ -4911,10 +4903,10 @@
       </c>
     </row>
     <row r="124" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A124" s="55"/>
-      <c r="B124" s="54"/>
-      <c r="C124" s="63"/>
-      <c r="D124" s="62"/>
+      <c r="A124" s="63"/>
+      <c r="B124" s="74"/>
+      <c r="C124" s="57"/>
+      <c r="D124" s="76"/>
       <c r="E124" s="9" t="s">
         <v>12</v>
       </c>
@@ -4936,9 +4928,9 @@
       </c>
     </row>
     <row r="125" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A125" s="55"/>
-      <c r="B125" s="54"/>
-      <c r="C125" s="59"/>
+      <c r="A125" s="63"/>
+      <c r="B125" s="74"/>
+      <c r="C125" s="54"/>
       <c r="D125" s="21" t="s">
         <v>13</v>
       </c>
@@ -4961,8 +4953,8 @@
       </c>
     </row>
     <row r="126" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A126" s="55"/>
-      <c r="B126" s="54"/>
+      <c r="A126" s="63"/>
+      <c r="B126" s="74"/>
       <c r="C126" s="37" t="s">
         <v>65</v>
       </c>
@@ -4982,8 +4974,8 @@
       <c r="M126" s="9"/>
     </row>
     <row r="127" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A127" s="55"/>
-      <c r="B127" s="54"/>
+      <c r="A127" s="63"/>
+      <c r="B127" s="74"/>
       <c r="C127" s="37" t="s">
         <v>66</v>
       </c>
@@ -5003,8 +4995,8 @@
       <c r="M127" s="9"/>
     </row>
     <row r="128" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A128" s="55"/>
-      <c r="B128" s="54"/>
+      <c r="A128" s="63"/>
+      <c r="B128" s="74"/>
       <c r="C128" s="37" t="s">
         <v>67</v>
       </c>
@@ -5024,8 +5016,8 @@
       <c r="M128" s="9"/>
     </row>
     <row r="129" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A129" s="55"/>
-      <c r="B129" s="54"/>
+      <c r="A129" s="63"/>
+      <c r="B129" s="74"/>
       <c r="C129" s="37" t="s">
         <v>68</v>
       </c>
@@ -5068,17 +5060,29 @@
     <protectedRange sqref="L102:L129 L2:L5 L8:L55 L57:L100" name="区域3"/>
   </protectedRanges>
   <mergeCells count="50">
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="N60:N64"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="C85:C100"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="D97:D100"/>
-    <mergeCell ref="D85:D94"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="C76:C80"/>
-    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="D109:D111"/>
+    <mergeCell ref="B115:B129"/>
+    <mergeCell ref="A102:A129"/>
+    <mergeCell ref="B105:B114"/>
+    <mergeCell ref="B81:B100"/>
+    <mergeCell ref="A57:A100"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="C115:C121"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="C108:C111"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="C39:C40"/>
     <mergeCell ref="A8:A55"/>
     <mergeCell ref="C69:C71"/>
     <mergeCell ref="B60:B80"/>
@@ -5095,81 +5099,69 @@
     <mergeCell ref="B25:B33"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="B19:B24"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B47"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D109:D111"/>
-    <mergeCell ref="B115:B129"/>
-    <mergeCell ref="A102:A129"/>
-    <mergeCell ref="B105:B114"/>
-    <mergeCell ref="B81:B100"/>
-    <mergeCell ref="A57:A100"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="C115:C121"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="C108:C111"/>
-    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="N60:N64"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="C85:C100"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="D97:D100"/>
+    <mergeCell ref="D85:D94"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="C76:C80"/>
+    <mergeCell ref="C81:C84"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="L2:L5 L102:L129 L48:L51 L43:L44 L25:L37 L8:L14 L66:L100">
-    <cfRule type="cellIs" dxfId="39" priority="90" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="90" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="91" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="91" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="92" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="34" priority="92" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23:L24">
-    <cfRule type="cellIs" dxfId="36" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="60" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="61" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="62" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="31" priority="62" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="duplicateValues" dxfId="33" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L38:L41">
-    <cfRule type="cellIs" dxfId="32" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="56" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="57" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="58" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="27" priority="58" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="duplicateValues" dxfId="29" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L57:L65">
-    <cfRule type="cellIs" dxfId="28" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="46" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="47" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="48" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="23" priority="48" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
@@ -5217,90 +5209,90 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K129">
-    <cfRule type="cellIs" dxfId="25" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="30" stopIfTrue="1" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="31" stopIfTrue="1" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="32" stopIfTrue="1" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="33" stopIfTrue="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="34" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15:L19 L22">
-    <cfRule type="cellIs" dxfId="20" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="19" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="20" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="21" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="21" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20:L21">
-    <cfRule type="cellIs" dxfId="17" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="13" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="15" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="15" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L52:L55">
-    <cfRule type="cellIs" dxfId="14" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="10" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="12" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L42">
-    <cfRule type="cellIs" dxfId="11" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="9" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L45">
-    <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="6" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L46:L47">
-    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>

--- a/doc/开发计划V0.1.xlsx
+++ b/doc/开发计划V0.1.xlsx
@@ -933,27 +933,69 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -968,48 +1010,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1712,7 +1712,7 @@
       <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="56" t="s">
         <v>77</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -1733,7 +1733,7 @@
       <c r="M3" s="9"/>
     </row>
     <row r="4" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="67"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="12" t="s">
         <v>80</v>
       </c>
@@ -1752,7 +1752,7 @@
       <c r="M4" s="9"/>
     </row>
     <row r="5" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="67"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="12" t="s">
         <v>78</v>
       </c>
@@ -1771,7 +1771,7 @@
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="67"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="12"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1788,7 +1788,7 @@
       <c r="M6" s="9"/>
     </row>
     <row r="7" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="68"/>
+      <c r="A7" s="70"/>
       <c r="B7" s="12"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1805,7 +1805,7 @@
       <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="55" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="14" t="s">
@@ -1827,7 +1827,7 @@
       <c r="M8" s="48"/>
     </row>
     <row r="9" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="63"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="14" t="s">
         <v>17</v>
       </c>
@@ -1848,7 +1848,7 @@
       <c r="M9" s="48"/>
     </row>
     <row r="10" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="63"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="14" t="s">
         <v>18</v>
       </c>
@@ -1877,8 +1877,8 @@
       </c>
     </row>
     <row r="11" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="63"/>
-      <c r="B11" s="69" t="s">
+      <c r="A11" s="55"/>
+      <c r="B11" s="65" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -1912,8 +1912,8 @@
       </c>
     </row>
     <row r="12" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A12" s="63"/>
-      <c r="B12" s="70"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="66"/>
       <c r="C12" s="9" t="s">
         <v>10</v>
       </c>
@@ -1943,8 +1943,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="63"/>
-      <c r="B13" s="70"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="66"/>
       <c r="C13" s="9" t="s">
         <v>9</v>
       </c>
@@ -1972,8 +1972,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="63"/>
-      <c r="B14" s="71"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="67"/>
       <c r="C14" s="9" t="s">
         <v>27</v>
       </c>
@@ -2003,8 +2003,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="63"/>
-      <c r="B15" s="69" t="s">
+      <c r="A15" s="55"/>
+      <c r="B15" s="65" t="s">
         <v>119</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -2036,9 +2036,9 @@
       </c>
     </row>
     <row r="16" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="63"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="53" t="s">
+      <c r="A16" s="55"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="58" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="9" t="s">
@@ -2067,9 +2067,9 @@
       </c>
     </row>
     <row r="17" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="63"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="54"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="59"/>
       <c r="D17" s="9" t="s">
         <v>12</v>
       </c>
@@ -2096,8 +2096,8 @@
       </c>
     </row>
     <row r="18" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="63"/>
-      <c r="B18" s="71"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="67"/>
       <c r="C18" s="9" t="s">
         <v>13</v>
       </c>
@@ -2125,8 +2125,8 @@
       </c>
     </row>
     <row r="19" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="63"/>
-      <c r="B19" s="69" t="s">
+      <c r="A19" s="55"/>
+      <c r="B19" s="65" t="s">
         <v>126</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -2158,9 +2158,9 @@
       </c>
     </row>
     <row r="20" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="63"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="53" t="s">
+      <c r="A20" s="55"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="58" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="9" t="s">
@@ -2189,9 +2189,9 @@
       </c>
     </row>
     <row r="21" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="63"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="54"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="59"/>
       <c r="D21" s="9" t="s">
         <v>12</v>
       </c>
@@ -2218,8 +2218,8 @@
       </c>
     </row>
     <row r="22" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="63"/>
-      <c r="B22" s="70"/>
+      <c r="A22" s="55"/>
+      <c r="B22" s="66"/>
       <c r="C22" s="9" t="s">
         <v>13</v>
       </c>
@@ -2247,8 +2247,8 @@
       </c>
     </row>
     <row r="23" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="63"/>
-      <c r="B23" s="70"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="66"/>
       <c r="C23" s="9" t="s">
         <v>124</v>
       </c>
@@ -2276,8 +2276,8 @@
       </c>
     </row>
     <row r="24" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="63"/>
-      <c r="B24" s="71"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="67"/>
       <c r="C24" s="9" t="s">
         <v>123</v>
       </c>
@@ -2305,8 +2305,8 @@
       </c>
     </row>
     <row r="25" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="63"/>
-      <c r="B25" s="69" t="s">
+      <c r="A25" s="55"/>
+      <c r="B25" s="65" t="s">
         <v>127</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -2338,9 +2338,9 @@
       </c>
     </row>
     <row r="26" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="63"/>
-      <c r="B26" s="70"/>
-      <c r="C26" s="53" t="s">
+      <c r="A26" s="55"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="58" t="s">
         <v>29</v>
       </c>
       <c r="D26" s="9" t="s">
@@ -2369,9 +2369,9 @@
       </c>
     </row>
     <row r="27" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="63"/>
-      <c r="B27" s="70"/>
-      <c r="C27" s="54"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="59"/>
       <c r="D27" s="9" t="s">
         <v>12</v>
       </c>
@@ -2398,8 +2398,8 @@
       </c>
     </row>
     <row r="28" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="63"/>
-      <c r="B28" s="70"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="66"/>
       <c r="C28" s="9" t="s">
         <v>13</v>
       </c>
@@ -2427,8 +2427,8 @@
       </c>
     </row>
     <row r="29" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="63"/>
-      <c r="B29" s="70"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="66"/>
       <c r="C29" s="9" t="s">
         <v>25</v>
       </c>
@@ -2456,8 +2456,8 @@
       </c>
     </row>
     <row r="30" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="63"/>
-      <c r="B30" s="70"/>
+      <c r="A30" s="55"/>
+      <c r="B30" s="66"/>
       <c r="C30" s="9" t="s">
         <v>24</v>
       </c>
@@ -2485,8 +2485,8 @@
       </c>
     </row>
     <row r="31" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="63"/>
-      <c r="B31" s="70"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="66"/>
       <c r="C31" s="9" t="s">
         <v>26</v>
       </c>
@@ -2514,8 +2514,8 @@
       </c>
     </row>
     <row r="32" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="63"/>
-      <c r="B32" s="70"/>
+      <c r="A32" s="55"/>
+      <c r="B32" s="66"/>
       <c r="C32" s="9" t="s">
         <v>20</v>
       </c>
@@ -2543,8 +2543,8 @@
       </c>
     </row>
     <row r="33" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="63"/>
-      <c r="B33" s="71"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="67"/>
       <c r="C33" s="9" t="s">
         <v>21</v>
       </c>
@@ -2572,8 +2572,8 @@
       </c>
     </row>
     <row r="34" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="63"/>
-      <c r="B34" s="69" t="s">
+      <c r="A34" s="55"/>
+      <c r="B34" s="65" t="s">
         <v>120</v>
       </c>
       <c r="C34" s="9" t="s">
@@ -2605,9 +2605,9 @@
       </c>
     </row>
     <row r="35" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="63"/>
-      <c r="B35" s="70"/>
-      <c r="C35" s="53" t="s">
+      <c r="A35" s="55"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="58" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="9" t="s">
@@ -2636,9 +2636,9 @@
       </c>
     </row>
     <row r="36" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="63"/>
-      <c r="B36" s="70"/>
-      <c r="C36" s="54"/>
+      <c r="A36" s="55"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="59"/>
       <c r="D36" s="9" t="s">
         <v>12</v>
       </c>
@@ -2665,8 +2665,8 @@
       </c>
     </row>
     <row r="37" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="63"/>
-      <c r="B37" s="71"/>
+      <c r="A37" s="55"/>
+      <c r="B37" s="67"/>
       <c r="C37" s="9" t="s">
         <v>13</v>
       </c>
@@ -2694,8 +2694,8 @@
       </c>
     </row>
     <row r="38" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="63"/>
-      <c r="B38" s="69" t="s">
+      <c r="A38" s="55"/>
+      <c r="B38" s="65" t="s">
         <v>121</v>
       </c>
       <c r="C38" s="9" t="s">
@@ -2727,9 +2727,9 @@
       </c>
     </row>
     <row r="39" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="63"/>
-      <c r="B39" s="70"/>
-      <c r="C39" s="53" t="s">
+      <c r="A39" s="55"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="58" t="s">
         <v>29</v>
       </c>
       <c r="D39" s="9" t="s">
@@ -2758,9 +2758,9 @@
       </c>
     </row>
     <row r="40" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="63"/>
-      <c r="B40" s="70"/>
-      <c r="C40" s="54"/>
+      <c r="A40" s="55"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="59"/>
       <c r="D40" s="9" t="s">
         <v>12</v>
       </c>
@@ -2787,8 +2787,8 @@
       </c>
     </row>
     <row r="41" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="63"/>
-      <c r="B41" s="71"/>
+      <c r="A41" s="55"/>
+      <c r="B41" s="67"/>
       <c r="C41" s="9" t="s">
         <v>13</v>
       </c>
@@ -2816,8 +2816,8 @@
       </c>
     </row>
     <row r="42" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="63"/>
-      <c r="B42" s="69" t="s">
+      <c r="A42" s="55"/>
+      <c r="B42" s="65" t="s">
         <v>125</v>
       </c>
       <c r="C42" s="9" t="s">
@@ -2849,9 +2849,9 @@
       </c>
     </row>
     <row r="43" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="63"/>
-      <c r="B43" s="70"/>
-      <c r="C43" s="53" t="s">
+      <c r="A43" s="55"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="58" t="s">
         <v>29</v>
       </c>
       <c r="D43" s="9" t="s">
@@ -2880,9 +2880,9 @@
       </c>
     </row>
     <row r="44" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="63"/>
-      <c r="B44" s="70"/>
-      <c r="C44" s="54"/>
+      <c r="A44" s="55"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="59"/>
       <c r="D44" s="9" t="s">
         <v>12</v>
       </c>
@@ -2909,8 +2909,8 @@
       </c>
     </row>
     <row r="45" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="63"/>
-      <c r="B45" s="70"/>
+      <c r="A45" s="55"/>
+      <c r="B45" s="66"/>
       <c r="C45" s="9" t="s">
         <v>13</v>
       </c>
@@ -2938,8 +2938,8 @@
       </c>
     </row>
     <row r="46" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="63"/>
-      <c r="B46" s="70"/>
+      <c r="A46" s="55"/>
+      <c r="B46" s="66"/>
       <c r="C46" s="16" t="s">
         <v>22</v>
       </c>
@@ -2967,8 +2967,8 @@
       </c>
     </row>
     <row r="47" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="63"/>
-      <c r="B47" s="71"/>
+      <c r="A47" s="55"/>
+      <c r="B47" s="67"/>
       <c r="C47" s="16" t="s">
         <v>23</v>
       </c>
@@ -2996,8 +2996,8 @@
       </c>
     </row>
     <row r="48" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="63"/>
-      <c r="B48" s="69" t="s">
+      <c r="A48" s="55"/>
+      <c r="B48" s="65" t="s">
         <v>122</v>
       </c>
       <c r="C48" s="16" t="s">
@@ -3029,8 +3029,8 @@
       </c>
     </row>
     <row r="49" spans="1:14" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="63"/>
-      <c r="B49" s="70"/>
+      <c r="A49" s="55"/>
+      <c r="B49" s="66"/>
       <c r="C49" s="17"/>
       <c r="D49" s="9" t="s">
         <v>6</v>
@@ -3060,8 +3060,8 @@
       </c>
     </row>
     <row r="50" spans="1:14" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="63"/>
-      <c r="B50" s="70"/>
+      <c r="A50" s="55"/>
+      <c r="B50" s="66"/>
       <c r="C50" s="16" t="s">
         <v>16</v>
       </c>
@@ -3091,8 +3091,8 @@
       </c>
     </row>
     <row r="51" spans="1:14" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="63"/>
-      <c r="B51" s="71"/>
+      <c r="A51" s="55"/>
+      <c r="B51" s="67"/>
       <c r="C51" s="17"/>
       <c r="D51" s="9" t="s">
         <v>6</v>
@@ -3120,8 +3120,8 @@
       </c>
     </row>
     <row r="52" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A52" s="63"/>
-      <c r="B52" s="69" t="s">
+      <c r="A52" s="55"/>
+      <c r="B52" s="65" t="s">
         <v>128</v>
       </c>
       <c r="C52" s="9" t="s">
@@ -3153,9 +3153,9 @@
       </c>
     </row>
     <row r="53" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A53" s="63"/>
-      <c r="B53" s="70"/>
-      <c r="C53" s="53" t="s">
+      <c r="A53" s="55"/>
+      <c r="B53" s="66"/>
+      <c r="C53" s="58" t="s">
         <v>29</v>
       </c>
       <c r="D53" s="9" t="s">
@@ -3184,9 +3184,9 @@
       </c>
     </row>
     <row r="54" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A54" s="63"/>
-      <c r="B54" s="70"/>
-      <c r="C54" s="54"/>
+      <c r="A54" s="55"/>
+      <c r="B54" s="66"/>
+      <c r="C54" s="59"/>
       <c r="D54" s="9" t="s">
         <v>12</v>
       </c>
@@ -3213,8 +3213,8 @@
       </c>
     </row>
     <row r="55" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A55" s="63"/>
-      <c r="B55" s="71"/>
+      <c r="A55" s="55"/>
+      <c r="B55" s="67"/>
       <c r="C55" s="9" t="s">
         <v>13</v>
       </c>
@@ -3255,7 +3255,7 @@
       </c>
     </row>
     <row r="57" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="66" t="s">
+      <c r="A57" s="56" t="s">
         <v>76</v>
       </c>
       <c r="B57" s="18" t="s">
@@ -3280,7 +3280,7 @@
       <c r="M57" s="9"/>
     </row>
     <row r="58" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="67"/>
+      <c r="A58" s="57"/>
       <c r="B58" s="18" t="s">
         <v>17</v>
       </c>
@@ -3301,7 +3301,7 @@
       <c r="M58" s="9"/>
     </row>
     <row r="59" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="67"/>
+      <c r="A59" s="57"/>
       <c r="B59" s="18" t="s">
         <v>18</v>
       </c>
@@ -3322,11 +3322,11 @@
       <c r="M59" s="9"/>
     </row>
     <row r="60" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="67"/>
-      <c r="B60" s="64" t="s">
+      <c r="A60" s="57"/>
+      <c r="B60" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="C60" s="56" t="s">
+      <c r="C60" s="60" t="s">
         <v>40</v>
       </c>
       <c r="D60" s="9" t="s">
@@ -3349,13 +3349,13 @@
       <c r="M60" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="N60" s="52"/>
+      <c r="N60" s="71"/>
     </row>
     <row r="61" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="67"/>
-      <c r="B61" s="65"/>
-      <c r="C61" s="56"/>
-      <c r="D61" s="53" t="s">
+      <c r="A61" s="57"/>
+      <c r="B61" s="69"/>
+      <c r="C61" s="60"/>
+      <c r="D61" s="58" t="s">
         <v>89</v>
       </c>
       <c r="E61" s="9" t="s">
@@ -3373,13 +3373,13 @@
       </c>
       <c r="L61" s="10"/>
       <c r="M61" s="49"/>
-      <c r="N61" s="52"/>
+      <c r="N61" s="71"/>
     </row>
     <row r="62" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="67"/>
-      <c r="B62" s="65"/>
-      <c r="C62" s="56"/>
-      <c r="D62" s="54"/>
+      <c r="A62" s="57"/>
+      <c r="B62" s="69"/>
+      <c r="C62" s="60"/>
+      <c r="D62" s="59"/>
       <c r="E62" s="9" t="s">
         <v>87</v>
       </c>
@@ -3395,12 +3395,12 @@
       </c>
       <c r="L62" s="10"/>
       <c r="M62" s="49"/>
-      <c r="N62" s="52"/>
+      <c r="N62" s="71"/>
     </row>
     <row r="63" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="67"/>
-      <c r="B63" s="65"/>
-      <c r="C63" s="53" t="s">
+      <c r="A63" s="57"/>
+      <c r="B63" s="69"/>
+      <c r="C63" s="58" t="s">
         <v>83</v>
       </c>
       <c r="D63" s="9" t="s">
@@ -3423,12 +3423,12 @@
       <c r="M63" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="N63" s="52"/>
+      <c r="N63" s="71"/>
     </row>
     <row r="64" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="67"/>
-      <c r="B64" s="65"/>
-      <c r="C64" s="54"/>
+      <c r="A64" s="57"/>
+      <c r="B64" s="69"/>
+      <c r="C64" s="59"/>
       <c r="D64" s="9" t="s">
         <v>81</v>
       </c>
@@ -3449,11 +3449,11 @@
       <c r="M64" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="N64" s="52"/>
+      <c r="N64" s="71"/>
     </row>
     <row r="65" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="67"/>
-      <c r="B65" s="65"/>
+      <c r="A65" s="57"/>
+      <c r="B65" s="69"/>
       <c r="C65" s="17" t="s">
         <v>82</v>
       </c>
@@ -3475,9 +3475,9 @@
       </c>
     </row>
     <row r="66" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A66" s="67"/>
-      <c r="B66" s="65"/>
-      <c r="C66" s="56" t="s">
+      <c r="A66" s="57"/>
+      <c r="B66" s="69"/>
+      <c r="C66" s="60" t="s">
         <v>45</v>
       </c>
       <c r="D66" s="9" t="s">
@@ -3500,10 +3500,10 @@
       </c>
     </row>
     <row r="67" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A67" s="67"/>
-      <c r="B67" s="65"/>
-      <c r="C67" s="56"/>
-      <c r="D67" s="56" t="s">
+      <c r="A67" s="57"/>
+      <c r="B67" s="69"/>
+      <c r="C67" s="60"/>
+      <c r="D67" s="60" t="s">
         <v>90</v>
       </c>
       <c r="E67" s="9" t="s">
@@ -3523,10 +3523,10 @@
       <c r="M67" s="49"/>
     </row>
     <row r="68" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A68" s="67"/>
-      <c r="B68" s="65"/>
-      <c r="C68" s="56"/>
-      <c r="D68" s="56"/>
+      <c r="A68" s="57"/>
+      <c r="B68" s="69"/>
+      <c r="C68" s="60"/>
+      <c r="D68" s="60"/>
       <c r="E68" s="9" t="s">
         <v>70</v>
       </c>
@@ -3544,9 +3544,9 @@
       <c r="M68" s="49"/>
     </row>
     <row r="69" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A69" s="67"/>
-      <c r="B69" s="65"/>
-      <c r="C69" s="53" t="s">
+      <c r="A69" s="57"/>
+      <c r="B69" s="69"/>
+      <c r="C69" s="58" t="s">
         <v>36</v>
       </c>
       <c r="D69" s="9" t="s">
@@ -3569,9 +3569,9 @@
       </c>
     </row>
     <row r="70" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A70" s="67"/>
-      <c r="B70" s="65"/>
-      <c r="C70" s="57"/>
+      <c r="A70" s="57"/>
+      <c r="B70" s="69"/>
+      <c r="C70" s="63"/>
       <c r="D70" s="9" t="s">
         <v>38</v>
       </c>
@@ -3592,9 +3592,9 @@
       </c>
     </row>
     <row r="71" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A71" s="67"/>
-      <c r="B71" s="65"/>
-      <c r="C71" s="54"/>
+      <c r="A71" s="57"/>
+      <c r="B71" s="69"/>
+      <c r="C71" s="59"/>
       <c r="D71" s="9" t="s">
         <v>39</v>
       </c>
@@ -3615,8 +3615,8 @@
       <c r="M71" s="49"/>
     </row>
     <row r="72" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A72" s="67"/>
-      <c r="B72" s="65"/>
+      <c r="A72" s="57"/>
+      <c r="B72" s="69"/>
       <c r="C72" s="9" t="s">
         <v>49</v>
       </c>
@@ -3638,8 +3638,8 @@
       </c>
     </row>
     <row r="73" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A73" s="67"/>
-      <c r="B73" s="65"/>
+      <c r="A73" s="57"/>
+      <c r="B73" s="69"/>
       <c r="C73" s="9" t="s">
         <v>50</v>
       </c>
@@ -3661,9 +3661,9 @@
       </c>
     </row>
     <row r="74" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A74" s="67"/>
-      <c r="B74" s="65"/>
-      <c r="C74" s="53" t="s">
+      <c r="A74" s="57"/>
+      <c r="B74" s="69"/>
+      <c r="C74" s="58" t="s">
         <v>57</v>
       </c>
       <c r="D74" s="30" t="s">
@@ -3686,9 +3686,9 @@
       </c>
     </row>
     <row r="75" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A75" s="67"/>
-      <c r="B75" s="65"/>
-      <c r="C75" s="54"/>
+      <c r="A75" s="57"/>
+      <c r="B75" s="69"/>
+      <c r="C75" s="59"/>
       <c r="D75" s="9" t="s">
         <v>96</v>
       </c>
@@ -3711,9 +3711,9 @@
       </c>
     </row>
     <row r="76" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A76" s="67"/>
-      <c r="B76" s="65"/>
-      <c r="C76" s="58" t="s">
+      <c r="A76" s="57"/>
+      <c r="B76" s="69"/>
+      <c r="C76" s="72" t="s">
         <v>51</v>
       </c>
       <c r="D76" s="19" t="s">
@@ -3734,9 +3734,9 @@
       <c r="M76" s="43"/>
     </row>
     <row r="77" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A77" s="67"/>
-      <c r="B77" s="65"/>
-      <c r="C77" s="59"/>
+      <c r="A77" s="57"/>
+      <c r="B77" s="69"/>
+      <c r="C77" s="73"/>
       <c r="D77" s="19" t="s">
         <v>53</v>
       </c>
@@ -3755,9 +3755,9 @@
       <c r="M77" s="43"/>
     </row>
     <row r="78" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A78" s="67"/>
-      <c r="B78" s="65"/>
-      <c r="C78" s="59"/>
+      <c r="A78" s="57"/>
+      <c r="B78" s="69"/>
+      <c r="C78" s="73"/>
       <c r="D78" s="19" t="s">
         <v>54</v>
       </c>
@@ -3776,9 +3776,9 @@
       <c r="M78" s="43"/>
     </row>
     <row r="79" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A79" s="67"/>
-      <c r="B79" s="65"/>
-      <c r="C79" s="59"/>
+      <c r="A79" s="57"/>
+      <c r="B79" s="69"/>
+      <c r="C79" s="73"/>
       <c r="D79" s="19" t="s">
         <v>55</v>
       </c>
@@ -3797,9 +3797,9 @@
       <c r="M79" s="43"/>
     </row>
     <row r="80" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A80" s="67"/>
-      <c r="B80" s="65"/>
-      <c r="C80" s="60"/>
+      <c r="A80" s="57"/>
+      <c r="B80" s="69"/>
+      <c r="C80" s="74"/>
       <c r="D80" s="19" t="s">
         <v>56</v>
       </c>
@@ -3818,11 +3818,11 @@
       <c r="M80" s="43"/>
     </row>
     <row r="81" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A81" s="67"/>
-      <c r="B81" s="73" t="s">
+      <c r="A81" s="57"/>
+      <c r="B81" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="C81" s="61" t="s">
+      <c r="C81" s="75" t="s">
         <v>74</v>
       </c>
       <c r="D81" s="15" t="s">
@@ -3843,9 +3843,9 @@
       <c r="M81" s="43"/>
     </row>
     <row r="82" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A82" s="67"/>
-      <c r="B82" s="74"/>
-      <c r="C82" s="62"/>
+      <c r="A82" s="57"/>
+      <c r="B82" s="54"/>
+      <c r="C82" s="76"/>
       <c r="D82" s="15" t="s">
         <v>59</v>
       </c>
@@ -3864,9 +3864,9 @@
       <c r="M82" s="43"/>
     </row>
     <row r="83" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A83" s="67"/>
-      <c r="B83" s="74"/>
-      <c r="C83" s="62"/>
+      <c r="A83" s="57"/>
+      <c r="B83" s="54"/>
+      <c r="C83" s="76"/>
       <c r="D83" s="15" t="s">
         <v>55</v>
       </c>
@@ -3883,9 +3883,9 @@
       <c r="M83" s="43"/>
     </row>
     <row r="84" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A84" s="67"/>
-      <c r="B84" s="74"/>
-      <c r="C84" s="62"/>
+      <c r="A84" s="57"/>
+      <c r="B84" s="54"/>
+      <c r="C84" s="76"/>
       <c r="D84" s="15" t="s">
         <v>60</v>
       </c>
@@ -3902,12 +3902,12 @@
       <c r="M84" s="43"/>
     </row>
     <row r="85" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A85" s="67"/>
-      <c r="B85" s="74"/>
-      <c r="C85" s="55" t="s">
+      <c r="A85" s="57"/>
+      <c r="B85" s="54"/>
+      <c r="C85" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="D85" s="53" t="s">
+      <c r="D85" s="58" t="s">
         <v>61</v>
       </c>
       <c r="E85" s="9" t="s">
@@ -3922,7 +3922,9 @@
       <c r="H85" s="45">
         <v>42971</v>
       </c>
-      <c r="I85" s="45"/>
+      <c r="I85" s="45">
+        <v>42972</v>
+      </c>
       <c r="J85" s="33"/>
       <c r="K85" s="35">
         <v>1</v>
@@ -3935,11 +3937,11 @@
       </c>
     </row>
     <row r="86" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A86" s="67"/>
-      <c r="B86" s="74"/>
-      <c r="C86" s="55"/>
-      <c r="D86" s="57"/>
-      <c r="E86" s="53" t="s">
+      <c r="A86" s="57"/>
+      <c r="B86" s="54"/>
+      <c r="C86" s="64"/>
+      <c r="D86" s="63"/>
+      <c r="E86" s="58" t="s">
         <v>29</v>
       </c>
       <c r="F86" s="9" t="s">
@@ -3948,8 +3950,12 @@
       <c r="G86" s="44">
         <v>0.5</v>
       </c>
-      <c r="H86" s="9"/>
-      <c r="I86" s="9"/>
+      <c r="H86" s="45">
+        <v>42975</v>
+      </c>
+      <c r="I86" s="45">
+        <v>42978</v>
+      </c>
       <c r="J86" s="33"/>
       <c r="K86" s="35">
         <v>1</v>
@@ -3962,19 +3968,23 @@
       </c>
     </row>
     <row r="87" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A87" s="67"/>
-      <c r="B87" s="74"/>
-      <c r="C87" s="55"/>
-      <c r="D87" s="57"/>
-      <c r="E87" s="54"/>
+      <c r="A87" s="57"/>
+      <c r="B87" s="54"/>
+      <c r="C87" s="64"/>
+      <c r="D87" s="63"/>
+      <c r="E87" s="59"/>
       <c r="F87" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G87" s="44">
         <v>0.5</v>
       </c>
-      <c r="H87" s="9"/>
-      <c r="I87" s="9"/>
+      <c r="H87" s="45">
+        <v>42975</v>
+      </c>
+      <c r="I87" s="45">
+        <v>42978</v>
+      </c>
       <c r="J87" s="33"/>
       <c r="K87" s="35">
         <v>1</v>
@@ -3987,10 +3997,10 @@
       </c>
     </row>
     <row r="88" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A88" s="67"/>
-      <c r="B88" s="74"/>
-      <c r="C88" s="55"/>
-      <c r="D88" s="57"/>
+      <c r="A88" s="57"/>
+      <c r="B88" s="54"/>
+      <c r="C88" s="64"/>
+      <c r="D88" s="63"/>
       <c r="E88" s="9" t="s">
         <v>13</v>
       </c>
@@ -3998,8 +4008,12 @@
       <c r="G88" s="44">
         <v>0.5</v>
       </c>
-      <c r="H88" s="9"/>
-      <c r="I88" s="9"/>
+      <c r="H88" s="45">
+        <v>42975</v>
+      </c>
+      <c r="I88" s="45">
+        <v>42978</v>
+      </c>
       <c r="J88" s="33"/>
       <c r="K88" s="35">
         <v>1</v>
@@ -4012,10 +4026,10 @@
       </c>
     </row>
     <row r="89" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A89" s="67"/>
-      <c r="B89" s="74"/>
-      <c r="C89" s="55"/>
-      <c r="D89" s="57"/>
+      <c r="A89" s="57"/>
+      <c r="B89" s="54"/>
+      <c r="C89" s="64"/>
+      <c r="D89" s="63"/>
       <c r="E89" s="9" t="s">
         <v>130</v>
       </c>
@@ -4023,8 +4037,12 @@
       <c r="G89" s="44">
         <v>0.5</v>
       </c>
-      <c r="H89" s="9"/>
-      <c r="I89" s="9"/>
+      <c r="H89" s="45">
+        <v>42975</v>
+      </c>
+      <c r="I89" s="45">
+        <v>42978</v>
+      </c>
       <c r="J89" s="33"/>
       <c r="K89" s="35">
         <v>1</v>
@@ -4037,10 +4055,10 @@
       </c>
     </row>
     <row r="90" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A90" s="67"/>
-      <c r="B90" s="74"/>
-      <c r="C90" s="55"/>
-      <c r="D90" s="57"/>
+      <c r="A90" s="57"/>
+      <c r="B90" s="54"/>
+      <c r="C90" s="64"/>
+      <c r="D90" s="63"/>
       <c r="E90" s="9" t="s">
         <v>131</v>
       </c>
@@ -4060,10 +4078,10 @@
       <c r="M90" s="49"/>
     </row>
     <row r="91" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A91" s="67"/>
-      <c r="B91" s="74"/>
-      <c r="C91" s="55"/>
-      <c r="D91" s="57"/>
+      <c r="A91" s="57"/>
+      <c r="B91" s="54"/>
+      <c r="C91" s="64"/>
+      <c r="D91" s="63"/>
       <c r="E91" s="16" t="s">
         <v>132</v>
       </c>
@@ -4071,8 +4089,8 @@
       <c r="G91" s="44">
         <v>0.5</v>
       </c>
-      <c r="H91" s="9"/>
-      <c r="I91" s="9"/>
+      <c r="H91" s="45"/>
+      <c r="I91" s="45"/>
       <c r="J91" s="33"/>
       <c r="K91" s="35">
         <v>1</v>
@@ -4083,11 +4101,11 @@
       </c>
     </row>
     <row r="92" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A92" s="67"/>
-      <c r="B92" s="74"/>
-      <c r="C92" s="55"/>
-      <c r="D92" s="57"/>
-      <c r="E92" s="53" t="s">
+      <c r="A92" s="57"/>
+      <c r="B92" s="54"/>
+      <c r="C92" s="64"/>
+      <c r="D92" s="63"/>
+      <c r="E92" s="58" t="s">
         <v>133</v>
       </c>
       <c r="F92" s="9" t="s">
@@ -4096,8 +4114,12 @@
       <c r="G92" s="44">
         <v>0.5</v>
       </c>
-      <c r="H92" s="9"/>
-      <c r="I92" s="9"/>
+      <c r="H92" s="45">
+        <v>42975</v>
+      </c>
+      <c r="I92" s="45">
+        <v>42978</v>
+      </c>
       <c r="J92" s="33"/>
       <c r="K92" s="35">
         <v>1</v>
@@ -4110,19 +4132,23 @@
       </c>
     </row>
     <row r="93" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A93" s="67"/>
-      <c r="B93" s="74"/>
-      <c r="C93" s="55"/>
-      <c r="D93" s="57"/>
-      <c r="E93" s="57"/>
+      <c r="A93" s="57"/>
+      <c r="B93" s="54"/>
+      <c r="C93" s="64"/>
+      <c r="D93" s="63"/>
+      <c r="E93" s="63"/>
       <c r="F93" s="9" t="s">
         <v>135</v>
       </c>
       <c r="G93" s="44">
         <v>0.5</v>
       </c>
-      <c r="H93" s="9"/>
-      <c r="I93" s="9"/>
+      <c r="H93" s="45">
+        <v>42975</v>
+      </c>
+      <c r="I93" s="45">
+        <v>42978</v>
+      </c>
       <c r="J93" s="33"/>
       <c r="K93" s="35">
         <v>1</v>
@@ -4135,19 +4161,23 @@
       </c>
     </row>
     <row r="94" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A94" s="67"/>
-      <c r="B94" s="74"/>
-      <c r="C94" s="55"/>
-      <c r="D94" s="57"/>
-      <c r="E94" s="54"/>
+      <c r="A94" s="57"/>
+      <c r="B94" s="54"/>
+      <c r="C94" s="64"/>
+      <c r="D94" s="63"/>
+      <c r="E94" s="59"/>
       <c r="F94" s="9" t="s">
         <v>136</v>
       </c>
       <c r="G94" s="44">
         <v>0.5</v>
       </c>
-      <c r="H94" s="9"/>
-      <c r="I94" s="9"/>
+      <c r="H94" s="45">
+        <v>42975</v>
+      </c>
+      <c r="I94" s="45">
+        <v>42978</v>
+      </c>
       <c r="J94" s="33"/>
       <c r="K94" s="35">
         <v>1</v>
@@ -4160,10 +4190,10 @@
       </c>
     </row>
     <row r="95" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A95" s="67"/>
-      <c r="B95" s="74"/>
-      <c r="C95" s="55"/>
-      <c r="D95" s="56" t="s">
+      <c r="A95" s="57"/>
+      <c r="B95" s="54"/>
+      <c r="C95" s="64"/>
+      <c r="D95" s="60" t="s">
         <v>102</v>
       </c>
       <c r="E95" s="9" t="s">
@@ -4183,10 +4213,10 @@
       <c r="M95" s="49"/>
     </row>
     <row r="96" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A96" s="67"/>
-      <c r="B96" s="74"/>
-      <c r="C96" s="55"/>
-      <c r="D96" s="56"/>
+      <c r="A96" s="57"/>
+      <c r="B96" s="54"/>
+      <c r="C96" s="64"/>
+      <c r="D96" s="60"/>
       <c r="E96" s="9" t="s">
         <v>48</v>
       </c>
@@ -4206,10 +4236,10 @@
       <c r="M96" s="49"/>
     </row>
     <row r="97" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A97" s="67"/>
-      <c r="B97" s="74"/>
-      <c r="C97" s="55"/>
-      <c r="D97" s="53" t="s">
+      <c r="A97" s="57"/>
+      <c r="B97" s="54"/>
+      <c r="C97" s="64"/>
+      <c r="D97" s="58" t="s">
         <v>114</v>
       </c>
       <c r="E97" s="9" t="s">
@@ -4239,11 +4269,11 @@
       </c>
     </row>
     <row r="98" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A98" s="67"/>
-      <c r="B98" s="74"/>
-      <c r="C98" s="55"/>
-      <c r="D98" s="57"/>
-      <c r="E98" s="53" t="s">
+      <c r="A98" s="57"/>
+      <c r="B98" s="54"/>
+      <c r="C98" s="64"/>
+      <c r="D98" s="63"/>
+      <c r="E98" s="58" t="s">
         <v>29</v>
       </c>
       <c r="F98" s="9" t="s">
@@ -4270,11 +4300,11 @@
       </c>
     </row>
     <row r="99" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A99" s="67"/>
-      <c r="B99" s="74"/>
-      <c r="C99" s="55"/>
-      <c r="D99" s="57"/>
-      <c r="E99" s="54"/>
+      <c r="A99" s="57"/>
+      <c r="B99" s="54"/>
+      <c r="C99" s="64"/>
+      <c r="D99" s="63"/>
+      <c r="E99" s="59"/>
       <c r="F99" s="9" t="s">
         <v>12</v>
       </c>
@@ -4299,10 +4329,10 @@
       </c>
     </row>
     <row r="100" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A100" s="67"/>
-      <c r="B100" s="74"/>
-      <c r="C100" s="55"/>
-      <c r="D100" s="54"/>
+      <c r="A100" s="57"/>
+      <c r="B100" s="54"/>
+      <c r="C100" s="64"/>
+      <c r="D100" s="59"/>
       <c r="E100" s="9" t="s">
         <v>13</v>
       </c>
@@ -4339,7 +4369,7 @@
       <c r="K101" s="35"/>
     </row>
     <row r="102" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A102" s="63" t="s">
+      <c r="A102" s="55" t="s">
         <v>69</v>
       </c>
       <c r="B102" s="18" t="s">
@@ -4364,7 +4394,7 @@
       </c>
     </row>
     <row r="103" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A103" s="63"/>
+      <c r="A103" s="55"/>
       <c r="B103" s="18" t="s">
         <v>17</v>
       </c>
@@ -4387,7 +4417,7 @@
       </c>
     </row>
     <row r="104" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A104" s="63"/>
+      <c r="A104" s="55"/>
       <c r="B104" s="18" t="s">
         <v>18</v>
       </c>
@@ -4410,11 +4440,11 @@
       </c>
     </row>
     <row r="105" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="63"/>
-      <c r="B105" s="73" t="s">
+      <c r="A105" s="55"/>
+      <c r="B105" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="C105" s="53" t="s">
+      <c r="C105" s="58" t="s">
         <v>33</v>
       </c>
       <c r="D105" s="9" t="s">
@@ -4441,9 +4471,9 @@
       </c>
     </row>
     <row r="106" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A106" s="63"/>
-      <c r="B106" s="74"/>
-      <c r="C106" s="57"/>
+      <c r="A106" s="55"/>
+      <c r="B106" s="54"/>
+      <c r="C106" s="63"/>
       <c r="D106" s="50" t="s">
         <v>41</v>
       </c>
@@ -4466,10 +4496,10 @@
       </c>
     </row>
     <row r="107" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A107" s="63"/>
-      <c r="B107" s="74"/>
-      <c r="C107" s="54"/>
-      <c r="D107" s="51"/>
+      <c r="A107" s="55"/>
+      <c r="B107" s="54"/>
+      <c r="C107" s="59"/>
+      <c r="D107" s="52"/>
       <c r="E107" s="9" t="s">
         <v>43</v>
       </c>
@@ -4489,9 +4519,9 @@
       </c>
     </row>
     <row r="108" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A108" s="63"/>
-      <c r="B108" s="74"/>
-      <c r="C108" s="53" t="s">
+      <c r="A108" s="55"/>
+      <c r="B108" s="54"/>
+      <c r="C108" s="58" t="s">
         <v>45</v>
       </c>
       <c r="D108" s="9" t="s">
@@ -4516,9 +4546,9 @@
       </c>
     </row>
     <row r="109" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A109" s="63"/>
-      <c r="B109" s="74"/>
-      <c r="C109" s="57"/>
+      <c r="A109" s="55"/>
+      <c r="B109" s="54"/>
+      <c r="C109" s="63"/>
       <c r="D109" s="50" t="s">
         <v>41</v>
       </c>
@@ -4541,10 +4571,10 @@
       </c>
     </row>
     <row r="110" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A110" s="63"/>
-      <c r="B110" s="74"/>
-      <c r="C110" s="57"/>
-      <c r="D110" s="72"/>
+      <c r="A110" s="55"/>
+      <c r="B110" s="54"/>
+      <c r="C110" s="63"/>
+      <c r="D110" s="51"/>
       <c r="E110" s="9" t="s">
         <v>43</v>
       </c>
@@ -4564,10 +4594,10 @@
       </c>
     </row>
     <row r="111" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A111" s="63"/>
-      <c r="B111" s="74"/>
-      <c r="C111" s="54"/>
-      <c r="D111" s="51"/>
+      <c r="A111" s="55"/>
+      <c r="B111" s="54"/>
+      <c r="C111" s="59"/>
+      <c r="D111" s="52"/>
       <c r="E111" s="9" t="s">
         <v>47</v>
       </c>
@@ -4587,9 +4617,9 @@
       </c>
     </row>
     <row r="112" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A112" s="63"/>
-      <c r="B112" s="74"/>
-      <c r="C112" s="55" t="s">
+      <c r="A112" s="55"/>
+      <c r="B112" s="54"/>
+      <c r="C112" s="64" t="s">
         <v>71</v>
       </c>
       <c r="D112" s="9" t="s">
@@ -4614,9 +4644,9 @@
       </c>
     </row>
     <row r="113" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A113" s="63"/>
-      <c r="B113" s="74"/>
-      <c r="C113" s="56"/>
+      <c r="A113" s="55"/>
+      <c r="B113" s="54"/>
+      <c r="C113" s="60"/>
       <c r="D113" s="9" t="s">
         <v>63</v>
       </c>
@@ -4639,8 +4669,8 @@
       </c>
     </row>
     <row r="114" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A114" s="63"/>
-      <c r="B114" s="74"/>
+      <c r="A114" s="55"/>
+      <c r="B114" s="54"/>
       <c r="C114" s="9" t="s">
         <v>92</v>
       </c>
@@ -4664,11 +4694,11 @@
       </c>
     </row>
     <row r="115" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A115" s="63"/>
-      <c r="B115" s="73" t="s">
+      <c r="A115" s="55"/>
+      <c r="B115" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="C115" s="53" t="s">
+      <c r="C115" s="58" t="s">
         <v>64</v>
       </c>
       <c r="D115" s="21" t="s">
@@ -4695,10 +4725,10 @@
       </c>
     </row>
     <row r="116" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A116" s="63"/>
-      <c r="B116" s="73"/>
-      <c r="C116" s="57"/>
-      <c r="D116" s="75" t="s">
+      <c r="A116" s="55"/>
+      <c r="B116" s="53"/>
+      <c r="C116" s="63"/>
+      <c r="D116" s="61" t="s">
         <v>29</v>
       </c>
       <c r="E116" s="9" t="s">
@@ -4722,10 +4752,10 @@
       </c>
     </row>
     <row r="117" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A117" s="63"/>
-      <c r="B117" s="73"/>
-      <c r="C117" s="57"/>
-      <c r="D117" s="76"/>
+      <c r="A117" s="55"/>
+      <c r="B117" s="53"/>
+      <c r="C117" s="63"/>
+      <c r="D117" s="62"/>
       <c r="E117" s="9" t="s">
         <v>12</v>
       </c>
@@ -4747,9 +4777,9 @@
       </c>
     </row>
     <row r="118" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A118" s="63"/>
-      <c r="B118" s="73"/>
-      <c r="C118" s="57"/>
+      <c r="A118" s="55"/>
+      <c r="B118" s="53"/>
+      <c r="C118" s="63"/>
       <c r="D118" s="21" t="s">
         <v>13</v>
       </c>
@@ -4772,9 +4802,9 @@
       </c>
     </row>
     <row r="119" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A119" s="63"/>
-      <c r="B119" s="73"/>
-      <c r="C119" s="57"/>
+      <c r="A119" s="55"/>
+      <c r="B119" s="53"/>
+      <c r="C119" s="63"/>
       <c r="D119" s="21" t="s">
         <v>25</v>
       </c>
@@ -4797,9 +4827,9 @@
       </c>
     </row>
     <row r="120" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A120" s="63"/>
-      <c r="B120" s="73"/>
-      <c r="C120" s="57"/>
+      <c r="A120" s="55"/>
+      <c r="B120" s="53"/>
+      <c r="C120" s="63"/>
       <c r="D120" s="21" t="s">
         <v>24</v>
       </c>
@@ -4822,9 +4852,9 @@
       </c>
     </row>
     <row r="121" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A121" s="63"/>
-      <c r="B121" s="73"/>
-      <c r="C121" s="54"/>
+      <c r="A121" s="55"/>
+      <c r="B121" s="53"/>
+      <c r="C121" s="59"/>
       <c r="D121" s="21" t="s">
         <v>26</v>
       </c>
@@ -4847,9 +4877,9 @@
       </c>
     </row>
     <row r="122" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A122" s="63"/>
-      <c r="B122" s="74"/>
-      <c r="C122" s="53" t="s">
+      <c r="A122" s="55"/>
+      <c r="B122" s="54"/>
+      <c r="C122" s="58" t="s">
         <v>99</v>
       </c>
       <c r="D122" s="21" t="s">
@@ -4876,10 +4906,10 @@
       </c>
     </row>
     <row r="123" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A123" s="63"/>
-      <c r="B123" s="74"/>
-      <c r="C123" s="57"/>
-      <c r="D123" s="75" t="s">
+      <c r="A123" s="55"/>
+      <c r="B123" s="54"/>
+      <c r="C123" s="63"/>
+      <c r="D123" s="61" t="s">
         <v>29</v>
       </c>
       <c r="E123" s="9" t="s">
@@ -4903,10 +4933,10 @@
       </c>
     </row>
     <row r="124" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A124" s="63"/>
-      <c r="B124" s="74"/>
-      <c r="C124" s="57"/>
-      <c r="D124" s="76"/>
+      <c r="A124" s="55"/>
+      <c r="B124" s="54"/>
+      <c r="C124" s="63"/>
+      <c r="D124" s="62"/>
       <c r="E124" s="9" t="s">
         <v>12</v>
       </c>
@@ -4928,9 +4958,9 @@
       </c>
     </row>
     <row r="125" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A125" s="63"/>
-      <c r="B125" s="74"/>
-      <c r="C125" s="54"/>
+      <c r="A125" s="55"/>
+      <c r="B125" s="54"/>
+      <c r="C125" s="59"/>
       <c r="D125" s="21" t="s">
         <v>13</v>
       </c>
@@ -4953,8 +4983,8 @@
       </c>
     </row>
     <row r="126" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A126" s="63"/>
-      <c r="B126" s="74"/>
+      <c r="A126" s="55"/>
+      <c r="B126" s="54"/>
       <c r="C126" s="37" t="s">
         <v>65</v>
       </c>
@@ -4974,8 +5004,8 @@
       <c r="M126" s="9"/>
     </row>
     <row r="127" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A127" s="63"/>
-      <c r="B127" s="74"/>
+      <c r="A127" s="55"/>
+      <c r="B127" s="54"/>
       <c r="C127" s="37" t="s">
         <v>66</v>
       </c>
@@ -4995,8 +5025,8 @@
       <c r="M127" s="9"/>
     </row>
     <row r="128" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A128" s="63"/>
-      <c r="B128" s="74"/>
+      <c r="A128" s="55"/>
+      <c r="B128" s="54"/>
       <c r="C128" s="37" t="s">
         <v>67</v>
       </c>
@@ -5016,8 +5046,8 @@
       <c r="M128" s="9"/>
     </row>
     <row r="129" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A129" s="63"/>
-      <c r="B129" s="74"/>
+      <c r="A129" s="55"/>
+      <c r="B129" s="54"/>
       <c r="C129" s="37" t="s">
         <v>68</v>
       </c>
@@ -5060,6 +5090,40 @@
     <protectedRange sqref="L102:L129 L2:L5 L8:L55 L57:L100" name="区域3"/>
   </protectedRanges>
   <mergeCells count="50">
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="N60:N64"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="C85:C100"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="D97:D100"/>
+    <mergeCell ref="D85:D94"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="C76:C80"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="A8:A55"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="B60:B80"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B25:B33"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="C39:C40"/>
     <mergeCell ref="D109:D111"/>
     <mergeCell ref="B115:B129"/>
     <mergeCell ref="A102:A129"/>
@@ -5076,40 +5140,6 @@
     <mergeCell ref="C112:C113"/>
     <mergeCell ref="C108:C111"/>
     <mergeCell ref="C105:C107"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B47"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="A8:A55"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="B60:B80"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B25:B33"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="N60:N64"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="C85:C100"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="D97:D100"/>
-    <mergeCell ref="D85:D94"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="C76:C80"/>
-    <mergeCell ref="C81:C84"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="L2:L5 L102:L129 L48:L51 L43:L44 L25:L37 L8:L14 L66:L100">

--- a/doc/开发计划V0.1.xlsx
+++ b/doc/开发计划V0.1.xlsx
@@ -933,89 +933,113 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="42">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1336,8 +1360,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="38"/>
-      <tableStyleElement type="headerRow" dxfId="37"/>
+      <tableStyleElement type="wholeTable" dxfId="41"/>
+      <tableStyleElement type="headerRow" dxfId="40"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1712,7 +1736,7 @@
       <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="66" t="s">
         <v>77</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -1733,7 +1757,7 @@
       <c r="M3" s="9"/>
     </row>
     <row r="4" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="57"/>
+      <c r="A4" s="67"/>
       <c r="B4" s="12" t="s">
         <v>80</v>
       </c>
@@ -1752,7 +1776,7 @@
       <c r="M4" s="9"/>
     </row>
     <row r="5" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="57"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="12" t="s">
         <v>78</v>
       </c>
@@ -1771,7 +1795,7 @@
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="57"/>
+      <c r="A6" s="67"/>
       <c r="B6" s="12"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1788,7 +1812,7 @@
       <c r="M6" s="9"/>
     </row>
     <row r="7" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="70"/>
+      <c r="A7" s="68"/>
       <c r="B7" s="12"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1805,7 +1829,7 @@
       <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="63" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="14" t="s">
@@ -1827,7 +1851,7 @@
       <c r="M8" s="48"/>
     </row>
     <row r="9" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="55"/>
+      <c r="A9" s="63"/>
       <c r="B9" s="14" t="s">
         <v>17</v>
       </c>
@@ -1848,7 +1872,7 @@
       <c r="M9" s="48"/>
     </row>
     <row r="10" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="55"/>
+      <c r="A10" s="63"/>
       <c r="B10" s="14" t="s">
         <v>18</v>
       </c>
@@ -1877,8 +1901,8 @@
       </c>
     </row>
     <row r="11" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="55"/>
-      <c r="B11" s="65" t="s">
+      <c r="A11" s="63"/>
+      <c r="B11" s="69" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -1912,8 +1936,8 @@
       </c>
     </row>
     <row r="12" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A12" s="55"/>
-      <c r="B12" s="66"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="70"/>
       <c r="C12" s="9" t="s">
         <v>10</v>
       </c>
@@ -1943,8 +1967,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="55"/>
-      <c r="B13" s="66"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="70"/>
       <c r="C13" s="9" t="s">
         <v>9</v>
       </c>
@@ -1972,8 +1996,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="55"/>
-      <c r="B14" s="67"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="71"/>
       <c r="C14" s="9" t="s">
         <v>27</v>
       </c>
@@ -2003,8 +2027,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="55"/>
-      <c r="B15" s="65" t="s">
+      <c r="A15" s="63"/>
+      <c r="B15" s="69" t="s">
         <v>119</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -2036,9 +2060,9 @@
       </c>
     </row>
     <row r="16" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="55"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="58" t="s">
+      <c r="A16" s="63"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="53" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="9" t="s">
@@ -2067,9 +2091,9 @@
       </c>
     </row>
     <row r="17" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="55"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="59"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="9" t="s">
         <v>12</v>
       </c>
@@ -2096,8 +2120,8 @@
       </c>
     </row>
     <row r="18" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="55"/>
-      <c r="B18" s="67"/>
+      <c r="A18" s="63"/>
+      <c r="B18" s="71"/>
       <c r="C18" s="9" t="s">
         <v>13</v>
       </c>
@@ -2125,8 +2149,8 @@
       </c>
     </row>
     <row r="19" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="55"/>
-      <c r="B19" s="65" t="s">
+      <c r="A19" s="63"/>
+      <c r="B19" s="69" t="s">
         <v>126</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -2158,9 +2182,9 @@
       </c>
     </row>
     <row r="20" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="55"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="58" t="s">
+      <c r="A20" s="63"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="53" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="9" t="s">
@@ -2189,9 +2213,9 @@
       </c>
     </row>
     <row r="21" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="55"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="59"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="54"/>
       <c r="D21" s="9" t="s">
         <v>12</v>
       </c>
@@ -2218,8 +2242,8 @@
       </c>
     </row>
     <row r="22" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="55"/>
-      <c r="B22" s="66"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="70"/>
       <c r="C22" s="9" t="s">
         <v>13</v>
       </c>
@@ -2247,8 +2271,8 @@
       </c>
     </row>
     <row r="23" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="55"/>
-      <c r="B23" s="66"/>
+      <c r="A23" s="63"/>
+      <c r="B23" s="70"/>
       <c r="C23" s="9" t="s">
         <v>124</v>
       </c>
@@ -2276,8 +2300,8 @@
       </c>
     </row>
     <row r="24" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="55"/>
-      <c r="B24" s="67"/>
+      <c r="A24" s="63"/>
+      <c r="B24" s="71"/>
       <c r="C24" s="9" t="s">
         <v>123</v>
       </c>
@@ -2305,8 +2329,8 @@
       </c>
     </row>
     <row r="25" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="55"/>
-      <c r="B25" s="65" t="s">
+      <c r="A25" s="63"/>
+      <c r="B25" s="69" t="s">
         <v>127</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -2338,9 +2362,9 @@
       </c>
     </row>
     <row r="26" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="55"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="58" t="s">
+      <c r="A26" s="63"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="53" t="s">
         <v>29</v>
       </c>
       <c r="D26" s="9" t="s">
@@ -2369,9 +2393,9 @@
       </c>
     </row>
     <row r="27" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="55"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="59"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="9" t="s">
         <v>12</v>
       </c>
@@ -2398,8 +2422,8 @@
       </c>
     </row>
     <row r="28" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="55"/>
-      <c r="B28" s="66"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="70"/>
       <c r="C28" s="9" t="s">
         <v>13</v>
       </c>
@@ -2427,8 +2451,8 @@
       </c>
     </row>
     <row r="29" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="55"/>
-      <c r="B29" s="66"/>
+      <c r="A29" s="63"/>
+      <c r="B29" s="70"/>
       <c r="C29" s="9" t="s">
         <v>25</v>
       </c>
@@ -2456,8 +2480,8 @@
       </c>
     </row>
     <row r="30" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="55"/>
-      <c r="B30" s="66"/>
+      <c r="A30" s="63"/>
+      <c r="B30" s="70"/>
       <c r="C30" s="9" t="s">
         <v>24</v>
       </c>
@@ -2485,8 +2509,8 @@
       </c>
     </row>
     <row r="31" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="55"/>
-      <c r="B31" s="66"/>
+      <c r="A31" s="63"/>
+      <c r="B31" s="70"/>
       <c r="C31" s="9" t="s">
         <v>26</v>
       </c>
@@ -2514,8 +2538,8 @@
       </c>
     </row>
     <row r="32" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="55"/>
-      <c r="B32" s="66"/>
+      <c r="A32" s="63"/>
+      <c r="B32" s="70"/>
       <c r="C32" s="9" t="s">
         <v>20</v>
       </c>
@@ -2543,8 +2567,8 @@
       </c>
     </row>
     <row r="33" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="55"/>
-      <c r="B33" s="67"/>
+      <c r="A33" s="63"/>
+      <c r="B33" s="71"/>
       <c r="C33" s="9" t="s">
         <v>21</v>
       </c>
@@ -2572,8 +2596,8 @@
       </c>
     </row>
     <row r="34" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="55"/>
-      <c r="B34" s="65" t="s">
+      <c r="A34" s="63"/>
+      <c r="B34" s="69" t="s">
         <v>120</v>
       </c>
       <c r="C34" s="9" t="s">
@@ -2605,9 +2629,9 @@
       </c>
     </row>
     <row r="35" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="55"/>
-      <c r="B35" s="66"/>
-      <c r="C35" s="58" t="s">
+      <c r="A35" s="63"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="53" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="9" t="s">
@@ -2636,9 +2660,9 @@
       </c>
     </row>
     <row r="36" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="55"/>
-      <c r="B36" s="66"/>
-      <c r="C36" s="59"/>
+      <c r="A36" s="63"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="54"/>
       <c r="D36" s="9" t="s">
         <v>12</v>
       </c>
@@ -2665,8 +2689,8 @@
       </c>
     </row>
     <row r="37" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="55"/>
-      <c r="B37" s="67"/>
+      <c r="A37" s="63"/>
+      <c r="B37" s="71"/>
       <c r="C37" s="9" t="s">
         <v>13</v>
       </c>
@@ -2694,8 +2718,8 @@
       </c>
     </row>
     <row r="38" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="55"/>
-      <c r="B38" s="65" t="s">
+      <c r="A38" s="63"/>
+      <c r="B38" s="69" t="s">
         <v>121</v>
       </c>
       <c r="C38" s="9" t="s">
@@ -2727,9 +2751,9 @@
       </c>
     </row>
     <row r="39" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="55"/>
-      <c r="B39" s="66"/>
-      <c r="C39" s="58" t="s">
+      <c r="A39" s="63"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="53" t="s">
         <v>29</v>
       </c>
       <c r="D39" s="9" t="s">
@@ -2758,9 +2782,9 @@
       </c>
     </row>
     <row r="40" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="55"/>
-      <c r="B40" s="66"/>
-      <c r="C40" s="59"/>
+      <c r="A40" s="63"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="54"/>
       <c r="D40" s="9" t="s">
         <v>12</v>
       </c>
@@ -2787,8 +2811,8 @@
       </c>
     </row>
     <row r="41" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="55"/>
-      <c r="B41" s="67"/>
+      <c r="A41" s="63"/>
+      <c r="B41" s="71"/>
       <c r="C41" s="9" t="s">
         <v>13</v>
       </c>
@@ -2816,8 +2840,8 @@
       </c>
     </row>
     <row r="42" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="55"/>
-      <c r="B42" s="65" t="s">
+      <c r="A42" s="63"/>
+      <c r="B42" s="69" t="s">
         <v>125</v>
       </c>
       <c r="C42" s="9" t="s">
@@ -2849,9 +2873,9 @@
       </c>
     </row>
     <row r="43" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="55"/>
-      <c r="B43" s="66"/>
-      <c r="C43" s="58" t="s">
+      <c r="A43" s="63"/>
+      <c r="B43" s="70"/>
+      <c r="C43" s="53" t="s">
         <v>29</v>
       </c>
       <c r="D43" s="9" t="s">
@@ -2880,9 +2904,9 @@
       </c>
     </row>
     <row r="44" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="55"/>
-      <c r="B44" s="66"/>
-      <c r="C44" s="59"/>
+      <c r="A44" s="63"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="54"/>
       <c r="D44" s="9" t="s">
         <v>12</v>
       </c>
@@ -2909,8 +2933,8 @@
       </c>
     </row>
     <row r="45" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="55"/>
-      <c r="B45" s="66"/>
+      <c r="A45" s="63"/>
+      <c r="B45" s="70"/>
       <c r="C45" s="9" t="s">
         <v>13</v>
       </c>
@@ -2938,8 +2962,8 @@
       </c>
     </row>
     <row r="46" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="55"/>
-      <c r="B46" s="66"/>
+      <c r="A46" s="63"/>
+      <c r="B46" s="70"/>
       <c r="C46" s="16" t="s">
         <v>22</v>
       </c>
@@ -2967,8 +2991,8 @@
       </c>
     </row>
     <row r="47" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="55"/>
-      <c r="B47" s="67"/>
+      <c r="A47" s="63"/>
+      <c r="B47" s="71"/>
       <c r="C47" s="16" t="s">
         <v>23</v>
       </c>
@@ -2996,8 +3020,8 @@
       </c>
     </row>
     <row r="48" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="55"/>
-      <c r="B48" s="65" t="s">
+      <c r="A48" s="63"/>
+      <c r="B48" s="69" t="s">
         <v>122</v>
       </c>
       <c r="C48" s="16" t="s">
@@ -3029,8 +3053,8 @@
       </c>
     </row>
     <row r="49" spans="1:14" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="55"/>
-      <c r="B49" s="66"/>
+      <c r="A49" s="63"/>
+      <c r="B49" s="70"/>
       <c r="C49" s="17"/>
       <c r="D49" s="9" t="s">
         <v>6</v>
@@ -3060,8 +3084,8 @@
       </c>
     </row>
     <row r="50" spans="1:14" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="55"/>
-      <c r="B50" s="66"/>
+      <c r="A50" s="63"/>
+      <c r="B50" s="70"/>
       <c r="C50" s="16" t="s">
         <v>16</v>
       </c>
@@ -3091,8 +3115,8 @@
       </c>
     </row>
     <row r="51" spans="1:14" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="55"/>
-      <c r="B51" s="67"/>
+      <c r="A51" s="63"/>
+      <c r="B51" s="71"/>
       <c r="C51" s="17"/>
       <c r="D51" s="9" t="s">
         <v>6</v>
@@ -3120,8 +3144,8 @@
       </c>
     </row>
     <row r="52" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A52" s="55"/>
-      <c r="B52" s="65" t="s">
+      <c r="A52" s="63"/>
+      <c r="B52" s="69" t="s">
         <v>128</v>
       </c>
       <c r="C52" s="9" t="s">
@@ -3153,9 +3177,9 @@
       </c>
     </row>
     <row r="53" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A53" s="55"/>
-      <c r="B53" s="66"/>
-      <c r="C53" s="58" t="s">
+      <c r="A53" s="63"/>
+      <c r="B53" s="70"/>
+      <c r="C53" s="53" t="s">
         <v>29</v>
       </c>
       <c r="D53" s="9" t="s">
@@ -3184,9 +3208,9 @@
       </c>
     </row>
     <row r="54" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A54" s="55"/>
-      <c r="B54" s="66"/>
-      <c r="C54" s="59"/>
+      <c r="A54" s="63"/>
+      <c r="B54" s="70"/>
+      <c r="C54" s="54"/>
       <c r="D54" s="9" t="s">
         <v>12</v>
       </c>
@@ -3213,8 +3237,8 @@
       </c>
     </row>
     <row r="55" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A55" s="55"/>
-      <c r="B55" s="67"/>
+      <c r="A55" s="63"/>
+      <c r="B55" s="71"/>
       <c r="C55" s="9" t="s">
         <v>13</v>
       </c>
@@ -3255,7 +3279,7 @@
       </c>
     </row>
     <row r="57" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="56" t="s">
+      <c r="A57" s="66" t="s">
         <v>76</v>
       </c>
       <c r="B57" s="18" t="s">
@@ -3280,7 +3304,7 @@
       <c r="M57" s="9"/>
     </row>
     <row r="58" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="57"/>
+      <c r="A58" s="67"/>
       <c r="B58" s="18" t="s">
         <v>17</v>
       </c>
@@ -3301,7 +3325,7 @@
       <c r="M58" s="9"/>
     </row>
     <row r="59" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="57"/>
+      <c r="A59" s="67"/>
       <c r="B59" s="18" t="s">
         <v>18</v>
       </c>
@@ -3322,11 +3346,11 @@
       <c r="M59" s="9"/>
     </row>
     <row r="60" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="57"/>
-      <c r="B60" s="68" t="s">
+      <c r="A60" s="67"/>
+      <c r="B60" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="C60" s="60" t="s">
+      <c r="C60" s="56" t="s">
         <v>40</v>
       </c>
       <c r="D60" s="9" t="s">
@@ -3349,13 +3373,13 @@
       <c r="M60" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="N60" s="71"/>
+      <c r="N60" s="52"/>
     </row>
     <row r="61" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="57"/>
-      <c r="B61" s="69"/>
-      <c r="C61" s="60"/>
-      <c r="D61" s="58" t="s">
+      <c r="A61" s="67"/>
+      <c r="B61" s="65"/>
+      <c r="C61" s="56"/>
+      <c r="D61" s="53" t="s">
         <v>89</v>
       </c>
       <c r="E61" s="9" t="s">
@@ -3373,13 +3397,13 @@
       </c>
       <c r="L61" s="10"/>
       <c r="M61" s="49"/>
-      <c r="N61" s="71"/>
+      <c r="N61" s="52"/>
     </row>
     <row r="62" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="57"/>
-      <c r="B62" s="69"/>
-      <c r="C62" s="60"/>
-      <c r="D62" s="59"/>
+      <c r="A62" s="67"/>
+      <c r="B62" s="65"/>
+      <c r="C62" s="56"/>
+      <c r="D62" s="54"/>
       <c r="E62" s="9" t="s">
         <v>87</v>
       </c>
@@ -3395,12 +3419,12 @@
       </c>
       <c r="L62" s="10"/>
       <c r="M62" s="49"/>
-      <c r="N62" s="71"/>
+      <c r="N62" s="52"/>
     </row>
     <row r="63" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="57"/>
-      <c r="B63" s="69"/>
-      <c r="C63" s="58" t="s">
+      <c r="A63" s="67"/>
+      <c r="B63" s="65"/>
+      <c r="C63" s="53" t="s">
         <v>83</v>
       </c>
       <c r="D63" s="9" t="s">
@@ -3413,22 +3437,28 @@
       <c r="G63" s="18">
         <v>1</v>
       </c>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
+      <c r="H63" s="45">
+        <v>42979</v>
+      </c>
+      <c r="I63" s="45">
+        <v>42979</v>
+      </c>
       <c r="J63" s="33"/>
       <c r="K63" s="35">
         <v>1</v>
       </c>
-      <c r="L63" s="10"/>
+      <c r="L63" s="10">
+        <v>1</v>
+      </c>
       <c r="M63" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="N63" s="71"/>
+      <c r="N63" s="52"/>
     </row>
     <row r="64" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="57"/>
-      <c r="B64" s="69"/>
-      <c r="C64" s="59"/>
+      <c r="A64" s="67"/>
+      <c r="B64" s="65"/>
+      <c r="C64" s="54"/>
       <c r="D64" s="9" t="s">
         <v>81</v>
       </c>
@@ -3439,21 +3469,27 @@
       <c r="G64" s="18">
         <v>1</v>
       </c>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
+      <c r="H64" s="45">
+        <v>42979</v>
+      </c>
+      <c r="I64" s="45">
+        <v>42979</v>
+      </c>
       <c r="J64" s="33"/>
       <c r="K64" s="35">
         <v>1</v>
       </c>
-      <c r="L64" s="10"/>
+      <c r="L64" s="10">
+        <v>1</v>
+      </c>
       <c r="M64" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="N64" s="71"/>
+      <c r="N64" s="52"/>
     </row>
     <row r="65" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="57"/>
-      <c r="B65" s="69"/>
+      <c r="A65" s="67"/>
+      <c r="B65" s="65"/>
       <c r="C65" s="17" t="s">
         <v>82</v>
       </c>
@@ -3463,21 +3499,27 @@
       </c>
       <c r="F65" s="9"/>
       <c r="G65" s="18"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
+      <c r="H65" s="45">
+        <v>42979</v>
+      </c>
+      <c r="I65" s="45">
+        <v>42979</v>
+      </c>
       <c r="J65" s="33"/>
       <c r="K65" s="35">
         <v>1</v>
       </c>
-      <c r="L65" s="10"/>
+      <c r="L65" s="10">
+        <v>1</v>
+      </c>
       <c r="M65" s="49" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A66" s="57"/>
-      <c r="B66" s="69"/>
-      <c r="C66" s="60" t="s">
+      <c r="A66" s="67"/>
+      <c r="B66" s="65"/>
+      <c r="C66" s="56" t="s">
         <v>45</v>
       </c>
       <c r="D66" s="9" t="s">
@@ -3500,10 +3542,10 @@
       </c>
     </row>
     <row r="67" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A67" s="57"/>
-      <c r="B67" s="69"/>
-      <c r="C67" s="60"/>
-      <c r="D67" s="60" t="s">
+      <c r="A67" s="67"/>
+      <c r="B67" s="65"/>
+      <c r="C67" s="56"/>
+      <c r="D67" s="56" t="s">
         <v>90</v>
       </c>
       <c r="E67" s="9" t="s">
@@ -3523,10 +3565,10 @@
       <c r="M67" s="49"/>
     </row>
     <row r="68" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A68" s="57"/>
-      <c r="B68" s="69"/>
-      <c r="C68" s="60"/>
-      <c r="D68" s="60"/>
+      <c r="A68" s="67"/>
+      <c r="B68" s="65"/>
+      <c r="C68" s="56"/>
+      <c r="D68" s="56"/>
       <c r="E68" s="9" t="s">
         <v>70</v>
       </c>
@@ -3544,9 +3586,9 @@
       <c r="M68" s="49"/>
     </row>
     <row r="69" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A69" s="57"/>
-      <c r="B69" s="69"/>
-      <c r="C69" s="58" t="s">
+      <c r="A69" s="67"/>
+      <c r="B69" s="65"/>
+      <c r="C69" s="53" t="s">
         <v>36</v>
       </c>
       <c r="D69" s="9" t="s">
@@ -3569,9 +3611,9 @@
       </c>
     </row>
     <row r="70" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A70" s="57"/>
-      <c r="B70" s="69"/>
-      <c r="C70" s="63"/>
+      <c r="A70" s="67"/>
+      <c r="B70" s="65"/>
+      <c r="C70" s="57"/>
       <c r="D70" s="9" t="s">
         <v>38</v>
       </c>
@@ -3592,9 +3634,9 @@
       </c>
     </row>
     <row r="71" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A71" s="57"/>
-      <c r="B71" s="69"/>
-      <c r="C71" s="59"/>
+      <c r="A71" s="67"/>
+      <c r="B71" s="65"/>
+      <c r="C71" s="54"/>
       <c r="D71" s="9" t="s">
         <v>39</v>
       </c>
@@ -3615,8 +3657,8 @@
       <c r="M71" s="49"/>
     </row>
     <row r="72" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A72" s="57"/>
-      <c r="B72" s="69"/>
+      <c r="A72" s="67"/>
+      <c r="B72" s="65"/>
       <c r="C72" s="9" t="s">
         <v>49</v>
       </c>
@@ -3638,8 +3680,8 @@
       </c>
     </row>
     <row r="73" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A73" s="57"/>
-      <c r="B73" s="69"/>
+      <c r="A73" s="67"/>
+      <c r="B73" s="65"/>
       <c r="C73" s="9" t="s">
         <v>50</v>
       </c>
@@ -3661,9 +3703,9 @@
       </c>
     </row>
     <row r="74" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A74" s="57"/>
-      <c r="B74" s="69"/>
-      <c r="C74" s="58" t="s">
+      <c r="A74" s="67"/>
+      <c r="B74" s="65"/>
+      <c r="C74" s="53" t="s">
         <v>57</v>
       </c>
       <c r="D74" s="30" t="s">
@@ -3686,9 +3728,9 @@
       </c>
     </row>
     <row r="75" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A75" s="57"/>
-      <c r="B75" s="69"/>
-      <c r="C75" s="59"/>
+      <c r="A75" s="67"/>
+      <c r="B75" s="65"/>
+      <c r="C75" s="54"/>
       <c r="D75" s="9" t="s">
         <v>96</v>
       </c>
@@ -3711,9 +3753,9 @@
       </c>
     </row>
     <row r="76" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A76" s="57"/>
-      <c r="B76" s="69"/>
-      <c r="C76" s="72" t="s">
+      <c r="A76" s="67"/>
+      <c r="B76" s="65"/>
+      <c r="C76" s="58" t="s">
         <v>51</v>
       </c>
       <c r="D76" s="19" t="s">
@@ -3734,9 +3776,9 @@
       <c r="M76" s="43"/>
     </row>
     <row r="77" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A77" s="57"/>
-      <c r="B77" s="69"/>
-      <c r="C77" s="73"/>
+      <c r="A77" s="67"/>
+      <c r="B77" s="65"/>
+      <c r="C77" s="59"/>
       <c r="D77" s="19" t="s">
         <v>53</v>
       </c>
@@ -3755,9 +3797,9 @@
       <c r="M77" s="43"/>
     </row>
     <row r="78" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A78" s="57"/>
-      <c r="B78" s="69"/>
-      <c r="C78" s="73"/>
+      <c r="A78" s="67"/>
+      <c r="B78" s="65"/>
+      <c r="C78" s="59"/>
       <c r="D78" s="19" t="s">
         <v>54</v>
       </c>
@@ -3776,9 +3818,9 @@
       <c r="M78" s="43"/>
     </row>
     <row r="79" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A79" s="57"/>
-      <c r="B79" s="69"/>
-      <c r="C79" s="73"/>
+      <c r="A79" s="67"/>
+      <c r="B79" s="65"/>
+      <c r="C79" s="59"/>
       <c r="D79" s="19" t="s">
         <v>55</v>
       </c>
@@ -3797,9 +3839,9 @@
       <c r="M79" s="43"/>
     </row>
     <row r="80" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A80" s="57"/>
-      <c r="B80" s="69"/>
-      <c r="C80" s="74"/>
+      <c r="A80" s="67"/>
+      <c r="B80" s="65"/>
+      <c r="C80" s="60"/>
       <c r="D80" s="19" t="s">
         <v>56</v>
       </c>
@@ -3818,11 +3860,11 @@
       <c r="M80" s="43"/>
     </row>
     <row r="81" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A81" s="57"/>
-      <c r="B81" s="53" t="s">
+      <c r="A81" s="67"/>
+      <c r="B81" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="C81" s="75" t="s">
+      <c r="C81" s="61" t="s">
         <v>74</v>
       </c>
       <c r="D81" s="15" t="s">
@@ -3843,9 +3885,9 @@
       <c r="M81" s="43"/>
     </row>
     <row r="82" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A82" s="57"/>
-      <c r="B82" s="54"/>
-      <c r="C82" s="76"/>
+      <c r="A82" s="67"/>
+      <c r="B82" s="74"/>
+      <c r="C82" s="62"/>
       <c r="D82" s="15" t="s">
         <v>59</v>
       </c>
@@ -3864,9 +3906,9 @@
       <c r="M82" s="43"/>
     </row>
     <row r="83" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A83" s="57"/>
-      <c r="B83" s="54"/>
-      <c r="C83" s="76"/>
+      <c r="A83" s="67"/>
+      <c r="B83" s="74"/>
+      <c r="C83" s="62"/>
       <c r="D83" s="15" t="s">
         <v>55</v>
       </c>
@@ -3883,9 +3925,9 @@
       <c r="M83" s="43"/>
     </row>
     <row r="84" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A84" s="57"/>
-      <c r="B84" s="54"/>
-      <c r="C84" s="76"/>
+      <c r="A84" s="67"/>
+      <c r="B84" s="74"/>
+      <c r="C84" s="62"/>
       <c r="D84" s="15" t="s">
         <v>60</v>
       </c>
@@ -3902,12 +3944,12 @@
       <c r="M84" s="43"/>
     </row>
     <row r="85" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A85" s="57"/>
-      <c r="B85" s="54"/>
-      <c r="C85" s="64" t="s">
+      <c r="A85" s="67"/>
+      <c r="B85" s="74"/>
+      <c r="C85" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="D85" s="58" t="s">
+      <c r="D85" s="53" t="s">
         <v>61</v>
       </c>
       <c r="E85" s="9" t="s">
@@ -3937,11 +3979,11 @@
       </c>
     </row>
     <row r="86" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A86" s="57"/>
-      <c r="B86" s="54"/>
-      <c r="C86" s="64"/>
-      <c r="D86" s="63"/>
-      <c r="E86" s="58" t="s">
+      <c r="A86" s="67"/>
+      <c r="B86" s="74"/>
+      <c r="C86" s="55"/>
+      <c r="D86" s="57"/>
+      <c r="E86" s="53" t="s">
         <v>29</v>
       </c>
       <c r="F86" s="9" t="s">
@@ -3968,11 +4010,11 @@
       </c>
     </row>
     <row r="87" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A87" s="57"/>
-      <c r="B87" s="54"/>
-      <c r="C87" s="64"/>
-      <c r="D87" s="63"/>
-      <c r="E87" s="59"/>
+      <c r="A87" s="67"/>
+      <c r="B87" s="74"/>
+      <c r="C87" s="55"/>
+      <c r="D87" s="57"/>
+      <c r="E87" s="54"/>
       <c r="F87" s="9" t="s">
         <v>12</v>
       </c>
@@ -3997,10 +4039,10 @@
       </c>
     </row>
     <row r="88" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A88" s="57"/>
-      <c r="B88" s="54"/>
-      <c r="C88" s="64"/>
-      <c r="D88" s="63"/>
+      <c r="A88" s="67"/>
+      <c r="B88" s="74"/>
+      <c r="C88" s="55"/>
+      <c r="D88" s="57"/>
       <c r="E88" s="9" t="s">
         <v>13</v>
       </c>
@@ -4026,10 +4068,10 @@
       </c>
     </row>
     <row r="89" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A89" s="57"/>
-      <c r="B89" s="54"/>
-      <c r="C89" s="64"/>
-      <c r="D89" s="63"/>
+      <c r="A89" s="67"/>
+      <c r="B89" s="74"/>
+      <c r="C89" s="55"/>
+      <c r="D89" s="57"/>
       <c r="E89" s="9" t="s">
         <v>130</v>
       </c>
@@ -4055,10 +4097,10 @@
       </c>
     </row>
     <row r="90" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A90" s="57"/>
-      <c r="B90" s="54"/>
-      <c r="C90" s="64"/>
-      <c r="D90" s="63"/>
+      <c r="A90" s="67"/>
+      <c r="B90" s="74"/>
+      <c r="C90" s="55"/>
+      <c r="D90" s="57"/>
       <c r="E90" s="9" t="s">
         <v>131</v>
       </c>
@@ -4078,10 +4120,10 @@
       <c r="M90" s="49"/>
     </row>
     <row r="91" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A91" s="57"/>
-      <c r="B91" s="54"/>
-      <c r="C91" s="64"/>
-      <c r="D91" s="63"/>
+      <c r="A91" s="67"/>
+      <c r="B91" s="74"/>
+      <c r="C91" s="55"/>
+      <c r="D91" s="57"/>
       <c r="E91" s="16" t="s">
         <v>132</v>
       </c>
@@ -4101,11 +4143,11 @@
       </c>
     </row>
     <row r="92" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A92" s="57"/>
-      <c r="B92" s="54"/>
-      <c r="C92" s="64"/>
-      <c r="D92" s="63"/>
-      <c r="E92" s="58" t="s">
+      <c r="A92" s="67"/>
+      <c r="B92" s="74"/>
+      <c r="C92" s="55"/>
+      <c r="D92" s="57"/>
+      <c r="E92" s="53" t="s">
         <v>133</v>
       </c>
       <c r="F92" s="9" t="s">
@@ -4132,11 +4174,11 @@
       </c>
     </row>
     <row r="93" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A93" s="57"/>
-      <c r="B93" s="54"/>
-      <c r="C93" s="64"/>
-      <c r="D93" s="63"/>
-      <c r="E93" s="63"/>
+      <c r="A93" s="67"/>
+      <c r="B93" s="74"/>
+      <c r="C93" s="55"/>
+      <c r="D93" s="57"/>
+      <c r="E93" s="57"/>
       <c r="F93" s="9" t="s">
         <v>135</v>
       </c>
@@ -4161,11 +4203,11 @@
       </c>
     </row>
     <row r="94" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A94" s="57"/>
-      <c r="B94" s="54"/>
-      <c r="C94" s="64"/>
-      <c r="D94" s="63"/>
-      <c r="E94" s="59"/>
+      <c r="A94" s="67"/>
+      <c r="B94" s="74"/>
+      <c r="C94" s="55"/>
+      <c r="D94" s="57"/>
+      <c r="E94" s="54"/>
       <c r="F94" s="9" t="s">
         <v>136</v>
       </c>
@@ -4190,10 +4232,10 @@
       </c>
     </row>
     <row r="95" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A95" s="57"/>
-      <c r="B95" s="54"/>
-      <c r="C95" s="64"/>
-      <c r="D95" s="60" t="s">
+      <c r="A95" s="67"/>
+      <c r="B95" s="74"/>
+      <c r="C95" s="55"/>
+      <c r="D95" s="56" t="s">
         <v>102</v>
       </c>
       <c r="E95" s="9" t="s">
@@ -4213,10 +4255,10 @@
       <c r="M95" s="49"/>
     </row>
     <row r="96" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A96" s="57"/>
-      <c r="B96" s="54"/>
-      <c r="C96" s="64"/>
-      <c r="D96" s="60"/>
+      <c r="A96" s="67"/>
+      <c r="B96" s="74"/>
+      <c r="C96" s="55"/>
+      <c r="D96" s="56"/>
       <c r="E96" s="9" t="s">
         <v>48</v>
       </c>
@@ -4236,10 +4278,10 @@
       <c r="M96" s="49"/>
     </row>
     <row r="97" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A97" s="57"/>
-      <c r="B97" s="54"/>
-      <c r="C97" s="64"/>
-      <c r="D97" s="58" t="s">
+      <c r="A97" s="67"/>
+      <c r="B97" s="74"/>
+      <c r="C97" s="55"/>
+      <c r="D97" s="53" t="s">
         <v>114</v>
       </c>
       <c r="E97" s="9" t="s">
@@ -4269,11 +4311,11 @@
       </c>
     </row>
     <row r="98" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A98" s="57"/>
-      <c r="B98" s="54"/>
-      <c r="C98" s="64"/>
-      <c r="D98" s="63"/>
-      <c r="E98" s="58" t="s">
+      <c r="A98" s="67"/>
+      <c r="B98" s="74"/>
+      <c r="C98" s="55"/>
+      <c r="D98" s="57"/>
+      <c r="E98" s="53" t="s">
         <v>29</v>
       </c>
       <c r="F98" s="9" t="s">
@@ -4300,11 +4342,11 @@
       </c>
     </row>
     <row r="99" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A99" s="57"/>
-      <c r="B99" s="54"/>
-      <c r="C99" s="64"/>
-      <c r="D99" s="63"/>
-      <c r="E99" s="59"/>
+      <c r="A99" s="67"/>
+      <c r="B99" s="74"/>
+      <c r="C99" s="55"/>
+      <c r="D99" s="57"/>
+      <c r="E99" s="54"/>
       <c r="F99" s="9" t="s">
         <v>12</v>
       </c>
@@ -4329,10 +4371,10 @@
       </c>
     </row>
     <row r="100" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A100" s="57"/>
-      <c r="B100" s="54"/>
-      <c r="C100" s="64"/>
-      <c r="D100" s="59"/>
+      <c r="A100" s="67"/>
+      <c r="B100" s="74"/>
+      <c r="C100" s="55"/>
+      <c r="D100" s="54"/>
       <c r="E100" s="9" t="s">
         <v>13</v>
       </c>
@@ -4369,7 +4411,7 @@
       <c r="K101" s="35"/>
     </row>
     <row r="102" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A102" s="55" t="s">
+      <c r="A102" s="63" t="s">
         <v>69</v>
       </c>
       <c r="B102" s="18" t="s">
@@ -4394,7 +4436,7 @@
       </c>
     </row>
     <row r="103" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A103" s="55"/>
+      <c r="A103" s="63"/>
       <c r="B103" s="18" t="s">
         <v>17</v>
       </c>
@@ -4417,7 +4459,7 @@
       </c>
     </row>
     <row r="104" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A104" s="55"/>
+      <c r="A104" s="63"/>
       <c r="B104" s="18" t="s">
         <v>18</v>
       </c>
@@ -4440,11 +4482,11 @@
       </c>
     </row>
     <row r="105" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="55"/>
-      <c r="B105" s="53" t="s">
+      <c r="A105" s="63"/>
+      <c r="B105" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="C105" s="58" t="s">
+      <c r="C105" s="53" t="s">
         <v>33</v>
       </c>
       <c r="D105" s="9" t="s">
@@ -4471,9 +4513,9 @@
       </c>
     </row>
     <row r="106" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A106" s="55"/>
-      <c r="B106" s="54"/>
-      <c r="C106" s="63"/>
+      <c r="A106" s="63"/>
+      <c r="B106" s="74"/>
+      <c r="C106" s="57"/>
       <c r="D106" s="50" t="s">
         <v>41</v>
       </c>
@@ -4496,10 +4538,10 @@
       </c>
     </row>
     <row r="107" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A107" s="55"/>
-      <c r="B107" s="54"/>
-      <c r="C107" s="59"/>
-      <c r="D107" s="52"/>
+      <c r="A107" s="63"/>
+      <c r="B107" s="74"/>
+      <c r="C107" s="54"/>
+      <c r="D107" s="51"/>
       <c r="E107" s="9" t="s">
         <v>43</v>
       </c>
@@ -4519,9 +4561,9 @@
       </c>
     </row>
     <row r="108" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A108" s="55"/>
-      <c r="B108" s="54"/>
-      <c r="C108" s="58" t="s">
+      <c r="A108" s="63"/>
+      <c r="B108" s="74"/>
+      <c r="C108" s="53" t="s">
         <v>45</v>
       </c>
       <c r="D108" s="9" t="s">
@@ -4546,9 +4588,9 @@
       </c>
     </row>
     <row r="109" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A109" s="55"/>
-      <c r="B109" s="54"/>
-      <c r="C109" s="63"/>
+      <c r="A109" s="63"/>
+      <c r="B109" s="74"/>
+      <c r="C109" s="57"/>
       <c r="D109" s="50" t="s">
         <v>41</v>
       </c>
@@ -4571,10 +4613,10 @@
       </c>
     </row>
     <row r="110" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A110" s="55"/>
-      <c r="B110" s="54"/>
-      <c r="C110" s="63"/>
-      <c r="D110" s="51"/>
+      <c r="A110" s="63"/>
+      <c r="B110" s="74"/>
+      <c r="C110" s="57"/>
+      <c r="D110" s="72"/>
       <c r="E110" s="9" t="s">
         <v>43</v>
       </c>
@@ -4594,10 +4636,10 @@
       </c>
     </row>
     <row r="111" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A111" s="55"/>
-      <c r="B111" s="54"/>
-      <c r="C111" s="59"/>
-      <c r="D111" s="52"/>
+      <c r="A111" s="63"/>
+      <c r="B111" s="74"/>
+      <c r="C111" s="54"/>
+      <c r="D111" s="51"/>
       <c r="E111" s="9" t="s">
         <v>47</v>
       </c>
@@ -4617,9 +4659,9 @@
       </c>
     </row>
     <row r="112" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A112" s="55"/>
-      <c r="B112" s="54"/>
-      <c r="C112" s="64" t="s">
+      <c r="A112" s="63"/>
+      <c r="B112" s="74"/>
+      <c r="C112" s="55" t="s">
         <v>71</v>
       </c>
       <c r="D112" s="9" t="s">
@@ -4644,9 +4686,9 @@
       </c>
     </row>
     <row r="113" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A113" s="55"/>
-      <c r="B113" s="54"/>
-      <c r="C113" s="60"/>
+      <c r="A113" s="63"/>
+      <c r="B113" s="74"/>
+      <c r="C113" s="56"/>
       <c r="D113" s="9" t="s">
         <v>63</v>
       </c>
@@ -4669,8 +4711,8 @@
       </c>
     </row>
     <row r="114" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A114" s="55"/>
-      <c r="B114" s="54"/>
+      <c r="A114" s="63"/>
+      <c r="B114" s="74"/>
       <c r="C114" s="9" t="s">
         <v>92</v>
       </c>
@@ -4694,11 +4736,11 @@
       </c>
     </row>
     <row r="115" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A115" s="55"/>
-      <c r="B115" s="53" t="s">
+      <c r="A115" s="63"/>
+      <c r="B115" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="C115" s="58" t="s">
+      <c r="C115" s="53" t="s">
         <v>64</v>
       </c>
       <c r="D115" s="21" t="s">
@@ -4725,10 +4767,10 @@
       </c>
     </row>
     <row r="116" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A116" s="55"/>
-      <c r="B116" s="53"/>
-      <c r="C116" s="63"/>
-      <c r="D116" s="61" t="s">
+      <c r="A116" s="63"/>
+      <c r="B116" s="73"/>
+      <c r="C116" s="57"/>
+      <c r="D116" s="75" t="s">
         <v>29</v>
       </c>
       <c r="E116" s="9" t="s">
@@ -4752,10 +4794,10 @@
       </c>
     </row>
     <row r="117" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A117" s="55"/>
-      <c r="B117" s="53"/>
-      <c r="C117" s="63"/>
-      <c r="D117" s="62"/>
+      <c r="A117" s="63"/>
+      <c r="B117" s="73"/>
+      <c r="C117" s="57"/>
+      <c r="D117" s="76"/>
       <c r="E117" s="9" t="s">
         <v>12</v>
       </c>
@@ -4777,9 +4819,9 @@
       </c>
     </row>
     <row r="118" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A118" s="55"/>
-      <c r="B118" s="53"/>
-      <c r="C118" s="63"/>
+      <c r="A118" s="63"/>
+      <c r="B118" s="73"/>
+      <c r="C118" s="57"/>
       <c r="D118" s="21" t="s">
         <v>13</v>
       </c>
@@ -4802,9 +4844,9 @@
       </c>
     </row>
     <row r="119" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A119" s="55"/>
-      <c r="B119" s="53"/>
-      <c r="C119" s="63"/>
+      <c r="A119" s="63"/>
+      <c r="B119" s="73"/>
+      <c r="C119" s="57"/>
       <c r="D119" s="21" t="s">
         <v>25</v>
       </c>
@@ -4827,9 +4869,9 @@
       </c>
     </row>
     <row r="120" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A120" s="55"/>
-      <c r="B120" s="53"/>
-      <c r="C120" s="63"/>
+      <c r="A120" s="63"/>
+      <c r="B120" s="73"/>
+      <c r="C120" s="57"/>
       <c r="D120" s="21" t="s">
         <v>24</v>
       </c>
@@ -4852,9 +4894,9 @@
       </c>
     </row>
     <row r="121" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A121" s="55"/>
-      <c r="B121" s="53"/>
-      <c r="C121" s="59"/>
+      <c r="A121" s="63"/>
+      <c r="B121" s="73"/>
+      <c r="C121" s="54"/>
       <c r="D121" s="21" t="s">
         <v>26</v>
       </c>
@@ -4877,9 +4919,9 @@
       </c>
     </row>
     <row r="122" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A122" s="55"/>
-      <c r="B122" s="54"/>
-      <c r="C122" s="58" t="s">
+      <c r="A122" s="63"/>
+      <c r="B122" s="74"/>
+      <c r="C122" s="53" t="s">
         <v>99</v>
       </c>
       <c r="D122" s="21" t="s">
@@ -4906,10 +4948,10 @@
       </c>
     </row>
     <row r="123" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A123" s="55"/>
-      <c r="B123" s="54"/>
-      <c r="C123" s="63"/>
-      <c r="D123" s="61" t="s">
+      <c r="A123" s="63"/>
+      <c r="B123" s="74"/>
+      <c r="C123" s="57"/>
+      <c r="D123" s="75" t="s">
         <v>29</v>
       </c>
       <c r="E123" s="9" t="s">
@@ -4933,10 +4975,10 @@
       </c>
     </row>
     <row r="124" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A124" s="55"/>
-      <c r="B124" s="54"/>
-      <c r="C124" s="63"/>
-      <c r="D124" s="62"/>
+      <c r="A124" s="63"/>
+      <c r="B124" s="74"/>
+      <c r="C124" s="57"/>
+      <c r="D124" s="76"/>
       <c r="E124" s="9" t="s">
         <v>12</v>
       </c>
@@ -4958,9 +5000,9 @@
       </c>
     </row>
     <row r="125" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A125" s="55"/>
-      <c r="B125" s="54"/>
-      <c r="C125" s="59"/>
+      <c r="A125" s="63"/>
+      <c r="B125" s="74"/>
+      <c r="C125" s="54"/>
       <c r="D125" s="21" t="s">
         <v>13</v>
       </c>
@@ -4983,8 +5025,8 @@
       </c>
     </row>
     <row r="126" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A126" s="55"/>
-      <c r="B126" s="54"/>
+      <c r="A126" s="63"/>
+      <c r="B126" s="74"/>
       <c r="C126" s="37" t="s">
         <v>65</v>
       </c>
@@ -5004,8 +5046,8 @@
       <c r="M126" s="9"/>
     </row>
     <row r="127" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A127" s="55"/>
-      <c r="B127" s="54"/>
+      <c r="A127" s="63"/>
+      <c r="B127" s="74"/>
       <c r="C127" s="37" t="s">
         <v>66</v>
       </c>
@@ -5025,8 +5067,8 @@
       <c r="M127" s="9"/>
     </row>
     <row r="128" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A128" s="55"/>
-      <c r="B128" s="54"/>
+      <c r="A128" s="63"/>
+      <c r="B128" s="74"/>
       <c r="C128" s="37" t="s">
         <v>67</v>
       </c>
@@ -5046,8 +5088,8 @@
       <c r="M128" s="9"/>
     </row>
     <row r="129" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A129" s="55"/>
-      <c r="B129" s="54"/>
+      <c r="A129" s="63"/>
+      <c r="B129" s="74"/>
       <c r="C129" s="37" t="s">
         <v>68</v>
       </c>
@@ -5090,17 +5132,29 @@
     <protectedRange sqref="L102:L129 L2:L5 L8:L55 L57:L100" name="区域3"/>
   </protectedRanges>
   <mergeCells count="50">
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="N60:N64"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="C85:C100"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="D97:D100"/>
-    <mergeCell ref="D85:D94"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="C76:C80"/>
-    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="D109:D111"/>
+    <mergeCell ref="B115:B129"/>
+    <mergeCell ref="A102:A129"/>
+    <mergeCell ref="B105:B114"/>
+    <mergeCell ref="B81:B100"/>
+    <mergeCell ref="A57:A100"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="C115:C121"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="C108:C111"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="C39:C40"/>
     <mergeCell ref="A8:A55"/>
     <mergeCell ref="C69:C71"/>
     <mergeCell ref="B60:B80"/>
@@ -5117,81 +5171,69 @@
     <mergeCell ref="B25:B33"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="B19:B24"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B47"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D109:D111"/>
-    <mergeCell ref="B115:B129"/>
-    <mergeCell ref="A102:A129"/>
-    <mergeCell ref="B105:B114"/>
-    <mergeCell ref="B81:B100"/>
-    <mergeCell ref="A57:A100"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="C115:C121"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="C108:C111"/>
-    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="N60:N64"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="C85:C100"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="D97:D100"/>
+    <mergeCell ref="D85:D94"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="C76:C80"/>
+    <mergeCell ref="C81:C84"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="L2:L5 L102:L129 L48:L51 L43:L44 L25:L37 L8:L14 L66:L100">
-    <cfRule type="cellIs" dxfId="36" priority="90" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="90" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="91" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="91" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="92" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="37" priority="92" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23:L24">
-    <cfRule type="cellIs" dxfId="33" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="60" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="61" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="62" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="34" priority="62" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="duplicateValues" dxfId="30" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L38:L41">
-    <cfRule type="cellIs" dxfId="29" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="56" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="57" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="58" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="30" priority="58" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="duplicateValues" dxfId="26" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L57:L65">
-    <cfRule type="cellIs" dxfId="25" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="46" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="47" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="48" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="26" priority="48" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
@@ -5239,90 +5281,90 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K129">
-    <cfRule type="cellIs" dxfId="22" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="30" stopIfTrue="1" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="31" stopIfTrue="1" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="32" stopIfTrue="1" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="33" stopIfTrue="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="34" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15:L19 L22">
-    <cfRule type="cellIs" dxfId="17" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="19" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="21" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="21" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20:L21">
-    <cfRule type="cellIs" dxfId="14" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="13" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="14" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="15" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="15" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L52:L55">
-    <cfRule type="cellIs" dxfId="11" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="10" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="11" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="12" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L42">
-    <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="7" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="8" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L45">
-    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="6" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L46:L47">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>

--- a/doc/开发计划V0.1.xlsx
+++ b/doc/开发计划V0.1.xlsx
@@ -933,27 +933,69 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -968,78 +1010,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="39">
     <dxf>
       <fill>
         <patternFill>
@@ -1360,8 +1336,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="41"/>
-      <tableStyleElement type="headerRow" dxfId="40"/>
+      <tableStyleElement type="wholeTable" dxfId="38"/>
+      <tableStyleElement type="headerRow" dxfId="37"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1665,8 +1641,8 @@
   <dimension ref="A1:N132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B60" sqref="B60:M80"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1736,7 +1712,7 @@
       <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="56" t="s">
         <v>77</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -1757,7 +1733,7 @@
       <c r="M3" s="9"/>
     </row>
     <row r="4" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="67"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="12" t="s">
         <v>80</v>
       </c>
@@ -1776,7 +1752,7 @@
       <c r="M4" s="9"/>
     </row>
     <row r="5" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="67"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="12" t="s">
         <v>78</v>
       </c>
@@ -1795,7 +1771,7 @@
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="67"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="12"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1812,7 +1788,7 @@
       <c r="M6" s="9"/>
     </row>
     <row r="7" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="68"/>
+      <c r="A7" s="70"/>
       <c r="B7" s="12"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1829,7 +1805,7 @@
       <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="55" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="14" t="s">
@@ -1851,7 +1827,7 @@
       <c r="M8" s="48"/>
     </row>
     <row r="9" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="63"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="14" t="s">
         <v>17</v>
       </c>
@@ -1872,7 +1848,7 @@
       <c r="M9" s="48"/>
     </row>
     <row r="10" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="63"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="14" t="s">
         <v>18</v>
       </c>
@@ -1901,8 +1877,8 @@
       </c>
     </row>
     <row r="11" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="63"/>
-      <c r="B11" s="69" t="s">
+      <c r="A11" s="55"/>
+      <c r="B11" s="65" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -1936,8 +1912,8 @@
       </c>
     </row>
     <row r="12" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A12" s="63"/>
-      <c r="B12" s="70"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="66"/>
       <c r="C12" s="9" t="s">
         <v>10</v>
       </c>
@@ -1967,8 +1943,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="63"/>
-      <c r="B13" s="70"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="66"/>
       <c r="C13" s="9" t="s">
         <v>9</v>
       </c>
@@ -1996,8 +1972,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="63"/>
-      <c r="B14" s="71"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="67"/>
       <c r="C14" s="9" t="s">
         <v>27</v>
       </c>
@@ -2027,8 +2003,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="63"/>
-      <c r="B15" s="69" t="s">
+      <c r="A15" s="55"/>
+      <c r="B15" s="65" t="s">
         <v>119</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -2060,9 +2036,9 @@
       </c>
     </row>
     <row r="16" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="63"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="53" t="s">
+      <c r="A16" s="55"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="58" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="9" t="s">
@@ -2091,9 +2067,9 @@
       </c>
     </row>
     <row r="17" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="63"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="54"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="59"/>
       <c r="D17" s="9" t="s">
         <v>12</v>
       </c>
@@ -2120,8 +2096,8 @@
       </c>
     </row>
     <row r="18" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="63"/>
-      <c r="B18" s="71"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="67"/>
       <c r="C18" s="9" t="s">
         <v>13</v>
       </c>
@@ -2149,8 +2125,8 @@
       </c>
     </row>
     <row r="19" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="63"/>
-      <c r="B19" s="69" t="s">
+      <c r="A19" s="55"/>
+      <c r="B19" s="65" t="s">
         <v>126</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -2182,9 +2158,9 @@
       </c>
     </row>
     <row r="20" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="63"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="53" t="s">
+      <c r="A20" s="55"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="58" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="9" t="s">
@@ -2213,9 +2189,9 @@
       </c>
     </row>
     <row r="21" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="63"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="54"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="59"/>
       <c r="D21" s="9" t="s">
         <v>12</v>
       </c>
@@ -2242,8 +2218,8 @@
       </c>
     </row>
     <row r="22" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="63"/>
-      <c r="B22" s="70"/>
+      <c r="A22" s="55"/>
+      <c r="B22" s="66"/>
       <c r="C22" s="9" t="s">
         <v>13</v>
       </c>
@@ -2271,8 +2247,8 @@
       </c>
     </row>
     <row r="23" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="63"/>
-      <c r="B23" s="70"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="66"/>
       <c r="C23" s="9" t="s">
         <v>124</v>
       </c>
@@ -2300,8 +2276,8 @@
       </c>
     </row>
     <row r="24" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="63"/>
-      <c r="B24" s="71"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="67"/>
       <c r="C24" s="9" t="s">
         <v>123</v>
       </c>
@@ -2329,8 +2305,8 @@
       </c>
     </row>
     <row r="25" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="63"/>
-      <c r="B25" s="69" t="s">
+      <c r="A25" s="55"/>
+      <c r="B25" s="65" t="s">
         <v>127</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -2362,9 +2338,9 @@
       </c>
     </row>
     <row r="26" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="63"/>
-      <c r="B26" s="70"/>
-      <c r="C26" s="53" t="s">
+      <c r="A26" s="55"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="58" t="s">
         <v>29</v>
       </c>
       <c r="D26" s="9" t="s">
@@ -2393,9 +2369,9 @@
       </c>
     </row>
     <row r="27" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="63"/>
-      <c r="B27" s="70"/>
-      <c r="C27" s="54"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="59"/>
       <c r="D27" s="9" t="s">
         <v>12</v>
       </c>
@@ -2422,8 +2398,8 @@
       </c>
     </row>
     <row r="28" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="63"/>
-      <c r="B28" s="70"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="66"/>
       <c r="C28" s="9" t="s">
         <v>13</v>
       </c>
@@ -2451,8 +2427,8 @@
       </c>
     </row>
     <row r="29" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="63"/>
-      <c r="B29" s="70"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="66"/>
       <c r="C29" s="9" t="s">
         <v>25</v>
       </c>
@@ -2480,8 +2456,8 @@
       </c>
     </row>
     <row r="30" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="63"/>
-      <c r="B30" s="70"/>
+      <c r="A30" s="55"/>
+      <c r="B30" s="66"/>
       <c r="C30" s="9" t="s">
         <v>24</v>
       </c>
@@ -2509,8 +2485,8 @@
       </c>
     </row>
     <row r="31" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="63"/>
-      <c r="B31" s="70"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="66"/>
       <c r="C31" s="9" t="s">
         <v>26</v>
       </c>
@@ -2538,8 +2514,8 @@
       </c>
     </row>
     <row r="32" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="63"/>
-      <c r="B32" s="70"/>
+      <c r="A32" s="55"/>
+      <c r="B32" s="66"/>
       <c r="C32" s="9" t="s">
         <v>20</v>
       </c>
@@ -2567,8 +2543,8 @@
       </c>
     </row>
     <row r="33" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="63"/>
-      <c r="B33" s="71"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="67"/>
       <c r="C33" s="9" t="s">
         <v>21</v>
       </c>
@@ -2596,8 +2572,8 @@
       </c>
     </row>
     <row r="34" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="63"/>
-      <c r="B34" s="69" t="s">
+      <c r="A34" s="55"/>
+      <c r="B34" s="65" t="s">
         <v>120</v>
       </c>
       <c r="C34" s="9" t="s">
@@ -2629,9 +2605,9 @@
       </c>
     </row>
     <row r="35" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="63"/>
-      <c r="B35" s="70"/>
-      <c r="C35" s="53" t="s">
+      <c r="A35" s="55"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="58" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="9" t="s">
@@ -2660,9 +2636,9 @@
       </c>
     </row>
     <row r="36" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="63"/>
-      <c r="B36" s="70"/>
-      <c r="C36" s="54"/>
+      <c r="A36" s="55"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="59"/>
       <c r="D36" s="9" t="s">
         <v>12</v>
       </c>
@@ -2689,8 +2665,8 @@
       </c>
     </row>
     <row r="37" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="63"/>
-      <c r="B37" s="71"/>
+      <c r="A37" s="55"/>
+      <c r="B37" s="67"/>
       <c r="C37" s="9" t="s">
         <v>13</v>
       </c>
@@ -2718,8 +2694,8 @@
       </c>
     </row>
     <row r="38" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="63"/>
-      <c r="B38" s="69" t="s">
+      <c r="A38" s="55"/>
+      <c r="B38" s="65" t="s">
         <v>121</v>
       </c>
       <c r="C38" s="9" t="s">
@@ -2751,9 +2727,9 @@
       </c>
     </row>
     <row r="39" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="63"/>
-      <c r="B39" s="70"/>
-      <c r="C39" s="53" t="s">
+      <c r="A39" s="55"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="58" t="s">
         <v>29</v>
       </c>
       <c r="D39" s="9" t="s">
@@ -2782,9 +2758,9 @@
       </c>
     </row>
     <row r="40" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="63"/>
-      <c r="B40" s="70"/>
-      <c r="C40" s="54"/>
+      <c r="A40" s="55"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="59"/>
       <c r="D40" s="9" t="s">
         <v>12</v>
       </c>
@@ -2811,8 +2787,8 @@
       </c>
     </row>
     <row r="41" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="63"/>
-      <c r="B41" s="71"/>
+      <c r="A41" s="55"/>
+      <c r="B41" s="67"/>
       <c r="C41" s="9" t="s">
         <v>13</v>
       </c>
@@ -2840,8 +2816,8 @@
       </c>
     </row>
     <row r="42" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="63"/>
-      <c r="B42" s="69" t="s">
+      <c r="A42" s="55"/>
+      <c r="B42" s="65" t="s">
         <v>125</v>
       </c>
       <c r="C42" s="9" t="s">
@@ -2873,9 +2849,9 @@
       </c>
     </row>
     <row r="43" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="63"/>
-      <c r="B43" s="70"/>
-      <c r="C43" s="53" t="s">
+      <c r="A43" s="55"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="58" t="s">
         <v>29</v>
       </c>
       <c r="D43" s="9" t="s">
@@ -2904,9 +2880,9 @@
       </c>
     </row>
     <row r="44" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="63"/>
-      <c r="B44" s="70"/>
-      <c r="C44" s="54"/>
+      <c r="A44" s="55"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="59"/>
       <c r="D44" s="9" t="s">
         <v>12</v>
       </c>
@@ -2933,8 +2909,8 @@
       </c>
     </row>
     <row r="45" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="63"/>
-      <c r="B45" s="70"/>
+      <c r="A45" s="55"/>
+      <c r="B45" s="66"/>
       <c r="C45" s="9" t="s">
         <v>13</v>
       </c>
@@ -2962,8 +2938,8 @@
       </c>
     </row>
     <row r="46" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="63"/>
-      <c r="B46" s="70"/>
+      <c r="A46" s="55"/>
+      <c r="B46" s="66"/>
       <c r="C46" s="16" t="s">
         <v>22</v>
       </c>
@@ -2991,8 +2967,8 @@
       </c>
     </row>
     <row r="47" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="63"/>
-      <c r="B47" s="71"/>
+      <c r="A47" s="55"/>
+      <c r="B47" s="67"/>
       <c r="C47" s="16" t="s">
         <v>23</v>
       </c>
@@ -3020,8 +2996,8 @@
       </c>
     </row>
     <row r="48" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="63"/>
-      <c r="B48" s="69" t="s">
+      <c r="A48" s="55"/>
+      <c r="B48" s="65" t="s">
         <v>122</v>
       </c>
       <c r="C48" s="16" t="s">
@@ -3053,8 +3029,8 @@
       </c>
     </row>
     <row r="49" spans="1:14" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="63"/>
-      <c r="B49" s="70"/>
+      <c r="A49" s="55"/>
+      <c r="B49" s="66"/>
       <c r="C49" s="17"/>
       <c r="D49" s="9" t="s">
         <v>6</v>
@@ -3084,8 +3060,8 @@
       </c>
     </row>
     <row r="50" spans="1:14" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="63"/>
-      <c r="B50" s="70"/>
+      <c r="A50" s="55"/>
+      <c r="B50" s="66"/>
       <c r="C50" s="16" t="s">
         <v>16</v>
       </c>
@@ -3115,8 +3091,8 @@
       </c>
     </row>
     <row r="51" spans="1:14" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="63"/>
-      <c r="B51" s="71"/>
+      <c r="A51" s="55"/>
+      <c r="B51" s="67"/>
       <c r="C51" s="17"/>
       <c r="D51" s="9" t="s">
         <v>6</v>
@@ -3144,8 +3120,8 @@
       </c>
     </row>
     <row r="52" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A52" s="63"/>
-      <c r="B52" s="69" t="s">
+      <c r="A52" s="55"/>
+      <c r="B52" s="65" t="s">
         <v>128</v>
       </c>
       <c r="C52" s="9" t="s">
@@ -3177,9 +3153,9 @@
       </c>
     </row>
     <row r="53" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A53" s="63"/>
-      <c r="B53" s="70"/>
-      <c r="C53" s="53" t="s">
+      <c r="A53" s="55"/>
+      <c r="B53" s="66"/>
+      <c r="C53" s="58" t="s">
         <v>29</v>
       </c>
       <c r="D53" s="9" t="s">
@@ -3208,9 +3184,9 @@
       </c>
     </row>
     <row r="54" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A54" s="63"/>
-      <c r="B54" s="70"/>
-      <c r="C54" s="54"/>
+      <c r="A54" s="55"/>
+      <c r="B54" s="66"/>
+      <c r="C54" s="59"/>
       <c r="D54" s="9" t="s">
         <v>12</v>
       </c>
@@ -3237,8 +3213,8 @@
       </c>
     </row>
     <row r="55" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A55" s="63"/>
-      <c r="B55" s="71"/>
+      <c r="A55" s="55"/>
+      <c r="B55" s="67"/>
       <c r="C55" s="9" t="s">
         <v>13</v>
       </c>
@@ -3279,7 +3255,7 @@
       </c>
     </row>
     <row r="57" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="66" t="s">
+      <c r="A57" s="56" t="s">
         <v>76</v>
       </c>
       <c r="B57" s="18" t="s">
@@ -3304,7 +3280,7 @@
       <c r="M57" s="9"/>
     </row>
     <row r="58" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="67"/>
+      <c r="A58" s="57"/>
       <c r="B58" s="18" t="s">
         <v>17</v>
       </c>
@@ -3325,7 +3301,7 @@
       <c r="M58" s="9"/>
     </row>
     <row r="59" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="67"/>
+      <c r="A59" s="57"/>
       <c r="B59" s="18" t="s">
         <v>18</v>
       </c>
@@ -3346,11 +3322,11 @@
       <c r="M59" s="9"/>
     </row>
     <row r="60" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="67"/>
-      <c r="B60" s="64" t="s">
+      <c r="A60" s="57"/>
+      <c r="B60" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="C60" s="56" t="s">
+      <c r="C60" s="60" t="s">
         <v>40</v>
       </c>
       <c r="D60" s="9" t="s">
@@ -3363,23 +3339,29 @@
       <c r="G60" s="18">
         <v>0.5</v>
       </c>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
+      <c r="H60" s="45">
+        <v>42982</v>
+      </c>
+      <c r="I60" s="45">
+        <v>42982</v>
+      </c>
       <c r="J60" s="33"/>
       <c r="K60" s="35">
         <v>1</v>
       </c>
-      <c r="L60" s="10"/>
+      <c r="L60" s="10">
+        <v>1</v>
+      </c>
       <c r="M60" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="N60" s="52"/>
+      <c r="N60" s="71"/>
     </row>
     <row r="61" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="67"/>
-      <c r="B61" s="65"/>
-      <c r="C61" s="56"/>
-      <c r="D61" s="53" t="s">
+      <c r="A61" s="57"/>
+      <c r="B61" s="69"/>
+      <c r="C61" s="60"/>
+      <c r="D61" s="58" t="s">
         <v>89</v>
       </c>
       <c r="E61" s="9" t="s">
@@ -3397,13 +3379,13 @@
       </c>
       <c r="L61" s="10"/>
       <c r="M61" s="49"/>
-      <c r="N61" s="52"/>
+      <c r="N61" s="71"/>
     </row>
     <row r="62" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="67"/>
-      <c r="B62" s="65"/>
-      <c r="C62" s="56"/>
-      <c r="D62" s="54"/>
+      <c r="A62" s="57"/>
+      <c r="B62" s="69"/>
+      <c r="C62" s="60"/>
+      <c r="D62" s="59"/>
       <c r="E62" s="9" t="s">
         <v>87</v>
       </c>
@@ -3419,12 +3401,12 @@
       </c>
       <c r="L62" s="10"/>
       <c r="M62" s="49"/>
-      <c r="N62" s="52"/>
+      <c r="N62" s="71"/>
     </row>
     <row r="63" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="67"/>
-      <c r="B63" s="65"/>
-      <c r="C63" s="53" t="s">
+      <c r="A63" s="57"/>
+      <c r="B63" s="69"/>
+      <c r="C63" s="58" t="s">
         <v>83</v>
       </c>
       <c r="D63" s="9" t="s">
@@ -3453,12 +3435,12 @@
       <c r="M63" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="N63" s="52"/>
+      <c r="N63" s="71"/>
     </row>
     <row r="64" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="67"/>
-      <c r="B64" s="65"/>
-      <c r="C64" s="54"/>
+      <c r="A64" s="57"/>
+      <c r="B64" s="69"/>
+      <c r="C64" s="59"/>
       <c r="D64" s="9" t="s">
         <v>81</v>
       </c>
@@ -3485,11 +3467,11 @@
       <c r="M64" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="N64" s="52"/>
+      <c r="N64" s="71"/>
     </row>
     <row r="65" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="67"/>
-      <c r="B65" s="65"/>
+      <c r="A65" s="57"/>
+      <c r="B65" s="69"/>
       <c r="C65" s="17" t="s">
         <v>82</v>
       </c>
@@ -3517,9 +3499,9 @@
       </c>
     </row>
     <row r="66" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A66" s="67"/>
-      <c r="B66" s="65"/>
-      <c r="C66" s="56" t="s">
+      <c r="A66" s="57"/>
+      <c r="B66" s="69"/>
+      <c r="C66" s="60" t="s">
         <v>45</v>
       </c>
       <c r="D66" s="9" t="s">
@@ -3530,22 +3512,26 @@
       <c r="G66" s="18">
         <v>0.5</v>
       </c>
-      <c r="H66" s="9"/>
+      <c r="H66" s="45">
+        <v>42982</v>
+      </c>
       <c r="I66" s="9"/>
       <c r="J66" s="33"/>
       <c r="K66" s="35">
         <v>1</v>
       </c>
-      <c r="L66" s="10"/>
+      <c r="L66" s="10">
+        <v>0.6</v>
+      </c>
       <c r="M66" s="49" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A67" s="67"/>
-      <c r="B67" s="65"/>
-      <c r="C67" s="56"/>
-      <c r="D67" s="56" t="s">
+      <c r="A67" s="57"/>
+      <c r="B67" s="69"/>
+      <c r="C67" s="60"/>
+      <c r="D67" s="60" t="s">
         <v>90</v>
       </c>
       <c r="E67" s="9" t="s">
@@ -3565,10 +3551,10 @@
       <c r="M67" s="49"/>
     </row>
     <row r="68" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A68" s="67"/>
-      <c r="B68" s="65"/>
-      <c r="C68" s="56"/>
-      <c r="D68" s="56"/>
+      <c r="A68" s="57"/>
+      <c r="B68" s="69"/>
+      <c r="C68" s="60"/>
+      <c r="D68" s="60"/>
       <c r="E68" s="9" t="s">
         <v>70</v>
       </c>
@@ -3586,9 +3572,9 @@
       <c r="M68" s="49"/>
     </row>
     <row r="69" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A69" s="67"/>
-      <c r="B69" s="65"/>
-      <c r="C69" s="53" t="s">
+      <c r="A69" s="57"/>
+      <c r="B69" s="69"/>
+      <c r="C69" s="58" t="s">
         <v>36</v>
       </c>
       <c r="D69" s="9" t="s">
@@ -3611,9 +3597,9 @@
       </c>
     </row>
     <row r="70" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A70" s="67"/>
-      <c r="B70" s="65"/>
-      <c r="C70" s="57"/>
+      <c r="A70" s="57"/>
+      <c r="B70" s="69"/>
+      <c r="C70" s="63"/>
       <c r="D70" s="9" t="s">
         <v>38</v>
       </c>
@@ -3634,9 +3620,9 @@
       </c>
     </row>
     <row r="71" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A71" s="67"/>
-      <c r="B71" s="65"/>
-      <c r="C71" s="54"/>
+      <c r="A71" s="57"/>
+      <c r="B71" s="69"/>
+      <c r="C71" s="59"/>
       <c r="D71" s="9" t="s">
         <v>39</v>
       </c>
@@ -3657,8 +3643,8 @@
       <c r="M71" s="49"/>
     </row>
     <row r="72" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A72" s="67"/>
-      <c r="B72" s="65"/>
+      <c r="A72" s="57"/>
+      <c r="B72" s="69"/>
       <c r="C72" s="9" t="s">
         <v>49</v>
       </c>
@@ -3668,20 +3654,24 @@
       <c r="G72" s="18">
         <v>0.5</v>
       </c>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
+      <c r="H72" s="45">
+        <v>42982</v>
+      </c>
+      <c r="I72" s="45"/>
       <c r="J72" s="33"/>
       <c r="K72" s="35">
         <v>1</v>
       </c>
-      <c r="L72" s="10"/>
+      <c r="L72" s="10">
+        <v>0.5</v>
+      </c>
       <c r="M72" s="49" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="73" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A73" s="67"/>
-      <c r="B73" s="65"/>
+      <c r="A73" s="57"/>
+      <c r="B73" s="69"/>
       <c r="C73" s="9" t="s">
         <v>50</v>
       </c>
@@ -3703,9 +3693,9 @@
       </c>
     </row>
     <row r="74" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A74" s="67"/>
-      <c r="B74" s="65"/>
-      <c r="C74" s="53" t="s">
+      <c r="A74" s="57"/>
+      <c r="B74" s="69"/>
+      <c r="C74" s="58" t="s">
         <v>57</v>
       </c>
       <c r="D74" s="30" t="s">
@@ -3728,9 +3718,9 @@
       </c>
     </row>
     <row r="75" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A75" s="67"/>
-      <c r="B75" s="65"/>
-      <c r="C75" s="54"/>
+      <c r="A75" s="57"/>
+      <c r="B75" s="69"/>
+      <c r="C75" s="59"/>
       <c r="D75" s="9" t="s">
         <v>96</v>
       </c>
@@ -3753,9 +3743,9 @@
       </c>
     </row>
     <row r="76" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A76" s="67"/>
-      <c r="B76" s="65"/>
-      <c r="C76" s="58" t="s">
+      <c r="A76" s="57"/>
+      <c r="B76" s="69"/>
+      <c r="C76" s="72" t="s">
         <v>51</v>
       </c>
       <c r="D76" s="19" t="s">
@@ -3776,9 +3766,9 @@
       <c r="M76" s="43"/>
     </row>
     <row r="77" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A77" s="67"/>
-      <c r="B77" s="65"/>
-      <c r="C77" s="59"/>
+      <c r="A77" s="57"/>
+      <c r="B77" s="69"/>
+      <c r="C77" s="73"/>
       <c r="D77" s="19" t="s">
         <v>53</v>
       </c>
@@ -3797,9 +3787,9 @@
       <c r="M77" s="43"/>
     </row>
     <row r="78" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A78" s="67"/>
-      <c r="B78" s="65"/>
-      <c r="C78" s="59"/>
+      <c r="A78" s="57"/>
+      <c r="B78" s="69"/>
+      <c r="C78" s="73"/>
       <c r="D78" s="19" t="s">
         <v>54</v>
       </c>
@@ -3818,9 +3808,9 @@
       <c r="M78" s="43"/>
     </row>
     <row r="79" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A79" s="67"/>
-      <c r="B79" s="65"/>
-      <c r="C79" s="59"/>
+      <c r="A79" s="57"/>
+      <c r="B79" s="69"/>
+      <c r="C79" s="73"/>
       <c r="D79" s="19" t="s">
         <v>55</v>
       </c>
@@ -3839,9 +3829,9 @@
       <c r="M79" s="43"/>
     </row>
     <row r="80" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A80" s="67"/>
-      <c r="B80" s="65"/>
-      <c r="C80" s="60"/>
+      <c r="A80" s="57"/>
+      <c r="B80" s="69"/>
+      <c r="C80" s="74"/>
       <c r="D80" s="19" t="s">
         <v>56</v>
       </c>
@@ -3860,11 +3850,11 @@
       <c r="M80" s="43"/>
     </row>
     <row r="81" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A81" s="67"/>
-      <c r="B81" s="73" t="s">
+      <c r="A81" s="57"/>
+      <c r="B81" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="C81" s="61" t="s">
+      <c r="C81" s="75" t="s">
         <v>74</v>
       </c>
       <c r="D81" s="15" t="s">
@@ -3885,9 +3875,9 @@
       <c r="M81" s="43"/>
     </row>
     <row r="82" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A82" s="67"/>
-      <c r="B82" s="74"/>
-      <c r="C82" s="62"/>
+      <c r="A82" s="57"/>
+      <c r="B82" s="54"/>
+      <c r="C82" s="76"/>
       <c r="D82" s="15" t="s">
         <v>59</v>
       </c>
@@ -3906,9 +3896,9 @@
       <c r="M82" s="43"/>
     </row>
     <row r="83" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A83" s="67"/>
-      <c r="B83" s="74"/>
-      <c r="C83" s="62"/>
+      <c r="A83" s="57"/>
+      <c r="B83" s="54"/>
+      <c r="C83" s="76"/>
       <c r="D83" s="15" t="s">
         <v>55</v>
       </c>
@@ -3925,9 +3915,9 @@
       <c r="M83" s="43"/>
     </row>
     <row r="84" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A84" s="67"/>
-      <c r="B84" s="74"/>
-      <c r="C84" s="62"/>
+      <c r="A84" s="57"/>
+      <c r="B84" s="54"/>
+      <c r="C84" s="76"/>
       <c r="D84" s="15" t="s">
         <v>60</v>
       </c>
@@ -3944,12 +3934,12 @@
       <c r="M84" s="43"/>
     </row>
     <row r="85" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A85" s="67"/>
-      <c r="B85" s="74"/>
-      <c r="C85" s="55" t="s">
+      <c r="A85" s="57"/>
+      <c r="B85" s="54"/>
+      <c r="C85" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="D85" s="53" t="s">
+      <c r="D85" s="58" t="s">
         <v>61</v>
       </c>
       <c r="E85" s="9" t="s">
@@ -3979,11 +3969,11 @@
       </c>
     </row>
     <row r="86" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A86" s="67"/>
-      <c r="B86" s="74"/>
-      <c r="C86" s="55"/>
-      <c r="D86" s="57"/>
-      <c r="E86" s="53" t="s">
+      <c r="A86" s="57"/>
+      <c r="B86" s="54"/>
+      <c r="C86" s="64"/>
+      <c r="D86" s="63"/>
+      <c r="E86" s="58" t="s">
         <v>29</v>
       </c>
       <c r="F86" s="9" t="s">
@@ -4010,11 +4000,11 @@
       </c>
     </row>
     <row r="87" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A87" s="67"/>
-      <c r="B87" s="74"/>
-      <c r="C87" s="55"/>
-      <c r="D87" s="57"/>
-      <c r="E87" s="54"/>
+      <c r="A87" s="57"/>
+      <c r="B87" s="54"/>
+      <c r="C87" s="64"/>
+      <c r="D87" s="63"/>
+      <c r="E87" s="59"/>
       <c r="F87" s="9" t="s">
         <v>12</v>
       </c>
@@ -4039,10 +4029,10 @@
       </c>
     </row>
     <row r="88" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A88" s="67"/>
-      <c r="B88" s="74"/>
-      <c r="C88" s="55"/>
-      <c r="D88" s="57"/>
+      <c r="A88" s="57"/>
+      <c r="B88" s="54"/>
+      <c r="C88" s="64"/>
+      <c r="D88" s="63"/>
       <c r="E88" s="9" t="s">
         <v>13</v>
       </c>
@@ -4068,10 +4058,10 @@
       </c>
     </row>
     <row r="89" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A89" s="67"/>
-      <c r="B89" s="74"/>
-      <c r="C89" s="55"/>
-      <c r="D89" s="57"/>
+      <c r="A89" s="57"/>
+      <c r="B89" s="54"/>
+      <c r="C89" s="64"/>
+      <c r="D89" s="63"/>
       <c r="E89" s="9" t="s">
         <v>130</v>
       </c>
@@ -4097,10 +4087,10 @@
       </c>
     </row>
     <row r="90" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A90" s="67"/>
-      <c r="B90" s="74"/>
-      <c r="C90" s="55"/>
-      <c r="D90" s="57"/>
+      <c r="A90" s="57"/>
+      <c r="B90" s="54"/>
+      <c r="C90" s="64"/>
+      <c r="D90" s="63"/>
       <c r="E90" s="9" t="s">
         <v>131</v>
       </c>
@@ -4120,10 +4110,10 @@
       <c r="M90" s="49"/>
     </row>
     <row r="91" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A91" s="67"/>
-      <c r="B91" s="74"/>
-      <c r="C91" s="55"/>
-      <c r="D91" s="57"/>
+      <c r="A91" s="57"/>
+      <c r="B91" s="54"/>
+      <c r="C91" s="64"/>
+      <c r="D91" s="63"/>
       <c r="E91" s="16" t="s">
         <v>132</v>
       </c>
@@ -4143,11 +4133,11 @@
       </c>
     </row>
     <row r="92" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A92" s="67"/>
-      <c r="B92" s="74"/>
-      <c r="C92" s="55"/>
-      <c r="D92" s="57"/>
-      <c r="E92" s="53" t="s">
+      <c r="A92" s="57"/>
+      <c r="B92" s="54"/>
+      <c r="C92" s="64"/>
+      <c r="D92" s="63"/>
+      <c r="E92" s="58" t="s">
         <v>133</v>
       </c>
       <c r="F92" s="9" t="s">
@@ -4174,11 +4164,11 @@
       </c>
     </row>
     <row r="93" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A93" s="67"/>
-      <c r="B93" s="74"/>
-      <c r="C93" s="55"/>
-      <c r="D93" s="57"/>
-      <c r="E93" s="57"/>
+      <c r="A93" s="57"/>
+      <c r="B93" s="54"/>
+      <c r="C93" s="64"/>
+      <c r="D93" s="63"/>
+      <c r="E93" s="63"/>
       <c r="F93" s="9" t="s">
         <v>135</v>
       </c>
@@ -4203,11 +4193,11 @@
       </c>
     </row>
     <row r="94" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A94" s="67"/>
-      <c r="B94" s="74"/>
-      <c r="C94" s="55"/>
-      <c r="D94" s="57"/>
-      <c r="E94" s="54"/>
+      <c r="A94" s="57"/>
+      <c r="B94" s="54"/>
+      <c r="C94" s="64"/>
+      <c r="D94" s="63"/>
+      <c r="E94" s="59"/>
       <c r="F94" s="9" t="s">
         <v>136</v>
       </c>
@@ -4232,10 +4222,10 @@
       </c>
     </row>
     <row r="95" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A95" s="67"/>
-      <c r="B95" s="74"/>
-      <c r="C95" s="55"/>
-      <c r="D95" s="56" t="s">
+      <c r="A95" s="57"/>
+      <c r="B95" s="54"/>
+      <c r="C95" s="64"/>
+      <c r="D95" s="60" t="s">
         <v>102</v>
       </c>
       <c r="E95" s="9" t="s">
@@ -4255,10 +4245,10 @@
       <c r="M95" s="49"/>
     </row>
     <row r="96" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A96" s="67"/>
-      <c r="B96" s="74"/>
-      <c r="C96" s="55"/>
-      <c r="D96" s="56"/>
+      <c r="A96" s="57"/>
+      <c r="B96" s="54"/>
+      <c r="C96" s="64"/>
+      <c r="D96" s="60"/>
       <c r="E96" s="9" t="s">
         <v>48</v>
       </c>
@@ -4278,10 +4268,10 @@
       <c r="M96" s="49"/>
     </row>
     <row r="97" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A97" s="67"/>
-      <c r="B97" s="74"/>
-      <c r="C97" s="55"/>
-      <c r="D97" s="53" t="s">
+      <c r="A97" s="57"/>
+      <c r="B97" s="54"/>
+      <c r="C97" s="64"/>
+      <c r="D97" s="58" t="s">
         <v>114</v>
       </c>
       <c r="E97" s="9" t="s">
@@ -4311,11 +4301,11 @@
       </c>
     </row>
     <row r="98" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A98" s="67"/>
-      <c r="B98" s="74"/>
-      <c r="C98" s="55"/>
-      <c r="D98" s="57"/>
-      <c r="E98" s="53" t="s">
+      <c r="A98" s="57"/>
+      <c r="B98" s="54"/>
+      <c r="C98" s="64"/>
+      <c r="D98" s="63"/>
+      <c r="E98" s="58" t="s">
         <v>29</v>
       </c>
       <c r="F98" s="9" t="s">
@@ -4342,11 +4332,11 @@
       </c>
     </row>
     <row r="99" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A99" s="67"/>
-      <c r="B99" s="74"/>
-      <c r="C99" s="55"/>
-      <c r="D99" s="57"/>
-      <c r="E99" s="54"/>
+      <c r="A99" s="57"/>
+      <c r="B99" s="54"/>
+      <c r="C99" s="64"/>
+      <c r="D99" s="63"/>
+      <c r="E99" s="59"/>
       <c r="F99" s="9" t="s">
         <v>12</v>
       </c>
@@ -4371,10 +4361,10 @@
       </c>
     </row>
     <row r="100" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A100" s="67"/>
-      <c r="B100" s="74"/>
-      <c r="C100" s="55"/>
-      <c r="D100" s="54"/>
+      <c r="A100" s="57"/>
+      <c r="B100" s="54"/>
+      <c r="C100" s="64"/>
+      <c r="D100" s="59"/>
       <c r="E100" s="9" t="s">
         <v>13</v>
       </c>
@@ -4411,7 +4401,7 @@
       <c r="K101" s="35"/>
     </row>
     <row r="102" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A102" s="63" t="s">
+      <c r="A102" s="55" t="s">
         <v>69</v>
       </c>
       <c r="B102" s="18" t="s">
@@ -4436,7 +4426,7 @@
       </c>
     </row>
     <row r="103" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A103" s="63"/>
+      <c r="A103" s="55"/>
       <c r="B103" s="18" t="s">
         <v>17</v>
       </c>
@@ -4459,7 +4449,7 @@
       </c>
     </row>
     <row r="104" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A104" s="63"/>
+      <c r="A104" s="55"/>
       <c r="B104" s="18" t="s">
         <v>18</v>
       </c>
@@ -4482,11 +4472,11 @@
       </c>
     </row>
     <row r="105" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="63"/>
-      <c r="B105" s="73" t="s">
+      <c r="A105" s="55"/>
+      <c r="B105" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="C105" s="53" t="s">
+      <c r="C105" s="58" t="s">
         <v>33</v>
       </c>
       <c r="D105" s="9" t="s">
@@ -4513,9 +4503,9 @@
       </c>
     </row>
     <row r="106" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A106" s="63"/>
-      <c r="B106" s="74"/>
-      <c r="C106" s="57"/>
+      <c r="A106" s="55"/>
+      <c r="B106" s="54"/>
+      <c r="C106" s="63"/>
       <c r="D106" s="50" t="s">
         <v>41</v>
       </c>
@@ -4538,10 +4528,10 @@
       </c>
     </row>
     <row r="107" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A107" s="63"/>
-      <c r="B107" s="74"/>
-      <c r="C107" s="54"/>
-      <c r="D107" s="51"/>
+      <c r="A107" s="55"/>
+      <c r="B107" s="54"/>
+      <c r="C107" s="59"/>
+      <c r="D107" s="52"/>
       <c r="E107" s="9" t="s">
         <v>43</v>
       </c>
@@ -4561,9 +4551,9 @@
       </c>
     </row>
     <row r="108" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A108" s="63"/>
-      <c r="B108" s="74"/>
-      <c r="C108" s="53" t="s">
+      <c r="A108" s="55"/>
+      <c r="B108" s="54"/>
+      <c r="C108" s="58" t="s">
         <v>45</v>
       </c>
       <c r="D108" s="9" t="s">
@@ -4588,9 +4578,9 @@
       </c>
     </row>
     <row r="109" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A109" s="63"/>
-      <c r="B109" s="74"/>
-      <c r="C109" s="57"/>
+      <c r="A109" s="55"/>
+      <c r="B109" s="54"/>
+      <c r="C109" s="63"/>
       <c r="D109" s="50" t="s">
         <v>41</v>
       </c>
@@ -4613,10 +4603,10 @@
       </c>
     </row>
     <row r="110" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A110" s="63"/>
-      <c r="B110" s="74"/>
-      <c r="C110" s="57"/>
-      <c r="D110" s="72"/>
+      <c r="A110" s="55"/>
+      <c r="B110" s="54"/>
+      <c r="C110" s="63"/>
+      <c r="D110" s="51"/>
       <c r="E110" s="9" t="s">
         <v>43</v>
       </c>
@@ -4636,10 +4626,10 @@
       </c>
     </row>
     <row r="111" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A111" s="63"/>
-      <c r="B111" s="74"/>
-      <c r="C111" s="54"/>
-      <c r="D111" s="51"/>
+      <c r="A111" s="55"/>
+      <c r="B111" s="54"/>
+      <c r="C111" s="59"/>
+      <c r="D111" s="52"/>
       <c r="E111" s="9" t="s">
         <v>47</v>
       </c>
@@ -4659,9 +4649,9 @@
       </c>
     </row>
     <row r="112" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A112" s="63"/>
-      <c r="B112" s="74"/>
-      <c r="C112" s="55" t="s">
+      <c r="A112" s="55"/>
+      <c r="B112" s="54"/>
+      <c r="C112" s="64" t="s">
         <v>71</v>
       </c>
       <c r="D112" s="9" t="s">
@@ -4686,9 +4676,9 @@
       </c>
     </row>
     <row r="113" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A113" s="63"/>
-      <c r="B113" s="74"/>
-      <c r="C113" s="56"/>
+      <c r="A113" s="55"/>
+      <c r="B113" s="54"/>
+      <c r="C113" s="60"/>
       <c r="D113" s="9" t="s">
         <v>63</v>
       </c>
@@ -4711,8 +4701,8 @@
       </c>
     </row>
     <row r="114" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A114" s="63"/>
-      <c r="B114" s="74"/>
+      <c r="A114" s="55"/>
+      <c r="B114" s="54"/>
       <c r="C114" s="9" t="s">
         <v>92</v>
       </c>
@@ -4736,11 +4726,11 @@
       </c>
     </row>
     <row r="115" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A115" s="63"/>
-      <c r="B115" s="73" t="s">
+      <c r="A115" s="55"/>
+      <c r="B115" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="C115" s="53" t="s">
+      <c r="C115" s="58" t="s">
         <v>64</v>
       </c>
       <c r="D115" s="21" t="s">
@@ -4767,10 +4757,10 @@
       </c>
     </row>
     <row r="116" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A116" s="63"/>
-      <c r="B116" s="73"/>
-      <c r="C116" s="57"/>
-      <c r="D116" s="75" t="s">
+      <c r="A116" s="55"/>
+      <c r="B116" s="53"/>
+      <c r="C116" s="63"/>
+      <c r="D116" s="61" t="s">
         <v>29</v>
       </c>
       <c r="E116" s="9" t="s">
@@ -4794,10 +4784,10 @@
       </c>
     </row>
     <row r="117" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A117" s="63"/>
-      <c r="B117" s="73"/>
-      <c r="C117" s="57"/>
-      <c r="D117" s="76"/>
+      <c r="A117" s="55"/>
+      <c r="B117" s="53"/>
+      <c r="C117" s="63"/>
+      <c r="D117" s="62"/>
       <c r="E117" s="9" t="s">
         <v>12</v>
       </c>
@@ -4819,9 +4809,9 @@
       </c>
     </row>
     <row r="118" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A118" s="63"/>
-      <c r="B118" s="73"/>
-      <c r="C118" s="57"/>
+      <c r="A118" s="55"/>
+      <c r="B118" s="53"/>
+      <c r="C118" s="63"/>
       <c r="D118" s="21" t="s">
         <v>13</v>
       </c>
@@ -4844,9 +4834,9 @@
       </c>
     </row>
     <row r="119" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A119" s="63"/>
-      <c r="B119" s="73"/>
-      <c r="C119" s="57"/>
+      <c r="A119" s="55"/>
+      <c r="B119" s="53"/>
+      <c r="C119" s="63"/>
       <c r="D119" s="21" t="s">
         <v>25</v>
       </c>
@@ -4869,9 +4859,9 @@
       </c>
     </row>
     <row r="120" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A120" s="63"/>
-      <c r="B120" s="73"/>
-      <c r="C120" s="57"/>
+      <c r="A120" s="55"/>
+      <c r="B120" s="53"/>
+      <c r="C120" s="63"/>
       <c r="D120" s="21" t="s">
         <v>24</v>
       </c>
@@ -4894,9 +4884,9 @@
       </c>
     </row>
     <row r="121" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A121" s="63"/>
-      <c r="B121" s="73"/>
-      <c r="C121" s="54"/>
+      <c r="A121" s="55"/>
+      <c r="B121" s="53"/>
+      <c r="C121" s="59"/>
       <c r="D121" s="21" t="s">
         <v>26</v>
       </c>
@@ -4919,9 +4909,9 @@
       </c>
     </row>
     <row r="122" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A122" s="63"/>
-      <c r="B122" s="74"/>
-      <c r="C122" s="53" t="s">
+      <c r="A122" s="55"/>
+      <c r="B122" s="54"/>
+      <c r="C122" s="58" t="s">
         <v>99</v>
       </c>
       <c r="D122" s="21" t="s">
@@ -4948,10 +4938,10 @@
       </c>
     </row>
     <row r="123" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A123" s="63"/>
-      <c r="B123" s="74"/>
-      <c r="C123" s="57"/>
-      <c r="D123" s="75" t="s">
+      <c r="A123" s="55"/>
+      <c r="B123" s="54"/>
+      <c r="C123" s="63"/>
+      <c r="D123" s="61" t="s">
         <v>29</v>
       </c>
       <c r="E123" s="9" t="s">
@@ -4975,10 +4965,10 @@
       </c>
     </row>
     <row r="124" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A124" s="63"/>
-      <c r="B124" s="74"/>
-      <c r="C124" s="57"/>
-      <c r="D124" s="76"/>
+      <c r="A124" s="55"/>
+      <c r="B124" s="54"/>
+      <c r="C124" s="63"/>
+      <c r="D124" s="62"/>
       <c r="E124" s="9" t="s">
         <v>12</v>
       </c>
@@ -5000,9 +4990,9 @@
       </c>
     </row>
     <row r="125" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A125" s="63"/>
-      <c r="B125" s="74"/>
-      <c r="C125" s="54"/>
+      <c r="A125" s="55"/>
+      <c r="B125" s="54"/>
+      <c r="C125" s="59"/>
       <c r="D125" s="21" t="s">
         <v>13</v>
       </c>
@@ -5025,8 +5015,8 @@
       </c>
     </row>
     <row r="126" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A126" s="63"/>
-      <c r="B126" s="74"/>
+      <c r="A126" s="55"/>
+      <c r="B126" s="54"/>
       <c r="C126" s="37" t="s">
         <v>65</v>
       </c>
@@ -5046,8 +5036,8 @@
       <c r="M126" s="9"/>
     </row>
     <row r="127" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A127" s="63"/>
-      <c r="B127" s="74"/>
+      <c r="A127" s="55"/>
+      <c r="B127" s="54"/>
       <c r="C127" s="37" t="s">
         <v>66</v>
       </c>
@@ -5067,8 +5057,8 @@
       <c r="M127" s="9"/>
     </row>
     <row r="128" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A128" s="63"/>
-      <c r="B128" s="74"/>
+      <c r="A128" s="55"/>
+      <c r="B128" s="54"/>
       <c r="C128" s="37" t="s">
         <v>67</v>
       </c>
@@ -5088,8 +5078,8 @@
       <c r="M128" s="9"/>
     </row>
     <row r="129" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A129" s="63"/>
-      <c r="B129" s="74"/>
+      <c r="A129" s="55"/>
+      <c r="B129" s="54"/>
       <c r="C129" s="37" t="s">
         <v>68</v>
       </c>
@@ -5132,6 +5122,40 @@
     <protectedRange sqref="L102:L129 L2:L5 L8:L55 L57:L100" name="区域3"/>
   </protectedRanges>
   <mergeCells count="50">
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="N60:N64"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="C85:C100"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="D97:D100"/>
+    <mergeCell ref="D85:D94"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="C76:C80"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="A8:A55"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="B60:B80"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B25:B33"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="C39:C40"/>
     <mergeCell ref="D109:D111"/>
     <mergeCell ref="B115:B129"/>
     <mergeCell ref="A102:A129"/>
@@ -5148,92 +5172,58 @@
     <mergeCell ref="C112:C113"/>
     <mergeCell ref="C108:C111"/>
     <mergeCell ref="C105:C107"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B47"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="A8:A55"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="B60:B80"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B25:B33"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="N60:N64"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="C85:C100"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="D97:D100"/>
-    <mergeCell ref="D85:D94"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="C76:C80"/>
-    <mergeCell ref="C81:C84"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="L2:L5 L102:L129 L48:L51 L43:L44 L25:L37 L8:L14 L66:L100">
-    <cfRule type="cellIs" dxfId="39" priority="90" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="90" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="91" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="91" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="92" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="34" priority="92" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23:L24">
-    <cfRule type="cellIs" dxfId="36" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="60" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="61" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="62" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="31" priority="62" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="duplicateValues" dxfId="33" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L38:L41">
-    <cfRule type="cellIs" dxfId="32" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="56" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="57" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="58" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="27" priority="58" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="duplicateValues" dxfId="29" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L57:L65">
-    <cfRule type="cellIs" dxfId="28" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="46" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="47" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="48" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="23" priority="48" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
@@ -5281,90 +5271,90 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K129">
-    <cfRule type="cellIs" dxfId="25" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="30" stopIfTrue="1" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="31" stopIfTrue="1" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="32" stopIfTrue="1" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="33" stopIfTrue="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="34" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15:L19 L22">
-    <cfRule type="cellIs" dxfId="20" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="19" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="20" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="21" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="21" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20:L21">
-    <cfRule type="cellIs" dxfId="17" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="13" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="15" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="15" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L52:L55">
-    <cfRule type="cellIs" dxfId="14" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="10" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="12" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L42">
-    <cfRule type="cellIs" dxfId="11" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="9" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L45">
-    <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="6" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L46:L47">
-    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>

--- a/doc/开发计划V0.1.xlsx
+++ b/doc/开发计划V0.1.xlsx
@@ -933,83 +933,83 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1641,8 +1641,8 @@
   <dimension ref="A1:N132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I72" sqref="I72"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1712,7 +1712,7 @@
       <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="66" t="s">
         <v>77</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -1733,7 +1733,7 @@
       <c r="M3" s="9"/>
     </row>
     <row r="4" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="57"/>
+      <c r="A4" s="67"/>
       <c r="B4" s="12" t="s">
         <v>80</v>
       </c>
@@ -1752,7 +1752,7 @@
       <c r="M4" s="9"/>
     </row>
     <row r="5" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="57"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="12" t="s">
         <v>78</v>
       </c>
@@ -1771,7 +1771,7 @@
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="57"/>
+      <c r="A6" s="67"/>
       <c r="B6" s="12"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1788,7 +1788,7 @@
       <c r="M6" s="9"/>
     </row>
     <row r="7" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="70"/>
+      <c r="A7" s="68"/>
       <c r="B7" s="12"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1805,7 +1805,7 @@
       <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="63" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="14" t="s">
@@ -1827,7 +1827,7 @@
       <c r="M8" s="48"/>
     </row>
     <row r="9" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="55"/>
+      <c r="A9" s="63"/>
       <c r="B9" s="14" t="s">
         <v>17</v>
       </c>
@@ -1848,7 +1848,7 @@
       <c r="M9" s="48"/>
     </row>
     <row r="10" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="55"/>
+      <c r="A10" s="63"/>
       <c r="B10" s="14" t="s">
         <v>18</v>
       </c>
@@ -1877,8 +1877,8 @@
       </c>
     </row>
     <row r="11" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="55"/>
-      <c r="B11" s="65" t="s">
+      <c r="A11" s="63"/>
+      <c r="B11" s="69" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -1912,8 +1912,8 @@
       </c>
     </row>
     <row r="12" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A12" s="55"/>
-      <c r="B12" s="66"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="70"/>
       <c r="C12" s="9" t="s">
         <v>10</v>
       </c>
@@ -1943,8 +1943,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="55"/>
-      <c r="B13" s="66"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="70"/>
       <c r="C13" s="9" t="s">
         <v>9</v>
       </c>
@@ -1972,8 +1972,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="55"/>
-      <c r="B14" s="67"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="71"/>
       <c r="C14" s="9" t="s">
         <v>27</v>
       </c>
@@ -2003,8 +2003,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="55"/>
-      <c r="B15" s="65" t="s">
+      <c r="A15" s="63"/>
+      <c r="B15" s="69" t="s">
         <v>119</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -2036,9 +2036,9 @@
       </c>
     </row>
     <row r="16" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="55"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="58" t="s">
+      <c r="A16" s="63"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="53" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="9" t="s">
@@ -2067,9 +2067,9 @@
       </c>
     </row>
     <row r="17" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="55"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="59"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="9" t="s">
         <v>12</v>
       </c>
@@ -2096,8 +2096,8 @@
       </c>
     </row>
     <row r="18" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="55"/>
-      <c r="B18" s="67"/>
+      <c r="A18" s="63"/>
+      <c r="B18" s="71"/>
       <c r="C18" s="9" t="s">
         <v>13</v>
       </c>
@@ -2125,8 +2125,8 @@
       </c>
     </row>
     <row r="19" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="55"/>
-      <c r="B19" s="65" t="s">
+      <c r="A19" s="63"/>
+      <c r="B19" s="69" t="s">
         <v>126</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -2158,9 +2158,9 @@
       </c>
     </row>
     <row r="20" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="55"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="58" t="s">
+      <c r="A20" s="63"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="53" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="9" t="s">
@@ -2189,9 +2189,9 @@
       </c>
     </row>
     <row r="21" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="55"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="59"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="54"/>
       <c r="D21" s="9" t="s">
         <v>12</v>
       </c>
@@ -2218,8 +2218,8 @@
       </c>
     </row>
     <row r="22" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="55"/>
-      <c r="B22" s="66"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="70"/>
       <c r="C22" s="9" t="s">
         <v>13</v>
       </c>
@@ -2247,8 +2247,8 @@
       </c>
     </row>
     <row r="23" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="55"/>
-      <c r="B23" s="66"/>
+      <c r="A23" s="63"/>
+      <c r="B23" s="70"/>
       <c r="C23" s="9" t="s">
         <v>124</v>
       </c>
@@ -2276,8 +2276,8 @@
       </c>
     </row>
     <row r="24" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="55"/>
-      <c r="B24" s="67"/>
+      <c r="A24" s="63"/>
+      <c r="B24" s="71"/>
       <c r="C24" s="9" t="s">
         <v>123</v>
       </c>
@@ -2305,8 +2305,8 @@
       </c>
     </row>
     <row r="25" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="55"/>
-      <c r="B25" s="65" t="s">
+      <c r="A25" s="63"/>
+      <c r="B25" s="69" t="s">
         <v>127</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -2338,9 +2338,9 @@
       </c>
     </row>
     <row r="26" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="55"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="58" t="s">
+      <c r="A26" s="63"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="53" t="s">
         <v>29</v>
       </c>
       <c r="D26" s="9" t="s">
@@ -2369,9 +2369,9 @@
       </c>
     </row>
     <row r="27" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="55"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="59"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="9" t="s">
         <v>12</v>
       </c>
@@ -2398,8 +2398,8 @@
       </c>
     </row>
     <row r="28" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="55"/>
-      <c r="B28" s="66"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="70"/>
       <c r="C28" s="9" t="s">
         <v>13</v>
       </c>
@@ -2427,8 +2427,8 @@
       </c>
     </row>
     <row r="29" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="55"/>
-      <c r="B29" s="66"/>
+      <c r="A29" s="63"/>
+      <c r="B29" s="70"/>
       <c r="C29" s="9" t="s">
         <v>25</v>
       </c>
@@ -2456,8 +2456,8 @@
       </c>
     </row>
     <row r="30" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="55"/>
-      <c r="B30" s="66"/>
+      <c r="A30" s="63"/>
+      <c r="B30" s="70"/>
       <c r="C30" s="9" t="s">
         <v>24</v>
       </c>
@@ -2485,8 +2485,8 @@
       </c>
     </row>
     <row r="31" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="55"/>
-      <c r="B31" s="66"/>
+      <c r="A31" s="63"/>
+      <c r="B31" s="70"/>
       <c r="C31" s="9" t="s">
         <v>26</v>
       </c>
@@ -2514,8 +2514,8 @@
       </c>
     </row>
     <row r="32" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="55"/>
-      <c r="B32" s="66"/>
+      <c r="A32" s="63"/>
+      <c r="B32" s="70"/>
       <c r="C32" s="9" t="s">
         <v>20</v>
       </c>
@@ -2543,8 +2543,8 @@
       </c>
     </row>
     <row r="33" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="55"/>
-      <c r="B33" s="67"/>
+      <c r="A33" s="63"/>
+      <c r="B33" s="71"/>
       <c r="C33" s="9" t="s">
         <v>21</v>
       </c>
@@ -2572,8 +2572,8 @@
       </c>
     </row>
     <row r="34" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="55"/>
-      <c r="B34" s="65" t="s">
+      <c r="A34" s="63"/>
+      <c r="B34" s="69" t="s">
         <v>120</v>
       </c>
       <c r="C34" s="9" t="s">
@@ -2605,9 +2605,9 @@
       </c>
     </row>
     <row r="35" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="55"/>
-      <c r="B35" s="66"/>
-      <c r="C35" s="58" t="s">
+      <c r="A35" s="63"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="53" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="9" t="s">
@@ -2636,9 +2636,9 @@
       </c>
     </row>
     <row r="36" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="55"/>
-      <c r="B36" s="66"/>
-      <c r="C36" s="59"/>
+      <c r="A36" s="63"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="54"/>
       <c r="D36" s="9" t="s">
         <v>12</v>
       </c>
@@ -2665,8 +2665,8 @@
       </c>
     </row>
     <row r="37" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="55"/>
-      <c r="B37" s="67"/>
+      <c r="A37" s="63"/>
+      <c r="B37" s="71"/>
       <c r="C37" s="9" t="s">
         <v>13</v>
       </c>
@@ -2694,8 +2694,8 @@
       </c>
     </row>
     <row r="38" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="55"/>
-      <c r="B38" s="65" t="s">
+      <c r="A38" s="63"/>
+      <c r="B38" s="69" t="s">
         <v>121</v>
       </c>
       <c r="C38" s="9" t="s">
@@ -2727,9 +2727,9 @@
       </c>
     </row>
     <row r="39" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="55"/>
-      <c r="B39" s="66"/>
-      <c r="C39" s="58" t="s">
+      <c r="A39" s="63"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="53" t="s">
         <v>29</v>
       </c>
       <c r="D39" s="9" t="s">
@@ -2758,9 +2758,9 @@
       </c>
     </row>
     <row r="40" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="55"/>
-      <c r="B40" s="66"/>
-      <c r="C40" s="59"/>
+      <c r="A40" s="63"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="54"/>
       <c r="D40" s="9" t="s">
         <v>12</v>
       </c>
@@ -2787,8 +2787,8 @@
       </c>
     </row>
     <row r="41" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="55"/>
-      <c r="B41" s="67"/>
+      <c r="A41" s="63"/>
+      <c r="B41" s="71"/>
       <c r="C41" s="9" t="s">
         <v>13</v>
       </c>
@@ -2816,8 +2816,8 @@
       </c>
     </row>
     <row r="42" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="55"/>
-      <c r="B42" s="65" t="s">
+      <c r="A42" s="63"/>
+      <c r="B42" s="69" t="s">
         <v>125</v>
       </c>
       <c r="C42" s="9" t="s">
@@ -2849,9 +2849,9 @@
       </c>
     </row>
     <row r="43" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="55"/>
-      <c r="B43" s="66"/>
-      <c r="C43" s="58" t="s">
+      <c r="A43" s="63"/>
+      <c r="B43" s="70"/>
+      <c r="C43" s="53" t="s">
         <v>29</v>
       </c>
       <c r="D43" s="9" t="s">
@@ -2880,9 +2880,9 @@
       </c>
     </row>
     <row r="44" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="55"/>
-      <c r="B44" s="66"/>
-      <c r="C44" s="59"/>
+      <c r="A44" s="63"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="54"/>
       <c r="D44" s="9" t="s">
         <v>12</v>
       </c>
@@ -2909,8 +2909,8 @@
       </c>
     </row>
     <row r="45" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="55"/>
-      <c r="B45" s="66"/>
+      <c r="A45" s="63"/>
+      <c r="B45" s="70"/>
       <c r="C45" s="9" t="s">
         <v>13</v>
       </c>
@@ -2938,8 +2938,8 @@
       </c>
     </row>
     <row r="46" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="55"/>
-      <c r="B46" s="66"/>
+      <c r="A46" s="63"/>
+      <c r="B46" s="70"/>
       <c r="C46" s="16" t="s">
         <v>22</v>
       </c>
@@ -2967,8 +2967,8 @@
       </c>
     </row>
     <row r="47" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="55"/>
-      <c r="B47" s="67"/>
+      <c r="A47" s="63"/>
+      <c r="B47" s="71"/>
       <c r="C47" s="16" t="s">
         <v>23</v>
       </c>
@@ -2996,8 +2996,8 @@
       </c>
     </row>
     <row r="48" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="55"/>
-      <c r="B48" s="65" t="s">
+      <c r="A48" s="63"/>
+      <c r="B48" s="69" t="s">
         <v>122</v>
       </c>
       <c r="C48" s="16" t="s">
@@ -3029,8 +3029,8 @@
       </c>
     </row>
     <row r="49" spans="1:14" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="55"/>
-      <c r="B49" s="66"/>
+      <c r="A49" s="63"/>
+      <c r="B49" s="70"/>
       <c r="C49" s="17"/>
       <c r="D49" s="9" t="s">
         <v>6</v>
@@ -3060,8 +3060,8 @@
       </c>
     </row>
     <row r="50" spans="1:14" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="55"/>
-      <c r="B50" s="66"/>
+      <c r="A50" s="63"/>
+      <c r="B50" s="70"/>
       <c r="C50" s="16" t="s">
         <v>16</v>
       </c>
@@ -3091,8 +3091,8 @@
       </c>
     </row>
     <row r="51" spans="1:14" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="55"/>
-      <c r="B51" s="67"/>
+      <c r="A51" s="63"/>
+      <c r="B51" s="71"/>
       <c r="C51" s="17"/>
       <c r="D51" s="9" t="s">
         <v>6</v>
@@ -3120,8 +3120,8 @@
       </c>
     </row>
     <row r="52" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A52" s="55"/>
-      <c r="B52" s="65" t="s">
+      <c r="A52" s="63"/>
+      <c r="B52" s="69" t="s">
         <v>128</v>
       </c>
       <c r="C52" s="9" t="s">
@@ -3153,9 +3153,9 @@
       </c>
     </row>
     <row r="53" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A53" s="55"/>
-      <c r="B53" s="66"/>
-      <c r="C53" s="58" t="s">
+      <c r="A53" s="63"/>
+      <c r="B53" s="70"/>
+      <c r="C53" s="53" t="s">
         <v>29</v>
       </c>
       <c r="D53" s="9" t="s">
@@ -3184,9 +3184,9 @@
       </c>
     </row>
     <row r="54" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A54" s="55"/>
-      <c r="B54" s="66"/>
-      <c r="C54" s="59"/>
+      <c r="A54" s="63"/>
+      <c r="B54" s="70"/>
+      <c r="C54" s="54"/>
       <c r="D54" s="9" t="s">
         <v>12</v>
       </c>
@@ -3213,8 +3213,8 @@
       </c>
     </row>
     <row r="55" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A55" s="55"/>
-      <c r="B55" s="67"/>
+      <c r="A55" s="63"/>
+      <c r="B55" s="71"/>
       <c r="C55" s="9" t="s">
         <v>13</v>
       </c>
@@ -3255,7 +3255,7 @@
       </c>
     </row>
     <row r="57" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="56" t="s">
+      <c r="A57" s="66" t="s">
         <v>76</v>
       </c>
       <c r="B57" s="18" t="s">
@@ -3280,7 +3280,7 @@
       <c r="M57" s="9"/>
     </row>
     <row r="58" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="57"/>
+      <c r="A58" s="67"/>
       <c r="B58" s="18" t="s">
         <v>17</v>
       </c>
@@ -3301,7 +3301,7 @@
       <c r="M58" s="9"/>
     </row>
     <row r="59" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="57"/>
+      <c r="A59" s="67"/>
       <c r="B59" s="18" t="s">
         <v>18</v>
       </c>
@@ -3322,11 +3322,11 @@
       <c r="M59" s="9"/>
     </row>
     <row r="60" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="57"/>
-      <c r="B60" s="68" t="s">
+      <c r="A60" s="67"/>
+      <c r="B60" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="C60" s="60" t="s">
+      <c r="C60" s="56" t="s">
         <v>40</v>
       </c>
       <c r="D60" s="9" t="s">
@@ -3355,13 +3355,13 @@
       <c r="M60" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="N60" s="71"/>
+      <c r="N60" s="52"/>
     </row>
     <row r="61" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="57"/>
-      <c r="B61" s="69"/>
-      <c r="C61" s="60"/>
-      <c r="D61" s="58" t="s">
+      <c r="A61" s="67"/>
+      <c r="B61" s="65"/>
+      <c r="C61" s="56"/>
+      <c r="D61" s="53" t="s">
         <v>89</v>
       </c>
       <c r="E61" s="9" t="s">
@@ -3379,13 +3379,13 @@
       </c>
       <c r="L61" s="10"/>
       <c r="M61" s="49"/>
-      <c r="N61" s="71"/>
+      <c r="N61" s="52"/>
     </row>
     <row r="62" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="57"/>
-      <c r="B62" s="69"/>
-      <c r="C62" s="60"/>
-      <c r="D62" s="59"/>
+      <c r="A62" s="67"/>
+      <c r="B62" s="65"/>
+      <c r="C62" s="56"/>
+      <c r="D62" s="54"/>
       <c r="E62" s="9" t="s">
         <v>87</v>
       </c>
@@ -3401,12 +3401,12 @@
       </c>
       <c r="L62" s="10"/>
       <c r="M62" s="49"/>
-      <c r="N62" s="71"/>
+      <c r="N62" s="52"/>
     </row>
     <row r="63" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="57"/>
-      <c r="B63" s="69"/>
-      <c r="C63" s="58" t="s">
+      <c r="A63" s="67"/>
+      <c r="B63" s="65"/>
+      <c r="C63" s="53" t="s">
         <v>83</v>
       </c>
       <c r="D63" s="9" t="s">
@@ -3435,12 +3435,12 @@
       <c r="M63" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="N63" s="71"/>
+      <c r="N63" s="52"/>
     </row>
     <row r="64" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="57"/>
-      <c r="B64" s="69"/>
-      <c r="C64" s="59"/>
+      <c r="A64" s="67"/>
+      <c r="B64" s="65"/>
+      <c r="C64" s="54"/>
       <c r="D64" s="9" t="s">
         <v>81</v>
       </c>
@@ -3467,11 +3467,11 @@
       <c r="M64" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="N64" s="71"/>
+      <c r="N64" s="52"/>
     </row>
     <row r="65" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="57"/>
-      <c r="B65" s="69"/>
+      <c r="A65" s="67"/>
+      <c r="B65" s="65"/>
       <c r="C65" s="17" t="s">
         <v>82</v>
       </c>
@@ -3499,9 +3499,9 @@
       </c>
     </row>
     <row r="66" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A66" s="57"/>
-      <c r="B66" s="69"/>
-      <c r="C66" s="60" t="s">
+      <c r="A66" s="67"/>
+      <c r="B66" s="65"/>
+      <c r="C66" s="56" t="s">
         <v>45</v>
       </c>
       <c r="D66" s="9" t="s">
@@ -3510,28 +3510,30 @@
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
       <c r="G66" s="18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H66" s="45">
         <v>42982</v>
       </c>
-      <c r="I66" s="9"/>
+      <c r="I66" s="45">
+        <v>42983</v>
+      </c>
       <c r="J66" s="33"/>
       <c r="K66" s="35">
         <v>1</v>
       </c>
       <c r="L66" s="10">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="M66" s="49" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A67" s="57"/>
-      <c r="B67" s="69"/>
-      <c r="C67" s="60"/>
-      <c r="D67" s="60" t="s">
+      <c r="A67" s="67"/>
+      <c r="B67" s="65"/>
+      <c r="C67" s="56"/>
+      <c r="D67" s="56" t="s">
         <v>90</v>
       </c>
       <c r="E67" s="9" t="s">
@@ -3551,10 +3553,10 @@
       <c r="M67" s="49"/>
     </row>
     <row r="68" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A68" s="57"/>
-      <c r="B68" s="69"/>
-      <c r="C68" s="60"/>
-      <c r="D68" s="60"/>
+      <c r="A68" s="67"/>
+      <c r="B68" s="65"/>
+      <c r="C68" s="56"/>
+      <c r="D68" s="56"/>
       <c r="E68" s="9" t="s">
         <v>70</v>
       </c>
@@ -3572,9 +3574,9 @@
       <c r="M68" s="49"/>
     </row>
     <row r="69" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A69" s="57"/>
-      <c r="B69" s="69"/>
-      <c r="C69" s="58" t="s">
+      <c r="A69" s="67"/>
+      <c r="B69" s="65"/>
+      <c r="C69" s="53" t="s">
         <v>36</v>
       </c>
       <c r="D69" s="9" t="s">
@@ -3597,9 +3599,9 @@
       </c>
     </row>
     <row r="70" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A70" s="57"/>
-      <c r="B70" s="69"/>
-      <c r="C70" s="63"/>
+      <c r="A70" s="67"/>
+      <c r="B70" s="65"/>
+      <c r="C70" s="57"/>
       <c r="D70" s="9" t="s">
         <v>38</v>
       </c>
@@ -3620,9 +3622,9 @@
       </c>
     </row>
     <row r="71" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A71" s="57"/>
-      <c r="B71" s="69"/>
-      <c r="C71" s="59"/>
+      <c r="A71" s="67"/>
+      <c r="B71" s="65"/>
+      <c r="C71" s="54"/>
       <c r="D71" s="9" t="s">
         <v>39</v>
       </c>
@@ -3643,8 +3645,8 @@
       <c r="M71" s="49"/>
     </row>
     <row r="72" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A72" s="57"/>
-      <c r="B72" s="69"/>
+      <c r="A72" s="67"/>
+      <c r="B72" s="65"/>
       <c r="C72" s="9" t="s">
         <v>49</v>
       </c>
@@ -3670,8 +3672,8 @@
       </c>
     </row>
     <row r="73" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A73" s="57"/>
-      <c r="B73" s="69"/>
+      <c r="A73" s="67"/>
+      <c r="B73" s="65"/>
       <c r="C73" s="9" t="s">
         <v>50</v>
       </c>
@@ -3693,9 +3695,9 @@
       </c>
     </row>
     <row r="74" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A74" s="57"/>
-      <c r="B74" s="69"/>
-      <c r="C74" s="58" t="s">
+      <c r="A74" s="67"/>
+      <c r="B74" s="65"/>
+      <c r="C74" s="53" t="s">
         <v>57</v>
       </c>
       <c r="D74" s="30" t="s">
@@ -3718,9 +3720,9 @@
       </c>
     </row>
     <row r="75" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A75" s="57"/>
-      <c r="B75" s="69"/>
-      <c r="C75" s="59"/>
+      <c r="A75" s="67"/>
+      <c r="B75" s="65"/>
+      <c r="C75" s="54"/>
       <c r="D75" s="9" t="s">
         <v>96</v>
       </c>
@@ -3743,9 +3745,9 @@
       </c>
     </row>
     <row r="76" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A76" s="57"/>
-      <c r="B76" s="69"/>
-      <c r="C76" s="72" t="s">
+      <c r="A76" s="67"/>
+      <c r="B76" s="65"/>
+      <c r="C76" s="58" t="s">
         <v>51</v>
       </c>
       <c r="D76" s="19" t="s">
@@ -3766,9 +3768,9 @@
       <c r="M76" s="43"/>
     </row>
     <row r="77" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A77" s="57"/>
-      <c r="B77" s="69"/>
-      <c r="C77" s="73"/>
+      <c r="A77" s="67"/>
+      <c r="B77" s="65"/>
+      <c r="C77" s="59"/>
       <c r="D77" s="19" t="s">
         <v>53</v>
       </c>
@@ -3787,9 +3789,9 @@
       <c r="M77" s="43"/>
     </row>
     <row r="78" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A78" s="57"/>
-      <c r="B78" s="69"/>
-      <c r="C78" s="73"/>
+      <c r="A78" s="67"/>
+      <c r="B78" s="65"/>
+      <c r="C78" s="59"/>
       <c r="D78" s="19" t="s">
         <v>54</v>
       </c>
@@ -3808,9 +3810,9 @@
       <c r="M78" s="43"/>
     </row>
     <row r="79" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A79" s="57"/>
-      <c r="B79" s="69"/>
-      <c r="C79" s="73"/>
+      <c r="A79" s="67"/>
+      <c r="B79" s="65"/>
+      <c r="C79" s="59"/>
       <c r="D79" s="19" t="s">
         <v>55</v>
       </c>
@@ -3829,9 +3831,9 @@
       <c r="M79" s="43"/>
     </row>
     <row r="80" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A80" s="57"/>
-      <c r="B80" s="69"/>
-      <c r="C80" s="74"/>
+      <c r="A80" s="67"/>
+      <c r="B80" s="65"/>
+      <c r="C80" s="60"/>
       <c r="D80" s="19" t="s">
         <v>56</v>
       </c>
@@ -3850,11 +3852,11 @@
       <c r="M80" s="43"/>
     </row>
     <row r="81" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A81" s="57"/>
-      <c r="B81" s="53" t="s">
+      <c r="A81" s="67"/>
+      <c r="B81" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="C81" s="75" t="s">
+      <c r="C81" s="61" t="s">
         <v>74</v>
       </c>
       <c r="D81" s="15" t="s">
@@ -3875,9 +3877,9 @@
       <c r="M81" s="43"/>
     </row>
     <row r="82" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A82" s="57"/>
-      <c r="B82" s="54"/>
-      <c r="C82" s="76"/>
+      <c r="A82" s="67"/>
+      <c r="B82" s="74"/>
+      <c r="C82" s="62"/>
       <c r="D82" s="15" t="s">
         <v>59</v>
       </c>
@@ -3896,9 +3898,9 @@
       <c r="M82" s="43"/>
     </row>
     <row r="83" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A83" s="57"/>
-      <c r="B83" s="54"/>
-      <c r="C83" s="76"/>
+      <c r="A83" s="67"/>
+      <c r="B83" s="74"/>
+      <c r="C83" s="62"/>
       <c r="D83" s="15" t="s">
         <v>55</v>
       </c>
@@ -3915,9 +3917,9 @@
       <c r="M83" s="43"/>
     </row>
     <row r="84" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A84" s="57"/>
-      <c r="B84" s="54"/>
-      <c r="C84" s="76"/>
+      <c r="A84" s="67"/>
+      <c r="B84" s="74"/>
+      <c r="C84" s="62"/>
       <c r="D84" s="15" t="s">
         <v>60</v>
       </c>
@@ -3934,12 +3936,12 @@
       <c r="M84" s="43"/>
     </row>
     <row r="85" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A85" s="57"/>
-      <c r="B85" s="54"/>
-      <c r="C85" s="64" t="s">
+      <c r="A85" s="67"/>
+      <c r="B85" s="74"/>
+      <c r="C85" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="D85" s="58" t="s">
+      <c r="D85" s="53" t="s">
         <v>61</v>
       </c>
       <c r="E85" s="9" t="s">
@@ -3969,11 +3971,11 @@
       </c>
     </row>
     <row r="86" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A86" s="57"/>
-      <c r="B86" s="54"/>
-      <c r="C86" s="64"/>
-      <c r="D86" s="63"/>
-      <c r="E86" s="58" t="s">
+      <c r="A86" s="67"/>
+      <c r="B86" s="74"/>
+      <c r="C86" s="55"/>
+      <c r="D86" s="57"/>
+      <c r="E86" s="53" t="s">
         <v>29</v>
       </c>
       <c r="F86" s="9" t="s">
@@ -4000,11 +4002,11 @@
       </c>
     </row>
     <row r="87" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A87" s="57"/>
-      <c r="B87" s="54"/>
-      <c r="C87" s="64"/>
-      <c r="D87" s="63"/>
-      <c r="E87" s="59"/>
+      <c r="A87" s="67"/>
+      <c r="B87" s="74"/>
+      <c r="C87" s="55"/>
+      <c r="D87" s="57"/>
+      <c r="E87" s="54"/>
       <c r="F87" s="9" t="s">
         <v>12</v>
       </c>
@@ -4029,10 +4031,10 @@
       </c>
     </row>
     <row r="88" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A88" s="57"/>
-      <c r="B88" s="54"/>
-      <c r="C88" s="64"/>
-      <c r="D88" s="63"/>
+      <c r="A88" s="67"/>
+      <c r="B88" s="74"/>
+      <c r="C88" s="55"/>
+      <c r="D88" s="57"/>
       <c r="E88" s="9" t="s">
         <v>13</v>
       </c>
@@ -4058,10 +4060,10 @@
       </c>
     </row>
     <row r="89" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A89" s="57"/>
-      <c r="B89" s="54"/>
-      <c r="C89" s="64"/>
-      <c r="D89" s="63"/>
+      <c r="A89" s="67"/>
+      <c r="B89" s="74"/>
+      <c r="C89" s="55"/>
+      <c r="D89" s="57"/>
       <c r="E89" s="9" t="s">
         <v>130</v>
       </c>
@@ -4087,10 +4089,10 @@
       </c>
     </row>
     <row r="90" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A90" s="57"/>
-      <c r="B90" s="54"/>
-      <c r="C90" s="64"/>
-      <c r="D90" s="63"/>
+      <c r="A90" s="67"/>
+      <c r="B90" s="74"/>
+      <c r="C90" s="55"/>
+      <c r="D90" s="57"/>
       <c r="E90" s="9" t="s">
         <v>131</v>
       </c>
@@ -4110,10 +4112,10 @@
       <c r="M90" s="49"/>
     </row>
     <row r="91" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A91" s="57"/>
-      <c r="B91" s="54"/>
-      <c r="C91" s="64"/>
-      <c r="D91" s="63"/>
+      <c r="A91" s="67"/>
+      <c r="B91" s="74"/>
+      <c r="C91" s="55"/>
+      <c r="D91" s="57"/>
       <c r="E91" s="16" t="s">
         <v>132</v>
       </c>
@@ -4133,11 +4135,11 @@
       </c>
     </row>
     <row r="92" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A92" s="57"/>
-      <c r="B92" s="54"/>
-      <c r="C92" s="64"/>
-      <c r="D92" s="63"/>
-      <c r="E92" s="58" t="s">
+      <c r="A92" s="67"/>
+      <c r="B92" s="74"/>
+      <c r="C92" s="55"/>
+      <c r="D92" s="57"/>
+      <c r="E92" s="53" t="s">
         <v>133</v>
       </c>
       <c r="F92" s="9" t="s">
@@ -4164,11 +4166,11 @@
       </c>
     </row>
     <row r="93" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A93" s="57"/>
-      <c r="B93" s="54"/>
-      <c r="C93" s="64"/>
-      <c r="D93" s="63"/>
-      <c r="E93" s="63"/>
+      <c r="A93" s="67"/>
+      <c r="B93" s="74"/>
+      <c r="C93" s="55"/>
+      <c r="D93" s="57"/>
+      <c r="E93" s="57"/>
       <c r="F93" s="9" t="s">
         <v>135</v>
       </c>
@@ -4193,11 +4195,11 @@
       </c>
     </row>
     <row r="94" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A94" s="57"/>
-      <c r="B94" s="54"/>
-      <c r="C94" s="64"/>
-      <c r="D94" s="63"/>
-      <c r="E94" s="59"/>
+      <c r="A94" s="67"/>
+      <c r="B94" s="74"/>
+      <c r="C94" s="55"/>
+      <c r="D94" s="57"/>
+      <c r="E94" s="54"/>
       <c r="F94" s="9" t="s">
         <v>136</v>
       </c>
@@ -4222,10 +4224,10 @@
       </c>
     </row>
     <row r="95" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A95" s="57"/>
-      <c r="B95" s="54"/>
-      <c r="C95" s="64"/>
-      <c r="D95" s="60" t="s">
+      <c r="A95" s="67"/>
+      <c r="B95" s="74"/>
+      <c r="C95" s="55"/>
+      <c r="D95" s="56" t="s">
         <v>102</v>
       </c>
       <c r="E95" s="9" t="s">
@@ -4245,10 +4247,10 @@
       <c r="M95" s="49"/>
     </row>
     <row r="96" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A96" s="57"/>
-      <c r="B96" s="54"/>
-      <c r="C96" s="64"/>
-      <c r="D96" s="60"/>
+      <c r="A96" s="67"/>
+      <c r="B96" s="74"/>
+      <c r="C96" s="55"/>
+      <c r="D96" s="56"/>
       <c r="E96" s="9" t="s">
         <v>48</v>
       </c>
@@ -4268,10 +4270,10 @@
       <c r="M96" s="49"/>
     </row>
     <row r="97" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A97" s="57"/>
-      <c r="B97" s="54"/>
-      <c r="C97" s="64"/>
-      <c r="D97" s="58" t="s">
+      <c r="A97" s="67"/>
+      <c r="B97" s="74"/>
+      <c r="C97" s="55"/>
+      <c r="D97" s="53" t="s">
         <v>114</v>
       </c>
       <c r="E97" s="9" t="s">
@@ -4301,11 +4303,11 @@
       </c>
     </row>
     <row r="98" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A98" s="57"/>
-      <c r="B98" s="54"/>
-      <c r="C98" s="64"/>
-      <c r="D98" s="63"/>
-      <c r="E98" s="58" t="s">
+      <c r="A98" s="67"/>
+      <c r="B98" s="74"/>
+      <c r="C98" s="55"/>
+      <c r="D98" s="57"/>
+      <c r="E98" s="53" t="s">
         <v>29</v>
       </c>
       <c r="F98" s="9" t="s">
@@ -4332,11 +4334,11 @@
       </c>
     </row>
     <row r="99" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A99" s="57"/>
-      <c r="B99" s="54"/>
-      <c r="C99" s="64"/>
-      <c r="D99" s="63"/>
-      <c r="E99" s="59"/>
+      <c r="A99" s="67"/>
+      <c r="B99" s="74"/>
+      <c r="C99" s="55"/>
+      <c r="D99" s="57"/>
+      <c r="E99" s="54"/>
       <c r="F99" s="9" t="s">
         <v>12</v>
       </c>
@@ -4361,10 +4363,10 @@
       </c>
     </row>
     <row r="100" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A100" s="57"/>
-      <c r="B100" s="54"/>
-      <c r="C100" s="64"/>
-      <c r="D100" s="59"/>
+      <c r="A100" s="67"/>
+      <c r="B100" s="74"/>
+      <c r="C100" s="55"/>
+      <c r="D100" s="54"/>
       <c r="E100" s="9" t="s">
         <v>13</v>
       </c>
@@ -4395,13 +4397,13 @@
       </c>
       <c r="G101" s="41">
         <f>SUM(G57:G100)</f>
-        <v>25.5</v>
+        <v>26</v>
       </c>
       <c r="J101" s="33"/>
       <c r="K101" s="35"/>
     </row>
     <row r="102" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A102" s="55" t="s">
+      <c r="A102" s="63" t="s">
         <v>69</v>
       </c>
       <c r="B102" s="18" t="s">
@@ -4426,7 +4428,7 @@
       </c>
     </row>
     <row r="103" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A103" s="55"/>
+      <c r="A103" s="63"/>
       <c r="B103" s="18" t="s">
         <v>17</v>
       </c>
@@ -4449,7 +4451,7 @@
       </c>
     </row>
     <row r="104" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A104" s="55"/>
+      <c r="A104" s="63"/>
       <c r="B104" s="18" t="s">
         <v>18</v>
       </c>
@@ -4472,11 +4474,11 @@
       </c>
     </row>
     <row r="105" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="55"/>
-      <c r="B105" s="53" t="s">
+      <c r="A105" s="63"/>
+      <c r="B105" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="C105" s="58" t="s">
+      <c r="C105" s="53" t="s">
         <v>33</v>
       </c>
       <c r="D105" s="9" t="s">
@@ -4503,9 +4505,9 @@
       </c>
     </row>
     <row r="106" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A106" s="55"/>
-      <c r="B106" s="54"/>
-      <c r="C106" s="63"/>
+      <c r="A106" s="63"/>
+      <c r="B106" s="74"/>
+      <c r="C106" s="57"/>
       <c r="D106" s="50" t="s">
         <v>41</v>
       </c>
@@ -4528,10 +4530,10 @@
       </c>
     </row>
     <row r="107" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A107" s="55"/>
-      <c r="B107" s="54"/>
-      <c r="C107" s="59"/>
-      <c r="D107" s="52"/>
+      <c r="A107" s="63"/>
+      <c r="B107" s="74"/>
+      <c r="C107" s="54"/>
+      <c r="D107" s="51"/>
       <c r="E107" s="9" t="s">
         <v>43</v>
       </c>
@@ -4551,9 +4553,9 @@
       </c>
     </row>
     <row r="108" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A108" s="55"/>
-      <c r="B108" s="54"/>
-      <c r="C108" s="58" t="s">
+      <c r="A108" s="63"/>
+      <c r="B108" s="74"/>
+      <c r="C108" s="53" t="s">
         <v>45</v>
       </c>
       <c r="D108" s="9" t="s">
@@ -4578,9 +4580,9 @@
       </c>
     </row>
     <row r="109" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A109" s="55"/>
-      <c r="B109" s="54"/>
-      <c r="C109" s="63"/>
+      <c r="A109" s="63"/>
+      <c r="B109" s="74"/>
+      <c r="C109" s="57"/>
       <c r="D109" s="50" t="s">
         <v>41</v>
       </c>
@@ -4603,10 +4605,10 @@
       </c>
     </row>
     <row r="110" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A110" s="55"/>
-      <c r="B110" s="54"/>
-      <c r="C110" s="63"/>
-      <c r="D110" s="51"/>
+      <c r="A110" s="63"/>
+      <c r="B110" s="74"/>
+      <c r="C110" s="57"/>
+      <c r="D110" s="72"/>
       <c r="E110" s="9" t="s">
         <v>43</v>
       </c>
@@ -4626,10 +4628,10 @@
       </c>
     </row>
     <row r="111" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A111" s="55"/>
-      <c r="B111" s="54"/>
-      <c r="C111" s="59"/>
-      <c r="D111" s="52"/>
+      <c r="A111" s="63"/>
+      <c r="B111" s="74"/>
+      <c r="C111" s="54"/>
+      <c r="D111" s="51"/>
       <c r="E111" s="9" t="s">
         <v>47</v>
       </c>
@@ -4649,9 +4651,9 @@
       </c>
     </row>
     <row r="112" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A112" s="55"/>
-      <c r="B112" s="54"/>
-      <c r="C112" s="64" t="s">
+      <c r="A112" s="63"/>
+      <c r="B112" s="74"/>
+      <c r="C112" s="55" t="s">
         <v>71</v>
       </c>
       <c r="D112" s="9" t="s">
@@ -4676,9 +4678,9 @@
       </c>
     </row>
     <row r="113" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A113" s="55"/>
-      <c r="B113" s="54"/>
-      <c r="C113" s="60"/>
+      <c r="A113" s="63"/>
+      <c r="B113" s="74"/>
+      <c r="C113" s="56"/>
       <c r="D113" s="9" t="s">
         <v>63</v>
       </c>
@@ -4701,8 +4703,8 @@
       </c>
     </row>
     <row r="114" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A114" s="55"/>
-      <c r="B114" s="54"/>
+      <c r="A114" s="63"/>
+      <c r="B114" s="74"/>
       <c r="C114" s="9" t="s">
         <v>92</v>
       </c>
@@ -4726,11 +4728,11 @@
       </c>
     </row>
     <row r="115" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A115" s="55"/>
-      <c r="B115" s="53" t="s">
+      <c r="A115" s="63"/>
+      <c r="B115" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="C115" s="58" t="s">
+      <c r="C115" s="53" t="s">
         <v>64</v>
       </c>
       <c r="D115" s="21" t="s">
@@ -4757,10 +4759,10 @@
       </c>
     </row>
     <row r="116" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A116" s="55"/>
-      <c r="B116" s="53"/>
-      <c r="C116" s="63"/>
-      <c r="D116" s="61" t="s">
+      <c r="A116" s="63"/>
+      <c r="B116" s="73"/>
+      <c r="C116" s="57"/>
+      <c r="D116" s="75" t="s">
         <v>29</v>
       </c>
       <c r="E116" s="9" t="s">
@@ -4784,10 +4786,10 @@
       </c>
     </row>
     <row r="117" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A117" s="55"/>
-      <c r="B117" s="53"/>
-      <c r="C117" s="63"/>
-      <c r="D117" s="62"/>
+      <c r="A117" s="63"/>
+      <c r="B117" s="73"/>
+      <c r="C117" s="57"/>
+      <c r="D117" s="76"/>
       <c r="E117" s="9" t="s">
         <v>12</v>
       </c>
@@ -4809,9 +4811,9 @@
       </c>
     </row>
     <row r="118" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A118" s="55"/>
-      <c r="B118" s="53"/>
-      <c r="C118" s="63"/>
+      <c r="A118" s="63"/>
+      <c r="B118" s="73"/>
+      <c r="C118" s="57"/>
       <c r="D118" s="21" t="s">
         <v>13</v>
       </c>
@@ -4834,9 +4836,9 @@
       </c>
     </row>
     <row r="119" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A119" s="55"/>
-      <c r="B119" s="53"/>
-      <c r="C119" s="63"/>
+      <c r="A119" s="63"/>
+      <c r="B119" s="73"/>
+      <c r="C119" s="57"/>
       <c r="D119" s="21" t="s">
         <v>25</v>
       </c>
@@ -4859,9 +4861,9 @@
       </c>
     </row>
     <row r="120" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A120" s="55"/>
-      <c r="B120" s="53"/>
-      <c r="C120" s="63"/>
+      <c r="A120" s="63"/>
+      <c r="B120" s="73"/>
+      <c r="C120" s="57"/>
       <c r="D120" s="21" t="s">
         <v>24</v>
       </c>
@@ -4884,9 +4886,9 @@
       </c>
     </row>
     <row r="121" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A121" s="55"/>
-      <c r="B121" s="53"/>
-      <c r="C121" s="59"/>
+      <c r="A121" s="63"/>
+      <c r="B121" s="73"/>
+      <c r="C121" s="54"/>
       <c r="D121" s="21" t="s">
         <v>26</v>
       </c>
@@ -4909,9 +4911,9 @@
       </c>
     </row>
     <row r="122" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A122" s="55"/>
-      <c r="B122" s="54"/>
-      <c r="C122" s="58" t="s">
+      <c r="A122" s="63"/>
+      <c r="B122" s="74"/>
+      <c r="C122" s="53" t="s">
         <v>99</v>
       </c>
       <c r="D122" s="21" t="s">
@@ -4938,10 +4940,10 @@
       </c>
     </row>
     <row r="123" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A123" s="55"/>
-      <c r="B123" s="54"/>
-      <c r="C123" s="63"/>
-      <c r="D123" s="61" t="s">
+      <c r="A123" s="63"/>
+      <c r="B123" s="74"/>
+      <c r="C123" s="57"/>
+      <c r="D123" s="75" t="s">
         <v>29</v>
       </c>
       <c r="E123" s="9" t="s">
@@ -4965,10 +4967,10 @@
       </c>
     </row>
     <row r="124" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A124" s="55"/>
-      <c r="B124" s="54"/>
-      <c r="C124" s="63"/>
-      <c r="D124" s="62"/>
+      <c r="A124" s="63"/>
+      <c r="B124" s="74"/>
+      <c r="C124" s="57"/>
+      <c r="D124" s="76"/>
       <c r="E124" s="9" t="s">
         <v>12</v>
       </c>
@@ -4990,9 +4992,9 @@
       </c>
     </row>
     <row r="125" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A125" s="55"/>
-      <c r="B125" s="54"/>
-      <c r="C125" s="59"/>
+      <c r="A125" s="63"/>
+      <c r="B125" s="74"/>
+      <c r="C125" s="54"/>
       <c r="D125" s="21" t="s">
         <v>13</v>
       </c>
@@ -5015,8 +5017,8 @@
       </c>
     </row>
     <row r="126" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A126" s="55"/>
-      <c r="B126" s="54"/>
+      <c r="A126" s="63"/>
+      <c r="B126" s="74"/>
       <c r="C126" s="37" t="s">
         <v>65</v>
       </c>
@@ -5036,8 +5038,8 @@
       <c r="M126" s="9"/>
     </row>
     <row r="127" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A127" s="55"/>
-      <c r="B127" s="54"/>
+      <c r="A127" s="63"/>
+      <c r="B127" s="74"/>
       <c r="C127" s="37" t="s">
         <v>66</v>
       </c>
@@ -5057,8 +5059,8 @@
       <c r="M127" s="9"/>
     </row>
     <row r="128" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A128" s="55"/>
-      <c r="B128" s="54"/>
+      <c r="A128" s="63"/>
+      <c r="B128" s="74"/>
       <c r="C128" s="37" t="s">
         <v>67</v>
       </c>
@@ -5078,8 +5080,8 @@
       <c r="M128" s="9"/>
     </row>
     <row r="129" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A129" s="55"/>
-      <c r="B129" s="54"/>
+      <c r="A129" s="63"/>
+      <c r="B129" s="74"/>
       <c r="C129" s="37" t="s">
         <v>68</v>
       </c>
@@ -5122,17 +5124,29 @@
     <protectedRange sqref="L102:L129 L2:L5 L8:L55 L57:L100" name="区域3"/>
   </protectedRanges>
   <mergeCells count="50">
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="N60:N64"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="C85:C100"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="D97:D100"/>
-    <mergeCell ref="D85:D94"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="C76:C80"/>
-    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="D109:D111"/>
+    <mergeCell ref="B115:B129"/>
+    <mergeCell ref="A102:A129"/>
+    <mergeCell ref="B105:B114"/>
+    <mergeCell ref="B81:B100"/>
+    <mergeCell ref="A57:A100"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="C115:C121"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="C108:C111"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="C39:C40"/>
     <mergeCell ref="A8:A55"/>
     <mergeCell ref="C69:C71"/>
     <mergeCell ref="B60:B80"/>
@@ -5149,29 +5163,17 @@
     <mergeCell ref="B25:B33"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="B19:B24"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B47"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D109:D111"/>
-    <mergeCell ref="B115:B129"/>
-    <mergeCell ref="A102:A129"/>
-    <mergeCell ref="B105:B114"/>
-    <mergeCell ref="B81:B100"/>
-    <mergeCell ref="A57:A100"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="C115:C121"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="C108:C111"/>
-    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="N60:N64"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="C85:C100"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="D97:D100"/>
+    <mergeCell ref="D85:D94"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="C76:C80"/>
+    <mergeCell ref="C81:C84"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="L2:L5 L102:L129 L48:L51 L43:L44 L25:L37 L8:L14 L66:L100">

--- a/doc/开发计划V0.1.xlsx
+++ b/doc/开发计划V0.1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="138">
   <si>
     <t>开始时间</t>
   </si>
@@ -551,6 +551,10 @@
   </si>
   <si>
     <t>实名认证日志?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录密码/交易密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1641,8 +1645,8 @@
   <dimension ref="A1:N132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I67" sqref="I67"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M75" sqref="M75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -3641,7 +3645,9 @@
       <c r="K71" s="35">
         <v>2</v>
       </c>
-      <c r="L71" s="10"/>
+      <c r="L71" s="10">
+        <v>0.5</v>
+      </c>
       <c r="M71" s="49"/>
     </row>
     <row r="72" spans="1:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
@@ -3650,22 +3656,26 @@
       <c r="C72" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D72" s="9"/>
+      <c r="D72" s="9" t="s">
+        <v>137</v>
+      </c>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
       <c r="G72" s="18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H72" s="45">
         <v>42982</v>
       </c>
-      <c r="I72" s="45"/>
+      <c r="I72" s="45">
+        <v>42984</v>
+      </c>
       <c r="J72" s="33"/>
       <c r="K72" s="35">
         <v>1</v>
       </c>
       <c r="L72" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M72" s="49" t="s">
         <v>32</v>
@@ -4397,7 +4407,7 @@
       </c>
       <c r="G101" s="41">
         <f>SUM(G57:G100)</f>
-        <v>26</v>
+        <v>26.5</v>
       </c>
       <c r="J101" s="33"/>
       <c r="K101" s="35"/>

--- a/doc/开发计划V0.1.xlsx
+++ b/doc/开发计划V0.1.xlsx
@@ -918,113 +918,113 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1632,8 +1632,8 @@
   <dimension ref="A1:N129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D65" sqref="D65"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1657,27 +1657,27 @@
     <row r="1" spans="1:13" ht="33" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="65" t="s">
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="66" t="s">
+      <c r="I1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="67" t="s">
+      <c r="K1" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
     </row>
     <row r="2" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6"/>
@@ -1693,8 +1693,8 @@
       <c r="I2" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="68"/>
-      <c r="K2" s="69">
+      <c r="J2" s="41"/>
+      <c r="K2" s="42">
         <v>1</v>
       </c>
       <c r="L2" s="7">
@@ -1703,7 +1703,7 @@
       <c r="M2" s="33"/>
     </row>
     <row r="3" spans="1:13" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="61" t="s">
         <v>70</v>
       </c>
       <c r="B3" s="35" t="s">
@@ -1716,15 +1716,15 @@
       <c r="G3" s="36"/>
       <c r="H3" s="9"/>
       <c r="I3" s="33"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="69">
+      <c r="J3" s="41"/>
+      <c r="K3" s="42">
         <v>1</v>
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="33"/>
     </row>
     <row r="4" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="44"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="35" t="s">
         <v>73</v>
       </c>
@@ -1735,15 +1735,15 @@
       <c r="G4" s="36"/>
       <c r="H4" s="9"/>
       <c r="I4" s="33"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="69">
+      <c r="J4" s="41"/>
+      <c r="K4" s="42">
         <v>1</v>
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="33"/>
     </row>
     <row r="5" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="44"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="35" t="s">
         <v>71</v>
       </c>
@@ -1754,8 +1754,8 @@
       <c r="G5" s="36"/>
       <c r="H5" s="9"/>
       <c r="I5" s="33"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="69">
+      <c r="J5" s="41"/>
+      <c r="K5" s="42">
         <v>1</v>
       </c>
       <c r="L5" s="7">
@@ -1764,7 +1764,7 @@
       <c r="M5" s="33"/>
     </row>
     <row r="6" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="44"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="35"/>
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
@@ -1773,15 +1773,15 @@
       <c r="G6" s="36"/>
       <c r="H6" s="9"/>
       <c r="I6" s="33"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="69">
+      <c r="J6" s="41"/>
+      <c r="K6" s="42">
         <v>1</v>
       </c>
       <c r="L6" s="33"/>
       <c r="M6" s="33"/>
     </row>
     <row r="7" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="57"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="35"/>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
@@ -1790,15 +1790,15 @@
       <c r="G7" s="36"/>
       <c r="H7" s="9"/>
       <c r="I7" s="33"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="69">
+      <c r="J7" s="41"/>
+      <c r="K7" s="42">
         <v>1</v>
       </c>
       <c r="L7" s="33"/>
       <c r="M7" s="33"/>
     </row>
     <row r="8" spans="1:13" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="58" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1812,15 +1812,15 @@
         <v>2</v>
       </c>
       <c r="I8" s="33"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="69">
+      <c r="J8" s="41"/>
+      <c r="K8" s="42">
         <v>1</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="33"/>
     </row>
     <row r="9" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="42"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="10" t="s">
         <v>17</v>
       </c>
@@ -1833,15 +1833,15 @@
       </c>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="69">
+      <c r="J9" s="41"/>
+      <c r="K9" s="42">
         <v>1</v>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="33"/>
     </row>
     <row r="10" spans="1:13" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="42"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="10" t="s">
         <v>18</v>
       </c>
@@ -1858,8 +1858,8 @@
       <c r="I10" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="68"/>
-      <c r="K10" s="69">
+      <c r="J10" s="41"/>
+      <c r="K10" s="42">
         <v>1</v>
       </c>
       <c r="L10" s="7">
@@ -1870,8 +1870,8 @@
       </c>
     </row>
     <row r="11" spans="1:13" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="42"/>
-      <c r="B11" s="52" t="s">
+      <c r="A11" s="58"/>
+      <c r="B11" s="64" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="33" t="s">
@@ -1893,8 +1893,8 @@
       <c r="I11" s="29">
         <v>42958</v>
       </c>
-      <c r="J11" s="68"/>
-      <c r="K11" s="69">
+      <c r="J11" s="41"/>
+      <c r="K11" s="42">
         <v>1</v>
       </c>
       <c r="L11" s="7">
@@ -1905,8 +1905,8 @@
       </c>
     </row>
     <row r="12" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="42"/>
-      <c r="B12" s="53"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="65"/>
       <c r="C12" s="33" t="s">
         <v>10</v>
       </c>
@@ -1924,8 +1924,8 @@
       <c r="I12" s="29">
         <v>42954</v>
       </c>
-      <c r="J12" s="68"/>
-      <c r="K12" s="69">
+      <c r="J12" s="41"/>
+      <c r="K12" s="42">
         <v>1</v>
       </c>
       <c r="L12" s="7">
@@ -1936,8 +1936,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="42"/>
-      <c r="B13" s="53"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="65"/>
       <c r="C13" s="33" t="s">
         <v>9</v>
       </c>
@@ -1953,8 +1953,8 @@
       <c r="I13" s="29">
         <v>42964</v>
       </c>
-      <c r="J13" s="68"/>
-      <c r="K13" s="69">
+      <c r="J13" s="41"/>
+      <c r="K13" s="42">
         <v>1</v>
       </c>
       <c r="L13" s="7">
@@ -1965,8 +1965,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="42"/>
-      <c r="B14" s="54"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="66"/>
       <c r="C14" s="33" t="s">
         <v>27</v>
       </c>
@@ -1984,8 +1984,8 @@
       <c r="I14" s="29">
         <v>42958</v>
       </c>
-      <c r="J14" s="68"/>
-      <c r="K14" s="69">
+      <c r="J14" s="41"/>
+      <c r="K14" s="42">
         <v>1</v>
       </c>
       <c r="L14" s="7">
@@ -1996,8 +1996,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="42"/>
-      <c r="B15" s="52" t="s">
+      <c r="A15" s="58"/>
+      <c r="B15" s="64" t="s">
         <v>100</v>
       </c>
       <c r="C15" s="33" t="s">
@@ -2017,8 +2017,8 @@
       <c r="I15" s="29">
         <v>42954</v>
       </c>
-      <c r="J15" s="68"/>
-      <c r="K15" s="69">
+      <c r="J15" s="41"/>
+      <c r="K15" s="42">
         <v>1</v>
       </c>
       <c r="L15" s="7">
@@ -2029,9 +2029,9 @@
       </c>
     </row>
     <row r="16" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="42"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="45" t="s">
+      <c r="A16" s="58"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="46" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="33" t="s">
@@ -2048,8 +2048,8 @@
       <c r="I16" s="29">
         <v>42954</v>
       </c>
-      <c r="J16" s="68"/>
-      <c r="K16" s="69">
+      <c r="J16" s="41"/>
+      <c r="K16" s="42">
         <v>1</v>
       </c>
       <c r="L16" s="7">
@@ -2060,9 +2060,9 @@
       </c>
     </row>
     <row r="17" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="42"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="46"/>
+      <c r="A17" s="58"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="48"/>
       <c r="D17" s="33" t="s">
         <v>12</v>
       </c>
@@ -2077,8 +2077,8 @@
       <c r="I17" s="29">
         <v>42954</v>
       </c>
-      <c r="J17" s="68"/>
-      <c r="K17" s="69">
+      <c r="J17" s="41"/>
+      <c r="K17" s="42">
         <v>1</v>
       </c>
       <c r="L17" s="7">
@@ -2089,8 +2089,8 @@
       </c>
     </row>
     <row r="18" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="42"/>
-      <c r="B18" s="54"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="66"/>
       <c r="C18" s="33" t="s">
         <v>13</v>
       </c>
@@ -2106,8 +2106,8 @@
       <c r="I18" s="29">
         <v>42954</v>
       </c>
-      <c r="J18" s="68"/>
-      <c r="K18" s="69">
+      <c r="J18" s="41"/>
+      <c r="K18" s="42">
         <v>1</v>
       </c>
       <c r="L18" s="7">
@@ -2118,8 +2118,8 @@
       </c>
     </row>
     <row r="19" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="42"/>
-      <c r="B19" s="52" t="s">
+      <c r="A19" s="58"/>
+      <c r="B19" s="64" t="s">
         <v>107</v>
       </c>
       <c r="C19" s="33" t="s">
@@ -2139,8 +2139,8 @@
       <c r="I19" s="29">
         <v>42955</v>
       </c>
-      <c r="J19" s="68"/>
-      <c r="K19" s="69">
+      <c r="J19" s="41"/>
+      <c r="K19" s="42">
         <v>1</v>
       </c>
       <c r="L19" s="7">
@@ -2151,9 +2151,9 @@
       </c>
     </row>
     <row r="20" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="42"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="45" t="s">
+      <c r="A20" s="58"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="46" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="33" t="s">
@@ -2170,8 +2170,8 @@
       <c r="I20" s="29">
         <v>42955</v>
       </c>
-      <c r="J20" s="68"/>
-      <c r="K20" s="69">
+      <c r="J20" s="41"/>
+      <c r="K20" s="42">
         <v>1</v>
       </c>
       <c r="L20" s="7">
@@ -2182,9 +2182,9 @@
       </c>
     </row>
     <row r="21" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="42"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="46"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="48"/>
       <c r="D21" s="33" t="s">
         <v>12</v>
       </c>
@@ -2199,8 +2199,8 @@
       <c r="I21" s="29">
         <v>42955</v>
       </c>
-      <c r="J21" s="68"/>
-      <c r="K21" s="69">
+      <c r="J21" s="41"/>
+      <c r="K21" s="42">
         <v>1</v>
       </c>
       <c r="L21" s="7">
@@ -2211,8 +2211,8 @@
       </c>
     </row>
     <row r="22" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="42"/>
-      <c r="B22" s="53"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="65"/>
       <c r="C22" s="33" t="s">
         <v>13</v>
       </c>
@@ -2228,8 +2228,8 @@
       <c r="I22" s="29">
         <v>42955</v>
       </c>
-      <c r="J22" s="68"/>
-      <c r="K22" s="69">
+      <c r="J22" s="41"/>
+      <c r="K22" s="42">
         <v>1</v>
       </c>
       <c r="L22" s="7">
@@ -2240,8 +2240,8 @@
       </c>
     </row>
     <row r="23" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="42"/>
-      <c r="B23" s="53"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="65"/>
       <c r="C23" s="33" t="s">
         <v>105</v>
       </c>
@@ -2257,8 +2257,8 @@
       <c r="I23" s="29">
         <v>42963</v>
       </c>
-      <c r="J23" s="68"/>
-      <c r="K23" s="69">
+      <c r="J23" s="41"/>
+      <c r="K23" s="42">
         <v>1</v>
       </c>
       <c r="L23" s="7">
@@ -2269,8 +2269,8 @@
       </c>
     </row>
     <row r="24" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="42"/>
-      <c r="B24" s="54"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="66"/>
       <c r="C24" s="33" t="s">
         <v>104</v>
       </c>
@@ -2286,8 +2286,8 @@
       <c r="I24" s="29">
         <v>42963</v>
       </c>
-      <c r="J24" s="68"/>
-      <c r="K24" s="69">
+      <c r="J24" s="41"/>
+      <c r="K24" s="42">
         <v>1</v>
       </c>
       <c r="L24" s="7">
@@ -2298,8 +2298,8 @@
       </c>
     </row>
     <row r="25" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="42"/>
-      <c r="B25" s="52" t="s">
+      <c r="A25" s="58"/>
+      <c r="B25" s="64" t="s">
         <v>108</v>
       </c>
       <c r="C25" s="33" t="s">
@@ -2319,8 +2319,8 @@
       <c r="I25" s="29">
         <v>42956</v>
       </c>
-      <c r="J25" s="68"/>
-      <c r="K25" s="69">
+      <c r="J25" s="41"/>
+      <c r="K25" s="42">
         <v>1</v>
       </c>
       <c r="L25" s="7">
@@ -2331,9 +2331,9 @@
       </c>
     </row>
     <row r="26" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="42"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="45" t="s">
+      <c r="A26" s="58"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="46" t="s">
         <v>29</v>
       </c>
       <c r="D26" s="33" t="s">
@@ -2350,8 +2350,8 @@
       <c r="I26" s="29">
         <v>42957</v>
       </c>
-      <c r="J26" s="68"/>
-      <c r="K26" s="69">
+      <c r="J26" s="41"/>
+      <c r="K26" s="42">
         <v>1</v>
       </c>
       <c r="L26" s="7">
@@ -2362,9 +2362,9 @@
       </c>
     </row>
     <row r="27" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="42"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="46"/>
+      <c r="A27" s="58"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="48"/>
       <c r="D27" s="33" t="s">
         <v>12</v>
       </c>
@@ -2379,8 +2379,8 @@
       <c r="I27" s="29">
         <v>42957</v>
       </c>
-      <c r="J27" s="68"/>
-      <c r="K27" s="69">
+      <c r="J27" s="41"/>
+      <c r="K27" s="42">
         <v>1</v>
       </c>
       <c r="L27" s="7">
@@ -2391,8 +2391,8 @@
       </c>
     </row>
     <row r="28" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="42"/>
-      <c r="B28" s="53"/>
+      <c r="A28" s="58"/>
+      <c r="B28" s="65"/>
       <c r="C28" s="33" t="s">
         <v>13</v>
       </c>
@@ -2408,8 +2408,8 @@
       <c r="I28" s="29">
         <v>42956</v>
       </c>
-      <c r="J28" s="68"/>
-      <c r="K28" s="69">
+      <c r="J28" s="41"/>
+      <c r="K28" s="42">
         <v>1</v>
       </c>
       <c r="L28" s="7">
@@ -2420,8 +2420,8 @@
       </c>
     </row>
     <row r="29" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="42"/>
-      <c r="B29" s="53"/>
+      <c r="A29" s="58"/>
+      <c r="B29" s="65"/>
       <c r="C29" s="33" t="s">
         <v>25</v>
       </c>
@@ -2437,8 +2437,8 @@
       <c r="I29" s="29">
         <v>42964</v>
       </c>
-      <c r="J29" s="68"/>
-      <c r="K29" s="69">
+      <c r="J29" s="41"/>
+      <c r="K29" s="42">
         <v>1</v>
       </c>
       <c r="L29" s="7">
@@ -2449,8 +2449,8 @@
       </c>
     </row>
     <row r="30" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="42"/>
-      <c r="B30" s="53"/>
+      <c r="A30" s="58"/>
+      <c r="B30" s="65"/>
       <c r="C30" s="33" t="s">
         <v>24</v>
       </c>
@@ -2466,8 +2466,8 @@
       <c r="I30" s="29">
         <v>42965</v>
       </c>
-      <c r="J30" s="68"/>
-      <c r="K30" s="69">
+      <c r="J30" s="41"/>
+      <c r="K30" s="42">
         <v>1</v>
       </c>
       <c r="L30" s="7">
@@ -2478,8 +2478,8 @@
       </c>
     </row>
     <row r="31" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="42"/>
-      <c r="B31" s="53"/>
+      <c r="A31" s="58"/>
+      <c r="B31" s="65"/>
       <c r="C31" s="33" t="s">
         <v>26</v>
       </c>
@@ -2495,8 +2495,8 @@
       <c r="I31" s="29">
         <v>42964</v>
       </c>
-      <c r="J31" s="68"/>
-      <c r="K31" s="69">
+      <c r="J31" s="41"/>
+      <c r="K31" s="42">
         <v>1</v>
       </c>
       <c r="L31" s="7">
@@ -2507,8 +2507,8 @@
       </c>
     </row>
     <row r="32" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="42"/>
-      <c r="B32" s="53"/>
+      <c r="A32" s="58"/>
+      <c r="B32" s="65"/>
       <c r="C32" s="33" t="s">
         <v>20</v>
       </c>
@@ -2524,8 +2524,8 @@
       <c r="I32" s="29">
         <v>42964</v>
       </c>
-      <c r="J32" s="68"/>
-      <c r="K32" s="69">
+      <c r="J32" s="41"/>
+      <c r="K32" s="42">
         <v>1</v>
       </c>
       <c r="L32" s="7">
@@ -2536,8 +2536,8 @@
       </c>
     </row>
     <row r="33" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="42"/>
-      <c r="B33" s="54"/>
+      <c r="A33" s="58"/>
+      <c r="B33" s="66"/>
       <c r="C33" s="33" t="s">
         <v>21</v>
       </c>
@@ -2553,8 +2553,8 @@
       <c r="I33" s="29">
         <v>42964</v>
       </c>
-      <c r="J33" s="68"/>
-      <c r="K33" s="69">
+      <c r="J33" s="41"/>
+      <c r="K33" s="42">
         <v>1</v>
       </c>
       <c r="L33" s="7">
@@ -2565,8 +2565,8 @@
       </c>
     </row>
     <row r="34" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="42"/>
-      <c r="B34" s="52" t="s">
+      <c r="A34" s="58"/>
+      <c r="B34" s="64" t="s">
         <v>101</v>
       </c>
       <c r="C34" s="33" t="s">
@@ -2586,8 +2586,8 @@
       <c r="I34" s="29">
         <v>42957</v>
       </c>
-      <c r="J34" s="68"/>
-      <c r="K34" s="69">
+      <c r="J34" s="41"/>
+      <c r="K34" s="42">
         <v>1</v>
       </c>
       <c r="L34" s="7">
@@ -2598,9 +2598,9 @@
       </c>
     </row>
     <row r="35" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="42"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="45" t="s">
+      <c r="A35" s="58"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="46" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="33" t="s">
@@ -2617,8 +2617,8 @@
       <c r="I35" s="29">
         <v>42962</v>
       </c>
-      <c r="J35" s="68"/>
-      <c r="K35" s="69">
+      <c r="J35" s="41"/>
+      <c r="K35" s="42">
         <v>1</v>
       </c>
       <c r="L35" s="7">
@@ -2629,9 +2629,9 @@
       </c>
     </row>
     <row r="36" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="42"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="46"/>
+      <c r="A36" s="58"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="48"/>
       <c r="D36" s="33" t="s">
         <v>12</v>
       </c>
@@ -2646,8 +2646,8 @@
       <c r="I36" s="29">
         <v>42962</v>
       </c>
-      <c r="J36" s="68"/>
-      <c r="K36" s="69">
+      <c r="J36" s="41"/>
+      <c r="K36" s="42">
         <v>1</v>
       </c>
       <c r="L36" s="7">
@@ -2658,8 +2658,8 @@
       </c>
     </row>
     <row r="37" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="42"/>
-      <c r="B37" s="54"/>
+      <c r="A37" s="58"/>
+      <c r="B37" s="66"/>
       <c r="C37" s="33" t="s">
         <v>13</v>
       </c>
@@ -2675,8 +2675,8 @@
       <c r="I37" s="29">
         <v>42957</v>
       </c>
-      <c r="J37" s="68"/>
-      <c r="K37" s="69">
+      <c r="J37" s="41"/>
+      <c r="K37" s="42">
         <v>1</v>
       </c>
       <c r="L37" s="7">
@@ -2687,8 +2687,8 @@
       </c>
     </row>
     <row r="38" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="42"/>
-      <c r="B38" s="52" t="s">
+      <c r="A38" s="58"/>
+      <c r="B38" s="64" t="s">
         <v>102</v>
       </c>
       <c r="C38" s="33" t="s">
@@ -2708,8 +2708,8 @@
       <c r="I38" s="29">
         <v>42958</v>
       </c>
-      <c r="J38" s="68"/>
-      <c r="K38" s="69">
+      <c r="J38" s="41"/>
+      <c r="K38" s="42">
         <v>1</v>
       </c>
       <c r="L38" s="7">
@@ -2720,9 +2720,9 @@
       </c>
     </row>
     <row r="39" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="42"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="45" t="s">
+      <c r="A39" s="58"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="46" t="s">
         <v>29</v>
       </c>
       <c r="D39" s="33" t="s">
@@ -2739,8 +2739,8 @@
       <c r="I39" s="29">
         <v>42962</v>
       </c>
-      <c r="J39" s="68"/>
-      <c r="K39" s="69">
+      <c r="J39" s="41"/>
+      <c r="K39" s="42">
         <v>1</v>
       </c>
       <c r="L39" s="7">
@@ -2751,9 +2751,9 @@
       </c>
     </row>
     <row r="40" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="42"/>
-      <c r="B40" s="53"/>
-      <c r="C40" s="46"/>
+      <c r="A40" s="58"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="48"/>
       <c r="D40" s="33" t="s">
         <v>12</v>
       </c>
@@ -2768,8 +2768,8 @@
       <c r="I40" s="29">
         <v>42962</v>
       </c>
-      <c r="J40" s="68"/>
-      <c r="K40" s="69">
+      <c r="J40" s="41"/>
+      <c r="K40" s="42">
         <v>1</v>
       </c>
       <c r="L40" s="7">
@@ -2780,8 +2780,8 @@
       </c>
     </row>
     <row r="41" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="42"/>
-      <c r="B41" s="54"/>
+      <c r="A41" s="58"/>
+      <c r="B41" s="66"/>
       <c r="C41" s="33" t="s">
         <v>13</v>
       </c>
@@ -2797,8 +2797,8 @@
       <c r="I41" s="29">
         <v>42958</v>
       </c>
-      <c r="J41" s="68"/>
-      <c r="K41" s="69">
+      <c r="J41" s="41"/>
+      <c r="K41" s="42">
         <v>1</v>
       </c>
       <c r="L41" s="7">
@@ -2809,8 +2809,8 @@
       </c>
     </row>
     <row r="42" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="42"/>
-      <c r="B42" s="52" t="s">
+      <c r="A42" s="58"/>
+      <c r="B42" s="64" t="s">
         <v>106</v>
       </c>
       <c r="C42" s="33" t="s">
@@ -2830,8 +2830,8 @@
       <c r="I42" s="29">
         <v>42958</v>
       </c>
-      <c r="J42" s="68"/>
-      <c r="K42" s="69">
+      <c r="J42" s="41"/>
+      <c r="K42" s="42">
         <v>1</v>
       </c>
       <c r="L42" s="7">
@@ -2842,9 +2842,9 @@
       </c>
     </row>
     <row r="43" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="42"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="45" t="s">
+      <c r="A43" s="58"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="46" t="s">
         <v>29</v>
       </c>
       <c r="D43" s="33" t="s">
@@ -2861,8 +2861,8 @@
       <c r="I43" s="29">
         <v>42958</v>
       </c>
-      <c r="J43" s="68"/>
-      <c r="K43" s="69">
+      <c r="J43" s="41"/>
+      <c r="K43" s="42">
         <v>1</v>
       </c>
       <c r="L43" s="7">
@@ -2873,9 +2873,9 @@
       </c>
     </row>
     <row r="44" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="42"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="46"/>
+      <c r="A44" s="58"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="48"/>
       <c r="D44" s="33" t="s">
         <v>12</v>
       </c>
@@ -2890,8 +2890,8 @@
       <c r="I44" s="29">
         <v>42958</v>
       </c>
-      <c r="J44" s="68"/>
-      <c r="K44" s="69">
+      <c r="J44" s="41"/>
+      <c r="K44" s="42">
         <v>1</v>
       </c>
       <c r="L44" s="7">
@@ -2902,8 +2902,8 @@
       </c>
     </row>
     <row r="45" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="42"/>
-      <c r="B45" s="53"/>
+      <c r="A45" s="58"/>
+      <c r="B45" s="65"/>
       <c r="C45" s="33" t="s">
         <v>13</v>
       </c>
@@ -2919,8 +2919,8 @@
       <c r="I45" s="29">
         <v>42958</v>
       </c>
-      <c r="J45" s="68"/>
-      <c r="K45" s="69">
+      <c r="J45" s="41"/>
+      <c r="K45" s="42">
         <v>1</v>
       </c>
       <c r="L45" s="7">
@@ -2931,8 +2931,8 @@
       </c>
     </row>
     <row r="46" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="42"/>
-      <c r="B46" s="53"/>
+      <c r="A46" s="58"/>
+      <c r="B46" s="65"/>
       <c r="C46" s="31" t="s">
         <v>22</v>
       </c>
@@ -2948,8 +2948,8 @@
       <c r="I46" s="29">
         <v>42962</v>
       </c>
-      <c r="J46" s="68"/>
-      <c r="K46" s="69">
+      <c r="J46" s="41"/>
+      <c r="K46" s="42">
         <v>1</v>
       </c>
       <c r="L46" s="7">
@@ -2960,8 +2960,8 @@
       </c>
     </row>
     <row r="47" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="42"/>
-      <c r="B47" s="54"/>
+      <c r="A47" s="58"/>
+      <c r="B47" s="66"/>
       <c r="C47" s="31" t="s">
         <v>23</v>
       </c>
@@ -2977,8 +2977,8 @@
       <c r="I47" s="29">
         <v>42962</v>
       </c>
-      <c r="J47" s="68"/>
-      <c r="K47" s="69">
+      <c r="J47" s="41"/>
+      <c r="K47" s="42">
         <v>1</v>
       </c>
       <c r="L47" s="7">
@@ -2989,8 +2989,8 @@
       </c>
     </row>
     <row r="48" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="42"/>
-      <c r="B48" s="52" t="s">
+      <c r="A48" s="58"/>
+      <c r="B48" s="64" t="s">
         <v>103</v>
       </c>
       <c r="C48" s="31" t="s">
@@ -3010,8 +3010,8 @@
       <c r="I48" s="29">
         <v>42958</v>
       </c>
-      <c r="J48" s="68"/>
-      <c r="K48" s="69">
+      <c r="J48" s="41"/>
+      <c r="K48" s="42">
         <v>1</v>
       </c>
       <c r="L48" s="7">
@@ -3022,8 +3022,8 @@
       </c>
     </row>
     <row r="49" spans="1:14" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="42"/>
-      <c r="B49" s="53"/>
+      <c r="A49" s="58"/>
+      <c r="B49" s="65"/>
       <c r="C49" s="32"/>
       <c r="D49" s="33" t="s">
         <v>6</v>
@@ -3041,8 +3041,8 @@
       <c r="I49" s="29">
         <v>42958</v>
       </c>
-      <c r="J49" s="68"/>
-      <c r="K49" s="69">
+      <c r="J49" s="41"/>
+      <c r="K49" s="42">
         <v>1</v>
       </c>
       <c r="L49" s="7">
@@ -3053,8 +3053,8 @@
       </c>
     </row>
     <row r="50" spans="1:14" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="42"/>
-      <c r="B50" s="53"/>
+      <c r="A50" s="58"/>
+      <c r="B50" s="65"/>
       <c r="C50" s="31" t="s">
         <v>16</v>
       </c>
@@ -3072,8 +3072,8 @@
       <c r="I50" s="29">
         <v>42958</v>
       </c>
-      <c r="J50" s="68"/>
-      <c r="K50" s="69">
+      <c r="J50" s="41"/>
+      <c r="K50" s="42">
         <v>1</v>
       </c>
       <c r="L50" s="7">
@@ -3084,8 +3084,8 @@
       </c>
     </row>
     <row r="51" spans="1:14" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="42"/>
-      <c r="B51" s="54"/>
+      <c r="A51" s="58"/>
+      <c r="B51" s="66"/>
       <c r="C51" s="32"/>
       <c r="D51" s="33" t="s">
         <v>6</v>
@@ -3101,8 +3101,8 @@
       <c r="I51" s="29">
         <v>42958</v>
       </c>
-      <c r="J51" s="68"/>
-      <c r="K51" s="69">
+      <c r="J51" s="41"/>
+      <c r="K51" s="42">
         <v>1</v>
       </c>
       <c r="L51" s="7">
@@ -3113,8 +3113,8 @@
       </c>
     </row>
     <row r="52" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="42"/>
-      <c r="B52" s="52" t="s">
+      <c r="A52" s="58"/>
+      <c r="B52" s="64" t="s">
         <v>109</v>
       </c>
       <c r="C52" s="33" t="s">
@@ -3134,8 +3134,8 @@
       <c r="I52" s="29">
         <v>42958</v>
       </c>
-      <c r="J52" s="68"/>
-      <c r="K52" s="69">
+      <c r="J52" s="41"/>
+      <c r="K52" s="42">
         <v>1</v>
       </c>
       <c r="L52" s="7">
@@ -3146,9 +3146,9 @@
       </c>
     </row>
     <row r="53" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="42"/>
-      <c r="B53" s="53"/>
-      <c r="C53" s="45" t="s">
+      <c r="A53" s="58"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="46" t="s">
         <v>29</v>
       </c>
       <c r="D53" s="33" t="s">
@@ -3165,8 +3165,8 @@
       <c r="I53" s="29">
         <v>42958</v>
       </c>
-      <c r="J53" s="68"/>
-      <c r="K53" s="69">
+      <c r="J53" s="41"/>
+      <c r="K53" s="42">
         <v>1</v>
       </c>
       <c r="L53" s="7">
@@ -3177,9 +3177,9 @@
       </c>
     </row>
     <row r="54" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="42"/>
-      <c r="B54" s="53"/>
-      <c r="C54" s="46"/>
+      <c r="A54" s="58"/>
+      <c r="B54" s="65"/>
+      <c r="C54" s="48"/>
       <c r="D54" s="33" t="s">
         <v>12</v>
       </c>
@@ -3194,8 +3194,8 @@
       <c r="I54" s="29">
         <v>42958</v>
       </c>
-      <c r="J54" s="68"/>
-      <c r="K54" s="69">
+      <c r="J54" s="41"/>
+      <c r="K54" s="42">
         <v>1</v>
       </c>
       <c r="L54" s="7">
@@ -3206,8 +3206,8 @@
       </c>
     </row>
     <row r="55" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="42"/>
-      <c r="B55" s="54"/>
+      <c r="A55" s="58"/>
+      <c r="B55" s="66"/>
       <c r="C55" s="33" t="s">
         <v>13</v>
       </c>
@@ -3223,8 +3223,8 @@
       <c r="I55" s="29">
         <v>42958</v>
       </c>
-      <c r="J55" s="68"/>
-      <c r="K55" s="69">
+      <c r="J55" s="41"/>
+      <c r="K55" s="42">
         <v>1</v>
       </c>
       <c r="L55" s="7">
@@ -3242,13 +3242,13 @@
         <f>SUM(G9:G54)</f>
         <v>28</v>
       </c>
-      <c r="J56" s="68"/>
-      <c r="K56" s="69">
+      <c r="J56" s="41"/>
+      <c r="K56" s="42">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:14" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="43" t="s">
+      <c r="A57" s="61" t="s">
         <v>69</v>
       </c>
       <c r="B57" s="36" t="s">
@@ -3265,15 +3265,15 @@
         <v>42949</v>
       </c>
       <c r="I57" s="33"/>
-      <c r="J57" s="68"/>
-      <c r="K57" s="69">
+      <c r="J57" s="41"/>
+      <c r="K57" s="42">
         <v>1</v>
       </c>
       <c r="L57" s="7"/>
       <c r="M57" s="33"/>
     </row>
     <row r="58" spans="1:14" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="44"/>
+      <c r="A58" s="62"/>
       <c r="B58" s="36" t="s">
         <v>17</v>
       </c>
@@ -3286,15 +3286,15 @@
       </c>
       <c r="H58" s="33"/>
       <c r="I58" s="33"/>
-      <c r="J58" s="68"/>
-      <c r="K58" s="69">
+      <c r="J58" s="41"/>
+      <c r="K58" s="42">
         <v>1</v>
       </c>
       <c r="L58" s="7"/>
       <c r="M58" s="33"/>
     </row>
     <row r="59" spans="1:14" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="44"/>
+      <c r="A59" s="62"/>
       <c r="B59" s="36" t="s">
         <v>18</v>
       </c>
@@ -3307,16 +3307,16 @@
       </c>
       <c r="H59" s="33"/>
       <c r="I59" s="33"/>
-      <c r="J59" s="68"/>
-      <c r="K59" s="69">
+      <c r="J59" s="41"/>
+      <c r="K59" s="42">
         <v>1</v>
       </c>
       <c r="L59" s="7"/>
       <c r="M59" s="33"/>
     </row>
     <row r="60" spans="1:14" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="44"/>
-      <c r="B60" s="55" t="s">
+      <c r="A60" s="62"/>
+      <c r="B60" s="59" t="s">
         <v>65</v>
       </c>
       <c r="C60" s="13" t="s">
@@ -3338,8 +3338,8 @@
       <c r="I60" s="29">
         <v>42982</v>
       </c>
-      <c r="J60" s="68"/>
-      <c r="K60" s="69">
+      <c r="J60" s="41"/>
+      <c r="K60" s="42">
         <v>1</v>
       </c>
       <c r="L60" s="7">
@@ -3348,11 +3348,11 @@
       <c r="M60" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="N60" s="58"/>
+      <c r="N60" s="51"/>
     </row>
     <row r="61" spans="1:14" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="44"/>
-      <c r="B61" s="56"/>
+      <c r="A61" s="62"/>
+      <c r="B61" s="60"/>
       <c r="C61" s="31" t="s">
         <v>126</v>
       </c>
@@ -3370,8 +3370,8 @@
       <c r="I61" s="29">
         <v>42979</v>
       </c>
-      <c r="J61" s="68"/>
-      <c r="K61" s="69">
+      <c r="J61" s="41"/>
+      <c r="K61" s="42">
         <v>1</v>
       </c>
       <c r="L61" s="7">
@@ -3380,12 +3380,12 @@
       <c r="M61" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="N61" s="58"/>
+      <c r="N61" s="51"/>
     </row>
     <row r="62" spans="1:14" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="44"/>
-      <c r="B62" s="56"/>
-      <c r="C62" s="45" t="s">
+      <c r="A62" s="62"/>
+      <c r="B62" s="60"/>
+      <c r="C62" s="46" t="s">
         <v>119</v>
       </c>
       <c r="D62" s="33" t="s">
@@ -3404,8 +3404,8 @@
       <c r="I62" s="29">
         <v>42982</v>
       </c>
-      <c r="J62" s="68"/>
-      <c r="K62" s="69">
+      <c r="J62" s="41"/>
+      <c r="K62" s="42">
         <v>1</v>
       </c>
       <c r="L62" s="7">
@@ -3416,9 +3416,9 @@
       </c>
     </row>
     <row r="63" spans="1:14" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="44"/>
-      <c r="B63" s="56"/>
-      <c r="C63" s="46"/>
+      <c r="A63" s="62"/>
+      <c r="B63" s="60"/>
+      <c r="C63" s="48"/>
       <c r="D63" s="33" t="s">
         <v>121</v>
       </c>
@@ -3435,8 +3435,8 @@
       <c r="I63" s="29">
         <v>42982</v>
       </c>
-      <c r="J63" s="68"/>
-      <c r="K63" s="69">
+      <c r="J63" s="41"/>
+      <c r="K63" s="42">
         <v>1</v>
       </c>
       <c r="L63" s="7">
@@ -3447,9 +3447,9 @@
       </c>
     </row>
     <row r="64" spans="1:14" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="44"/>
-      <c r="B64" s="56"/>
-      <c r="C64" s="45" t="s">
+      <c r="A64" s="62"/>
+      <c r="B64" s="60"/>
+      <c r="C64" s="46" t="s">
         <v>118</v>
       </c>
       <c r="D64" s="31" t="s">
@@ -3463,20 +3463,24 @@
       <c r="H64" s="29">
         <v>42986</v>
       </c>
-      <c r="I64" s="29"/>
-      <c r="J64" s="68"/>
-      <c r="K64" s="69">
-        <v>1</v>
-      </c>
-      <c r="L64" s="7"/>
+      <c r="I64" s="29">
+        <v>42986</v>
+      </c>
+      <c r="J64" s="41"/>
+      <c r="K64" s="42">
+        <v>1</v>
+      </c>
+      <c r="L64" s="7">
+        <v>1</v>
+      </c>
       <c r="M64" s="33" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:13" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="44"/>
-      <c r="B65" s="56"/>
-      <c r="C65" s="50"/>
+      <c r="A65" s="62"/>
+      <c r="B65" s="60"/>
+      <c r="C65" s="47"/>
       <c r="D65" s="33" t="s">
         <v>36</v>
       </c>
@@ -3493,8 +3497,8 @@
       <c r="I65" s="29">
         <v>42985</v>
       </c>
-      <c r="J65" s="68"/>
-      <c r="K65" s="69">
+      <c r="J65" s="41"/>
+      <c r="K65" s="42">
         <v>1</v>
       </c>
       <c r="L65" s="7">
@@ -3505,9 +3509,9 @@
       </c>
     </row>
     <row r="66" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="44"/>
-      <c r="B66" s="56"/>
-      <c r="C66" s="50"/>
+      <c r="A66" s="62"/>
+      <c r="B66" s="60"/>
+      <c r="C66" s="47"/>
       <c r="D66" s="33" t="s">
         <v>122</v>
       </c>
@@ -3522,8 +3526,8 @@
       <c r="I66" s="29">
         <v>42983</v>
       </c>
-      <c r="J66" s="68"/>
-      <c r="K66" s="69">
+      <c r="J66" s="41"/>
+      <c r="K66" s="42">
         <v>1</v>
       </c>
       <c r="L66" s="7">
@@ -3534,9 +3538,9 @@
       </c>
     </row>
     <row r="67" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="44"/>
-      <c r="B67" s="56"/>
-      <c r="C67" s="50"/>
+      <c r="A67" s="62"/>
+      <c r="B67" s="60"/>
+      <c r="C67" s="47"/>
       <c r="D67" s="33" t="s">
         <v>123</v>
       </c>
@@ -3553,8 +3557,8 @@
       <c r="I67" s="29">
         <v>42985</v>
       </c>
-      <c r="J67" s="68"/>
-      <c r="K67" s="69">
+      <c r="J67" s="41"/>
+      <c r="K67" s="42">
         <v>1</v>
       </c>
       <c r="L67" s="7">
@@ -3565,9 +3569,9 @@
       </c>
     </row>
     <row r="68" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="44"/>
-      <c r="B68" s="56"/>
-      <c r="C68" s="50"/>
+      <c r="A68" s="62"/>
+      <c r="B68" s="60"/>
+      <c r="C68" s="47"/>
       <c r="D68" s="33" t="s">
         <v>124</v>
       </c>
@@ -3584,8 +3588,8 @@
       <c r="I68" s="29">
         <v>42985</v>
       </c>
-      <c r="J68" s="68"/>
-      <c r="K68" s="69">
+      <c r="J68" s="41"/>
+      <c r="K68" s="42">
         <v>1</v>
       </c>
       <c r="L68" s="7">
@@ -3596,9 +3600,9 @@
       </c>
     </row>
     <row r="69" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="44"/>
-      <c r="B69" s="56"/>
-      <c r="C69" s="50"/>
+      <c r="A69" s="62"/>
+      <c r="B69" s="60"/>
+      <c r="C69" s="47"/>
       <c r="D69" s="33" t="s">
         <v>125</v>
       </c>
@@ -3615,8 +3619,8 @@
       <c r="I69" s="29">
         <v>42985</v>
       </c>
-      <c r="J69" s="68"/>
-      <c r="K69" s="69">
+      <c r="J69" s="41"/>
+      <c r="K69" s="42">
         <v>1</v>
       </c>
       <c r="L69" s="7">
@@ -3627,9 +3631,9 @@
       </c>
     </row>
     <row r="70" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="44"/>
-      <c r="B70" s="56"/>
-      <c r="C70" s="46"/>
+      <c r="A70" s="62"/>
+      <c r="B70" s="60"/>
+      <c r="C70" s="48"/>
       <c r="D70" s="11" t="s">
         <v>128</v>
       </c>
@@ -3640,17 +3644,17 @@
       </c>
       <c r="H70" s="33"/>
       <c r="I70" s="33"/>
-      <c r="J70" s="68"/>
-      <c r="K70" s="69">
+      <c r="J70" s="41"/>
+      <c r="K70" s="42">
         <v>2</v>
       </c>
       <c r="L70" s="7"/>
       <c r="M70" s="33"/>
     </row>
     <row r="71" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="44"/>
-      <c r="B71" s="56"/>
-      <c r="C71" s="45" t="s">
+      <c r="A71" s="62"/>
+      <c r="B71" s="60"/>
+      <c r="C71" s="46" t="s">
         <v>131</v>
       </c>
       <c r="D71" s="19"/>
@@ -3659,34 +3663,34 @@
       <c r="G71" s="36"/>
       <c r="H71" s="33"/>
       <c r="I71" s="33"/>
-      <c r="J71" s="68"/>
-      <c r="K71" s="69">
+      <c r="J71" s="41"/>
+      <c r="K71" s="42">
         <v>2</v>
       </c>
       <c r="L71" s="7"/>
       <c r="M71" s="33"/>
     </row>
     <row r="72" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="44"/>
-      <c r="B72" s="56"/>
-      <c r="C72" s="46"/>
+      <c r="A72" s="62"/>
+      <c r="B72" s="60"/>
+      <c r="C72" s="48"/>
       <c r="D72" s="33"/>
       <c r="E72" s="21"/>
       <c r="F72" s="33"/>
       <c r="G72" s="36"/>
       <c r="H72" s="33"/>
       <c r="I72" s="33"/>
-      <c r="J72" s="68"/>
-      <c r="K72" s="69">
+      <c r="J72" s="41"/>
+      <c r="K72" s="42">
         <v>2</v>
       </c>
       <c r="L72" s="7"/>
       <c r="M72" s="33"/>
     </row>
     <row r="73" spans="1:13" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="44"/>
-      <c r="B73" s="56"/>
-      <c r="C73" s="59" t="s">
+      <c r="A73" s="62"/>
+      <c r="B73" s="60"/>
+      <c r="C73" s="53" t="s">
         <v>46</v>
       </c>
       <c r="D73" s="11" t="s">
@@ -3699,17 +3703,17 @@
       </c>
       <c r="H73" s="11"/>
       <c r="I73" s="11"/>
-      <c r="J73" s="68"/>
-      <c r="K73" s="69">
+      <c r="J73" s="41"/>
+      <c r="K73" s="42">
         <v>2</v>
       </c>
       <c r="L73" s="12"/>
       <c r="M73" s="33"/>
     </row>
     <row r="74" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="44"/>
-      <c r="B74" s="56"/>
-      <c r="C74" s="60"/>
+      <c r="A74" s="62"/>
+      <c r="B74" s="60"/>
+      <c r="C74" s="54"/>
       <c r="D74" s="11" t="s">
         <v>48</v>
       </c>
@@ -3720,17 +3724,17 @@
       </c>
       <c r="H74" s="11"/>
       <c r="I74" s="11"/>
-      <c r="J74" s="68"/>
-      <c r="K74" s="69">
+      <c r="J74" s="41"/>
+      <c r="K74" s="42">
         <v>2</v>
       </c>
       <c r="L74" s="12"/>
       <c r="M74" s="33"/>
     </row>
     <row r="75" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="44"/>
-      <c r="B75" s="56"/>
-      <c r="C75" s="60"/>
+      <c r="A75" s="62"/>
+      <c r="B75" s="60"/>
+      <c r="C75" s="54"/>
       <c r="D75" s="11" t="s">
         <v>49</v>
       </c>
@@ -3741,17 +3745,17 @@
       </c>
       <c r="H75" s="11"/>
       <c r="I75" s="11"/>
-      <c r="J75" s="68"/>
-      <c r="K75" s="69">
+      <c r="J75" s="41"/>
+      <c r="K75" s="42">
         <v>2</v>
       </c>
       <c r="L75" s="12"/>
       <c r="M75" s="33"/>
     </row>
     <row r="76" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="44"/>
-      <c r="B76" s="56"/>
-      <c r="C76" s="60"/>
+      <c r="A76" s="62"/>
+      <c r="B76" s="60"/>
+      <c r="C76" s="54"/>
       <c r="D76" s="11" t="s">
         <v>50</v>
       </c>
@@ -3762,17 +3766,17 @@
       </c>
       <c r="H76" s="11"/>
       <c r="I76" s="11"/>
-      <c r="J76" s="68"/>
-      <c r="K76" s="69">
+      <c r="J76" s="41"/>
+      <c r="K76" s="42">
         <v>2</v>
       </c>
       <c r="L76" s="12"/>
       <c r="M76" s="33"/>
     </row>
     <row r="77" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="44"/>
-      <c r="B77" s="56"/>
-      <c r="C77" s="61"/>
+      <c r="A77" s="62"/>
+      <c r="B77" s="60"/>
+      <c r="C77" s="55"/>
       <c r="D77" s="11" t="s">
         <v>51</v>
       </c>
@@ -3783,19 +3787,19 @@
       </c>
       <c r="H77" s="11"/>
       <c r="I77" s="11"/>
-      <c r="J77" s="68"/>
-      <c r="K77" s="69">
+      <c r="J77" s="41"/>
+      <c r="K77" s="42">
         <v>2</v>
       </c>
       <c r="L77" s="12"/>
       <c r="M77" s="33"/>
     </row>
     <row r="78" spans="1:13" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="44"/>
-      <c r="B78" s="40" t="s">
+      <c r="A78" s="62"/>
+      <c r="B78" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="C78" s="62" t="s">
+      <c r="C78" s="56" t="s">
         <v>67</v>
       </c>
       <c r="D78" s="34" t="s">
@@ -3808,17 +3812,17 @@
       </c>
       <c r="H78" s="33"/>
       <c r="I78" s="33"/>
-      <c r="J78" s="68"/>
-      <c r="K78" s="69">
+      <c r="J78" s="41"/>
+      <c r="K78" s="42">
         <v>2</v>
       </c>
       <c r="L78" s="7"/>
       <c r="M78" s="33"/>
     </row>
     <row r="79" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="44"/>
-      <c r="B79" s="41"/>
-      <c r="C79" s="63"/>
+      <c r="A79" s="62"/>
+      <c r="B79" s="69"/>
+      <c r="C79" s="57"/>
       <c r="D79" s="34" t="s">
         <v>53</v>
       </c>
@@ -3829,17 +3833,17 @@
       </c>
       <c r="H79" s="33"/>
       <c r="I79" s="33"/>
-      <c r="J79" s="68"/>
-      <c r="K79" s="69">
+      <c r="J79" s="41"/>
+      <c r="K79" s="42">
         <v>2</v>
       </c>
       <c r="L79" s="7"/>
       <c r="M79" s="33"/>
     </row>
     <row r="80" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="44"/>
-      <c r="B80" s="41"/>
-      <c r="C80" s="63"/>
+      <c r="A80" s="62"/>
+      <c r="B80" s="69"/>
+      <c r="C80" s="57"/>
       <c r="D80" s="34" t="s">
         <v>50</v>
       </c>
@@ -3848,17 +3852,17 @@
       </c>
       <c r="H80" s="33"/>
       <c r="I80" s="33"/>
-      <c r="J80" s="68"/>
-      <c r="K80" s="69">
+      <c r="J80" s="41"/>
+      <c r="K80" s="42">
         <v>2</v>
       </c>
       <c r="L80" s="7"/>
       <c r="M80" s="33"/>
     </row>
     <row r="81" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="44"/>
-      <c r="B81" s="41"/>
-      <c r="C81" s="63"/>
+      <c r="A81" s="62"/>
+      <c r="B81" s="69"/>
+      <c r="C81" s="57"/>
       <c r="D81" s="34" t="s">
         <v>54</v>
       </c>
@@ -3867,20 +3871,20 @@
       </c>
       <c r="H81" s="33"/>
       <c r="I81" s="33"/>
-      <c r="J81" s="68"/>
-      <c r="K81" s="69">
+      <c r="J81" s="41"/>
+      <c r="K81" s="42">
         <v>2</v>
       </c>
       <c r="L81" s="7"/>
       <c r="M81" s="33"/>
     </row>
     <row r="82" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="44"/>
-      <c r="B82" s="41"/>
-      <c r="C82" s="51" t="s">
+      <c r="A82" s="62"/>
+      <c r="B82" s="69"/>
+      <c r="C82" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="D82" s="45" t="s">
+      <c r="D82" s="46" t="s">
         <v>55</v>
       </c>
       <c r="E82" s="33" t="s">
@@ -3898,8 +3902,8 @@
       <c r="I82" s="29">
         <v>42972</v>
       </c>
-      <c r="J82" s="68"/>
-      <c r="K82" s="69">
+      <c r="J82" s="41"/>
+      <c r="K82" s="42">
         <v>1</v>
       </c>
       <c r="L82" s="7">
@@ -3910,11 +3914,11 @@
       </c>
     </row>
     <row r="83" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="44"/>
-      <c r="B83" s="41"/>
-      <c r="C83" s="51"/>
-      <c r="D83" s="50"/>
-      <c r="E83" s="45" t="s">
+      <c r="A83" s="62"/>
+      <c r="B83" s="69"/>
+      <c r="C83" s="52"/>
+      <c r="D83" s="47"/>
+      <c r="E83" s="46" t="s">
         <v>29</v>
       </c>
       <c r="F83" s="33" t="s">
@@ -3929,8 +3933,8 @@
       <c r="I83" s="29">
         <v>42978</v>
       </c>
-      <c r="J83" s="68"/>
-      <c r="K83" s="69">
+      <c r="J83" s="41"/>
+      <c r="K83" s="42">
         <v>1</v>
       </c>
       <c r="L83" s="7">
@@ -3941,11 +3945,11 @@
       </c>
     </row>
     <row r="84" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="44"/>
-      <c r="B84" s="41"/>
-      <c r="C84" s="51"/>
-      <c r="D84" s="50"/>
-      <c r="E84" s="46"/>
+      <c r="A84" s="62"/>
+      <c r="B84" s="69"/>
+      <c r="C84" s="52"/>
+      <c r="D84" s="47"/>
+      <c r="E84" s="48"/>
       <c r="F84" s="33" t="s">
         <v>12</v>
       </c>
@@ -3958,8 +3962,8 @@
       <c r="I84" s="29">
         <v>42978</v>
       </c>
-      <c r="J84" s="68"/>
-      <c r="K84" s="69">
+      <c r="J84" s="41"/>
+      <c r="K84" s="42">
         <v>1</v>
       </c>
       <c r="L84" s="7">
@@ -3970,10 +3974,10 @@
       </c>
     </row>
     <row r="85" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="44"/>
-      <c r="B85" s="41"/>
-      <c r="C85" s="51"/>
-      <c r="D85" s="50"/>
+      <c r="A85" s="62"/>
+      <c r="B85" s="69"/>
+      <c r="C85" s="52"/>
+      <c r="D85" s="47"/>
       <c r="E85" s="33" t="s">
         <v>13</v>
       </c>
@@ -3987,8 +3991,8 @@
       <c r="I85" s="29">
         <v>42978</v>
       </c>
-      <c r="J85" s="68"/>
-      <c r="K85" s="69">
+      <c r="J85" s="41"/>
+      <c r="K85" s="42">
         <v>1</v>
       </c>
       <c r="L85" s="7">
@@ -3999,10 +4003,10 @@
       </c>
     </row>
     <row r="86" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="44"/>
-      <c r="B86" s="41"/>
-      <c r="C86" s="51"/>
-      <c r="D86" s="50"/>
+      <c r="A86" s="62"/>
+      <c r="B86" s="69"/>
+      <c r="C86" s="52"/>
+      <c r="D86" s="47"/>
       <c r="E86" s="33" t="s">
         <v>111</v>
       </c>
@@ -4016,8 +4020,8 @@
       <c r="I86" s="29">
         <v>42978</v>
       </c>
-      <c r="J86" s="68"/>
-      <c r="K86" s="69">
+      <c r="J86" s="41"/>
+      <c r="K86" s="42">
         <v>1</v>
       </c>
       <c r="L86" s="7">
@@ -4028,10 +4032,10 @@
       </c>
     </row>
     <row r="87" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="44"/>
-      <c r="B87" s="41"/>
-      <c r="C87" s="51"/>
-      <c r="D87" s="50"/>
+      <c r="A87" s="62"/>
+      <c r="B87" s="69"/>
+      <c r="C87" s="52"/>
+      <c r="D87" s="47"/>
       <c r="E87" s="33" t="s">
         <v>112</v>
       </c>
@@ -4041,8 +4045,8 @@
       </c>
       <c r="H87" s="33"/>
       <c r="I87" s="33"/>
-      <c r="J87" s="68"/>
-      <c r="K87" s="69">
+      <c r="J87" s="41"/>
+      <c r="K87" s="42">
         <v>2</v>
       </c>
       <c r="L87" s="7">
@@ -4051,10 +4055,10 @@
       <c r="M87" s="33"/>
     </row>
     <row r="88" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="44"/>
-      <c r="B88" s="41"/>
-      <c r="C88" s="51"/>
-      <c r="D88" s="50"/>
+      <c r="A88" s="62"/>
+      <c r="B88" s="69"/>
+      <c r="C88" s="52"/>
+      <c r="D88" s="47"/>
       <c r="E88" s="31" t="s">
         <v>113</v>
       </c>
@@ -4064,8 +4068,8 @@
       </c>
       <c r="H88" s="29"/>
       <c r="I88" s="29"/>
-      <c r="J88" s="68"/>
-      <c r="K88" s="69">
+      <c r="J88" s="41"/>
+      <c r="K88" s="42">
         <v>1</v>
       </c>
       <c r="L88" s="7"/>
@@ -4074,11 +4078,11 @@
       </c>
     </row>
     <row r="89" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="44"/>
-      <c r="B89" s="41"/>
-      <c r="C89" s="51"/>
-      <c r="D89" s="50"/>
-      <c r="E89" s="45" t="s">
+      <c r="A89" s="62"/>
+      <c r="B89" s="69"/>
+      <c r="C89" s="52"/>
+      <c r="D89" s="47"/>
+      <c r="E89" s="46" t="s">
         <v>114</v>
       </c>
       <c r="F89" s="33" t="s">
@@ -4093,8 +4097,8 @@
       <c r="I89" s="29">
         <v>42978</v>
       </c>
-      <c r="J89" s="68"/>
-      <c r="K89" s="69">
+      <c r="J89" s="41"/>
+      <c r="K89" s="42">
         <v>1</v>
       </c>
       <c r="L89" s="7">
@@ -4105,11 +4109,11 @@
       </c>
     </row>
     <row r="90" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="44"/>
-      <c r="B90" s="41"/>
-      <c r="C90" s="51"/>
-      <c r="D90" s="50"/>
-      <c r="E90" s="50"/>
+      <c r="A90" s="62"/>
+      <c r="B90" s="69"/>
+      <c r="C90" s="52"/>
+      <c r="D90" s="47"/>
+      <c r="E90" s="47"/>
       <c r="F90" s="33" t="s">
         <v>116</v>
       </c>
@@ -4122,8 +4126,8 @@
       <c r="I90" s="29">
         <v>42978</v>
       </c>
-      <c r="J90" s="68"/>
-      <c r="K90" s="69">
+      <c r="J90" s="41"/>
+      <c r="K90" s="42">
         <v>1</v>
       </c>
       <c r="L90" s="7">
@@ -4134,11 +4138,11 @@
       </c>
     </row>
     <row r="91" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="44"/>
-      <c r="B91" s="41"/>
-      <c r="C91" s="51"/>
-      <c r="D91" s="46"/>
-      <c r="E91" s="46"/>
+      <c r="A91" s="62"/>
+      <c r="B91" s="69"/>
+      <c r="C91" s="52"/>
+      <c r="D91" s="48"/>
+      <c r="E91" s="48"/>
       <c r="F91" s="33" t="s">
         <v>117</v>
       </c>
@@ -4151,8 +4155,8 @@
       <c r="I91" s="29">
         <v>42978</v>
       </c>
-      <c r="J91" s="68"/>
-      <c r="K91" s="69">
+      <c r="J91" s="41"/>
+      <c r="K91" s="42">
         <v>1</v>
       </c>
       <c r="L91" s="7">
@@ -4163,10 +4167,10 @@
       </c>
     </row>
     <row r="92" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="44"/>
-      <c r="B92" s="41"/>
-      <c r="C92" s="51"/>
-      <c r="D92" s="45" t="s">
+      <c r="A92" s="62"/>
+      <c r="B92" s="69"/>
+      <c r="C92" s="52"/>
+      <c r="D92" s="46" t="s">
         <v>84</v>
       </c>
       <c r="E92" s="33" t="s">
@@ -4178,18 +4182,18 @@
       </c>
       <c r="H92" s="33"/>
       <c r="I92" s="33"/>
-      <c r="J92" s="68"/>
-      <c r="K92" s="69">
+      <c r="J92" s="41"/>
+      <c r="K92" s="42">
         <v>2</v>
       </c>
       <c r="L92" s="7"/>
       <c r="M92" s="33"/>
     </row>
     <row r="93" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="44"/>
-      <c r="B93" s="41"/>
-      <c r="C93" s="51"/>
-      <c r="D93" s="46"/>
+      <c r="A93" s="62"/>
+      <c r="B93" s="69"/>
+      <c r="C93" s="52"/>
+      <c r="D93" s="48"/>
       <c r="E93" s="33" t="s">
         <v>45</v>
       </c>
@@ -4201,18 +4205,18 @@
       </c>
       <c r="H93" s="33"/>
       <c r="I93" s="33"/>
-      <c r="J93" s="68"/>
-      <c r="K93" s="69">
+      <c r="J93" s="41"/>
+      <c r="K93" s="42">
         <v>2</v>
       </c>
       <c r="L93" s="7"/>
       <c r="M93" s="33"/>
     </row>
     <row r="94" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="44"/>
-      <c r="B94" s="41"/>
-      <c r="C94" s="51"/>
-      <c r="D94" s="45" t="s">
+      <c r="A94" s="62"/>
+      <c r="B94" s="69"/>
+      <c r="C94" s="52"/>
+      <c r="D94" s="46" t="s">
         <v>96</v>
       </c>
       <c r="E94" s="33" t="s">
@@ -4230,8 +4234,8 @@
       <c r="I94" s="29">
         <v>42971</v>
       </c>
-      <c r="J94" s="68"/>
-      <c r="K94" s="69">
+      <c r="J94" s="41"/>
+      <c r="K94" s="42">
         <v>1</v>
       </c>
       <c r="L94" s="7">
@@ -4242,11 +4246,11 @@
       </c>
     </row>
     <row r="95" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="44"/>
-      <c r="B95" s="41"/>
-      <c r="C95" s="51"/>
-      <c r="D95" s="50"/>
-      <c r="E95" s="45" t="s">
+      <c r="A95" s="62"/>
+      <c r="B95" s="69"/>
+      <c r="C95" s="52"/>
+      <c r="D95" s="47"/>
+      <c r="E95" s="46" t="s">
         <v>29</v>
       </c>
       <c r="F95" s="33" t="s">
@@ -4261,8 +4265,8 @@
       <c r="I95" s="29">
         <v>42971</v>
       </c>
-      <c r="J95" s="68"/>
-      <c r="K95" s="69">
+      <c r="J95" s="41"/>
+      <c r="K95" s="42">
         <v>1</v>
       </c>
       <c r="L95" s="7">
@@ -4273,11 +4277,11 @@
       </c>
     </row>
     <row r="96" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="44"/>
-      <c r="B96" s="41"/>
-      <c r="C96" s="51"/>
-      <c r="D96" s="50"/>
-      <c r="E96" s="46"/>
+      <c r="A96" s="62"/>
+      <c r="B96" s="69"/>
+      <c r="C96" s="52"/>
+      <c r="D96" s="47"/>
+      <c r="E96" s="48"/>
       <c r="F96" s="33" t="s">
         <v>12</v>
       </c>
@@ -4290,8 +4294,8 @@
       <c r="I96" s="29">
         <v>42971</v>
       </c>
-      <c r="J96" s="68"/>
-      <c r="K96" s="69">
+      <c r="J96" s="41"/>
+      <c r="K96" s="42">
         <v>1</v>
       </c>
       <c r="L96" s="7">
@@ -4302,10 +4306,10 @@
       </c>
     </row>
     <row r="97" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="44"/>
-      <c r="B97" s="41"/>
-      <c r="C97" s="51"/>
-      <c r="D97" s="46"/>
+      <c r="A97" s="62"/>
+      <c r="B97" s="69"/>
+      <c r="C97" s="52"/>
+      <c r="D97" s="48"/>
       <c r="E97" s="33" t="s">
         <v>13</v>
       </c>
@@ -4319,8 +4323,8 @@
       <c r="I97" s="29">
         <v>42971</v>
       </c>
-      <c r="J97" s="68"/>
-      <c r="K97" s="69">
+      <c r="J97" s="41"/>
+      <c r="K97" s="42">
         <v>1</v>
       </c>
       <c r="L97" s="7">
@@ -4338,11 +4342,11 @@
         <f>SUM(G57:G97)</f>
         <v>21.3</v>
       </c>
-      <c r="J98" s="68"/>
-      <c r="K98" s="69"/>
+      <c r="J98" s="41"/>
+      <c r="K98" s="42"/>
     </row>
     <row r="99" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="42" t="s">
+      <c r="A99" s="58" t="s">
         <v>63</v>
       </c>
       <c r="B99" s="36" t="s">
@@ -4357,8 +4361,8 @@
       </c>
       <c r="H99" s="33"/>
       <c r="I99" s="33"/>
-      <c r="J99" s="68"/>
-      <c r="K99" s="69">
+      <c r="J99" s="41"/>
+      <c r="K99" s="42">
         <v>1</v>
       </c>
       <c r="L99" s="7"/>
@@ -4367,7 +4371,7 @@
       </c>
     </row>
     <row r="100" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="42"/>
+      <c r="A100" s="58"/>
       <c r="B100" s="36" t="s">
         <v>17</v>
       </c>
@@ -4380,8 +4384,8 @@
       </c>
       <c r="H100" s="33"/>
       <c r="I100" s="33"/>
-      <c r="J100" s="68"/>
-      <c r="K100" s="69">
+      <c r="J100" s="41"/>
+      <c r="K100" s="42">
         <v>1</v>
       </c>
       <c r="L100" s="7"/>
@@ -4390,7 +4394,7 @@
       </c>
     </row>
     <row r="101" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="42"/>
+      <c r="A101" s="58"/>
       <c r="B101" s="36" t="s">
         <v>18</v>
       </c>
@@ -4403,8 +4407,8 @@
       </c>
       <c r="H101" s="33"/>
       <c r="I101" s="33"/>
-      <c r="J101" s="68"/>
-      <c r="K101" s="69">
+      <c r="J101" s="41"/>
+      <c r="K101" s="42">
         <v>1</v>
       </c>
       <c r="L101" s="7"/>
@@ -4413,11 +4417,11 @@
       </c>
     </row>
     <row r="102" spans="1:13" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="42"/>
-      <c r="B102" s="40" t="s">
+      <c r="A102" s="58"/>
+      <c r="B102" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="C102" s="45" t="s">
+      <c r="C102" s="46" t="s">
         <v>33</v>
       </c>
       <c r="D102" s="33" t="s">
@@ -4432,8 +4436,8 @@
       </c>
       <c r="H102" s="33"/>
       <c r="I102" s="33"/>
-      <c r="J102" s="68"/>
-      <c r="K102" s="69">
+      <c r="J102" s="41"/>
+      <c r="K102" s="42">
         <v>1</v>
       </c>
       <c r="L102" s="7">
@@ -4444,10 +4448,10 @@
       </c>
     </row>
     <row r="103" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="42"/>
-      <c r="B103" s="41"/>
-      <c r="C103" s="50"/>
-      <c r="D103" s="37" t="s">
+      <c r="A103" s="58"/>
+      <c r="B103" s="69"/>
+      <c r="C103" s="47"/>
+      <c r="D103" s="49" t="s">
         <v>38</v>
       </c>
       <c r="E103" s="33" t="s">
@@ -4459,8 +4463,8 @@
       </c>
       <c r="H103" s="33"/>
       <c r="I103" s="33"/>
-      <c r="J103" s="68"/>
-      <c r="K103" s="69">
+      <c r="J103" s="41"/>
+      <c r="K103" s="42">
         <v>2</v>
       </c>
       <c r="L103" s="7"/>
@@ -4469,10 +4473,10 @@
       </c>
     </row>
     <row r="104" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="42"/>
-      <c r="B104" s="41"/>
-      <c r="C104" s="46"/>
-      <c r="D104" s="39"/>
+      <c r="A104" s="58"/>
+      <c r="B104" s="69"/>
+      <c r="C104" s="48"/>
+      <c r="D104" s="50"/>
       <c r="E104" s="33" t="s">
         <v>40</v>
       </c>
@@ -4482,8 +4486,8 @@
       </c>
       <c r="H104" s="33"/>
       <c r="I104" s="33"/>
-      <c r="J104" s="68"/>
-      <c r="K104" s="69">
+      <c r="J104" s="41"/>
+      <c r="K104" s="42">
         <v>2</v>
       </c>
       <c r="L104" s="7"/>
@@ -4492,9 +4496,9 @@
       </c>
     </row>
     <row r="105" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="42"/>
-      <c r="B105" s="41"/>
-      <c r="C105" s="45" t="s">
+      <c r="A105" s="58"/>
+      <c r="B105" s="69"/>
+      <c r="C105" s="46" t="s">
         <v>42</v>
       </c>
       <c r="D105" s="33" t="s">
@@ -4509,8 +4513,8 @@
       </c>
       <c r="H105" s="33"/>
       <c r="I105" s="33"/>
-      <c r="J105" s="68"/>
-      <c r="K105" s="69">
+      <c r="J105" s="41"/>
+      <c r="K105" s="42">
         <v>2</v>
       </c>
       <c r="L105" s="7"/>
@@ -4519,10 +4523,10 @@
       </c>
     </row>
     <row r="106" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="42"/>
-      <c r="B106" s="41"/>
-      <c r="C106" s="50"/>
-      <c r="D106" s="37" t="s">
+      <c r="A106" s="58"/>
+      <c r="B106" s="69"/>
+      <c r="C106" s="47"/>
+      <c r="D106" s="49" t="s">
         <v>38</v>
       </c>
       <c r="E106" s="33" t="s">
@@ -4534,8 +4538,8 @@
       </c>
       <c r="H106" s="33"/>
       <c r="I106" s="33"/>
-      <c r="J106" s="68"/>
-      <c r="K106" s="69">
+      <c r="J106" s="41"/>
+      <c r="K106" s="42">
         <v>2</v>
       </c>
       <c r="L106" s="7"/>
@@ -4544,10 +4548,10 @@
       </c>
     </row>
     <row r="107" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="42"/>
-      <c r="B107" s="41"/>
-      <c r="C107" s="50"/>
-      <c r="D107" s="38"/>
+      <c r="A107" s="58"/>
+      <c r="B107" s="69"/>
+      <c r="C107" s="47"/>
+      <c r="D107" s="67"/>
       <c r="E107" s="33" t="s">
         <v>40</v>
       </c>
@@ -4557,8 +4561,8 @@
       </c>
       <c r="H107" s="33"/>
       <c r="I107" s="33"/>
-      <c r="J107" s="68"/>
-      <c r="K107" s="69">
+      <c r="J107" s="41"/>
+      <c r="K107" s="42">
         <v>2</v>
       </c>
       <c r="L107" s="7"/>
@@ -4567,10 +4571,10 @@
       </c>
     </row>
     <row r="108" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="42"/>
-      <c r="B108" s="41"/>
-      <c r="C108" s="46"/>
-      <c r="D108" s="39"/>
+      <c r="A108" s="58"/>
+      <c r="B108" s="69"/>
+      <c r="C108" s="48"/>
+      <c r="D108" s="50"/>
       <c r="E108" s="33" t="s">
         <v>44</v>
       </c>
@@ -4580,8 +4584,8 @@
       </c>
       <c r="H108" s="33"/>
       <c r="I108" s="33"/>
-      <c r="J108" s="68"/>
-      <c r="K108" s="69">
+      <c r="J108" s="41"/>
+      <c r="K108" s="42">
         <v>2</v>
       </c>
       <c r="L108" s="7"/>
@@ -4590,9 +4594,9 @@
       </c>
     </row>
     <row r="109" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="42"/>
-      <c r="B109" s="41"/>
-      <c r="C109" s="51" t="s">
+      <c r="A109" s="58"/>
+      <c r="B109" s="69"/>
+      <c r="C109" s="52" t="s">
         <v>64</v>
       </c>
       <c r="D109" s="33" t="s">
@@ -4605,8 +4609,8 @@
       </c>
       <c r="H109" s="33"/>
       <c r="I109" s="33"/>
-      <c r="J109" s="68"/>
-      <c r="K109" s="69">
+      <c r="J109" s="41"/>
+      <c r="K109" s="42">
         <v>1</v>
       </c>
       <c r="L109" s="7">
@@ -4617,9 +4621,9 @@
       </c>
     </row>
     <row r="110" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="42"/>
-      <c r="B110" s="41"/>
-      <c r="C110" s="47"/>
+      <c r="A110" s="58"/>
+      <c r="B110" s="69"/>
+      <c r="C110" s="72"/>
       <c r="D110" s="33" t="s">
         <v>57</v>
       </c>
@@ -4630,8 +4634,8 @@
       </c>
       <c r="H110" s="33"/>
       <c r="I110" s="33"/>
-      <c r="J110" s="68"/>
-      <c r="K110" s="69">
+      <c r="J110" s="41"/>
+      <c r="K110" s="42">
         <v>1</v>
       </c>
       <c r="L110" s="7">
@@ -4642,8 +4646,8 @@
       </c>
     </row>
     <row r="111" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="42"/>
-      <c r="B111" s="41"/>
+      <c r="A111" s="58"/>
+      <c r="B111" s="69"/>
       <c r="C111" s="33" t="s">
         <v>77</v>
       </c>
@@ -4655,8 +4659,8 @@
       </c>
       <c r="H111" s="33"/>
       <c r="I111" s="33"/>
-      <c r="J111" s="68"/>
-      <c r="K111" s="69">
+      <c r="J111" s="41"/>
+      <c r="K111" s="42">
         <v>1</v>
       </c>
       <c r="L111" s="7">
@@ -4667,11 +4671,11 @@
       </c>
     </row>
     <row r="112" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="42"/>
-      <c r="B112" s="40" t="s">
+      <c r="A112" s="58"/>
+      <c r="B112" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="C112" s="45" t="s">
+      <c r="C112" s="46" t="s">
         <v>58</v>
       </c>
       <c r="D112" s="13" t="s">
@@ -4686,8 +4690,8 @@
       </c>
       <c r="H112" s="33"/>
       <c r="I112" s="33"/>
-      <c r="J112" s="68"/>
-      <c r="K112" s="69">
+      <c r="J112" s="41"/>
+      <c r="K112" s="42">
         <v>1</v>
       </c>
       <c r="L112" s="7">
@@ -4698,10 +4702,10 @@
       </c>
     </row>
     <row r="113" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="42"/>
-      <c r="B113" s="40"/>
-      <c r="C113" s="50"/>
-      <c r="D113" s="48" t="s">
+      <c r="A113" s="58"/>
+      <c r="B113" s="68"/>
+      <c r="C113" s="47"/>
+      <c r="D113" s="70" t="s">
         <v>29</v>
       </c>
       <c r="E113" s="33" t="s">
@@ -4713,8 +4717,8 @@
       </c>
       <c r="H113" s="33"/>
       <c r="I113" s="33"/>
-      <c r="J113" s="68"/>
-      <c r="K113" s="69">
+      <c r="J113" s="41"/>
+      <c r="K113" s="42">
         <v>1</v>
       </c>
       <c r="L113" s="7">
@@ -4725,10 +4729,10 @@
       </c>
     </row>
     <row r="114" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="42"/>
-      <c r="B114" s="40"/>
-      <c r="C114" s="50"/>
-      <c r="D114" s="49"/>
+      <c r="A114" s="58"/>
+      <c r="B114" s="68"/>
+      <c r="C114" s="47"/>
+      <c r="D114" s="71"/>
       <c r="E114" s="33" t="s">
         <v>12</v>
       </c>
@@ -4738,8 +4742,8 @@
       </c>
       <c r="H114" s="33"/>
       <c r="I114" s="33"/>
-      <c r="J114" s="68"/>
-      <c r="K114" s="69">
+      <c r="J114" s="41"/>
+      <c r="K114" s="42">
         <v>1</v>
       </c>
       <c r="L114" s="7">
@@ -4750,9 +4754,9 @@
       </c>
     </row>
     <row r="115" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="42"/>
-      <c r="B115" s="40"/>
-      <c r="C115" s="50"/>
+      <c r="A115" s="58"/>
+      <c r="B115" s="68"/>
+      <c r="C115" s="47"/>
       <c r="D115" s="13" t="s">
         <v>13</v>
       </c>
@@ -4763,8 +4767,8 @@
       </c>
       <c r="H115" s="33"/>
       <c r="I115" s="33"/>
-      <c r="J115" s="68"/>
-      <c r="K115" s="69">
+      <c r="J115" s="41"/>
+      <c r="K115" s="42">
         <v>1</v>
       </c>
       <c r="L115" s="7">
@@ -4775,9 +4779,9 @@
       </c>
     </row>
     <row r="116" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="42"/>
-      <c r="B116" s="40"/>
-      <c r="C116" s="50"/>
+      <c r="A116" s="58"/>
+      <c r="B116" s="68"/>
+      <c r="C116" s="47"/>
       <c r="D116" s="13" t="s">
         <v>25</v>
       </c>
@@ -4788,8 +4792,8 @@
       </c>
       <c r="H116" s="33"/>
       <c r="I116" s="33"/>
-      <c r="J116" s="68"/>
-      <c r="K116" s="69">
+      <c r="J116" s="41"/>
+      <c r="K116" s="42">
         <v>1</v>
       </c>
       <c r="L116" s="7">
@@ -4800,9 +4804,9 @@
       </c>
     </row>
     <row r="117" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="42"/>
-      <c r="B117" s="40"/>
-      <c r="C117" s="50"/>
+      <c r="A117" s="58"/>
+      <c r="B117" s="68"/>
+      <c r="C117" s="47"/>
       <c r="D117" s="13" t="s">
         <v>24</v>
       </c>
@@ -4813,8 +4817,8 @@
       </c>
       <c r="H117" s="33"/>
       <c r="I117" s="33"/>
-      <c r="J117" s="68"/>
-      <c r="K117" s="69">
+      <c r="J117" s="41"/>
+      <c r="K117" s="42">
         <v>1</v>
       </c>
       <c r="L117" s="7">
@@ -4825,9 +4829,9 @@
       </c>
     </row>
     <row r="118" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="42"/>
-      <c r="B118" s="40"/>
-      <c r="C118" s="46"/>
+      <c r="A118" s="58"/>
+      <c r="B118" s="68"/>
+      <c r="C118" s="48"/>
       <c r="D118" s="13" t="s">
         <v>26</v>
       </c>
@@ -4838,8 +4842,8 @@
       </c>
       <c r="H118" s="33"/>
       <c r="I118" s="33"/>
-      <c r="J118" s="68"/>
-      <c r="K118" s="69">
+      <c r="J118" s="41"/>
+      <c r="K118" s="42">
         <v>1</v>
       </c>
       <c r="L118" s="7">
@@ -4850,9 +4854,9 @@
       </c>
     </row>
     <row r="119" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="42"/>
-      <c r="B119" s="41"/>
-      <c r="C119" s="45" t="s">
+      <c r="A119" s="58"/>
+      <c r="B119" s="69"/>
+      <c r="C119" s="46" t="s">
         <v>81</v>
       </c>
       <c r="D119" s="13" t="s">
@@ -4867,8 +4871,8 @@
       </c>
       <c r="H119" s="33"/>
       <c r="I119" s="33"/>
-      <c r="J119" s="68"/>
-      <c r="K119" s="69">
+      <c r="J119" s="41"/>
+      <c r="K119" s="42">
         <v>1</v>
       </c>
       <c r="L119" s="7">
@@ -4879,10 +4883,10 @@
       </c>
     </row>
     <row r="120" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="42"/>
-      <c r="B120" s="41"/>
-      <c r="C120" s="50"/>
-      <c r="D120" s="48" t="s">
+      <c r="A120" s="58"/>
+      <c r="B120" s="69"/>
+      <c r="C120" s="47"/>
+      <c r="D120" s="70" t="s">
         <v>29</v>
       </c>
       <c r="E120" s="33" t="s">
@@ -4894,8 +4898,8 @@
       </c>
       <c r="H120" s="33"/>
       <c r="I120" s="33"/>
-      <c r="J120" s="68"/>
-      <c r="K120" s="69">
+      <c r="J120" s="41"/>
+      <c r="K120" s="42">
         <v>1</v>
       </c>
       <c r="L120" s="7">
@@ -4906,10 +4910,10 @@
       </c>
     </row>
     <row r="121" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="42"/>
-      <c r="B121" s="41"/>
-      <c r="C121" s="50"/>
-      <c r="D121" s="49"/>
+      <c r="A121" s="58"/>
+      <c r="B121" s="69"/>
+      <c r="C121" s="47"/>
+      <c r="D121" s="71"/>
       <c r="E121" s="33" t="s">
         <v>12</v>
       </c>
@@ -4919,8 +4923,8 @@
       </c>
       <c r="H121" s="33"/>
       <c r="I121" s="33"/>
-      <c r="J121" s="68"/>
-      <c r="K121" s="69">
+      <c r="J121" s="41"/>
+      <c r="K121" s="42">
         <v>1</v>
       </c>
       <c r="L121" s="7">
@@ -4931,9 +4935,9 @@
       </c>
     </row>
     <row r="122" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="42"/>
-      <c r="B122" s="41"/>
-      <c r="C122" s="46"/>
+      <c r="A122" s="58"/>
+      <c r="B122" s="69"/>
+      <c r="C122" s="48"/>
       <c r="D122" s="13" t="s">
         <v>13</v>
       </c>
@@ -4944,8 +4948,8 @@
       </c>
       <c r="H122" s="33"/>
       <c r="I122" s="33"/>
-      <c r="J122" s="68"/>
-      <c r="K122" s="69">
+      <c r="J122" s="41"/>
+      <c r="K122" s="42">
         <v>1</v>
       </c>
       <c r="L122" s="7">
@@ -4956,8 +4960,8 @@
       </c>
     </row>
     <row r="123" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="42"/>
-      <c r="B123" s="41"/>
+      <c r="A123" s="58"/>
+      <c r="B123" s="69"/>
       <c r="C123" s="24" t="s">
         <v>59</v>
       </c>
@@ -4969,16 +4973,16 @@
       </c>
       <c r="H123" s="24"/>
       <c r="I123" s="24"/>
-      <c r="J123" s="70"/>
-      <c r="K123" s="69">
+      <c r="J123" s="43"/>
+      <c r="K123" s="42">
         <v>2</v>
       </c>
       <c r="L123" s="7"/>
       <c r="M123" s="33"/>
     </row>
     <row r="124" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="42"/>
-      <c r="B124" s="41"/>
+      <c r="A124" s="58"/>
+      <c r="B124" s="69"/>
       <c r="C124" s="24" t="s">
         <v>60</v>
       </c>
@@ -4990,16 +4994,16 @@
       </c>
       <c r="H124" s="24"/>
       <c r="I124" s="24"/>
-      <c r="J124" s="70"/>
-      <c r="K124" s="69">
+      <c r="J124" s="43"/>
+      <c r="K124" s="42">
         <v>2</v>
       </c>
       <c r="L124" s="7"/>
       <c r="M124" s="33"/>
     </row>
     <row r="125" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="42"/>
-      <c r="B125" s="41"/>
+      <c r="A125" s="58"/>
+      <c r="B125" s="69"/>
       <c r="C125" s="24" t="s">
         <v>61</v>
       </c>
@@ -5011,16 +5015,16 @@
       </c>
       <c r="H125" s="24"/>
       <c r="I125" s="24"/>
-      <c r="J125" s="70"/>
-      <c r="K125" s="69">
+      <c r="J125" s="43"/>
+      <c r="K125" s="42">
         <v>2</v>
       </c>
       <c r="L125" s="7"/>
       <c r="M125" s="33"/>
     </row>
     <row r="126" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="42"/>
-      <c r="B126" s="41"/>
+      <c r="A126" s="58"/>
+      <c r="B126" s="69"/>
       <c r="C126" s="24" t="s">
         <v>62</v>
       </c>
@@ -5032,8 +5036,8 @@
       </c>
       <c r="H126" s="24"/>
       <c r="I126" s="2